--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F663462-EA18-4AB6-97E3-3E50B0F6A166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F93215-4849-46D5-A1B7-1D304E5571FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="358">
   <si>
     <t>Company Info:</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Ticker:</t>
   </si>
   <si>
+    <t>0017.HK</t>
+  </si>
+  <si>
     <t>Listing Location:</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>Ticker Name:</t>
   </si>
   <si>
+    <t>NEW WORLD DEV</t>
+  </si>
+  <si>
     <t>Current Price:</t>
   </si>
   <si>
@@ -117,7 +123,7 @@
     <t>Reporting Currency:</t>
   </si>
   <si>
-    <t>Required Margin of Safety</t>
+    <t>Required return in 2 years</t>
   </si>
   <si>
     <t>Exchange Rate:</t>
@@ -126,13 +132,16 @@
     <t>Valuation Output:</t>
   </si>
   <si>
+    <t>FCF Value =</t>
+  </si>
+  <si>
     <t>PE</t>
   </si>
   <si>
     <t>PB</t>
   </si>
   <si>
-    <t>Realizable VPS</t>
+    <t>Return</t>
   </si>
   <si>
     <t>Margin of Safty</t>
@@ -141,9 +150,36 @@
     <t>Excess Return</t>
   </si>
   <si>
+    <t>Frd. Dividend</t>
+  </si>
+  <si>
     <t>Dividend Yield:</t>
   </si>
   <si>
+    <t>Price Expectation Analysis</t>
+  </si>
+  <si>
+    <t>Op. Assets</t>
+  </si>
+  <si>
+    <t>Non-op. Assets</t>
+  </si>
+  <si>
+    <t>⇒</t>
+  </si>
+  <si>
+    <t>Cash like</t>
+  </si>
+  <si>
+    <t>Net Non-op.</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>Stock Analysis:</t>
   </si>
   <si>
@@ -423,6 +459,12 @@
     <t>Equity per books  =</t>
   </si>
   <si>
+    <t>NAVPS =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minority Interest = </t>
+  </si>
+  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -462,33 +504,45 @@
     <t>ST Borrowing</t>
   </si>
   <si>
+    <t>Restricted cash or deposit</t>
+  </si>
+  <si>
+    <t>ST Lease liabilities</t>
+  </si>
+  <si>
+    <t>Customer prepay. &amp; deposits</t>
+  </si>
+  <si>
+    <t>ST SH Loan</t>
+  </si>
+  <si>
     <t>ST FV Investments</t>
   </si>
   <si>
+    <t>ST Derivatives</t>
+  </si>
+  <si>
     <t>ST non-FV Investments</t>
   </si>
   <si>
-    <t>ST Lease liabilities</t>
+    <t>Other ST liabilities</t>
   </si>
   <si>
     <t>ST AR</t>
   </si>
   <si>
-    <t>Customer prepay. &amp; deposits</t>
-  </si>
-  <si>
-    <t>ST SH Loan</t>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Properties held for sale</t>
+  </si>
+  <si>
+    <t>Properties under development</t>
   </si>
   <si>
     <t>ST DTA</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Other ST liabilities</t>
-  </si>
-  <si>
     <t>Other ST Assets</t>
   </si>
   <si>
@@ -498,54 +552,60 @@
     <t>ST core LCR</t>
   </si>
   <si>
+    <t>ST Monetary Asset (B11-B17)</t>
+  </si>
+  <si>
     <t>ST LCR</t>
   </si>
   <si>
     <t>Current Assets</t>
   </si>
   <si>
+    <t>LT Depositis</t>
+  </si>
+  <si>
+    <t>LT Borrowing</t>
+  </si>
+  <si>
+    <t>LT FV Securities</t>
+  </si>
+  <si>
+    <t>LT Lease liabilities</t>
+  </si>
+  <si>
+    <t>LT non-FV Securities</t>
+  </si>
+  <si>
+    <t>LT Derivatives</t>
+  </si>
+  <si>
+    <t>LT SH Loan</t>
+  </si>
+  <si>
+    <t>LT AR</t>
+  </si>
+  <si>
+    <t>Other LT liabilities</t>
+  </si>
+  <si>
+    <t>Investments in JV or associate</t>
+  </si>
+  <si>
+    <t>Investment property</t>
+  </si>
+  <si>
     <t>PP&amp;E &amp; Related Deposits</t>
   </si>
   <si>
-    <t>LT Borrowing</t>
-  </si>
-  <si>
     <t>Right-of-use assets</t>
   </si>
   <si>
-    <t>LT Lease liabilities</t>
-  </si>
-  <si>
-    <t>Investment property</t>
-  </si>
-  <si>
-    <t>Investments in JV or associate</t>
-  </si>
-  <si>
-    <t>LT SH Loan</t>
-  </si>
-  <si>
     <t>Intangible assets</t>
   </si>
   <si>
-    <t>LT FV Securities</t>
-  </si>
-  <si>
-    <t>Other LT liabilities</t>
-  </si>
-  <si>
-    <t>LT non-FV Securities</t>
-  </si>
-  <si>
     <t>LT DTA</t>
   </si>
   <si>
-    <t>LT AR</t>
-  </si>
-  <si>
-    <t>LT Depositis</t>
-  </si>
-  <si>
     <t>Other assets &amp; Goodwill</t>
   </si>
   <si>
@@ -615,15 +675,6 @@
     <t>FCF Model</t>
   </si>
   <si>
-    <t>Value Drivers</t>
-  </si>
-  <si>
-    <t>Terminal Growth</t>
-  </si>
-  <si>
-    <t>// When forecasting: 1. decompose your forecast 2. inside &amp; outside views 3. invert by finding what's impossible to happen.</t>
-  </si>
-  <si>
     <t>Terminal Year</t>
   </si>
   <si>
@@ -681,12 +732,12 @@
     <t>PV of FCFF</t>
   </si>
   <si>
+    <t>+ Cash</t>
+  </si>
+  <si>
     <t>+ Realizable Non-Op. Asset</t>
   </si>
   <si>
-    <t>+ Cash</t>
-  </si>
-  <si>
     <t>- Total outstanding debt =</t>
   </si>
   <si>
@@ -765,49 +816,123 @@
     <t>E(Value per share)</t>
   </si>
   <si>
-    <t>Current IRR</t>
-  </si>
-  <si>
     <t>Model Output =</t>
   </si>
   <si>
     <t>The expected value incoporates business risk</t>
   </si>
   <si>
-    <t>IRR Analysis</t>
-  </si>
-  <si>
-    <t>Non-op. Asset per share</t>
-  </si>
-  <si>
-    <t>Actual Outlay per share</t>
-  </si>
-  <si>
-    <t>IRR</t>
-  </si>
-  <si>
-    <t>CF =</t>
-  </si>
-  <si>
-    <t>Outlay</t>
-  </si>
-  <si>
-    <t>Implied TV</t>
-  </si>
-  <si>
     <t>Margin of Safety Analysis</t>
   </si>
   <si>
+    <t>PART I: Complexity of the business</t>
+  </si>
+  <si>
     <t>1. Does the company have a non-cyclical business and a consistent earnings history?</t>
   </si>
   <si>
     <t>unclear</t>
   </si>
   <si>
+    <t>2. Does the company have simple revenue and expense structure to understand?</t>
+  </si>
+  <si>
     <t>agree</t>
   </si>
   <si>
+    <t>3. Does the company have simple assets base to value?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Complexity rating</t>
+    </r>
+  </si>
+  <si>
     <t>PART II: Valuation Error</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reputation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Does the company and management have good reputation?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Complexity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Does the company have a consistent operating and earning and dividend history?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Business Quality:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Does the company have a potent and a consistent earnings history?</t>
+    </r>
   </si>
   <si>
     <r>
@@ -858,7 +983,58 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cashflow from operation</t>
+    </r>
+  </si>
+  <si>
+    <t>(-) Low/Decreasing CFO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cashflow from investment</t>
+    </r>
+  </si>
+  <si>
     <t>(-) Low/Decreasing CFI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cashflow from financing</t>
+    </r>
+  </si>
+  <si>
+    <t>(+) Rapidly Increasing CFF</t>
   </si>
   <si>
     <r>
@@ -986,6 +1162,9 @@
     <t>Strongly disagree</t>
   </si>
   <si>
+    <t>2. There is no network effect and equal access to distribution channels.</t>
+  </si>
+  <si>
     <t>3. There is low customer switching cost.</t>
   </si>
   <si>
@@ -995,6 +1174,9 @@
     <t xml:space="preserve">5. There is no incumbency advantages independent of size. (like management skill etc) </t>
   </si>
   <si>
+    <t>6. There is little "real" brand barriers. (like the trust in brands in food industry)</t>
+  </si>
+  <si>
     <t>II. Power of Suppliers =</t>
   </si>
   <si>
@@ -1058,6 +1240,15 @@
     <t>4. The company have a negative ESG value.</t>
   </si>
   <si>
+    <t>5. There is no restrictive government policy</t>
+  </si>
+  <si>
+    <t>6. How long is the industry average asset life?</t>
+  </si>
+  <si>
+    <t>Consumer Staples, 15.1y</t>
+  </si>
+  <si>
     <t>V. Rivalry among existing Competitors =</t>
   </si>
   <si>
@@ -1068,6 +1259,21 @@
   </si>
   <si>
     <t>3. Exit barriers are high.</t>
+  </si>
+  <si>
+    <t>4. Firms cannot read each other’s signals well.</t>
+  </si>
+  <si>
+    <t>5. Products or services of rivals are nearly identical with few buyer switching costs.</t>
+  </si>
+  <si>
+    <t>6. Fixed costs are high and marginal costs are low.</t>
+  </si>
+  <si>
+    <t>7. Capacity must be expanded in large increments to be efficient.</t>
+  </si>
+  <si>
+    <t>8. The product is perishable (The opposition is product that gets better with age).</t>
   </si>
   <si>
     <r>
@@ -1153,247 +1359,17 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>Properties under development</t>
-  </si>
-  <si>
-    <t>Consumer Staples, 15.1y</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Op. Assets</t>
-  </si>
-  <si>
-    <t>Non-op. Assets</t>
-  </si>
-  <si>
-    <t>4. Firms cannot read each other’s signals well.</t>
-  </si>
-  <si>
-    <t>5. Products or services of rivals are nearly identical with few buyer switching costs.</t>
-  </si>
-  <si>
-    <t>6. Fixed costs are high and marginal costs are low.</t>
-  </si>
-  <si>
-    <t>7. Capacity must be expanded in large increments to be efficient.</t>
-  </si>
-  <si>
-    <t>8. The product is perishable (The opposition is product that gets better with age).</t>
-  </si>
-  <si>
-    <t>2. There is no network effect and equal access to distribution channels.</t>
-  </si>
-  <si>
-    <t>6. There is little "real" brand barriers. (like the trust in brands in food industry)</t>
-  </si>
-  <si>
-    <t>6. How long is the industry average asset life?</t>
-  </si>
-  <si>
-    <t>5. There is no restrictive government policy</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cashflow from operation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cashflow from investment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cashflow from financing</t>
-    </r>
-  </si>
-  <si>
-    <t>⇒</t>
-  </si>
-  <si>
-    <t>Cash like</t>
-  </si>
-  <si>
-    <t>Net Non-op.</t>
-  </si>
-  <si>
-    <t>(-) Low/Decreasing CFO</t>
-  </si>
-  <si>
-    <t>(+) Rapidly Increasing CFF</t>
-  </si>
-  <si>
-    <t>Price Expectation Analysis</t>
-  </si>
-  <si>
-    <t>Restricted cash or deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minority Interest = </t>
-  </si>
-  <si>
-    <t>NAVPS</t>
-  </si>
-  <si>
-    <t>NAVPS =</t>
-  </si>
-  <si>
-    <t>0017.HK</t>
-  </si>
-  <si>
-    <t>NEW WORLD DEV</t>
-  </si>
-  <si>
-    <t>Properties held for sale</t>
-  </si>
-  <si>
-    <t>ST Derivatives</t>
-  </si>
-  <si>
-    <t>LT Derivatives</t>
-  </si>
-  <si>
-    <t>ST Monetary Asset (B11-B17)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Business Quality:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Does the company have a potent and a consistent earnings history?</t>
-    </r>
-  </si>
-  <si>
-    <t>PART I: Complexity of the business</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">⇒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Complexity rating</t>
-    </r>
-  </si>
-  <si>
-    <t>3. Does the company have simple assets base to value?</t>
-  </si>
-  <si>
-    <t>2. Does the company have simple revenue and expense structure to understand?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reputation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Does the company and management have good reputation?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Complexity:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Does the company have a consistent operating and earning and dividend history?</t>
-    </r>
+    <t>Dividend per share</t>
+  </si>
+  <si>
+    <t>Repurchase per share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="23">
+  <numFmts count="21">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1407,18 +1383,16 @@
     <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
     <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
     <numFmt numFmtId="173" formatCode="0\ &quot;Years&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past Actual &quot;0&quot;Y&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="176" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Total &quot;0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;FCF Value = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;Ideal Price = &quot;0.00"/>
-    <numFmt numFmtId="181" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;Total &quot;0%"/>
+    <numFmt numFmtId="177" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="178" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="&quot;Price = &quot;0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1564,20 +1538,6 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <u/>
@@ -1625,19 +1585,17 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.14999847407452621"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1756,7 +1714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -2416,21 +2374,6 @@
     </border>
     <border>
       <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right style="dotted">
@@ -2535,19 +2478,6 @@
       <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2594,12 +2524,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2706,7 +2762,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,30 +2897,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="22" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2898,9 +2930,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3012,7 +3041,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3021,16 +3050,16 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3057,13 +3086,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3078,7 +3107,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3112,16 +3141,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3154,21 +3183,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3179,9 +3199,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3197,52 +3214,16 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="19" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="19" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="19" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3254,31 +3235,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3288,44 +3251,33 @@
     <xf numFmtId="3" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3338,23 +3290,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3363,7 +3314,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3373,10 +3324,7 @@
     <xf numFmtId="3" fontId="2" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3386,45 +3334,178 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="19" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="19" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="19" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="12" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3444,7 +3525,6 @@
     <xf numFmtId="164" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3454,21 +3534,12 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3476,56 +3547,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3558,25 +3579,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="18" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="18" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3584,17 +3614,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3683,16 +3703,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3713,10 +3723,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB6D7A8"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
-      <color rgb="FFB6D7A8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3934,7 +3944,7 @@
   <dimension ref="A1:R992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3967,11 +3977,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="340" t="str">
+      <c r="C2" s="349" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0017.HK : NEW WORLD DEV</v>
       </c>
-      <c r="D2" s="341"/>
+      <c r="D2" s="350"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -3984,126 +3994,126 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="342" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="343"/>
+      <c r="C3" s="351" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="352"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="353" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="354"/>
+      <c r="I3" s="360" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="361"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="344" t="s">
-        <v>354</v>
-      </c>
-      <c r="D4" s="345"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="354"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4" s="38">
         <v>23.600000381469727</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="313"/>
+        <v>8</v>
+      </c>
+      <c r="Q4" s="275"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="346">
+        <v>9</v>
+      </c>
+      <c r="C5" s="355">
         <v>44963</v>
       </c>
-      <c r="D5" s="345"/>
-      <c r="E5" s="238" t="str">
+      <c r="D5" s="354"/>
+      <c r="E5" s="226" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="355">
+        <v>10</v>
+      </c>
+      <c r="I5" s="331">
         <v>2516633171</v>
       </c>
-      <c r="J5" s="356"/>
-      <c r="L5" s="312"/>
-      <c r="M5" s="312"/>
-      <c r="N5" s="312"/>
-      <c r="O5" s="312"/>
-      <c r="P5" s="312"/>
-      <c r="Q5" s="312"/>
-      <c r="R5" s="151"/>
+      <c r="J5" s="332"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="347">
+        <v>11</v>
+      </c>
+      <c r="C6" s="356">
         <v>45001</v>
       </c>
-      <c r="D6" s="348"/>
-      <c r="E6" s="238"/>
-      <c r="G6" s="265" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="264"/>
-      <c r="I6" s="357">
+      <c r="D6" s="313"/>
+      <c r="E6" s="226"/>
+      <c r="G6" s="240" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="239"/>
+      <c r="I6" s="362">
         <f>I4*I5/1000000</f>
         <v>59392.543795619371</v>
       </c>
-      <c r="J6" s="358"/>
-      <c r="L6" s="312"/>
-      <c r="M6" s="312"/>
-      <c r="N6" s="312"/>
-      <c r="O6" s="312"/>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="312"/>
+      <c r="J6" s="363"/>
+      <c r="L6" s="274"/>
+      <c r="M6" s="274"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="274"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="276" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="285">
-        <f>(Data!C41/Common_Shares*Data!C4)/I4</f>
+      <c r="B7" s="245" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="253">
+        <f>(Data!C43)/I4</f>
         <v>8.7288734724684083E-2</v>
       </c>
-      <c r="D7" s="285">
-        <f>(Data!C42/Common_Shares*Data!C4)/I4</f>
+      <c r="D7" s="253">
+        <f>(Data!C44)/I4</f>
         <v>1.6278137594626964E-2</v>
       </c>
-      <c r="E7" s="314"/>
+      <c r="E7" s="276"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="188"/>
+      <c r="C8" s="179"/>
       <c r="E8" s="6"/>
       <c r="G8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="263"/>
+        <v>14</v>
+      </c>
+      <c r="H8" s="238"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="237">
+        <v>16</v>
+      </c>
+      <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
         <v>47.544463493131097</v>
       </c>
@@ -4114,62 +4124,62 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="288" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="242">
+        <v>17</v>
+      </c>
+      <c r="C10" s="255" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="229">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="275">
+        <v>19</v>
+      </c>
+      <c r="I10" s="244">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
         <v>0.20615338833629079</v>
       </c>
-      <c r="J10" s="255">
-        <f>IF('Asset Model'!D60/'FCF Model'!C16&lt;0,"Negative EV",'Asset Model'!D60/'FCF Model'!C16)</f>
+      <c r="J10" s="236">
+        <f>IF('Asset Model'!D60/'FCF Model'!C13&lt;0,"Negative EV",'Asset Model'!D60/'FCF Model'!C13)</f>
         <v>0.72551592293458078</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="327">
+      <c r="B11" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="336">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="D11" s="327"/>
+      <c r="D11" s="336"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="361"/>
+      <c r="I11" s="343" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="344"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="359">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="359"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="364">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="364"/>
       <c r="E12" s="5"/>
-      <c r="G12" s="265" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="264"/>
-      <c r="I12" s="266">
+      <c r="G12" s="240" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="239"/>
+      <c r="I12" s="241">
         <v>1</v>
       </c>
-      <c r="J12" s="267" t="str">
+      <c r="J12" s="242" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>HKD</v>
       </c>
@@ -4181,205 +4191,190 @@
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="245" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="308">
-        <f>'Asset Model'!D7</f>
-        <v>-20.841636995175726</v>
-      </c>
-      <c r="E14" s="264"/>
-      <c r="F14" s="245" t="s">
-        <v>351</v>
-      </c>
-      <c r="G14" s="311">
-        <f>'Asset Model'!H3</f>
-        <v>84.779976064298651</v>
-      </c>
-      <c r="H14" s="289"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="271">
+        <f>IF('FCF Model'!C57&lt;0, "Error", 'FCF Model'!C57)</f>
+        <v>22.251532410070769</v>
+      </c>
+      <c r="E14" s="239"/>
+      <c r="F14" s="286"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="188"/>
-      <c r="C15" s="164" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="164" t="s">
-        <v>24</v>
+      <c r="B15" s="179"/>
+      <c r="C15" s="155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="F15" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="179" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="G15" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="170" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="170" t="s">
+        <v>32</v>
+      </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="262">
+      <c r="B16" s="237">
         <f>I4</f>
         <v>23.600000381469727</v>
       </c>
-      <c r="C16" s="253">
+      <c r="C16" s="235">
         <f>I9</f>
         <v>47.544463493131097</v>
       </c>
-      <c r="D16" s="290">
+      <c r="D16" s="256">
         <f>I10</f>
         <v>0.20615338833629079</v>
       </c>
-      <c r="E16" s="396">
-        <f>'FCF Model'!E67</f>
-        <v>-0.5929397592311082</v>
-      </c>
-      <c r="F16" s="396">
-        <f ca="1">$C$12*(1+AVERAGE((1-'Qualitative Analysis'!$E$13)+I16+IF($C$5+30&gt;=TODAY(),1,0)))</f>
-        <v>0.26111111111111113</v>
-      </c>
-      <c r="G16" s="258" t="str">
-        <f ca="1">IF(E16-F16&lt;=0, "None", IF(E16-F16&gt;=1, "Good", "Some"))</f>
-        <v>None</v>
-      </c>
-      <c r="H16" s="261">
-        <f>$C$7/B16</f>
-        <v>3.6986751404131987E-3</v>
-      </c>
-      <c r="I16" s="395">
-        <f>1-(IF(H16&gt;0, 50%, 25%)+IF(H16&gt;=$D$10, 25%, 0)+IF(H16&gt;=$D$10*2, 25%, 0))</f>
-        <v>0.5</v>
+      <c r="E16" s="282">
+        <f>D14/B16-1</f>
+        <v>-5.7138472440777965E-2</v>
+      </c>
+      <c r="F16" s="346">
+        <f ca="1">$C$12*(2-'Qualitative Analysis'!$E$13+IF($C$5+30&gt;=TODAY(),0.2,0))</f>
+        <v>0.26222222222222225</v>
+      </c>
+      <c r="G16" s="294">
+        <f ca="1">E16-F16</f>
+        <v>-0.31936069466300021</v>
+      </c>
+      <c r="H16" s="307">
+        <f>Data!C43</f>
+        <v>2.0600141728005541</v>
+      </c>
+      <c r="I16" s="297">
+        <f>H16/B16</f>
+        <v>8.7288734724684083E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="256">
-        <f>IF('FCF Model'!C60&lt;0, "Error", 'FCF Model'!C60)</f>
-        <v>0.61903974587126642</v>
-      </c>
-      <c r="C17" s="254">
-        <f>'FCF Model'!E60</f>
-        <v>1.2471149204507199</v>
-      </c>
-      <c r="D17" s="291">
-        <f>'FCF Model'!F60</f>
-        <v>5.4075058925168711E-3</v>
-      </c>
-      <c r="E17" s="397">
-        <f>'FCF Model'!E66</f>
-        <v>9.1500000000000137E-2</v>
-      </c>
-      <c r="F17" s="397">
-        <f ca="1">$C$12*(1+AVERAGE((1-'Qualitative Analysis'!$E$13)+I17+IF($C$5+30&gt;=TODAY(),1,0)))</f>
-        <v>0.21111111111111114</v>
-      </c>
-      <c r="G17" s="259">
-        <f ca="1">E17-F17</f>
-        <v>-0.119611111111111</v>
-      </c>
-      <c r="H17" s="248">
-        <f>$C$7/B17</f>
-        <v>0.14100667252282759</v>
-      </c>
-      <c r="I17" s="395">
-        <f t="shared" ref="I17:I18" si="0">1-(IF(H17&gt;0, 50%, 25%)+IF(H17&gt;=$D$10, 25%, 0)+IF(H17&gt;=$D$10*2, 25%, 0))</f>
-        <v>0</v>
+      <c r="B17" s="291">
+        <v>17</v>
+      </c>
+      <c r="C17" s="288">
+        <f>IF(Data!F3&lt;=0,"NNI",B17/((Data!F3*I12)/(I5/Data!C4)))</f>
+        <v>34.248129928754402</v>
+      </c>
+      <c r="D17" s="289">
+        <f>B17/(Data!C28*I12*Data!C4/Common_Shares)</f>
+        <v>0.14850031970629521</v>
+      </c>
+      <c r="E17" s="290">
+        <f>D14/B17-1</f>
+        <v>0.30891367118063351</v>
+      </c>
+      <c r="F17" s="347"/>
+      <c r="G17" s="295">
+        <f ca="1">E17-F16</f>
+        <v>4.6691448958411264E-2</v>
+      </c>
+      <c r="H17" s="308"/>
+      <c r="I17" s="298">
+        <f>H16/B17</f>
+        <v>0.12117730428238553</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="257">
-        <v>0.4</v>
-      </c>
-      <c r="C18" s="255">
+      <c r="B18" s="292">
+        <v>16</v>
+      </c>
+      <c r="C18" s="236">
         <f>IF(Data!F3&lt;=0,"NNI",B18/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>0.80583835126480952</v>
-      </c>
-      <c r="D18" s="292">
+        <v>32.233534050592382</v>
+      </c>
+      <c r="D18" s="257">
         <f>B18/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>3.4941251695598877E-3</v>
-      </c>
-      <c r="E18" s="398">
-        <f>'FCF Model'!E68</f>
-        <v>0.12475289564079484</v>
-      </c>
-      <c r="F18" s="398">
-        <f ca="1">$C$12*(1+AVERAGE((1-'Qualitative Analysis'!$E$13)+I18+IF($C$5+30&gt;=TODAY(),1,0)))</f>
-        <v>0.21111111111111114</v>
-      </c>
-      <c r="G18" s="260">
-        <f ca="1">E18-F18</f>
-        <v>-8.6358215470316302E-2</v>
-      </c>
-      <c r="H18" s="251">
-        <f>$C$7/B18</f>
-        <v>0.2182218368117102</v>
-      </c>
-      <c r="I18" s="395">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.13976500678239548</v>
+      </c>
+      <c r="E18" s="283">
+        <f>D14/B18-1</f>
+        <v>0.39072077562942309</v>
+      </c>
+      <c r="F18" s="348"/>
+      <c r="G18" s="296">
+        <f ca="1">E18-F16</f>
+        <v>0.12849855340720084</v>
+      </c>
+      <c r="H18" s="309"/>
+      <c r="I18" s="299">
+        <f>H16/B18</f>
+        <v>0.12875088580003463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D20" s="246" t="s">
-        <v>329</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="233" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="306" t="s">
-        <v>343</v>
-      </c>
-      <c r="H20" s="164" t="s">
-        <v>344</v>
-      </c>
-      <c r="I20" s="246" t="s">
-        <v>345</v>
+        <v>35</v>
+      </c>
+      <c r="G20" s="269" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="233" t="s">
+        <v>38</v>
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="262">
+    <row r="21" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="237">
         <f>I4</f>
         <v>23.600000381469727</v>
       </c>
-      <c r="C21" s="302" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="300">
+      <c r="C21" s="265" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="263">
         <f>B21-F21</f>
         <v>26.839983901499391</v>
       </c>
-      <c r="E21" s="303" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="304">
+      <c r="E21" s="266" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="267">
         <f>H21+I21</f>
         <v>-3.2399835200296643</v>
       </c>
-      <c r="G21" s="305"/>
-      <c r="H21" s="301">
-        <f>'FCF Model'!D27/(Dashboard!I5/Data!C4)</f>
+      <c r="G21" s="268"/>
+      <c r="H21" s="264">
+        <f>'FCF Model'!D24/(Dashboard!I5/Data!C4)</f>
         <v>22.933656229710405</v>
       </c>
-      <c r="I21" s="300">
-        <f>('FCF Model'!D28-'FCF Model'!D29-'FCF Model'!D30)/(Dashboard!I5/Data!C4)</f>
+      <c r="I21" s="263">
+        <f>('FCF Model'!D25-'FCF Model'!D26-'FCF Model'!D27)/(Dashboard!I5/Data!C4)</f>
         <v>-26.173639749740069</v>
       </c>
       <c r="K21" s="6"/>
@@ -4391,7 +4386,7 @@
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="12"/>
@@ -4405,46 +4400,46 @@
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="349"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="350"/>
-      <c r="F24" s="350"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="350"/>
-      <c r="I24" s="350"/>
-      <c r="J24" s="351"/>
+        <v>42</v>
+      </c>
+      <c r="C24" s="357"/>
+      <c r="D24" s="358"/>
+      <c r="E24" s="358"/>
+      <c r="F24" s="358"/>
+      <c r="G24" s="358"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="358"/>
+      <c r="J24" s="359"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="362"/>
-      <c r="D25" s="323"/>
-      <c r="E25" s="323"/>
-      <c r="F25" s="323"/>
-      <c r="G25" s="362"/>
-      <c r="H25" s="362"/>
-      <c r="I25" s="323"/>
-      <c r="J25" s="323"/>
+        <v>43</v>
+      </c>
+      <c r="C25" s="310"/>
+      <c r="D25" s="311"/>
+      <c r="E25" s="311"/>
+      <c r="F25" s="311"/>
+      <c r="G25" s="310"/>
+      <c r="H25" s="310"/>
+      <c r="I25" s="311"/>
+      <c r="J25" s="311"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="352"/>
-      <c r="D26" s="348"/>
-      <c r="E26" s="348"/>
-      <c r="F26" s="348"/>
-      <c r="G26" s="352"/>
-      <c r="H26" s="352"/>
-      <c r="I26" s="348"/>
-      <c r="J26" s="348"/>
+        <v>44</v>
+      </c>
+      <c r="C26" s="312"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="313"/>
+      <c r="F26" s="313"/>
+      <c r="G26" s="312"/>
+      <c r="H26" s="312"/>
+      <c r="I26" s="313"/>
+      <c r="J26" s="313"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4461,10 +4456,10 @@
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D28" s="40">
         <v>700000</v>
@@ -4472,176 +4467,170 @@
       <c r="E28" s="12"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="264"/>
+      <c r="H28" s="239"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="325">
-        <v>44931</v>
-      </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="325"/>
-      <c r="F29" s="326"/>
-      <c r="G29" s="365"/>
-      <c r="H29" s="366"/>
-      <c r="I29" s="377" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="377"/>
+        <v>47</v>
+      </c>
+      <c r="C29" s="334"/>
+      <c r="D29" s="335"/>
+      <c r="E29" s="334"/>
+      <c r="F29" s="335"/>
+      <c r="G29" s="339"/>
+      <c r="H29" s="340"/>
+      <c r="I29" s="338" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="338"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="376">
+        <v>49</v>
+      </c>
+      <c r="C30" s="337">
         <f>C34/D28</f>
-        <v>3.0514285714285716E-2</v>
-      </c>
-      <c r="D30" s="329"/>
-      <c r="E30" s="328">
+        <v>0</v>
+      </c>
+      <c r="D30" s="326"/>
+      <c r="E30" s="345">
         <f>E34/D28</f>
         <v>0</v>
       </c>
-      <c r="F30" s="329"/>
-      <c r="G30" s="367">
+      <c r="F30" s="326"/>
+      <c r="G30" s="341">
         <f>G34/D28</f>
         <v>0</v>
       </c>
-      <c r="H30" s="368"/>
-      <c r="I30" s="371">
+      <c r="H30" s="342"/>
+      <c r="I30" s="302">
         <f>C30+E30+G30</f>
-        <v>3.0514285714285716E-2</v>
-      </c>
-      <c r="J30" s="371"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="302"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="322">
-        <v>12000</v>
-      </c>
-      <c r="D31" s="323"/>
-      <c r="E31" s="322"/>
-      <c r="F31" s="323"/>
-      <c r="G31" s="355"/>
-      <c r="H31" s="356"/>
-      <c r="I31" s="339">
+        <v>50</v>
+      </c>
+      <c r="C31" s="327"/>
+      <c r="D31" s="311"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="311"/>
+      <c r="G31" s="331"/>
+      <c r="H31" s="332"/>
+      <c r="I31" s="317">
         <f>C31+E31+G31</f>
-        <v>12000</v>
-      </c>
-      <c r="J31" s="339"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="317"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="324">
-        <v>1.78</v>
-      </c>
-      <c r="D32" s="323"/>
-      <c r="E32" s="324"/>
-      <c r="F32" s="323"/>
-      <c r="G32" s="372"/>
-      <c r="H32" s="373"/>
-      <c r="I32" s="369"/>
-      <c r="J32" s="369"/>
+        <v>51</v>
+      </c>
+      <c r="C32" s="328"/>
+      <c r="D32" s="311"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="311"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="304"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="320">
+        <v>52</v>
+      </c>
+      <c r="C33" s="315">
         <f>C32*$I$5/1000000</f>
-        <v>4479.6070443799999</v>
-      </c>
-      <c r="D33" s="321"/>
-      <c r="E33" s="320">
+        <v>0</v>
+      </c>
+      <c r="D33" s="322"/>
+      <c r="E33" s="315">
         <f>E32*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F33" s="321"/>
-      <c r="G33" s="374">
+      <c r="F33" s="322"/>
+      <c r="G33" s="305">
         <f>G32*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H33" s="375"/>
-      <c r="I33" s="370"/>
-      <c r="J33" s="370"/>
+      <c r="H33" s="306"/>
+      <c r="I33" s="301"/>
+      <c r="J33" s="301"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="334">
+        <v>53</v>
+      </c>
+      <c r="C34" s="323">
         <f>C31*C32</f>
-        <v>21360</v>
-      </c>
-      <c r="D34" s="335"/>
-      <c r="E34" s="336">
+        <v>0</v>
+      </c>
+      <c r="D34" s="324"/>
+      <c r="E34" s="316">
         <f>E31*E32</f>
         <v>0</v>
       </c>
-      <c r="F34" s="337"/>
-      <c r="G34" s="363">
+      <c r="F34" s="325"/>
+      <c r="G34" s="329">
         <f>G31*G32</f>
         <v>0</v>
       </c>
-      <c r="H34" s="364"/>
-      <c r="I34" s="336">
+      <c r="H34" s="330"/>
+      <c r="I34" s="316">
         <f>C34+E34+G34</f>
-        <v>21360</v>
-      </c>
-      <c r="J34" s="336"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="316"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="330"/>
-      <c r="D35" s="331"/>
-      <c r="E35" s="338">
+        <v>54</v>
+      </c>
+      <c r="C35" s="318"/>
+      <c r="D35" s="319"/>
+      <c r="E35" s="314" t="str">
         <f>IF(C34=0,"-",(C34+E34)/(C31+E31))</f>
-        <v>1.78</v>
-      </c>
-      <c r="F35" s="329"/>
-      <c r="G35" s="230"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="338">
+        <v>-</v>
+      </c>
+      <c r="F35" s="326"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="314" t="str">
         <f>IF(I34=0,"",I34/I31)</f>
-        <v>1.78</v>
-      </c>
-      <c r="J35" s="338"/>
+        <v/>
+      </c>
+      <c r="J35" s="314"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="332"/>
-      <c r="D36" s="333"/>
-      <c r="E36" s="320">
+        <v>55</v>
+      </c>
+      <c r="C36" s="320"/>
+      <c r="D36" s="321"/>
+      <c r="E36" s="315" t="str">
         <f>IF(E35="-","-",E35*$I$5/1000000)</f>
-        <v>4479.6070443799999</v>
-      </c>
-      <c r="F36" s="321"/>
-      <c r="G36" s="231"/>
-      <c r="H36" s="231"/>
-      <c r="I36" s="320">
+        <v>-</v>
+      </c>
+      <c r="F36" s="322"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="315" t="str">
         <f>IF(I35="","",I35*$I$5/1000000)</f>
-        <v>4479.6070443799999</v>
-      </c>
-      <c r="J36" s="320"/>
+        <v/>
+      </c>
+      <c r="J36" s="315"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5614,27 +5603,11 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I31:J31"/>
+  <mergeCells count="48">
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="F16:F18"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -5647,6 +5620,19 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
@@ -5656,14 +5642,19 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5673,17 +5664,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G18">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
-      <formula>$B$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5708,10 +5694,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N965"/>
+  <dimension ref="A1:N967"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5733,7 +5719,7 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -5750,9 +5736,9 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="307">
+        <v>57</v>
+      </c>
+      <c r="C3" s="270">
         <v>44742</v>
       </c>
       <c r="D3" s="6"/>
@@ -5764,14 +5750,14 @@
         <v>1249200</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="5" t="str">
-        <f>"Past "&amp;'FCF Model'!C3&amp;" yrs Revenue CAGR"</f>
-        <v>Past 4 yrs Revenue CAGR</v>
+      <c r="H3" s="5" t="e">
+        <f>"Past "&amp;'FCF Model'!#REF!&amp;" yrs Revenue CAGR"</f>
+        <v>#REF!</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="49" t="e" cm="1">
-        <f t="array" ref="J3">(C7/INDEX(C7:L7,0,'FCF Model'!C3+1))^(1/('FCF Model'!C3))-1</f>
-        <v>#DIV/0!</v>
+        <f t="array" ref="J3">(C7/INDEX(C7:L7,0,'FCF Model'!#REF!+1))^(1/('FCF Model'!#REF!))-1</f>
+        <v>#REF!</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -5780,7 +5766,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C4" s="41">
         <v>1000</v>
@@ -5795,14 +5781,14 @@
         <v>6707100</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="3" t="str">
-        <f>"Past "&amp;'FCF Model'!C3&amp;" yrs EBIT CAGR"</f>
-        <v>Past 4 yrs EBIT CAGR</v>
+      <c r="H4" s="3" t="e">
+        <f>"Past "&amp;'FCF Model'!#REF!&amp;" yrs EBIT CAGR"</f>
+        <v>#REF!</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="52" cm="1">
-        <f t="array" ref="J4">IFERROR((C14/INDEX(C14:L14,0,'FCF Model'!C3))^(1/('FCF Model'!C3-1))-1,"NA")</f>
-        <v>-0.18569207625819872</v>
+      <c r="J4" s="52" t="str" cm="1">
+        <f t="array" ref="J4">IFERROR((C14/INDEX(C14:L14,0,'FCF Model'!#REF!))^(1/('FCF Model'!#REF!-1))-1,"NA")</f>
+        <v>NA</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -5863,7 +5849,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="56" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C7" s="41">
         <v>68212700</v>
@@ -5889,7 +5875,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="57" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:L8" si="0">IF(D7="","",C7/D7-1)</f>
@@ -5937,7 +5923,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="57" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C9" s="41">
         <v>49967000</v>
@@ -5963,7 +5949,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="57" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" ref="C10:M10" si="1">IF(C7="","",(C7-C9)/C7)</f>
@@ -6014,7 +6000,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="57" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C11" s="41">
         <v>9302900</v>
@@ -6040,7 +6026,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="57" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="2">IF(C7="","",C10-C13)</f>
@@ -6091,7 +6077,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="57" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C7)</f>
@@ -6142,7 +6128,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="57" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C14" s="31">
         <f t="shared" ref="C14:M14" si="4">IF(C7="","",C7-C9-C11)</f>
@@ -6193,7 +6179,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="57" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6244,100 +6230,100 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="283">
-        <f>IF(C14="","",C14*(1-'FCF Model'!$D$17))</f>
+        <v>68</v>
+      </c>
+      <c r="C16" s="251">
+        <f>IF(C14="","",C14*(1-'FCF Model'!$D$14))</f>
         <v>6707100</v>
       </c>
-      <c r="D16" s="283">
-        <f>IF(D14="","",D14*(1-'FCF Model'!$D$17))</f>
+      <c r="D16" s="251">
+        <f>IF(D14="","",D14*(1-'FCF Model'!$D$14))</f>
         <v>7545825</v>
       </c>
-      <c r="E16" s="283">
-        <f>IF(E14="","",E14*(1-'FCF Model'!$D$17))</f>
+      <c r="E16" s="251">
+        <f>IF(E14="","",E14*(1-'FCF Model'!$D$14))</f>
         <v>8154375</v>
       </c>
-      <c r="F16" s="283">
-        <f>IF(F14="","",F14*(1-'FCF Model'!$D$17))</f>
+      <c r="F16" s="251">
+        <f>IF(F14="","",F14*(1-'FCF Model'!$D$14))</f>
         <v>12421350</v>
       </c>
-      <c r="G16" s="283" t="str">
-        <f>IF(G14="","",G14*(1-'FCF Model'!$D$17))</f>
-        <v/>
-      </c>
-      <c r="H16" s="283" t="str">
-        <f>IF(H14="","",H14*(1-'FCF Model'!$D$17))</f>
-        <v/>
-      </c>
-      <c r="I16" s="283" t="str">
-        <f>IF(I14="","",I14*(1-'FCF Model'!$D$17))</f>
-        <v/>
-      </c>
-      <c r="J16" s="283" t="str">
-        <f>IF(J14="","",J14*(1-'FCF Model'!$D$17))</f>
-        <v/>
-      </c>
-      <c r="K16" s="283" t="str">
-        <f>IF(K14="","",K14*(1-'FCF Model'!$D$17))</f>
-        <v/>
-      </c>
-      <c r="L16" s="283" t="str">
-        <f>IF(L14="","",L14*(1-'FCF Model'!$D$17))</f>
-        <v/>
-      </c>
-      <c r="M16" s="283" t="str">
-        <f>IF(M14="","",M14*(1-'FCF Model'!$D$17))</f>
+      <c r="G16" s="251" t="str">
+        <f>IF(G14="","",G14*(1-'FCF Model'!$D$14))</f>
+        <v/>
+      </c>
+      <c r="H16" s="251" t="str">
+        <f>IF(H14="","",H14*(1-'FCF Model'!$D$14))</f>
+        <v/>
+      </c>
+      <c r="I16" s="251" t="str">
+        <f>IF(I14="","",I14*(1-'FCF Model'!$D$14))</f>
+        <v/>
+      </c>
+      <c r="J16" s="251" t="str">
+        <f>IF(J14="","",J14*(1-'FCF Model'!$D$14))</f>
+        <v/>
+      </c>
+      <c r="K16" s="251" t="str">
+        <f>IF(K14="","",K14*(1-'FCF Model'!$D$14))</f>
+        <v/>
+      </c>
+      <c r="L16" s="251" t="str">
+        <f>IF(L14="","",L14*(1-'FCF Model'!$D$14))</f>
+        <v/>
+      </c>
+      <c r="M16" s="251" t="str">
+        <f>IF(M14="","",M14*(1-'FCF Model'!$D$14))</f>
         <v/>
       </c>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="282" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="248">
+      <c r="B17" s="250" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="234">
         <f t="shared" ref="C17:M17" si="6">IF(C7="","",C16/C7)</f>
         <v>9.8326264757149326E-2</v>
       </c>
-      <c r="D17" s="248">
+      <c r="D17" s="234">
         <f t="shared" si="6"/>
         <v>0.11058876031023021</v>
       </c>
-      <c r="E17" s="248">
+      <c r="E17" s="234">
         <f t="shared" si="6"/>
         <v>0.13819147638108861</v>
       </c>
-      <c r="F17" s="248">
+      <c r="F17" s="234">
         <f t="shared" si="6"/>
         <v>0.1618130207546285</v>
       </c>
-      <c r="G17" s="248" t="str">
+      <c r="G17" s="234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H17" s="248" t="str">
+      <c r="H17" s="234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I17" s="248" t="str">
+      <c r="I17" s="234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J17" s="248" t="str">
+      <c r="J17" s="234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K17" s="248" t="str">
+      <c r="K17" s="234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L17" s="248" t="str">
+      <c r="L17" s="234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M17" s="248" t="str">
+      <c r="M17" s="234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6346,33 +6332,33 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="284">
+        <v>70</v>
+      </c>
+      <c r="C18" s="252">
         <v>2609300</v>
       </c>
-      <c r="D18" s="284">
+      <c r="D18" s="252">
         <v>3094700</v>
       </c>
-      <c r="E18" s="284">
+      <c r="E18" s="252">
         <v>4837900</v>
       </c>
-      <c r="F18" s="284">
+      <c r="F18" s="252">
         <v>2472500</v>
       </c>
-      <c r="G18" s="284"/>
-      <c r="H18" s="284"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="284"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="284"/>
+      <c r="G18" s="252"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="252"/>
+      <c r="K18" s="252"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="252"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="57" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C19" s="41">
         <v>1249200</v>
@@ -6398,7 +6384,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="57" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" ref="C20:M20" si="7">IF(C7="","",C19/C7)</f>
@@ -6449,7 +6435,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="57" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C21" s="58">
         <f>'Asset Model'!C26</f>
@@ -6476,7 +6462,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="57" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C22" s="58">
         <f>'Asset Model'!H26</f>
@@ -6503,7 +6489,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="57" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C23" s="58">
         <f>'Asset Model'!H11+'Asset Model'!H12</f>
@@ -6529,35 +6515,35 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="280" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="277">
+      <c r="B24" s="249" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="246">
         <f>'Asset Model'!H12</f>
         <v>1285200</v>
       </c>
-      <c r="D24" s="278">
+      <c r="D24" s="247">
         <v>1639200</v>
       </c>
-      <c r="E24" s="278">
+      <c r="E24" s="247">
         <v>1227900</v>
       </c>
-      <c r="F24" s="278">
+      <c r="F24" s="247">
         <v>0</v>
       </c>
-      <c r="G24" s="278"/>
-      <c r="H24" s="278"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="278"/>
-      <c r="K24" s="278"/>
-      <c r="L24" s="278"/>
-      <c r="M24" s="278"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="247"/>
+      <c r="K24" s="247"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="247"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="57" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C25" s="58">
         <f>'Asset Model'!H28+'Asset Model'!H29</f>
@@ -6583,35 +6569,35 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="280" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="279">
+      <c r="B26" s="249" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="248">
         <f>'Asset Model'!H29</f>
         <v>4517300</v>
       </c>
-      <c r="D26" s="278">
+      <c r="D26" s="247">
         <v>5204400</v>
       </c>
-      <c r="E26" s="278">
+      <c r="E26" s="247">
         <v>5759400</v>
       </c>
-      <c r="F26" s="278">
+      <c r="F26" s="247">
         <v>0</v>
       </c>
-      <c r="G26" s="278"/>
-      <c r="H26" s="278"/>
-      <c r="I26" s="278"/>
-      <c r="J26" s="278"/>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="278"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="57" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C27" s="31">
         <f>IF(C7="","",C23+C25)</f>
@@ -6662,7 +6648,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="57" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C28" s="58">
         <f>'Asset Model'!D3</f>
@@ -6688,35 +6674,35 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="280" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="279">
+      <c r="B29" s="249" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="248">
         <f>'Asset Model'!H50</f>
         <v>0</v>
       </c>
-      <c r="D29" s="278">
+      <c r="D29" s="247">
         <v>31925400</v>
       </c>
-      <c r="E29" s="278">
+      <c r="E29" s="247">
         <v>29629800</v>
       </c>
-      <c r="F29" s="278">
+      <c r="F29" s="247">
         <v>29994500</v>
       </c>
-      <c r="G29" s="278"/>
-      <c r="H29" s="278"/>
-      <c r="I29" s="278"/>
-      <c r="J29" s="278"/>
-      <c r="K29" s="278"/>
-      <c r="L29" s="278"/>
-      <c r="M29" s="278"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="247"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="57" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C30" s="58">
         <f>'Asset Model'!D59</f>
@@ -6743,7 +6729,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="57" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C31" s="58">
         <f>'Asset Model'!C36+'Asset Model'!C37+'Asset Model'!C38</f>
@@ -6770,7 +6756,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="57" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" ref="C32:M32" si="9">IF(D7="","",(C31-D31)/C31)</f>
@@ -6821,50 +6807,50 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="57" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C33" s="31">
-        <f t="shared" ref="C33:M33" si="10">IF(D7="","",(C7-D7)*$D$51)</f>
+        <f>IF(D7="","",(C7-D7)*$D$53)</f>
         <v>-1754.8</v>
       </c>
       <c r="D33" s="31">
-        <f t="shared" si="10"/>
+        <f>IF(E7="","",(D7-E7)*$D$53)</f>
         <v>789694.24</v>
       </c>
       <c r="E33" s="31">
-        <f t="shared" si="10"/>
+        <f>IF(F7="","",(E7-F7)*$D$53)</f>
         <v>-1519896.48</v>
       </c>
       <c r="F33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(G7="","",(F7-G7)*$D$53)</f>
         <v/>
       </c>
       <c r="G33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(H7="","",(G7-H7)*$D$53)</f>
         <v/>
       </c>
       <c r="H33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(I7="","",(H7-I7)*$D$53)</f>
         <v/>
       </c>
       <c r="I33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(J7="","",(I7-J7)*$D$53)</f>
         <v/>
       </c>
       <c r="J33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(K7="","",(J7-K7)*$D$53)</f>
         <v/>
       </c>
       <c r="K33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L7="","",(K7-L7)*$D$53)</f>
         <v/>
       </c>
       <c r="L33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(M7="","",(L7-M7)*$D$53)</f>
         <v/>
       </c>
       <c r="M33" s="31" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(N7="","",(M7-N7)*$D$53)</f>
         <v/>
       </c>
       <c r="N33" s="6"/>
@@ -6872,50 +6858,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="57" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C34" s="31">
-        <f t="shared" ref="C34:M34" si="11">IF(D7="","",C31-D31+C33)</f>
+        <f t="shared" ref="C34:M34" si="10">IF(D7="","",C31-D31+C33)</f>
         <v>19086045.199999999</v>
       </c>
       <c r="D34" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-8092005.7599999998</v>
       </c>
       <c r="E34" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4639003.5199999996</v>
       </c>
       <c r="F34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M34" s="31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N34" s="6"/>
@@ -6923,50 +6909,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="57" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
+        <f t="shared" ref="C35:M35" si="11">IF(C34="","",C34/C16)</f>
         <v>2.8456479253328562</v>
       </c>
       <c r="D35" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.0723818482405834</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.56889749612937834</v>
       </c>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M35" s="14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N35" s="6"/>
@@ -6974,50 +6960,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="59" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C36" s="60">
-        <f t="shared" ref="C36:M36" si="13">IF(C28="","",C28-C30+C27)</f>
+        <f t="shared" ref="C36:M36" si="12">IF(C28="","",C28-C30+C27)</f>
         <v>429494200</v>
       </c>
       <c r="D36" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>424797000</v>
       </c>
       <c r="E36" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>409248200</v>
       </c>
       <c r="F36" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>367970000</v>
       </c>
       <c r="G36" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H36" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I36" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J36" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K36" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L36" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M36" s="60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N36" s="6"/>
@@ -7025,7 +7011,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="61" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -7042,7 +7028,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="56" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C38" s="62">
         <f>IF(C16="","",(C16*$C$4)/(Dashboard!$I$6*1000000))</f>
@@ -7093,7 +7079,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="59" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C39" s="63">
         <f>IF(C19="","",(C19*$C$4)/(Dashboard!$I$6*1000000))</f>
@@ -7144,7 +7130,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="61" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -7161,222 +7147,222 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="286">
+      <c r="B41" s="383" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="380">
         <v>5184300</v>
       </c>
-      <c r="D41" s="286">
+      <c r="D41" s="380">
         <v>5194600</v>
       </c>
-      <c r="E41" s="286">
+      <c r="E41" s="380">
         <v>5216500</v>
       </c>
-      <c r="F41" s="286">
+      <c r="F41" s="380">
         <v>4898700</v>
       </c>
-      <c r="G41" s="286"/>
-      <c r="H41" s="286"/>
-      <c r="I41" s="286"/>
-      <c r="J41" s="286"/>
-      <c r="K41" s="286"/>
-      <c r="L41" s="286"/>
-      <c r="M41" s="286"/>
+      <c r="G41" s="380"/>
+      <c r="H41" s="380"/>
+      <c r="I41" s="380"/>
+      <c r="J41" s="380"/>
+      <c r="K41" s="380"/>
+      <c r="L41" s="380"/>
+      <c r="M41" s="381"/>
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
-      <c r="B42" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="128">
+      <c r="B42" s="250" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="379">
         <v>966800</v>
       </c>
-      <c r="D42" s="128">
+      <c r="D42" s="379">
         <v>379200</v>
       </c>
-      <c r="E42" s="128">
+      <c r="E42" s="379">
         <v>614800</v>
       </c>
-      <c r="F42" s="128">
+      <c r="F42" s="379">
         <v>322100</v>
       </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
+      <c r="G42" s="379"/>
+      <c r="H42" s="379"/>
+      <c r="I42" s="379"/>
+      <c r="J42" s="379"/>
+      <c r="K42" s="379"/>
+      <c r="L42" s="379"/>
+      <c r="M42" s="382"/>
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="179" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="B43" s="250" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" s="385">
+        <f>IF(C41="","",C41*$C$4/Common_Shares)</f>
+        <v>2.0600141728005541</v>
+      </c>
+      <c r="D43" s="385">
+        <f>IF(D41="","",D41*$C$4/Common_Shares)</f>
+        <v>2.0641069425052097</v>
+      </c>
+      <c r="E43" s="385">
+        <f>IF(E41="","",E41*$C$4/Common_Shares)</f>
+        <v>2.0728090450811276</v>
+      </c>
+      <c r="F43" s="385">
+        <f>IF(F41="","",F41*$C$4/Common_Shares)</f>
+        <v>1.946529218659814</v>
+      </c>
+      <c r="G43" s="385" t="str">
+        <f>IF(G41="","",G41*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="H43" s="385" t="str">
+        <f>IF(H41="","",H41*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="I43" s="385" t="str">
+        <f>IF(I41="","",I41*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="J43" s="385" t="str">
+        <f>IF(J41="","",J41*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="K43" s="385" t="str">
+        <f>IF(K41="","",K41*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="L43" s="385" t="str">
+        <f>IF(L41="","",L41*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="M43" s="386" t="str">
+        <f>IF(M41="","",M41*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="62">
-        <f t="shared" ref="C44:M44" si="14">IF(C36="","",C25/C28)</f>
-        <v>0.51217221314354655</v>
-      </c>
-      <c r="D44" s="62">
-        <f t="shared" si="14"/>
-        <v>0.47020602750101581</v>
-      </c>
-      <c r="E44" s="62">
-        <f t="shared" si="14"/>
-        <v>0.50241201722568152</v>
-      </c>
-      <c r="F44" s="62">
-        <f t="shared" si="14"/>
-        <v>0.41602530464166587</v>
-      </c>
-      <c r="G44" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H44" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I44" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J44" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K44" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L44" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M44" s="62" t="str">
-        <f t="shared" si="14"/>
+      <c r="B44" s="384" t="s">
+        <v>357</v>
+      </c>
+      <c r="C44" s="387">
+        <f>IF(C42="","",C42*$C$4/Common_Shares)</f>
+        <v>0.38416405344281301</v>
+      </c>
+      <c r="D44" s="387">
+        <f>IF(D42="","",D42*$C$4/Common_Shares)</f>
+        <v>0.15067750213644465</v>
+      </c>
+      <c r="E44" s="387">
+        <f>IF(E42="","",E42*$C$4/Common_Shares)</f>
+        <v>0.24429464217691502</v>
+      </c>
+      <c r="F44" s="387">
+        <f>IF(F42="","",F42*$C$4/Common_Shares)</f>
+        <v>0.12798845843393677</v>
+      </c>
+      <c r="G44" s="387" t="str">
+        <f>IF(G42="","",G42*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="H44" s="387" t="str">
+        <f>IF(H42="","",H42*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="I44" s="387" t="str">
+        <f>IF(I42="","",I42*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="J44" s="387" t="str">
+        <f>IF(J42="","",J42*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="K44" s="387" t="str">
+        <f>IF(K42="","",K42*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="L44" s="387" t="str">
+        <f>IF(L42="","",L42*$C$4/Common_Shares)</f>
+        <v/>
+      </c>
+      <c r="M44" s="388" t="str">
+        <f>IF(M42="","",M42*$C$4/Common_Shares)</f>
         <v/>
       </c>
       <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
-      <c r="B45" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="14">
-        <f t="shared" ref="C45:M45" si="15">IF(C36="","",C27/C28)</f>
-        <v>0.69112054614597496</v>
-      </c>
-      <c r="D45" s="14">
-        <f t="shared" si="15"/>
-        <v>0.59902745762221543</v>
-      </c>
-      <c r="E45" s="14">
-        <f t="shared" si="15"/>
-        <v>0.70347720120924373</v>
-      </c>
-      <c r="F45" s="14">
-        <f t="shared" si="15"/>
-        <v>0.56773694503104066</v>
-      </c>
-      <c r="G45" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H45" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I45" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J45" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K45" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L45" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M45" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N45" s="6"/>
+      <c r="B45" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
-      <c r="B46" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="66">
-        <f t="shared" ref="C46:M46" si="16">IF(C36="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>4.4913641134844383E-2</v>
-      </c>
-      <c r="D46" s="66">
-        <f t="shared" si="16"/>
-        <v>5.5214148203596103E-2</v>
-      </c>
-      <c r="E46" s="66">
-        <f t="shared" si="16"/>
-        <v>5.5248043261415601E-2</v>
-      </c>
-      <c r="F46" s="66">
-        <f t="shared" si="16"/>
-        <v>0.1059381608421936</v>
-      </c>
-      <c r="G46" s="66" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H46" s="66" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I46" s="66" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J46" s="66" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="K46" s="66" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L46" s="66" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M46" s="66" t="str">
-        <f t="shared" si="16"/>
+      <c r="B46" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="62">
+        <f>IF(C36="","",C25/C28)</f>
+        <v>0.51217221314354655</v>
+      </c>
+      <c r="D46" s="62">
+        <f>IF(D36="","",D25/D28)</f>
+        <v>0.47020602750101581</v>
+      </c>
+      <c r="E46" s="62">
+        <f>IF(E36="","",E25/E28)</f>
+        <v>0.50241201722568152</v>
+      </c>
+      <c r="F46" s="62">
+        <f>IF(F36="","",F25/F28)</f>
+        <v>0.41602530464166587</v>
+      </c>
+      <c r="G46" s="62" t="str">
+        <f>IF(G36="","",G25/G28)</f>
+        <v/>
+      </c>
+      <c r="H46" s="62" t="str">
+        <f>IF(H36="","",H25/H28)</f>
+        <v/>
+      </c>
+      <c r="I46" s="62" t="str">
+        <f>IF(I36="","",I25/I28)</f>
+        <v/>
+      </c>
+      <c r="J46" s="62" t="str">
+        <f>IF(J36="","",J25/J28)</f>
+        <v/>
+      </c>
+      <c r="K46" s="62" t="str">
+        <f>IF(K36="","",K25/K28)</f>
+        <v/>
+      </c>
+      <c r="L46" s="62" t="str">
+        <f>IF(L36="","",L25/L28)</f>
+        <v/>
+      </c>
+      <c r="M46" s="62" t="str">
+        <f>IF(M36="","",M25/M28)</f>
         <v/>
       </c>
       <c r="N46" s="6"/>
@@ -7384,587 +7370,677 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="66">
-        <f t="shared" ref="C47:M47" si="17">IF(C34="","",IF(C18&lt;=0,"-",C18/C16))</f>
-        <v>0.38903549969435375</v>
-      </c>
-      <c r="D47" s="66">
-        <f t="shared" si="17"/>
-        <v>0.41012082840511144</v>
-      </c>
-      <c r="E47" s="66">
-        <f t="shared" si="17"/>
-        <v>0.59328887866942592</v>
-      </c>
-      <c r="F47" s="66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="G47" s="66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H47" s="66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="I47" s="66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J47" s="66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="K47" s="66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L47" s="66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M47" s="66" t="str">
-        <f t="shared" si="17"/>
+        <v>97</v>
+      </c>
+      <c r="C47" s="14">
+        <f>IF(C36="","",C27/C28)</f>
+        <v>0.69112054614597496</v>
+      </c>
+      <c r="D47" s="14">
+        <f>IF(D36="","",D27/D28)</f>
+        <v>0.59902745762221543</v>
+      </c>
+      <c r="E47" s="14">
+        <f>IF(E36="","",E27/E28)</f>
+        <v>0.70347720120924373</v>
+      </c>
+      <c r="F47" s="14">
+        <f>IF(F36="","",F27/F28)</f>
+        <v>0.56773694503104066</v>
+      </c>
+      <c r="G47" s="14" t="str">
+        <f>IF(G36="","",G27/G28)</f>
+        <v/>
+      </c>
+      <c r="H47" s="14" t="str">
+        <f>IF(H36="","",H27/H28)</f>
+        <v/>
+      </c>
+      <c r="I47" s="14" t="str">
+        <f>IF(I36="","",I27/I28)</f>
+        <v/>
+      </c>
+      <c r="J47" s="14" t="str">
+        <f>IF(J36="","",J27/J28)</f>
+        <v/>
+      </c>
+      <c r="K47" s="14" t="str">
+        <f>IF(K36="","",K27/K28)</f>
+        <v/>
+      </c>
+      <c r="L47" s="14" t="str">
+        <f>IF(L36="","",L27/L28)</f>
+        <v/>
+      </c>
+      <c r="M47" s="14" t="str">
+        <f>IF(M36="","",M27/M28)</f>
         <v/>
       </c>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="67">
-        <f t="shared" ref="C48:M48" si="18">IF(C36="","",C21/C22)</f>
+      <c r="B48" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="66">
+        <f>IF(C36="","",IF(C27&lt;=0,"-",C14/C27))</f>
+        <v>4.4913641134844383E-2</v>
+      </c>
+      <c r="D48" s="66">
+        <f>IF(D36="","",IF(D27&lt;=0,"-",D14/D27))</f>
+        <v>5.5214148203596103E-2</v>
+      </c>
+      <c r="E48" s="66">
+        <f>IF(E36="","",IF(E27&lt;=0,"-",E14/E27))</f>
+        <v>5.5248043261415601E-2</v>
+      </c>
+      <c r="F48" s="66">
+        <f>IF(F36="","",IF(F27&lt;=0,"-",F14/F27))</f>
+        <v>0.1059381608421936</v>
+      </c>
+      <c r="G48" s="66" t="str">
+        <f>IF(G36="","",IF(G27&lt;=0,"-",G14/G27))</f>
+        <v/>
+      </c>
+      <c r="H48" s="66" t="str">
+        <f>IF(H36="","",IF(H27&lt;=0,"-",H14/H27))</f>
+        <v/>
+      </c>
+      <c r="I48" s="66" t="str">
+        <f>IF(I36="","",IF(I27&lt;=0,"-",I14/I27))</f>
+        <v/>
+      </c>
+      <c r="J48" s="66" t="str">
+        <f>IF(J36="","",IF(J27&lt;=0,"-",J14/J27))</f>
+        <v/>
+      </c>
+      <c r="K48" s="66" t="str">
+        <f>IF(K36="","",IF(K27&lt;=0,"-",K14/K27))</f>
+        <v/>
+      </c>
+      <c r="L48" s="66" t="str">
+        <f>IF(L36="","",IF(L27&lt;=0,"-",L14/L27))</f>
+        <v/>
+      </c>
+      <c r="M48" s="66" t="str">
+        <f>IF(M36="","",IF(M27&lt;=0,"-",M14/M27))</f>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="66">
+        <f>IF(C34="","",IF(C18&lt;=0,"-",C18/C16))</f>
+        <v>0.38903549969435375</v>
+      </c>
+      <c r="D49" s="66">
+        <f>IF(D34="","",IF(D18&lt;=0,"-",D18/D16))</f>
+        <v>0.41012082840511144</v>
+      </c>
+      <c r="E49" s="66">
+        <f>IF(E34="","",IF(E18&lt;=0,"-",E18/E16))</f>
+        <v>0.59328887866942592</v>
+      </c>
+      <c r="F49" s="66" t="str">
+        <f>IF(F34="","",IF(F18&lt;=0,"-",F18/F16))</f>
+        <v/>
+      </c>
+      <c r="G49" s="66" t="str">
+        <f>IF(G34="","",IF(G18&lt;=0,"-",G18/G16))</f>
+        <v/>
+      </c>
+      <c r="H49" s="66" t="str">
+        <f>IF(H34="","",IF(H18&lt;=0,"-",H18/H16))</f>
+        <v/>
+      </c>
+      <c r="I49" s="66" t="str">
+        <f>IF(I34="","",IF(I18&lt;=0,"-",I18/I16))</f>
+        <v/>
+      </c>
+      <c r="J49" s="66" t="str">
+        <f>IF(J34="","",IF(J18&lt;=0,"-",J18/J16))</f>
+        <v/>
+      </c>
+      <c r="K49" s="66" t="str">
+        <f>IF(K34="","",IF(K18&lt;=0,"-",K18/K16))</f>
+        <v/>
+      </c>
+      <c r="L49" s="66" t="str">
+        <f>IF(L34="","",IF(L18&lt;=0,"-",L18/L16))</f>
+        <v/>
+      </c>
+      <c r="M49" s="66" t="str">
+        <f>IF(M34="","",IF(M18&lt;=0,"-",M18/M16))</f>
+        <v/>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="67">
+        <f>IF(C36="","",C21/C22)</f>
         <v>1.1177864139693356</v>
       </c>
-      <c r="D48" s="67">
-        <f t="shared" si="18"/>
+      <c r="D50" s="67">
+        <f>IF(D36="","",D21/D22)</f>
         <v>1.3911666988719675</v>
       </c>
-      <c r="E48" s="67">
-        <f t="shared" si="18"/>
+      <c r="E50" s="67">
+        <f>IF(E36="","",E21/E22)</f>
         <v>1.1943687610330687</v>
       </c>
-      <c r="F48" s="67">
-        <f t="shared" si="18"/>
+      <c r="F50" s="67">
+        <f>IF(F36="","",F21/F22)</f>
         <v>1.483011477770338</v>
       </c>
-      <c r="G48" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H48" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I48" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J48" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K48" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L48" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M48" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="67" t="str">
+        <f>IF(G36="","",G21/G22)</f>
+        <v/>
+      </c>
+      <c r="H50" s="67" t="str">
+        <f>IF(H36="","",H21/H22)</f>
+        <v/>
+      </c>
+      <c r="I50" s="67" t="str">
+        <f>IF(I36="","",I21/I22)</f>
+        <v/>
+      </c>
+      <c r="J50" s="67" t="str">
+        <f>IF(J36="","",J21/J22)</f>
+        <v/>
+      </c>
+      <c r="K50" s="67" t="str">
+        <f>IF(K36="","",K21/K22)</f>
+        <v/>
+      </c>
+      <c r="L50" s="67" t="str">
+        <f>IF(L36="","",L21/L22)</f>
+        <v/>
+      </c>
+      <c r="M50" s="67" t="str">
+        <f>IF(M36="","",M21/M22)</f>
+        <v/>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="383">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="370">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E51" s="384"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="378" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="323"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="69"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="371"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="379">
+      <c r="B54" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="365" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="311"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="69"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="366">
         <v>5</v>
       </c>
-      <c r="E54" s="380"/>
-      <c r="F54" s="72"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="381" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="382"/>
-      <c r="F55" s="75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="76" t="str">
+      <c r="E56" s="367"/>
+      <c r="F56" s="72"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="368" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="369"/>
+      <c r="F57" s="75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="76" t="str">
         <f>C6</f>
         <v>FY 2022</v>
       </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="78">
+      <c r="C58" s="77"/>
+      <c r="D58" s="78">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E56" s="79">
-        <f t="shared" ref="E56:E66" si="19">C56*D56</f>
+      <c r="E58" s="79">
+        <f t="shared" ref="E58:E68" si="13">C58*D58</f>
         <v>0</v>
       </c>
-      <c r="F56" s="80">
+      <c r="F58" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="81">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="81">
         <f>IF(D7="","",-1)</f>
         <v>-1</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="78">
-        <f t="shared" ref="D57:D66" si="20">IF(B57&lt;0,(D$54+B57)/D$54,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="E57" s="79">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="80">
-        <f t="shared" ref="F57:F66" si="21">IF(B57&lt;0,C57/$D$54,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="81">
-        <f t="shared" ref="B58:B66" si="22">IF((0-B57)&lt;$D$54,IF(B57&gt;-1, ,B57-1), )</f>
-        <v>-2</v>
-      </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78">
-        <f t="shared" si="20"/>
-        <v>0.6</v>
-      </c>
-      <c r="E58" s="79">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="80">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="81">
-        <f t="shared" si="22"/>
-        <v>-3</v>
-      </c>
       <c r="C59" s="77"/>
       <c r="D59" s="78">
-        <f t="shared" si="20"/>
-        <v>0.4</v>
+        <f t="shared" ref="D59:D68" si="14">IF(B59&lt;0,(D$56+B59)/D$56,0)</f>
+        <v>0.8</v>
       </c>
       <c r="E59" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F59" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="F59:F68" si="15">IF(B59&lt;0,C59/$D$56,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="81">
-        <f t="shared" si="22"/>
-        <v>-4</v>
+        <f t="shared" ref="B60:B68" si="16">IF((0-B59)&lt;$D$56,IF(B59&gt;-1, ,B59-1), )</f>
+        <v>-2</v>
       </c>
       <c r="C60" s="77"/>
       <c r="D60" s="78">
-        <f t="shared" si="20"/>
-        <v>0.2</v>
+        <f t="shared" si="14"/>
+        <v>0.6</v>
       </c>
       <c r="E60" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F60" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="81">
-        <f t="shared" si="22"/>
-        <v>-5</v>
+        <f t="shared" si="16"/>
+        <v>-3</v>
       </c>
       <c r="C61" s="77"/>
       <c r="D61" s="78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="E61" s="79">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E61" s="79">
-        <f t="shared" si="19"/>
+      <c r="F61" s="80">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F61" s="80">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="81">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-4</v>
       </c>
       <c r="C62" s="77"/>
       <c r="D62" s="78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="E62" s="79">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E62" s="79">
-        <f t="shared" si="19"/>
+      <c r="F62" s="80">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F62" s="80">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="81">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-5</v>
       </c>
       <c r="C63" s="77"/>
       <c r="D63" s="78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E63" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F63" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C64" s="77"/>
       <c r="D64" s="78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E64" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F64" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C65" s="77"/>
       <c r="D65" s="78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E65" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F65" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C66" s="77"/>
       <c r="D66" s="78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E66" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F66" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
+      <c r="B67" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E67" s="79">
-        <f>SUM(E56:E66)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F67" s="83"/>
+      <c r="F67" s="80">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
+      <c r="B68" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="77"/>
+      <c r="D68" s="78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="F68" s="80">
-        <f>SUM(F57:F66)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="82"/>
+      <c r="B69" s="82" t="s">
+        <v>110</v>
+      </c>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
+      <c r="E69" s="79">
+        <f>SUM(E58:E68)</f>
+        <v>0</v>
+      </c>
       <c r="F69" s="83"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="87" t="s">
-        <v>103</v>
+      <c r="B70" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="80">
+        <f>SUM(F59:F68)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="B71" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="88">
-        <f>C14</f>
-        <v>8942800</v>
-      </c>
-      <c r="D71" s="88">
-        <f>C71+C56-F68</f>
-        <v>8942800</v>
-      </c>
-      <c r="E71" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="F71" s="83" t="s">
-        <v>106</v>
-      </c>
+      <c r="B71" s="82"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="83"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="B72" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="89">
-        <f t="shared" ref="C72:D72" si="23">C71/$C$7</f>
-        <v>0.13110168634286576</v>
-      </c>
-      <c r="D72" s="89">
-        <f t="shared" si="23"/>
-        <v>0.13110168634286576</v>
-      </c>
-      <c r="E72" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="83" t="s">
-        <v>109</v>
+      <c r="B72" s="84"/>
+      <c r="C72" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="87" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="82" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C73" s="88">
-        <f>C34</f>
-        <v>19086045.199999999</v>
+        <f>C14</f>
+        <v>8942800</v>
       </c>
       <c r="D73" s="88">
-        <f>C73+E67-F68</f>
-        <v>19086045.199999999</v>
+        <f>C73+C58-F70</f>
+        <v>8942800</v>
       </c>
       <c r="E73" s="69" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F73" s="83" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="88">
-        <f>C16</f>
-        <v>6707100</v>
-      </c>
-      <c r="D74" s="88">
-        <f>C74+C57</f>
-        <v>6707100</v>
+        <v>119</v>
+      </c>
+      <c r="C74" s="89">
+        <f t="shared" ref="C74:D74" si="17">C73/$C$7</f>
+        <v>0.13110168634286576</v>
+      </c>
+      <c r="D74" s="89">
+        <f t="shared" si="17"/>
+        <v>0.13110168634286576</v>
       </c>
       <c r="E74" s="69" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F74" s="83" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="82" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C75" s="88">
+        <f>C34</f>
+        <v>19086045.199999999</v>
+      </c>
+      <c r="D75" s="88">
+        <f>C75+E69-F70</f>
+        <v>19086045.199999999</v>
+      </c>
+      <c r="E75" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="88">
+        <f>C16</f>
+        <v>6707100</v>
+      </c>
+      <c r="D76" s="88">
+        <f>C76+C59</f>
+        <v>6707100</v>
+      </c>
+      <c r="E76" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="88">
         <f>F3</f>
         <v>1249200</v>
       </c>
-      <c r="D75" s="88">
-        <f>C75+C56-F68</f>
+      <c r="D77" s="88">
+        <f>C77+C58-F70</f>
         <v>1249200</v>
       </c>
-      <c r="E75" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-      <c r="B76" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="91">
+      <c r="E77" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
+      <c r="B78" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="91">
         <f>C36</f>
         <v>429494200</v>
       </c>
-      <c r="D76" s="91">
-        <f>C76+E67</f>
+      <c r="D78" s="91">
+        <f>C78+E69</f>
         <v>429494200</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="93"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="93"/>
+      <c r="E78" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="92" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
@@ -7975,8 +8051,8 @@
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="69"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
@@ -7992,9 +8068,15 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
@@ -8590,8 +8672,12 @@
     <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
     </row>
-    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="9"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="9"/>
+    </row>
     <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9273,40 +9359,42 @@
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
-  <conditionalFormatting sqref="B54:F76">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$D$52="No"</formula>
+  <conditionalFormatting sqref="B56:F78">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$D$54="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:M48 C7:M36">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+  <conditionalFormatting sqref="D46:M50 C7:M36">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M17">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:M39 C41:M42">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+  <conditionalFormatting sqref="C38:M39 C41:M44">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(C38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D54" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D56" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="D52" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D54" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9325,7 +9413,7 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9340,11 +9428,11 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="386" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
+      <c r="B2" s="373" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -9352,35 +9440,35 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="317">
+      <c r="D3" s="279">
         <v>288098800</v>
       </c>
-      <c r="E3" s="318" t="str">
+      <c r="E3" s="280" t="str">
         <f>IF((C46-H46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="97" t="s">
-        <v>352</v>
-      </c>
-      <c r="H3" s="181">
+        <v>134</v>
+      </c>
+      <c r="H3" s="172">
         <f>((D3-D4)*Dashboard!I12*Data!C4)/Dashboard!I5</f>
         <v>84.779976064298651</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="310">
+      <c r="D4" s="273">
         <f>27124500+47614200</f>
         <v>74738700</v>
       </c>
-      <c r="E4" s="309"/>
+      <c r="E4" s="272"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -9388,13 +9476,13 @@
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="24" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="95" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="96">
@@ -9407,29 +9495,29 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="97" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H6" s="28">
         <f>IF(Data!F3&lt;=0,"NNI",D7/((Data!F3*Dashboard!I12)/(Dashboard!I5/Data!C4)))</f>
-        <v>-41.987475984630166</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="69" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D7" s="98">
-        <f>(D6*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>-20.841636995175726</v>
+        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="99"/>
       <c r="G7" s="97" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H7" s="28">
         <f>D7/(Data!C28*Dashboard!I12*Data!C4/Common_Shares)</f>
-        <v>-0.18205822099918501</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -9439,11 +9527,11 @@
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="386" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="386"/>
-      <c r="D9" s="386"/>
+      <c r="B9" s="373" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="373"/>
+      <c r="D9" s="373"/>
       <c r="E9" s="8"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -9451,28 +9539,28 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="100" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C11" s="101">
         <v>57715600</v>
@@ -9486,7 +9574,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H11" s="101">
         <f>36175100+14094500</f>
@@ -9496,7 +9584,7 @@
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>349</v>
+        <v>149</v>
       </c>
       <c r="C12" s="101">
         <v>4494500</v>
@@ -9510,7 +9598,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H12" s="101">
         <v>1285200</v>
@@ -9519,7 +9607,7 @@
     </row>
     <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C13" s="101">
         <v>0</v>
@@ -9533,7 +9621,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H13" s="101">
         <v>0</v>
@@ -9542,7 +9630,7 @@
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C14" s="101">
         <f>3154200+2529900</f>
@@ -9557,7 +9645,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="3" t="s">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="H14" s="101">
         <v>400</v>
@@ -9566,7 +9654,7 @@
     </row>
     <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C15" s="101">
         <v>0</v>
@@ -9580,9 +9668,9 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="316">
+        <v>156</v>
+      </c>
+      <c r="H15" s="278">
         <f>H26-SUM(H11:H14)</f>
         <v>121257600</v>
       </c>
@@ -9590,7 +9678,7 @@
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="C16" s="101">
         <v>27400</v>
@@ -9604,12 +9692,12 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="315"/>
+      <c r="H16" s="277"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C17" s="101">
         <f>8649200+32235200</f>
@@ -9624,12 +9712,12 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="315"/>
+      <c r="H17" s="277"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C18" s="101">
         <v>504900</v>
@@ -9645,7 +9733,7 @@
     </row>
     <row r="19" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>355</v>
+        <v>159</v>
       </c>
       <c r="C19" s="101">
         <f>21770600+20100</f>
@@ -9660,11 +9748,11 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="315"/>
+      <c r="H19" s="277"/>
     </row>
     <row r="20" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="C20" s="101">
         <v>62066200</v>
@@ -9678,11 +9766,11 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="315"/>
+      <c r="H20" s="277"/>
     </row>
     <row r="21" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C21" s="101">
         <v>0</v>
@@ -9696,11 +9784,11 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="315"/>
+      <c r="H21" s="277"/>
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C22" s="101">
         <v>0</v>
@@ -9721,7 +9809,7 @@
     </row>
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="103" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C24" s="107">
         <f>SUM(C11:C14)</f>
@@ -9737,7 +9825,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="103" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H24" s="106">
         <f>E24/($H$26-H13)</f>
@@ -9750,7 +9838,7 @@
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="103" t="s">
-        <v>358</v>
+        <v>165</v>
       </c>
       <c r="C25" s="107">
         <f>C24+SUM(C15:C17)</f>
@@ -9766,7 +9854,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="103" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H25" s="106">
         <f>E25/$H$26</f>
@@ -9776,7 +9864,7 @@
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C26" s="107">
         <f>SUM(C11:C22)</f>
@@ -9791,7 +9879,7 @@
         <v>127320975</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H26" s="101">
         <v>172812800</v>
@@ -9807,7 +9895,7 @@
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C28" s="101">
         <v>0</v>
@@ -9820,7 +9908,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H28" s="101">
         <v>143038900</v>
@@ -9829,7 +9917,7 @@
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C29" s="101">
         <f>18684000+39133800</f>
@@ -9844,7 +9932,7 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="H29" s="101">
         <v>4517300</v>
@@ -9853,7 +9941,7 @@
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C30" s="101">
         <v>0</v>
@@ -9867,7 +9955,7 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="3" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="H30" s="101">
         <v>221600</v>
@@ -9876,7 +9964,7 @@
     </row>
     <row r="31" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="C31" s="101">
         <v>781600</v>
@@ -9890,7 +9978,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="5" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H31" s="101">
         <v>0</v>
@@ -9899,7 +9987,7 @@
     </row>
     <row r="32" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C32" s="101">
         <v>0</v>
@@ -9913,9 +10001,9 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="316">
+        <v>176</v>
+      </c>
+      <c r="H32" s="278">
         <f>H42-SUM(H28:H31)</f>
         <v>27194500</v>
       </c>
@@ -9923,7 +10011,7 @@
     </row>
     <row r="33" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C33" s="101">
         <f>48745200+16193100</f>
@@ -9941,7 +10029,7 @@
     </row>
     <row r="34" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C34" s="101">
         <v>211220700</v>
@@ -9957,7 +10045,7 @@
     </row>
     <row r="35" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="C35" s="101">
         <v>23310600</v>
@@ -9973,7 +10061,7 @@
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C36" s="101">
         <v>19684300</v>
@@ -9989,7 +10077,7 @@
     </row>
     <row r="37" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C37" s="101">
         <v>6298200</v>
@@ -10005,7 +10093,7 @@
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C38" s="101">
         <f>13011400+8395200</f>
@@ -10022,7 +10110,7 @@
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C39" s="101">
         <v>2015000</v>
@@ -10038,7 +10126,7 @@
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C40" s="101">
         <f>5239800+2335000+27668200</f>
@@ -10061,7 +10149,7 @@
     </row>
     <row r="42" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C42" s="104">
         <f>SUM(C28:C40)</f>
@@ -10077,7 +10165,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="5" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="H42" s="101">
         <v>174972300</v>
@@ -10092,7 +10180,7 @@
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="103" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C44" s="107">
         <f>C24+SUM(C28:C29)</f>
@@ -10108,7 +10196,7 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="103" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="H44" s="106">
         <f>E44/$H$46</f>
@@ -10121,7 +10209,7 @@
     </row>
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="103" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C45" s="107">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
@@ -10137,7 +10225,7 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="103" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="H45" s="106">
         <f>E45/$H$46</f>
@@ -10147,7 +10235,7 @@
     </row>
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C46" s="107">
         <f>C26+C42</f>
@@ -10163,9 +10251,9 @@
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="316">
+        <v>191</v>
+      </c>
+      <c r="H46" s="278">
         <f>H26+H42</f>
         <v>347785100</v>
       </c>
@@ -10179,22 +10267,22 @@
     </row>
     <row r="48" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B48" s="22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="68"/>
     </row>
     <row r="49" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B49" s="108" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="387"/>
-      <c r="E49" s="387"/>
+      <c r="D49" s="374"/>
+      <c r="E49" s="374"/>
     </row>
     <row r="50" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D50" s="64" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
@@ -10205,7 +10293,7 @@
         <v>74738700</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="H50" s="319"/>
+      <c r="H50" s="281"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
@@ -10214,49 +10302,49 @@
     </row>
     <row r="52" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="387"/>
-      <c r="E52" s="387"/>
+      <c r="D52" s="374"/>
+      <c r="E52" s="374"/>
       <c r="F52" s="69"/>
     </row>
     <row r="53" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B53" s="95" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="388">
+      <c r="D53" s="375">
         <v>0</v>
       </c>
-      <c r="E53" s="323"/>
+      <c r="E53" s="311"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B54" s="95" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="388">
+      <c r="D54" s="375">
         <v>0</v>
       </c>
-      <c r="E54" s="323"/>
+      <c r="E54" s="311"/>
       <c r="F54" s="6" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="69" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="339">
+      <c r="D55" s="317">
         <f>Data!C27+D53+D54</f>
         <v>199111000</v>
       </c>
-      <c r="E55" s="385"/>
+      <c r="E55" s="372"/>
       <c r="F55" s="5" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10265,25 +10353,25 @@
     </row>
     <row r="57" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="387"/>
-      <c r="E57" s="387"/>
+      <c r="D57" s="374"/>
+      <c r="E57" s="374"/>
       <c r="F57" s="19" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="69" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="388">
+      <c r="D58" s="375">
         <f>E14+E15+E34+E35+E29+E30</f>
         <v>207980250</v>
       </c>
-      <c r="E58" s="389"/>
+      <c r="E58" s="376"/>
       <c r="F58" s="14">
         <f>1-(E15+E34+E29+E30)/(C15+C34+C29+C30)</f>
         <v>0.27850946983424307</v>
@@ -10292,26 +10380,26 @@
     </row>
     <row r="59" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B59" s="69" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="339">
+      <c r="D59" s="317">
         <f>E11+E28</f>
         <v>57715600</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="372"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:8" ht="14" x14ac:dyDescent="0.3">
       <c r="B60" s="69" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="339">
+      <c r="D60" s="317">
         <f>((Dashboard!I6*1000)+D55+E50-(C15+C34+C29+C30)-D59)</f>
         <v>6488143.7956193686</v>
       </c>
-      <c r="E60" s="385"/>
+      <c r="E60" s="372"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10346,10 +10434,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M960"/>
+  <dimension ref="A1:M948"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10368,8 +10456,8 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="183" t="s">
-        <v>185</v>
+      <c r="B2" s="174" t="s">
+        <v>205</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -10383,1183 +10471,1022 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="110">
-        <v>4</v>
-      </c>
-      <c r="D3" s="111" t="str">
-        <f>IF(E7="","next 1 years","next 3 years")</f>
-        <v>next 1 years</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="B3" s="34" t="str">
+        <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
+        <v>(Numbers in 1000HKD)</v>
+      </c>
+      <c r="C3" s="33" t="str">
+        <f>RIGHT(Data!C6,4)</f>
+        <v>2022</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33" t="str">
+        <f>"2 "&amp;IF(F4="","(Normalized)","(Base)")</f>
+        <v>2 (Normalized)</v>
+      </c>
+      <c r="F3" s="33" t="str">
+        <f>IF(F12="","","3 (Normalized)")</f>
+        <v/>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="113">
-        <f>Data!J4</f>
-        <v>-0.18569207625819872</v>
-      </c>
-      <c r="D4" s="114">
-        <f>IF(E7="",D16/C16-1,(G16/C16)^(1/4)-1)</f>
-        <v>-0.86664970702688193</v>
-      </c>
-      <c r="E4" s="113">
+      <c r="B4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="49">
+        <f>Data!C8</f>
+        <v>-3.0044025489062154E-4</v>
+      </c>
+      <c r="D4" s="110">
+        <f>D5/C5-1</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="112"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="113">
+        <f>Data!C7</f>
+        <v>68212700</v>
+      </c>
+      <c r="D5" s="215">
+        <f>C5</f>
+        <v>68212700</v>
+      </c>
+      <c r="E5" s="207" t="str">
+        <f>IF(E4="","",D5*(1+E4))</f>
+        <v/>
+      </c>
+      <c r="F5" s="210"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="112"/>
+      <c r="M5" s="94"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="60">
+        <f>Data!C9</f>
+        <v>49967000</v>
+      </c>
+      <c r="D6" s="216">
+        <f>D5*(1-D7)</f>
+        <v>49967000</v>
+      </c>
+      <c r="E6" s="208" t="str">
+        <f>IF(E4="","",E5*(1-E7))</f>
+        <v/>
+      </c>
+      <c r="F6" s="210"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="211"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="49">
+        <f>Data!C10</f>
+        <v>0.26748244828309098</v>
+      </c>
+      <c r="D7" s="116">
+        <f>C7</f>
+        <v>0.26748244828309098</v>
+      </c>
+      <c r="E7" s="116"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="112"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="31">
+        <f t="shared" ref="C8" si="0">C5-C6</f>
+        <v>18245700</v>
+      </c>
+      <c r="D8" s="58">
+        <f>D5-D6</f>
+        <v>18245700</v>
+      </c>
+      <c r="E8" s="58" t="str">
+        <f>IF(E4="","",E5-E6)</f>
+        <v/>
+      </c>
+      <c r="F8" s="213"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="112"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="52">
+        <f>Data!C12</f>
+        <v>0.13638076194022522</v>
+      </c>
+      <c r="D9" s="117">
+        <f>D10/D5</f>
+        <v>0.13638076194022522</v>
+      </c>
+      <c r="E9" s="118"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="112"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="119">
+        <f>Data!C11</f>
+        <v>9302900</v>
+      </c>
+      <c r="D10" s="120">
+        <f>C10</f>
+        <v>9302900</v>
+      </c>
+      <c r="E10" s="114" t="str">
+        <f>IF(E4="","",E5*E9)</f>
+        <v/>
+      </c>
+      <c r="F10" s="213"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="112"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="18">
+        <f>Data!C13</f>
+        <v>0.13110168634286576</v>
+      </c>
+      <c r="D11" s="110">
+        <f>D13/D5</f>
+        <v>0.13110168634286576</v>
+      </c>
+      <c r="E11" s="110" t="str">
+        <f>IF(E4="","",E13/E5)</f>
+        <v/>
+      </c>
+      <c r="F11" s="214"/>
+      <c r="G11" s="284">
         <f>IF(Dashboard!D10&gt;5%,5%,IF(Dashboard!D10&lt;3.5%,3.5%,Dashboard!D10))</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F4" s="115" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="str">
-        <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
-        <v>(Numbers in 1000HKD)</v>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f>RIGHT(Data!C6,4)</f>
-        <v>2022</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33" t="str">
-        <f>"2 "&amp;IF(F7="","(Normalized)","(Base)")</f>
-        <v>2 (Normalized)</v>
-      </c>
-      <c r="F6" s="33" t="str">
-        <f>IF(F15="","","3 (Normalized)")</f>
-        <v/>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="117" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="49">
-        <f>Data!C8</f>
-        <v>-3.0044025489062154E-4</v>
-      </c>
-      <c r="D7" s="118">
-        <f>D8/C8-1</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="121">
-        <f>Data!C7</f>
-        <v>68212700</v>
-      </c>
-      <c r="D8" s="224">
-        <f>C8</f>
-        <v>68212700</v>
-      </c>
-      <c r="E8" s="216" t="str">
-        <f>IF(E7="","",D8*(1+E7))</f>
-        <v/>
-      </c>
-      <c r="F8" s="219"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="120"/>
-      <c r="M8" s="94"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="60">
-        <f>Data!C9</f>
-        <v>49967000</v>
-      </c>
-      <c r="D9" s="225">
-        <f>D8*(1-D10)</f>
-        <v>49967000</v>
-      </c>
-      <c r="E9" s="217" t="str">
-        <f>IF(E7="","",E8*(1-E10))</f>
-        <v/>
-      </c>
-      <c r="F9" s="219"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="220"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="123" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="49">
-        <f>Data!C10</f>
-        <v>0.26748244828309098</v>
-      </c>
-      <c r="D10" s="124">
-        <f>C10</f>
-        <v>0.26748244828309098</v>
-      </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="120"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="31">
-        <f t="shared" ref="C11" si="0">C8-C9</f>
-        <v>18245700</v>
-      </c>
-      <c r="D11" s="58">
-        <f>D8-D9</f>
-        <v>18245700</v>
-      </c>
-      <c r="E11" s="58" t="str">
-        <f>IF(E7="","",E8-E9)</f>
-        <v/>
-      </c>
-      <c r="F11" s="222"/>
-      <c r="G11" s="206"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="120"/>
+      <c r="I11" s="112"/>
+      <c r="M11" s="94"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="52">
-        <f>Data!C12</f>
-        <v>0.13638076194022522</v>
-      </c>
-      <c r="D12" s="125">
-        <f>D13/D8</f>
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="120"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="127">
-        <f>Data!C11</f>
-        <v>9302900</v>
-      </c>
-      <c r="D13" s="128">
-        <f>D8*0.25</f>
-        <v>17053175</v>
-      </c>
-      <c r="E13" s="122" t="str">
-        <f>IF(E7="","",E8*E12)</f>
-        <v/>
-      </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="120"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="123" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="18">
-        <f>Data!C13</f>
-        <v>0.13110168634286576</v>
-      </c>
-      <c r="D14" s="118">
-        <f>D16/D8</f>
-        <v>1.7482448283090979E-2</v>
-      </c>
-      <c r="E14" s="118" t="str">
-        <f>IF(E7="","",E16/E8)</f>
-        <v/>
-      </c>
-      <c r="F14" s="223"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="120"/>
-      <c r="M14" s="94"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="129" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B12" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="14">
         <f>Data!C15</f>
         <v>-0.11115086819532656</v>
       </c>
-      <c r="D15" s="125">
-        <f>IF(ABS(C16+D16)=ABS(C16)+ABS(D16),IF(D16&lt;0,-1,1)*(D16-C16)/C16,"Turn")</f>
-        <v>-0.86664970702688193</v>
-      </c>
-      <c r="E15" s="125" t="str">
-        <f>IF(E7="","",IF(ABS(D16+E16)=ABS(D16)+ABS(E16),IF(E16&lt;0,-1,1)*(E16-D16)/D16,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="F15" s="226"/>
-      <c r="G15" s="130">
-        <f>G19*G20</f>
+      <c r="D12" s="117">
+        <f>IF(ABS(C13+D13)=ABS(C13)+ABS(D13),IF(D13&lt;0,-1,1)*(D13-C13)/C13,"Turn")</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="117" t="str">
+        <f>IF(E4="","",IF(ABS(D13+E13)=ABS(D13)+ABS(E13),IF(E13&lt;0,-1,1)*(E13-D13)/D13,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="F12" s="217"/>
+      <c r="G12" s="285">
+        <f>G16*G17</f>
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="123"/>
+      <c r="M12" s="123"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="31">
+        <f>IF(Data!D54="No",Data!C73,Data!D73)</f>
+        <v>8942800</v>
+      </c>
+      <c r="D13" s="58">
+        <f>D8-D10</f>
+        <v>8942800</v>
+      </c>
+      <c r="E13" s="58" t="str">
+        <f>IF(E4="","",E8-E10)</f>
+        <v/>
+      </c>
+      <c r="F13" s="58" t="str">
+        <f>IF(F12="","",E13*(1+F12))</f>
+        <v/>
+      </c>
+      <c r="G13" s="31">
+        <f>IF(F12="",IF(E12="",C30,E13*(1+G12)),F13*(1+G12))</f>
+        <v>9255798</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="124"/>
+      <c r="K13" s="93"/>
+      <c r="M13" s="93"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="198"/>
+      <c r="D14" s="125">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="35" t="str">
+        <f>IF(E4="","",D14)</f>
+        <v/>
+      </c>
+      <c r="F14" s="35" t="str">
+        <f>IF(F12="","",D14)</f>
+        <v/>
+      </c>
+      <c r="G14" s="63">
+        <f>D14</f>
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="123"/>
+      <c r="K14" s="94"/>
+      <c r="M14" s="94"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="126">
+        <f>IF(Data!D54="No",Data!C76,Data!D76)</f>
+        <v>6707100</v>
+      </c>
+      <c r="D15" s="127">
+        <f>IF(D13&lt;=0,D13,D13*(1-D14))</f>
+        <v>6707100</v>
+      </c>
+      <c r="E15" s="127" t="str">
+        <f>IF(E4="","",IF(E13&lt;=0,E13,E13*(1-E14)))</f>
+        <v/>
+      </c>
+      <c r="F15" s="127" t="str">
+        <f>IF(F12="","",IF(F13&lt;=0,F13,F13*(1-F14)))</f>
+        <v/>
+      </c>
+      <c r="G15" s="126">
+        <f>G13*(1-G14)</f>
+        <v>6941848.5</v>
+      </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" s="132"/>
-      <c r="M15" s="132"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="31">
-        <f>IF(Data!D52="No",Data!C71,Data!D71)</f>
-        <v>8942800</v>
-      </c>
-      <c r="D16" s="58">
-        <f>D11-D13</f>
-        <v>1192525</v>
-      </c>
-      <c r="E16" s="58" t="str">
-        <f>IF(E7="","",E11-E13)</f>
-        <v/>
-      </c>
-      <c r="F16" s="58" t="str">
-        <f>IF(F15="","",E16*(1+F15))</f>
-        <v/>
-      </c>
-      <c r="G16" s="31">
-        <f>IF(F15="",IF(E15="",C33,E16*(1+G15)),F16*(1+G15))</f>
-        <v>1234263.375</v>
+      <c r="I15" s="128"/>
+      <c r="K15" s="93"/>
+      <c r="M15" s="93"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="14">
+        <f>G20</f>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="133"/>
-      <c r="K16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="I16" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="M16" s="94"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="134">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="35" t="str">
-        <f>IF(E7="","",D17)</f>
-        <v/>
-      </c>
-      <c r="F17" s="35" t="str">
-        <f>IF(F15="","",D17)</f>
-        <v/>
-      </c>
-      <c r="G17" s="63">
-        <f>D17</f>
-        <v>0.25</v>
+      <c r="B17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" ref="C17" si="1">C18/C15</f>
+        <v>2.8456479253328562</v>
+      </c>
+      <c r="D17" s="32">
+        <f>IF(E4="",G17,D18/D15)</f>
+        <v>0.38251366120218583</v>
+      </c>
+      <c r="E17" s="102"/>
+      <c r="F17" s="32" t="str">
+        <f>IF(F12="","",G12/G16)</f>
+        <v/>
+      </c>
+      <c r="G17" s="14">
+        <f>G11/G16</f>
+        <v>0.38251366120218583</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="132"/>
-      <c r="K17" s="94"/>
-      <c r="M17" s="94"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="135">
-        <f>IF(Data!D52="No",Data!C74,Data!D74)</f>
-        <v>6707100</v>
-      </c>
-      <c r="D18" s="136">
-        <f>IF(D16&lt;=0,D16,D16*(1-D17))</f>
-        <v>894393.75</v>
-      </c>
-      <c r="E18" s="136" t="str">
-        <f>IF(E7="","",IF(E16&lt;=0,E16,E16*(1-E17)))</f>
-        <v/>
-      </c>
-      <c r="F18" s="136" t="str">
-        <f>IF(F15="","",IF(F16&lt;=0,F16,F16*(1-F17)))</f>
-        <v/>
-      </c>
-      <c r="G18" s="135">
-        <f>G16*(1-G17)</f>
-        <v>925697.53125</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="137"/>
-      <c r="K18" s="93"/>
+      <c r="I17" s="122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="131">
+        <f>IF(Data!D54="No",Data!C75,Data!D75)</f>
+        <v>19086045.199999999</v>
+      </c>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133" t="str">
+        <f>IF(E4="","",IF(F12="",E15*G17,E17*E15))</f>
+        <v/>
+      </c>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="93"/>
       <c r="M18" s="93"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="14">
-        <f>G23</f>
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="K19" s="94"/>
-      <c r="M19" s="94"/>
+    <row r="19" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="220"/>
+      <c r="D19" s="135">
+        <f>IF(D15="","",IF(E4="",D15*(1-D17),D15-D18))</f>
+        <v>4141542.6229508198</v>
+      </c>
+      <c r="E19" s="135" t="str">
+        <f>IF(E4="","",E15-E18)</f>
+        <v/>
+      </c>
+      <c r="F19" s="135" t="str">
+        <f>IF(F12="","",F15*(1-F17))</f>
+        <v/>
+      </c>
+      <c r="G19" s="136">
+        <f>G15*(1-G17)</f>
+        <v>4286496.6147540985</v>
+      </c>
+      <c r="H19" s="134"/>
+      <c r="I19" s="93"/>
+      <c r="M19" s="93"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="14">
-        <f t="shared" ref="C20" si="1">C21/C18</f>
-        <v>2.8456479253328562</v>
-      </c>
-      <c r="D20" s="32">
-        <f>IF(E7="",G20,D21/D18)</f>
-        <v>0.38251366120218583</v>
-      </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="32" t="str">
-        <f>IF(F15="","",G15/G19)</f>
-        <v/>
-      </c>
-      <c r="G20" s="14">
-        <f>E4/G19</f>
-        <v>0.38251366120218583</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="131" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="140">
-        <f>IF(Data!D52="No",Data!C73,Data!D73)</f>
-        <v>19086045.199999999</v>
-      </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142" t="str">
-        <f>IF(E7="","",IF(F15="",E18*G20,E20*E18))</f>
-        <v/>
-      </c>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="93"/>
-      <c r="M21" s="93"/>
+        <v>222</v>
+      </c>
+      <c r="C20" s="202"/>
+      <c r="D20" s="200">
+        <f>Dashboard!C11</f>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="E20" s="110" t="str">
+        <f>IF(E4="","",D20)</f>
+        <v/>
+      </c>
+      <c r="F20" s="110" t="str">
+        <f>IF(F12="","",D20)</f>
+        <v/>
+      </c>
+      <c r="G20" s="18">
+        <f>Dashboard!C11</f>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="6"/>
+      <c r="M20" s="94"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="201"/>
+      <c r="D21" s="203">
+        <f>IF(D13="","",1+D20)</f>
+        <v>1.0914999999999999</v>
+      </c>
+      <c r="E21" s="138" t="str">
+        <f>IF(E4="","",(1+D20)*(1+E20))</f>
+        <v/>
+      </c>
+      <c r="F21" s="138" t="str">
+        <f>IF(F12="","",(1+D20)*(1+E20)*(1+F20))</f>
+        <v/>
+      </c>
+      <c r="G21" s="139">
+        <f>IF(F12="",IF(E4="",D21,E21),F21)*(1+G20)</f>
+        <v>1.1913722499999999</v>
+      </c>
+      <c r="H21" s="99"/>
+      <c r="I21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="144">
-        <f>IF(D18="","",IF(E7="",D18*(1-D20),D18-D21))</f>
-        <v>552275.92213114758</v>
-      </c>
-      <c r="E22" s="144" t="str">
-        <f>IF(E7="","",E18-E21)</f>
-        <v/>
-      </c>
-      <c r="F22" s="144" t="str">
-        <f>IF(F15="","",F18*(1-F20))</f>
-        <v/>
-      </c>
-      <c r="G22" s="145">
-        <f>G18*(1-G20)</f>
-        <v>571605.57940573769</v>
-      </c>
-      <c r="H22" s="143"/>
+        <v>224</v>
+      </c>
+      <c r="C22" s="199"/>
+      <c r="D22" s="204">
+        <f>IF(D13="","",D19/D21)</f>
+        <v>3794358.7933585159</v>
+      </c>
+      <c r="E22" s="219" t="str">
+        <f>IF(E4="","",E19/E21)</f>
+        <v/>
+      </c>
+      <c r="F22" s="219" t="str">
+        <f>IF(F12="","",F19/F21)</f>
+        <v/>
+      </c>
+      <c r="G22" s="205"/>
+      <c r="H22" s="128"/>
       <c r="I22" s="93"/>
       <c r="M22" s="93"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="209">
-        <f>Dashboard!C11</f>
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="E23" s="118" t="str">
-        <f>IF(E7="","",D23)</f>
-        <v/>
-      </c>
-      <c r="F23" s="118" t="str">
-        <f>IF(F15="","",D23)</f>
-        <v/>
-      </c>
-      <c r="G23" s="18">
-        <f>Dashboard!C11</f>
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="H23" s="99"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="6"/>
-      <c r="M23" s="94"/>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="146" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="212">
-        <f>IF(D16="","",1+D23)</f>
-        <v>1.0914999999999999</v>
-      </c>
-      <c r="E24" s="147" t="str">
-        <f>IF(E7="","",(1+D23)*(1+E23))</f>
-        <v/>
-      </c>
-      <c r="F24" s="147" t="str">
-        <f>IF(F15="","",(1+D23)*(1+E23)*(1+F23))</f>
-        <v/>
-      </c>
-      <c r="G24" s="148">
-        <f>IF(F15="",IF(E7="",D24,E24),F24)*(1+G23)</f>
-        <v>1.1913722499999999</v>
-      </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="94"/>
-      <c r="M24" s="94"/>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="208"/>
-      <c r="D25" s="213">
-        <f>IF(D16="","",D22/D24)</f>
-        <v>505978.85673948476</v>
-      </c>
-      <c r="E25" s="228" t="str">
-        <f>IF(E7="","",E22/E24)</f>
-        <v/>
-      </c>
-      <c r="F25" s="228" t="str">
-        <f>IF(F15="","",F22/F24)</f>
-        <v/>
-      </c>
-      <c r="G25" s="214"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="93"/>
-      <c r="M25" s="93"/>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="6"/>
-      <c r="G26" s="215"/>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="149">
+      <c r="F23" s="6"/>
+      <c r="G23" s="206"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="140">
         <f>Data!C30</f>
         <v>57715600</v>
       </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="149">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="140">
         <f>'Asset Model'!D58</f>
         <v>207980250</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="149">
+    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="140">
         <f>'Asset Model'!D55</f>
         <v>199111000</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="151" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="149">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="142" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="140">
         <f>'Asset Model'!E50</f>
         <v>74738700</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="274">
-        <f>D27+D28-D29-D30</f>
+      <c r="E27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="243">
+        <f>D24+D25-D26-D27</f>
         <v>-8153850</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="140">
+        <f>IF(OR(E12="",F12=""),D13,E13)*(1+G12)</f>
+        <v>9255798</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="14">
+        <f>G20</f>
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="141">
+        <f>IF(C30&lt;0, 0, (C30*(1-G14))/G30)</f>
+        <v>75867196.72131148</v>
+      </c>
+    </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="120" t="s">
-        <v>214</v>
+      <c r="B32" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="140">
+        <f>C31/(IF(OR(E12="",F12=""),D21,E21)*(1+G20))</f>
+        <v>63680513.560150057</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="149">
-        <f>IF(OR(E15="",F15=""),D16,E16)*(1+G15)</f>
-        <v>1234263.375</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="14">
-        <f>G23</f>
-        <v>9.1499999999999998E-2</v>
+      <c r="B33" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="140">
+        <f>IF(OR(E12="",F12=""),D15*0.5/D21,D22+E22)</f>
+        <v>3072423.2707283557</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="150">
-        <f>IF(C33&lt;0, 0, (C33*(1-G17))/G33)</f>
-        <v>10116912.909836065</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="149">
-        <f>C34/(IF(OR(E15="",F15=""),D24,E24)*(1+G23))</f>
-        <v>8491815.1399246249</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="149">
-        <f>IF(OR(E15="",F15=""),D18*0.5/D24,D25+E25)</f>
-        <v>409708.5432890518</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="152">
-        <f>C35+C36+G30</f>
-        <v>747673.68321367726</v>
-      </c>
-      <c r="D37" s="153" t="str">
+      <c r="B34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="143">
+        <f>C32+C33+G27</f>
+        <v>58599086.830878414</v>
+      </c>
+      <c r="D34" s="144" t="str">
         <f>Dashboard!I11</f>
         <v>HKD</v>
       </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C38" s="154">
-        <f>C37*Data!C4/Common_Shares*Exchange_Rate</f>
-        <v>0.29709283491506411</v>
-      </c>
-      <c r="D38" s="65" t="str">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="145">
+        <f>C34*Data!C4/Common_Shares*Exchange_Rate</f>
+        <v>23.284715272028979</v>
+      </c>
+      <c r="D35" s="65" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="155"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="157"/>
-    </row>
-    <row r="40" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="149">
-        <f>G16</f>
-        <v>1234263.375</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="157"/>
-    </row>
-    <row r="41" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="150">
-        <f>G22/(G23-G15)</f>
-        <v>10116912.909836067</v>
-      </c>
-      <c r="D41" s="158"/>
-      <c r="F41" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G41" s="14">
-        <f>G18/C41</f>
-        <v>9.1499999999999984E-2</v>
-      </c>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="149">
-        <f>C41/G24</f>
-        <v>8491815.1399246268</v>
-      </c>
-      <c r="D42" s="159"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="I42" s="390"/>
-      <c r="J42" s="390"/>
-      <c r="K42" s="390"/>
-      <c r="L42" s="160"/>
-      <c r="M42" s="161"/>
-    </row>
-    <row r="43" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" s="149">
-        <f>SUM(D25:F25)</f>
-        <v>505978.85673948476</v>
-      </c>
-      <c r="D43" s="159"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="160"/>
-      <c r="M43" s="161"/>
-    </row>
-    <row r="44" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="152">
-        <f>C43+C42+G30</f>
-        <v>843943.99666411243</v>
-      </c>
-      <c r="D44" s="153" t="str">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="146"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="148"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="140">
+        <f>G13</f>
+        <v>9255798</v>
+      </c>
+      <c r="D37" s="24">
+        <f>C37*Data!C$4/Dashboard!I5</f>
+        <v>3.6778494802729438</v>
+      </c>
+      <c r="E37" s="147"/>
+      <c r="F37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="141">
+        <f>G19/(G20-G12)</f>
+        <v>75867196.72131148</v>
+      </c>
+      <c r="D38" s="149"/>
+      <c r="F38" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G15/C38</f>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="140">
+        <f>C38/G21</f>
+        <v>63680513.560150057</v>
+      </c>
+      <c r="D39" s="150"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="I39" s="377"/>
+      <c r="J39" s="377"/>
+      <c r="K39" s="377"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="152"/>
+    </row>
+    <row r="40" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="140">
+        <f>SUM(D22:F22)</f>
+        <v>3794358.7933585159</v>
+      </c>
+      <c r="D40" s="150"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="152"/>
+    </row>
+    <row r="41" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="143">
+        <f>C40+C39+G27</f>
+        <v>59321022.353508577</v>
+      </c>
+      <c r="D41" s="144" t="str">
         <f>Dashboard!I11</f>
         <v>HKD</v>
       </c>
-      <c r="E44" s="156"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="154">
-        <f>C44*Data!C4/Common_Shares*Exchange_Rate</f>
-        <v>0.33534644873522268</v>
-      </c>
-      <c r="D45" s="65" t="str">
+      <c r="E41" s="147"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="145">
+        <f>C41*Data!C4/Common_Shares*Exchange_Rate</f>
+        <v>23.571580887148919</v>
+      </c>
+      <c r="D42" s="65" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E45" s="156"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="6"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="154"/>
+    </row>
+    <row r="44" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="232" t="str">
+        <f>"Exit @ Beg. Year "&amp;IF(F3="",IF(E3="",2,3),4)</f>
+        <v>Exit @ Beg. Year 3</v>
+      </c>
+      <c r="C44" s="155" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="155" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="156" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" s="155" t="s">
+        <v>246</v>
+      </c>
+      <c r="I44" s="157" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="158">
+        <f>G15/G38</f>
+        <v>75867196.72131148</v>
+      </c>
+      <c r="F45" s="159"/>
+      <c r="I45" s="160"/>
     </row>
     <row r="46" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="163"/>
+      <c r="B46" s="254" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="161">
+        <f>1/D46</f>
+        <v>10.928961748633879</v>
+      </c>
+      <c r="D46" s="14">
+        <f>G38</f>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="E46" s="162">
+        <f t="dataTable" ref="E46:E51" dt2D="0" dtr="0" r1="G38" ca="1"/>
+        <v>75867196.72131148</v>
+      </c>
+      <c r="F46" s="163">
+        <f>(E46/G21+C40+G27)*Data!C$4/Common_Shares*Exchange_Rate</f>
+        <v>23.571580887148919</v>
+      </c>
+      <c r="G46" s="164">
+        <f>IF(Data!F$3&lt;=0,"NNI",F46/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
+        <v>47.48720969701295</v>
+      </c>
+      <c r="I46" s="112" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="47" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="245" t="str">
-        <f>"Exit @ Beg. Year "&amp;IF(F6="",IF(E6="",2,3),4)</f>
-        <v>Exit @ Beg. Year 3</v>
-      </c>
-      <c r="C47" s="164" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="164" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="165" t="s">
-        <v>228</v>
-      </c>
-      <c r="G47" s="164" t="s">
-        <v>229</v>
-      </c>
-      <c r="I47" s="166" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="167">
-        <f>G18/G41</f>
-        <v>10116912.909836067</v>
-      </c>
-      <c r="F48" s="168"/>
-      <c r="I48" s="169"/>
+      <c r="B47" s="254"/>
+      <c r="C47" s="165">
+        <f>1/D47</f>
+        <v>11.210762331838565</v>
+      </c>
+      <c r="D47" s="14">
+        <f>D46-((D$46-D$51)/5)</f>
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="E47" s="166">
+        <v>77823413.677130044</v>
+      </c>
+      <c r="F47" s="163">
+        <f>(E47/G21+C40+G27)*Data!C$4/Common_Shares*Exchange_Rate</f>
+        <v>24.224034472801911</v>
+      </c>
+      <c r="G47" s="165">
+        <f>IF(Data!F$3&lt;=0,"NNI",F47/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
+        <v>48.801640001361505</v>
+      </c>
+      <c r="I47" s="112"/>
+    </row>
+    <row r="48" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="254"/>
+      <c r="C48" s="165">
+        <f>1/D48</f>
+        <v>11.507479861910241</v>
+      </c>
+      <c r="D48" s="14">
+        <f>D47-((D$46-D$51)/5)</f>
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="E48" s="166">
+        <v>81172222.871842831</v>
+      </c>
+      <c r="F48" s="163">
+        <f>(E48/G21+C40+G27)*Data!C$4/Common_Shares*Exchange_Rate</f>
+        <v>25.340956887904781</v>
+      </c>
+      <c r="G48" s="165">
+        <f>IF(Data!F$3&lt;=0,"NNI",F48/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
+        <v>51.051787295054517</v>
+      </c>
+      <c r="I48" s="112"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="287" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="170">
-        <f>1/D49</f>
-        <v>10.928961748633881</v>
+      <c r="B49" s="254"/>
+      <c r="C49" s="165">
+        <f t="shared" ref="C49:C50" si="2">1/D49</f>
+        <v>11.820330969267138</v>
       </c>
       <c r="D49" s="14">
-        <f>G41</f>
-        <v>9.1499999999999984E-2</v>
-      </c>
-      <c r="E49" s="171">
-        <f t="dataTable" ref="E49:E54" dt2D="0" dtr="0" r1="G41" ca="1"/>
-        <v>10116912.909836067</v>
-      </c>
-      <c r="F49" s="172">
-        <f>(E49/G24+C43+G30)*Data!C$4/Common_Shares*Exchange_Rate</f>
-        <v>0.33534644873522268</v>
-      </c>
-      <c r="G49" s="173">
+        <f>D48-((D$46-D$51)/5)</f>
+        <v>8.4600000000000009E-2</v>
+      </c>
+      <c r="E49" s="166">
+        <v>84442493.431296229</v>
+      </c>
+      <c r="F49" s="163">
+        <f>(E49/G21+C40+G27)*Data!C$4/Common_Shares*Exchange_Rate</f>
+        <v>26.431684450726639</v>
+      </c>
+      <c r="G49" s="165">
         <f>IF(Data!F$3&lt;=0,"NNI",F49/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
-        <v>0.67558757337825204</v>
-      </c>
-      <c r="I49" s="120" t="s">
-        <v>231</v>
+        <v>53.249162547313141</v>
+      </c>
+      <c r="I49" s="112" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="287"/>
-      <c r="C50" s="174">
-        <f>1/D50</f>
-        <v>11.210762331838566</v>
+      <c r="B50" s="254"/>
+      <c r="C50" s="165">
+        <f t="shared" si="2"/>
+        <v>12.150668286755769</v>
       </c>
       <c r="D50" s="14">
-        <f>D49-((D$49-D$54)/5)</f>
-        <v>8.9199999999999988E-2</v>
-      </c>
-      <c r="E50" s="175">
-        <v>10377775.014013454</v>
-      </c>
-      <c r="F50" s="172">
-        <f>(E50/G24+C43+G30)*Data!C$4/Common_Shares*Exchange_Rate</f>
-        <v>0.42235132553341054</v>
-      </c>
-      <c r="G50" s="174">
+        <f>D49-((D$46-D$51)/5)</f>
+        <v>8.2300000000000012E-2</v>
+      </c>
+      <c r="E50" s="166">
+        <v>86296748.19993636</v>
+      </c>
+      <c r="F50" s="163">
+        <f>(E50/G21+C40+G27)*Data!C$4/Common_Shares*Exchange_Rate</f>
+        <v>27.050130768204333</v>
+      </c>
+      <c r="G50" s="165">
         <f>IF(Data!F$3&lt;=0,"NNI",F50/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
-        <v>0.85086723955587595</v>
-      </c>
-      <c r="I50" s="120"/>
+        <v>54.495081949368192</v>
+      </c>
+      <c r="I50" s="112"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="287"/>
-      <c r="C51" s="174">
+      <c r="B51" s="262" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="167">
         <f>1/D51</f>
-        <v>11.507479861910243</v>
-      </c>
-      <c r="D51" s="14">
-        <f>D50-((D$49-D$54)/5)</f>
-        <v>8.6899999999999991E-2</v>
-      </c>
-      <c r="E51" s="175">
-        <v>10824339.701239476</v>
-      </c>
-      <c r="F51" s="172">
-        <f>(E51/G24+C43+G30)*Data!C$4/Common_Shares*Exchange_Rate</f>
-        <v>0.57129325681562115</v>
-      </c>
-      <c r="G51" s="174">
-        <f>IF(Data!F$3&lt;=0,"NNI",F51/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
-        <v>1.1509250404025089</v>
-      </c>
-      <c r="I51" s="120"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="287"/>
-      <c r="C52" s="174">
-        <f t="shared" ref="C52:C53" si="2">1/D52</f>
-        <v>11.82033096926714</v>
-      </c>
-      <c r="D52" s="14">
-        <f>D51-((D$49-D$54)/5)</f>
-        <v>8.4599999999999995E-2</v>
-      </c>
-      <c r="E52" s="175">
-        <v>11260431.238443945</v>
-      </c>
-      <c r="F52" s="172">
-        <f>(E52/G24+C43+G30)*Data!C$4/Common_Shares*Exchange_Rate</f>
-        <v>0.71674209687176982</v>
-      </c>
-      <c r="G52" s="174">
-        <f>IF(Data!F$3&lt;=0,"NNI",F52/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
-        <v>1.4439456740630734</v>
-      </c>
-      <c r="I52" s="120" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="287"/>
-      <c r="C53" s="174">
-        <f t="shared" si="2"/>
-        <v>12.150668286755772</v>
-      </c>
-      <c r="D53" s="14">
-        <f>D52-((D$49-D$54)/5)</f>
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="E53" s="175">
-        <v>11507696.655088907</v>
-      </c>
-      <c r="F53" s="172">
-        <f>(E53/G24+C43+G30)*Data!C$4/Common_Shares*Exchange_Rate</f>
-        <v>0.79921209449556607</v>
-      </c>
-      <c r="G53" s="174">
-        <f>IF(Data!F$3&lt;=0,"NNI",F53/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
-        <v>1.6100893913480052</v>
-      </c>
-      <c r="I53" s="120"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="299" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="176">
-        <f>1/D54</f>
         <v>12.5</v>
       </c>
-      <c r="D54" s="296">
+      <c r="D51" s="260">
         <f>'Qualitative Analysis'!E21</f>
         <v>0.08</v>
       </c>
-      <c r="E54" s="177">
-        <v>11571219.140625</v>
-      </c>
-      <c r="F54" s="178">
-        <f>(E54/G24+C43+G30)*Data!C$4/Common_Shares*Exchange_Rate</f>
-        <v>0.82039863688512005</v>
-      </c>
-      <c r="G54" s="176">
-        <f>IF(Data!F$3&lt;=0,"NNI",F54/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
-        <v>1.6527717123185057</v>
-      </c>
-      <c r="I54" s="120"/>
+      <c r="E51" s="168">
+        <v>86773106.25</v>
+      </c>
+      <c r="F51" s="169">
+        <f>(E51/G21+C40+G27)*Data!C$4/Common_Shares*Exchange_Rate</f>
+        <v>27.209009627164352</v>
+      </c>
+      <c r="G51" s="167">
+        <f>IF(Data!F$3&lt;=0,"NNI",F51/((Data!F$3*Exchange_Rate)/(Common_Shares/Data!C$4)))</f>
+        <v>54.815158643756128</v>
+      </c>
+      <c r="I51" s="112"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156" t="str">
+        <f>IF(D54="&gt;","Hight future interest rate scenario","Optimistic scenario")</f>
+        <v>Optimistic scenario</v>
+      </c>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="172">
+        <f>MIN('Asset Model'!D7,C35)+(ABS('Asset Model'!D7-C35)*'Qualitative Analysis'!E84)</f>
+        <v>14.325165373865644</v>
+      </c>
+      <c r="D54" s="24" t="str">
+        <f>IF(C54&lt;E54,"&lt;",IF(C54=E54,"=","&gt;"))</f>
+        <v>&lt;</v>
+      </c>
+      <c r="E54" s="163">
+        <f>F51</f>
+        <v>27.209009627164352</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="227"/>
+      <c r="D55" s="227"/>
+      <c r="E55" s="227"/>
+      <c r="F55" s="227"/>
+      <c r="G55" s="228"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165" t="str">
-        <f>IF(D57="&gt;","Hight future interest rate scenario","Optimistic scenario")</f>
-        <v>Optimistic scenario</v>
-      </c>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+      <c r="C56" s="349" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="378"/>
+      <c r="E56" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="108" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" s="181">
-        <f>MAX(C38,'Asset Model'!D7)</f>
-        <v>0.29709283491506411</v>
-      </c>
-      <c r="D57" s="24" t="str">
-        <f>IF(C57&lt;E57,"&lt;",IF(C57=E57,"=","&gt;"))</f>
-        <v>&lt;</v>
-      </c>
-      <c r="E57" s="172">
-        <f>F54</f>
-        <v>0.82039863688512005</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="173">
+        <f>MIN(C54,E54)+(ABS(C54-E54)*'Qualitative Analysis'!E84)</f>
+        <v>22.251532410070769</v>
+      </c>
+      <c r="D57" s="223" t="str">
+        <f>D42</f>
+        <v>HKD</v>
+      </c>
+      <c r="E57" s="224">
+        <f>IF(Data!F3&lt;=0,"NNI",C57/((Data!F3*Exchange_Rate)/(Common_Shares/Data!C4)))</f>
+        <v>44.827845476117254</v>
+      </c>
+      <c r="F57" s="293">
+        <f>C57/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.19437409863826463</v>
+      </c>
+      <c r="G57" s="159"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="239"/>
-      <c r="D58" s="239"/>
-      <c r="E58" s="239"/>
-      <c r="F58" s="239"/>
-      <c r="G58" s="240"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="175"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="340" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="391"/>
-      <c r="E59" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" s="182">
-        <f>MIN(C57,E57)+(ABS(C57-E57)*'Qualitative Analysis'!E84)</f>
-        <v>0.61903974587126642</v>
-      </c>
-      <c r="D60" s="233" t="str">
-        <f>D45</f>
-        <v>HKD</v>
-      </c>
-      <c r="E60" s="234">
-        <f>IF(Data!F3&lt;=0,"NNI",C60/((Data!F3*Exchange_Rate)/(Common_Shares/Data!C4)))</f>
-        <v>1.2471149204507199</v>
-      </c>
-      <c r="F60" s="234">
-        <f>C60/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>5.4075058925168711E-3</v>
-      </c>
-      <c r="G60" s="241">
-        <f>IRR(C64:G64)</f>
-        <v>9.1500000000000137E-2</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="120" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="164" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="281" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="D63" s="36">
-        <v>1</v>
-      </c>
-      <c r="E63" s="36">
-        <v>2</v>
-      </c>
-      <c r="F63" s="232">
-        <v>3</v>
-      </c>
-      <c r="G63" s="232">
-        <v>4</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="172">
-        <f>D66</f>
-        <v>-3.8590232659009307</v>
-      </c>
-      <c r="D64" s="172">
-        <f>D22/(Dashboard!I5/Data!C4)</f>
-        <v>0.21945030705913221</v>
-      </c>
-      <c r="E64" s="172">
-        <f>IF(E7="",I64,E22)/(Dashboard!I5/Data!C4)</f>
-        <v>4.3580032209436981</v>
-      </c>
-      <c r="F64" s="235" t="str">
-        <f>IF(E7="","",IF(F15="",I64,F22)/(Dashboard!I5/Data!C4))</f>
-        <v/>
-      </c>
-      <c r="G64" s="236" t="str">
-        <f>IF(AND(E7="",F15=""),"",IF(F15="","",I64/(Dashboard!I5/Data!C4)))</f>
-        <v/>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="268">
-        <f>(C60*Dashboard!I5/Data!C4-G30-C43)*G24</f>
-        <v>10967495.465151753</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="244">
-        <f>IRR(C64:G64)</f>
-        <v>9.1500000000000137E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="247">
-        <f>Dashboard!B17</f>
-        <v>0.61903974587126642</v>
-      </c>
-      <c r="C66" s="392">
-        <f>Dashboard!F21</f>
-        <v>-3.2399835200296643</v>
-      </c>
-      <c r="D66" s="270">
-        <f>IF((-B66+C66)&gt;0,0,-B66+C66)</f>
-        <v>-3.8590232659009307</v>
-      </c>
-      <c r="E66" s="250">
-        <f t="dataTable" ref="E66:E68" dt2D="0" dtr="0" r1="C64" ca="1"/>
-        <v>9.1500000000000137E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="272">
-        <f>Dashboard!B16</f>
-        <v>23.600000381469727</v>
-      </c>
-      <c r="C67" s="393"/>
-      <c r="D67" s="269">
-        <f>IF((-B67+C66)&gt;0,0,-B67+C66)</f>
-        <v>-26.839983901499391</v>
-      </c>
-      <c r="E67" s="249">
-        <v>-0.5929397592311082</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="273">
-        <f>Dashboard!B18</f>
-        <v>0.4</v>
-      </c>
-      <c r="C68" s="394"/>
-      <c r="D68" s="271">
-        <f>IF((-B68+C66)&gt;0,0,-B68+C66)</f>
-        <v>-3.6399835200296642</v>
-      </c>
-      <c r="E68" s="252">
-        <v>0.12475289564079484</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I57" s="112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12428,52 +12355,34 @@
     <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C66:C68"/>
+  <mergeCells count="2">
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="C56:D56"/>
   </mergeCells>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="containsBlanks" dxfId="5" priority="11">
-      <formula>LEN(TRIM(C33))=0</formula>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsBlanks" dxfId="4" priority="11">
+      <formula>LEN(TRIM(C30))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsBlanks" dxfId="3" priority="10">
+      <formula>LEN(TRIM(C32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="containsBlanks" dxfId="3" priority="9">
-      <formula>LEN(TRIM(C40))=0</formula>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="2" priority="9">
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F54">
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
-      <formula>$E$57</formula>
+  <conditionalFormatting sqref="E46:F51">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+      <formula>$E$54</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E25 F16:F25">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(E8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D68">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
+  <conditionalFormatting sqref="E5:E22 F13:F22">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(E5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12489,7 +12398,7 @@
   <dimension ref="A2:H97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12504,81 +12413,81 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="186"/>
+        <v>255</v>
+      </c>
+      <c r="C2" s="177"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B3" s="187" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="188"/>
+      <c r="B3" s="178" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="179"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="185">
+        <v>257</v>
+      </c>
+      <c r="C4" s="179"/>
+      <c r="D4" s="176">
         <f>IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="185">
+        <v>259</v>
+      </c>
+      <c r="C5" s="179"/>
+      <c r="D5" s="176">
         <f t="shared" ref="D5" si="0">IF(E5="Strongly disagree",0,IF(E5="disagree",1,IF(E5="unclear",2,IF(E5="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="185">
+        <v>261</v>
+      </c>
+      <c r="C6" s="179"/>
+      <c r="D6" s="176">
         <f>IF(E6="Strongly disagree",0,IF(E6="disagree",1,IF(E6="unclear",2,IF(E6="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B7" s="189" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="185">
+      <c r="B7" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="179"/>
+      <c r="D7" s="176">
         <f>AVERAGE(D4:D6)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E7" s="190">
+      <c r="E7" s="181">
         <f>D7/4</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B9" s="191" t="s">
-        <v>250</v>
+      <c r="B9" s="182" t="s">
+        <v>263</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="44"/>
@@ -12586,145 +12495,145 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D10" s="192">
+        <v>264</v>
+      </c>
+      <c r="D10" s="183">
         <f>IF(E10="Strongly disagree",0,IF(E10="disagree",1,IF(E10="unclear",2,IF(E10="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C11" s="69"/>
-      <c r="D11" s="192">
+      <c r="D11" s="183">
         <f>IF(E11="Strongly disagree",0,IF(E11="disagree",1,IF(E11="unclear",2,IF(E11="agree",3,4))))</f>
         <v>3</v>
       </c>
-      <c r="E11" s="194" t="str">
+      <c r="E11" s="185" t="str">
         <f>IF(D7&gt;=3.5,"Strongly agree",IF(D7&gt;=2.5,"agree",IF(D7&gt;=1.5,"unclear",IF(D7&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>agree</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" s="192">
+        <v>266</v>
+      </c>
+      <c r="D12" s="183">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E12" s="193" t="str">
+      <c r="E12" s="184" t="str">
         <f>IF(D84&gt;=3.5,"Strongly agree",IF(D84&gt;=2.5,"agree",IF(D84&gt;=1.5,"unclear",IF(D84&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B13" s="189" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="192">
+      <c r="B13" s="180" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="183">
         <f>AVERAGE(D10:D12)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E13" s="190">
+      <c r="E13" s="181">
         <f>D13/3</f>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B14" s="189"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="168"/>
+      <c r="B14" s="180"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="159"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B16" s="298" t="s">
-        <v>254</v>
+      <c r="B16" s="300" t="s">
+        <v>270</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="174">
+      <c r="D16" s="165">
         <f>1/E16</f>
         <v>12.5</v>
       </c>
-      <c r="E16" s="295">
+      <c r="E16" s="259">
         <v>0.08</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="192" t="str">
+      <c r="D17" s="183" t="str">
         <f>IF(LEFT(E17,3)="(+)","+","-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="192" t="str">
+        <v>273</v>
+      </c>
+      <c r="D18" s="183" t="str">
         <f t="shared" ref="D18:D19" si="1">IF(LEFT(E18,3)="(+)","+","-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="294" t="s">
-        <v>255</v>
+      <c r="E18" s="258" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D19" s="192" t="str">
+        <v>275</v>
+      </c>
+      <c r="D19" s="183" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B20" s="293" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="192" t="str">
+      <c r="B20" s="180" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="183" t="str">
         <f>D17&amp;D18&amp;D19</f>
         <v>--+</v>
       </c>
-      <c r="E20" s="297" t="str">
+      <c r="E20" s="261" t="str">
         <f>IF(D20="+-+","Growth", IF(D20="+--","Mature", "Shakeout/Decline")) &amp; " stage"</f>
         <v>Shakeout/Decline stage</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B21" s="293" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="174">
+      <c r="B21" s="180" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="165">
         <f>1/E21</f>
         <v>12.5</v>
       </c>
-      <c r="E21" s="190">
+      <c r="E21" s="181">
         <f>IF(LEFT(E20,1)="G", E16/2.4, IF(LEFT(E20,1)="M", E16/1.8, E16))</f>
         <v>0.08</v>
       </c>
@@ -12736,28 +12645,28 @@
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="11" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="191" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="184"/>
+      <c r="B24" s="182" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="175"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="192">
+        <v>281</v>
+      </c>
+      <c r="D25" s="183">
         <f>IF(E25="Strongly disagree",0,IF(E25="disagree",1,IF(E25="unclear",2,IF(E25="agree",3,4))))</f>
         <v>3</v>
       </c>
-      <c r="E25" s="193" t="str">
+      <c r="E25" s="184" t="str">
         <f>E11</f>
         <v>agree</v>
       </c>
@@ -12765,68 +12674,68 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="192">
+        <v>282</v>
+      </c>
+      <c r="D26" s="183">
         <f>IF(E26="Strongly disagree",0,IF(E26="disagree",1,IF(E26="unclear",2,IF(E26="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="192">
+        <v>283</v>
+      </c>
+      <c r="D27" s="183">
         <f>IF(E27="Strongly disagree",0,IF(E27="disagree",1,IF(E27="unclear",2,IF(E27="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="192">
+        <v>284</v>
+      </c>
+      <c r="D28" s="183">
         <f>IF(E28="Strongly disagree",0,IF(E28="disagree",1,IF(E28="unclear",2,IF(E28="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="192">
+        <v>286</v>
+      </c>
+      <c r="D29" s="183">
         <f>IF(E29="Strongly disagree",0,IF(E29="disagree",1,IF(E29="unclear",2,IF(E29="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="191" t="s">
-        <v>267</v>
+      <c r="B30" s="182" t="s">
+        <v>288</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="192">
+        <v>289</v>
+      </c>
+      <c r="D31" s="183">
         <f>IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -12840,140 +12749,140 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="192">
+        <v>290</v>
+      </c>
+      <c r="D32" s="183">
         <f t="shared" ref="D32:D35" si="2">IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="69" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="192">
+        <v>291</v>
+      </c>
+      <c r="D33" s="183">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="192">
+        <v>292</v>
+      </c>
+      <c r="D34" s="183">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" s="192">
+        <v>293</v>
+      </c>
+      <c r="D35" s="183">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="191" t="s">
-        <v>273</v>
+      <c r="B36" s="182" t="s">
+        <v>294</v>
       </c>
       <c r="D36" s="44"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="192">
+        <v>295</v>
+      </c>
+      <c r="D37" s="183">
         <f t="shared" ref="D37:D41" si="3">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="D38" s="192">
+        <v>296</v>
+      </c>
+      <c r="D38" s="183">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="192">
+        <v>297</v>
+      </c>
+      <c r="D39" s="183">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="192">
+        <v>298</v>
+      </c>
+      <c r="D40" s="183">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="69" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="192">
+        <v>299</v>
+      </c>
+      <c r="D41" s="183">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="191" t="s">
-        <v>279</v>
+      <c r="B42" s="182" t="s">
+        <v>300</v>
       </c>
       <c r="D42" s="44"/>
       <c r="E42" s="24"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D43" s="195">
+        <v>301</v>
+      </c>
+      <c r="D43" s="186">
         <f>SUM(D44:D49)/(6*4)</f>
         <v>0.45833333333333331</v>
       </c>
@@ -12985,86 +12894,86 @@
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="192">
+        <v>302</v>
+      </c>
+      <c r="D44" s="183">
         <f t="shared" ref="D44:D49" si="4">IF(E44="Strongly disagree",0,IF(E44="disagree",1,IF(E44="unclear",2,IF(E44="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="D45" s="192">
+        <v>304</v>
+      </c>
+      <c r="D45" s="183">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="192">
+        <v>305</v>
+      </c>
+      <c r="D46" s="183">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="69" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="192">
+        <v>306</v>
+      </c>
+      <c r="D47" s="183">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="192">
+        <v>307</v>
+      </c>
+      <c r="D48" s="183">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="D49" s="192">
+        <v>308</v>
+      </c>
+      <c r="D49" s="183">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" s="195">
+        <v>309</v>
+      </c>
+      <c r="D50" s="186">
         <f>SUM(D51:D56)/(6*4)</f>
         <v>0</v>
       </c>
@@ -13076,86 +12985,86 @@
     </row>
     <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="192">
+        <v>310</v>
+      </c>
+      <c r="D51" s="183">
         <f t="shared" ref="D51:D56" si="5">IF(E51="Strongly disagree",0,IF(E51="disagree",1,IF(E51="unclear",2,IF(E51="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="192">
+        <v>311</v>
+      </c>
+      <c r="D52" s="183">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="D53" s="192">
+        <v>312</v>
+      </c>
+      <c r="D53" s="183">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="D54" s="192">
+        <v>313</v>
+      </c>
+      <c r="D54" s="183">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="D55" s="192">
+        <v>314</v>
+      </c>
+      <c r="D55" s="183">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="69" t="s">
-        <v>292</v>
-      </c>
-      <c r="D56" s="192">
+        <v>315</v>
+      </c>
+      <c r="D56" s="183">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="195">
+        <v>316</v>
+      </c>
+      <c r="D57" s="186">
         <f>SUM(D58:D65)/(8*4)</f>
         <v>0.46875</v>
       </c>
@@ -13167,113 +13076,113 @@
     </row>
     <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" s="192">
+        <v>317</v>
+      </c>
+      <c r="D58" s="183">
         <f t="shared" ref="D58:D65" si="6">IF(E58="Strongly disagree",0,IF(E58="disagree",1,IF(E58="unclear",2,IF(E58="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="69" t="s">
-        <v>295</v>
-      </c>
-      <c r="D59" s="192">
+        <v>318</v>
+      </c>
+      <c r="D59" s="183">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="D60" s="192">
+        <v>319</v>
+      </c>
+      <c r="D60" s="183">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="192">
+        <v>320</v>
+      </c>
+      <c r="D61" s="183">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="69" t="s">
-        <v>298</v>
-      </c>
-      <c r="D62" s="192">
+        <v>321</v>
+      </c>
+      <c r="D62" s="183">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="69" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="192">
+        <v>322</v>
+      </c>
+      <c r="D63" s="183">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="192">
+        <v>323</v>
+      </c>
+      <c r="D64" s="183">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="D65" s="192">
+        <v>324</v>
+      </c>
+      <c r="D65" s="183">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" s="195">
+        <v>325</v>
+      </c>
+      <c r="D66" s="186">
         <f>SUM(D67:D72)/(6*4)</f>
         <v>0.58106575963718821</v>
       </c>
@@ -13285,64 +13194,64 @@
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="D67" s="192">
+        <v>326</v>
+      </c>
+      <c r="D67" s="183">
         <f t="shared" ref="D67:D70" si="7">IF(E67="Strongly disagree",0,IF(E67="disagree",1,IF(E67="unclear",2,IF(E67="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="69" t="s">
-        <v>304</v>
-      </c>
-      <c r="D68" s="192">
+        <v>327</v>
+      </c>
+      <c r="D68" s="183">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="192">
+        <v>328</v>
+      </c>
+      <c r="D69" s="183">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="D70" s="192">
+        <v>329</v>
+      </c>
+      <c r="D70" s="183">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="D71" s="192">
+        <v>330</v>
+      </c>
+      <c r="D71" s="183">
         <f>IF(E71="Strongly disagree",0,IF(E71="disagree",1,IF(E71="unclear",2,IF(E71="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
@@ -13350,14 +13259,14 @@
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="D72" s="196">
+        <v>331</v>
+      </c>
+      <c r="D72" s="187">
         <f t="array" ref="D72">(1-INDEX(B88:E97,MATCH(E72,B88:B97,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
@@ -13365,9 +13274,9 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D73" s="197">
+        <v>333</v>
+      </c>
+      <c r="D73" s="188">
         <f>SUM(D74:D81)/(8*4)</f>
         <v>0.9375</v>
       </c>
@@ -13381,14 +13290,14 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="D74" s="192">
+        <v>334</v>
+      </c>
+      <c r="D74" s="183">
         <f t="shared" ref="D74:D80" si="8">IF(E74="Strongly disagree",0,IF(E74="disagree",1,IF(E74="unclear",2,IF(E74="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F74" s="69"/>
       <c r="G74" s="69"/>
@@ -13396,14 +13305,14 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="D75" s="192">
+        <v>335</v>
+      </c>
+      <c r="D75" s="183">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F75" s="69"/>
       <c r="G75" s="69"/>
@@ -13411,14 +13320,14 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="D76" s="192">
+        <v>336</v>
+      </c>
+      <c r="D76" s="183">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F76" s="69"/>
       <c r="G76" s="69"/>
@@ -13426,14 +13335,14 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="D77" s="192">
+        <v>337</v>
+      </c>
+      <c r="D77" s="183">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F77" s="69"/>
       <c r="G77" s="69"/>
@@ -13441,14 +13350,14 @@
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="D78" s="192">
+        <v>338</v>
+      </c>
+      <c r="D78" s="183">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F78" s="69"/>
       <c r="G78" s="69"/>
@@ -13456,14 +13365,14 @@
     </row>
     <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="D79" s="192">
+        <v>339</v>
+      </c>
+      <c r="D79" s="183">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
@@ -13471,14 +13380,14 @@
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="D80" s="192">
+        <v>340</v>
+      </c>
+      <c r="D80" s="183">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
@@ -13486,24 +13395,24 @@
     </row>
     <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="D81" s="192">
+        <v>341</v>
+      </c>
+      <c r="D81" s="183">
         <f>IF(E81="Strongly disagree",0,IF(E81="disagree",1,IF(E81="non-perishable",2,IF(E81="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F81" s="69"/>
       <c r="G81" s="69"/>
       <c r="H81" s="69"/>
     </row>
     <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="287" t="s">
-        <v>311</v>
-      </c>
-      <c r="D82" s="244">
+      <c r="B82" s="254" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="231">
         <f>1-AVERAGE(D43,D50,D57,D66,D73)</f>
         <v>0.51087018140589568</v>
       </c>
@@ -13519,187 +13428,187 @@
       <c r="D83" s="6"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="189" t="s">
-        <v>312</v>
-      </c>
-      <c r="D84" s="185">
+      <c r="B84" s="180" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="176">
         <f>E84*4</f>
         <v>2.4608701814058955</v>
       </c>
-      <c r="E84" s="243">
+      <c r="E84" s="230">
         <f>AVERAGE(AVERAGE(D25:D29)/4,AVERAGE(D31:D35)/4,AVERAGE(D37:D41)/4,D82)</f>
         <v>0.61521754535147388</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="70" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="72"/>
     </row>
     <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="198" t="s">
-        <v>314</v>
-      </c>
-      <c r="C87" s="199"/>
-      <c r="D87" s="199"/>
-      <c r="E87" s="200"/>
+      <c r="B87" s="189" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" s="190"/>
+      <c r="D87" s="190"/>
+      <c r="E87" s="191"/>
     </row>
     <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="201" t="s">
-        <v>315</v>
-      </c>
-      <c r="C88" s="199"/>
-      <c r="D88" s="199">
+      <c r="B88" s="192" t="s">
+        <v>346</v>
+      </c>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190">
         <v>1</v>
       </c>
-      <c r="E88" s="202">
+      <c r="E88" s="193">
         <f t="shared" ref="E88:E96" si="9">D88/MAX($D$88:$D$97)</f>
         <v>3.4013605442176874E-2</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="201" t="str">
+      <c r="B89" s="192" t="str">
         <f t="shared" ref="B89:B97" si="10">C89&amp;", "&amp;D89&amp;"y"</f>
         <v>Information Technology Like, 6.6y</v>
       </c>
-      <c r="C89" s="199" t="s">
-        <v>316</v>
-      </c>
-      <c r="D89" s="199">
+      <c r="C89" s="190" t="s">
+        <v>347</v>
+      </c>
+      <c r="D89" s="190">
         <v>6.6</v>
       </c>
-      <c r="E89" s="202">
+      <c r="E89" s="193">
         <f t="shared" si="9"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="201" t="str">
+      <c r="B90" s="192" t="str">
         <f t="shared" si="10"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C90" s="199" t="s">
-        <v>317</v>
-      </c>
-      <c r="D90" s="199">
+      <c r="C90" s="190" t="s">
+        <v>348</v>
+      </c>
+      <c r="D90" s="190">
         <v>11.4</v>
       </c>
-      <c r="E90" s="202">
+      <c r="E90" s="193">
         <f t="shared" si="9"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="201" t="str">
+      <c r="B91" s="192" t="str">
         <f t="shared" si="10"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C91" s="199" t="s">
-        <v>318</v>
-      </c>
-      <c r="D91" s="199">
+      <c r="C91" s="190" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" s="190">
         <v>12.4</v>
       </c>
-      <c r="E91" s="202">
+      <c r="E91" s="193">
         <f t="shared" si="9"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="201" t="str">
+      <c r="B92" s="192" t="str">
         <f t="shared" si="10"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C92" s="199" t="s">
-        <v>319</v>
-      </c>
-      <c r="D92" s="199">
+      <c r="C92" s="190" t="s">
+        <v>350</v>
+      </c>
+      <c r="D92" s="190">
         <v>15.1</v>
       </c>
-      <c r="E92" s="202">
+      <c r="E92" s="193">
         <f t="shared" si="9"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="201" t="str">
+      <c r="B93" s="192" t="str">
         <f t="shared" si="10"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C93" s="199" t="s">
-        <v>320</v>
-      </c>
-      <c r="D93" s="199">
+      <c r="C93" s="190" t="s">
+        <v>351</v>
+      </c>
+      <c r="D93" s="190">
         <v>15.4</v>
       </c>
-      <c r="E93" s="202">
+      <c r="E93" s="193">
         <f t="shared" si="9"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="201" t="str">
+      <c r="B94" s="192" t="str">
         <f t="shared" si="10"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C94" s="199" t="s">
-        <v>321</v>
-      </c>
-      <c r="D94" s="199">
+      <c r="C94" s="190" t="s">
+        <v>352</v>
+      </c>
+      <c r="D94" s="190">
         <v>16.100000000000001</v>
       </c>
-      <c r="E94" s="202">
+      <c r="E94" s="193">
         <f t="shared" si="9"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="201" t="str">
+      <c r="B95" s="192" t="str">
         <f t="shared" si="10"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C95" s="199" t="s">
-        <v>322</v>
-      </c>
-      <c r="D95" s="199">
+      <c r="C95" s="190" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" s="190">
         <v>17.600000000000001</v>
       </c>
-      <c r="E95" s="202">
+      <c r="E95" s="193">
         <f t="shared" si="9"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="201" t="str">
+      <c r="B96" s="192" t="str">
         <f t="shared" si="10"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C96" s="199" t="s">
-        <v>323</v>
-      </c>
-      <c r="D96" s="199">
+      <c r="C96" s="190" t="s">
+        <v>354</v>
+      </c>
+      <c r="D96" s="190">
         <v>18.600000000000001</v>
       </c>
-      <c r="E96" s="202">
+      <c r="E96" s="193">
         <f t="shared" si="9"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="203" t="str">
+      <c r="B97" s="194" t="str">
         <f t="shared" si="10"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C97" s="204" t="s">
-        <v>324</v>
-      </c>
-      <c r="D97" s="204">
+      <c r="C97" s="195" t="s">
+        <v>355</v>
+      </c>
+      <c r="D97" s="195">
         <v>29.4</v>
       </c>
-      <c r="E97" s="205">
+      <c r="E97" s="196">
         <f>D97/MAX($D$89:$D$97)</f>
         <v>1</v>
       </c>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324FFF0-18E3-4724-81B1-50AD61AB65E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3480F4-3BB9-4DA3-91BB-A78FE937C53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="356">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1337,6 +1337,9 @@
   </si>
   <si>
     <t>Debt / Equity</t>
+  </si>
+  <si>
+    <t>Type:</t>
   </si>
 </sst>
 </file>
@@ -2971,7 +2974,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3862,18 +3865,160 @@
     <xf numFmtId="184" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3882,9 +4027,6 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3896,144 +4038,11 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4079,12 +4088,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4193,8 +4197,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -4415,7 +4419,7 @@
   <dimension ref="A1:L967"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C21" sqref="C21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4443,11 +4447,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="401" t="str">
+      <c r="C2" s="358" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0683.HK : KERRY PPT</v>
       </c>
-      <c r="D2" s="402"/>
+      <c r="D2" s="359"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4459,27 +4463,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="403" t="s">
+      <c r="C3" s="360" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="404"/>
+      <c r="D3" s="361"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="373" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="413"/>
+      <c r="J3" s="374"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="405" t="s">
+      <c r="C4" s="362" t="s">
         <v>343</v>
       </c>
-      <c r="D4" s="406"/>
+      <c r="D4" s="363"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4496,10 +4500,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="407">
+      <c r="C5" s="364">
         <v>44956</v>
       </c>
-      <c r="D5" s="406"/>
+      <c r="D5" s="363"/>
       <c r="E5" s="158" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4507,10 +4511,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="391">
+      <c r="I5" s="375">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="392"/>
+      <c r="J5" s="376"/>
       <c r="K5" s="195"/>
       <c r="L5" s="113"/>
     </row>
@@ -4518,20 +4522,20 @@
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="408">
+      <c r="C6" s="367">
         <v>45001</v>
       </c>
-      <c r="D6" s="359"/>
+      <c r="D6" s="368"/>
       <c r="E6" s="158"/>
       <c r="G6" s="171" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="170"/>
-      <c r="I6" s="414">
+      <c r="I6" s="377">
         <f>I4*I5/1000000</f>
         <v>28793.98944768</v>
       </c>
-      <c r="J6" s="415"/>
+      <c r="J6" s="378"/>
       <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4616,10 +4620,10 @@
         <v>18</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="422" t="s">
+      <c r="I11" s="385" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="423"/>
+      <c r="J11" s="386"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="103" t="s">
@@ -4702,7 +4706,7 @@
         <f>I4</f>
         <v>19.84</v>
       </c>
-      <c r="C16" s="362">
+      <c r="C16" s="414">
         <f ca="1">D11/2</f>
         <v>8.2222222222222224E-2</v>
       </c>
@@ -4710,7 +4714,7 @@
         <f ca="1">H14/B16-1-C16</f>
         <v>-6.4911970852888717E-2</v>
       </c>
-      <c r="E16" s="398">
+      <c r="E16" s="395">
         <f>'FCFF Model'!D14</f>
         <v>0.95</v>
       </c>
@@ -4718,14 +4722,14 @@
         <f>E16/B16</f>
         <v>4.7883064516129031E-2</v>
       </c>
-      <c r="G16" s="419" t="s">
+      <c r="G16" s="382" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="416">
+      <c r="H16" s="379">
         <f>('FCFF Model'!G21)*Exchange_Rate</f>
         <v>15.381471906974147</v>
       </c>
-      <c r="I16" s="419" t="s">
+      <c r="I16" s="382" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="266">
@@ -4737,19 +4741,19 @@
       <c r="B17" s="202">
         <v>18.5</v>
       </c>
-      <c r="C17" s="363"/>
+      <c r="C17" s="415"/>
       <c r="D17" s="206">
         <f ca="1">H14/B17-1-C16</f>
         <v>8.77428519224141E-3</v>
       </c>
-      <c r="E17" s="399"/>
+      <c r="E17" s="396"/>
       <c r="F17" s="209">
         <f>E16/B17</f>
         <v>5.1351351351351347E-2</v>
       </c>
-      <c r="G17" s="420"/>
-      <c r="H17" s="417"/>
-      <c r="I17" s="420"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="380"/>
+      <c r="I17" s="383"/>
       <c r="J17" s="265">
         <f>B17-$H$16</f>
         <v>3.1185280930258532</v>
@@ -4759,19 +4763,19 @@
       <c r="B18" s="203">
         <v>18</v>
       </c>
-      <c r="C18" s="364"/>
+      <c r="C18" s="416"/>
       <c r="D18" s="207">
         <f ca="1">H14/B18-1-C16</f>
         <v>3.9079743731531974E-2</v>
       </c>
-      <c r="E18" s="400"/>
+      <c r="E18" s="397"/>
       <c r="F18" s="210">
         <f>E16/B18</f>
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="G18" s="421"/>
-      <c r="H18" s="418"/>
-      <c r="I18" s="421"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="381"/>
+      <c r="I18" s="384"/>
       <c r="J18" s="267">
         <f>B18-$H$16</f>
         <v>2.6185280930258532</v>
@@ -4786,9 +4790,11 @@
       <c r="B20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="445"/>
+      <c r="E20" s="445"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -4800,52 +4806,52 @@
       <c r="B21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="409" t="s">
+      <c r="C21" s="369" t="s">
         <v>335</v>
       </c>
-      <c r="D21" s="410"/>
-      <c r="E21" s="410"/>
-      <c r="F21" s="410"/>
-      <c r="G21" s="410"/>
-      <c r="H21" s="410"/>
-      <c r="I21" s="410"/>
-      <c r="J21" s="411"/>
+      <c r="D21" s="370"/>
+      <c r="E21" s="370"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="370"/>
+      <c r="H21" s="370"/>
+      <c r="I21" s="370"/>
+      <c r="J21" s="371"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="356" t="s">
+      <c r="C22" s="387" t="s">
         <v>351</v>
       </c>
-      <c r="D22" s="357"/>
-      <c r="E22" s="357"/>
-      <c r="F22" s="357"/>
-      <c r="G22" s="356" t="s">
+      <c r="D22" s="388"/>
+      <c r="E22" s="388"/>
+      <c r="F22" s="388"/>
+      <c r="G22" s="387" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="356"/>
-      <c r="I22" s="357"/>
-      <c r="J22" s="357"/>
+      <c r="H22" s="387"/>
+      <c r="I22" s="388"/>
+      <c r="J22" s="388"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="358" t="s">
+      <c r="C23" s="372" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="359"/>
-      <c r="E23" s="359"/>
-      <c r="F23" s="359"/>
-      <c r="G23" s="358" t="s">
+      <c r="D23" s="368"/>
+      <c r="E23" s="368"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="372" t="s">
         <v>352</v>
       </c>
-      <c r="H23" s="358"/>
-      <c r="I23" s="359"/>
-      <c r="J23" s="359"/>
+      <c r="H23" s="372"/>
+      <c r="I23" s="368"/>
+      <c r="J23" s="368"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4880,155 +4886,155 @@
       <c r="B26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="360"/>
-      <c r="D26" s="361"/>
-      <c r="E26" s="360"/>
-      <c r="F26" s="361"/>
-      <c r="G26" s="380"/>
-      <c r="H26" s="381"/>
-      <c r="I26" s="395" t="s">
+      <c r="C26" s="365"/>
+      <c r="D26" s="366"/>
+      <c r="E26" s="365"/>
+      <c r="F26" s="366"/>
+      <c r="G26" s="399"/>
+      <c r="H26" s="400"/>
+      <c r="I26" s="413" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="395"/>
+      <c r="J26" s="413"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="397">
+      <c r="C27" s="394">
         <f>C31/D25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="377"/>
-      <c r="E27" s="396">
+      <c r="D27" s="393"/>
+      <c r="E27" s="392">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="377"/>
-      <c r="G27" s="382">
+      <c r="F27" s="393"/>
+      <c r="G27" s="401">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="383"/>
-      <c r="I27" s="384">
+      <c r="H27" s="402"/>
+      <c r="I27" s="404">
         <f>C27+E27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="384"/>
+      <c r="J27" s="404"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="378"/>
-      <c r="D28" s="357"/>
-      <c r="E28" s="378"/>
-      <c r="F28" s="357"/>
-      <c r="G28" s="391"/>
-      <c r="H28" s="392"/>
-      <c r="I28" s="367">
+      <c r="C28" s="391"/>
+      <c r="D28" s="388"/>
+      <c r="E28" s="391"/>
+      <c r="F28" s="388"/>
+      <c r="G28" s="375"/>
+      <c r="H28" s="376"/>
+      <c r="I28" s="418">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="367"/>
+      <c r="J28" s="418"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="379"/>
-      <c r="D29" s="357"/>
-      <c r="E29" s="379"/>
-      <c r="F29" s="357"/>
-      <c r="G29" s="385"/>
-      <c r="H29" s="386"/>
-      <c r="I29" s="393"/>
-      <c r="J29" s="393"/>
+      <c r="C29" s="398"/>
+      <c r="D29" s="388"/>
+      <c r="E29" s="398"/>
+      <c r="F29" s="388"/>
+      <c r="G29" s="405"/>
+      <c r="H29" s="406"/>
+      <c r="I29" s="411"/>
+      <c r="J29" s="411"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="365">
+      <c r="C30" s="389">
         <f>C29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D30" s="372"/>
-      <c r="E30" s="365">
+      <c r="D30" s="390"/>
+      <c r="E30" s="389">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="372"/>
-      <c r="G30" s="387">
+      <c r="F30" s="390"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="388"/>
-      <c r="I30" s="394"/>
-      <c r="J30" s="394"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="412"/>
+      <c r="J30" s="412"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="373">
+      <c r="C31" s="423">
         <f>C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="374"/>
-      <c r="E31" s="366">
+      <c r="D31" s="424"/>
+      <c r="E31" s="417">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="375"/>
-      <c r="G31" s="389">
+      <c r="F31" s="425"/>
+      <c r="G31" s="409">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="390"/>
-      <c r="I31" s="366">
+      <c r="H31" s="410"/>
+      <c r="I31" s="417">
         <f>C31+E31+G31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="366"/>
+      <c r="J31" s="417"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="368"/>
-      <c r="D32" s="369"/>
-      <c r="E32" s="376" t="str">
+      <c r="C32" s="419"/>
+      <c r="D32" s="420"/>
+      <c r="E32" s="403" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>-</v>
       </c>
-      <c r="F32" s="377"/>
+      <c r="F32" s="393"/>
       <c r="G32" s="153"/>
       <c r="H32" s="153"/>
-      <c r="I32" s="376" t="str">
+      <c r="I32" s="403" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
         <v/>
       </c>
-      <c r="J32" s="376"/>
+      <c r="J32" s="403"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="370"/>
-      <c r="D33" s="371"/>
-      <c r="E33" s="365" t="str">
+      <c r="C33" s="421"/>
+      <c r="D33" s="422"/>
+      <c r="E33" s="389" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="372"/>
+      <c r="F33" s="390"/>
       <c r="G33" s="154"/>
       <c r="H33" s="154"/>
-      <c r="I33" s="365" t="str">
+      <c r="I33" s="389" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J33" s="365"/>
+      <c r="J33" s="389"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5966,6 +5972,39 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -5982,39 +6021,6 @@
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="lessThan">
@@ -7765,10 +7771,10 @@
         <v>83</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="429">
+      <c r="D50" s="431">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E50" s="430"/>
+      <c r="E50" s="432"/>
       <c r="F50" s="354" t="s">
         <v>344</v>
       </c>
@@ -7779,10 +7785,10 @@
         <v>84</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="424" t="s">
+      <c r="D51" s="426" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="357"/>
+      <c r="E51" s="388"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7797,10 +7803,10 @@
         <v>86</v>
       </c>
       <c r="C53" s="59"/>
-      <c r="D53" s="425">
+      <c r="D53" s="427">
         <v>5</v>
       </c>
-      <c r="E53" s="426"/>
+      <c r="E53" s="428"/>
       <c r="F53" s="60"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7811,10 +7817,10 @@
       <c r="C54" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="427" t="s">
+      <c r="D54" s="429" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="428"/>
+      <c r="E54" s="430"/>
       <c r="F54" s="63" t="s">
         <v>90</v>
       </c>
@@ -9598,11 +9604,11 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="433" t="s">
+      <c r="B2" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="433"/>
-      <c r="D2" s="433"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -9701,11 +9707,11 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="433" t="s">
+      <c r="B9" s="435" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="433"/>
-      <c r="D9" s="433"/>
+      <c r="C9" s="435"/>
+      <c r="D9" s="435"/>
       <c r="E9" s="8"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10542,11 +10548,11 @@
         <v>318</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="367">
+      <c r="D52" s="418">
         <f>D53+D54+D55</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E52" s="435"/>
+      <c r="E52" s="437"/>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
     </row>
@@ -10555,11 +10561,11 @@
         <v>319</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="367">
+      <c r="D53" s="418">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="435"/>
+      <c r="E53" s="437"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
@@ -10568,10 +10574,10 @@
         <v>174</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="434">
+      <c r="D54" s="436">
         <v>0</v>
       </c>
-      <c r="E54" s="357"/>
+      <c r="E54" s="388"/>
       <c r="F54" s="6" t="s">
         <v>175</v>
       </c>
@@ -10582,10 +10588,10 @@
         <v>173</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="434">
+      <c r="D55" s="436">
         <v>0</v>
       </c>
-      <c r="E55" s="357"/>
+      <c r="E55" s="388"/>
       <c r="F55" s="5" t="s">
         <v>176</v>
       </c>
@@ -10600,8 +10606,8 @@
         <v>177</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="436"/>
-      <c r="E57" s="436"/>
+      <c r="D57" s="438"/>
+      <c r="E57" s="438"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10647,11 +10653,11 @@
         <v>178</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="431">
+      <c r="D60" s="433">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>-11515263.40732</v>
       </c>
-      <c r="E60" s="432"/>
+      <c r="E60" s="434"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10770,7 +10776,7 @@
         <v>2824174.5</v>
       </c>
       <c r="F4" s="344"/>
-      <c r="G4" s="444"/>
+      <c r="G4" s="357"/>
       <c r="H4" s="148"/>
       <c r="I4" s="6"/>
       <c r="J4" s="99"/>
@@ -10789,14 +10795,14 @@
         <v>1115166.6000000001</v>
       </c>
       <c r="F5" s="344"/>
-      <c r="G5" s="444"/>
+      <c r="G5" s="357"/>
       <c r="H5" s="148"/>
       <c r="I5" s="6"/>
       <c r="J5" s="99"/>
       <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="356" t="s">
         <v>347</v>
       </c>
       <c r="C6" s="285">
@@ -10815,7 +10821,7 @@
         <f>E6/E11</f>
         <v>0.54084868327105462</v>
       </c>
-      <c r="G6" s="444"/>
+      <c r="G6" s="357"/>
       <c r="H6" s="148"/>
       <c r="I6" s="6"/>
       <c r="J6" s="99"/>
@@ -10834,7 +10840,7 @@
         <v>533539.5</v>
       </c>
       <c r="F7" s="344"/>
-      <c r="G7" s="444"/>
+      <c r="G7" s="357"/>
       <c r="H7" s="148"/>
       <c r="I7" s="6"/>
       <c r="J7" s="99"/>
@@ -10853,14 +10859,14 @@
         <v>2173204.8000000003</v>
       </c>
       <c r="F8" s="344"/>
-      <c r="G8" s="444"/>
+      <c r="G8" s="357"/>
       <c r="H8" s="148"/>
       <c r="I8" s="6"/>
       <c r="J8" s="99"/>
       <c r="K8" s="82"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="443" t="s">
+      <c r="B9" s="356" t="s">
         <v>348</v>
       </c>
       <c r="C9" s="285">
@@ -10879,14 +10885,14 @@
         <f>E9/E11</f>
         <v>0.37162029218704429</v>
       </c>
-      <c r="G9" s="444"/>
+      <c r="G9" s="357"/>
       <c r="H9" s="148"/>
       <c r="I9" s="6"/>
       <c r="J9" s="99"/>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="443" t="s">
+      <c r="B10" s="356" t="s">
         <v>349</v>
       </c>
       <c r="C10" s="285">
@@ -10904,7 +10910,7 @@
         <f>E10/E11</f>
         <v>8.7531024541901079E-2</v>
       </c>
-      <c r="G10" s="444"/>
+      <c r="G10" s="357"/>
       <c r="H10" s="148"/>
       <c r="I10" s="6"/>
       <c r="J10" s="99"/>
@@ -12491,7 +12497,7 @@
         <f>C22/(Dashboard!I5/Data!C4)</f>
         <v>-4.2053758183007348</v>
       </c>
-      <c r="E22" s="439" t="str">
+      <c r="E22" s="441" t="str">
         <f>IF(F23+G23=G21,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12514,7 +12520,7 @@
         <f>C23/(Dashboard!I5/Data!C4)</f>
         <v>-0.57273456083900676</v>
       </c>
-      <c r="E23" s="439"/>
+      <c r="E23" s="441"/>
       <c r="F23" s="191">
         <f>D20</f>
         <v>11.676602903912285</v>
@@ -12537,10 +12543,10 @@
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E25" s="114"/>
-      <c r="F25" s="438" t="s">
+      <c r="F25" s="440" t="s">
         <v>311</v>
       </c>
-      <c r="G25" s="438"/>
+      <c r="G25" s="440"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="164" t="str">
@@ -12598,7 +12604,7 @@
         <f t="dataTable" ref="E28:E30" dt2D="0" dtr="0" r1="D27" ca="1"/>
         <v>3.8028951053470363</v>
       </c>
-      <c r="F28" s="440">
+      <c r="F28" s="442">
         <f ca="1">SUM(C17:F17)</f>
         <v>0.79594857520550355</v>
       </c>
@@ -12623,7 +12629,7 @@
       <c r="E29" s="265">
         <v>4.9437636369511475</v>
       </c>
-      <c r="F29" s="441"/>
+      <c r="F29" s="443"/>
       <c r="G29" s="265">
         <f ca="1">$F$28+E29+$G$21</f>
         <v>21.121184119130799</v>
@@ -12645,7 +12651,7 @@
       <c r="E30" s="267">
         <v>5.4381400006462632</v>
       </c>
-      <c r="F30" s="442"/>
+      <c r="F30" s="444"/>
       <c r="G30" s="267">
         <f ca="1">$F$28+E30+$G$21</f>
         <v>21.615560482825913</v>
@@ -12707,10 +12713,10 @@
       <c r="I34" s="119"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="401" t="s">
+      <c r="C35" s="358" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="437"/>
+      <c r="D35" s="439"/>
       <c r="E35" s="32" t="s">
         <v>296</v>
       </c>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3480F4-3BB9-4DA3-91BB-A78FE937C53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2726B-0AF0-4503-8BB8-139790EE6A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Number of Shares:</t>
   </si>
   <si>
-    <t>Next Earnings Date:</t>
-  </si>
-  <si>
     <t>Capitalization:</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t xml:space="preserve">PB = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inputs</t>
   </si>
   <si>
     <t>Assets</t>
@@ -1341,12 +1335,18 @@
   <si>
     <t>Type:</t>
   </si>
+  <si>
+    <t>Most Recent Quarter Inputs</t>
+  </si>
+  <si>
+    <t>Next Review Date:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1371,8 +1371,9 @@
     <numFmt numFmtId="182" formatCode="&quot;Discount rate = &quot;0.00%"/>
     <numFmt numFmtId="183" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="184" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="187" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1578,6 +1579,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -1731,7 +1738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="98">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -2968,13 +2975,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3871,154 +3919,18 @@
     <xf numFmtId="177" fontId="2" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4027,6 +3939,9 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4038,11 +3953,141 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4064,7 +4109,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4088,7 +4132,31 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4197,8 +4265,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -4419,7 +4487,7 @@
   <dimension ref="A1:L967"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:J21"/>
+      <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4447,11 +4515,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="358" t="str">
+      <c r="C2" s="403" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0683.HK : KERRY PPT</v>
       </c>
-      <c r="D2" s="359"/>
+      <c r="D2" s="404"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4463,27 +4531,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="360" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="361"/>
+      <c r="C3" s="405" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="406"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="373" t="s">
+      <c r="I3" s="413" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="374"/>
+      <c r="J3" s="414"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="362" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="363"/>
+      <c r="C4" s="407" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="408"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4500,10 +4568,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="364">
+      <c r="C5" s="409">
         <v>44956</v>
       </c>
-      <c r="D5" s="363"/>
+      <c r="D5" s="408"/>
       <c r="E5" s="158" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4511,36 +4579,39 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="375">
+      <c r="I5" s="393">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="376"/>
+      <c r="J5" s="394"/>
       <c r="K5" s="195"/>
       <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="367">
-        <v>45001</v>
-      </c>
-      <c r="D6" s="368"/>
+        <v>355</v>
+      </c>
+      <c r="C6" s="448">
+        <v>8</v>
+      </c>
+      <c r="D6" s="449">
+        <f>EOMONTH(EDATE('Asset Model'!D9,C6),0)</f>
+        <v>44985</v>
+      </c>
       <c r="E6" s="158"/>
       <c r="G6" s="171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="170"/>
-      <c r="I6" s="377">
+      <c r="I6" s="415">
         <f>I4*I5/1000000</f>
         <v>28793.98944768</v>
       </c>
-      <c r="J6" s="378"/>
+      <c r="J6" s="416"/>
       <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="184">
         <f>(Data!C40)/I4</f>
@@ -4557,7 +4628,7 @@
       <c r="C8" s="128"/>
       <c r="E8" s="6"/>
       <c r="G8" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="169"/>
       <c r="I8" s="6"/>
@@ -4565,12 +4636,12 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="157">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
@@ -4583,17 +4654,17 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="186" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="186" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="161">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="175">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
@@ -4606,7 +4677,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C11" s="263">
         <v>0.1</v>
@@ -4617,17 +4688,17 @@
       </c>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="385" t="s">
+      <c r="I11" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="386"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C12" s="352">
         <v>2.9100000000000001E-2</v>
@@ -4637,7 +4708,7 @@
         <v>0.19354444444444446</v>
       </c>
       <c r="G12" s="171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="170"/>
       <c r="I12" s="172">
@@ -4652,24 +4723,24 @@
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="164" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="233">
         <f ca="1">'FCFF Model'!C33</f>
         <v>19.213458639736121</v>
       </c>
       <c r="E14" s="164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F14" s="233">
         <f ca="1">'FCFF Model'!E33</f>
         <v>21.121184119130799</v>
       </c>
       <c r="G14" s="234" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="245">
         <f ca="1">IF('FCFF Model'!C36&lt;0, "Error", 'FCFF Model'!C36)</f>
@@ -4682,23 +4753,23 @@
       <c r="A15" s="6"/>
       <c r="B15" s="128"/>
       <c r="C15" s="312" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D15" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="F15" s="120" t="s">
         <v>23</v>
-      </c>
-      <c r="F15" s="120" t="s">
-        <v>24</v>
       </c>
       <c r="G15" s="176"/>
       <c r="H15" s="85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4706,7 +4777,7 @@
         <f>I4</f>
         <v>19.84</v>
       </c>
-      <c r="C16" s="414">
+      <c r="C16" s="364">
         <f ca="1">D11/2</f>
         <v>8.2222222222222224E-2</v>
       </c>
@@ -4714,7 +4785,7 @@
         <f ca="1">H14/B16-1-C16</f>
         <v>-6.4911970852888717E-2</v>
       </c>
-      <c r="E16" s="395">
+      <c r="E16" s="400">
         <f>'FCFF Model'!D14</f>
         <v>0.95</v>
       </c>
@@ -4722,15 +4793,15 @@
         <f>E16/B16</f>
         <v>4.7883064516129031E-2</v>
       </c>
-      <c r="G16" s="382" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="379">
+      <c r="G16" s="420" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="417">
         <f>('FCFF Model'!G21)*Exchange_Rate</f>
         <v>15.381471906974147</v>
       </c>
-      <c r="I16" s="382" t="s">
-        <v>29</v>
+      <c r="I16" s="420" t="s">
+        <v>28</v>
       </c>
       <c r="J16" s="266">
         <f>B16-$H$16</f>
@@ -4741,19 +4812,19 @@
       <c r="B17" s="202">
         <v>18.5</v>
       </c>
-      <c r="C17" s="415"/>
+      <c r="C17" s="365"/>
       <c r="D17" s="206">
         <f ca="1">H14/B17-1-C16</f>
         <v>8.77428519224141E-3</v>
       </c>
-      <c r="E17" s="396"/>
+      <c r="E17" s="401"/>
       <c r="F17" s="209">
         <f>E16/B17</f>
         <v>5.1351351351351347E-2</v>
       </c>
-      <c r="G17" s="383"/>
-      <c r="H17" s="380"/>
-      <c r="I17" s="383"/>
+      <c r="G17" s="421"/>
+      <c r="H17" s="418"/>
+      <c r="I17" s="421"/>
       <c r="J17" s="265">
         <f>B17-$H$16</f>
         <v>3.1185280930258532</v>
@@ -4763,19 +4834,19 @@
       <c r="B18" s="203">
         <v>18</v>
       </c>
-      <c r="C18" s="416"/>
+      <c r="C18" s="366"/>
       <c r="D18" s="207">
         <f ca="1">H14/B18-1-C16</f>
         <v>3.9079743731531974E-2</v>
       </c>
-      <c r="E18" s="397"/>
+      <c r="E18" s="402"/>
       <c r="F18" s="210">
         <f>E16/B18</f>
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="G18" s="384"/>
-      <c r="H18" s="381"/>
-      <c r="I18" s="384"/>
+      <c r="G18" s="422"/>
+      <c r="H18" s="419"/>
+      <c r="I18" s="422"/>
       <c r="J18" s="267">
         <f>B18-$H$16</f>
         <v>2.6185280930258532</v>
@@ -4788,13 +4859,13 @@
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" s="445"/>
-      <c r="E20" s="445"/>
+        <v>353</v>
+      </c>
+      <c r="D20" s="450"/>
+      <c r="E20" s="451"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -4804,54 +4875,54 @@
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="369" t="s">
-        <v>335</v>
-      </c>
-      <c r="D21" s="370"/>
-      <c r="E21" s="370"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="370"/>
-      <c r="H21" s="370"/>
-      <c r="I21" s="370"/>
-      <c r="J21" s="371"/>
+        <v>30</v>
+      </c>
+      <c r="C21" s="410" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="411"/>
+      <c r="E21" s="411"/>
+      <c r="F21" s="411"/>
+      <c r="G21" s="411"/>
+      <c r="H21" s="411"/>
+      <c r="I21" s="411"/>
+      <c r="J21" s="412"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="387" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="358" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="359"/>
+      <c r="E22" s="359"/>
+      <c r="F22" s="359"/>
+      <c r="G22" s="358" t="s">
         <v>351</v>
       </c>
-      <c r="D22" s="388"/>
-      <c r="E22" s="388"/>
-      <c r="F22" s="388"/>
-      <c r="G22" s="387" t="s">
-        <v>353</v>
-      </c>
-      <c r="H22" s="387"/>
-      <c r="I22" s="388"/>
-      <c r="J22" s="388"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="359"/>
+      <c r="J22" s="359"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="372" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="360" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="361"/>
+      <c r="E23" s="361"/>
+      <c r="F23" s="361"/>
+      <c r="G23" s="360" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="368"/>
-      <c r="E23" s="368"/>
-      <c r="F23" s="368"/>
-      <c r="G23" s="372" t="s">
-        <v>352</v>
-      </c>
-      <c r="H23" s="372"/>
-      <c r="I23" s="368"/>
-      <c r="J23" s="368"/>
+      <c r="H23" s="360"/>
+      <c r="I23" s="361"/>
+      <c r="J23" s="361"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4867,10 +4938,10 @@
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="D25" s="36">
         <v>600000</v>
@@ -4884,157 +4955,157 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="362"/>
+      <c r="D26" s="363"/>
+      <c r="E26" s="362"/>
+      <c r="F26" s="363"/>
+      <c r="G26" s="382"/>
+      <c r="H26" s="383"/>
+      <c r="I26" s="397" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="365"/>
-      <c r="D26" s="366"/>
-      <c r="E26" s="365"/>
-      <c r="F26" s="366"/>
-      <c r="G26" s="399"/>
-      <c r="H26" s="400"/>
-      <c r="I26" s="413" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="413"/>
+      <c r="J26" s="397"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="394">
+        <v>37</v>
+      </c>
+      <c r="C27" s="399">
         <f>C31/D25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="393"/>
-      <c r="E27" s="392">
+      <c r="D27" s="379"/>
+      <c r="E27" s="398">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="393"/>
-      <c r="G27" s="401">
+      <c r="F27" s="379"/>
+      <c r="G27" s="384">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="402"/>
-      <c r="I27" s="404">
+      <c r="H27" s="385"/>
+      <c r="I27" s="386">
         <f>C27+E27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="404"/>
+      <c r="J27" s="386"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="391"/>
-      <c r="D28" s="388"/>
-      <c r="E28" s="391"/>
-      <c r="F28" s="388"/>
-      <c r="G28" s="375"/>
-      <c r="H28" s="376"/>
-      <c r="I28" s="418">
+        <v>38</v>
+      </c>
+      <c r="C28" s="380"/>
+      <c r="D28" s="359"/>
+      <c r="E28" s="380"/>
+      <c r="F28" s="359"/>
+      <c r="G28" s="393"/>
+      <c r="H28" s="394"/>
+      <c r="I28" s="369">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="418"/>
+      <c r="J28" s="369"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="398"/>
-      <c r="D29" s="388"/>
-      <c r="E29" s="398"/>
-      <c r="F29" s="388"/>
-      <c r="G29" s="405"/>
-      <c r="H29" s="406"/>
-      <c r="I29" s="411"/>
-      <c r="J29" s="411"/>
+        <v>39</v>
+      </c>
+      <c r="C29" s="381"/>
+      <c r="D29" s="359"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="387"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="395"/>
+      <c r="J29" s="395"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="389">
+        <v>40</v>
+      </c>
+      <c r="C30" s="367">
         <f>C29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D30" s="390"/>
-      <c r="E30" s="389">
+      <c r="D30" s="374"/>
+      <c r="E30" s="367">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="390"/>
-      <c r="G30" s="407">
+      <c r="F30" s="374"/>
+      <c r="G30" s="389">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
+      <c r="H30" s="390"/>
+      <c r="I30" s="396"/>
+      <c r="J30" s="396"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="423">
+        <v>41</v>
+      </c>
+      <c r="C31" s="375">
         <f>C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="424"/>
-      <c r="E31" s="417">
+      <c r="D31" s="376"/>
+      <c r="E31" s="368">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="425"/>
-      <c r="G31" s="409">
+      <c r="F31" s="377"/>
+      <c r="G31" s="391">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="417">
+      <c r="H31" s="392"/>
+      <c r="I31" s="368">
         <f>C31+E31+G31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="417"/>
+      <c r="J31" s="368"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="419"/>
-      <c r="D32" s="420"/>
-      <c r="E32" s="403" t="str">
+        <v>42</v>
+      </c>
+      <c r="C32" s="370"/>
+      <c r="D32" s="371"/>
+      <c r="E32" s="378" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>-</v>
       </c>
-      <c r="F32" s="393"/>
+      <c r="F32" s="379"/>
       <c r="G32" s="153"/>
       <c r="H32" s="153"/>
-      <c r="I32" s="403" t="str">
+      <c r="I32" s="378" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
         <v/>
       </c>
-      <c r="J32" s="403"/>
+      <c r="J32" s="378"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="421"/>
-      <c r="D33" s="422"/>
-      <c r="E33" s="389" t="str">
+        <v>43</v>
+      </c>
+      <c r="C33" s="372"/>
+      <c r="D33" s="373"/>
+      <c r="E33" s="367" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="390"/>
+      <c r="F33" s="374"/>
       <c r="G33" s="154"/>
       <c r="H33" s="154"/>
-      <c r="I33" s="389" t="str">
+      <c r="I33" s="367" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J33" s="389"/>
+      <c r="J33" s="367"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5972,6 +6043,39 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="E26:F26"/>
@@ -5988,39 +6092,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="lessThan">
@@ -6071,7 +6142,7 @@
   <dimension ref="A1:N964"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6093,7 +6164,7 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -6110,7 +6181,7 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="192">
         <v>44561</v>
@@ -6134,7 +6205,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="37">
         <v>1000</v>
@@ -6210,7 +6281,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="37">
         <v>15326764</v>
@@ -6234,7 +6305,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:L8" si="0">IF(D7="","",C7/D7-1)</f>
@@ -6282,7 +6353,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="37">
         <v>6583757</v>
@@ -6306,7 +6377,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" ref="C10:M10" si="1">IF(C7="","",(C7-C9)/C7)</f>
@@ -6357,7 +6428,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="37">
         <v>2003343</v>
@@ -6381,7 +6452,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="2">IF(C7="","",C10-C13)</f>
@@ -6432,7 +6503,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C7)</f>
@@ -6483,7 +6554,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="29">
         <f t="shared" ref="C14:M14" si="4">IF(C7="","",C7-C9-C11)</f>
@@ -6534,7 +6605,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6585,7 +6656,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="182">
         <f>IF(C14="","",C14*(1-'FCFF Model'!$D$6))</f>
@@ -6636,7 +6707,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="166">
         <f t="shared" ref="C17:M17" si="6">IF(C7="","",C16/C7)</f>
@@ -6687,7 +6758,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="37">
         <v>10358011</v>
@@ -6711,7 +6782,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" ref="C19:M19" si="7">IF(C7="","",C18/C7)</f>
@@ -6762,7 +6833,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="49">
         <f>'Asset Model'!C26</f>
@@ -6787,7 +6858,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="224">
         <v>20068482</v>
@@ -6811,7 +6882,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="224">
         <v>67022531</v>
@@ -6831,7 +6902,7 @@
     <row r="23" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="49">
         <f>'Asset Model'!I11+'Asset Model'!I12+'Asset Model'!I13</f>
@@ -6856,7 +6927,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="180" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="177">
         <f>'Asset Model'!I12</f>
@@ -6881,7 +6952,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="49">
         <f>'Asset Model'!I28+'Asset Model'!I29+'Asset Model'!I30</f>
@@ -6906,7 +6977,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="180" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="179">
         <f>'Asset Model'!I29</f>
@@ -6931,7 +7002,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="29">
         <f t="shared" ref="C27:M27" si="8">IF(C7="","",C23+C25)</f>
@@ -6982,7 +7053,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="224">
         <v>128099808</v>
@@ -7006,7 +7077,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="180" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C29" s="223">
         <v>157397300.09900001</v>
@@ -7026,7 +7097,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C30" s="49">
         <f>'Asset Model'!C59</f>
@@ -7051,7 +7122,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C31" s="183">
         <v>562656</v>
@@ -7075,7 +7146,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="49">
         <f>'Asset Model'!C36+'Asset Model'!C37+'Asset Model'!C38</f>
@@ -7100,7 +7171,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="14">
         <f t="shared" ref="C33:M33" si="9">IF(D7="","",(C32-D32)/C32)</f>
@@ -7151,7 +7222,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="329">
         <f t="shared" ref="C34:M34" si="10">IF(D7="","",(C7-D7)*$D$50)</f>
@@ -7202,7 +7273,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="182">
         <f t="shared" ref="C35:M35" si="11">IF(D7="","",C32-D32+C34)</f>
@@ -7253,7 +7324,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="328" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="319">
         <f t="shared" ref="C36:M36" si="12">IF(C35="","",C35/C16)</f>
@@ -7304,7 +7375,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -7322,7 +7393,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="216" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="213">
         <v>5316230</v>
@@ -7346,7 +7417,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="212">
         <v>40396</v>
@@ -7370,7 +7441,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="181" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C40" s="218">
         <f t="shared" ref="C40:M40" si="13">IF(C38="","",C38*$C$4/Common_Shares)</f>
@@ -7421,7 +7492,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="217" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" s="220">
         <f t="shared" ref="C41:M41" si="14">IF(C39="","",C39*$C$4/Common_Shares)</f>
@@ -7472,7 +7543,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -7489,7 +7560,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="52">
         <f>IF(C29="","",C25/C28)</f>
@@ -7540,7 +7611,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="48" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C44" s="14">
         <f>IF(C29="","",C27/C29)</f>
@@ -7591,7 +7662,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="54">
         <f t="shared" ref="C45:M45" si="17">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
@@ -7642,7 +7713,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="14">
         <f t="shared" ref="C46:M46" si="18">IF(C16="","",IF(C31&lt;=0,"-",C31/C16))</f>
@@ -7693,7 +7764,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="55">
         <f>IF(C20="","",C20/C21)</f>
@@ -7758,7 +7829,7 @@
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
@@ -7768,27 +7839,27 @@
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="431">
+      <c r="D50" s="430">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E50" s="432"/>
+      <c r="E50" s="431"/>
       <c r="F50" s="354" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="425" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="426" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="388"/>
+      <c r="E51" s="359"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7800,29 +7871,29 @@
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" s="59"/>
-      <c r="D53" s="427">
+      <c r="D53" s="426">
         <v>5</v>
       </c>
-      <c r="E53" s="428"/>
+      <c r="E53" s="427"/>
       <c r="F53" s="60"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="D54" s="428" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="429" t="s">
+      <c r="E54" s="429"/>
+      <c r="F54" s="63" t="s">
         <v>89</v>
-      </c>
-      <c r="E54" s="430"/>
-      <c r="F54" s="63" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8047,7 +8118,7 @@
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="57"/>
       <c r="D66" s="57"/>
@@ -8060,7 +8131,7 @@
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="57"/>
       <c r="D67" s="57"/>
@@ -8082,22 +8153,22 @@
       <c r="A69" s="9"/>
       <c r="B69" s="72"/>
       <c r="C69" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="73" t="s">
+      <c r="E69" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="74" t="s">
+      <c r="F69" s="75" t="s">
         <v>95</v>
-      </c>
-      <c r="F69" s="75" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="76">
         <f>C14</f>
@@ -8108,16 +8179,16 @@
         <v>6739664</v>
       </c>
       <c r="E70" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="71" t="s">
         <v>98</v>
-      </c>
-      <c r="F70" s="71" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="77">
         <f t="shared" ref="C71:D71" si="24">C70/$C$7</f>
@@ -8128,16 +8199,16 @@
         <v>0.4397317007034231</v>
       </c>
       <c r="E71" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="71" t="s">
         <v>101</v>
-      </c>
-      <c r="F71" s="71" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="76">
         <f>C35</f>
@@ -8148,16 +8219,16 @@
         <v>2130419.6779999998</v>
       </c>
       <c r="E72" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="71" t="s">
         <v>104</v>
-      </c>
-      <c r="F72" s="71" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="76">
         <f>C16</f>
@@ -8168,16 +8239,16 @@
         <v>5627619.4399999995</v>
       </c>
       <c r="E73" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="71" t="s">
         <v>107</v>
-      </c>
-      <c r="F73" s="71" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="76">
         <f>F3</f>
@@ -8188,16 +8259,16 @@
         <v>10358011</v>
       </c>
       <c r="E74" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" s="79" t="e">
         <f>#REF!</f>
@@ -8208,10 +8279,10 @@
         <v>#REF!</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F75" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9587,8 +9658,8 @@
   </sheetPr>
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9604,11 +9675,11 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="435" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="435"/>
-      <c r="D2" s="435"/>
+      <c r="B2" s="444" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="444"/>
+      <c r="D2" s="443"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -9617,7 +9688,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="225">
@@ -9631,7 +9702,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="122">
         <f>((D3-D4)*Dashboard!I12*Data!C4)/Dashboard!I5</f>
@@ -9640,7 +9711,7 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="194">
@@ -9655,13 +9726,13 @@
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="84">
@@ -9675,7 +9746,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="28">
         <f>IF(Data!F3&lt;=0,"NNI",D7/((Data!F3*Dashboard!I12)/(Dashboard!I5/Data!C4)))</f>
@@ -9685,7 +9756,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="86">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
@@ -9693,7 +9764,7 @@
       </c>
       <c r="E7" s="87"/>
       <c r="H7" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="28">
         <f>D7/(Data!C28*Dashboard!I12*Data!C4/Common_Shares)</f>
@@ -9705,43 +9776,48 @@
       <c r="D8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="435" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="435"/>
-      <c r="D9" s="435"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="445" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="336"/>
+      <c r="D9" s="446">
+        <v>44742</v>
+      </c>
+      <c r="E9" s="447" t="str">
+        <f>IF(D9=Data!C3,"FY","Quarter")</f>
+        <v>Quarter</v>
+      </c>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="89">
         <v>16946370</v>
@@ -9756,7 +9832,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I11" s="89">
         <v>2253528</v>
@@ -9765,7 +9841,7 @@
     </row>
     <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="89">
         <v>0</v>
@@ -9780,7 +9856,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I12" s="89">
         <v>31180.352999999999</v>
@@ -9789,7 +9865,7 @@
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="89">
         <v>0</v>
@@ -9804,7 +9880,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" s="89">
         <v>861793.34100000001</v>
@@ -9813,7 +9889,7 @@
     </row>
     <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="89">
         <v>0</v>
@@ -9828,7 +9904,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I14" s="89">
         <v>0</v>
@@ -9837,7 +9913,7 @@
     </row>
     <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="89">
         <v>0</v>
@@ -9852,7 +9928,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I15" s="199">
         <f>I26-SUM(I11:I14)</f>
@@ -9862,7 +9938,7 @@
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="89">
         <v>0</v>
@@ -9882,7 +9958,7 @@
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="89">
         <v>2617395</v>
@@ -9902,7 +9978,7 @@
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="89">
         <v>0</v>
@@ -9915,13 +9991,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="89">
         <v>17196881</v>
@@ -9934,7 +10010,7 @@
         <v>10318128.6</v>
       </c>
       <c r="F19" s="264" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G19" s="125">
         <f>IF(F19="Y",0,1)</f>
@@ -9945,7 +10021,7 @@
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C20" s="89">
         <v>20570771</v>
@@ -9958,7 +10034,7 @@
         <v>8228308.4000000004</v>
       </c>
       <c r="F20" s="264" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G20" s="125">
         <f>IF(F20="Y",0,1)</f>
@@ -9969,7 +10045,7 @@
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" s="89">
         <v>634405</v>
@@ -9988,7 +10064,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="89">
         <v>0</v>
@@ -10010,7 +10086,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="95">
         <f>SUM(C11:C14)</f>
@@ -10027,7 +10103,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I24" s="94">
         <f>E24/($I$26-I13)</f>
@@ -10040,7 +10116,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="95">
         <f>C24+SUM(C15:C17)</f>
@@ -10057,7 +10133,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I25" s="94">
         <f>E25/$I$26</f>
@@ -10067,7 +10143,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="95">
         <f>SUM(C11:C22)</f>
@@ -10082,7 +10158,7 @@
         <v>37404189.25</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" s="199">
         <f>Data!C21</f>
@@ -10100,7 +10176,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="89">
         <v>0</v>
@@ -10114,7 +10190,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I28" s="89">
         <f>996632.901+1804212.761+142405.676</f>
@@ -10124,7 +10200,7 @@
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="89">
         <v>2179420</v>
@@ -10139,7 +10215,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I29" s="89">
         <v>13550.745000000001</v>
@@ -10148,7 +10224,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="89">
         <v>608531</v>
@@ -10163,7 +10239,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I30" s="89">
         <v>0</v>
@@ -10172,7 +10248,7 @@
     </row>
     <row r="31" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="89">
         <v>0</v>
@@ -10187,7 +10263,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I31" s="89">
         <v>0</v>
@@ -10196,7 +10272,7 @@
     </row>
     <row r="32" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="89">
         <v>1107494</v>
@@ -10209,11 +10285,11 @@
         <v>442997.60000000003</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I32" s="199">
         <f>I42-SUM(I28:I31)</f>
@@ -10223,7 +10299,7 @@
     </row>
     <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" s="89">
         <v>27509451</v>
@@ -10236,7 +10312,7 @@
         <v>11003780.4</v>
       </c>
       <c r="F33" s="264" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G33" s="125">
         <f>IF(F33="Y",0,1)</f>
@@ -10246,7 +10322,7 @@
     </row>
     <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="89">
         <v>80948092</v>
@@ -10259,7 +10335,7 @@
         <v>48568855.199999996</v>
       </c>
       <c r="F34" s="264" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G34" s="125">
         <f>IF(F34="Y",0,1)</f>
@@ -10268,7 +10344,7 @@
     </row>
     <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="89">
         <v>21257867</v>
@@ -10281,7 +10357,7 @@
         <v>8503146.8000000007</v>
       </c>
       <c r="F35" s="264" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G35" s="125">
         <f>IF(F35="Y",0,1)</f>
@@ -10290,7 +10366,7 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="89">
         <v>21664879</v>
@@ -10307,7 +10383,7 @@
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" s="89">
         <v>1826761</v>
@@ -10324,7 +10400,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" s="89">
         <v>122504</v>
@@ -10341,7 +10417,7 @@
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" s="89">
         <v>0</v>
@@ -10358,7 +10434,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" s="89">
         <v>0</v>
@@ -10381,7 +10457,7 @@
     </row>
     <row r="42" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" s="92">
         <f>SUM(C28:C40)</f>
@@ -10398,7 +10474,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I42" s="199">
         <f>Data!C22</f>
@@ -10414,7 +10490,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" s="95">
         <f>C24+SUM(C28:C29)</f>
@@ -10431,7 +10507,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I44" s="94">
         <f>E44/$I$46</f>
@@ -10444,7 +10520,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" s="95">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
@@ -10461,7 +10537,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I45" s="94">
         <f>E45/$I$46</f>
@@ -10471,7 +10547,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="95">
         <f>C26+C42</f>
@@ -10488,7 +10564,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I46" s="199">
         <f>I26+I42</f>
@@ -10504,14 +10580,14 @@
     </row>
     <row r="48" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B48" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="56"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B49" s="277" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="278" t="str">
@@ -10522,7 +10598,7 @@
     </row>
     <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="279">
         <f>D4</f>
@@ -10545,55 +10621,55 @@
     </row>
     <row r="52" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B52" s="100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="418">
+      <c r="D52" s="369">
         <f>D53+D54+D55</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E52" s="437"/>
+      <c r="E52" s="435"/>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
     </row>
     <row r="53" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B53" s="83" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="418">
+      <c r="D53" s="369">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="437"/>
+      <c r="E53" s="435"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B54" s="83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="436">
+      <c r="D54" s="434">
         <v>0</v>
       </c>
-      <c r="E54" s="388"/>
+      <c r="E54" s="359"/>
       <c r="F54" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="436">
+      <c r="D55" s="434">
         <v>0</v>
       </c>
-      <c r="E55" s="388"/>
+      <c r="E55" s="359"/>
       <c r="F55" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -10603,17 +10679,17 @@
     </row>
     <row r="57" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B57" s="100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="438"/>
-      <c r="E57" s="438"/>
+      <c r="D57" s="436"/>
+      <c r="E57" s="436"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="57" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C58" s="274">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
@@ -10631,7 +10707,7 @@
     </row>
     <row r="59" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B59" s="57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="274">
         <f>C11+C12+C28</f>
@@ -10650,14 +10726,14 @@
     </row>
     <row r="60" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B60" s="57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="433">
+      <c r="D60" s="432">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>-11515263.40732</v>
       </c>
-      <c r="E60" s="434"/>
+      <c r="E60" s="433"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10666,17 +10742,15 @@
       <c r="E61" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D53:E53"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
@@ -10722,7 +10796,7 @@
     <row r="2" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="123" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -10743,13 +10817,13 @@
         <v>44561</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E3" s="30">
         <v>1</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G3" s="30" t="str">
         <f>IF(G12="","","2")</f>
@@ -10760,12 +10834,12 @@
         <v/>
       </c>
       <c r="J3" s="97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" s="285">
         <v>4053111</v>
@@ -10784,7 +10858,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C5" s="285">
         <v>1291010</v>
@@ -10803,7 +10877,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="356" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C6" s="285">
         <f>C4+C5</f>
@@ -10829,7 +10903,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C7" s="285">
         <v>4584914</v>
@@ -10848,7 +10922,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C8" s="285">
         <v>3786145</v>
@@ -10867,7 +10941,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="356" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C9" s="285">
         <f>C7+C8</f>
@@ -10893,7 +10967,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="356" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C10" s="285">
         <v>1611584</v>
@@ -10918,7 +10992,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C11" s="229">
         <f>C6+C9+C10</f>
@@ -10941,7 +11015,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" s="236"/>
       <c r="D12" s="345"/>
@@ -10958,7 +11032,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="230">
         <f>Data!C9</f>
@@ -10981,7 +11055,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="235">
         <f>(C11-C13)/C11</f>
@@ -11000,7 +11074,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="29">
         <f>C11-C13</f>
@@ -11022,7 +11096,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="240">
         <f>C17/C11</f>
@@ -11041,7 +11115,7 @@
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="232">
         <v>2003343</v>
@@ -11062,7 +11136,7 @@
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="18">
         <f>C20/C11</f>
@@ -11085,7 +11159,7 @@
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="237"/>
       <c r="D19" s="348"/>
@@ -11105,7 +11179,7 @@
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C20" s="295">
         <f>C15-C17</f>
@@ -12038,8 +12112,8 @@
   </sheetPr>
   <dimension ref="A1:J926"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12060,7 +12134,7 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -12091,15 +12165,15 @@
         <v/>
       </c>
       <c r="G3" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I3" s="97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="231">
         <f>Operation!C20</f>
@@ -12124,7 +12198,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C5" s="338"/>
       <c r="D5" s="339">
@@ -12146,7 +12220,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="238">
         <v>0.16500000000000001</v>
@@ -12170,7 +12244,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="239">
         <f>IF(C4&lt;=0,C4,C4*(1-C6))</f>
@@ -12195,7 +12269,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="90">
         <f>C10/C7</f>
@@ -12213,7 +12287,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C9" s="342"/>
       <c r="D9" s="340">
@@ -12228,7 +12302,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="244">
         <v>2000000</v>
@@ -12252,7 +12326,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="243">
         <f>C7-C10</f>
@@ -12280,7 +12354,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="260" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C12" s="297">
         <f>C11*Data!C$4/Dashboard!I5</f>
@@ -12308,7 +12382,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="307" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C13" s="299">
         <f>Data!C40/C12</f>
@@ -12327,7 +12401,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C14" s="310">
         <v>0</v>
@@ -12353,7 +12427,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="241"/>
       <c r="D15" s="286">
@@ -12378,7 +12452,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="146"/>
       <c r="D16" s="287">
@@ -12403,7 +12477,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C17" s="311">
         <f>C14</f>
@@ -12435,19 +12509,19 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C19" s="246" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="83" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C20" s="112">
         <f>'Asset Model'!E59</f>
@@ -12458,7 +12532,7 @@
         <v>11.676602903912285</v>
       </c>
       <c r="E20" s="113" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G20" s="174">
         <f>C20+C21+C22+C23</f>
@@ -12467,7 +12541,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="83" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C21" s="112">
         <f>'Asset Model'!E58</f>
@@ -12478,7 +12552,7 @@
         <v>8.482979382201604</v>
       </c>
       <c r="E21" s="113" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G21" s="249">
         <f>G20*Data!C$4/Dashboard!I5</f>
@@ -12487,7 +12561,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C22" s="112">
         <f>-'Asset Model'!D52</f>
@@ -12497,20 +12571,20 @@
         <f>C22/(Dashboard!I5/Data!C4)</f>
         <v>-4.2053758183007348</v>
       </c>
-      <c r="E22" s="441" t="str">
+      <c r="E22" s="439" t="str">
         <f>IF(F23+G23=G21,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
       <c r="F22" s="185" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G22" s="116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C23" s="112">
         <f>-'Asset Model'!E50</f>
@@ -12520,7 +12594,7 @@
         <f>C23/(Dashboard!I5/Data!C4)</f>
         <v>-0.57273456083900676</v>
       </c>
-      <c r="E23" s="441"/>
+      <c r="E23" s="439"/>
       <c r="F23" s="191">
         <f>D20</f>
         <v>11.676602903912285</v>
@@ -12536,17 +12610,17 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C25" s="246" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E25" s="114"/>
-      <c r="F25" s="440" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="440"/>
+      <c r="F25" s="438" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="438"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="164" t="str">
@@ -12554,22 +12628,22 @@
         <v>Exit after Year 1</v>
       </c>
       <c r="C26" s="164" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="257" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="353" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="353" t="s">
         <v>307</v>
       </c>
-      <c r="D26" s="257" t="s">
-        <v>297</v>
-      </c>
-      <c r="E26" s="164" t="s">
-        <v>308</v>
-      </c>
-      <c r="F26" s="353" t="s">
-        <v>310</v>
-      </c>
-      <c r="G26" s="353" t="s">
-        <v>309</v>
-      </c>
       <c r="I26" s="115" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12590,7 +12664,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="185" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C28" s="14">
         <f>1/D28</f>
@@ -12604,7 +12678,7 @@
         <f t="dataTable" ref="E28:E30" dt2D="0" dtr="0" r1="D27" ca="1"/>
         <v>3.8028951053470363</v>
       </c>
-      <c r="F28" s="442">
+      <c r="F28" s="440">
         <f ca="1">SUM(C17:F17)</f>
         <v>0.79594857520550355</v>
       </c>
@@ -12616,7 +12690,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="185" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C29" s="14">
         <f t="shared" ref="C29" si="0">1/D29</f>
@@ -12629,7 +12703,7 @@
       <c r="E29" s="265">
         <v>4.9437636369511475</v>
       </c>
-      <c r="F29" s="443"/>
+      <c r="F29" s="441"/>
       <c r="G29" s="265">
         <f ca="1">$F$28+E29+$G$21</f>
         <v>21.121184119130799</v>
@@ -12638,7 +12712,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="189" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30" s="258">
         <f>1/D30</f>
@@ -12651,7 +12725,7 @@
       <c r="E30" s="267">
         <v>5.4381400006462632</v>
       </c>
-      <c r="F30" s="444"/>
+      <c r="F30" s="442"/>
       <c r="G30" s="267">
         <f ca="1">$F$28+E30+$G$21</f>
         <v>21.615560482825913</v>
@@ -12668,7 +12742,7 @@
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="331" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
@@ -12684,7 +12758,7 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="333">
         <f ca="1">MIN('Asset Model'!D7,G28)+(ABS('Asset Model'!D7-G28)*'Qualitative Analysis'!E80)*Exchange_Rate</f>
@@ -12713,22 +12787,22 @@
       <c r="I34" s="119"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="358" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="439"/>
+      <c r="C35" s="403" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="437"/>
       <c r="E35" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="337" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C36" s="334">
         <f ca="1">MIN(C33,E33)+(ABS(C33-E33)*'Qualitative Analysis'!E80)</f>
@@ -12752,7 +12826,7 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="336" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C37" s="335">
         <f ca="1">(G14/(1+G37)^B27+F28+G21)*Exchange_Rate</f>
@@ -13709,7 +13783,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="12"/>
@@ -13717,7 +13791,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B3" s="127" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="128"/>
       <c r="D3" s="6"/>
@@ -13725,7 +13799,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="128"/>
       <c r="D4" s="125">
@@ -13733,12 +13807,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="128"/>
       <c r="D5" s="125">
@@ -13746,12 +13820,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" s="128"/>
       <c r="D6" s="125">
@@ -13759,12 +13833,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B7" s="129" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="128"/>
       <c r="D7" s="125">
@@ -13783,7 +13857,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B9" s="131" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="40"/>
@@ -13791,19 +13865,19 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="132">
         <f>IF(E10="Strongly disagree",0,IF(E10="disagree",1,IF(E10="unclear",2,IF(E10="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="132">
@@ -13817,7 +13891,7 @@
     </row>
     <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" s="132">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
@@ -13830,7 +13904,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="129" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D13" s="132">
         <f>AVERAGE(D10:D12)</f>
@@ -13849,17 +13923,17 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="211" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="118">
@@ -13872,7 +13946,7 @@
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="132" t="str">
@@ -13880,37 +13954,37 @@
         <v>-</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D18" s="132" t="str">
         <f t="shared" ref="D18:D19" si="1">IF(LEFT(E18,3)="(+)","+","-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="187" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D19" s="132" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D20" s="132" t="str">
         <f>D17&amp;D18&amp;D19</f>
@@ -13923,7 +13997,7 @@
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="129" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="118">
         <f>1/E21</f>
@@ -13941,7 +14015,7 @@
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -13949,14 +14023,14 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="131" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="124"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D25" s="132">
         <f>IF(E25="Strongly disagree",0,IF(E25="disagree",1,IF(E25="unclear",2,IF(E25="agree",3,4))))</f>
@@ -13970,66 +14044,66 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D26" s="132">
         <f>IF(E26="Strongly disagree",0,IF(E26="disagree",1,IF(E26="unclear",2,IF(E26="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D27" s="132">
         <f>IF(E27="Strongly disagree",0,IF(E27="disagree",1,IF(E27="unclear",2,IF(E27="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D28" s="132">
         <f>IF(E28="Strongly disagree",0,IF(E28="disagree",1,IF(E28="unclear",2,IF(E28="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D29" s="132">
         <f>IF(E29="Strongly disagree",0,IF(E29="disagree",1,IF(E29="unclear",2,IF(E29="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="131" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D31" s="132">
         <f>IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
@@ -14045,138 +14119,138 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D32" s="132">
         <f t="shared" ref="D32:D35" si="2">IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D33" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="132">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="132">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="131" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D37" s="132">
         <f t="shared" ref="D37:D41" si="3">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D38" s="132">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D39" s="132">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40" s="132">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D41" s="132">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="24"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D43" s="135">
         <f>SUM(D44:D49)/(6*4)</f>
@@ -14190,84 +14264,84 @@
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D44" s="132">
         <f t="shared" ref="D44:D49" si="4">IF(E44="Strongly disagree",0,IF(E44="disagree",1,IF(E44="unclear",2,IF(E44="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D45" s="132">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D46" s="132">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D47" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D48" s="132">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D49" s="132">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D50" s="135">
         <f>SUM(D51:D56)/(6*4)</f>
@@ -14281,84 +14355,84 @@
     </row>
     <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D51" s="132">
         <f t="shared" ref="D51:D56" si="5">IF(E51="Strongly disagree",0,IF(E51="disagree",1,IF(E51="unclear",2,IF(E51="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D52" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D53" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D54" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D55" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D56" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D57" s="135">
         <f>SUM(D58:D63)/(6*4)</f>
@@ -14372,85 +14446,85 @@
     </row>
     <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D58" s="132">
         <f t="shared" ref="D58:D63" si="6">IF(E58="Strongly disagree",0,IF(E58="disagree",1,IF(E58="unclear",2,IF(E58="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D59" s="132">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D60" s="132">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D61" s="132">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D62" s="132">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D63" s="132">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D64" s="135">
         <f>SUM(D65:D70)/(6*4)</f>
@@ -14464,64 +14538,64 @@
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D65" s="132">
         <f t="shared" ref="D65:D68" si="7">IF(E65="Strongly disagree",0,IF(E65="disagree",1,IF(E65="unclear",2,IF(E65="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D66" s="132">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D67" s="132">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D68" s="132">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D69" s="132">
         <f>IF(E69="Strongly disagree",0,IF(E69="disagree",1,IF(E69="unclear",2,IF(E69="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
@@ -14529,14 +14603,14 @@
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D70" s="136">
         <f t="array" ref="D70">(1-INDEX(B84:E93,MATCH(E70,B84:B93,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
@@ -14544,7 +14618,7 @@
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D71" s="137">
         <f>SUM(D72:D77)/(6*4)</f>
@@ -14560,14 +14634,14 @@
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D72" s="132">
         <f t="shared" ref="D72:D76" si="8">IF(E72="Strongly disagree",0,IF(E72="disagree",1,IF(E72="unclear",2,IF(E72="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
@@ -14575,14 +14649,14 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D73" s="132">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -14590,14 +14664,14 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D74" s="132">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -14605,14 +14679,14 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D75" s="132">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -14620,14 +14694,14 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D76" s="132">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
@@ -14635,14 +14709,14 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D77" s="132">
         <f>IF(E77="Strongly disagree",0,IF(E77="disagree",1,IF(E77="non-perishable",2,IF(E77="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
@@ -14650,7 +14724,7 @@
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="185" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D78" s="163">
         <f>1-AVERAGE(D43,D50,D57,D64,D71)</f>
@@ -14669,7 +14743,7 @@
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="129" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D80" s="125">
         <f>E80*4</f>
@@ -14682,7 +14756,7 @@
     </row>
     <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="58" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -14690,7 +14764,7 @@
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C83" s="139"/>
       <c r="D83" s="139"/>
@@ -14698,7 +14772,7 @@
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C84" s="139"/>
       <c r="D84" s="139">
@@ -14715,7 +14789,7 @@
         <v>Information Technology Like, 6.6y</v>
       </c>
       <c r="C85" s="139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D85" s="139">
         <v>6.6</v>
@@ -14731,7 +14805,7 @@
         <v>Healthcare, 11.4y</v>
       </c>
       <c r="C86" s="139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D86" s="139">
         <v>11.4</v>
@@ -14747,7 +14821,7 @@
         <v>Consumer Discretionary, 12.4y</v>
       </c>
       <c r="C87" s="139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D87" s="139">
         <v>12.4</v>
@@ -14763,7 +14837,7 @@
         <v>Consumer Staples, 15.1y</v>
       </c>
       <c r="C88" s="139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D88" s="139">
         <v>15.1</v>
@@ -14779,7 +14853,7 @@
         <v>Industrials, 15.4y</v>
       </c>
       <c r="C89" s="139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D89" s="139">
         <v>15.4</v>
@@ -14795,7 +14869,7 @@
         <v>Telecommunication Services, 16.1y</v>
       </c>
       <c r="C90" s="139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D90" s="139">
         <v>16.100000000000001</v>
@@ -14811,7 +14885,7 @@
         <v>Energy, 17.6y</v>
       </c>
       <c r="C91" s="139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D91" s="139">
         <v>17.600000000000001</v>
@@ -14827,7 +14901,7 @@
         <v>Materials, 18.6y</v>
       </c>
       <c r="C92" s="139" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D92" s="139">
         <v>18.600000000000001</v>
@@ -14843,7 +14917,7 @@
         <v>Utilities, 29.4y</v>
       </c>
       <c r="C93" s="144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D93" s="144">
         <v>29.4</v>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2726B-0AF0-4503-8BB8-139790EE6A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3D07BC-0F15-48A3-9CE9-FF83E5DCE033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Asset Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Asset_Model" sheetId="3" r:id="rId3"/>
     <sheet name="Operation" sheetId="7" r:id="rId4"/>
     <sheet name="FCFF Model" sheetId="4" r:id="rId5"/>
     <sheet name="Qualitative Analysis" sheetId="5" r:id="rId6"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="357">
   <si>
     <t>Company Info:</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Dividend and Buyback</t>
   </si>
   <si>
-    <t>Dividend Paid</t>
-  </si>
-  <si>
     <t>Share Repurchase</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>Equity per books  =</t>
   </si>
   <si>
     <t>NAVPS =</t>
@@ -1212,9 +1206,6 @@
     <t>to</t>
   </si>
   <si>
-    <t>Interest Expense in CF</t>
-  </si>
-  <si>
     <t>Ending Cash Position</t>
   </si>
   <si>
@@ -1340,13 +1331,25 @@
   </si>
   <si>
     <t>Next Review Date:</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Cash Dividend Paid</t>
+  </si>
+  <si>
+    <t>Total Equity per books  =</t>
+  </si>
+  <si>
+    <t>Common Equity =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="26">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1367,13 +1370,14 @@
     <numFmt numFmtId="178" formatCode="&quot;Current Price = &quot;0.00"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="&quot;Price = &quot;0.00"/>
     <numFmt numFmtId="182" formatCode="&quot;Discount rate = &quot;0.00%"/>
     <numFmt numFmtId="183" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="184" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="187" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="185" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;Price_Target_1 = &quot;0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;Price_Target_2 = &quot;0.00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1579,12 +1583,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -3408,15 +3406,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -3457,9 +3449,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3469,12 +3458,6 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3536,7 +3519,6 @@
     <xf numFmtId="3" fontId="2" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3919,18 +3901,172 @@
     <xf numFmtId="177" fontId="2" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3939,9 +4075,6 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3953,141 +4086,11 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4132,30 +4135,27 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="179" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4486,8 +4486,8 @@
   </sheetPr>
   <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4515,11 +4515,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="403" t="str">
+      <c r="C2" s="357" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0683.HK : KERRY PPT</v>
       </c>
-      <c r="D2" s="404"/>
+      <c r="D2" s="358"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4531,27 +4531,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="405" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="406"/>
+      <c r="C3" s="359" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="360"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="413" t="s">
+      <c r="I3" s="371" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="414"/>
+      <c r="J3" s="372"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="407" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="408"/>
+      <c r="C4" s="361" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="362"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4562,16 +4562,16 @@
       <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="196"/>
+      <c r="K4" s="193"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="409">
+      <c r="C5" s="363">
         <v>44956</v>
       </c>
-      <c r="D5" s="408"/>
+      <c r="D5" s="362"/>
       <c r="E5" s="158" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4579,22 +4579,22 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="393">
+      <c r="I5" s="373">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="394"/>
-      <c r="K5" s="195"/>
+      <c r="J5" s="374"/>
+      <c r="K5" s="192"/>
       <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="448">
+        <v>352</v>
+      </c>
+      <c r="C6" s="355">
         <v>8</v>
       </c>
-      <c r="D6" s="449">
-        <f>EOMONTH(EDATE('Asset Model'!D9,C6),0)</f>
+      <c r="D6" s="356">
+        <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>44985</v>
       </c>
       <c r="E6" s="158"/>
@@ -4602,26 +4602,26 @@
         <v>9</v>
       </c>
       <c r="H6" s="170"/>
-      <c r="I6" s="415">
+      <c r="I6" s="375">
         <f>I4*I5/1000000</f>
         <v>28793.98944768</v>
       </c>
-      <c r="J6" s="416"/>
-      <c r="K6" s="195"/>
+      <c r="J6" s="376"/>
+      <c r="K6" s="192"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="184">
+      <c r="C7" s="182">
+        <f>(Data!C39)/I4</f>
+        <v>0.18462985164524817</v>
+      </c>
+      <c r="D7" s="182">
         <f>(Data!C40)/I4</f>
-        <v>0.18462985164524817</v>
-      </c>
-      <c r="D7" s="184">
-        <f>(Data!C41)/I4</f>
         <v>1.4029316803564641E-3</v>
       </c>
-      <c r="E7" s="197"/>
+      <c r="E7" s="194"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4656,7 +4656,7 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="184" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="161">
@@ -4670,19 +4670,19 @@
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
         <v>0.22477777209221111</v>
       </c>
-      <c r="J10" s="167" t="str">
-        <f>IF('Asset Model'!D60/'FCFF Model'!C4&lt;0,"Negative EV",'Asset Model'!D60/'FCFF Model'!C4)</f>
-        <v>Negative EV</v>
+      <c r="J10" s="167">
+        <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
+        <v>0.32261389064499346</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="263">
+        <v>308</v>
+      </c>
+      <c r="C11" s="257">
         <v>0.1</v>
       </c>
-      <c r="D11" s="350">
+      <c r="D11" s="344">
         <f ca="1">$C$11*(2-'Qualitative Analysis'!$E$13+IF($C$5+30&gt;=TODAY(),0.2,0))</f>
         <v>0.16444444444444445</v>
       </c>
@@ -4691,19 +4691,19 @@
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="423" t="s">
+      <c r="I11" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="424"/>
+      <c r="J11" s="384"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="352">
+        <v>333</v>
+      </c>
+      <c r="C12" s="346">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="D12" s="351">
+      <c r="D12" s="345">
         <f ca="1">D11+C12</f>
         <v>0.19354444444444446</v>
       </c>
@@ -4726,25 +4726,25 @@
         <v>19</v>
       </c>
       <c r="C14" s="164" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="233">
+        <v>290</v>
+      </c>
+      <c r="D14" s="227">
         <f ca="1">'FCFF Model'!C33</f>
-        <v>19.213458639736121</v>
+        <v>15.507841815017519</v>
       </c>
       <c r="E14" s="164" t="s">
-        <v>313</v>
-      </c>
-      <c r="F14" s="233">
+        <v>311</v>
+      </c>
+      <c r="F14" s="227">
         <f ca="1">'FCFF Model'!E33</f>
-        <v>21.121184119130799</v>
-      </c>
-      <c r="G14" s="234" t="s">
+        <v>13.58411216773554</v>
+      </c>
+      <c r="G14" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="245">
+      <c r="H14" s="239">
         <f ca="1">IF('FCFF Model'!C36&lt;0, "Error", 'FCFF Model'!C36)</f>
-        <v>20.183435387167577</v>
+        <v>14.56222618170788</v>
       </c>
       <c r="I14" s="170"/>
       <c r="J14" s="170"/>
@@ -4752,8 +4752,8 @@
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="128"/>
-      <c r="C15" s="312" t="s">
-        <v>332</v>
+      <c r="C15" s="306" t="s">
+        <v>329</v>
       </c>
       <c r="D15" s="120" t="s">
         <v>21</v>
@@ -4777,79 +4777,79 @@
         <f>I4</f>
         <v>19.84</v>
       </c>
-      <c r="C16" s="364">
+      <c r="C16" s="414">
         <f ca="1">D11/2</f>
         <v>8.2222222222222224E-2</v>
       </c>
-      <c r="D16" s="205">
+      <c r="D16" s="200">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-6.4911970852888717E-2</v>
-      </c>
-      <c r="E16" s="400">
+        <v>-0.34823904774097825</v>
+      </c>
+      <c r="E16" s="393">
         <f>'FCFF Model'!D14</f>
         <v>0.95</v>
       </c>
-      <c r="F16" s="208">
+      <c r="F16" s="203">
         <f>E16/B16</f>
         <v>4.7883064516129031E-2</v>
       </c>
-      <c r="G16" s="420" t="s">
+      <c r="G16" s="380" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="417">
+      <c r="H16" s="377">
         <f>('FCFF Model'!G21)*Exchange_Rate</f>
-        <v>15.381471906974147</v>
-      </c>
-      <c r="I16" s="420" t="s">
+        <v>7.8443999555788881</v>
+      </c>
+      <c r="I16" s="380" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="266">
+      <c r="J16" s="260">
         <f>B16-$H$16</f>
-        <v>4.4585280930258531</v>
+        <v>11.995600044421112</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="202">
+      <c r="B17" s="448">
         <v>18.5</v>
       </c>
-      <c r="C17" s="365"/>
-      <c r="D17" s="206">
+      <c r="C17" s="415"/>
+      <c r="D17" s="201">
         <f ca="1">H14/B17-1-C16</f>
-        <v>8.77428519224141E-3</v>
-      </c>
-      <c r="E17" s="401"/>
-      <c r="F17" s="209">
+        <v>-0.2950748610488233</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="204">
         <f>E16/B17</f>
         <v>5.1351351351351347E-2</v>
       </c>
-      <c r="G17" s="421"/>
-      <c r="H17" s="418"/>
-      <c r="I17" s="421"/>
-      <c r="J17" s="265">
+      <c r="G17" s="381"/>
+      <c r="H17" s="378"/>
+      <c r="I17" s="381"/>
+      <c r="J17" s="259">
         <f>B17-$H$16</f>
-        <v>3.1185280930258532</v>
+        <v>10.655600044421112</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="203">
+      <c r="B18" s="449">
         <v>18</v>
       </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="207">
+      <c r="C18" s="416"/>
+      <c r="D18" s="202">
         <f ca="1">H14/B18-1-C16</f>
-        <v>3.9079743731531974E-2</v>
-      </c>
-      <c r="E18" s="402"/>
-      <c r="F18" s="210">
+        <v>-0.27320965657178442</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="205">
         <f>E16/B18</f>
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="G18" s="422"/>
-      <c r="H18" s="419"/>
-      <c r="I18" s="422"/>
-      <c r="J18" s="267">
+      <c r="G18" s="382"/>
+      <c r="H18" s="379"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="261">
         <f>B18-$H$16</f>
-        <v>2.6185280930258532</v>
+        <v>10.155600044421112</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4862,10 +4862,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D20" s="450"/>
-      <c r="E20" s="451"/>
+        <v>350</v>
+      </c>
+      <c r="D20" s="397"/>
+      <c r="E20" s="398"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -4877,52 +4877,52 @@
       <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="410" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="411"/>
-      <c r="E21" s="411"/>
-      <c r="F21" s="411"/>
-      <c r="G21" s="411"/>
-      <c r="H21" s="411"/>
-      <c r="I21" s="411"/>
-      <c r="J21" s="412"/>
+      <c r="C21" s="366" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="367"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="367"/>
+      <c r="I21" s="367"/>
+      <c r="J21" s="368"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="358" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="359"/>
-      <c r="E22" s="359"/>
-      <c r="F22" s="359"/>
-      <c r="G22" s="358" t="s">
-        <v>351</v>
-      </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="359"/>
-      <c r="J22" s="359"/>
+      <c r="C22" s="385" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="386"/>
+      <c r="E22" s="386"/>
+      <c r="F22" s="386"/>
+      <c r="G22" s="385" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="385"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="386"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="360" t="s">
-        <v>348</v>
-      </c>
-      <c r="D23" s="361"/>
-      <c r="E23" s="361"/>
-      <c r="F23" s="361"/>
-      <c r="G23" s="360" t="s">
-        <v>350</v>
-      </c>
-      <c r="H23" s="360"/>
-      <c r="I23" s="361"/>
-      <c r="J23" s="361"/>
+      <c r="C23" s="369" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="369" t="s">
+        <v>347</v>
+      </c>
+      <c r="H23" s="369"/>
+      <c r="I23" s="370"/>
+      <c r="J23" s="370"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4957,155 +4957,155 @@
       <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="362"/>
-      <c r="D26" s="363"/>
-      <c r="E26" s="362"/>
-      <c r="F26" s="363"/>
-      <c r="G26" s="382"/>
-      <c r="H26" s="383"/>
-      <c r="I26" s="397" t="s">
+      <c r="C26" s="364"/>
+      <c r="D26" s="365"/>
+      <c r="E26" s="364"/>
+      <c r="F26" s="365"/>
+      <c r="G26" s="399"/>
+      <c r="H26" s="400"/>
+      <c r="I26" s="413" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="397"/>
+      <c r="J26" s="413"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="399">
+      <c r="C27" s="392">
         <f>C31/D25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="379"/>
-      <c r="E27" s="398">
+      <c r="D27" s="391"/>
+      <c r="E27" s="390">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="379"/>
-      <c r="G27" s="384">
+      <c r="F27" s="391"/>
+      <c r="G27" s="401">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="385"/>
-      <c r="I27" s="386">
+      <c r="H27" s="402"/>
+      <c r="I27" s="404">
         <f>C27+E27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="386"/>
+      <c r="J27" s="404"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="380"/>
-      <c r="D28" s="359"/>
-      <c r="E28" s="380"/>
-      <c r="F28" s="359"/>
-      <c r="G28" s="393"/>
-      <c r="H28" s="394"/>
-      <c r="I28" s="369">
+      <c r="C28" s="389"/>
+      <c r="D28" s="386"/>
+      <c r="E28" s="389"/>
+      <c r="F28" s="386"/>
+      <c r="G28" s="373"/>
+      <c r="H28" s="374"/>
+      <c r="I28" s="418">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="369"/>
+      <c r="J28" s="418"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="381"/>
-      <c r="D29" s="359"/>
-      <c r="E29" s="381"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="387"/>
-      <c r="H29" s="388"/>
-      <c r="I29" s="395"/>
-      <c r="J29" s="395"/>
+      <c r="C29" s="396"/>
+      <c r="D29" s="386"/>
+      <c r="E29" s="396"/>
+      <c r="F29" s="386"/>
+      <c r="G29" s="405"/>
+      <c r="H29" s="406"/>
+      <c r="I29" s="411"/>
+      <c r="J29" s="411"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="367">
+      <c r="C30" s="387">
         <f>C29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D30" s="374"/>
-      <c r="E30" s="367">
+      <c r="D30" s="388"/>
+      <c r="E30" s="387">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="374"/>
-      <c r="G30" s="389">
+      <c r="F30" s="388"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="390"/>
-      <c r="I30" s="396"/>
-      <c r="J30" s="396"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="412"/>
+      <c r="J30" s="412"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="375">
+      <c r="C31" s="423">
         <f>C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="376"/>
-      <c r="E31" s="368">
+      <c r="D31" s="424"/>
+      <c r="E31" s="417">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="377"/>
-      <c r="G31" s="391">
+      <c r="F31" s="425"/>
+      <c r="G31" s="409">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="392"/>
-      <c r="I31" s="368">
+      <c r="H31" s="410"/>
+      <c r="I31" s="417">
         <f>C31+E31+G31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="368"/>
+      <c r="J31" s="417"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="370"/>
-      <c r="D32" s="371"/>
-      <c r="E32" s="378" t="str">
+      <c r="C32" s="419"/>
+      <c r="D32" s="420"/>
+      <c r="E32" s="403" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>-</v>
       </c>
-      <c r="F32" s="379"/>
+      <c r="F32" s="391"/>
       <c r="G32" s="153"/>
       <c r="H32" s="153"/>
-      <c r="I32" s="378" t="str">
+      <c r="I32" s="403" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
         <v/>
       </c>
-      <c r="J32" s="378"/>
+      <c r="J32" s="403"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="372"/>
-      <c r="D33" s="373"/>
-      <c r="E33" s="367" t="str">
+      <c r="C33" s="421"/>
+      <c r="D33" s="422"/>
+      <c r="E33" s="387" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="374"/>
+      <c r="F33" s="388"/>
       <c r="G33" s="154"/>
       <c r="H33" s="154"/>
-      <c r="I33" s="367" t="str">
+      <c r="I33" s="387" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J33" s="367"/>
+      <c r="J33" s="387"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6043,6 +6043,39 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -6058,40 +6091,7 @@
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="lessThan">
@@ -6139,10 +6139,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N964"/>
+  <dimension ref="A1:N963"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6183,21 +6183,21 @@
       <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="192">
+      <c r="C3" s="190">
         <v>44561</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="228">
+      <c r="E3" s="222">
         <v>1</v>
       </c>
-      <c r="F3" s="226">
-        <f t="array" ref="F3">AVERAGE(C18:INDEX(C18:M18,1,E3))</f>
+      <c r="F3" s="220">
+        <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
         <v>10358011</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="222"/>
+      <c r="J3" s="217"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6215,7 +6215,7 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="227">
+      <c r="F4" s="221">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
         <v>5627619.4399999995</v>
       </c>
@@ -6273,7 +6273,7 @@
         <f>"FY "&amp;YEAR($C$3)-9</f>
         <v>FY 2012</v>
       </c>
-      <c r="M6" s="321" t="str">
+      <c r="M6" s="315" t="str">
         <f>"FY "&amp;YEAR($C$3)-10</f>
         <v>FY 2011</v>
       </c>
@@ -6299,7 +6299,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="322"/>
+      <c r="M7" s="316"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6347,7 +6347,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="271"/>
+      <c r="M8" s="265"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6371,7 +6371,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="322"/>
+      <c r="M9" s="316"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6419,7 +6419,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M10" s="271" t="str">
+      <c r="M10" s="265" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="322"/>
+      <c r="M11" s="316"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6494,7 +6494,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M12" s="271" t="str">
+      <c r="M12" s="265" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6545,7 +6545,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="271" t="str">
+      <c r="M13" s="265" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6596,7 +6596,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="323" t="str">
+      <c r="M14" s="317" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6647,7 +6647,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="271" t="str">
+      <c r="M15" s="265" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6658,47 +6658,47 @@
       <c r="B16" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="180">
         <f>IF(C14="","",C14*(1-'FCFF Model'!$D$6))</f>
         <v>5627619.4399999995</v>
       </c>
-      <c r="D16" s="182">
+      <c r="D16" s="180">
         <f>IF(D14="","",D14*(1-'FCFF Model'!$D$6))</f>
         <v>5655591.9399999995</v>
       </c>
-      <c r="E16" s="182">
+      <c r="E16" s="180">
         <f>IF(E14="","",E14*(1-'FCFF Model'!$D$6))</f>
         <v>6163854.7699999996</v>
       </c>
-      <c r="F16" s="182" t="str">
+      <c r="F16" s="180" t="str">
         <f>IF(F14="","",F14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="G16" s="182" t="str">
+      <c r="G16" s="180" t="str">
         <f>IF(G14="","",G14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="H16" s="182" t="str">
+      <c r="H16" s="180" t="str">
         <f>IF(H14="","",H14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="I16" s="182" t="str">
+      <c r="I16" s="180" t="str">
         <f>IF(I14="","",I14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="J16" s="182" t="str">
+      <c r="J16" s="180" t="str">
         <f>IF(J14="","",J14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="K16" s="182" t="str">
+      <c r="K16" s="180" t="str">
         <f>IF(K14="","",K14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="L16" s="182" t="str">
+      <c r="L16" s="180" t="str">
         <f>IF(L14="","",L14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="M16" s="324" t="str">
+      <c r="M16" s="318" t="str">
         <f>IF(M14="","",M14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="166">
@@ -6749,7 +6749,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M17" s="325" t="str">
+      <c r="M17" s="319" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6758,116 +6758,115 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="37">
-        <v>10358011</v>
-      </c>
-      <c r="D18" s="37">
-        <v>5403203</v>
-      </c>
-      <c r="E18" s="37">
-        <v>6897450</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="322"/>
+        <v>353</v>
+      </c>
+      <c r="C18" s="181">
+        <v>562656</v>
+      </c>
+      <c r="D18" s="181">
+        <v>781715</v>
+      </c>
+      <c r="E18" s="181">
+        <v>812565</v>
+      </c>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="320"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="14">
-        <f t="shared" ref="C19:M19" si="7">IF(C7="","",C18/C7)</f>
-        <v>0.67581199788813873</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="7"/>
-        <v>0.37196510116753967</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="7"/>
-        <v>0.38265123557162767</v>
-      </c>
-      <c r="F19" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G19" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H19" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I19" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J19" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K19" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L19" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M19" s="271" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C19" s="37">
+        <v>10358011</v>
+      </c>
+      <c r="D19" s="37">
+        <v>5403203</v>
+      </c>
+      <c r="E19" s="37">
+        <v>6897450</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="316"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="49">
-        <f>'Asset Model'!C26</f>
-        <v>57965822</v>
-      </c>
-      <c r="D20" s="37">
-        <v>46824778</v>
-      </c>
-      <c r="E20" s="37">
-        <v>30542596</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="322"/>
+        <v>59</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" ref="C20:M20" si="7">IF(C7="","",C19/C7)</f>
+        <v>0.67581199788813873</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="7"/>
+        <v>0.37196510116753967</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="7"/>
+        <v>0.38265123557162767</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G20" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H20" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I20" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J20" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K20" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L20" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M20" s="265" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="224">
-        <v>20068482</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="219">
+        <v>57965822</v>
       </c>
       <c r="D21" s="37">
-        <v>20617000</v>
+        <v>46824778</v>
       </c>
       <c r="E21" s="37">
-        <v>19835482</v>
+        <v>30542596</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -6876,19 +6875,23 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
-      <c r="M21" s="322"/>
+      <c r="M21" s="316"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="224">
-        <v>67022531</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+        <v>61</v>
+      </c>
+      <c r="C22" s="219">
+        <v>20068482</v>
+      </c>
+      <c r="D22" s="37">
+        <v>20617000</v>
+      </c>
+      <c r="E22" s="37">
+        <v>19835482</v>
+      </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -6896,7 +6899,7 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
-      <c r="M22" s="322"/>
+      <c r="M22" s="316"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6904,8 +6907,7 @@
       <c r="B23" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="49">
-        <f>'Asset Model'!I11+'Asset Model'!I12+'Asset Model'!I13</f>
+      <c r="C23" s="219">
         <v>3146501.6940000001</v>
       </c>
       <c r="D23" s="37">
@@ -6921,32 +6923,31 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="322"/>
+      <c r="M23" s="316"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="177">
-        <f>'Asset Model'!I12</f>
+      <c r="C24" s="445">
         <v>31180.352999999999</v>
       </c>
-      <c r="D24" s="178">
+      <c r="D24" s="177">
         <v>49241</v>
       </c>
-      <c r="E24" s="178">
+      <c r="E24" s="177">
         <v>32031</v>
       </c>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="327"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="321"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6954,8 +6955,7 @@
       <c r="B25" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="49">
-        <f>'Asset Model'!I28+'Asset Model'!I29+'Asset Model'!I30</f>
+      <c r="C25" s="219">
         <v>2956802.0830000001</v>
       </c>
       <c r="D25" s="37">
@@ -6971,32 +6971,31 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="322"/>
+      <c r="M25" s="316"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="180" t="s">
+      <c r="B26" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="179">
-        <f>'Asset Model'!I29</f>
+      <c r="C26" s="218">
         <v>13550.745000000001</v>
       </c>
-      <c r="D26" s="178">
+      <c r="D26" s="177">
         <v>19736</v>
       </c>
-      <c r="E26" s="178">
+      <c r="E26" s="177">
         <v>7537</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="327"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="321"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7005,47 +7004,47 @@
         <v>66</v>
       </c>
       <c r="C27" s="29">
-        <f t="shared" ref="C27:M27" si="8">IF(C7="","",C23+C25)</f>
+        <f>IF(C7="","",C23+C25)</f>
         <v>6103303.7770000007</v>
       </c>
       <c r="D27" s="29">
-        <f t="shared" si="8"/>
+        <f>IF(D7="","",D23+D25)</f>
         <v>7025739</v>
       </c>
       <c r="E27" s="29">
-        <f t="shared" si="8"/>
+        <f>IF(E7="","",E23+E25)</f>
         <v>7003154</v>
       </c>
       <c r="F27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(F7="","",F23+F25)</f>
         <v/>
       </c>
       <c r="G27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G7="","",G23+G25)</f>
         <v/>
       </c>
       <c r="H27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(H7="","",H23+H25)</f>
         <v/>
       </c>
       <c r="I27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I7="","",I23+I25)</f>
         <v/>
       </c>
       <c r="J27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(J7="","",J23+J25)</f>
         <v/>
       </c>
       <c r="K27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(K7="","",K23+K25)</f>
         <v/>
       </c>
       <c r="L27" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M27" s="323" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(L7="","",L23+L25)</f>
+        <v/>
+      </c>
+      <c r="M27" s="317" t="str">
+        <f>IF(M7="","",M23+M25)</f>
         <v/>
       </c>
       <c r="N27" s="6"/>
@@ -7055,7 +7054,7 @@
       <c r="B28" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="224">
+      <c r="C28" s="219">
         <v>128099808</v>
       </c>
       <c r="D28" s="37">
@@ -7071,43 +7070,42 @@
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
-      <c r="M28" s="322"/>
+      <c r="M28" s="316"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="180" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="223">
-        <v>157397300.09900001</v>
-      </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="327"/>
+      <c r="B29" s="178" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="218">
+        <v>116828895</v>
+      </c>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="321"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="49">
-        <f>'Asset Model'!C59</f>
-        <v>16946370</v>
+        <v>68</v>
+      </c>
+      <c r="C30" s="219">
+        <v>23614144</v>
       </c>
       <c r="D30" s="37">
-        <v>16429494</v>
+        <v>21538970</v>
       </c>
       <c r="E30" s="37">
-        <v>11743843</v>
+        <v>15235372</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -7116,105 +7114,131 @@
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
-      <c r="M30" s="322"/>
+      <c r="M30" s="316"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="C31" s="183">
-        <v>562656</v>
-      </c>
-      <c r="D31" s="183">
-        <v>781715</v>
-      </c>
-      <c r="E31" s="183">
-        <v>812565</v>
-      </c>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="326"/>
+        <v>312</v>
+      </c>
+      <c r="C31" s="219">
+        <v>16946370</v>
+      </c>
+      <c r="D31" s="37">
+        <v>16429494</v>
+      </c>
+      <c r="E31" s="37">
+        <v>11743843</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="316"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="49">
-        <f>'Asset Model'!C36+'Asset Model'!C37+'Asset Model'!C38</f>
-        <v>23614144</v>
-      </c>
-      <c r="D32" s="37">
-        <v>21538970</v>
-      </c>
-      <c r="E32" s="37">
-        <v>15235372</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="322"/>
+        <v>69</v>
+      </c>
+      <c r="C32" s="14">
+        <f>IF(D7="","",(C30-D30)/C30)</f>
+        <v>8.7878434212986925E-2</v>
+      </c>
+      <c r="D32" s="14">
+        <f>IF(E7="","",(D30-E30)/D30)</f>
+        <v>0.29266014113023975</v>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f>IF(F7="","",(E30-F30)/E30)</f>
+        <v/>
+      </c>
+      <c r="F32" s="14" t="str">
+        <f>IF(G7="","",(F30-G30)/F30)</f>
+        <v/>
+      </c>
+      <c r="G32" s="14" t="str">
+        <f>IF(H7="","",(G30-H30)/G30)</f>
+        <v/>
+      </c>
+      <c r="H32" s="14" t="str">
+        <f>IF(I7="","",(H30-I30)/H30)</f>
+        <v/>
+      </c>
+      <c r="I32" s="14" t="str">
+        <f>IF(J7="","",(I30-J30)/I30)</f>
+        <v/>
+      </c>
+      <c r="J32" s="14" t="str">
+        <f>IF(K7="","",(J30-K30)/J30)</f>
+        <v/>
+      </c>
+      <c r="K32" s="14" t="str">
+        <f>IF(L7="","",(K30-L30)/K30)</f>
+        <v/>
+      </c>
+      <c r="L32" s="14" t="str">
+        <f>IF(M7="","",(L30-M30)/L30)</f>
+        <v/>
+      </c>
+      <c r="M32" s="265" t="str">
+        <f>IF(N7="","",(M30-N30)/M30)</f>
+        <v/>
+      </c>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="14">
-        <f t="shared" ref="C33:M33" si="9">IF(D7="","",(C32-D32)/C32)</f>
-        <v>8.7878434212986925E-2</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" si="9"/>
-        <v>0.29266014113023975</v>
-      </c>
-      <c r="E33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L33" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M33" s="271" t="str">
-        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="C33" s="323">
+        <f>IF(D7="","",(C7-D7)*$D$49)</f>
+        <v>55245.678000000007</v>
+      </c>
+      <c r="D33" s="323">
+        <f>IF(E7="","",(D7-E7)*$D$49)</f>
+        <v>-241453.08000000002</v>
+      </c>
+      <c r="E33" s="323" t="str">
+        <f>IF(F7="","",(E7-F7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="F33" s="323" t="str">
+        <f>IF(G7="","",(F7-G7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="G33" s="323" t="str">
+        <f>IF(H7="","",(G7-H7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="H33" s="323" t="str">
+        <f>IF(I7="","",(H7-I7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="I33" s="323" t="str">
+        <f>IF(J7="","",(I7-J7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="J33" s="323" t="str">
+        <f>IF(K7="","",(J7-K7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="K33" s="323" t="str">
+        <f>IF(L7="","",(K7-L7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="L33" s="323" t="str">
+        <f>IF(M7="","",(L7-M7)*$D$49)</f>
+        <v/>
+      </c>
+      <c r="M33" s="324" t="str">
+        <f>IF(N7="","",(M7-N7)*$D$49)</f>
         <v/>
       </c>
       <c r="N33" s="6"/>
@@ -7222,388 +7246,388 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="329">
-        <f t="shared" ref="C34:M34" si="10">IF(D7="","",(C7-D7)*$D$50)</f>
-        <v>55245.678000000007</v>
-      </c>
-      <c r="D34" s="329">
-        <f t="shared" si="10"/>
-        <v>-241453.08000000002</v>
-      </c>
-      <c r="E34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L34" s="329" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M34" s="330" t="str">
-        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="C34" s="180">
+        <f>IF(D7="","",C30-D30+C33)</f>
+        <v>2130419.6779999998</v>
+      </c>
+      <c r="D34" s="180">
+        <f>IF(E7="","",D30-E30+D33)</f>
+        <v>6062144.9199999999</v>
+      </c>
+      <c r="E34" s="180" t="str">
+        <f>IF(F7="","",E30-F30+E33)</f>
+        <v/>
+      </c>
+      <c r="F34" s="180" t="str">
+        <f>IF(G7="","",F30-G30+F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="180" t="str">
+        <f>IF(H7="","",G30-H30+G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="180" t="str">
+        <f>IF(I7="","",H30-I30+H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="180" t="str">
+        <f>IF(J7="","",I30-J30+I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="180" t="str">
+        <f>IF(K7="","",J30-K30+J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="180" t="str">
+        <f>IF(L7="","",K30-L30+K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="180" t="str">
+        <f>IF(M7="","",L30-M30+L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="318" t="str">
+        <f>IF(N7="","",M30-N30+M33)</f>
         <v/>
       </c>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="182">
-        <f t="shared" ref="C35:M35" si="11">IF(D7="","",C32-D32+C34)</f>
-        <v>2130419.6779999998</v>
-      </c>
-      <c r="D35" s="182">
-        <f t="shared" si="11"/>
-        <v>6062144.9199999999</v>
-      </c>
-      <c r="E35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L35" s="182" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M35" s="324" t="str">
-        <f t="shared" si="11"/>
+      <c r="B35" s="322" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="313">
+        <f>IF(C34="","",C34/C16)</f>
+        <v>0.37856498661892463</v>
+      </c>
+      <c r="D35" s="313">
+        <f>IF(D34="","",D34/D16)</f>
+        <v>1.0718851332120685</v>
+      </c>
+      <c r="E35" s="313" t="str">
+        <f>IF(E34="","",E34/E16)</f>
+        <v/>
+      </c>
+      <c r="F35" s="313" t="str">
+        <f>IF(F34="","",F34/F16)</f>
+        <v/>
+      </c>
+      <c r="G35" s="313" t="str">
+        <f>IF(G34="","",G34/G16)</f>
+        <v/>
+      </c>
+      <c r="H35" s="313" t="str">
+        <f>IF(H34="","",H34/H16)</f>
+        <v/>
+      </c>
+      <c r="I35" s="313" t="str">
+        <f>IF(I34="","",I34/I16)</f>
+        <v/>
+      </c>
+      <c r="J35" s="313" t="str">
+        <f>IF(J34="","",J34/J16)</f>
+        <v/>
+      </c>
+      <c r="K35" s="313" t="str">
+        <f>IF(K34="","",K34/K16)</f>
+        <v/>
+      </c>
+      <c r="L35" s="313" t="str">
+        <f>IF(L34="","",L34/L16)</f>
+        <v/>
+      </c>
+      <c r="M35" s="314" t="str">
+        <f>IF(M34="","",M34/M16)</f>
         <v/>
       </c>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="328" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="319">
-        <f t="shared" ref="C36:M36" si="12">IF(C35="","",C35/C16)</f>
-        <v>0.37856498661892463</v>
-      </c>
-      <c r="D36" s="319">
-        <f t="shared" si="12"/>
-        <v>1.0718851332120685</v>
-      </c>
-      <c r="E36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L36" s="319" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M36" s="320" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+      <c r="B36" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="B37" s="211" t="s">
+        <v>354</v>
+      </c>
+      <c r="C37" s="208">
+        <v>5316230</v>
+      </c>
+      <c r="D37" s="208">
+        <v>1966277</v>
+      </c>
+      <c r="E37" s="208">
+        <v>1965289</v>
+      </c>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="208"/>
+      <c r="L37" s="208"/>
+      <c r="M37" s="209"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="216" t="s">
+      <c r="B38" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="213">
-        <v>5316230</v>
-      </c>
-      <c r="D38" s="213">
-        <v>1966277</v>
-      </c>
-      <c r="E38" s="213">
-        <v>1965289</v>
-      </c>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="213"/>
-      <c r="L38" s="213"/>
-      <c r="M38" s="214"/>
+      <c r="C38" s="207">
+        <v>40396</v>
+      </c>
+      <c r="D38" s="207">
+        <v>0</v>
+      </c>
+      <c r="E38" s="207">
+        <v>0</v>
+      </c>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="210"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="181" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="212">
-        <v>40396</v>
-      </c>
-      <c r="D39" s="212">
-        <v>0</v>
-      </c>
-      <c r="E39" s="212">
-        <v>0</v>
-      </c>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="212"/>
-      <c r="M39" s="215"/>
+      <c r="B39" s="179" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="213">
+        <f t="shared" ref="C39:M39" si="8">IF(C37="","",C37*$C$4/Common_Shares)</f>
+        <v>3.663056256641724</v>
+      </c>
+      <c r="D39" s="213">
+        <f t="shared" si="8"/>
+        <v>1.3548291302559745</v>
+      </c>
+      <c r="E39" s="213">
+        <f t="shared" si="8"/>
+        <v>1.3541483659584248</v>
+      </c>
+      <c r="F39" s="213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G39" s="213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H39" s="213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I39" s="213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J39" s="213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K39" s="213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L39" s="213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M39" s="214" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="181" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="218">
-        <f t="shared" ref="C40:M40" si="13">IF(C38="","",C38*$C$4/Common_Shares)</f>
-        <v>3.663056256641724</v>
-      </c>
-      <c r="D40" s="218">
-        <f t="shared" si="13"/>
-        <v>1.3548291302559745</v>
-      </c>
-      <c r="E40" s="218">
-        <f t="shared" si="13"/>
-        <v>1.3541483659584248</v>
-      </c>
-      <c r="F40" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G40" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H40" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I40" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J40" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K40" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L40" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M40" s="219" t="str">
-        <f t="shared" si="13"/>
+      <c r="B40" s="212" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="215">
+        <f t="shared" ref="C40:M40" si="9">IF(C38="","",C38*$C$4/Common_Shares)</f>
+        <v>2.7834164538272248E-2</v>
+      </c>
+      <c r="D40" s="215">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="215">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G40" s="215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H40" s="215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I40" s="215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J40" s="215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K40" s="215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L40" s="215" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M40" s="216" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="217" t="s">
-        <v>281</v>
-      </c>
-      <c r="C41" s="220">
-        <f t="shared" ref="C41:M41" si="14">IF(C39="","",C39*$C$4/Common_Shares)</f>
-        <v>2.7834164538272248E-2</v>
-      </c>
-      <c r="D41" s="220">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="220">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="220" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G41" s="220" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H41" s="220" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I41" s="220" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J41" s="220" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K41" s="220" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L41" s="220" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M41" s="221" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N41" s="6"/>
+      <c r="B41" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="C42" s="52">
+        <f>IF(C29="","",C25/C28)</f>
+        <v>2.3082018069847537E-2</v>
+      </c>
+      <c r="D42" s="52" t="str">
+        <f>IF(D29="","",D25/D29)</f>
+        <v/>
+      </c>
+      <c r="E42" s="52" t="str">
+        <f>IF(E29="","",E25/E29)</f>
+        <v/>
+      </c>
+      <c r="F42" s="52" t="str">
+        <f>IF(F29="","",F25/F29)</f>
+        <v/>
+      </c>
+      <c r="G42" s="52" t="str">
+        <f>IF(G29="","",G25/G29)</f>
+        <v/>
+      </c>
+      <c r="H42" s="52" t="str">
+        <f>IF(H29="","",H25/H29)</f>
+        <v/>
+      </c>
+      <c r="I42" s="52" t="str">
+        <f>IF(I29="","",I25/I29)</f>
+        <v/>
+      </c>
+      <c r="J42" s="52" t="str">
+        <f>IF(J29="","",J25/J29)</f>
+        <v/>
+      </c>
+      <c r="K42" s="52" t="str">
+        <f>IF(K29="","",K25/K29)</f>
+        <v/>
+      </c>
+      <c r="L42" s="52" t="str">
+        <f>IF(L29="","",L25/L29)</f>
+        <v/>
+      </c>
+      <c r="M42" s="264" t="str">
+        <f>IF(M29="","",M25/M29)</f>
+        <v/>
+      </c>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="52">
-        <f>IF(C29="","",C25/C28)</f>
-        <v>2.3082018069847537E-2</v>
-      </c>
-      <c r="D43" s="52" t="str">
-        <f>IF(D29="","",D25/D29)</f>
-        <v/>
-      </c>
-      <c r="E43" s="52" t="str">
-        <f t="shared" ref="E43:M43" si="15">IF(E29="","",E25/E29)</f>
-        <v/>
-      </c>
-      <c r="F43" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G43" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H43" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I43" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J43" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K43" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L43" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M43" s="270" t="str">
-        <f t="shared" si="15"/>
+      <c r="B43" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="14">
+        <f>IF(C29="","",C27/C29)</f>
+        <v>5.2241389229950357E-2</v>
+      </c>
+      <c r="D43" s="14" t="str">
+        <f>IF(D29="","",D27/D29)</f>
+        <v/>
+      </c>
+      <c r="E43" s="14" t="str">
+        <f>IF(E29="","",E27/E29)</f>
+        <v/>
+      </c>
+      <c r="F43" s="14" t="str">
+        <f>IF(F29="","",F27/F29)</f>
+        <v/>
+      </c>
+      <c r="G43" s="14" t="str">
+        <f>IF(G29="","",G27/G29)</f>
+        <v/>
+      </c>
+      <c r="H43" s="14" t="str">
+        <f>IF(H29="","",H27/H29)</f>
+        <v/>
+      </c>
+      <c r="I43" s="14" t="str">
+        <f>IF(I29="","",I27/I29)</f>
+        <v/>
+      </c>
+      <c r="J43" s="14" t="str">
+        <f>IF(J29="","",J27/J29)</f>
+        <v/>
+      </c>
+      <c r="K43" s="14" t="str">
+        <f>IF(K29="","",K27/K29)</f>
+        <v/>
+      </c>
+      <c r="L43" s="14" t="str">
+        <f>IF(L29="","",L27/L29)</f>
+        <v/>
+      </c>
+      <c r="M43" s="265" t="str">
+        <f>IF(M29="","",M27/M29)</f>
         <v/>
       </c>
       <c r="N43" s="6"/>
@@ -7611,50 +7635,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="C44" s="14">
-        <f>IF(C29="","",C27/C29)</f>
-        <v>3.8776419755365152E-2</v>
-      </c>
-      <c r="D44" s="14" t="str">
-        <f>IF(D29="","",D27/D29)</f>
-        <v/>
-      </c>
-      <c r="E44" s="14" t="str">
-        <f t="shared" ref="E44:M44" si="16">IF(E29="","",E27/E29)</f>
-        <v/>
-      </c>
-      <c r="F44" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="G44" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H44" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I44" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J44" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="K44" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L44" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M44" s="271" t="str">
-        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="C44" s="54">
+        <f>IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
+        <v>1.1042648778843502</v>
+      </c>
+      <c r="D44" s="54">
+        <f>IF(D14="","",IF(D27&lt;=0,"-",D14/D27))</f>
+        <v>0.96405004512692549</v>
+      </c>
+      <c r="E44" s="54">
+        <f>IF(E14="","",IF(E27&lt;=0,"-",E14/E27))</f>
+        <v>1.0540767774062945</v>
+      </c>
+      <c r="F44" s="54" t="str">
+        <f>IF(F14="","",IF(F27&lt;=0,"-",F14/F27))</f>
+        <v/>
+      </c>
+      <c r="G44" s="54" t="str">
+        <f>IF(G14="","",IF(G27&lt;=0,"-",G14/G27))</f>
+        <v/>
+      </c>
+      <c r="H44" s="54" t="str">
+        <f>IF(H14="","",IF(H27&lt;=0,"-",H14/H27))</f>
+        <v/>
+      </c>
+      <c r="I44" s="54" t="str">
+        <f>IF(I14="","",IF(I27&lt;=0,"-",I14/I27))</f>
+        <v/>
+      </c>
+      <c r="J44" s="54" t="str">
+        <f>IF(J14="","",IF(J27&lt;=0,"-",J14/J27))</f>
+        <v/>
+      </c>
+      <c r="K44" s="54" t="str">
+        <f>IF(K14="","",IF(K27&lt;=0,"-",K14/K27))</f>
+        <v/>
+      </c>
+      <c r="L44" s="54" t="str">
+        <f>IF(L14="","",IF(L27&lt;=0,"-",L14/L27))</f>
+        <v/>
+      </c>
+      <c r="M44" s="266" t="str">
+        <f>IF(M14="","",IF(M27&lt;=0,"-",M14/M27))</f>
         <v/>
       </c>
       <c r="N44" s="6"/>
@@ -7664,456 +7688,418 @@
       <c r="B45" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="54">
-        <f t="shared" ref="C45:M45" si="17">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>1.1042648778843502</v>
-      </c>
-      <c r="D45" s="54">
-        <f t="shared" si="17"/>
-        <v>0.96405004512692549</v>
-      </c>
-      <c r="E45" s="54">
-        <f t="shared" si="17"/>
-        <v>1.0540767774062945</v>
-      </c>
-      <c r="F45" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="G45" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H45" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="I45" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J45" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="K45" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L45" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M45" s="272" t="str">
-        <f t="shared" si="17"/>
+      <c r="C45" s="14">
+        <f>IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
+        <v>9.9981174277839951E-2</v>
+      </c>
+      <c r="D45" s="14">
+        <f>IF(D16="","",IF(D18&lt;=0,"-",D18/D16))</f>
+        <v>0.13821983769217977</v>
+      </c>
+      <c r="E45" s="14">
+        <f>IF(E16="","",IF(E18&lt;=0,"-",E18/E16))</f>
+        <v>0.13182740838652174</v>
+      </c>
+      <c r="F45" s="14" t="str">
+        <f>IF(F16="","",IF(F18&lt;=0,"-",F18/F16))</f>
+        <v/>
+      </c>
+      <c r="G45" s="14" t="str">
+        <f>IF(G16="","",IF(G18&lt;=0,"-",G18/G16))</f>
+        <v/>
+      </c>
+      <c r="H45" s="14" t="str">
+        <f>IF(H16="","",IF(H18&lt;=0,"-",H18/H16))</f>
+        <v/>
+      </c>
+      <c r="I45" s="14" t="str">
+        <f>IF(I16="","",IF(I18&lt;=0,"-",I18/I16))</f>
+        <v/>
+      </c>
+      <c r="J45" s="14" t="str">
+        <f>IF(J16="","",IF(J18&lt;=0,"-",J18/J16))</f>
+        <v/>
+      </c>
+      <c r="K45" s="14" t="str">
+        <f>IF(K16="","",IF(K18&lt;=0,"-",K18/K16))</f>
+        <v/>
+      </c>
+      <c r="L45" s="14" t="str">
+        <f>IF(L16="","",IF(L18&lt;=0,"-",L18/L16))</f>
+        <v/>
+      </c>
+      <c r="M45" s="265" t="str">
+        <f>IF(M16="","",IF(M18&lt;=0,"-",M18/M16))</f>
         <v/>
       </c>
       <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="14">
-        <f t="shared" ref="C46:M46" si="18">IF(C16="","",IF(C31&lt;=0,"-",C31/C16))</f>
-        <v>9.9981174277839951E-2</v>
-      </c>
-      <c r="D46" s="14">
-        <f t="shared" si="18"/>
-        <v>0.13821983769217977</v>
-      </c>
-      <c r="E46" s="14">
-        <f t="shared" si="18"/>
-        <v>0.13182740838652174</v>
-      </c>
-      <c r="F46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M46" s="271" t="str">
-        <f t="shared" si="18"/>
+      <c r="C46" s="55">
+        <f>IF(C21="","",C21/C22)</f>
+        <v>2.8884009263879551</v>
+      </c>
+      <c r="D46" s="55">
+        <f>IF(D21="","",D21/D22)</f>
+        <v>2.2711732065770964</v>
+      </c>
+      <c r="E46" s="55">
+        <f>IF(E21="","",E21/E22)</f>
+        <v>1.5397960079820596</v>
+      </c>
+      <c r="F46" s="55" t="str">
+        <f>IF(F21="","",F21/F22)</f>
+        <v/>
+      </c>
+      <c r="G46" s="55" t="str">
+        <f>IF(G21="","",G21/G22)</f>
+        <v/>
+      </c>
+      <c r="H46" s="55" t="str">
+        <f>IF(H21="","",H21/H22)</f>
+        <v/>
+      </c>
+      <c r="I46" s="55" t="str">
+        <f>IF(I21="","",I21/I22)</f>
+        <v/>
+      </c>
+      <c r="J46" s="55" t="str">
+        <f>IF(J21="","",J21/J22)</f>
+        <v/>
+      </c>
+      <c r="K46" s="55" t="str">
+        <f>IF(K21="","",K21/K22)</f>
+        <v/>
+      </c>
+      <c r="L46" s="55" t="str">
+        <f>IF(L21="","",L21/L22)</f>
+        <v/>
+      </c>
+      <c r="M46" s="267" t="str">
+        <f>IF(M21="","",M21/M22)</f>
         <v/>
       </c>
       <c r="N46" s="6"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="55">
-        <f>IF(C20="","",C20/C21)</f>
-        <v>2.8884009263879551</v>
-      </c>
-      <c r="D47" s="55">
-        <f>IF(D20="","",D20/D21)</f>
-        <v>2.2711732065770964</v>
-      </c>
-      <c r="E47" s="55">
-        <f t="shared" ref="E47:M47" si="19">IF(E20="","",E20/E21)</f>
-        <v>1.5397960079820596</v>
-      </c>
-      <c r="F47" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G47" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H47" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I47" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J47" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K47" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L47" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M47" s="273" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
+      <c r="B48" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="6"/>
+      <c r="D49" s="431">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E49" s="432"/>
+      <c r="F49" s="348" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="57" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="430">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="E50" s="431"/>
-      <c r="F50" s="354" t="s">
-        <v>342</v>
-      </c>
+      <c r="D50" s="426" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="386"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="425" t="s">
+      <c r="B51" s="57"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="359"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="57"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="427">
+        <v>5</v>
+      </c>
+      <c r="E52" s="428"/>
+      <c r="F52" s="60"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="426">
-        <v>5</v>
-      </c>
-      <c r="E53" s="427"/>
-      <c r="F53" s="60"/>
+      <c r="C53" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="429" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="430"/>
+      <c r="F53" s="63" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="428" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="429"/>
-      <c r="F54" s="63" t="s">
-        <v>89</v>
+      <c r="B54" s="64" t="str">
+        <f>C6</f>
+        <v>FY 2021</v>
+      </c>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="67">
+        <f t="shared" ref="E54:E64" si="10">C54*D54</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="68">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="64" t="str">
-        <f>C6</f>
-        <v>FY 2021</v>
+      <c r="B55" s="69">
+        <f>IF(D7="","",-1)</f>
+        <v>-1</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="66">
-        <f>1</f>
-        <v>1</v>
+        <f t="shared" ref="D55:D64" si="11">IF(B55&lt;0,(D$52+B55)/D$52,0)</f>
+        <v>0.8</v>
       </c>
       <c r="E55" s="67">
-        <f t="shared" ref="E55:E65" si="20">C55*D55</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F55" s="68">
+        <f t="shared" ref="F55:F64" si="12">IF(B55&lt;0,C55/$D$52,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="69">
-        <f>IF(D7="","",-1)</f>
-        <v>-1</v>
+        <f t="shared" ref="B56:B64" si="13">IF((0-B55)&lt;$D$52,IF(B55&gt;-1, ,B55-1), )</f>
+        <v>-2</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="66">
-        <f t="shared" ref="D56:D65" si="21">IF(B56&lt;0,(D$53+B56)/D$53,0)</f>
-        <v>0.8</v>
+        <f t="shared" si="11"/>
+        <v>0.6</v>
       </c>
       <c r="E56" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F56" s="68">
-        <f t="shared" ref="F56:F65" si="22">IF(B56&lt;0,C56/$D$53,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="69">
-        <f t="shared" ref="B57:B65" si="23">IF((0-B56)&lt;$D$53,IF(B56&gt;-1, ,B56-1), )</f>
-        <v>-2</v>
+        <f t="shared" si="13"/>
+        <v>-3</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="66">
-        <f t="shared" si="21"/>
-        <v>0.6</v>
+        <f t="shared" si="11"/>
+        <v>0.4</v>
       </c>
       <c r="E57" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F57" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="69">
-        <f t="shared" si="23"/>
-        <v>-3</v>
+        <f t="shared" si="13"/>
+        <v>-4</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="66">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
+        <f t="shared" si="11"/>
+        <v>0.2</v>
       </c>
       <c r="E58" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F58" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="69">
-        <f t="shared" si="23"/>
-        <v>-4</v>
+        <f t="shared" si="13"/>
+        <v>-5</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="66">
-        <f t="shared" si="21"/>
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="E59" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F59" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="69">
-        <f t="shared" si="23"/>
-        <v>-5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E60" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F60" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C61" s="65"/>
       <c r="D61" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E61" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F61" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E62" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F62" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C63" s="65"/>
       <c r="D63" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E63" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F63" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E64" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F64" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="69">
-        <f t="shared" si="23"/>
+      <c r="B65" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="67">
+        <f>SUM(E54:E64)</f>
         <v>0</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="67">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="F65" s="71"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
@@ -8122,168 +8108,161 @@
       </c>
       <c r="C66" s="57"/>
       <c r="D66" s="57"/>
-      <c r="E66" s="67">
-        <f>SUM(E55:E65)</f>
+      <c r="E66" s="57"/>
+      <c r="F66" s="68">
+        <f>SUM(F55:F64)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="71"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="70" t="s">
-        <v>91</v>
-      </c>
+      <c r="B67" s="70"/>
       <c r="C67" s="57"/>
       <c r="D67" s="57"/>
       <c r="E67" s="57"/>
-      <c r="F67" s="68">
-        <f>SUM(F56:F65)</f>
-        <v>0</v>
-      </c>
+      <c r="F67" s="71"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="71"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="75" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="75" t="s">
+      <c r="B69" s="70" t="s">
         <v>95</v>
+      </c>
+      <c r="C69" s="76">
+        <f>C14</f>
+        <v>6739664</v>
+      </c>
+      <c r="D69" s="76">
+        <f>C69+C54-F66</f>
+        <v>6739664</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="71" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="76">
-        <f>C14</f>
-        <v>6739664</v>
-      </c>
-      <c r="D70" s="76">
-        <f>C70+C55-F67</f>
-        <v>6739664</v>
+        <v>98</v>
+      </c>
+      <c r="C70" s="77">
+        <f t="shared" ref="C70:D70" si="14">C69/$C$7</f>
+        <v>0.4397317007034231</v>
+      </c>
+      <c r="D70" s="77">
+        <f t="shared" si="14"/>
+        <v>0.4397317007034231</v>
       </c>
       <c r="E70" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F70" s="71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="77">
-        <f t="shared" ref="C71:D71" si="24">C70/$C$7</f>
-        <v>0.4397317007034231</v>
-      </c>
-      <c r="D71" s="77">
-        <f t="shared" si="24"/>
-        <v>0.4397317007034231</v>
+        <v>101</v>
+      </c>
+      <c r="C71" s="76">
+        <f>C34</f>
+        <v>2130419.6779999998</v>
+      </c>
+      <c r="D71" s="76">
+        <f>C71+E65-F66</f>
+        <v>2130419.6779999998</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F71" s="71" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="70" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72" s="76">
-        <f>C35</f>
-        <v>2130419.6779999998</v>
+        <f>C16</f>
+        <v>5627619.4399999995</v>
       </c>
       <c r="D72" s="76">
-        <f>C72+E66-F67</f>
-        <v>2130419.6779999998</v>
+        <f>C72+C55</f>
+        <v>5627619.4399999995</v>
       </c>
       <c r="E72" s="57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F72" s="71" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C73" s="76">
-        <f>C16</f>
-        <v>5627619.4399999995</v>
+        <f>F3</f>
+        <v>10358011</v>
       </c>
       <c r="D73" s="76">
-        <f>C73+C56</f>
-        <v>5627619.4399999995</v>
+        <f>C73+C54-F66</f>
+        <v>10358011</v>
       </c>
       <c r="E73" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="71" t="s">
         <v>106</v>
-      </c>
-      <c r="F73" s="71" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="B74" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="76">
-        <f>F3</f>
-        <v>10358011</v>
-      </c>
-      <c r="D74" s="76">
-        <f>C74+C55-F67</f>
-        <v>10358011</v>
-      </c>
-      <c r="E74" s="57" t="s">
+      <c r="B74" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="71" t="s">
-        <v>107</v>
+      <c r="C74" s="79" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D74" s="79" t="e">
+        <f>C74+E65</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="80" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D75" s="79" t="e">
-        <f>C75+E66</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F75" s="80" t="s">
-        <v>107</v>
-      </c>
+      <c r="B75" s="57"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
@@ -8300,70 +8279,67 @@
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="57"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="57"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="82"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="57"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="82"/>
+      <c r="D80" s="82"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
     </row>
     <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8918,9 +8894,7 @@
     <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="9"/>
-    </row>
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9603,46 +9577,45 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D49:E49"/>
   </mergeCells>
-  <conditionalFormatting sqref="B53:F75">
+  <conditionalFormatting sqref="B52:F74">
     <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$D$51="No"</formula>
+      <formula>$D$50="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:M47 C7:M36">
+  <conditionalFormatting sqref="D42:M46 C7:M35">
     <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M17">
+  <conditionalFormatting sqref="D17:M18">
     <cfRule type="containsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:M41">
+  <conditionalFormatting sqref="C37:M40">
     <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(C38))=0</formula>
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D52" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D50" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F50" r:id="rId1" xr:uid="{3715D1BE-6062-4B03-8547-E8B4F4F81508}"/>
+    <hyperlink ref="F49" r:id="rId1" xr:uid="{3715D1BE-6062-4B03-8547-E8B4F4F81508}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -9658,8 +9631,8 @@
   </sheetPr>
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9670,16 +9643,17 @@
     <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
     <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.453125" style="3"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="444" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="444"/>
-      <c r="D2" s="443"/>
+      <c r="B2" s="352" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="352"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -9688,87 +9662,91 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="225">
-        <f>Data!C28</f>
+      <c r="D3" s="446">
         <v>128099808</v>
       </c>
-      <c r="E3" s="200" t="str">
+      <c r="E3" s="197" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="122">
-        <f>((D3-D4)*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>87.692220711789076</v>
+      <c r="H3" s="447" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" s="450">
+        <v>113579020</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="194">
-        <v>831215.36800000002</v>
-      </c>
-      <c r="E4" s="193"/>
+      <c r="D4" s="451">
+        <f>D3-I3</f>
+        <v>14520788</v>
+      </c>
+      <c r="E4" s="191"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="122">
+        <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
+        <v>78.259657658572991</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="84">
         <f>E46-I46-E50</f>
-        <v>26733487.482000008</v>
+        <v>26806590.300000012</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.79130735713514877</v>
+        <v>0.79073668635006844</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I6" s="28">
         <f>IF(Data!F3&lt;=0,"NNI",D7/((Data!F3*Dashboard!I12)/(Dashboard!I5/Data!C4)))</f>
-        <v>2.58094797176794</v>
+        <v>2.5880055833113147</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="86">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>18.420246788192635</v>
+        <v>18.470617019513149</v>
       </c>
       <c r="E7" s="87"/>
       <c r="H7" s="85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I7" s="28">
         <f>D7/(Data!C28*Dashboard!I12*Data!C4/Common_Shares)</f>
-        <v>0.2086926428648512</v>
+        <v>0.20926331364993156</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -9776,16 +9754,16 @@
       <c r="D8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="445" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="446">
+      <c r="B9" s="353" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="330"/>
+      <c r="D9" s="444">
         <v>44742</v>
       </c>
-      <c r="E9" s="447" t="str">
+      <c r="E9" s="354" t="str">
         <f>IF(D9=Data!C3,"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9796,28 +9774,28 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="89">
         <v>16946370</v>
@@ -9832,7 +9810,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" s="89">
         <v>2253528</v>
@@ -9841,7 +9819,7 @@
     </row>
     <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="89">
         <v>0</v>
@@ -9856,7 +9834,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I12" s="89">
         <v>31180.352999999999</v>
@@ -9865,7 +9843,7 @@
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="89">
         <v>0</v>
@@ -9880,7 +9858,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="89">
         <v>861793.34100000001</v>
@@ -9889,7 +9867,7 @@
     </row>
     <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="89">
         <v>0</v>
@@ -9904,7 +9882,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I14" s="89">
         <v>0</v>
@@ -9913,7 +9891,7 @@
     </row>
     <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="89">
         <v>0</v>
@@ -9928,9 +9906,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="199">
+        <v>132</v>
+      </c>
+      <c r="I15" s="196">
         <f>I26-SUM(I11:I14)</f>
         <v>16921980.306000002</v>
       </c>
@@ -9938,7 +9916,7 @@
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="89">
         <v>0</v>
@@ -9953,12 +9931,12 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="198"/>
+      <c r="I16" s="195"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="89">
         <v>2617395</v>
@@ -9973,12 +9951,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="198"/>
+      <c r="I17" s="195"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="89">
         <v>0</v>
@@ -9991,61 +9969,61 @@
         <v>0</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="89">
         <v>17196881</v>
       </c>
       <c r="D19" s="90">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="0"/>
-        <v>10318128.6</v>
-      </c>
-      <c r="F19" s="264" t="s">
-        <v>324</v>
+        <v>11177972.65</v>
+      </c>
+      <c r="F19" s="258" t="s">
+        <v>321</v>
       </c>
       <c r="G19" s="125">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="198"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="89">
         <v>20570771</v>
       </c>
       <c r="D20" s="90">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="29">
         <f t="shared" si="0"/>
-        <v>8228308.4000000004</v>
-      </c>
-      <c r="F20" s="264" t="s">
-        <v>324</v>
+        <v>10285385.5</v>
+      </c>
+      <c r="F20" s="258" t="s">
+        <v>321</v>
       </c>
       <c r="G20" s="125">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="198"/>
+      <c r="I20" s="195"/>
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" s="89">
         <v>634405</v>
@@ -10060,11 +10038,11 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="198"/>
+      <c r="I21" s="195"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="89">
         <v>0</v>
@@ -10086,7 +10064,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" s="95">
         <f>SUM(C11:C14)</f>
@@ -10103,7 +10081,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I24" s="94">
         <f>E24/($I$26-I13)</f>
@@ -10116,7 +10094,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" s="95">
         <f>C24+SUM(C15:C17)</f>
@@ -10133,7 +10111,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I25" s="94">
         <f>E25/$I$26</f>
@@ -10143,7 +10121,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="95">
         <f>SUM(C11:C22)</f>
@@ -10151,17 +10129,16 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" si="2"/>
-        <v>0.64528006262034898</v>
+        <v>0.69560145977055232</v>
       </c>
       <c r="E26" s="29">
         <f>SUM(E11:E22)</f>
-        <v>37404189.25</v>
+        <v>40321110.399999999</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="199">
-        <f>Data!C21</f>
+      <c r="I26" s="89">
         <v>20068482</v>
       </c>
     </row>
@@ -10176,7 +10153,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="89">
         <v>0</v>
@@ -10190,7 +10167,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I28" s="89">
         <f>996632.901+1804212.761+142405.676</f>
@@ -10200,7 +10177,7 @@
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" s="89">
         <v>2179420</v>
@@ -10215,7 +10192,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I29" s="89">
         <v>13550.745000000001</v>
@@ -10224,7 +10201,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="89">
         <v>608531</v>
@@ -10239,7 +10216,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I30" s="89">
         <v>0</v>
@@ -10248,7 +10225,7 @@
     </row>
     <row r="31" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="89">
         <v>0</v>
@@ -10263,7 +10240,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I31" s="89">
         <v>0</v>
@@ -10272,7 +10249,7 @@
     </row>
     <row r="32" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="89">
         <v>1107494</v>
@@ -10285,13 +10262,13 @@
         <v>442997.60000000003</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" s="199">
+        <v>152</v>
+      </c>
+      <c r="I32" s="196">
         <f>I42-SUM(I28:I31)</f>
         <v>64065728.917000003</v>
       </c>
@@ -10299,20 +10276,20 @@
     </row>
     <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="89">
         <v>27509451</v>
       </c>
       <c r="D33" s="90">
-        <v>0.4</v>
-      </c>
-      <c r="E33" s="281">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="275">
         <f t="shared" si="3"/>
-        <v>11003780.4</v>
-      </c>
-      <c r="F33" s="264" t="s">
-        <v>325</v>
+        <v>13754725.5</v>
+      </c>
+      <c r="F33" s="258" t="s">
+        <v>322</v>
       </c>
       <c r="G33" s="125">
         <f>IF(F33="Y",0,1)</f>
@@ -10322,20 +10299,20 @@
     </row>
     <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="89">
         <v>80948092</v>
       </c>
       <c r="D34" s="90">
-        <v>0.6</v>
-      </c>
-      <c r="E34" s="281">
+        <v>0.7</v>
+      </c>
+      <c r="E34" s="275">
         <f t="shared" si="3"/>
-        <v>48568855.199999996</v>
-      </c>
-      <c r="F34" s="264" t="s">
-        <v>324</v>
+        <v>56663664.399999999</v>
+      </c>
+      <c r="F34" s="258" t="s">
+        <v>321</v>
       </c>
       <c r="G34" s="125">
         <f>IF(F34="Y",0,1)</f>
@@ -10344,7 +10321,7 @@
     </row>
     <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" s="89">
         <v>21257867</v>
@@ -10356,8 +10333,8 @@
         <f t="shared" si="3"/>
         <v>8503146.8000000007</v>
       </c>
-      <c r="F35" s="264" t="s">
-        <v>324</v>
+      <c r="F35" s="258" t="s">
+        <v>321</v>
       </c>
       <c r="G35" s="125">
         <f>IF(F35="Y",0,1)</f>
@@ -10366,7 +10343,7 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="89">
         <v>21664879</v>
@@ -10383,7 +10360,7 @@
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="89">
         <v>1826761</v>
@@ -10400,7 +10377,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C38" s="89">
         <v>122504</v>
@@ -10417,7 +10394,7 @@
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" s="89">
         <v>0</v>
@@ -10434,7 +10411,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="89">
         <v>0</v>
@@ -10457,7 +10434,7 @@
     </row>
     <row r="42" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C42" s="92">
         <f>SUM(C28:C40)</f>
@@ -10465,19 +10442,18 @@
       </c>
       <c r="D42" s="14">
         <f>E42/C42</f>
-        <v>0.49134378814656571</v>
+        <v>0.56032616606981189</v>
       </c>
       <c r="E42" s="29">
         <f>SUM(E28:E40)</f>
-        <v>77251526.600000009</v>
+        <v>88097280.900000006</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I42" s="199">
-        <f>Data!C22</f>
+        <v>161</v>
+      </c>
+      <c r="I42" s="89">
         <v>67022531</v>
       </c>
       <c r="J42" s="6"/>
@@ -10490,7 +10466,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44" s="95">
         <f>C24+SUM(C28:C29)</f>
@@ -10507,7 +10483,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I44" s="94">
         <f>E44/$I$46</f>
@@ -10520,7 +10496,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" s="95">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
@@ -10528,26 +10504,26 @@
       </c>
       <c r="D45" s="93">
         <f>E45/C45</f>
-        <v>0.60840322055939433</v>
+        <v>0.66237648660222803</v>
       </c>
       <c r="E45" s="29">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
-        <v>31009497.5</v>
+        <v>33760442.600000001</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I45" s="94">
         <f>E45/$I$46</f>
-        <v>0.35605852351263845</v>
+        <v>0.38764553812228597</v>
       </c>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C46" s="95">
         <f>C26+C42</f>
@@ -10555,18 +10531,18 @@
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.53280950979781805</v>
+        <v>0.59676519055615296</v>
       </c>
       <c r="E46" s="29">
         <f>E26+E42</f>
-        <v>114655715.85000001</v>
+        <v>128418391.30000001</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I46" s="199">
+        <v>167</v>
+      </c>
+      <c r="I46" s="196">
         <f>I26+I42</f>
         <v>87091013</v>
       </c>
@@ -10580,17 +10556,17 @@
     </row>
     <row r="48" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B48" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="56"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B49" s="277" t="s">
-        <v>283</v>
+      <c r="B49" s="271" t="s">
+        <v>281</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="278" t="str">
+      <c r="D49" s="272" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10598,21 +10574,21 @@
     </row>
     <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C50" s="279">
+        <v>280</v>
+      </c>
+      <c r="C50" s="273">
         <f>D4</f>
-        <v>831215.36800000002</v>
-      </c>
-      <c r="D50" s="275">
+        <v>14520788</v>
+      </c>
+      <c r="D50" s="269">
         <f>E50/C50</f>
         <v>1</v>
       </c>
-      <c r="E50" s="279">
+      <c r="E50" s="273">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>831215.36800000002</v>
-      </c>
-      <c r="I50" s="201"/>
+        <v>14520788</v>
+      </c>
+      <c r="I50" s="198"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
@@ -10621,55 +10597,55 @@
     </row>
     <row r="52" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B52" s="100" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="369">
+      <c r="D52" s="418">
         <f>D53+D54+D55</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E52" s="435"/>
+      <c r="E52" s="436"/>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
     </row>
     <row r="53" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B53" s="83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="369">
+      <c r="D53" s="418">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="435"/>
+      <c r="E53" s="436"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B54" s="83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="434">
+      <c r="D54" s="435">
         <v>0</v>
       </c>
-      <c r="E54" s="359"/>
+      <c r="E54" s="386"/>
       <c r="F54" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="434">
+      <c r="D55" s="435">
         <v>0</v>
       </c>
-      <c r="E55" s="359"/>
+      <c r="E55" s="386"/>
       <c r="F55" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -10679,45 +10655,45 @@
     </row>
     <row r="57" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B57" s="100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="436"/>
-      <c r="E57" s="436"/>
+      <c r="D57" s="437"/>
+      <c r="E57" s="437"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C58" s="274">
+        <v>315</v>
+      </c>
+      <c r="C58" s="268">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>30297402</v>
       </c>
       <c r="D58" s="166">
         <f>E58/C58</f>
-        <v>0.40635274272031641</v>
-      </c>
-      <c r="E58" s="282">
+        <v>0.49715079530581535</v>
+      </c>
+      <c r="E58" s="276">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E33*G33)+(E34*G34)+(E35*G35)</f>
-        <v>12311432.4</v>
+        <v>15062377.5</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B59" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="274">
+        <v>123</v>
+      </c>
+      <c r="C59" s="268">
         <f>C11+C12+C28</f>
         <v>16946370</v>
       </c>
-      <c r="D59" s="275">
+      <c r="D59" s="269">
         <f>E59/C59</f>
         <v>1</v>
       </c>
-      <c r="E59" s="276">
+      <c r="E59" s="270">
         <f>E11+E12+E28</f>
         <v>16946370</v>
       </c>
@@ -10726,14 +10702,14 @@
     </row>
     <row r="60" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B60" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="432">
+      <c r="D60" s="433">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-11515263.40732</v>
-      </c>
-      <c r="E60" s="433"/>
+        <v>2174309.2246799991</v>
+      </c>
+      <c r="E60" s="434"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10796,7 +10772,7 @@
     <row r="2" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="123" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -10812,18 +10788,18 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="355">
+      <c r="C3" s="349">
         <f>Data!C3</f>
         <v>44561</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E3" s="30">
         <v>1</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G3" s="30" t="str">
         <f>IF(G12="","","2")</f>
@@ -10834,23 +10810,23 @@
         <v/>
       </c>
       <c r="J3" s="97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="285">
+        <v>340</v>
+      </c>
+      <c r="C4" s="279">
         <v>4053111</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="284">
+      <c r="D4" s="338"/>
+      <c r="E4" s="278">
         <f>1882783*1.5</f>
         <v>2824174.5</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="G4" s="357"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="351"/>
       <c r="H4" s="148"/>
       <c r="I4" s="6"/>
       <c r="J4" s="99"/>
@@ -10858,44 +10834,44 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="285">
+        <v>341</v>
+      </c>
+      <c r="C5" s="279">
         <v>1291010</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="284">
+      <c r="D5" s="338"/>
+      <c r="E5" s="278">
         <f>619537*1.8</f>
         <v>1115166.6000000001</v>
       </c>
-      <c r="F5" s="344"/>
-      <c r="G5" s="357"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="351"/>
       <c r="H5" s="148"/>
       <c r="I5" s="6"/>
       <c r="J5" s="99"/>
       <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="356" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="285">
+      <c r="B6" s="350" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="279">
         <f>C4+C5</f>
         <v>5344121</v>
       </c>
-      <c r="D6" s="344">
+      <c r="D6" s="338">
         <f>C6/C$11</f>
         <v>0.34867901665348278</v>
       </c>
-      <c r="E6" s="284">
+      <c r="E6" s="278">
         <f>E4+E5</f>
         <v>3939341.1</v>
       </c>
-      <c r="F6" s="344">
+      <c r="F6" s="338">
         <f>E6/E11</f>
         <v>0.54084868327105462</v>
       </c>
-      <c r="G6" s="357"/>
+      <c r="G6" s="351"/>
       <c r="H6" s="148"/>
       <c r="I6" s="6"/>
       <c r="J6" s="99"/>
@@ -10903,18 +10879,18 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="285">
+        <v>340</v>
+      </c>
+      <c r="C7" s="279">
         <v>4584914</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="284">
+      <c r="D7" s="338"/>
+      <c r="E7" s="278">
         <f>355693*1.5</f>
         <v>533539.5</v>
       </c>
-      <c r="F7" s="344"/>
-      <c r="G7" s="357"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="351"/>
       <c r="H7" s="148"/>
       <c r="I7" s="6"/>
       <c r="J7" s="99"/>
@@ -10922,69 +10898,69 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="285">
+        <v>341</v>
+      </c>
+      <c r="C8" s="279">
         <v>3786145</v>
       </c>
-      <c r="D8" s="344"/>
-      <c r="E8" s="284">
+      <c r="D8" s="338"/>
+      <c r="E8" s="278">
         <f>1358253*1.6</f>
         <v>2173204.8000000003</v>
       </c>
-      <c r="F8" s="344"/>
-      <c r="G8" s="357"/>
+      <c r="F8" s="338"/>
+      <c r="G8" s="351"/>
       <c r="H8" s="148"/>
       <c r="I8" s="6"/>
       <c r="J8" s="99"/>
       <c r="K8" s="82"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="356" t="s">
-        <v>346</v>
-      </c>
-      <c r="C9" s="285">
+      <c r="B9" s="350" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="279">
         <f>C7+C8</f>
         <v>8371059</v>
       </c>
-      <c r="D9" s="344">
+      <c r="D9" s="338">
         <f>C9/C$11</f>
         <v>0.54617262978669212</v>
       </c>
-      <c r="E9" s="284">
+      <c r="E9" s="278">
         <f>E7+E8</f>
         <v>2706744.3000000003</v>
       </c>
-      <c r="F9" s="344">
+      <c r="F9" s="338">
         <f>E9/E11</f>
         <v>0.37162029218704429</v>
       </c>
-      <c r="G9" s="357"/>
+      <c r="G9" s="351"/>
       <c r="H9" s="148"/>
       <c r="I9" s="6"/>
       <c r="J9" s="99"/>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="356" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" s="285">
+      <c r="B10" s="350" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="279">
         <v>1611584</v>
       </c>
-      <c r="D10" s="344">
+      <c r="D10" s="338">
         <f>C10/C$11</f>
         <v>0.10514835355982516</v>
       </c>
-      <c r="E10" s="284">
+      <c r="E10" s="278">
         <f>425029*1.5</f>
         <v>637543.5</v>
       </c>
-      <c r="F10" s="344">
+      <c r="F10" s="338">
         <f>E10/E11</f>
         <v>8.7531024541901079E-2</v>
       </c>
-      <c r="G10" s="357"/>
+      <c r="G10" s="351"/>
       <c r="H10" s="148"/>
       <c r="I10" s="6"/>
       <c r="J10" s="99"/>
@@ -10992,19 +10968,19 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="229">
+        <v>177</v>
+      </c>
+      <c r="C11" s="223">
         <f>C6+C9+C10</f>
         <v>15326764</v>
       </c>
-      <c r="D11" s="343"/>
-      <c r="E11" s="293">
+      <c r="D11" s="337"/>
+      <c r="E11" s="287">
         <f>E6+E9+E10</f>
         <v>7283628.9000000004</v>
       </c>
-      <c r="F11" s="343"/>
-      <c r="G11" s="294" t="str">
+      <c r="F11" s="337"/>
+      <c r="G11" s="288" t="str">
         <f>IF(G12="","",E11*(1+G12))</f>
         <v/>
       </c>
@@ -11015,16 +10991,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="345"/>
+        <v>176</v>
+      </c>
+      <c r="C12" s="230"/>
+      <c r="D12" s="339"/>
       <c r="E12" s="18">
         <f>E11/C11-1</f>
         <v>-0.52477712190257508</v>
       </c>
-      <c r="F12" s="345"/>
-      <c r="G12" s="283"/>
+      <c r="F12" s="339"/>
+      <c r="G12" s="277"/>
       <c r="H12" s="148"/>
       <c r="I12" s="6"/>
       <c r="J12" s="99"/>
@@ -11032,19 +11008,19 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="230">
+        <v>178</v>
+      </c>
+      <c r="C13" s="224">
         <f>Data!C9</f>
         <v>6583757</v>
       </c>
-      <c r="D13" s="346"/>
-      <c r="E13" s="290">
+      <c r="D13" s="340"/>
+      <c r="E13" s="284">
         <f>2094072*1.8</f>
         <v>3769329.6</v>
       </c>
-      <c r="F13" s="346"/>
-      <c r="G13" s="291" t="str">
+      <c r="F13" s="340"/>
+      <c r="G13" s="285" t="str">
         <f>IF(G12="","",G11*(1-G14))</f>
         <v/>
       </c>
@@ -11057,16 +11033,16 @@
       <c r="B14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="235">
+      <c r="C14" s="229">
         <f>(C11-C13)/C11</f>
         <v>0.57044050524950995</v>
       </c>
-      <c r="D14" s="235"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="98">
         <f>(E11-E13)/E11</f>
         <v>0.4824929095440324</v>
       </c>
-      <c r="F14" s="235"/>
+      <c r="F14" s="229"/>
       <c r="G14" s="98"/>
       <c r="H14" s="150"/>
       <c r="I14" s="6"/>
@@ -11074,7 +11050,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="29">
         <f>C11-C13</f>
@@ -11098,16 +11074,16 @@
       <c r="B16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="240">
+      <c r="C16" s="234">
         <f>C17/C11</f>
         <v>0.13070880454608683</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="289">
+      <c r="D16" s="234"/>
+      <c r="E16" s="283">
         <f>E17/E11</f>
         <v>0.2318067028373727</v>
       </c>
-      <c r="F16" s="240"/>
+      <c r="F16" s="234"/>
       <c r="G16" s="101"/>
       <c r="H16" s="150"/>
       <c r="I16" s="6"/>
@@ -11115,18 +11091,18 @@
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="232">
+        <v>180</v>
+      </c>
+      <c r="C17" s="226">
         <v>2003343</v>
       </c>
-      <c r="D17" s="347"/>
+      <c r="D17" s="341"/>
       <c r="E17" s="102">
         <f>844197*2</f>
         <v>1688394</v>
       </c>
-      <c r="F17" s="347"/>
-      <c r="G17" s="292" t="str">
+      <c r="F17" s="341"/>
+      <c r="G17" s="286" t="str">
         <f>IF(G12="","",G11*G16)</f>
         <v/>
       </c>
@@ -11159,43 +11135,43 @@
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="237"/>
-      <c r="D19" s="348"/>
+        <v>181</v>
+      </c>
+      <c r="C19" s="231"/>
+      <c r="D19" s="342"/>
       <c r="E19" s="14">
         <f>IF(ABS(C20+E20)=ABS(C20)+ABS(E20),IF(E20&lt;0,-1,1)*(E20-C20)/C20,"Turn")</f>
         <v>-0.72908066336838151</v>
       </c>
-      <c r="F19" s="348"/>
+      <c r="F19" s="342"/>
       <c r="G19" s="14" t="str">
         <f>IF(G12="","",IF(ABS(E20+G20)=ABS(E20)+ABS(G20),IF(G20&lt;0,-1,1)*(G20-E20)/E20,"Turn"))</f>
         <v/>
       </c>
-      <c r="H19" s="253"/>
+      <c r="H19" s="247"/>
       <c r="I19" s="6"/>
       <c r="J19" s="104"/>
       <c r="K19" s="105"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="171" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="295">
+        <v>325</v>
+      </c>
+      <c r="C20" s="289">
         <f>C15-C17</f>
         <v>6739664</v>
       </c>
-      <c r="D20" s="349"/>
-      <c r="E20" s="295">
+      <c r="D20" s="343"/>
+      <c r="E20" s="289">
         <f>E15-E17</f>
         <v>1825905.3000000003</v>
       </c>
-      <c r="F20" s="349"/>
-      <c r="G20" s="295" t="str">
+      <c r="F20" s="343"/>
+      <c r="G20" s="289" t="str">
         <f>IF(G12="","",G15-G17)</f>
         <v/>
       </c>
-      <c r="H20" s="296" t="str">
+      <c r="H20" s="290" t="str">
         <f>IF(H19="","",G20*(1+H19))</f>
         <v/>
       </c>
@@ -12113,7 +12089,7 @@
   <dimension ref="A1:J926"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12134,7 +12110,7 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="123" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -12149,7 +12125,7 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="355">
+      <c r="C3" s="349">
         <f>Data!C3</f>
         <v>44561</v>
       </c>
@@ -12165,17 +12141,17 @@
         <v/>
       </c>
       <c r="G3" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I3" s="97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="231">
+      <c r="C4" s="225">
         <f>Operation!C20</f>
         <v>6739664</v>
       </c>
@@ -12187,66 +12163,66 @@
         <f>Operation!G20</f>
         <v/>
       </c>
-      <c r="F4" s="254" t="str">
+      <c r="F4" s="248" t="str">
         <f>Operation!H20</f>
         <v/>
       </c>
-      <c r="G4" s="250"/>
+      <c r="G4" s="244"/>
       <c r="H4" s="6"/>
       <c r="I4" s="106"/>
       <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="338"/>
-      <c r="D5" s="339">
+        <v>327</v>
+      </c>
+      <c r="C5" s="332"/>
+      <c r="D5" s="333">
         <f>Operation!E19</f>
         <v>-0.72908066336838151</v>
       </c>
-      <c r="E5" s="339" t="str">
+      <c r="E5" s="333" t="str">
         <f>IF(E4="","",Operation!G19)</f>
         <v/>
       </c>
-      <c r="F5" s="339" t="str">
+      <c r="F5" s="333" t="str">
         <f>IF(F4="","",Operation!H19)</f>
         <v/>
       </c>
-      <c r="G5" s="250"/>
+      <c r="G5" s="244"/>
       <c r="H5" s="6"/>
       <c r="I5" s="106"/>
       <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="238">
+        <v>182</v>
+      </c>
+      <c r="C6" s="232">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D6" s="316">
+      <c r="D6" s="310">
         <f>C6</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="E6" s="317" t="str">
+      <c r="E6" s="311" t="str">
         <f>IF(E4="","",D6)</f>
         <v/>
       </c>
-      <c r="F6" s="318" t="str">
+      <c r="F6" s="312" t="str">
         <f>IF(F4="","",D6)</f>
         <v/>
       </c>
-      <c r="G6" s="251"/>
+      <c r="G6" s="245"/>
       <c r="H6" s="6"/>
       <c r="I6" s="105"/>
       <c r="J6" s="82"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="239">
+        <v>104</v>
+      </c>
+      <c r="C7" s="233">
         <f>IF(C4&lt;=0,C4,C4*(1-C6))</f>
         <v>5627619.4399999995</v>
       </c>
@@ -12258,11 +12234,11 @@
         <f>IF(E4="","",IF(E4&lt;=0,E4,E4*(1-E6)))</f>
         <v/>
       </c>
-      <c r="F7" s="255" t="str">
+      <c r="F7" s="249" t="str">
         <f>IF(F4="","",IF(F4&lt;=0,F4,F4*(1-F6)))</f>
         <v/>
       </c>
-      <c r="G7" s="250"/>
+      <c r="G7" s="244"/>
       <c r="H7" s="6"/>
       <c r="I7" s="108"/>
       <c r="J7" s="81"/>
@@ -12275,76 +12251,76 @@
         <f>C10/C7</f>
         <v>0.35539005814508312</v>
       </c>
-      <c r="D8" s="289">
+      <c r="D8" s="283">
         <f>C8</f>
         <v>0.35539005814508312</v>
       </c>
       <c r="E8" s="90"/>
-      <c r="F8" s="313"/>
-      <c r="G8" s="251"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="245"/>
       <c r="H8" s="6"/>
       <c r="I8" s="104"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="342"/>
-      <c r="D9" s="340">
+        <v>331</v>
+      </c>
+      <c r="C9" s="336"/>
+      <c r="D9" s="334">
         <f>(D7-C7)/C10</f>
         <v>-2.0514942572499999</v>
       </c>
-      <c r="E9" s="263"/>
-      <c r="F9" s="341"/>
-      <c r="G9" s="251"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="335"/>
+      <c r="G9" s="245"/>
       <c r="H9" s="6"/>
       <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="244">
+        <v>101</v>
+      </c>
+      <c r="C10" s="238">
         <v>2000000</v>
       </c>
-      <c r="D10" s="244">
+      <c r="D10" s="238">
         <f>D7*D8</f>
         <v>541838.67326323688</v>
       </c>
-      <c r="E10" s="314" t="str">
+      <c r="E10" s="308" t="str">
         <f>IF(E4="","",E7*E8)</f>
         <v/>
       </c>
-      <c r="F10" s="315" t="str">
+      <c r="F10" s="309" t="str">
         <f>IF(F4="","",F7*F8)</f>
         <v/>
       </c>
-      <c r="G10" s="252"/>
+      <c r="G10" s="246"/>
       <c r="H10" s="110"/>
       <c r="I10" s="81"/>
       <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="243">
+        <v>183</v>
+      </c>
+      <c r="C11" s="237">
         <f>C7-C10</f>
         <v>3627619.4399999995</v>
       </c>
-      <c r="D11" s="242">
+      <c r="D11" s="236">
         <f>IF(D7="","",D7-D10)</f>
         <v>982792.25223676325</v>
       </c>
-      <c r="E11" s="242" t="str">
+      <c r="E11" s="236" t="str">
         <f>IF(E4="","",E7-E10)</f>
         <v/>
       </c>
-      <c r="F11" s="242" t="str">
+      <c r="F11" s="236" t="str">
         <f>IF(F4="","",F7*(1-F8))</f>
         <v/>
       </c>
-      <c r="G11" s="301">
+      <c r="G11" s="295">
         <f>IF(F4="",IF(E4="",D11,E11),F11)</f>
         <v>982792.25223676325</v>
       </c>
@@ -12353,26 +12329,26 @@
       <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="260" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="297">
+      <c r="B12" s="254" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="291">
         <f>C11*Data!C$4/Dashboard!I5</f>
         <v>2.499548380413779</v>
       </c>
-      <c r="D12" s="298">
+      <c r="D12" s="292">
         <f>IF(D11="","",D11*Data!C$4/Dashboard!$I$5)</f>
         <v>0.67717598910033738</v>
       </c>
-      <c r="E12" s="298" t="str">
+      <c r="E12" s="292" t="str">
         <f>IF(E11="","",E11*Data!D$4/Dashboard!$I$5)</f>
         <v/>
       </c>
-      <c r="F12" s="298" t="str">
+      <c r="F12" s="292" t="str">
         <f>IF(F11="","",F11*Data!E$4/Dashboard!$I$5)</f>
         <v/>
       </c>
-      <c r="G12" s="302">
+      <c r="G12" s="296">
         <f>G11*Data!C$4/Dashboard!I5</f>
         <v>0.67717598910033738</v>
       </c>
@@ -12381,43 +12357,43 @@
       <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="307" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="299">
-        <f>Data!C40/C12</f>
+      <c r="B13" s="301" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="293">
+        <f>Data!C39/C12</f>
         <v>1.4654872397530214</v>
       </c>
-      <c r="D13" s="300">
+      <c r="D13" s="294">
         <f>(0.4+0.95)/D12</f>
         <v>1.9935733424239444</v>
       </c>
-      <c r="E13" s="300"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="308"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="302"/>
       <c r="H13" s="110"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="310">
+        <v>294</v>
+      </c>
+      <c r="C14" s="304">
         <v>0</v>
       </c>
-      <c r="D14" s="309">
+      <c r="D14" s="303">
         <v>0.95</v>
       </c>
-      <c r="E14" s="309" t="str">
+      <c r="E14" s="303" t="str">
         <f>IF(E12="","",E12*E13)</f>
         <v/>
       </c>
-      <c r="F14" s="309" t="str">
+      <c r="F14" s="303" t="str">
         <f>IF(F12="","",F12*F13)</f>
         <v/>
       </c>
-      <c r="G14" s="303">
+      <c r="G14" s="297">
         <f>G12*D30</f>
         <v>7.7468933153078607</v>
       </c>
@@ -12427,10 +12403,10 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="241"/>
-      <c r="D15" s="286">
+        <v>184</v>
+      </c>
+      <c r="C15" s="235"/>
+      <c r="D15" s="280">
         <f ca="1">Dashboard!D12</f>
         <v>0.19354444444444446</v>
       </c>
@@ -12442,7 +12418,7 @@
         <f>IF(F4="","",D15)</f>
         <v/>
       </c>
-      <c r="G15" s="304">
+      <c r="G15" s="298">
         <f ca="1">Dashboard!D12</f>
         <v>0.19354444444444446</v>
       </c>
@@ -12452,22 +12428,22 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="111" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="146"/>
-      <c r="D16" s="287">
+      <c r="D16" s="281">
         <f ca="1">IF(D4="","",1+D15)</f>
         <v>1.1935444444444445</v>
       </c>
-      <c r="E16" s="288" t="str">
+      <c r="E16" s="282" t="str">
         <f>IF(E4="","",(1+D15)*(1+E15))</f>
         <v/>
       </c>
-      <c r="F16" s="288" t="str">
+      <c r="F16" s="282" t="str">
         <f>IF(F4="","",(1+D15)*(1+E15)*(1+F15))</f>
         <v/>
       </c>
-      <c r="G16" s="305">
+      <c r="G16" s="299">
         <f ca="1">IF(F4="",IF(E4="",D16,E16),F16)*(1+G15)</f>
         <v>1.4245483408641977</v>
       </c>
@@ -12477,25 +12453,25 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="311">
+        <v>295</v>
+      </c>
+      <c r="C17" s="305">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D17" s="247">
+      <c r="D17" s="241">
         <f ca="1">IF(D14="","",IF(D14=0,0,D14/D16))</f>
         <v>0.79594857520550355</v>
       </c>
-      <c r="E17" s="248" t="str">
+      <c r="E17" s="242" t="str">
         <f>IF(E14="","",IF(E14=0,0,E14/E16))</f>
         <v/>
       </c>
-      <c r="F17" s="248" t="str">
+      <c r="F17" s="242" t="str">
         <f>IF(F14="","",IF(F14=0,0,F14/F16))</f>
         <v/>
       </c>
-      <c r="G17" s="306">
+      <c r="G17" s="300">
         <f ca="1">IF(G14=0,0,G14/G16)</f>
         <v>5.4381400006462632</v>
       </c>
@@ -12509,74 +12485,74 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C19" s="246" t="str">
+        <v>296</v>
+      </c>
+      <c r="C19" s="240" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="83" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C20" s="112">
-        <f>'Asset Model'!E59</f>
+        <f>Asset_Model!E59</f>
         <v>16946370</v>
       </c>
-      <c r="D20" s="280">
+      <c r="D20" s="274">
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>11.676602903912285</v>
       </c>
       <c r="E20" s="113" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G20" s="174">
         <f>C20+C21+C22+C23</f>
-        <v>22323283.254999995</v>
+        <v>11384655.722999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="83" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C21" s="112">
-        <f>'Asset Model'!E58</f>
-        <v>12311432.4</v>
-      </c>
-      <c r="D21" s="280">
+        <f>Asset_Model!E58</f>
+        <v>15062377.5</v>
+      </c>
+      <c r="D21" s="274">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>8.482979382201604</v>
+        <v>10.378470484022422</v>
       </c>
       <c r="E21" s="113" t="s">
-        <v>320</v>
-      </c>
-      <c r="G21" s="249">
+        <v>317</v>
+      </c>
+      <c r="G21" s="243">
         <f>G20*Data!C$4/Dashboard!I5</f>
-        <v>15.381471906974147</v>
+        <v>7.8443999555788881</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22" s="112">
-        <f>-'Asset Model'!D52</f>
+        <f>-Asset_Model!D52</f>
         <v>-6103303.7770000007</v>
       </c>
-      <c r="D22" s="280">
+      <c r="D22" s="274">
         <f>C22/(Dashboard!I5/Data!C4)</f>
         <v>-4.2053758183007348</v>
       </c>
-      <c r="E22" s="439" t="str">
+      <c r="E22" s="440" t="str">
         <f>IF(F23+G23=G21,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F22" s="185" t="s">
-        <v>327</v>
+      <c r="F22" s="183" t="s">
+        <v>324</v>
       </c>
       <c r="G22" s="116" t="s">
         <v>25</v>
@@ -12584,24 +12560,24 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="113" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C23" s="112">
-        <f>-'Asset Model'!E50</f>
-        <v>-831215.36800000002</v>
-      </c>
-      <c r="D23" s="280">
+        <f>-Asset_Model!E50</f>
+        <v>-14520788</v>
+      </c>
+      <c r="D23" s="274">
         <f>C23/(Dashboard!I5/Data!C4)</f>
-        <v>-0.57273456083900676</v>
-      </c>
-      <c r="E23" s="439"/>
-      <c r="F23" s="191">
+        <v>-10.005297614055085</v>
+      </c>
+      <c r="E23" s="440"/>
+      <c r="F23" s="189">
         <f>D20</f>
         <v>11.676602903912285</v>
       </c>
-      <c r="G23" s="190">
+      <c r="G23" s="188">
         <f>SUM(D21:D23)</f>
-        <v>3.7048690030618623</v>
+        <v>-3.8322029483333973</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12610,17 +12586,17 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="C25" s="246" t="str">
+        <v>300</v>
+      </c>
+      <c r="C25" s="240" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E25" s="114"/>
-      <c r="F25" s="438" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="438"/>
+      <c r="F25" s="439" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="439"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="164" t="str">
@@ -12628,33 +12604,33 @@
         <v>Exit after Year 1</v>
       </c>
       <c r="C26" s="164" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="251" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="164" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" s="347" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="347" t="s">
         <v>305</v>
       </c>
-      <c r="D26" s="257" t="s">
-        <v>295</v>
-      </c>
-      <c r="E26" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="F26" s="353" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="353" t="s">
-        <v>307</v>
-      </c>
       <c r="I26" s="115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="262">
+      <c r="B27" s="256">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="256">
+      <c r="D27" s="250">
         <v>8</v>
       </c>
-      <c r="E27" s="261">
+      <c r="E27" s="255">
         <f ca="1">G12*D27/G16</f>
         <v>3.8028951053470363</v>
       </c>
@@ -12663,72 +12639,72 @@
       <c r="I27" s="117"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="185" t="s">
-        <v>337</v>
+      <c r="B28" s="183" t="s">
+        <v>334</v>
       </c>
       <c r="C28" s="14">
         <f>1/D28</f>
         <v>0.125</v>
       </c>
-      <c r="D28" s="256">
+      <c r="D28" s="250">
         <f>'Qualitative Analysis'!E21</f>
         <v>8</v>
       </c>
-      <c r="E28" s="266">
+      <c r="E28" s="260">
         <f t="dataTable" ref="E28:E30" dt2D="0" dtr="0" r1="D27" ca="1"/>
         <v>3.8028951053470363</v>
       </c>
-      <c r="F28" s="440">
+      <c r="F28" s="441">
         <f ca="1">SUM(C17:F17)</f>
         <v>0.79594857520550355</v>
       </c>
-      <c r="G28" s="266">
+      <c r="G28" s="260">
         <f ca="1">$F$28+E28+$G$21</f>
-        <v>19.980315587526686</v>
+        <v>12.443243636131427</v>
       </c>
       <c r="I28" s="99"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="185" t="s">
-        <v>338</v>
+      <c r="B29" s="183" t="s">
+        <v>335</v>
       </c>
       <c r="C29" s="14">
         <f t="shared" ref="C29" si="0">1/D29</f>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="D29" s="256">
+      <c r="D29" s="250">
         <f>D28*1.3</f>
         <v>10.4</v>
       </c>
-      <c r="E29" s="265">
+      <c r="E29" s="259">
         <v>4.9437636369511475</v>
       </c>
-      <c r="F29" s="441"/>
-      <c r="G29" s="265">
+      <c r="F29" s="442"/>
+      <c r="G29" s="259">
         <f ca="1">$F$28+E29+$G$21</f>
-        <v>21.121184119130799</v>
+        <v>13.58411216773554</v>
       </c>
       <c r="I29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="189" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="258">
+      <c r="B30" s="187" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="252">
         <f>1/D30</f>
         <v>8.7412587412587409E-2</v>
       </c>
-      <c r="D30" s="259">
+      <c r="D30" s="253">
         <f>D29*1.1</f>
         <v>11.440000000000001</v>
       </c>
-      <c r="E30" s="267">
+      <c r="E30" s="261">
         <v>5.4381400006462632</v>
       </c>
-      <c r="F30" s="442"/>
-      <c r="G30" s="267">
+      <c r="F30" s="443"/>
+      <c r="G30" s="261">
         <f ca="1">$F$28+E30+$G$21</f>
-        <v>21.615560482825913</v>
+        <v>14.078488531430654</v>
       </c>
       <c r="I30" s="99"/>
     </row>
@@ -12744,7 +12720,7 @@
       <c r="B32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="331" t="str">
+      <c r="C32" s="325" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
@@ -12758,19 +12734,19 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="333">
-        <f ca="1">MIN('Asset Model'!D7,G28)+(ABS('Asset Model'!D7-G28)*'Qualitative Analysis'!E80)*Exchange_Rate</f>
-        <v>19.213458639736121</v>
+        <v>186</v>
+      </c>
+      <c r="C33" s="327">
+        <f ca="1">MIN(Asset_Model!D7,G28)+(ABS(Asset_Model!D7-G28)*'Qualitative Analysis'!E80)*Exchange_Rate</f>
+        <v>15.507841815017519</v>
       </c>
       <c r="D33" s="24" t="str">
         <f ca="1">IF(C33&lt;E33,"&lt;",IF(C33=E33,"=","&gt;"))</f>
-        <v>&lt;</v>
-      </c>
-      <c r="E33" s="332">
+        <v>&gt;</v>
+      </c>
+      <c r="E33" s="326">
         <f ca="1">G29*Exchange_Rate</f>
-        <v>21.121184119130799</v>
+        <v>13.58411216773554</v>
       </c>
       <c r="F33" s="32"/>
       <c r="H33" s="6"/>
@@ -12787,12 +12763,12 @@
       <c r="I34" s="119"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="403" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="437"/>
+      <c r="C35" s="357" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="438"/>
       <c r="E35" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>20</v>
@@ -12801,12 +12777,12 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="337" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="334">
+      <c r="B36" s="331" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="328">
         <f ca="1">MIN(C33,E33)+(ABS(C33-E33)*'Qualitative Analysis'!E80)</f>
-        <v>20.183435387167577</v>
+        <v>14.56222618170788</v>
       </c>
       <c r="D36" s="155" t="str">
         <f>Dashboard!J4</f>
@@ -12814,25 +12790,25 @@
       </c>
       <c r="E36" s="156">
         <f ca="1">(C36-G21)/C12</f>
-        <v>1.9211324404925125</v>
-      </c>
-      <c r="F36" s="204">
+        <v>2.6876160024623776</v>
+      </c>
+      <c r="F36" s="199">
         <f ca="1">C36/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.22866873182936606</v>
+        <v>0.16498310271306268</v>
       </c>
       <c r="G36" s="116"/>
       <c r="H36" s="6"/>
       <c r="I36" s="99"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="336" t="s">
-        <v>311</v>
-      </c>
-      <c r="C37" s="335">
+      <c r="B37" s="330" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="329">
         <f ca="1">(G14/(1+G37)^B27+F28+G21)*Exchange_Rate</f>
-        <v>23.705253846583364</v>
-      </c>
-      <c r="D37" s="268" t="str">
+        <v>16.168181895188106</v>
+      </c>
+      <c r="D37" s="262" t="str">
         <f>D36</f>
         <v>HKD</v>
       </c>
@@ -12840,11 +12816,11 @@
         <f ca="1">(C37-G21)/C12</f>
         <v>3.330114353790298</v>
       </c>
-      <c r="F37" s="204">
+      <c r="F37" s="199">
         <f ca="1">C37/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.26856926141710313</v>
-      </c>
-      <c r="G37" s="269">
+        <v>0.1831778178015124</v>
+      </c>
+      <c r="G37" s="263">
         <f>Dashboard!D10</f>
         <v>2.9100000000000001E-2</v>
       </c>
@@ -13783,7 +13759,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="12"/>
@@ -13791,7 +13767,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B3" s="127" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="128"/>
       <c r="D3" s="6"/>
@@ -13799,7 +13775,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="128"/>
       <c r="D4" s="125">
@@ -13807,12 +13783,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="128"/>
       <c r="D5" s="125">
@@ -13820,12 +13796,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" s="128"/>
       <c r="D6" s="125">
@@ -13833,12 +13809,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B7" s="129" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="128"/>
       <c r="D7" s="125">
@@ -13857,7 +13833,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B9" s="131" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="40"/>
@@ -13865,19 +13841,19 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D10" s="132">
         <f>IF(E10="Strongly disagree",0,IF(E10="disagree",1,IF(E10="unclear",2,IF(E10="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="132">
@@ -13891,7 +13867,7 @@
     </row>
     <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D12" s="132">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
@@ -13904,7 +13880,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="129" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="132">
         <f>AVERAGE(D10:D12)</f>
@@ -13923,30 +13899,30 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B16" s="211" t="s">
-        <v>205</v>
+      <c r="B16" s="206" t="s">
+        <v>203</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="118">
         <f>1/E16</f>
         <v>0.125</v>
       </c>
-      <c r="E16" s="256">
+      <c r="E16" s="250">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="132" t="str">
@@ -13954,56 +13930,56 @@
         <v>-</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D18" s="132" t="str">
         <f t="shared" ref="D18:D19" si="1">IF(LEFT(E18,3)="(+)","+","-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="187" t="s">
-        <v>209</v>
+      <c r="E18" s="185" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D19" s="132" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="129" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20" s="132" t="str">
         <f>D17&amp;D18&amp;D19</f>
         <v>--+</v>
       </c>
-      <c r="E20" s="188" t="str">
+      <c r="E20" s="186" t="str">
         <f>IF(D20="+-+","Growth", IF(D20="+--","Mature", "Shakeout/Decline")) &amp; " stage"</f>
         <v>Shakeout/Decline stage</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="129" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D21" s="118">
         <f>1/E21</f>
         <v>0.125</v>
       </c>
-      <c r="E21" s="256">
+      <c r="E21" s="250">
         <f>IF(LEFT(E20,1)="G", E16/2.4, IF(LEFT(E20,1)="M", E16/1.8, E16))</f>
         <v>8</v>
       </c>
@@ -14015,7 +13991,7 @@
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -14023,14 +13999,14 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="131" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="124"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D25" s="132">
         <f>IF(E25="Strongly disagree",0,IF(E25="disagree",1,IF(E25="unclear",2,IF(E25="agree",3,4))))</f>
@@ -14044,74 +14020,74 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D26" s="132">
         <f>IF(E26="Strongly disagree",0,IF(E26="disagree",1,IF(E26="unclear",2,IF(E26="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D27" s="132">
         <f>IF(E27="Strongly disagree",0,IF(E27="disagree",1,IF(E27="unclear",2,IF(E27="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D28" s="132">
         <f>IF(E28="Strongly disagree",0,IF(E28="disagree",1,IF(E28="unclear",2,IF(E28="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" s="132">
         <f>IF(E29="Strongly disagree",0,IF(E29="disagree",1,IF(E29="unclear",2,IF(E29="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="131" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D31" s="132">
         <f>IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E31" s="53" t="str">
-        <f>IF(OR('Asset Model'!I24&lt;0.8,'Asset Model'!I44&lt;0.6),"Strongly disagree",
-IF(OR('Asset Model'!I24&lt;1,'Asset Model'!I44&lt;0.8),"unclear", IF(OR('Asset Model'!I24&lt;1.8,'Asset Model'!I44&lt;1.4),"agree","Strongly agree"))
+        <f>IF(OR(Asset_Model!I24&lt;0.8,Asset_Model!I44&lt;0.6),"Strongly disagree",
+IF(OR(Asset_Model!I24&lt;1,Asset_Model!I44&lt;0.8),"unclear", IF(OR(Asset_Model!I24&lt;1.8,Asset_Model!I44&lt;1.4),"agree","Strongly agree"))
 )</f>
         <v>Strongly disagree</v>
       </c>
@@ -14119,138 +14095,138 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D32" s="132">
         <f t="shared" ref="D32:D35" si="2">IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D33" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D34" s="132">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D35" s="132">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="131" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D37" s="132">
         <f t="shared" ref="D37:D41" si="3">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D38" s="132">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D39" s="132">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D40" s="132">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D41" s="132">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="131" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="24"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D43" s="135">
         <f>SUM(D44:D49)/(6*4)</f>
@@ -14264,84 +14240,84 @@
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D44" s="132">
         <f t="shared" ref="D44:D49" si="4">IF(E44="Strongly disagree",0,IF(E44="disagree",1,IF(E44="unclear",2,IF(E44="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D45" s="132">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D46" s="132">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D47" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D48" s="132">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D49" s="132">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D50" s="135">
         <f>SUM(D51:D56)/(6*4)</f>
@@ -14355,84 +14331,84 @@
     </row>
     <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D51" s="132">
         <f t="shared" ref="D51:D56" si="5">IF(E51="Strongly disagree",0,IF(E51="disagree",1,IF(E51="unclear",2,IF(E51="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D52" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D53" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D54" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D55" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D56" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D57" s="135">
         <f>SUM(D58:D63)/(6*4)</f>
@@ -14446,85 +14422,85 @@
     </row>
     <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D58" s="132">
         <f t="shared" ref="D58:D63" si="6">IF(E58="Strongly disagree",0,IF(E58="disagree",1,IF(E58="unclear",2,IF(E58="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D59" s="132">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D60" s="132">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D61" s="132">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D62" s="132">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D63" s="132">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D64" s="135">
         <f>SUM(D65:D70)/(6*4)</f>
@@ -14538,64 +14514,64 @@
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D65" s="132">
         <f t="shared" ref="D65:D68" si="7">IF(E65="Strongly disagree",0,IF(E65="disagree",1,IF(E65="unclear",2,IF(E65="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D66" s="132">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D67" s="132">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D68" s="132">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D69" s="132">
         <f>IF(E69="Strongly disagree",0,IF(E69="disagree",1,IF(E69="unclear",2,IF(E69="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
@@ -14603,14 +14579,14 @@
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D70" s="136">
         <f t="array" ref="D70">(1-INDEX(B84:E93,MATCH(E70,B84:B93,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
@@ -14618,7 +14594,7 @@
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D71" s="137">
         <f>SUM(D72:D77)/(6*4)</f>
@@ -14634,14 +14610,14 @@
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D72" s="132">
         <f t="shared" ref="D72:D76" si="8">IF(E72="Strongly disagree",0,IF(E72="disagree",1,IF(E72="unclear",2,IF(E72="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
@@ -14649,14 +14625,14 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D73" s="132">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -14664,14 +14640,14 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D74" s="132">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -14679,14 +14655,14 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D75" s="132">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -14694,14 +14670,14 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D76" s="132">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
@@ -14709,22 +14685,22 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D77" s="132">
         <f>IF(E77="Strongly disagree",0,IF(E77="disagree",1,IF(E77="non-perishable",2,IF(E77="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="185" t="s">
-        <v>266</v>
+      <c r="B78" s="183" t="s">
+        <v>264</v>
       </c>
       <c r="D78" s="163">
         <f>1-AVERAGE(D43,D50,D57,D64,D71)</f>
@@ -14743,7 +14719,7 @@
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="129" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D80" s="125">
         <f>E80*4</f>
@@ -14756,7 +14732,7 @@
     </row>
     <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="58" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -14764,7 +14740,7 @@
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C83" s="139"/>
       <c r="D83" s="139"/>
@@ -14772,7 +14748,7 @@
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C84" s="139"/>
       <c r="D84" s="139">
@@ -14789,7 +14765,7 @@
         <v>Information Technology Like, 6.6y</v>
       </c>
       <c r="C85" s="139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D85" s="139">
         <v>6.6</v>
@@ -14805,7 +14781,7 @@
         <v>Healthcare, 11.4y</v>
       </c>
       <c r="C86" s="139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D86" s="139">
         <v>11.4</v>
@@ -14821,7 +14797,7 @@
         <v>Consumer Discretionary, 12.4y</v>
       </c>
       <c r="C87" s="139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="139">
         <v>12.4</v>
@@ -14837,7 +14813,7 @@
         <v>Consumer Staples, 15.1y</v>
       </c>
       <c r="C88" s="139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D88" s="139">
         <v>15.1</v>
@@ -14853,7 +14829,7 @@
         <v>Industrials, 15.4y</v>
       </c>
       <c r="C89" s="139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D89" s="139">
         <v>15.4</v>
@@ -14869,7 +14845,7 @@
         <v>Telecommunication Services, 16.1y</v>
       </c>
       <c r="C90" s="139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D90" s="139">
         <v>16.100000000000001</v>
@@ -14885,7 +14861,7 @@
         <v>Energy, 17.6y</v>
       </c>
       <c r="C91" s="139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D91" s="139">
         <v>17.600000000000001</v>
@@ -14901,7 +14877,7 @@
         <v>Materials, 18.6y</v>
       </c>
       <c r="C92" s="139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D92" s="139">
         <v>18.600000000000001</v>
@@ -14917,7 +14893,7 @@
         <v>Utilities, 29.4y</v>
       </c>
       <c r="C93" s="144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D93" s="144">
         <v>29.4</v>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3D07BC-0F15-48A3-9CE9-FF83E5DCE033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98C6AB-486F-4C29-B104-9811FD8199D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1370,12 +1370,12 @@
     <numFmt numFmtId="178" formatCode="&quot;Current Price = &quot;0.00"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="&quot;Discount rate = &quot;0.00%"/>
-    <numFmt numFmtId="183" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="185" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;Price_Target_1 = &quot;0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;Price_Target_2 = &quot;0.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;Discount rate = &quot;0.00%"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="184" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="185" formatCode="&quot;Price_Target_1 = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;Price_Target_2 = &quot;0.00"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -3646,7 +3646,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3675,7 +3675,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3892,7 +3892,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="184" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3910,171 +3910,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="18" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4086,11 +3951,168 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4134,28 +4156,6 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4515,11 +4515,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="357" t="str">
+      <c r="C2" s="410" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0683.HK : KERRY PPT</v>
       </c>
-      <c r="D2" s="358"/>
+      <c r="D2" s="411"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4531,27 +4531,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="359" t="s">
+      <c r="C3" s="412" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="360"/>
+      <c r="D3" s="413"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="371" t="s">
+      <c r="I3" s="420" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="372"/>
+      <c r="J3" s="421"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="361" t="s">
+      <c r="C4" s="414" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="362"/>
+      <c r="D4" s="415"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4568,10 +4568,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="363">
+      <c r="C5" s="416">
         <v>44956</v>
       </c>
-      <c r="D5" s="362"/>
+      <c r="D5" s="415"/>
       <c r="E5" s="158" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4579,10 +4579,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="373">
+      <c r="I5" s="399">
         <v>1451309952</v>
       </c>
-      <c r="J5" s="374"/>
+      <c r="J5" s="400"/>
       <c r="K5" s="192"/>
       <c r="L5" s="113"/>
     </row>
@@ -4602,11 +4602,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="170"/>
-      <c r="I6" s="375">
+      <c r="I6" s="422">
         <f>I4*I5/1000000</f>
         <v>28793.98944768</v>
       </c>
-      <c r="J6" s="376"/>
+      <c r="J6" s="423"/>
       <c r="K6" s="192"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4691,10 +4691,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="383" t="s">
+      <c r="I11" s="430" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="384"/>
+      <c r="J11" s="431"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="103" t="s">
@@ -4777,7 +4777,7 @@
         <f>I4</f>
         <v>19.84</v>
       </c>
-      <c r="C16" s="414">
+      <c r="C16" s="387">
         <f ca="1">D11/2</f>
         <v>8.2222222222222224E-2</v>
       </c>
@@ -4785,7 +4785,7 @@
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.34823904774097825</v>
       </c>
-      <c r="E16" s="393">
+      <c r="E16" s="405">
         <f>'FCFF Model'!D14</f>
         <v>0.95</v>
       </c>
@@ -4793,14 +4793,14 @@
         <f>E16/B16</f>
         <v>4.7883064516129031E-2</v>
       </c>
-      <c r="G16" s="380" t="s">
+      <c r="G16" s="427" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="377">
+      <c r="H16" s="424">
         <f>('FCFF Model'!G21)*Exchange_Rate</f>
         <v>7.8443999555788881</v>
       </c>
-      <c r="I16" s="380" t="s">
+      <c r="I16" s="427" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="260">
@@ -4809,44 +4809,44 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="448">
+      <c r="B17" s="361">
         <v>18.5</v>
       </c>
-      <c r="C17" s="415"/>
+      <c r="C17" s="388"/>
       <c r="D17" s="201">
         <f ca="1">H14/B17-1-C16</f>
         <v>-0.2950748610488233</v>
       </c>
-      <c r="E17" s="394"/>
+      <c r="E17" s="406"/>
       <c r="F17" s="204">
         <f>E16/B17</f>
         <v>5.1351351351351347E-2</v>
       </c>
-      <c r="G17" s="381"/>
-      <c r="H17" s="378"/>
-      <c r="I17" s="381"/>
+      <c r="G17" s="428"/>
+      <c r="H17" s="425"/>
+      <c r="I17" s="428"/>
       <c r="J17" s="259">
         <f>B17-$H$16</f>
         <v>10.655600044421112</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="449">
+      <c r="B18" s="362">
         <v>18</v>
       </c>
-      <c r="C18" s="416"/>
+      <c r="C18" s="389"/>
       <c r="D18" s="202">
         <f ca="1">H14/B18-1-C16</f>
         <v>-0.27320965657178442</v>
       </c>
-      <c r="E18" s="395"/>
+      <c r="E18" s="407"/>
       <c r="F18" s="205">
         <f>E16/B18</f>
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="G18" s="382"/>
-      <c r="H18" s="379"/>
-      <c r="I18" s="382"/>
+      <c r="G18" s="429"/>
+      <c r="H18" s="426"/>
+      <c r="I18" s="429"/>
       <c r="J18" s="261">
         <f>B18-$H$16</f>
         <v>10.155600044421112</v>
@@ -4864,8 +4864,8 @@
       <c r="C20" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="397"/>
-      <c r="E20" s="398"/>
+      <c r="D20" s="408"/>
+      <c r="E20" s="409"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -4877,52 +4877,52 @@
       <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="366" t="s">
+      <c r="C21" s="417" t="s">
         <v>330</v>
       </c>
-      <c r="D21" s="367"/>
-      <c r="E21" s="367"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="367"/>
-      <c r="H21" s="367"/>
-      <c r="I21" s="367"/>
-      <c r="J21" s="368"/>
+      <c r="D21" s="418"/>
+      <c r="E21" s="418"/>
+      <c r="F21" s="418"/>
+      <c r="G21" s="418"/>
+      <c r="H21" s="418"/>
+      <c r="I21" s="418"/>
+      <c r="J21" s="419"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="385" t="s">
+      <c r="C22" s="382" t="s">
         <v>346</v>
       </c>
-      <c r="D22" s="386"/>
-      <c r="E22" s="386"/>
-      <c r="F22" s="386"/>
-      <c r="G22" s="385" t="s">
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="379"/>
+      <c r="G22" s="382" t="s">
         <v>348</v>
       </c>
-      <c r="H22" s="385"/>
-      <c r="I22" s="386"/>
-      <c r="J22" s="386"/>
+      <c r="H22" s="382"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="379"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="369" t="s">
+      <c r="C23" s="383" t="s">
         <v>345</v>
       </c>
-      <c r="D23" s="370"/>
-      <c r="E23" s="370"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="369" t="s">
+      <c r="D23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="384"/>
+      <c r="G23" s="383" t="s">
         <v>347</v>
       </c>
-      <c r="H23" s="369"/>
-      <c r="I23" s="370"/>
-      <c r="J23" s="370"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="384"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4957,155 +4957,155 @@
       <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="364"/>
-      <c r="D26" s="365"/>
-      <c r="E26" s="364"/>
-      <c r="F26" s="365"/>
-      <c r="G26" s="399"/>
-      <c r="H26" s="400"/>
-      <c r="I26" s="413" t="s">
+      <c r="C26" s="385"/>
+      <c r="D26" s="386"/>
+      <c r="E26" s="385"/>
+      <c r="F26" s="386"/>
+      <c r="G26" s="432"/>
+      <c r="H26" s="433"/>
+      <c r="I26" s="381" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="413"/>
+      <c r="J26" s="381"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="392">
+      <c r="C27" s="404">
         <f>C31/D25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="391"/>
-      <c r="E27" s="390">
+      <c r="D27" s="377"/>
+      <c r="E27" s="403">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="391"/>
-      <c r="G27" s="401">
+      <c r="F27" s="377"/>
+      <c r="G27" s="390">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="402"/>
-      <c r="I27" s="404">
+      <c r="H27" s="391"/>
+      <c r="I27" s="392">
         <f>C27+E27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="404"/>
+      <c r="J27" s="392"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="389"/>
-      <c r="D28" s="386"/>
-      <c r="E28" s="389"/>
-      <c r="F28" s="386"/>
-      <c r="G28" s="373"/>
-      <c r="H28" s="374"/>
-      <c r="I28" s="418">
+      <c r="C28" s="378"/>
+      <c r="D28" s="379"/>
+      <c r="E28" s="378"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="399"/>
+      <c r="H28" s="400"/>
+      <c r="I28" s="367">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="418"/>
+      <c r="J28" s="367"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="396"/>
-      <c r="D29" s="386"/>
-      <c r="E29" s="396"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="405"/>
-      <c r="H29" s="406"/>
-      <c r="I29" s="411"/>
-      <c r="J29" s="411"/>
+      <c r="C29" s="380"/>
+      <c r="D29" s="379"/>
+      <c r="E29" s="380"/>
+      <c r="F29" s="379"/>
+      <c r="G29" s="393"/>
+      <c r="H29" s="394"/>
+      <c r="I29" s="401"/>
+      <c r="J29" s="401"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="387">
+      <c r="C30" s="365">
         <f>C29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D30" s="388"/>
-      <c r="E30" s="387">
+      <c r="D30" s="372"/>
+      <c r="E30" s="365">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="388"/>
-      <c r="G30" s="407">
+      <c r="F30" s="372"/>
+      <c r="G30" s="395">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
+      <c r="H30" s="396"/>
+      <c r="I30" s="402"/>
+      <c r="J30" s="402"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="423">
+      <c r="C31" s="373">
         <f>C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="424"/>
-      <c r="E31" s="417">
+      <c r="D31" s="374"/>
+      <c r="E31" s="366">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="425"/>
-      <c r="G31" s="409">
+      <c r="F31" s="375"/>
+      <c r="G31" s="397">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="417">
+      <c r="H31" s="398"/>
+      <c r="I31" s="366">
         <f>C31+E31+G31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="417"/>
+      <c r="J31" s="366"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="419"/>
-      <c r="D32" s="420"/>
-      <c r="E32" s="403" t="str">
+      <c r="C32" s="368"/>
+      <c r="D32" s="369"/>
+      <c r="E32" s="376" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>-</v>
       </c>
-      <c r="F32" s="391"/>
+      <c r="F32" s="377"/>
       <c r="G32" s="153"/>
       <c r="H32" s="153"/>
-      <c r="I32" s="403" t="str">
+      <c r="I32" s="376" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
         <v/>
       </c>
-      <c r="J32" s="403"/>
+      <c r="J32" s="376"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="421"/>
-      <c r="D33" s="422"/>
-      <c r="E33" s="387" t="str">
+      <c r="C33" s="370"/>
+      <c r="D33" s="371"/>
+      <c r="E33" s="365" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="388"/>
+      <c r="F33" s="372"/>
       <c r="G33" s="154"/>
       <c r="H33" s="154"/>
-      <c r="I33" s="387" t="str">
+      <c r="I33" s="365" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J33" s="387"/>
+      <c r="J33" s="365"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6043,39 +6043,6 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -6092,6 +6059,39 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="lessThan">
@@ -6931,7 +6931,7 @@
       <c r="B24" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="445">
+      <c r="C24" s="358">
         <v>31180.352999999999</v>
       </c>
       <c r="D24" s="177">
@@ -7004,47 +7004,47 @@
         <v>66</v>
       </c>
       <c r="C27" s="29">
-        <f>IF(C7="","",C23+C25)</f>
+        <f t="shared" ref="C27:M27" si="8">IF(C7="","",C23+C25)</f>
         <v>6103303.7770000007</v>
       </c>
       <c r="D27" s="29">
-        <f>IF(D7="","",D23+D25)</f>
+        <f t="shared" si="8"/>
         <v>7025739</v>
       </c>
       <c r="E27" s="29">
-        <f>IF(E7="","",E23+E25)</f>
+        <f t="shared" si="8"/>
         <v>7003154</v>
       </c>
       <c r="F27" s="29" t="str">
-        <f>IF(F7="","",F23+F25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G27" s="29" t="str">
-        <f>IF(G7="","",G23+G25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H27" s="29" t="str">
-        <f>IF(H7="","",H23+H25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I27" s="29" t="str">
-        <f>IF(I7="","",I23+I25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J27" s="29" t="str">
-        <f>IF(J7="","",J23+J25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K27" s="29" t="str">
-        <f>IF(K7="","",K23+K25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L27" s="29" t="str">
-        <f>IF(L7="","",L23+L25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M27" s="317" t="str">
-        <f>IF(M7="","",M23+M25)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N27" s="6"/>
@@ -7147,47 +7147,47 @@
         <v>69</v>
       </c>
       <c r="C32" s="14">
-        <f>IF(D7="","",(C30-D30)/C30)</f>
+        <f t="shared" ref="C32:M32" si="9">IF(D7="","",(C30-D30)/C30)</f>
         <v>8.7878434212986925E-2</v>
       </c>
       <c r="D32" s="14">
-        <f>IF(E7="","",(D30-E30)/D30)</f>
+        <f t="shared" si="9"/>
         <v>0.29266014113023975</v>
       </c>
       <c r="E32" s="14" t="str">
-        <f>IF(F7="","",(E30-F30)/E30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F32" s="14" t="str">
-        <f>IF(G7="","",(F30-G30)/F30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
-        <f>IF(H7="","",(G30-H30)/G30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f>IF(I7="","",(H30-I30)/H30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
-        <f>IF(J7="","",(I30-J30)/I30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J32" s="14" t="str">
-        <f>IF(K7="","",(J30-K30)/J30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K32" s="14" t="str">
-        <f>IF(L7="","",(K30-L30)/K30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L32" s="14" t="str">
-        <f>IF(M7="","",(L30-M30)/L30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M32" s="265" t="str">
-        <f>IF(N7="","",(M30-N30)/M30)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N32" s="6"/>
@@ -7198,47 +7198,47 @@
         <v>70</v>
       </c>
       <c r="C33" s="323">
-        <f>IF(D7="","",(C7-D7)*$D$49)</f>
+        <f t="shared" ref="C33:M33" si="10">IF(D7="","",(C7-D7)*$D$49)</f>
         <v>55245.678000000007</v>
       </c>
       <c r="D33" s="323">
-        <f>IF(E7="","",(D7-E7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v>-241453.08000000002</v>
       </c>
       <c r="E33" s="323" t="str">
-        <f>IF(F7="","",(E7-F7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F33" s="323" t="str">
-        <f>IF(G7="","",(F7-G7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G33" s="323" t="str">
-        <f>IF(H7="","",(G7-H7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H33" s="323" t="str">
-        <f>IF(I7="","",(H7-I7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I33" s="323" t="str">
-        <f>IF(J7="","",(I7-J7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J33" s="323" t="str">
-        <f>IF(K7="","",(J7-K7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K33" s="323" t="str">
-        <f>IF(L7="","",(K7-L7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L33" s="323" t="str">
-        <f>IF(M7="","",(L7-M7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M33" s="324" t="str">
-        <f>IF(N7="","",(M7-N7)*$D$49)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N33" s="6"/>
@@ -7249,47 +7249,47 @@
         <v>71</v>
       </c>
       <c r="C34" s="180">
-        <f>IF(D7="","",C30-D30+C33)</f>
+        <f t="shared" ref="C34:M34" si="11">IF(D7="","",C30-D30+C33)</f>
         <v>2130419.6779999998</v>
       </c>
       <c r="D34" s="180">
-        <f>IF(E7="","",D30-E30+D33)</f>
+        <f t="shared" si="11"/>
         <v>6062144.9199999999</v>
       </c>
       <c r="E34" s="180" t="str">
-        <f>IF(F7="","",E30-F30+E33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F34" s="180" t="str">
-        <f>IF(G7="","",F30-G30+F33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G34" s="180" t="str">
-        <f>IF(H7="","",G30-H30+G33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H34" s="180" t="str">
-        <f>IF(I7="","",H30-I30+H33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I34" s="180" t="str">
-        <f>IF(J7="","",I30-J30+I33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J34" s="180" t="str">
-        <f>IF(K7="","",J30-K30+J33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K34" s="180" t="str">
-        <f>IF(L7="","",K30-L30+K33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L34" s="180" t="str">
-        <f>IF(M7="","",L30-M30+L33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M34" s="318" t="str">
-        <f>IF(N7="","",M30-N30+M33)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N34" s="6"/>
@@ -7300,47 +7300,47 @@
         <v>72</v>
       </c>
       <c r="C35" s="313">
-        <f>IF(C34="","",C34/C16)</f>
+        <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
         <v>0.37856498661892463</v>
       </c>
       <c r="D35" s="313">
-        <f>IF(D34="","",D34/D16)</f>
+        <f t="shared" si="12"/>
         <v>1.0718851332120685</v>
       </c>
       <c r="E35" s="313" t="str">
-        <f>IF(E34="","",E34/E16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F35" s="313" t="str">
-        <f>IF(F34="","",F34/F16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G35" s="313" t="str">
-        <f>IF(G34="","",G34/G16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H35" s="313" t="str">
-        <f>IF(H34="","",H34/H16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I35" s="313" t="str">
-        <f>IF(I34="","",I34/I16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J35" s="313" t="str">
-        <f>IF(J34="","",J34/J16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K35" s="313" t="str">
-        <f>IF(K34="","",K34/K16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L35" s="313" t="str">
-        <f>IF(L34="","",L34/L16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M35" s="314" t="str">
-        <f>IF(M34="","",M34/M16)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N35" s="6"/>
@@ -7417,47 +7417,47 @@
         <v>278</v>
       </c>
       <c r="C39" s="213">
-        <f t="shared" ref="C39:M39" si="8">IF(C37="","",C37*$C$4/Common_Shares)</f>
+        <f t="shared" ref="C39:M39" si="13">IF(C37="","",C37*$C$4/Common_Shares)</f>
         <v>3.663056256641724</v>
       </c>
       <c r="D39" s="213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.3548291302559745</v>
       </c>
       <c r="E39" s="213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.3541483659584248</v>
       </c>
       <c r="F39" s="213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G39" s="213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H39" s="213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I39" s="213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J39" s="213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K39" s="213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L39" s="213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M39" s="214" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N39" s="6"/>
@@ -7468,47 +7468,47 @@
         <v>279</v>
       </c>
       <c r="C40" s="215">
-        <f t="shared" ref="C40:M40" si="9">IF(C38="","",C38*$C$4/Common_Shares)</f>
+        <f t="shared" ref="C40:M40" si="14">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>2.7834164538272248E-2</v>
       </c>
       <c r="D40" s="215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E40" s="215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F40" s="215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G40" s="215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H40" s="215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I40" s="215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J40" s="215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K40" s="215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L40" s="215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M40" s="216" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N40" s="6"/>
@@ -7540,43 +7540,43 @@
         <v>2.3082018069847537E-2</v>
       </c>
       <c r="D42" s="52" t="str">
-        <f>IF(D29="","",D25/D29)</f>
+        <f t="shared" ref="D42:M42" si="15">IF(D29="","",D25/D29)</f>
         <v/>
       </c>
       <c r="E42" s="52" t="str">
-        <f>IF(E29="","",E25/E29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F42" s="52" t="str">
-        <f>IF(F29="","",F25/F29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G42" s="52" t="str">
-        <f>IF(G29="","",G25/G29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H42" s="52" t="str">
-        <f>IF(H29="","",H25/H29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I42" s="52" t="str">
-        <f>IF(I29="","",I25/I29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J42" s="52" t="str">
-        <f>IF(J29="","",J25/J29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K42" s="52" t="str">
-        <f>IF(K29="","",K25/K29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L42" s="52" t="str">
-        <f>IF(L29="","",L25/L29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M42" s="264" t="str">
-        <f>IF(M29="","",M25/M29)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N42" s="6"/>
@@ -7587,47 +7587,47 @@
         <v>349</v>
       </c>
       <c r="C43" s="14">
-        <f>IF(C29="","",C27/C29)</f>
+        <f t="shared" ref="C43:M43" si="16">IF(C29="","",C27/C29)</f>
         <v>5.2241389229950357E-2</v>
       </c>
       <c r="D43" s="14" t="str">
-        <f>IF(D29="","",D27/D29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E43" s="14" t="str">
-        <f>IF(E29="","",E27/E29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F43" s="14" t="str">
-        <f>IF(F29="","",F27/F29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
-        <f>IF(G29="","",G27/G29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f>IF(H29="","",H27/H29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
-        <f>IF(I29="","",I27/I29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J43" s="14" t="str">
-        <f>IF(J29="","",J27/J29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K43" s="14" t="str">
-        <f>IF(K29="","",K27/K29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L43" s="14" t="str">
-        <f>IF(L29="","",L27/L29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M43" s="265" t="str">
-        <f>IF(M29="","",M27/M29)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N43" s="6"/>
@@ -7638,47 +7638,47 @@
         <v>77</v>
       </c>
       <c r="C44" s="54">
-        <f>IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
+        <f t="shared" ref="C44:M44" si="17">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
         <v>1.1042648778843502</v>
       </c>
       <c r="D44" s="54">
-        <f>IF(D14="","",IF(D27&lt;=0,"-",D14/D27))</f>
+        <f t="shared" si="17"/>
         <v>0.96405004512692549</v>
       </c>
       <c r="E44" s="54">
-        <f>IF(E14="","",IF(E27&lt;=0,"-",E14/E27))</f>
+        <f t="shared" si="17"/>
         <v>1.0540767774062945</v>
       </c>
       <c r="F44" s="54" t="str">
-        <f>IF(F14="","",IF(F27&lt;=0,"-",F14/F27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G44" s="54" t="str">
-        <f>IF(G14="","",IF(G27&lt;=0,"-",G14/G27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H44" s="54" t="str">
-        <f>IF(H14="","",IF(H27&lt;=0,"-",H14/H27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I44" s="54" t="str">
-        <f>IF(I14="","",IF(I27&lt;=0,"-",I14/I27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J44" s="54" t="str">
-        <f>IF(J14="","",IF(J27&lt;=0,"-",J14/J27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K44" s="54" t="str">
-        <f>IF(K14="","",IF(K27&lt;=0,"-",K14/K27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L44" s="54" t="str">
-        <f>IF(L14="","",IF(L27&lt;=0,"-",L14/L27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M44" s="266" t="str">
-        <f>IF(M14="","",IF(M27&lt;=0,"-",M14/M27))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N44" s="6"/>
@@ -7689,47 +7689,47 @@
         <v>78</v>
       </c>
       <c r="C45" s="14">
-        <f>IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
+        <f t="shared" ref="C45:M45" si="18">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
         <v>9.9981174277839951E-2</v>
       </c>
       <c r="D45" s="14">
-        <f>IF(D16="","",IF(D18&lt;=0,"-",D18/D16))</f>
+        <f t="shared" si="18"/>
         <v>0.13821983769217977</v>
       </c>
       <c r="E45" s="14">
-        <f>IF(E16="","",IF(E18&lt;=0,"-",E18/E16))</f>
+        <f t="shared" si="18"/>
         <v>0.13182740838652174</v>
       </c>
       <c r="F45" s="14" t="str">
-        <f>IF(F16="","",IF(F18&lt;=0,"-",F18/F16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
-        <f>IF(G16="","",IF(G18&lt;=0,"-",G18/G16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f>IF(H16="","",IF(H18&lt;=0,"-",H18/H16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
-        <f>IF(I16="","",IF(I18&lt;=0,"-",I18/I16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J45" s="14" t="str">
-        <f>IF(J16="","",IF(J18&lt;=0,"-",J18/J16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K45" s="14" t="str">
-        <f>IF(K16="","",IF(K18&lt;=0,"-",K18/K16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L45" s="14" t="str">
-        <f>IF(L16="","",IF(L18&lt;=0,"-",L18/L16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M45" s="265" t="str">
-        <f>IF(M16="","",IF(M18&lt;=0,"-",M18/M16))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N45" s="6"/>
@@ -7740,47 +7740,47 @@
         <v>79</v>
       </c>
       <c r="C46" s="55">
-        <f>IF(C21="","",C21/C22)</f>
+        <f t="shared" ref="C46:M46" si="19">IF(C21="","",C21/C22)</f>
         <v>2.8884009263879551</v>
       </c>
       <c r="D46" s="55">
-        <f>IF(D21="","",D21/D22)</f>
+        <f t="shared" si="19"/>
         <v>2.2711732065770964</v>
       </c>
       <c r="E46" s="55">
-        <f>IF(E21="","",E21/E22)</f>
+        <f t="shared" si="19"/>
         <v>1.5397960079820596</v>
       </c>
       <c r="F46" s="55" t="str">
-        <f>IF(F21="","",F21/F22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G46" s="55" t="str">
-        <f>IF(G21="","",G21/G22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H46" s="55" t="str">
-        <f>IF(H21="","",H21/H22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I46" s="55" t="str">
-        <f>IF(I21="","",I21/I22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J46" s="55" t="str">
-        <f>IF(J21="","",J21/J22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K46" s="55" t="str">
-        <f>IF(K21="","",K21/K22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L46" s="55" t="str">
-        <f>IF(L21="","",L21/L22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M46" s="267" t="str">
-        <f>IF(M21="","",M21/M22)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N46" s="6"/>
@@ -7815,10 +7815,10 @@
         <v>81</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="431">
+      <c r="D49" s="439">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E49" s="432"/>
+      <c r="E49" s="440"/>
       <c r="F49" s="348" t="s">
         <v>339</v>
       </c>
@@ -7829,10 +7829,10 @@
         <v>82</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="426" t="s">
+      <c r="D50" s="434" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="386"/>
+      <c r="E50" s="379"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7847,10 +7847,10 @@
         <v>84</v>
       </c>
       <c r="C52" s="59"/>
-      <c r="D52" s="427">
+      <c r="D52" s="435">
         <v>5</v>
       </c>
-      <c r="E52" s="428"/>
+      <c r="E52" s="436"/>
       <c r="F52" s="60"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7861,10 +7861,10 @@
       <c r="C53" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="429" t="s">
+      <c r="D53" s="437" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="430"/>
+      <c r="E53" s="438"/>
       <c r="F53" s="63" t="s">
         <v>88</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="67">
-        <f t="shared" ref="E54:E64" si="10">C54*D54</f>
+        <f t="shared" ref="E54:E64" si="20">C54*D54</f>
         <v>0</v>
       </c>
       <c r="F54" s="68">
@@ -7896,195 +7896,195 @@
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="66">
-        <f t="shared" ref="D55:D64" si="11">IF(B55&lt;0,(D$52+B55)/D$52,0)</f>
+        <f t="shared" ref="D55:D64" si="21">IF(B55&lt;0,(D$52+B55)/D$52,0)</f>
         <v>0.8</v>
       </c>
       <c r="E55" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F55" s="68">
-        <f t="shared" ref="F55:F64" si="12">IF(B55&lt;0,C55/$D$52,0)</f>
+        <f t="shared" ref="F55:F64" si="22">IF(B55&lt;0,C55/$D$52,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="69">
-        <f t="shared" ref="B56:B64" si="13">IF((0-B55)&lt;$D$52,IF(B55&gt;-1, ,B55-1), )</f>
+        <f t="shared" ref="B56:B64" si="23">IF((0-B55)&lt;$D$52,IF(B55&gt;-1, ,B55-1), )</f>
         <v>-2</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
       <c r="E56" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F56" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
       <c r="E57" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F57" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
       <c r="E58" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F58" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>-5</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E59" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F59" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E60" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F60" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C61" s="65"/>
       <c r="D61" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E61" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F61" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E62" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F62" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C63" s="65"/>
       <c r="D63" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E63" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F63" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E64" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F64" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8164,11 +8164,11 @@
         <v>98</v>
       </c>
       <c r="C70" s="77">
-        <f t="shared" ref="C70:D70" si="14">C69/$C$7</f>
+        <f t="shared" ref="C70:D70" si="24">C69/$C$7</f>
         <v>0.4397317007034231</v>
       </c>
       <c r="D70" s="77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.4397317007034231</v>
       </c>
       <c r="E70" s="57" t="s">
@@ -9632,7 +9632,7 @@
   <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9665,7 +9665,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="446">
+      <c r="D3" s="359">
         <v>128099808</v>
       </c>
       <c r="E3" s="197" t="str">
@@ -9674,10 +9674,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="360" t="s">
         <v>356</v>
       </c>
-      <c r="I3" s="450">
+      <c r="I3" s="363">
         <v>113579020</v>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
         <v>302</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="451">
+      <c r="D4" s="364">
         <f>D3-I3</f>
         <v>14520788</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>351</v>
       </c>
       <c r="C9" s="330"/>
-      <c r="D9" s="444">
+      <c r="D9" s="357">
         <v>44742</v>
       </c>
       <c r="E9" s="354" t="str">
@@ -10071,7 +10071,7 @@
         <v>16946370</v>
       </c>
       <c r="D24" s="93">
-        <f t="shared" ref="D24:D26" si="2">E24/C24</f>
+        <f>IF(E24=0,0,E24/C24)</f>
         <v>1</v>
       </c>
       <c r="E24" s="29">
@@ -10101,7 +10101,7 @@
         <v>19563765</v>
       </c>
       <c r="D25" s="93">
-        <f t="shared" si="2"/>
+        <f>IF(E25=0,0,E25/C25)</f>
         <v>0.93310605090584553</v>
       </c>
       <c r="E25" s="29">
@@ -10128,7 +10128,7 @@
         <v>57965822</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D24:D26" si="2">E26/C26</f>
         <v>0.69560145977055232</v>
       </c>
       <c r="E26" s="29">
@@ -10473,7 +10473,7 @@
         <v>19125790</v>
       </c>
       <c r="D44" s="93">
-        <f>E44/C44</f>
+        <f>IF(E44=0,0,E44/C44)</f>
         <v>0.95441924229012243</v>
       </c>
       <c r="E44" s="29">
@@ -10503,7 +10503,7 @@
         <v>50968661</v>
       </c>
       <c r="D45" s="93">
-        <f>E45/C45</f>
+        <f>IF(E45=0,0,E45/C45)</f>
         <v>0.66237648660222803</v>
       </c>
       <c r="E45" s="29">
@@ -10581,7 +10581,7 @@
         <v>14520788</v>
       </c>
       <c r="D50" s="269">
-        <f>E50/C50</f>
+        <f>IF(E50=0, 0,E50/C50)</f>
         <v>1</v>
       </c>
       <c r="E50" s="273">
@@ -10600,11 +10600,11 @@
         <v>313</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="418">
+      <c r="D52" s="367">
         <f>D53+D54+D55</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E52" s="436"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
     </row>
@@ -10613,11 +10613,11 @@
         <v>314</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="418">
+      <c r="D53" s="367">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6103303.7770000007</v>
       </c>
-      <c r="E53" s="436"/>
+      <c r="E53" s="444"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
@@ -10626,10 +10626,10 @@
         <v>170</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="435">
+      <c r="D54" s="443">
         <v>0</v>
       </c>
-      <c r="E54" s="386"/>
+      <c r="E54" s="379"/>
       <c r="F54" s="6" t="s">
         <v>171</v>
       </c>
@@ -10640,10 +10640,10 @@
         <v>169</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="435">
+      <c r="D55" s="443">
         <v>0</v>
       </c>
-      <c r="E55" s="386"/>
+      <c r="E55" s="379"/>
       <c r="F55" s="5" t="s">
         <v>172</v>
       </c>
@@ -10658,8 +10658,8 @@
         <v>173</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="437"/>
-      <c r="E57" s="437"/>
+      <c r="D57" s="445"/>
+      <c r="E57" s="445"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10672,7 +10672,7 @@
         <v>30297402</v>
       </c>
       <c r="D58" s="166">
-        <f>E58/C58</f>
+        <f>IF(E58=0,0,E58/C58)</f>
         <v>0.49715079530581535</v>
       </c>
       <c r="E58" s="276">
@@ -10690,7 +10690,7 @@
         <v>16946370</v>
       </c>
       <c r="D59" s="269">
-        <f>E59/C59</f>
+        <f>IF(E59=0,0,E59/C59)</f>
         <v>1</v>
       </c>
       <c r="E59" s="270">
@@ -10705,11 +10705,11 @@
         <v>174</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="433">
+      <c r="D60" s="441">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>2174309.2246799991</v>
       </c>
-      <c r="E60" s="434"/>
+      <c r="E60" s="442"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -12547,7 +12547,7 @@
         <f>C22/(Dashboard!I5/Data!C4)</f>
         <v>-4.2053758183007348</v>
       </c>
-      <c r="E22" s="440" t="str">
+      <c r="E22" s="448" t="str">
         <f>IF(F23+G23=G21,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12570,7 +12570,7 @@
         <f>C23/(Dashboard!I5/Data!C4)</f>
         <v>-10.005297614055085</v>
       </c>
-      <c r="E23" s="440"/>
+      <c r="E23" s="448"/>
       <c r="F23" s="189">
         <f>D20</f>
         <v>11.676602903912285</v>
@@ -12593,10 +12593,10 @@
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E25" s="114"/>
-      <c r="F25" s="439" t="s">
+      <c r="F25" s="447" t="s">
         <v>307</v>
       </c>
-      <c r="G25" s="439"/>
+      <c r="G25" s="447"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="164" t="str">
@@ -12654,7 +12654,7 @@
         <f t="dataTable" ref="E28:E30" dt2D="0" dtr="0" r1="D27" ca="1"/>
         <v>3.8028951053470363</v>
       </c>
-      <c r="F28" s="441">
+      <c r="F28" s="449">
         <f ca="1">SUM(C17:F17)</f>
         <v>0.79594857520550355</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="E29" s="259">
         <v>4.9437636369511475</v>
       </c>
-      <c r="F29" s="442"/>
+      <c r="F29" s="450"/>
       <c r="G29" s="259">
         <f ca="1">$F$28+E29+$G$21</f>
         <v>13.58411216773554</v>
@@ -12701,7 +12701,7 @@
       <c r="E30" s="261">
         <v>5.4381400006462632</v>
       </c>
-      <c r="F30" s="443"/>
+      <c r="F30" s="451"/>
       <c r="G30" s="261">
         <f ca="1">$F$28+E30+$G$21</f>
         <v>14.078488531430654</v>
@@ -12763,10 +12763,10 @@
       <c r="I34" s="119"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="357" t="s">
+      <c r="C35" s="410" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="438"/>
+      <c r="D35" s="446"/>
       <c r="E35" s="32" t="s">
         <v>292</v>
       </c>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98C6AB-486F-4C29-B104-9811FD8199D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97333FF6-5A5B-4F4D-9A6F-9CCD0542B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="357">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1167,9 +1167,6 @@
     <t>- Total outstanding debt</t>
   </si>
   <si>
-    <t>Exit Year</t>
-  </si>
-  <si>
     <t>Terminal Value Analysis</t>
   </si>
   <si>
@@ -1281,75 +1278,78 @@
     <t>Reasonable Market Price</t>
   </si>
   <si>
-    <t>0683.HK</t>
-  </si>
-  <si>
-    <t>KERRY PPT</t>
-  </si>
-  <si>
     <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/wcdata.html</t>
   </si>
   <si>
-    <t>內地</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>1. 物業租務及其他</t>
-  </si>
-  <si>
-    <t>2. 物業銷售</t>
-  </si>
-  <si>
-    <t>3. 內地酒店營運</t>
-  </si>
-  <si>
-    <t>1. 物业销售曾是最大收入来源，现在在低谷
+    <t>Debt / Equity</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>Most Recent Quarter Inputs</t>
+  </si>
+  <si>
+    <t>Next Review Date:</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Cash Dividend Paid</t>
+  </si>
+  <si>
+    <t>Total Equity per books  =</t>
+  </si>
+  <si>
+    <t>Common Equity =</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>0083.HK</t>
+  </si>
+  <si>
+    <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>1. 93%收入来自香港地区，物业价值长期可靠
 2. Property value is likely to exceed inflation in the long run especially after a debt crisis and the future monetary easing</t>
   </si>
   <si>
-    <t>1. Balance sheet is strong despite a cash liquidity need
+    <t>1. Strong balance sheet that's able to withstand averse market condition
 2. Market price is low compared to the realizable assets</t>
   </si>
   <si>
+    <t>1. 72%收入来自物业销售，22年楼市差，实质比例更高
+2. 物业销售业绩波动较大，难以预测</t>
+  </si>
+  <si>
     <t>1. The room for profitable reinvestment is small
-2. Organic growth rate will be low due to uncertainty</t>
-  </si>
-  <si>
-    <t>1. There is a lack of Cash in the balance sheet
-2. 2/3 of the business is in Mainland China, with high volatility in RE</t>
-  </si>
-  <si>
-    <t>Debt / Equity</t>
-  </si>
-  <si>
-    <t>Type:</t>
-  </si>
-  <si>
-    <t>Most Recent Quarter Inputs</t>
-  </si>
-  <si>
-    <t>Next Review Date:</t>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-  </si>
-  <si>
-    <t>Cash Dividend Paid</t>
-  </si>
-  <si>
-    <t>Total Equity per books  =</t>
-  </si>
-  <si>
-    <t>Common Equity =</t>
+2. Organic growth rate will be low</t>
+  </si>
+  <si>
+    <t>物業銷售</t>
+  </si>
+  <si>
+    <t>物業管理及其他服務</t>
+  </si>
+  <si>
+    <t>酒店經營</t>
+  </si>
+  <si>
+    <t>經營租賃之租金收益</t>
+  </si>
+  <si>
+    <t>Dividend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1372,10 +1372,9 @@
     <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="&quot;Discount rate = &quot;0.00%"/>
     <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="184" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="185" formatCode="&quot;Price_Target_1 = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;Price_Target_2 = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Price_Target_1 = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Price_Target_2 = &quot;0.00"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1581,6 +1580,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2846,19 +2846,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color rgb="FF000000"/>
       </left>
@@ -3014,6 +3001,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3112,12 +3110,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3232,9 +3224,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3573,9 +3562,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3645,9 +3631,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3682,9 +3665,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3706,12 +3686,6 @@
     <xf numFmtId="38" fontId="2" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="2" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3728,9 +3702,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="18" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3760,9 +3731,6 @@
     <xf numFmtId="10" fontId="1" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="19" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3772,15 +3740,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="18" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="22" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3796,16 +3755,13 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3817,7 +3773,7 @@
     <xf numFmtId="3" fontId="11" fillId="11" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3829,32 +3785,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3892,15 +3842,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="183" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3910,10 +3851,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3926,10 +3867,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3937,6 +3878,171 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="19" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3957,160 +4063,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4156,6 +4109,49 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="12" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="16" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="23" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4163,7 +4159,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4261,13 +4257,41 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB6D7A8"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFB6D7A8"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -4487,7 +4511,7 @@
   <dimension ref="A1:L967"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:F23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4515,11 +4539,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="410" t="str">
+      <c r="C2" s="350" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>0683.HK : KERRY PPT</v>
-      </c>
-      <c r="D2" s="411"/>
+        <v>0083.HK : SINO LAND</v>
+      </c>
+      <c r="D2" s="351"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4531,106 +4555,106 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="412" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="413"/>
+      <c r="C3" s="352" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="353"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="420" t="s">
+      <c r="I3" s="364" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="421"/>
+      <c r="J3" s="365"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="414" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="415"/>
+      <c r="C4" s="354" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="355"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="34">
-        <v>19.84</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="193"/>
+      <c r="K4" s="190"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="416">
-        <v>44956</v>
-      </c>
-      <c r="D5" s="415"/>
-      <c r="E5" s="158" t="str">
+      <c r="C5" s="356">
+        <v>44959</v>
+      </c>
+      <c r="D5" s="355"/>
+      <c r="E5" s="155" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="399">
-        <v>1451309952</v>
-      </c>
-      <c r="J5" s="400"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="113"/>
+      <c r="I5" s="366">
+        <v>8061259776</v>
+      </c>
+      <c r="J5" s="367"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="355">
+        <v>340</v>
+      </c>
+      <c r="C6" s="336">
         <v>8</v>
       </c>
-      <c r="D6" s="356">
+      <c r="D6" s="337">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>44985</v>
-      </c>
-      <c r="E6" s="158"/>
-      <c r="G6" s="171" t="s">
+        <v>45169</v>
+      </c>
+      <c r="E6" s="155"/>
+      <c r="G6" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="170"/>
-      <c r="I6" s="422">
+      <c r="H6" s="167"/>
+      <c r="I6" s="368">
         <f>I4*I5/1000000</f>
-        <v>28793.98944768</v>
-      </c>
-      <c r="J6" s="423"/>
-      <c r="K6" s="192"/>
+        <v>80935.048151039999</v>
+      </c>
+      <c r="J6" s="369"/>
+      <c r="K6" s="189"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="182">
+      <c r="C7" s="179">
         <f>(Data!C39)/I4</f>
-        <v>0.18462985164524817</v>
-      </c>
-      <c r="D7" s="182">
+        <v>3.7730094313420892E-2</v>
+      </c>
+      <c r="D7" s="179">
         <f>(Data!C40)/I4</f>
-        <v>1.4029316803564641E-3</v>
-      </c>
-      <c r="E7" s="194"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="191"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="128"/>
+      <c r="C8" s="125"/>
       <c r="E8" s="6"/>
       <c r="G8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="169"/>
+      <c r="H8" s="166"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4643,46 +4667,46 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="157">
+      <c r="I9" s="154">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>2.7798763148330314</v>
-      </c>
-      <c r="J9" s="52">
+        <v>14.111501307152984</v>
+      </c>
+      <c r="J9" s="50">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.35972823490892014</v>
+        <v>7.0864182218025915E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="161">
+      <c r="D10" s="158">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="175">
+      <c r="I10" s="172">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.22477777209221111</v>
-      </c>
-      <c r="J10" s="167">
+        <v>0.51150734690372379</v>
+      </c>
+      <c r="J10" s="164">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>0.32261389064499346</v>
+        <v>2.8028701751985206</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="257">
+        <v>307</v>
+      </c>
+      <c r="C11" s="253">
         <v>0.1</v>
       </c>
-      <c r="D11" s="344">
+      <c r="D11" s="328">
         <f ca="1">$C$11*(2-'Qualitative Analysis'!$E$13+IF($C$5+30&gt;=TODAY(),0.2,0))</f>
         <v>0.16444444444444445</v>
       </c>
@@ -4691,30 +4715,30 @@
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="430" t="s">
+      <c r="I11" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="431"/>
+      <c r="J11" s="377"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="346">
+      <c r="B12" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="330">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="D12" s="345">
+      <c r="D12" s="329">
         <f ca="1">D11+C12</f>
         <v>0.19354444444444446</v>
       </c>
-      <c r="G12" s="171" t="s">
+      <c r="G12" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="170"/>
-      <c r="I12" s="172">
+      <c r="H12" s="167"/>
+      <c r="I12" s="169">
         <v>1</v>
       </c>
-      <c r="J12" s="173" t="str">
+      <c r="J12" s="170" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>HKD</v>
       </c>
@@ -4725,131 +4749,131 @@
       <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="161" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="227">
-        <f ca="1">'FCFF Model'!C33</f>
-        <v>15.507841815017519</v>
-      </c>
-      <c r="E14" s="164" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" s="227">
-        <f ca="1">'FCFF Model'!E33</f>
-        <v>13.58411216773554</v>
-      </c>
-      <c r="G14" s="228" t="s">
+      <c r="D14" s="224">
+        <f ca="1">'FCFF Model'!C34</f>
+        <v>11.094884983632483</v>
+      </c>
+      <c r="E14" s="161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="224">
+        <f ca="1">'FCFF Model'!E34</f>
+        <v>9.6736416683642261</v>
+      </c>
+      <c r="G14" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="239">
-        <f ca="1">IF('FCFF Model'!C36&lt;0, "Error", 'FCFF Model'!C36)</f>
-        <v>14.56222618170788</v>
-      </c>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
+      <c r="H14" s="235">
+        <f ca="1">IF('FCFF Model'!C37&lt;0, "Error", 'FCFF Model'!C37)</f>
+        <v>10.467330324753545</v>
+      </c>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="306" t="s">
-        <v>329</v>
-      </c>
-      <c r="D15" s="120" t="s">
+      <c r="B15" s="125"/>
+      <c r="C15" s="296" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="176"/>
-      <c r="H15" s="85" t="s">
+      <c r="G15" s="173"/>
+      <c r="H15" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="165" t="s">
+      <c r="J15" s="162" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="168">
+      <c r="B16" s="165">
         <f>I4</f>
-        <v>19.84</v>
-      </c>
-      <c r="C16" s="387">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C16" s="404">
         <f ca="1">D11/2</f>
         <v>8.2222222222222224E-2</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="197">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.34823904774097825</v>
-      </c>
-      <c r="E16" s="405">
-        <f>'FCFF Model'!D14</f>
-        <v>0.95</v>
-      </c>
-      <c r="F16" s="203">
+        <v>-3.9659440872267498E-2</v>
+      </c>
+      <c r="E16" s="385">
+        <f>'FCFF Model'!D15</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F16" s="200">
         <f>E16/B16</f>
-        <v>4.7883064516129031E-2</v>
-      </c>
-      <c r="G16" s="427" t="s">
+        <v>5.5776892430278883E-2</v>
+      </c>
+      <c r="G16" s="373" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="424">
-        <f>('FCFF Model'!G21)*Exchange_Rate</f>
-        <v>7.8443999555788881</v>
-      </c>
-      <c r="I16" s="427" t="s">
+      <c r="H16" s="370">
+        <f>('FCFF Model'!G22)*Exchange_Rate</f>
+        <v>5.697384846621274</v>
+      </c>
+      <c r="I16" s="373" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="260">
+      <c r="J16" s="256">
         <f>B16-$H$16</f>
-        <v>11.995600044421112</v>
+        <v>4.3426151533787252</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="361">
-        <v>18.5</v>
-      </c>
-      <c r="C17" s="388"/>
-      <c r="D17" s="201">
+      <c r="B17" s="342">
+        <v>9.65</v>
+      </c>
+      <c r="C17" s="405"/>
+      <c r="D17" s="198">
         <f ca="1">H14/B17-1-C16</f>
-        <v>-0.2950748610488233</v>
-      </c>
-      <c r="E17" s="406"/>
-      <c r="F17" s="204">
+        <v>2.475220757419655E-3</v>
+      </c>
+      <c r="E17" s="386"/>
+      <c r="F17" s="201">
         <f>E16/B17</f>
-        <v>5.1351351351351347E-2</v>
-      </c>
-      <c r="G17" s="428"/>
-      <c r="H17" s="425"/>
-      <c r="I17" s="428"/>
-      <c r="J17" s="259">
+        <v>5.8031088082901548E-2</v>
+      </c>
+      <c r="G17" s="374"/>
+      <c r="H17" s="371"/>
+      <c r="I17" s="374"/>
+      <c r="J17" s="255">
         <f>B17-$H$16</f>
-        <v>10.655600044421112</v>
+        <v>3.9526151533787264</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="362">
-        <v>18</v>
-      </c>
-      <c r="C18" s="389"/>
-      <c r="D18" s="202">
+      <c r="B18" s="343">
+        <v>8.5</v>
+      </c>
+      <c r="C18" s="406"/>
+      <c r="D18" s="199">
         <f ca="1">H14/B18-1-C16</f>
-        <v>-0.27320965657178442</v>
-      </c>
-      <c r="E18" s="407"/>
-      <c r="F18" s="205">
+        <v>0.14922840421937142</v>
+      </c>
+      <c r="E18" s="387"/>
+      <c r="F18" s="202">
         <f>E16/B18</f>
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="G18" s="429"/>
-      <c r="H18" s="426"/>
-      <c r="I18" s="429"/>
-      <c r="J18" s="261">
+        <v>6.5882352941176461E-2</v>
+      </c>
+      <c r="G18" s="375"/>
+      <c r="H18" s="372"/>
+      <c r="I18" s="375"/>
+      <c r="J18" s="257">
         <f>B18-$H$16</f>
-        <v>10.155600044421112</v>
+        <v>2.802615153378726</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4862,10 +4886,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="408"/>
-      <c r="E20" s="409"/>
+        <v>338</v>
+      </c>
+      <c r="D20" s="389"/>
+      <c r="E20" s="390"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -4877,32 +4901,32 @@
       <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="417" t="s">
-        <v>330</v>
-      </c>
-      <c r="D21" s="418"/>
-      <c r="E21" s="418"/>
-      <c r="F21" s="418"/>
-      <c r="G21" s="418"/>
-      <c r="H21" s="418"/>
-      <c r="I21" s="418"/>
-      <c r="J21" s="419"/>
+      <c r="C21" s="359" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="360"/>
+      <c r="E21" s="360"/>
+      <c r="F21" s="360"/>
+      <c r="G21" s="360"/>
+      <c r="H21" s="360"/>
+      <c r="I21" s="360"/>
+      <c r="J21" s="361"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="382" t="s">
-        <v>346</v>
+      <c r="C22" s="378" t="s">
+        <v>349</v>
       </c>
       <c r="D22" s="379"/>
       <c r="E22" s="379"/>
       <c r="F22" s="379"/>
-      <c r="G22" s="382" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" s="382"/>
+      <c r="G22" s="378" t="s">
+        <v>350</v>
+      </c>
+      <c r="H22" s="378"/>
       <c r="I22" s="379"/>
       <c r="J22" s="379"/>
     </row>
@@ -4911,18 +4935,18 @@
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="383" t="s">
-        <v>345</v>
-      </c>
-      <c r="D23" s="384"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="384"/>
-      <c r="G23" s="383" t="s">
-        <v>347</v>
-      </c>
-      <c r="H23" s="383"/>
-      <c r="I23" s="384"/>
-      <c r="J23" s="384"/>
+      <c r="C23" s="362" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="363"/>
+      <c r="E23" s="363"/>
+      <c r="F23" s="363"/>
+      <c r="G23" s="362" t="s">
+        <v>351</v>
+      </c>
+      <c r="H23" s="362"/>
+      <c r="I23" s="363"/>
+      <c r="J23" s="363"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4949,7 +4973,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="170"/>
+      <c r="H25" s="167"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
@@ -4957,68 +4981,68 @@
       <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="385"/>
-      <c r="D26" s="386"/>
-      <c r="E26" s="385"/>
-      <c r="F26" s="386"/>
-      <c r="G26" s="432"/>
-      <c r="H26" s="433"/>
-      <c r="I26" s="381" t="s">
+      <c r="C26" s="357"/>
+      <c r="D26" s="358"/>
+      <c r="E26" s="357"/>
+      <c r="F26" s="358"/>
+      <c r="G26" s="380"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="403" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="381"/>
+      <c r="J26" s="403"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="404">
+      <c r="C27" s="384">
         <f>C31/D25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="377"/>
-      <c r="E27" s="403">
+      <c r="D27" s="383"/>
+      <c r="E27" s="382">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="377"/>
-      <c r="G27" s="390">
+      <c r="F27" s="383"/>
+      <c r="G27" s="391">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="391"/>
-      <c r="I27" s="392">
+      <c r="H27" s="392"/>
+      <c r="I27" s="394">
         <f>C27+E27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="392"/>
+      <c r="J27" s="394"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="378"/>
+      <c r="C28" s="418"/>
       <c r="D28" s="379"/>
-      <c r="E28" s="378"/>
+      <c r="E28" s="418"/>
       <c r="F28" s="379"/>
-      <c r="G28" s="399"/>
-      <c r="H28" s="400"/>
-      <c r="I28" s="367">
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
+      <c r="I28" s="409">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="367"/>
+      <c r="J28" s="409"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="380"/>
+      <c r="C29" s="388"/>
       <c r="D29" s="379"/>
-      <c r="E29" s="380"/>
+      <c r="E29" s="388"/>
       <c r="F29" s="379"/>
-      <c r="G29" s="393"/>
-      <c r="H29" s="394"/>
+      <c r="G29" s="395"/>
+      <c r="H29" s="396"/>
       <c r="I29" s="401"/>
       <c r="J29" s="401"/>
     </row>
@@ -5026,21 +5050,21 @@
       <c r="B30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="365">
+      <c r="C30" s="407">
         <f>C29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D30" s="372"/>
-      <c r="E30" s="365">
+      <c r="D30" s="414"/>
+      <c r="E30" s="407">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="372"/>
-      <c r="G30" s="395">
+      <c r="F30" s="414"/>
+      <c r="G30" s="397">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="396"/>
+      <c r="H30" s="398"/>
       <c r="I30" s="402"/>
       <c r="J30" s="402"/>
     </row>
@@ -5048,64 +5072,64 @@
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="373">
+      <c r="C31" s="415">
         <f>C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="374"/>
-      <c r="E31" s="366">
+      <c r="D31" s="416"/>
+      <c r="E31" s="408">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="375"/>
-      <c r="G31" s="397">
+      <c r="F31" s="417"/>
+      <c r="G31" s="399">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="398"/>
-      <c r="I31" s="366">
+      <c r="H31" s="400"/>
+      <c r="I31" s="408">
         <f>C31+E31+G31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="366"/>
+      <c r="J31" s="408"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="368"/>
-      <c r="D32" s="369"/>
-      <c r="E32" s="376" t="str">
+      <c r="C32" s="410"/>
+      <c r="D32" s="411"/>
+      <c r="E32" s="393" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>-</v>
       </c>
-      <c r="F32" s="377"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="376" t="str">
+      <c r="F32" s="383"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="393" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
         <v/>
       </c>
-      <c r="J32" s="376"/>
+      <c r="J32" s="393"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="370"/>
-      <c r="D33" s="371"/>
-      <c r="E33" s="365" t="str">
+      <c r="C33" s="412"/>
+      <c r="D33" s="413"/>
+      <c r="E33" s="407" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="372"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="365" t="str">
+      <c r="F33" s="414"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="407" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J33" s="365"/>
+      <c r="J33" s="407"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6043,6 +6067,39 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -6059,39 +6116,6 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="lessThan">
@@ -6141,8 +6165,8 @@
   </sheetPr>
   <dimension ref="A1:N963"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6183,21 +6207,21 @@
       <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="190">
-        <v>44561</v>
+      <c r="C3" s="187">
+        <v>44742</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="222">
+      <c r="E3" s="219">
         <v>1</v>
       </c>
-      <c r="F3" s="220">
+      <c r="F3" s="217">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
-        <v>10358011</v>
+        <v>5735396</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="217"/>
+      <c r="J3" s="214"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6215,13 +6239,13 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="221">
+      <c r="F4" s="218">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
-        <v>5627619.4399999995</v>
+        <v>6166330.5449999999</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="116"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6233,472 +6257,478 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="45" t="str">
-        <f>"FY "&amp;YEAR($C$3)</f>
-        <v>FY 2021</v>
-      </c>
-      <c r="D6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-1</f>
-        <v>FY 2020</v>
-      </c>
-      <c r="E6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-2</f>
-        <v>FY 2019</v>
-      </c>
-      <c r="F6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-3</f>
-        <v>FY 2018</v>
-      </c>
-      <c r="G6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-4</f>
-        <v>FY 2017</v>
-      </c>
-      <c r="H6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-5</f>
-        <v>FY 2016</v>
-      </c>
-      <c r="I6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-6</f>
-        <v>FY 2015</v>
-      </c>
-      <c r="J6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-7</f>
-        <v>FY 2014</v>
-      </c>
-      <c r="K6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-8</f>
-        <v>FY 2013</v>
-      </c>
-      <c r="L6" s="46" t="str">
-        <f>"FY "&amp;YEAR($C$3)-9</f>
-        <v>FY 2012</v>
-      </c>
-      <c r="M6" s="315" t="str">
-        <f>"FY "&amp;YEAR($C$3)-10</f>
-        <v>FY 2011</v>
+      <c r="C6" s="347">
+        <f>C3</f>
+        <v>44742</v>
+      </c>
+      <c r="D6" s="348">
+        <f>EOMONTH(EDATE(C6,-12),0)</f>
+        <v>44377</v>
+      </c>
+      <c r="E6" s="348">
+        <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
+        <v>44012</v>
+      </c>
+      <c r="F6" s="348">
+        <f t="shared" si="0"/>
+        <v>43646</v>
+      </c>
+      <c r="G6" s="348">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="H6" s="348">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="I6" s="348">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="J6" s="348">
+        <f t="shared" si="0"/>
+        <v>42185</v>
+      </c>
+      <c r="K6" s="348">
+        <f t="shared" si="0"/>
+        <v>41820</v>
+      </c>
+      <c r="L6" s="348">
+        <f t="shared" si="0"/>
+        <v>41455</v>
+      </c>
+      <c r="M6" s="348">
+        <f t="shared" si="0"/>
+        <v>41090</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="37">
-        <v>15326764</v>
+        <v>15554174</v>
       </c>
       <c r="D7" s="37">
-        <v>14526102</v>
+        <v>24545345</v>
       </c>
       <c r="E7" s="37">
-        <v>18025422</v>
-      </c>
-      <c r="F7" s="37"/>
+        <v>5886888</v>
+      </c>
+      <c r="F7" s="37">
+        <v>8009912</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="316"/>
+      <c r="M7" s="302"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="14">
-        <f t="shared" ref="C8:L8" si="0">IF(D7="","",C7/D7-1)</f>
-        <v>5.511884743753015E-2</v>
+        <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
+        <v>-0.36630860148838817</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" si="0"/>
-        <v>-0.19413248688435703</v>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>3.1694941368002922</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.26504960354121243</v>
       </c>
       <c r="F8" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M8" s="265"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8" s="260"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="37">
-        <v>6583757</v>
+        <v>7301864</v>
       </c>
       <c r="D9" s="37">
-        <v>6139239</v>
+        <v>11010749</v>
       </c>
       <c r="E9" s="37">
-        <v>9041440</v>
-      </c>
-      <c r="F9" s="37"/>
+        <v>2437232</v>
+      </c>
+      <c r="F9" s="37">
+        <v>3519324</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="316"/>
+      <c r="M9" s="302"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" ref="C10:M10" si="1">IF(C7="","",(C7-C9)/C7)</f>
-        <v>0.57044050524950995</v>
+        <f t="shared" ref="C10:M10" si="2">IF(C7="","",(C7-C9)/C7)</f>
+        <v>0.53055276352186875</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" si="1"/>
-        <v>0.57736500817631597</v>
+        <f t="shared" si="2"/>
+        <v>0.55141192759767688</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="1"/>
-        <v>0.49840619542776865</v>
-      </c>
-      <c r="F10" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>0.58598974534592807</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.56062888081666817</v>
       </c>
       <c r="G10" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H10" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I10" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K10" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L10" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M10" s="265" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="260" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="37">
-        <v>2003343</v>
+        <v>867483</v>
       </c>
       <c r="D11" s="37">
-        <v>1613699</v>
+        <v>823281</v>
       </c>
       <c r="E11" s="37">
-        <v>1602120</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>843993</v>
+      </c>
+      <c r="F11" s="37">
+        <v>932270</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="316"/>
+      <c r="M11" s="302"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" ref="C12:M12" si="2">IF(C7="","",C10-C13)</f>
-        <v>0.13070880454608685</v>
+        <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
+        <v>5.5771717610976934E-2</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" si="2"/>
-        <v>0.11108960958693531</v>
+        <f t="shared" si="3"/>
+        <v>3.3541227471033719E-2</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="2"/>
-        <v>8.8881136874354505E-2</v>
-      </c>
-      <c r="F12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>0.14336827879178266</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="3"/>
+        <v>0.11638954335578222</v>
       </c>
       <c r="G12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M12" s="265" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" s="260" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C7)</f>
-        <v>0.4397317007034231</v>
+        <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
+        <v>0.47478104591089182</v>
       </c>
       <c r="D13" s="14">
-        <f t="shared" si="3"/>
-        <v>0.46627539858938066</v>
+        <f t="shared" si="4"/>
+        <v>0.51787070012664316</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="3"/>
-        <v>0.40952505855341415</v>
-      </c>
-      <c r="F13" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0.44262146655414542</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="4"/>
+        <v>0.44423933746088595</v>
       </c>
       <c r="G13" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H13" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I13" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J13" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K13" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L13" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M13" s="265" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M13" s="260" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="29">
-        <f t="shared" ref="C14:M14" si="4">IF(C7="","",C7-C9-C11)</f>
-        <v>6739664</v>
+        <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
+        <v>7384827</v>
       </c>
       <c r="D14" s="29">
-        <f t="shared" si="4"/>
-        <v>6773164</v>
+        <f t="shared" si="5"/>
+        <v>12711315</v>
       </c>
       <c r="E14" s="29">
-        <f t="shared" si="4"/>
-        <v>7381862</v>
-      </c>
-      <c r="F14" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>2605663</v>
+      </c>
+      <c r="F14" s="29">
+        <f t="shared" si="5"/>
+        <v>3558318</v>
       </c>
       <c r="G14" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H14" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I14" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J14" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K14" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L14" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M14" s="317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M14" s="303" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>-4.9459897914770701E-3</v>
+        <v>-0.41903516669990476</v>
       </c>
       <c r="D15" s="14">
-        <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>-8.2458599198955498E-2</v>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="D15:M15" si="6">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
+        <v>3.8783419037688298</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.26772621221599646</v>
       </c>
       <c r="F15" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G15" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H15" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I15" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J15" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K15" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L15" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M15" s="265" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M15" s="260" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="180">
+      <c r="C16" s="177">
         <f>IF(C14="","",C14*(1-'FCFF Model'!$D$6))</f>
-        <v>5627619.4399999995</v>
-      </c>
-      <c r="D16" s="180">
+        <v>6166330.5449999999</v>
+      </c>
+      <c r="D16" s="177">
         <f>IF(D14="","",D14*(1-'FCFF Model'!$D$6))</f>
-        <v>5655591.9399999995</v>
-      </c>
-      <c r="E16" s="180">
+        <v>10613948.025</v>
+      </c>
+      <c r="E16" s="177">
         <f>IF(E14="","",E14*(1-'FCFF Model'!$D$6))</f>
-        <v>6163854.7699999996</v>
-      </c>
-      <c r="F16" s="180" t="str">
+        <v>2175728.605</v>
+      </c>
+      <c r="F16" s="177">
         <f>IF(F14="","",F14*(1-'FCFF Model'!$D$6))</f>
-        <v/>
-      </c>
-      <c r="G16" s="180" t="str">
+        <v>2971195.53</v>
+      </c>
+      <c r="G16" s="177" t="str">
         <f>IF(G14="","",G14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="H16" s="180" t="str">
+      <c r="H16" s="177" t="str">
         <f>IF(H14="","",H14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="I16" s="180" t="str">
+      <c r="I16" s="177" t="str">
         <f>IF(I14="","",I14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="J16" s="180" t="str">
+      <c r="J16" s="177" t="str">
         <f>IF(J14="","",J14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="K16" s="180" t="str">
+      <c r="K16" s="177" t="str">
         <f>IF(K14="","",K14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="L16" s="180" t="str">
+      <c r="L16" s="177" t="str">
         <f>IF(L14="","",L14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="M16" s="318" t="str">
+      <c r="M16" s="304" t="str">
         <f>IF(M14="","",M14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
@@ -6706,208 +6736,216 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="166">
-        <f t="shared" ref="C17:M17" si="6">IF(C7="","",C16/C7)</f>
-        <v>0.36717597008735825</v>
-      </c>
-      <c r="D17" s="166">
-        <f t="shared" si="6"/>
-        <v>0.38933995782213282</v>
-      </c>
-      <c r="E17" s="166">
-        <f t="shared" si="6"/>
-        <v>0.34195342389210082</v>
-      </c>
-      <c r="F17" s="166" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G17" s="166" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H17" s="166" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I17" s="166" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J17" s="166" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K17" s="166" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L17" s="166" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M17" s="319" t="str">
-        <f t="shared" si="6"/>
+      <c r="C17" s="163">
+        <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
+        <v>0.39644217333559467</v>
+      </c>
+      <c r="D17" s="163">
+        <f t="shared" si="7"/>
+        <v>0.43242203460574707</v>
+      </c>
+      <c r="E17" s="163">
+        <f t="shared" si="7"/>
+        <v>0.36958892457271142</v>
+      </c>
+      <c r="F17" s="163">
+        <f t="shared" si="7"/>
+        <v>0.37093984677983977</v>
+      </c>
+      <c r="G17" s="163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H17" s="163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I17" s="163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J17" s="163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K17" s="163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L17" s="163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M17" s="305" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="C18" s="181">
-        <v>562656</v>
-      </c>
-      <c r="D18" s="181">
-        <v>781715</v>
-      </c>
-      <c r="E18" s="181">
-        <v>812565</v>
-      </c>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="320"/>
+      <c r="B18" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="178">
+        <v>27282</v>
+      </c>
+      <c r="D18" s="178">
+        <v>39885</v>
+      </c>
+      <c r="E18" s="178">
+        <v>31747</v>
+      </c>
+      <c r="F18" s="178">
+        <v>60128</v>
+      </c>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="306"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="37">
-        <v>10358011</v>
+        <v>5735396</v>
       </c>
       <c r="D19" s="37">
-        <v>5403203</v>
+        <v>9646036</v>
       </c>
       <c r="E19" s="37">
-        <v>6897450</v>
-      </c>
-      <c r="F19" s="37"/>
+        <v>1688050</v>
+      </c>
+      <c r="F19" s="37">
+        <v>6914903</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="316"/>
+      <c r="M19" s="302"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" ref="C20:M20" si="7">IF(C7="","",C19/C7)</f>
-        <v>0.67581199788813873</v>
+        <f t="shared" ref="C20:M20" si="8">IF(C7="","",C19/C7)</f>
+        <v>0.3687367776649535</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="7"/>
-        <v>0.37196510116753967</v>
+        <f t="shared" si="8"/>
+        <v>0.39298840574455157</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="7"/>
-        <v>0.38265123557162767</v>
-      </c>
-      <c r="F20" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>0.28674742920198243</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="8"/>
+        <v>0.86329325465747941</v>
       </c>
       <c r="G20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L20" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M20" s="265" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M20" s="260" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="219">
-        <v>57965822</v>
+      <c r="C21" s="216">
+        <v>71424985.186999992</v>
       </c>
       <c r="D21" s="37">
-        <v>46824778</v>
+        <v>74808371</v>
       </c>
       <c r="E21" s="37">
-        <v>30542596</v>
-      </c>
-      <c r="F21" s="37"/>
+        <v>80391448</v>
+      </c>
+      <c r="F21" s="37">
+        <v>74544144</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
-      <c r="M21" s="316"/>
+      <c r="M21" s="302"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="219">
-        <v>20068482</v>
+      <c r="C22" s="216">
+        <v>15104618.66</v>
       </c>
       <c r="D22" s="37">
-        <v>20617000</v>
+        <v>17965728</v>
       </c>
       <c r="E22" s="37">
-        <v>19835482</v>
-      </c>
-      <c r="F22" s="37"/>
+        <v>32319376</v>
+      </c>
+      <c r="F22" s="37">
+        <v>25385564</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
-      <c r="M22" s="316"/>
+      <c r="M22" s="302"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="219">
+      <c r="C23" s="216">
         <v>3146501.6940000001</v>
       </c>
       <c r="D23" s="37">
@@ -6916,46 +6954,50 @@
       <c r="E23" s="37">
         <v>864027</v>
       </c>
-      <c r="F23" s="37"/>
+      <c r="F23" s="37">
+        <v>0</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="316"/>
+      <c r="M23" s="302"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="358">
+      <c r="C24" s="339">
         <v>31180.352999999999</v>
       </c>
-      <c r="D24" s="177">
+      <c r="D24" s="174">
         <v>49241</v>
       </c>
-      <c r="E24" s="177">
+      <c r="E24" s="174">
         <v>32031</v>
       </c>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="321"/>
+      <c r="F24" s="174">
+        <v>0</v>
+      </c>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="307"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="219">
+      <c r="C25" s="216">
         <v>2956802.0830000001</v>
       </c>
       <c r="D25" s="37">
@@ -6964,390 +7006,400 @@
       <c r="E25" s="37">
         <v>6139127</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="37">
+        <v>6755357</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="316"/>
+      <c r="M25" s="302"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="218">
+      <c r="C26" s="215">
         <v>13550.745000000001</v>
       </c>
-      <c r="D26" s="177">
+      <c r="D26" s="174">
         <v>19736</v>
       </c>
-      <c r="E26" s="177">
+      <c r="E26" s="174">
         <v>7537</v>
       </c>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="321"/>
+      <c r="F26" s="174">
+        <v>0</v>
+      </c>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="307"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="29">
-        <f t="shared" ref="C27:M27" si="8">IF(C7="","",C23+C25)</f>
+        <f t="shared" ref="C27:M27" si="9">IF(C7="","",C23+C25)</f>
         <v>6103303.7770000007</v>
       </c>
       <c r="D27" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7025739</v>
       </c>
       <c r="E27" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7003154</v>
       </c>
-      <c r="F27" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="F27" s="29">
+        <f t="shared" si="9"/>
+        <v>6755357</v>
       </c>
       <c r="G27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K27" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L27" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M27" s="317" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M27" s="303" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="219">
-        <v>128099808</v>
+      <c r="C28" s="216">
+        <v>158228515.46700001</v>
       </c>
       <c r="D28" s="37">
-        <v>124656340</v>
+        <v>156808599</v>
       </c>
       <c r="E28" s="37">
-        <v>115383027</v>
-      </c>
-      <c r="F28" s="37"/>
+        <v>145759189</v>
+      </c>
+      <c r="F28" s="37">
+        <v>146162104</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
-      <c r="M28" s="316"/>
+      <c r="M28" s="302"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="175" t="s">
         <v>282</v>
       </c>
-      <c r="C29" s="218">
-        <v>116828895</v>
-      </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="321"/>
+      <c r="C29" s="215">
+        <v>157397300.09900001</v>
+      </c>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="307"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="219">
-        <v>23614144</v>
+      <c r="C30" s="216">
+        <v>1285288.264</v>
       </c>
       <c r="D30" s="37">
-        <v>21538970</v>
+        <v>1376283</v>
       </c>
       <c r="E30" s="37">
-        <v>15235372</v>
-      </c>
-      <c r="F30" s="37"/>
+        <v>1367290</v>
+      </c>
+      <c r="F30" s="37">
+        <v>219236</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
-      <c r="M30" s="316"/>
+      <c r="M30" s="302"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C31" s="219">
-        <v>16946370</v>
+      <c r="B31" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" s="216">
+        <v>44784474.113000005</v>
       </c>
       <c r="D31" s="37">
-        <v>16429494</v>
+        <v>3591931</v>
       </c>
       <c r="E31" s="37">
-        <v>11743843</v>
-      </c>
-      <c r="F31" s="37"/>
+        <v>6018531</v>
+      </c>
+      <c r="F31" s="37">
+        <v>11404920</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
-      <c r="M31" s="316"/>
+      <c r="M31" s="302"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" ref="C32:M32" si="9">IF(D7="","",(C30-D30)/C30)</f>
-        <v>8.7878434212986925E-2</v>
+        <f t="shared" ref="C32:M32" si="10">IF(D7="","",(C30-D30)/C30)</f>
+        <v>-7.0797142204357691E-2</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="9"/>
-        <v>0.29266014113023975</v>
-      </c>
-      <c r="E32" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>6.5342665716280734E-3</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="10"/>
+        <v>0.83965654689202729</v>
       </c>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J32" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K32" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L32" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M32" s="265" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M32" s="260" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="323">
-        <f t="shared" ref="C33:M33" si="10">IF(D7="","",(C7-D7)*$D$49)</f>
-        <v>55245.678000000007</v>
-      </c>
-      <c r="D33" s="323">
-        <f t="shared" si="10"/>
-        <v>-241453.08000000002</v>
-      </c>
-      <c r="E33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L33" s="323" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M33" s="324" t="str">
-        <f t="shared" si="10"/>
+      <c r="C33" s="309">
+        <f t="shared" ref="C33:M33" si="11">IF(D7="","",(C7-D7)*$D$49)</f>
+        <v>-769644.23759999999</v>
+      </c>
+      <c r="D33" s="309">
+        <f t="shared" si="11"/>
+        <v>1597163.9191999999</v>
+      </c>
+      <c r="E33" s="309">
+        <f t="shared" si="11"/>
+        <v>-181730.85439999998</v>
+      </c>
+      <c r="F33" s="309" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G33" s="309" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H33" s="309" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I33" s="309" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J33" s="309" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K33" s="309" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L33" s="309" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M33" s="310" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="180">
-        <f t="shared" ref="C34:M34" si="11">IF(D7="","",C30-D30+C33)</f>
-        <v>2130419.6779999998</v>
-      </c>
-      <c r="D34" s="180">
-        <f t="shared" si="11"/>
-        <v>6062144.9199999999</v>
-      </c>
-      <c r="E34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L34" s="180" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M34" s="318" t="str">
-        <f t="shared" si="11"/>
+      <c r="C34" s="177">
+        <f t="shared" ref="C34:M34" si="12">IF(D7="","",C30-D30+C33)</f>
+        <v>-860638.97360000003</v>
+      </c>
+      <c r="D34" s="177">
+        <f t="shared" si="12"/>
+        <v>1606156.9191999999</v>
+      </c>
+      <c r="E34" s="177">
+        <f t="shared" si="12"/>
+        <v>966323.14560000005</v>
+      </c>
+      <c r="F34" s="177" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G34" s="177" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H34" s="177" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I34" s="177" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J34" s="177" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K34" s="177" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L34" s="177" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M34" s="304" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="322" t="s">
+      <c r="B35" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="313">
-        <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
-        <v>0.37856498661892463</v>
-      </c>
-      <c r="D35" s="313">
-        <f t="shared" si="12"/>
-        <v>1.0718851332120685</v>
-      </c>
-      <c r="E35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L35" s="313" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M35" s="314" t="str">
-        <f t="shared" si="12"/>
+      <c r="C35" s="300">
+        <f t="shared" ref="C35:M35" si="13">IF(C34="","",C34/C16)</f>
+        <v>-0.13957068426989427</v>
+      </c>
+      <c r="D35" s="300">
+        <f t="shared" si="13"/>
+        <v>0.15132511629196524</v>
+      </c>
+      <c r="E35" s="300">
+        <f t="shared" si="13"/>
+        <v>0.44413772167140309</v>
+      </c>
+      <c r="F35" s="300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G35" s="300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H35" s="300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I35" s="300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J35" s="300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K35" s="300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L35" s="300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M35" s="301" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="6"/>
@@ -7365,157 +7417,161 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="211" t="s">
-        <v>354</v>
-      </c>
-      <c r="C37" s="208">
-        <v>5316230</v>
-      </c>
-      <c r="D37" s="208">
-        <v>1966277</v>
-      </c>
-      <c r="E37" s="208">
-        <v>1965289</v>
-      </c>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="208"/>
-      <c r="L37" s="208"/>
-      <c r="M37" s="209"/>
+      <c r="B37" s="208" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="205">
+        <v>3053687</v>
+      </c>
+      <c r="D37" s="205">
+        <v>508443</v>
+      </c>
+      <c r="E37" s="205">
+        <v>1287845</v>
+      </c>
+      <c r="F37" s="205">
+        <v>822878</v>
+      </c>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="206"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="207">
-        <v>40396</v>
-      </c>
-      <c r="D38" s="207">
+      <c r="C38" s="204">
         <v>0</v>
       </c>
-      <c r="E38" s="207">
+      <c r="D38" s="204">
         <v>0</v>
       </c>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="210"/>
+      <c r="E38" s="204">
+        <v>0</v>
+      </c>
+      <c r="F38" s="204">
+        <v>0</v>
+      </c>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="207"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="176" t="s">
         <v>278</v>
       </c>
-      <c r="C39" s="213">
-        <f t="shared" ref="C39:M39" si="13">IF(C37="","",C37*$C$4/Common_Shares)</f>
-        <v>3.663056256641724</v>
-      </c>
-      <c r="D39" s="213">
-        <f t="shared" si="13"/>
-        <v>1.3548291302559745</v>
-      </c>
-      <c r="E39" s="213">
-        <f t="shared" si="13"/>
-        <v>1.3541483659584248</v>
-      </c>
-      <c r="F39" s="213" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G39" s="213" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H39" s="213" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I39" s="213" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J39" s="213" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K39" s="213" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L39" s="213" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M39" s="214" t="str">
-        <f t="shared" si="13"/>
+      <c r="C39" s="210">
+        <f t="shared" ref="C39:M39" si="14">IF(C37="","",C37*$C$4/Common_Shares)</f>
+        <v>0.37881014690674569</v>
+      </c>
+      <c r="D39" s="210">
+        <f t="shared" si="14"/>
+        <v>6.3072399864068096E-2</v>
+      </c>
+      <c r="E39" s="210">
+        <f t="shared" si="14"/>
+        <v>0.15975728804003747</v>
+      </c>
+      <c r="F39" s="210">
+        <f t="shared" si="14"/>
+        <v>0.10207808988489295</v>
+      </c>
+      <c r="G39" s="210" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H39" s="210" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I39" s="210" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J39" s="210" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K39" s="210" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L39" s="210" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M39" s="211" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="212" t="s">
+      <c r="B40" s="209" t="s">
         <v>279</v>
       </c>
-      <c r="C40" s="215">
-        <f t="shared" ref="C40:M40" si="14">IF(C38="","",C38*$C$4/Common_Shares)</f>
-        <v>2.7834164538272248E-2</v>
-      </c>
-      <c r="D40" s="215">
-        <f t="shared" si="14"/>
+      <c r="C40" s="212">
+        <f t="shared" ref="C40:M40" si="15">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="215">
-        <f t="shared" si="14"/>
+      <c r="D40" s="212">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F40" s="215" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G40" s="215" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H40" s="215" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I40" s="215" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J40" s="215" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K40" s="215" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L40" s="215" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M40" s="216" t="str">
-        <f t="shared" si="14"/>
+      <c r="E40" s="212">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="212">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H40" s="212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I40" s="212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J40" s="212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K40" s="212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L40" s="212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M40" s="213" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="6"/>
@@ -7532,255 +7588,255 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="50">
         <f>IF(C29="","",C25/C28)</f>
-        <v>2.3082018069847537E-2</v>
-      </c>
-      <c r="D42" s="52" t="str">
-        <f t="shared" ref="D42:M42" si="15">IF(D29="","",D25/D29)</f>
-        <v/>
-      </c>
-      <c r="E42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L42" s="52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M42" s="264" t="str">
-        <f t="shared" si="15"/>
+        <v>1.8686910347816971E-2</v>
+      </c>
+      <c r="D42" s="50" t="str">
+        <f t="shared" ref="D42:M42" si="16">IF(D29="","",D25/D29)</f>
+        <v/>
+      </c>
+      <c r="E42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L42" s="50" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M42" s="259" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="48" t="s">
-        <v>349</v>
+      <c r="B43" s="46" t="s">
+        <v>337</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" ref="C43:M43" si="16">IF(C29="","",C27/C29)</f>
-        <v>5.2241389229950357E-2</v>
+        <f t="shared" ref="C43:M43" si="17">IF(C29="","",C27/C29)</f>
+        <v>3.8776419755365152E-2</v>
       </c>
       <c r="D43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L43" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M43" s="265" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M43" s="260" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="54">
-        <f t="shared" ref="C44:M44" si="17">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>1.1042648778843502</v>
-      </c>
-      <c r="D44" s="54">
-        <f t="shared" si="17"/>
-        <v>0.96405004512692549</v>
-      </c>
-      <c r="E44" s="54">
-        <f t="shared" si="17"/>
-        <v>1.0540767774062945</v>
-      </c>
-      <c r="F44" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="G44" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H44" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="I44" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J44" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="K44" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L44" s="54" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M44" s="266" t="str">
-        <f t="shared" si="17"/>
+      <c r="C44" s="52">
+        <f t="shared" ref="C44:M44" si="18">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
+        <v>1.2099720528133233</v>
+      </c>
+      <c r="D44" s="52">
+        <f t="shared" si="18"/>
+        <v>1.8092495323267772</v>
+      </c>
+      <c r="E44" s="52">
+        <f t="shared" si="18"/>
+        <v>0.37206992734987693</v>
+      </c>
+      <c r="F44" s="52">
+        <f t="shared" si="18"/>
+        <v>0.52674018560381042</v>
+      </c>
+      <c r="G44" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H44" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I44" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J44" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K44" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L44" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M44" s="261" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:M45" si="18">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
-        <v>9.9981174277839951E-2</v>
+        <f t="shared" ref="C45:M45" si="19">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
+        <v>4.4243492626456337E-3</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="18"/>
-        <v>0.13821983769217977</v>
+        <f t="shared" si="19"/>
+        <v>3.7577911542486567E-3</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="18"/>
-        <v>0.13182740838652174</v>
-      </c>
-      <c r="F45" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>1.4591433842917187E-2</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="19"/>
+        <v>2.0236971748540562E-2</v>
       </c>
       <c r="G45" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J45" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K45" s="14" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L45" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M45" s="265" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M45" s="260" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="55">
-        <f t="shared" ref="C46:M46" si="19">IF(C21="","",C21/C22)</f>
-        <v>2.8884009263879551</v>
-      </c>
-      <c r="D46" s="55">
-        <f t="shared" si="19"/>
-        <v>2.2711732065770964</v>
-      </c>
-      <c r="E46" s="55">
-        <f t="shared" si="19"/>
-        <v>1.5397960079820596</v>
-      </c>
-      <c r="F46" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G46" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H46" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I46" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J46" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K46" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L46" s="55" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M46" s="267" t="str">
-        <f t="shared" si="19"/>
+      <c r="C46" s="53">
+        <f t="shared" ref="C46:M46" si="20">IF(C21="","",C21/C22)</f>
+        <v>4.7286850992238154</v>
+      </c>
+      <c r="D46" s="53">
+        <f t="shared" si="20"/>
+        <v>4.1639487695683695</v>
+      </c>
+      <c r="E46" s="53">
+        <f t="shared" si="20"/>
+        <v>2.4874071826139219</v>
+      </c>
+      <c r="F46" s="53">
+        <f t="shared" si="20"/>
+        <v>2.9364777556252051</v>
+      </c>
+      <c r="G46" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H46" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I46" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J46" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K46" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L46" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M46" s="262" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N46" s="6"/>
@@ -7804,10 +7860,10 @@
       <c r="B48" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -7815,21 +7871,21 @@
         <v>81</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="439">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="E49" s="440"/>
-      <c r="F49" s="348" t="s">
-        <v>339</v>
+      <c r="D49" s="424">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="E49" s="425"/>
+      <c r="F49" s="332" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="55" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="434" t="s">
+      <c r="D50" s="419" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="379"/>
@@ -7837,462 +7893,462 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="55"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="435">
+      <c r="C52" s="57"/>
+      <c r="D52" s="420">
         <v>5</v>
       </c>
-      <c r="E52" s="436"/>
-      <c r="F52" s="60"/>
+      <c r="E52" s="421"/>
+      <c r="F52" s="58"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="437" t="s">
+      <c r="D53" s="422" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="438"/>
-      <c r="F53" s="63" t="s">
+      <c r="E53" s="423"/>
+      <c r="F53" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="64" t="str">
+      <c r="B54" s="62">
         <f>C6</f>
-        <v>FY 2021</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66">
+        <v>44742</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E54" s="67">
-        <f t="shared" ref="E54:E64" si="20">C54*D54</f>
+      <c r="E54" s="65">
+        <f t="shared" ref="E54:E64" si="21">C54*D54</f>
         <v>0</v>
       </c>
-      <c r="F54" s="68">
+      <c r="F54" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="69">
+      <c r="B55" s="67">
         <f>IF(D7="","",-1)</f>
         <v>-1</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66">
-        <f t="shared" ref="D55:D64" si="21">IF(B55&lt;0,(D$52+B55)/D$52,0)</f>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64">
+        <f t="shared" ref="D55:D64" si="22">IF(B55&lt;0,(D$52+B55)/D$52,0)</f>
         <v>0.8</v>
       </c>
-      <c r="E55" s="67">
-        <f t="shared" si="20"/>
+      <c r="E55" s="65">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F55" s="68">
-        <f t="shared" ref="F55:F64" si="22">IF(B55&lt;0,C55/$D$52,0)</f>
+      <c r="F55" s="66">
+        <f t="shared" ref="F55:F64" si="23">IF(B55&lt;0,C55/$D$52,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="69">
-        <f t="shared" ref="B56:B64" si="23">IF((0-B55)&lt;$D$52,IF(B55&gt;-1, ,B55-1), )</f>
+      <c r="B56" s="67">
+        <f t="shared" ref="B56:B64" si="24">IF((0-B55)&lt;$D$52,IF(B55&gt;-1, ,B55-1), )</f>
         <v>-2</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="66">
+      <c r="C56" s="63"/>
+      <c r="D56" s="64">
+        <f t="shared" si="22"/>
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="65">
         <f t="shared" si="21"/>
-        <v>0.6</v>
-      </c>
-      <c r="E56" s="67">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F56" s="68">
+      <c r="F56" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="67">
+        <f t="shared" si="24"/>
+        <v>-3</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64">
+        <f t="shared" si="22"/>
+        <v>0.4</v>
+      </c>
+      <c r="E57" s="65">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="67">
+        <f t="shared" si="24"/>
+        <v>-4</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="65">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="67">
+        <f t="shared" si="24"/>
+        <v>-5</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="69">
+      <c r="E59" s="65">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="66">
         <f t="shared" si="23"/>
-        <v>-3</v>
-      </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="66">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
-      </c>
-      <c r="E57" s="67">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F57" s="68">
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="67">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="69">
+      <c r="E60" s="65">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="66">
         <f t="shared" si="23"/>
-        <v>-4</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="66">
-        <f t="shared" si="21"/>
-        <v>0.2</v>
-      </c>
-      <c r="E58" s="67">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F58" s="68">
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="67">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="69">
-        <f t="shared" si="23"/>
-        <v>-5</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="66">
+      <c r="E61" s="65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E59" s="67">
-        <f t="shared" si="20"/>
+      <c r="F61" s="66">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F59" s="68">
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="67">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="69">
+      <c r="E62" s="65">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66">
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="67">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="64">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E60" s="67">
-        <f t="shared" si="20"/>
+      <c r="F63" s="66">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F60" s="68">
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="67">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="64">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="69">
+      <c r="E64" s="65">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="67">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="69">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="67">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="69">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="67">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="69">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="67">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="68">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="67">
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="65">
         <f>SUM(E54:E64)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="71"/>
+      <c r="F65" s="69"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="68">
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="66">
         <f>SUM(F55:F64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="71"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="69"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="73" t="s">
+      <c r="B68" s="70"/>
+      <c r="C68" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="73" t="s">
+      <c r="D68" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="74" t="s">
+      <c r="E68" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F68" s="75" t="s">
+      <c r="F68" s="73" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="76">
+      <c r="C69" s="74">
         <f>C14</f>
-        <v>6739664</v>
-      </c>
-      <c r="D69" s="76">
+        <v>7384827</v>
+      </c>
+      <c r="D69" s="74">
         <f>C69+C54-F66</f>
-        <v>6739664</v>
-      </c>
-      <c r="E69" s="57" t="s">
+        <v>7384827</v>
+      </c>
+      <c r="E69" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="71" t="s">
+      <c r="F69" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="77">
-        <f t="shared" ref="C70:D70" si="24">C69/$C$7</f>
-        <v>0.4397317007034231</v>
-      </c>
-      <c r="D70" s="77">
-        <f t="shared" si="24"/>
-        <v>0.4397317007034231</v>
-      </c>
-      <c r="E70" s="57" t="s">
+      <c r="C70" s="75">
+        <f t="shared" ref="C70:D70" si="25">C69/$C$7</f>
+        <v>0.47478104591089182</v>
+      </c>
+      <c r="D70" s="75">
+        <f t="shared" si="25"/>
+        <v>0.47478104591089182</v>
+      </c>
+      <c r="E70" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="71" t="s">
+      <c r="F70" s="69" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="76">
+      <c r="C71" s="74">
         <f>C34</f>
-        <v>2130419.6779999998</v>
-      </c>
-      <c r="D71" s="76">
+        <v>-860638.97360000003</v>
+      </c>
+      <c r="D71" s="74">
         <f>C71+E65-F66</f>
-        <v>2130419.6779999998</v>
-      </c>
-      <c r="E71" s="57" t="s">
+        <v>-860638.97360000003</v>
+      </c>
+      <c r="E71" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="71" t="s">
+      <c r="F71" s="69" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="76">
+      <c r="C72" s="74">
         <f>C16</f>
-        <v>5627619.4399999995</v>
-      </c>
-      <c r="D72" s="76">
+        <v>6166330.5449999999</v>
+      </c>
+      <c r="D72" s="74">
         <f>C72+C55</f>
-        <v>5627619.4399999995</v>
-      </c>
-      <c r="E72" s="57" t="s">
+        <v>6166330.5449999999</v>
+      </c>
+      <c r="E72" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="71" t="s">
+      <c r="F72" s="69" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="76">
+      <c r="C73" s="74">
         <f>F3</f>
-        <v>10358011</v>
-      </c>
-      <c r="D73" s="76">
+        <v>5735396</v>
+      </c>
+      <c r="D73" s="74">
         <f>C73+C54-F66</f>
-        <v>10358011</v>
-      </c>
-      <c r="E73" s="57" t="s">
+        <v>5735396</v>
+      </c>
+      <c r="E73" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="F73" s="71" t="s">
+      <c r="F73" s="69" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="79" t="e">
+      <c r="C74" s="77" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D74" s="79" t="e">
+      <c r="D74" s="77" t="e">
         <f>C74+E65</f>
         <v>#REF!</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F74" s="80" t="s">
+      <c r="F74" s="78" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="81"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="82"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
@@ -9631,8 +9687,8 @@
   </sheetPr>
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9649,10 +9705,10 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="352" t="s">
+      <c r="B2" s="333" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="352"/>
+      <c r="C2" s="333"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -9662,43 +9718,43 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="359">
-        <v>128099808</v>
-      </c>
-      <c r="E3" s="197" t="str">
+      <c r="D3" s="340">
+        <v>160090995.734</v>
+      </c>
+      <c r="E3" s="194" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="360" t="s">
-        <v>356</v>
-      </c>
-      <c r="I3" s="363">
-        <v>113579020</v>
+      <c r="H3" s="341" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" s="344">
+        <v>159323330.11500001</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="364">
+      <c r="D4" s="345">
         <f>D3-I3</f>
-        <v>14520788</v>
-      </c>
-      <c r="E4" s="191"/>
+        <v>767665.61899998784</v>
+      </c>
+      <c r="E4" s="188"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="119">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>78.259657658572991</v>
+        <v>19.764073425513189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9709,44 +9765,44 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="81" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="84">
+      <c r="D6" s="82">
         <f>E46-I46-E50</f>
-        <v>26806590.300000012</v>
+        <v>103077905.49021</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.79073668635006844</v>
+        <v>0.35612927499383151</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="83" t="s">
         <v>115</v>
       </c>
       <c r="I6" s="28">
         <f>IF(Data!F3&lt;=0,"NNI",D7/((Data!F3*Dashboard!I12)/(Dashboard!I5/Data!C4)))</f>
-        <v>2.5880055833113147</v>
+        <v>17.97223861965416</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="84">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>18.470617019513149</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="H7" s="85" t="s">
+        <v>12.78682344378651</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="H7" s="83" t="s">
         <v>117</v>
       </c>
       <c r="I7" s="28">
         <f>D7/(Data!C28*Dashboard!I12*Data!C4/Common_Shares)</f>
-        <v>0.20926331364993156</v>
+        <v>0.65144961504557519</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -9756,21 +9812,21 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="353" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="330"/>
-      <c r="D9" s="357">
-        <v>44742</v>
-      </c>
-      <c r="E9" s="354" t="str">
+      <c r="B9" s="334" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="316"/>
+      <c r="D9" s="338">
+        <v>44926</v>
+      </c>
+      <c r="E9" s="335" t="str">
         <f>IF(D9=Data!C3,"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -9786,7 +9842,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="86" t="s">
         <v>122</v>
       </c>
       <c r="I10" s="24" t="s">
@@ -9797,23 +9853,23 @@
       <c r="B11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="89">
-        <v>16946370</v>
-      </c>
-      <c r="D11" s="90">
+      <c r="C11" s="87">
+        <v>3379024.0260000001</v>
+      </c>
+      <c r="D11" s="88">
         <v>1</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>16946370</v>
+        <v>3379024.0260000001</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="89">
-        <v>2253528</v>
+      <c r="I11" s="87">
+        <v>2230528</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -9821,23 +9877,23 @@
       <c r="B12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="89">
-        <v>0</v>
-      </c>
-      <c r="D12" s="90">
+      <c r="C12" s="87">
+        <v>41083645.866999999</v>
+      </c>
+      <c r="D12" s="88">
         <v>0.98</v>
       </c>
       <c r="E12" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40261972.949659996</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="89">
-        <v>31180.352999999999</v>
+      <c r="I12" s="87">
+        <v>40711.811999999998</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -9845,10 +9901,10 @@
       <c r="B13" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="87">
         <v>0</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="88">
         <v>1</v>
       </c>
       <c r="E13" s="29">
@@ -9860,8 +9916,9 @@
       <c r="H13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="89">
-        <v>861793.34100000001</v>
+      <c r="I13" s="87">
+        <f>789160.293+906226.518</f>
+        <v>1695386.811</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -9869,22 +9926,22 @@
       <c r="B14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="89">
-        <v>0</v>
-      </c>
-      <c r="D14" s="90">
-        <v>0.8</v>
+      <c r="C14" s="87">
+        <v>9150.4850000000006</v>
+      </c>
+      <c r="D14" s="88">
+        <v>0.6</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5490.2910000000002</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I14" s="87">
         <v>0</v>
       </c>
       <c r="J14" s="6"/>
@@ -9893,10 +9950,10 @@
       <c r="B15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="87">
         <v>0</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="88">
         <v>0.8</v>
       </c>
       <c r="E15" s="29">
@@ -9908,9 +9965,9 @@
       <c r="H15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="196">
+      <c r="I15" s="193">
         <f>I26-SUM(I11:I14)</f>
-        <v>16921980.306000002</v>
+        <v>9867916.8460000008</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -9918,10 +9975,10 @@
       <c r="B16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="89">
+      <c r="C16" s="87">
         <v>0</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="88">
         <v>0.5</v>
       </c>
       <c r="E16" s="29">
@@ -9931,45 +9988,46 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="195"/>
+      <c r="I16" s="192"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="89">
-        <v>2617395</v>
-      </c>
-      <c r="D17" s="90">
+      <c r="C17" s="87">
+        <f>2259696.73+2882905.087+14024.915+1631152.458+52294.469</f>
+        <v>6840073.6589999991</v>
+      </c>
+      <c r="D17" s="88">
         <v>0.5</v>
       </c>
       <c r="E17" s="29">
         <f t="shared" si="0"/>
-        <v>1308697.5</v>
+        <v>3420036.8294999995</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="195"/>
+      <c r="I17" s="192"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="89">
-        <v>0</v>
-      </c>
-      <c r="D18" s="90">
-        <v>0.5</v>
+      <c r="C18" s="87">
+        <v>13046.883</v>
+      </c>
+      <c r="D18" s="88">
+        <v>0.6</v>
       </c>
       <c r="E18" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7828.1297999999997</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -9977,77 +10035,77 @@
       <c r="B19" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="89">
-        <v>17196881</v>
-      </c>
-      <c r="D19" s="90">
-        <v>0.65</v>
+      <c r="C19" s="87">
+        <v>8609555.8550000004</v>
+      </c>
+      <c r="D19" s="88">
+        <v>0.75</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="0"/>
-        <v>11177972.65</v>
-      </c>
-      <c r="F19" s="258" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="125">
+        <v>6457166.8912500003</v>
+      </c>
+      <c r="F19" s="254" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" s="122">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="195"/>
+      <c r="I19" s="192"/>
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="89">
-        <v>20570771</v>
-      </c>
-      <c r="D20" s="90">
-        <v>0.5</v>
+      <c r="C20" s="87">
+        <v>7527029.5259999996</v>
+      </c>
+      <c r="D20" s="88">
+        <v>0.6</v>
       </c>
       <c r="E20" s="29">
         <f t="shared" si="0"/>
-        <v>10285385.5</v>
-      </c>
-      <c r="F20" s="258" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="125">
+        <v>4516217.7155999998</v>
+      </c>
+      <c r="F20" s="254" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" s="122">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="195"/>
+      <c r="I20" s="192"/>
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="89">
-        <v>634405</v>
-      </c>
-      <c r="D21" s="90">
+      <c r="C21" s="87">
+        <v>75546.323999999993</v>
+      </c>
+      <c r="D21" s="88">
         <v>0.95</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" si="0"/>
-        <v>602684.75</v>
+        <v>71769.007799999992</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="195"/>
+      <c r="I21" s="192"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="87">
         <v>0</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="88">
         <v>0</v>
       </c>
       <c r="E22" s="29">
@@ -10063,59 +10121,59 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="93">
         <f>SUM(C11:C14)</f>
-        <v>16946370</v>
-      </c>
-      <c r="D24" s="93">
+        <v>44471820.377999999</v>
+      </c>
+      <c r="D24" s="91">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>1</v>
+        <v>0.98144143630000158</v>
       </c>
       <c r="E24" s="29">
         <f>SUM(E11:E14)</f>
-        <v>16946370</v>
+        <v>43646487.266659997</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="92">
         <f>E24/($I$26-I13)</f>
-        <v>0.88231606711962574</v>
+        <v>3.5955123157501965</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
-        <v>Liquidity Problem!</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="95">
+      <c r="C25" s="93">
         <f>C24+SUM(C15:C17)</f>
-        <v>19563765</v>
-      </c>
-      <c r="D25" s="93">
+        <v>51311894.037</v>
+      </c>
+      <c r="D25" s="91">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.93310605090584553</v>
+        <v>0.91726343335175364</v>
       </c>
       <c r="E25" s="29">
         <f>E24+SUM(E15:E17)</f>
-        <v>18255067.5</v>
+        <v>47066524.096159995</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="94">
+      <c r="I25" s="92">
         <f>E25/$I$26</f>
-        <v>0.90963868119173141</v>
+        <v>3.4021017174600048</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -10123,23 +10181,23 @@
       <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="95">
+      <c r="C26" s="93">
         <f>SUM(C11:C22)</f>
-        <v>57965822</v>
+        <v>67537072.625</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" ref="D24:D26" si="2">E26/C26</f>
-        <v>0.69560145977055232</v>
+        <f t="shared" ref="D26" si="2">E26/C26</f>
+        <v>0.86055707749311094</v>
       </c>
       <c r="E26" s="29">
         <f>SUM(E11:E22)</f>
-        <v>40321110.399999999</v>
+        <v>58119505.84060999</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="89">
-        <v>20068482</v>
+      <c r="I26" s="87">
+        <v>13834543.469000001</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10155,10 +10213,10 @@
       <c r="B28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="87">
         <v>0</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="88">
         <v>0.95</v>
       </c>
       <c r="E28" s="29">
@@ -10169,9 +10227,8 @@
       <c r="H28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I28" s="89">
-        <f>996632.901+1804212.761+142405.676</f>
-        <v>2943251.338</v>
+      <c r="I28" s="87">
+        <v>997248.75199999998</v>
       </c>
       <c r="J28" s="6"/>
     </row>
@@ -10179,23 +10236,23 @@
       <c r="B29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="89">
-        <v>2179420</v>
-      </c>
-      <c r="D29" s="90">
+      <c r="C29" s="87">
+        <v>941238.06900000002</v>
+      </c>
+      <c r="D29" s="88">
         <v>0.6</v>
       </c>
       <c r="E29" s="29">
         <f t="shared" ref="E29:E40" si="3">C29*D29</f>
-        <v>1307652</v>
+        <v>564742.84140000003</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I29" s="89">
-        <v>13550.745000000001</v>
+      <c r="I29" s="87">
+        <v>35896.328000000001</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -10203,10 +10260,10 @@
       <c r="B30" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="89">
-        <v>608531</v>
-      </c>
-      <c r="D30" s="90">
+      <c r="C30" s="87">
+        <v>0</v>
+      </c>
+      <c r="D30" s="88">
         <v>0</v>
       </c>
       <c r="E30" s="29">
@@ -10218,8 +10275,9 @@
       <c r="H30" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I30" s="89">
-        <v>0</v>
+      <c r="I30" s="87">
+        <f>1602248.456+137498.192</f>
+        <v>1739746.648</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -10227,10 +10285,10 @@
       <c r="B31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31" s="87">
         <v>0</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="88">
         <v>0.3</v>
       </c>
       <c r="E31" s="29">
@@ -10242,7 +10300,7 @@
       <c r="H31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="89">
+      <c r="I31" s="87">
         <v>0</v>
       </c>
       <c r="J31" s="6"/>
@@ -10251,26 +10309,27 @@
       <c r="B32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="89">
-        <v>1107494</v>
-      </c>
-      <c r="D32" s="90">
+      <c r="C32" s="87">
+        <f>3954189.337+12854360.551+3101161.686</f>
+        <v>19909711.574000001</v>
+      </c>
+      <c r="D32" s="88">
         <v>0.4</v>
       </c>
       <c r="E32" s="29">
         <f t="shared" si="3"/>
-        <v>442997.60000000003</v>
+        <v>7963884.6296000006</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I32" s="196">
+      <c r="I32" s="193">
         <f>I42-SUM(I28:I31)</f>
-        <v>64065728.917000003</v>
+        <v>2692468.8590000002</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -10278,20 +10337,21 @@
       <c r="B33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="89">
-        <v>27509451</v>
-      </c>
-      <c r="D33" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="275">
+      <c r="C33" s="87">
+        <f>17037387.801+6022745.085</f>
+        <v>23060132.886</v>
+      </c>
+      <c r="D33" s="88">
+        <v>0.4</v>
+      </c>
+      <c r="E33" s="270">
         <f t="shared" si="3"/>
-        <v>13754725.5</v>
-      </c>
-      <c r="F33" s="258" t="s">
-        <v>322</v>
-      </c>
-      <c r="G33" s="125">
+        <v>9224053.1544000003</v>
+      </c>
+      <c r="F33" s="254" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" s="122">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
@@ -10301,20 +10361,21 @@
       <c r="B34" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="89">
-        <v>80948092</v>
-      </c>
-      <c r="D34" s="90">
+      <c r="C34" s="87">
+        <f>64884096.656+1713509.881</f>
+        <v>66597606.537</v>
+      </c>
+      <c r="D34" s="88">
         <v>0.7</v>
       </c>
-      <c r="E34" s="275">
+      <c r="E34" s="270">
         <f t="shared" si="3"/>
-        <v>56663664.399999999</v>
-      </c>
-      <c r="F34" s="258" t="s">
-        <v>321</v>
-      </c>
-      <c r="G34" s="125">
+        <v>46618324.575899996</v>
+      </c>
+      <c r="F34" s="254" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="122">
         <f>IF(F34="Y",0,1)</f>
         <v>0</v>
       </c>
@@ -10323,20 +10384,20 @@
       <c r="B35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="89">
-        <v>21257867</v>
-      </c>
-      <c r="D35" s="90">
+      <c r="C35" s="87">
+        <v>0</v>
+      </c>
+      <c r="D35" s="88">
         <v>0.4</v>
       </c>
       <c r="E35" s="29">
         <f t="shared" si="3"/>
-        <v>8503146.8000000007</v>
-      </c>
-      <c r="F35" s="258" t="s">
-        <v>321</v>
-      </c>
-      <c r="G35" s="125">
+        <v>0</v>
+      </c>
+      <c r="F35" s="254" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" s="122">
         <f>IF(F35="Y",0,1)</f>
         <v>0</v>
       </c>
@@ -10345,15 +10406,15 @@
       <c r="B36" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="89">
-        <v>21664879</v>
-      </c>
-      <c r="D36" s="90">
+      <c r="C36" s="87">
+        <v>114740.003</v>
+      </c>
+      <c r="D36" s="88">
         <v>0.3</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="3"/>
-        <v>6499463.7000000002</v>
+        <v>34422.000899999999</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -10362,15 +10423,15 @@
       <c r="B37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="89">
-        <v>1826761</v>
-      </c>
-      <c r="D37" s="90">
+      <c r="C37" s="87">
+        <v>1217891.264</v>
+      </c>
+      <c r="D37" s="88">
         <v>0.5</v>
       </c>
       <c r="E37" s="29">
         <f t="shared" si="3"/>
-        <v>913380.5</v>
+        <v>608945.63199999998</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -10379,15 +10440,15 @@
       <c r="B38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="89">
-        <v>122504</v>
-      </c>
-      <c r="D38" s="90">
+      <c r="C38" s="87">
+        <v>0</v>
+      </c>
+      <c r="D38" s="88">
         <v>0.1</v>
       </c>
       <c r="E38" s="29">
         <f t="shared" si="3"/>
-        <v>12250.400000000001</v>
+        <v>0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -10396,15 +10457,15 @@
       <c r="B39" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="89">
-        <v>0</v>
-      </c>
-      <c r="D39" s="90">
+      <c r="C39" s="87">
+        <v>12206.832</v>
+      </c>
+      <c r="D39" s="88">
         <v>0.95</v>
       </c>
       <c r="E39" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11596.490400000001</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -10413,10 +10474,10 @@
       <c r="B40" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="89">
-        <v>0</v>
-      </c>
-      <c r="D40" s="90">
+      <c r="C40" s="87">
+        <v>300</v>
+      </c>
+      <c r="D40" s="88">
         <v>0</v>
       </c>
       <c r="E40" s="29">
@@ -10436,25 +10497,25 @@
       <c r="B42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="92">
+      <c r="C42" s="90">
         <f>SUM(C28:C40)</f>
-        <v>157224999</v>
+        <v>111853827.16500001</v>
       </c>
       <c r="D42" s="14">
         <f>E42/C42</f>
-        <v>0.56032616606981189</v>
+        <v>0.58134773724530331</v>
       </c>
       <c r="E42" s="29">
         <f>SUM(E28:E40)</f>
-        <v>88097280.900000006</v>
+        <v>65025969.324599996</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="89">
-        <v>67022531</v>
+      <c r="I42" s="87">
+        <v>5465360.5870000003</v>
       </c>
       <c r="J42" s="6"/>
     </row>
@@ -10465,59 +10526,59 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="95">
+      <c r="C44" s="93">
         <f>C24+SUM(C28:C29)</f>
-        <v>19125790</v>
-      </c>
-      <c r="D44" s="93">
+        <v>45413058.446999997</v>
+      </c>
+      <c r="D44" s="91">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0.95441924229012243</v>
+        <v>0.97353562213074429</v>
       </c>
       <c r="E44" s="29">
         <f>E24+SUM(E28:E29)</f>
-        <v>18254022</v>
+        <v>44211230.108059995</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="91" t="s">
+      <c r="H44" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="I44" s="94">
+      <c r="I44" s="92">
         <f>E44/$I$46</f>
-        <v>0.20959707978135469</v>
+        <v>2.290748699049387</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(I44&lt;1,"Liquidity Problem!","")</f>
-        <v>Liquidity Problem!</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="95">
+      <c r="C45" s="93">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
-        <v>50968661</v>
-      </c>
-      <c r="D45" s="93">
+        <v>95222976.566</v>
+      </c>
+      <c r="D45" s="91">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.66237648660222803</v>
+        <v>0.680709709558734</v>
       </c>
       <c r="E45" s="29">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
-        <v>33760442.600000001</v>
+        <v>64819204.721559994</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="91" t="s">
+      <c r="H45" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="I45" s="94">
+      <c r="I45" s="92">
         <f>E45/$I$46</f>
-        <v>0.38764553812228597</v>
+        <v>3.3585247125313473</v>
       </c>
       <c r="J45" s="6"/>
     </row>
@@ -10525,26 +10586,26 @@
       <c r="B46" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="95">
+      <c r="C46" s="93">
         <f>C26+C42</f>
-        <v>215190821</v>
+        <v>179390899.79000002</v>
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.59676519055615296</v>
+        <v>0.68646444891779623</v>
       </c>
       <c r="E46" s="29">
         <f>E26+E42</f>
-        <v>128418391.30000001</v>
+        <v>123145475.16520998</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="196">
+      <c r="I46" s="193">
         <f>I26+I42</f>
-        <v>87091013</v>
+        <v>19299904.056000002</v>
       </c>
       <c r="J46" s="6"/>
     </row>
@@ -10559,14 +10620,14 @@
         <v>168</v>
       </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="56"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B49" s="271" t="s">
+      <c r="B49" s="266" t="s">
         <v>281</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="272" t="str">
+      <c r="D49" s="267" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10576,19 +10637,19 @@
       <c r="B50" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="273">
+      <c r="C50" s="268">
         <f>D4</f>
-        <v>14520788</v>
-      </c>
-      <c r="D50" s="269">
+        <v>767665.61899998784</v>
+      </c>
+      <c r="D50" s="264">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="273">
+      <c r="E50" s="268">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>14520788</v>
-      </c>
-      <c r="I50" s="198"/>
+        <v>767665.61899998784</v>
+      </c>
+      <c r="I50" s="195"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
@@ -10596,37 +10657,37 @@
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B52" s="100" t="s">
+      <c r="B52" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="409">
+        <f>D53+D54+D55</f>
+        <v>6739518.3509999998</v>
+      </c>
+      <c r="E52" s="429"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+    </row>
+    <row r="53" spans="2:9" ht="14" x14ac:dyDescent="0.3">
+      <c r="B53" s="81" t="s">
         <v>313</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="367">
-        <f>D53+D54+D55</f>
-        <v>6103303.7770000007</v>
-      </c>
-      <c r="E52" s="444"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-    </row>
-    <row r="53" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B53" s="83" t="s">
-        <v>314</v>
-      </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="367">
+      <c r="D53" s="409">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
-        <v>6103303.7770000007</v>
-      </c>
-      <c r="E53" s="444"/>
+        <v>6739518.3509999998</v>
+      </c>
+      <c r="E53" s="429"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="81" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="443">
+      <c r="D54" s="428">
         <v>0</v>
       </c>
       <c r="E54" s="379"/>
@@ -10636,11 +10697,11 @@
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="81" t="s">
         <v>169</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="443">
+      <c r="D55" s="428">
         <v>0</v>
       </c>
       <c r="E55" s="379"/>
@@ -10654,62 +10715,62 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="98" t="s">
         <v>173</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="445"/>
-      <c r="E57" s="445"/>
+      <c r="D57" s="430"/>
+      <c r="E57" s="430"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="268">
+      <c r="B58" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="263">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
-        <v>30297402</v>
-      </c>
-      <c r="D58" s="166">
+        <v>24010521.440000001</v>
+      </c>
+      <c r="D58" s="163">
         <f>IF(E58=0,0,E58/C58)</f>
-        <v>0.49715079530581535</v>
-      </c>
-      <c r="E58" s="276">
+        <v>0.40791643410473138</v>
+      </c>
+      <c r="E58" s="271">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E33*G33)+(E34*G34)+(E35*G35)</f>
-        <v>15062377.5</v>
+        <v>9794286.2868000008</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="268">
+      <c r="C59" s="263">
         <f>C11+C12+C28</f>
-        <v>16946370</v>
-      </c>
-      <c r="D59" s="269">
+        <v>44462669.892999999</v>
+      </c>
+      <c r="D59" s="264">
         <f>IF(E59=0,0,E59/C59)</f>
-        <v>1</v>
-      </c>
-      <c r="E59" s="270">
+        <v>0.98151993752697786</v>
+      </c>
+      <c r="E59" s="265">
         <f>E11+E12+E28</f>
-        <v>16946370</v>
+        <v>43640996.975659996</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="55" t="s">
         <v>174</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="441">
+      <c r="D60" s="426">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>2174309.2246799991</v>
-      </c>
-      <c r="E60" s="442"/>
+        <v>19969040.78803999</v>
+      </c>
+      <c r="E60" s="427"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10742,10 +10803,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K908"/>
+  <dimension ref="A1:L905"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10755,24 +10816,27 @@
     <col min="3" max="3" width="22.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="22.7265625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="49.81640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="12.453125" style="3"/>
+    <col min="6" max="6" width="6.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="49.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="123" t="s">
-        <v>328</v>
+      <c r="B2" s="120" t="s">
+        <v>327</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -10782,417 +10846,390 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="str">
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="349">
+      <c r="C3" s="346">
         <f>Data!C3</f>
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1</v>
+        <v>331</v>
+      </c>
+      <c r="E3" s="346">
+        <f>EOMONTH(EDATE(C3,12),0)</f>
+        <v>45107</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="30" t="str">
-        <f>IF(G12="","","2")</f>
-        <v/>
-      </c>
-      <c r="H3" s="30" t="str">
-        <f>IF(H19="","","3")</f>
-        <v/>
-      </c>
-      <c r="J3" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="346">
+        <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
+        <v>45473</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="346" t="str">
+        <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
+        <v/>
+      </c>
+      <c r="K3" s="95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="279">
-        <v>4053111</v>
-      </c>
-      <c r="D4" s="338"/>
-      <c r="E4" s="278">
-        <f>1882783*1.5</f>
-        <v>2824174.5</v>
-      </c>
-      <c r="F4" s="338"/>
-      <c r="G4" s="351"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="82"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="C4" s="273">
+        <v>11129690.461999999</v>
+      </c>
+      <c r="D4" s="322">
+        <f>C4/C8</f>
+        <v>0.71954007930541752</v>
+      </c>
+      <c r="E4" s="272">
+        <f>3947351.849/0.7</f>
+        <v>5639074.0700000003</v>
+      </c>
+      <c r="F4" s="322">
+        <f>E4/E8</f>
+        <v>0.53990943728418095</v>
+      </c>
+      <c r="G4" s="145"/>
+      <c r="H4" s="437"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="279">
-        <v>1291010</v>
-      </c>
-      <c r="D5" s="338"/>
-      <c r="E5" s="278">
-        <f>619537*1.8</f>
-        <v>1115166.6000000001</v>
-      </c>
-      <c r="F5" s="338"/>
-      <c r="G5" s="351"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="82"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="350" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="279">
-        <f>C4+C5</f>
-        <v>5344121</v>
-      </c>
-      <c r="D6" s="338">
-        <f>C6/C$11</f>
-        <v>0.34867901665348278</v>
-      </c>
-      <c r="E6" s="278">
-        <f>E4+E5</f>
-        <v>3939341.1</v>
-      </c>
-      <c r="F6" s="338">
-        <f>E6/E11</f>
-        <v>0.54084868327105462</v>
-      </c>
-      <c r="G6" s="351"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="C5" s="273">
+        <v>1147617.763</v>
+      </c>
+      <c r="D5" s="322">
+        <f>C5/C8</f>
+        <v>7.4194064877248861E-2</v>
+      </c>
+      <c r="E5" s="272">
+        <f>591321.795*2</f>
+        <v>1182643.5900000001</v>
+      </c>
+      <c r="F5" s="322">
+        <f>E5/E8</f>
+        <v>0.11323143254698259</v>
+      </c>
+      <c r="G5" s="145"/>
+      <c r="H5" s="437"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="273">
+        <v>451993.272</v>
+      </c>
+      <c r="D6" s="322">
+        <f>C6/C8</f>
+        <v>2.9221592091066291E-2</v>
+      </c>
+      <c r="E6" s="272">
+        <f>455151.15*2</f>
+        <v>910302.3</v>
+      </c>
+      <c r="F6" s="322">
+        <f>E6/E8</f>
+        <v>8.7156294890004107E-2</v>
+      </c>
+      <c r="G6" s="145"/>
+      <c r="H6" s="437"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="80"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="279">
-        <v>4584914</v>
-      </c>
-      <c r="D7" s="338"/>
-      <c r="E7" s="278">
-        <f>355693*1.5</f>
-        <v>533539.5</v>
-      </c>
-      <c r="F7" s="338"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="82"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="279">
-        <v>3786145</v>
-      </c>
-      <c r="D8" s="338"/>
-      <c r="E8" s="278">
-        <f>1358253*1.6</f>
-        <v>2173204.8000000003</v>
-      </c>
-      <c r="F8" s="338"/>
-      <c r="G8" s="351"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="82"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="350" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="279">
-        <f>C7+C8</f>
-        <v>8371059</v>
-      </c>
-      <c r="D9" s="338">
-        <f>C9/C$11</f>
-        <v>0.54617262978669212</v>
-      </c>
-      <c r="E9" s="278">
-        <f>E7+E8</f>
-        <v>2706744.3000000003</v>
-      </c>
-      <c r="F9" s="338">
-        <f>E9/E11</f>
-        <v>0.37162029218704429</v>
-      </c>
-      <c r="G9" s="351"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="82"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="350" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="279">
-        <v>1611584</v>
-      </c>
-      <c r="D10" s="338">
-        <f>C10/C$11</f>
-        <v>0.10514835355982516</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C7" s="273">
+        <v>2738482.4139999999</v>
+      </c>
+      <c r="D7" s="322">
+        <f>C7/C8</f>
+        <v>0.17704426372626741</v>
+      </c>
+      <c r="E7" s="272">
+        <f>1356230.715*2</f>
+        <v>2712461.43</v>
+      </c>
+      <c r="F7" s="322">
+        <f>E7/E8</f>
+        <v>0.25970283527883237</v>
+      </c>
+      <c r="G7" s="145"/>
+      <c r="H7" s="437"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="80"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="220">
+        <f>SUM(C4:C7)</f>
+        <v>15467783.910999998</v>
+      </c>
+      <c r="D8" s="321"/>
+      <c r="E8" s="279">
+        <f>SUM(E4:E7)</f>
+        <v>10444481.390000001</v>
+      </c>
+      <c r="F8" s="321"/>
+      <c r="G8" s="280">
+        <f>IF(G9="","",E8*(1+G9))</f>
+        <v>13577825.807000002</v>
+      </c>
+      <c r="H8" s="321"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="227"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="18">
+        <f>E8/C8-1</f>
+        <v>-0.32475903141028817</v>
+      </c>
+      <c r="F9" s="323"/>
+      <c r="G9" s="96">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="323"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="80"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="221">
+        <f>Data!C9</f>
+        <v>7301864</v>
+      </c>
+      <c r="D10" s="324"/>
       <c r="E10" s="278">
-        <f>425029*1.5</f>
-        <v>637543.5</v>
-      </c>
-      <c r="F10" s="338">
-        <f>E10/E11</f>
-        <v>8.7531024541901079E-2</v>
-      </c>
-      <c r="G10" s="351"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="82"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="223">
-        <f>C6+C9+C10</f>
-        <v>15326764</v>
-      </c>
-      <c r="D11" s="337"/>
-      <c r="E11" s="287">
-        <f>E6+E9+E10</f>
-        <v>7283628.9000000004</v>
-      </c>
-      <c r="F11" s="337"/>
-      <c r="G11" s="288" t="str">
-        <f>IF(G12="","",E11*(1+G12))</f>
-        <v/>
-      </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="82"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="230"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="18">
-        <f>E11/C11-1</f>
-        <v>-0.52477712190257508</v>
-      </c>
-      <c r="F12" s="339"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="82"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="224">
-        <f>Data!C9</f>
-        <v>6583757</v>
-      </c>
-      <c r="D13" s="340"/>
-      <c r="E13" s="284">
-        <f>2094072*1.8</f>
-        <v>3769329.6</v>
-      </c>
-      <c r="F13" s="340"/>
-      <c r="G13" s="285" t="str">
-        <f>IF(G12="","",G11*(1-G14))</f>
-        <v/>
-      </c>
-      <c r="H13" s="148"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+        <f>E8*E11</f>
+        <v>4177792.5560000003</v>
+      </c>
+      <c r="F10" s="324"/>
+      <c r="G10" s="438">
+        <f>IF(G8="","",G8*(1-G11))</f>
+        <v>6788912.9035000009</v>
+      </c>
+      <c r="H10" s="324"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="229">
-        <f>(C11-C13)/C11</f>
-        <v>0.57044050524950995</v>
-      </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="98">
-        <f>(E11-E13)/E11</f>
-        <v>0.4824929095440324</v>
-      </c>
-      <c r="F14" s="229"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="99"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="C11" s="226">
+        <f>(C8-C10)/C8</f>
+        <v>0.52793082434987726</v>
+      </c>
+      <c r="D11" s="226"/>
+      <c r="E11" s="96">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="226"/>
+      <c r="G11" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="226"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="97"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="29">
-        <f>C11-C13</f>
-        <v>8743007</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29">
-        <f>E11-E13</f>
-        <v>3514299.3000000003</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="str">
-        <f>IF(G12="","",G11-G13)</f>
-        <v/>
-      </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="29">
+        <f>C8-C10</f>
+        <v>8165919.9109999985</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
+        <f>E8-E10</f>
+        <v>6266688.8340000007</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29">
+        <f>IF(G9="","",G8-G10)</f>
+        <v>6788912.9035000009</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="97"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="231">
+        <f>C14/C8</f>
+        <v>6.7328499738051453E-2</v>
+      </c>
+      <c r="D13" s="231"/>
+      <c r="E13" s="277">
+        <f>E14/E8</f>
+        <v>0.10369874309288227</v>
+      </c>
+      <c r="F13" s="231"/>
+      <c r="G13" s="88">
+        <v>0.09</v>
+      </c>
+      <c r="H13" s="231"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="97"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="223">
+        <f>867483.279+173939.406</f>
+        <v>1041422.6849999999</v>
+      </c>
+      <c r="D14" s="325"/>
+      <c r="E14" s="99">
+        <f>C14*1.04</f>
+        <v>1083079.5924</v>
+      </c>
+      <c r="F14" s="325"/>
+      <c r="G14" s="439">
+        <f>IF(G9="","",G8*G13)</f>
+        <v>1222004.3226300001</v>
+      </c>
+      <c r="H14" s="325"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="97"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="18">
+        <f>C17/C8</f>
+        <v>0.46060232461182588</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
+        <f>E17/E8</f>
+        <v>0.49630125690711779</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
+        <f>IF(G9="","",G17/G8)</f>
+        <v>0.41</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="234">
-        <f>C17/C11</f>
-        <v>0.13070880454608683</v>
-      </c>
-      <c r="D16" s="234"/>
-      <c r="E16" s="283">
-        <f>E17/E11</f>
-        <v>0.2318067028373727</v>
-      </c>
-      <c r="F16" s="234"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="99"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="226">
-        <v>2003343</v>
-      </c>
-      <c r="D17" s="341"/>
-      <c r="E17" s="102">
-        <f>844197*2</f>
-        <v>1688394</v>
-      </c>
-      <c r="F17" s="341"/>
-      <c r="G17" s="286" t="str">
-        <f>IF(G12="","",G11*G16)</f>
-        <v/>
-      </c>
-      <c r="H17" s="151"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="18">
-        <f>C20/C11</f>
-        <v>0.4397317007034231</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18">
-        <f>E20/E11</f>
-        <v>0.25068620670665964</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="str">
-        <f>IF(G12="","",G20/G11)</f>
-        <v/>
-      </c>
-      <c r="H18" s="152"/>
+        <v>181</v>
+      </c>
+      <c r="C16" s="228"/>
+      <c r="D16" s="326"/>
+      <c r="E16" s="14">
+        <f>IF(ABS(C17+E17)=ABS(C17)+ABS(E17),IF(E17&lt;0,-1,1)*(E17-C17)/C17,"Turn")</f>
+        <v>-0.27242455472043131</v>
+      </c>
+      <c r="F16" s="326"/>
+      <c r="G16" s="14">
+        <f>IF(G9="","",IF(ABS(E17+G17)=ABS(E17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-E17)/E17,"Turn"))</f>
+        <v>7.3944489525543042E-2</v>
+      </c>
+      <c r="H16" s="326"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="168" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="281">
+        <f>C12-C14</f>
+        <v>7124497.2259999989</v>
+      </c>
+      <c r="D17" s="327"/>
+      <c r="E17" s="281">
+        <f>E12-E14</f>
+        <v>5183609.2416000012</v>
+      </c>
+      <c r="F17" s="327"/>
+      <c r="G17" s="281">
+        <f>IF(G9="","",G12-G14)</f>
+        <v>5566908.5808700006</v>
+      </c>
+      <c r="H17" s="327"/>
+      <c r="I17" s="282" t="str">
+        <f>IF(I16="","",G17*(1+I16))</f>
+        <v/>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="79"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I18" s="6"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="82"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="231"/>
-      <c r="D19" s="342"/>
-      <c r="E19" s="14">
-        <f>IF(ABS(C20+E20)=ABS(C20)+ABS(E20),IF(E20&lt;0,-1,1)*(E20-C20)/C20,"Turn")</f>
-        <v>-0.72908066336838151</v>
-      </c>
-      <c r="F19" s="342"/>
-      <c r="G19" s="14" t="str">
-        <f>IF(G12="","",IF(ABS(E20+G20)=ABS(E20)+ABS(G20),IF(G20&lt;0,-1,1)*(G20-E20)/E20,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="H19" s="247"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="105"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="171" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="289">
-        <f>C15-C17</f>
-        <v>6739664</v>
-      </c>
-      <c r="D20" s="343"/>
-      <c r="E20" s="289">
-        <f>E15-E17</f>
-        <v>1825905.3000000003</v>
-      </c>
-      <c r="F20" s="343"/>
-      <c r="G20" s="289" t="str">
-        <f>IF(G12="","",G15-G17)</f>
-        <v/>
-      </c>
-      <c r="H20" s="290" t="str">
-        <f>IF(H19="","",G20*(1+H19))</f>
-        <v/>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="81"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12066,13 +12103,10 @@
     <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="H20 G4:G20">
+  <conditionalFormatting sqref="I17 G8 G10 G12 G15:G17">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G4))=0</formula>
+      <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12086,10 +12120,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J926"/>
+  <dimension ref="A1:J927"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12109,8 +12143,8 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="123" t="s">
-        <v>301</v>
+      <c r="B2" s="120" t="s">
+        <v>300</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -12125,25 +12159,26 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="349">
-        <f>Data!C3</f>
-        <v>44561</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1</v>
-      </c>
-      <c r="E3" s="30" t="str">
-        <f>IF(E4="","","2")</f>
-        <v/>
-      </c>
-      <c r="F3" s="30" t="str">
-        <f>IF(F4="","","3")</f>
+      <c r="C3" s="346">
+        <f>Operation!C3</f>
+        <v>44742</v>
+      </c>
+      <c r="D3" s="346">
+        <f>Operation!E3</f>
+        <v>45107</v>
+      </c>
+      <c r="E3" s="346">
+        <f>Operation!G3</f>
+        <v>45473</v>
+      </c>
+      <c r="F3" s="346" t="str">
+        <f>Operation!I3</f>
         <v/>
       </c>
       <c r="G3" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="I3" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="95" t="s">
         <v>175</v>
       </c>
     </row>
@@ -12151,681 +12186,710 @@
       <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="225">
-        <f>Operation!C20</f>
-        <v>6739664</v>
-      </c>
-      <c r="D4" s="49">
-        <f>Operation!E20</f>
-        <v>1825905.3000000003</v>
-      </c>
-      <c r="E4" s="49" t="str">
-        <f>Operation!G20</f>
-        <v/>
-      </c>
-      <c r="F4" s="248" t="str">
-        <f>Operation!H20</f>
-        <v/>
-      </c>
-      <c r="G4" s="244"/>
+      <c r="C4" s="222">
+        <f>Operation!C17</f>
+        <v>7124497.2259999989</v>
+      </c>
+      <c r="D4" s="47">
+        <f>Operation!E17</f>
+        <v>5183609.2416000012</v>
+      </c>
+      <c r="E4" s="47">
+        <f>Operation!G17</f>
+        <v>5566908.5808700006</v>
+      </c>
+      <c r="F4" s="244" t="str">
+        <f>Operation!I17</f>
+        <v/>
+      </c>
+      <c r="G4" s="240"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="81"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="332"/>
-      <c r="D5" s="333">
-        <f>Operation!E19</f>
-        <v>-0.72908066336838151</v>
-      </c>
-      <c r="E5" s="333" t="str">
-        <f>IF(E4="","",Operation!G19)</f>
-        <v/>
-      </c>
-      <c r="F5" s="333" t="str">
-        <f>IF(F4="","",Operation!H19)</f>
-        <v/>
-      </c>
-      <c r="G5" s="244"/>
+        <v>326</v>
+      </c>
+      <c r="C5" s="318"/>
+      <c r="D5" s="319">
+        <f>Operation!E16</f>
+        <v>-0.27242455472043131</v>
+      </c>
+      <c r="E5" s="319">
+        <f>IF(E4="","",Operation!G16)</f>
+        <v>7.3944489525543042E-2</v>
+      </c>
+      <c r="F5" s="319" t="str">
+        <f>IF(F4="","",Operation!I16)</f>
+        <v/>
+      </c>
+      <c r="G5" s="240"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="81"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="232">
+      <c r="C6" s="229">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D6" s="310">
+      <c r="D6" s="297">
         <f>C6</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="E6" s="311" t="str">
+      <c r="E6" s="298">
         <f>IF(E4="","",D6)</f>
-        <v/>
-      </c>
-      <c r="F6" s="312" t="str">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F6" s="299" t="str">
         <f>IF(F4="","",D6)</f>
         <v/>
       </c>
-      <c r="G6" s="245"/>
+      <c r="G6" s="241"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="233">
+      <c r="C7" s="230">
         <f>IF(C4&lt;=0,C4,C4*(1-C6))</f>
-        <v>5627619.4399999995</v>
-      </c>
-      <c r="D7" s="107">
+        <v>5948955.1837099986</v>
+      </c>
+      <c r="D7" s="104">
         <f>IF(D4&lt;=0,D4,D4*(1-D6))</f>
-        <v>1524630.9255000001</v>
-      </c>
-      <c r="E7" s="107" t="str">
+        <v>4328313.716736001</v>
+      </c>
+      <c r="E7" s="104">
         <f>IF(E4="","",IF(E4&lt;=0,E4,E4*(1-E6)))</f>
-        <v/>
-      </c>
-      <c r="F7" s="249" t="str">
+        <v>4648368.6650264505</v>
+      </c>
+      <c r="F7" s="245" t="str">
         <f>IF(F4="","",IF(F4&lt;=0,F4,F4*(1-F6)))</f>
         <v/>
       </c>
-      <c r="G7" s="244"/>
+      <c r="G7" s="240"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="81"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="444">
         <f>C10/C7</f>
-        <v>0.35539005814508312</v>
-      </c>
-      <c r="D8" s="283">
-        <f>C8</f>
-        <v>0.35539005814508312</v>
-      </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="245"/>
+        <v>0.22760923045743461</v>
+      </c>
+      <c r="D8" s="445">
+        <f>D10/D7</f>
+        <v>0.13085754060431629</v>
+      </c>
+      <c r="E8" s="444">
+        <f>IF(E11="","",E10/E7)</f>
+        <v>0.11712810159422529</v>
+      </c>
+      <c r="F8" s="446" t="str">
+        <f>IF(F11="","",F10/F7)</f>
+        <v/>
+      </c>
+      <c r="G8" s="241"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="104"/>
+      <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="334">
+        <v>330</v>
+      </c>
+      <c r="C9" s="320"/>
+      <c r="D9" s="450">
         <f>(D7-C7)/C10</f>
-        <v>-2.0514942572499999</v>
-      </c>
-      <c r="E9" s="257"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="245"/>
+        <v>-1.1968958999287052</v>
+      </c>
+      <c r="E9" s="328">
+        <f>IF(E7="","",(E7-D7)/D10)</f>
+        <v>0.56507625914454973</v>
+      </c>
+      <c r="F9" s="451" t="str">
+        <f>IF(F7="","",(F7-E7)/E10)</f>
+        <v/>
+      </c>
+      <c r="G9" s="241"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="104"/>
+      <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="238">
-        <v>2000000</v>
-      </c>
-      <c r="D10" s="238">
-        <f>D7*D8</f>
-        <v>541838.67326323688</v>
-      </c>
-      <c r="E10" s="308" t="str">
-        <f>IF(E4="","",E7*E8)</f>
-        <v/>
-      </c>
-      <c r="F10" s="309" t="str">
+      <c r="C10" s="447">
+        <f>C7-C11</f>
+        <v>1354037.1113899993</v>
+      </c>
+      <c r="D10" s="447">
+        <f>D7-D11</f>
+        <v>566392.48793600034</v>
+      </c>
+      <c r="E10" s="448">
+        <f>IF(E11="","",E7-E11)</f>
+        <v>544454.5972446315</v>
+      </c>
+      <c r="F10" s="449" t="str">
         <f>IF(F4="","",F7*F8)</f>
         <v/>
       </c>
-      <c r="G10" s="246"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="237">
-        <f>C7-C10</f>
-        <v>3627619.4399999995</v>
-      </c>
-      <c r="D11" s="236">
-        <f>IF(D7="","",D7-D10)</f>
-        <v>982792.25223676325</v>
-      </c>
-      <c r="E11" s="236" t="str">
-        <f>IF(E4="","",E7-E10)</f>
-        <v/>
-      </c>
-      <c r="F11" s="236" t="str">
-        <f>IF(F4="","",F7*(1-F8))</f>
-        <v/>
-      </c>
-      <c r="G11" s="295">
+      <c r="C11" s="234">
+        <f>IF(C12="","",C12*Common_Shares/Data!C4)</f>
+        <v>4594918.0723199993</v>
+      </c>
+      <c r="D11" s="233">
+        <f>IF(D12="","",D12*Common_Shares/Data!C4)</f>
+        <v>3761921.2288000006</v>
+      </c>
+      <c r="E11" s="233">
+        <f>IF(E12="","",E12*Common_Shares/Data!C4)</f>
+        <v>4103914.067781819</v>
+      </c>
+      <c r="F11" s="233" t="str">
+        <f>IF(F12="","",F12*Common_Shares/Data!C4)</f>
+        <v/>
+      </c>
+      <c r="G11" s="286">
         <f>IF(F4="",IF(E4="",D11,E11),F11)</f>
-        <v>982792.25223676325</v>
-      </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+        <v>4103914.067781819</v>
+      </c>
+      <c r="H11" s="107"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="250" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="291">
-        <f>C11*Data!C$4/Dashboard!I5</f>
-        <v>2.499548380413779</v>
-      </c>
-      <c r="D12" s="292">
-        <f>IF(D11="","",D11*Data!C$4/Dashboard!$I$5)</f>
-        <v>0.67717598910033738</v>
-      </c>
-      <c r="E12" s="292" t="str">
-        <f>IF(E11="","",E11*Data!D$4/Dashboard!$I$5)</f>
-        <v/>
-      </c>
-      <c r="F12" s="292" t="str">
-        <f>IF(F11="","",F11*Data!E$4/Dashboard!$I$5)</f>
-        <v/>
-      </c>
-      <c r="G12" s="296">
+      <c r="C12" s="283">
+        <f>IF(C14="","",C14/C13)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D12" s="284">
+        <f>IF(D14="","",D14/D13)</f>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="E12" s="284">
+        <f>IF(E14="","",E14/E13)</f>
+        <v>0.50909090909090915</v>
+      </c>
+      <c r="F12" s="284" t="str">
+        <f>IF(F14="","",F14)</f>
+        <v/>
+      </c>
+      <c r="G12" s="287">
         <f>G11*Data!C$4/Dashboard!I5</f>
-        <v>0.67717598910033738</v>
-      </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+        <v>0.50909090909090915</v>
+      </c>
+      <c r="H12" s="107"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="301" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="293">
-        <f>Data!C39/C12</f>
-        <v>1.4654872397530214</v>
-      </c>
-      <c r="D13" s="294">
-        <f>(0.4+0.95)/D12</f>
-        <v>1.9935733424239444</v>
-      </c>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="302"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="B13" s="292" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="440">
+        <v>1</v>
+      </c>
+      <c r="D13" s="285">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="285">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13" s="285"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="292" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="442">
+        <f>0.42+0.15</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D14" s="443">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E14" s="443">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14" s="443"/>
+      <c r="G14" s="441"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="304">
+      <c r="C15" s="294">
         <v>0</v>
       </c>
-      <c r="D14" s="303">
-        <v>0.95</v>
-      </c>
-      <c r="E14" s="303" t="str">
-        <f>IF(E12="","",E12*E13)</f>
-        <v/>
-      </c>
-      <c r="F14" s="303" t="str">
-        <f>IF(F12="","",F12*F13)</f>
-        <v/>
-      </c>
-      <c r="G14" s="297">
-        <f>G12*D30</f>
-        <v>7.7468933153078607</v>
-      </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+      <c r="D15" s="294">
+        <f>0.15+0.41</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="E15" s="294">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F15" s="294"/>
+      <c r="G15" s="288">
+        <f>G12*D31</f>
+        <v>5.8240000000000016</v>
+      </c>
+      <c r="H15" s="107"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="235"/>
-      <c r="D15" s="280">
+      <c r="C16" s="232"/>
+      <c r="D16" s="274">
         <f ca="1">Dashboard!D12</f>
         <v>0.19354444444444446</v>
       </c>
-      <c r="E15" s="18" t="str">
-        <f>IF(E4="","",D15)</f>
-        <v/>
-      </c>
-      <c r="F15" s="18" t="str">
-        <f>IF(F4="","",D15)</f>
-        <v/>
-      </c>
-      <c r="G15" s="298">
+      <c r="E16" s="18">
+        <f ca="1">IF(E4="","",D16)</f>
+        <v>0.19354444444444446</v>
+      </c>
+      <c r="F16" s="18" t="str">
+        <f>IF(F4="","",D16)</f>
+        <v/>
+      </c>
+      <c r="G16" s="289">
         <f ca="1">Dashboard!D12</f>
         <v>0.19354444444444446</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="111" t="s">
+      <c r="H16" s="85"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="281">
-        <f ca="1">IF(D4="","",1+D15)</f>
+      <c r="C17" s="143"/>
+      <c r="D17" s="275">
+        <f ca="1">IF(D4="","",1+D16)</f>
         <v>1.1935444444444445</v>
       </c>
-      <c r="E16" s="282" t="str">
-        <f>IF(E4="","",(1+D15)*(1+E15))</f>
-        <v/>
-      </c>
-      <c r="F16" s="282" t="str">
-        <f>IF(F4="","",(1+D15)*(1+E15)*(1+F15))</f>
-        <v/>
-      </c>
-      <c r="G16" s="299">
-        <f ca="1">IF(F4="",IF(E4="",D16,E16),F16)*(1+G15)</f>
+      <c r="E17" s="276">
+        <f ca="1">IF(E4="","",(1+D16)*(1+E16))</f>
         <v>1.4245483408641977</v>
       </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="F17" s="276" t="str">
+        <f>IF(F4="","",(1+D16)*(1+E16)*(1+F16))</f>
+        <v/>
+      </c>
+      <c r="G17" s="290">
+        <f ca="1">IF(F4="",IF(E4="",D17,E17),F17)*(1+G16)</f>
+        <v>1.700261758081014</v>
+      </c>
+      <c r="H17" s="85"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C17" s="305">
-        <f>C14</f>
+      <c r="C18" s="295">
+        <f>C15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="241">
-        <f ca="1">IF(D14="","",IF(D14=0,0,D14/D16))</f>
-        <v>0.79594857520550355</v>
-      </c>
-      <c r="E17" s="242" t="str">
-        <f>IF(E14="","",IF(E14=0,0,E14/E16))</f>
-        <v/>
-      </c>
-      <c r="F17" s="242" t="str">
-        <f>IF(F14="","",IF(F14=0,0,F14/F16))</f>
-        <v/>
-      </c>
-      <c r="G17" s="300">
-        <f ca="1">IF(G14=0,0,G14/G16)</f>
-        <v>5.4381400006462632</v>
-      </c>
-      <c r="H17" s="108"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="6"/>
-      <c r="G18" s="147"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="D18" s="237">
+        <f ca="1">IF(D15="","",IF(D15=0,0,D15/D17))</f>
+        <v>0.46919073906850733</v>
+      </c>
+      <c r="E18" s="238">
+        <f ca="1">IF(E15="","",IF(E15=0,0,E15/E17))</f>
+        <v>0.39310705290652181</v>
+      </c>
+      <c r="F18" s="238" t="str">
+        <f>IF(F15="","",IF(F15=0,0,F15/F17))</f>
+        <v/>
+      </c>
+      <c r="G18" s="291">
+        <f ca="1">IF(G15=0,0,G15/G17)</f>
+        <v>3.4253549327447144</v>
+      </c>
+      <c r="H18" s="105"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="6"/>
+      <c r="G19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="240" t="str">
+      <c r="C20" s="236" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E20" s="95" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="83" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="112">
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="109">
         <f>Asset_Model!E59</f>
-        <v>16946370</v>
-      </c>
-      <c r="D20" s="274">
-        <f>C20/(Dashboard!I5/Data!C4)</f>
-        <v>11.676602903912285</v>
-      </c>
-      <c r="E20" s="113" t="s">
+        <v>43640996.975659996</v>
+      </c>
+      <c r="D21" s="269">
+        <f>C21/(Dashboard!I5/Data!C4)</f>
+        <v>5.4136695985890526</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>315</v>
+      </c>
+      <c r="G21" s="171">
+        <f>C21+C22+C23+C24</f>
+        <v>45928099.292460009</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="109">
+        <f>Asset_Model!E58</f>
+        <v>9794286.2868000008</v>
+      </c>
+      <c r="D22" s="269">
+        <f>C22/(Dashboard!I5/Data!C4)</f>
+        <v>1.2149820944810106</v>
+      </c>
+      <c r="E22" s="110" t="s">
         <v>316</v>
       </c>
-      <c r="G20" s="174">
-        <f>C20+C21+C22+C23</f>
-        <v>11384655.722999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
+      <c r="G22" s="239">
+        <f>G21*Data!C$4/Dashboard!I5</f>
+        <v>5.697384846621274</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="109">
+        <f>-Asset_Model!D52</f>
+        <v>-6739518.3509999998</v>
+      </c>
+      <c r="D23" s="269">
+        <f>C23/(Dashboard!I5/Data!C4)</f>
+        <v>-0.83603785739108771</v>
+      </c>
+      <c r="E23" s="433" t="str">
+        <f>IF(F24+G24=G22,"⇒","Error!")</f>
+        <v>⇒</v>
+      </c>
+      <c r="F23" s="180" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="112">
-        <f>Asset_Model!E58</f>
-        <v>15062377.5</v>
-      </c>
-      <c r="D21" s="274">
-        <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>10.378470484022422</v>
-      </c>
-      <c r="E21" s="113" t="s">
+      <c r="G23" s="113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="110" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="243">
-        <f>G20*Data!C$4/Dashboard!I5</f>
-        <v>7.8443999555788881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" s="112">
-        <f>-Asset_Model!D52</f>
-        <v>-6103303.7770000007</v>
-      </c>
-      <c r="D22" s="274">
-        <f>C22/(Dashboard!I5/Data!C4)</f>
-        <v>-4.2053758183007348</v>
-      </c>
-      <c r="E22" s="448" t="str">
-        <f>IF(F23+G23=G21,"⇒","Error!")</f>
-        <v>⇒</v>
-      </c>
-      <c r="F22" s="183" t="s">
-        <v>324</v>
-      </c>
-      <c r="G22" s="116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="113" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="112">
+      <c r="C24" s="109">
         <f>-Asset_Model!E50</f>
-        <v>-14520788</v>
-      </c>
-      <c r="D23" s="274">
-        <f>C23/(Dashboard!I5/Data!C4)</f>
-        <v>-10.005297614055085</v>
-      </c>
-      <c r="E23" s="448"/>
-      <c r="F23" s="189">
-        <f>D20</f>
-        <v>11.676602903912285</v>
-      </c>
-      <c r="G23" s="188">
-        <f>SUM(D21:D23)</f>
-        <v>-3.8322029483333973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="240" t="str">
+        <v>-767665.61899998784</v>
+      </c>
+      <c r="D24" s="269">
+        <f>C24/(Dashboard!I5/Data!C4)</f>
+        <v>-9.522898905770083E-2</v>
+      </c>
+      <c r="E24" s="433"/>
+      <c r="F24" s="186">
+        <f>D21</f>
+        <v>5.4136695985890526</v>
+      </c>
+      <c r="G24" s="185">
+        <f>SUM(D22:D24)</f>
+        <v>0.28371524803222203</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="236" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E25" s="114"/>
-      <c r="F25" s="447" t="s">
-        <v>307</v>
-      </c>
-      <c r="G25" s="447"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="164" t="str">
-        <f>"Exit after Year "&amp;B27</f>
-        <v>Exit after Year 1</v>
-      </c>
-      <c r="C26" s="164" t="s">
+      <c r="E26" s="111"/>
+      <c r="F26" s="432" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="432"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="161" t="str">
+        <f>"Exit after Year "&amp;B28</f>
+        <v>Exit after Year 2</v>
+      </c>
+      <c r="C27" s="161" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="247" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27" s="161" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="251" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="164" t="s">
+      <c r="F27" s="331" t="s">
+        <v>305</v>
+      </c>
+      <c r="G27" s="331" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="347" t="s">
-        <v>306</v>
-      </c>
-      <c r="G26" s="347" t="s">
-        <v>305</v>
-      </c>
-      <c r="I26" s="115" t="s">
+      <c r="I27" s="112" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="256">
+    <row r="28" spans="2:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="252">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="250">
+        <v>2</v>
+      </c>
+      <c r="D28" s="246">
         <v>8</v>
       </c>
-      <c r="E27" s="255">
-        <f ca="1">G12*D27/G16</f>
-        <v>3.8028951053470363</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="116"/>
-      <c r="I27" s="117"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="183" t="s">
-        <v>334</v>
-      </c>
-      <c r="C28" s="14">
-        <f>1/D28</f>
+      <c r="E28" s="251">
+        <f ca="1">G12*D28/G17</f>
+        <v>2.3953530998214783</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="113"/>
+      <c r="I28" s="114"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="180" t="s">
+        <v>333</v>
+      </c>
+      <c r="C29" s="14">
+        <f>1/D29</f>
         <v>0.125</v>
       </c>
-      <c r="D28" s="250">
+      <c r="D29" s="246">
         <f>'Qualitative Analysis'!E21</f>
         <v>8</v>
       </c>
-      <c r="E28" s="260">
-        <f t="dataTable" ref="E28:E30" dt2D="0" dtr="0" r1="D27" ca="1"/>
-        <v>3.8028951053470363</v>
-      </c>
-      <c r="F28" s="449">
-        <f ca="1">SUM(C17:F17)</f>
-        <v>0.79594857520550355</v>
-      </c>
-      <c r="G28" s="260">
-        <f ca="1">$F$28+E28+$G$21</f>
-        <v>12.443243636131427</v>
-      </c>
-      <c r="I28" s="99"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="183" t="s">
+      <c r="E29" s="256">
+        <f t="dataTable" ref="E29:E31" dt2D="0" dtr="0" r1="D28" ca="1"/>
+        <v>2.3953530998214783</v>
+      </c>
+      <c r="F29" s="434">
+        <f ca="1">SUM(C18:F18)</f>
+        <v>0.8622977919750292</v>
+      </c>
+      <c r="G29" s="256">
+        <f ca="1">$F$29+E29+$G$22</f>
+        <v>8.9550357384177808</v>
+      </c>
+      <c r="I29" s="97"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="180" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" ref="C30" si="0">1/D30</f>
+        <v>9.6153846153846145E-2</v>
+      </c>
+      <c r="D30" s="246">
+        <f>D29*1.3</f>
+        <v>10.4</v>
+      </c>
+      <c r="E30" s="255">
+        <v>3.1139590297679223</v>
+      </c>
+      <c r="F30" s="435"/>
+      <c r="G30" s="255">
+        <f ca="1">$F$29+E30+$G$22</f>
+        <v>9.6736416683642261</v>
+      </c>
+      <c r="I30" s="97"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="184" t="s">
         <v>335</v>
       </c>
-      <c r="C29" s="14">
-        <f t="shared" ref="C29" si="0">1/D29</f>
-        <v>9.6153846153846145E-2</v>
-      </c>
-      <c r="D29" s="250">
-        <f>D28*1.3</f>
-        <v>10.4</v>
-      </c>
-      <c r="E29" s="259">
-        <v>4.9437636369511475</v>
-      </c>
-      <c r="F29" s="450"/>
-      <c r="G29" s="259">
-        <f ca="1">$F$28+E29+$G$21</f>
-        <v>13.58411216773554</v>
-      </c>
-      <c r="I29" s="99"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="187" t="s">
-        <v>336</v>
-      </c>
-      <c r="C30" s="252">
-        <f>1/D30</f>
+      <c r="C31" s="248">
+        <f>1/D31</f>
         <v>8.7412587412587409E-2</v>
       </c>
-      <c r="D30" s="253">
-        <f>D29*1.1</f>
+      <c r="D31" s="249">
+        <f>D30*1.1</f>
         <v>11.440000000000001</v>
       </c>
-      <c r="E30" s="261">
-        <v>5.4381400006462632</v>
-      </c>
-      <c r="F30" s="451"/>
-      <c r="G30" s="261">
-        <f ca="1">$F$28+E30+$G$21</f>
-        <v>14.078488531430654</v>
-      </c>
-      <c r="I30" s="99"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="E31" s="257">
+        <v>3.4253549327447144</v>
+      </c>
+      <c r="F31" s="436"/>
+      <c r="G31" s="257">
+        <f ca="1">$F$29+E31+$G$22</f>
+        <v>9.9850375713410173</v>
+      </c>
+      <c r="I31" s="97"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="325" t="str">
+      <c r="C33" s="311" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D32" s="164"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="121"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="96" t="s">
+      <c r="D33" s="161"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="118"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="327">
-        <f ca="1">MIN(Asset_Model!D7,G28)+(ABS(Asset_Model!D7-G28)*'Qualitative Analysis'!E80)*Exchange_Rate</f>
-        <v>15.507841815017519</v>
-      </c>
-      <c r="D33" s="24" t="str">
-        <f ca="1">IF(C33&lt;E33,"&lt;",IF(C33=E33,"=","&gt;"))</f>
+      <c r="C34" s="313">
+        <f ca="1">MIN(Asset_Model!D7,G29)+(ABS(Asset_Model!D7-G29)*'Qualitative Analysis'!E80)*Exchange_Rate</f>
+        <v>11.094884983632483</v>
+      </c>
+      <c r="D34" s="24" t="str">
+        <f ca="1">IF(C34&lt;E34,"&lt;",IF(C34=E34,"=","&gt;"))</f>
         <v>&gt;</v>
       </c>
-      <c r="E33" s="326">
-        <f ca="1">G29*Exchange_Rate</f>
-        <v>13.58411216773554</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="160"/>
+      <c r="E34" s="312">
+        <f ca="1">G30*Exchange_Rate</f>
+        <v>9.6736416683642261</v>
+      </c>
+      <c r="F34" s="32"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="119"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="410" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="116"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="350" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="446"/>
-      <c r="E35" s="32" t="s">
+      <c r="D36" s="431"/>
+      <c r="E36" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F36" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="331" t="s">
-        <v>310</v>
-      </c>
-      <c r="C36" s="328">
-        <f ca="1">MIN(C33,E33)+(ABS(C33-E33)*'Qualitative Analysis'!E80)</f>
-        <v>14.56222618170788</v>
-      </c>
-      <c r="D36" s="155" t="str">
+      <c r="G36" s="32"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="317" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="314">
+        <f ca="1">MIN(C34,E34)+(ABS(C34-E34)*'Qualitative Analysis'!E80)</f>
+        <v>10.467330324753545</v>
+      </c>
+      <c r="D37" s="152" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E36" s="156">
-        <f ca="1">(C36-G21)/C12</f>
-        <v>2.6876160024623776</v>
-      </c>
-      <c r="F36" s="199">
-        <f ca="1">C36/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.16498310271306268</v>
-      </c>
-      <c r="G36" s="116"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="99"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="330" t="s">
-        <v>309</v>
-      </c>
-      <c r="C37" s="329">
-        <f ca="1">(G14/(1+G37)^B27+F28+G21)*Exchange_Rate</f>
-        <v>16.168181895188106</v>
-      </c>
-      <c r="D37" s="262" t="str">
-        <f>D36</f>
+      <c r="E37" s="153">
+        <f ca="1">(C37-G22)/C12</f>
+        <v>8.368325400232056</v>
+      </c>
+      <c r="F37" s="196">
+        <f ca="1">C37/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.53327852226888239</v>
+      </c>
+      <c r="G37" s="113"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="97"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="316" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="315">
+        <f ca="1">(G15/(1+G38)^B28+F29+G22)*Exchange_Rate</f>
+        <v>12.058967415253157</v>
+      </c>
+      <c r="D38" s="258" t="str">
+        <f>D37</f>
         <v>HKD</v>
       </c>
-      <c r="E37" s="156">
-        <f ca="1">(C37-G21)/C12</f>
-        <v>3.330114353790298</v>
-      </c>
-      <c r="F37" s="199">
-        <f ca="1">C37/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.1831778178015124</v>
-      </c>
-      <c r="G37" s="263">
+      <c r="E38" s="153">
+        <f ca="1">(C38-G22)/C12</f>
+        <v>11.160671173038393</v>
+      </c>
+      <c r="F38" s="196">
+        <f ca="1">C38/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.61436757260703168</v>
+      </c>
+      <c r="G38" s="349">
         <f>Dashboard!D10</f>
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13714,21 +13778,22 @@
     <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F29:F31"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F17">
+  <conditionalFormatting sqref="E4:F18">
     <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30 G28:G30">
+  <conditionalFormatting sqref="E29:E31 G29:G31">
     <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$33</formula>
+      <formula>$E$34</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13744,7 +13809,7 @@
   <dimension ref="A2:H93"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13761,15 +13826,15 @@
       <c r="B2" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="126"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="128"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
@@ -13777,8 +13842,8 @@
       <c r="B4" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="125">
+      <c r="C4" s="125"/>
+      <c r="D4" s="122">
         <f>IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
         <v>1</v>
       </c>
@@ -13790,8 +13855,8 @@
       <c r="B5" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="125">
+      <c r="C5" s="125"/>
+      <c r="D5" s="122">
         <f t="shared" ref="D5" si="0">IF(E5="Strongly disagree",0,IF(E5="disagree",1,IF(E5="unclear",2,IF(E5="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -13803,8 +13868,8 @@
       <c r="B6" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="125">
+      <c r="C6" s="125"/>
+      <c r="D6" s="122">
         <f>IF(E6="Strongly disagree",0,IF(E6="disagree",1,IF(E6="unclear",2,IF(E6="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -13813,29 +13878,29 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="125">
+      <c r="C7" s="125"/>
+      <c r="D7" s="122">
         <f>AVERAGE(D4:D6)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="127">
         <f>D7/4</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="128" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="40"/>
       <c r="E9" s="24"/>
     </row>
@@ -13843,7 +13908,7 @@
       <c r="B10" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="129">
         <f>IF(E10="Strongly disagree",0,IF(E10="disagree",1,IF(E10="unclear",2,IF(E10="agree",3,4))))</f>
         <v>3</v>
       </c>
@@ -13855,12 +13920,12 @@
       <c r="B11" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="132">
+      <c r="C11" s="55"/>
+      <c r="D11" s="129">
         <f>IF(E11="Strongly disagree",0,IF(E11="disagree",1,IF(E11="unclear",2,IF(E11="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="134" t="str">
+      <c r="E11" s="131" t="str">
         <f>IF(D7&gt;=3.5,"Strongly agree",IF(D7&gt;=2.5,"agree",IF(D7&gt;=1.5,"unclear",IF(D7&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>Strongly disagree</v>
       </c>
@@ -13869,32 +13934,32 @@
       <c r="B12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="129">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E12" s="133" t="str">
+      <c r="E12" s="130" t="str">
         <f>IF(D80&gt;=3.5,"Strongly agree",IF(D80&gt;=2.5,"agree",IF(D80&gt;=1.5,"unclear",IF(D80&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="129">
         <f>AVERAGE(D10:D12)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="127">
         <f>D13/3</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B14" s="129"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="116"/>
+      <c r="B14" s="126"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -13908,15 +13973,15 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="203" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="118">
+      <c r="D16" s="115">
         <f>1/E16</f>
         <v>0.125</v>
       </c>
-      <c r="E16" s="250">
+      <c r="E16" s="246">
         <v>8</v>
       </c>
     </row>
@@ -13925,7 +13990,7 @@
         <v>204</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="132" t="str">
+      <c r="D17" s="129" t="str">
         <f>IF(LEFT(E17,3)="(+)","+","-")</f>
         <v>-</v>
       </c>
@@ -13938,11 +14003,11 @@
       <c r="B18" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="132" t="str">
+      <c r="D18" s="129" t="str">
         <f t="shared" ref="D18:D19" si="1">IF(LEFT(E18,3)="(+)","+","-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="185" t="s">
+      <c r="E18" s="182" t="s">
         <v>207</v>
       </c>
     </row>
@@ -13950,7 +14015,7 @@
       <c r="B19" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="132" t="str">
+      <c r="D19" s="129" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
@@ -13959,27 +14024,27 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="132" t="str">
+      <c r="D20" s="129" t="str">
         <f>D17&amp;D18&amp;D19</f>
         <v>--+</v>
       </c>
-      <c r="E20" s="186" t="str">
+      <c r="E20" s="183" t="str">
         <f>IF(D20="+-+","Growth", IF(D20="+--","Mature", "Shakeout/Decline")) &amp; " stage"</f>
         <v>Shakeout/Decline stage</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="118">
+      <c r="D21" s="115">
         <f>1/E21</f>
         <v>0.125</v>
       </c>
-      <c r="E21" s="250">
+      <c r="E21" s="246">
         <f>IF(LEFT(E20,1)="G", E16/2.4, IF(LEFT(E20,1)="M", E16/1.8, E16))</f>
         <v>8</v>
       </c>
@@ -13998,31 +14063,31 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="124"/>
+      <c r="C24" s="121"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="132">
+      <c r="D25" s="129">
         <f>IF(E25="Strongly disagree",0,IF(E25="disagree",1,IF(E25="unclear",2,IF(E25="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E25" s="133" t="str">
+      <c r="E25" s="130" t="str">
         <f>E11</f>
         <v>Strongly disagree</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="132">
+      <c r="D26" s="129">
         <f>IF(E26="Strongly disagree",0,IF(E26="disagree",1,IF(E26="unclear",2,IF(E26="agree",3,4))))</f>
         <v>2</v>
       </c>
@@ -14032,10 +14097,10 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="132">
+      <c r="D27" s="129">
         <f>IF(E27="Strongly disagree",0,IF(E27="disagree",1,IF(E27="unclear",2,IF(E27="agree",3,4))))</f>
         <v>2</v>
       </c>
@@ -14045,10 +14110,10 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="132">
+      <c r="D28" s="129">
         <f>IF(E28="Strongly disagree",0,IF(E28="disagree",1,IF(E28="unclear",2,IF(E28="agree",3,4))))</f>
         <v>2</v>
       </c>
@@ -14058,10 +14123,10 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="132">
+      <c r="D29" s="129">
         <f>IF(E29="Strongly disagree",0,IF(E29="disagree",1,IF(E29="unclear",2,IF(E29="agree",3,4))))</f>
         <v>4</v>
       </c>
@@ -14071,33 +14136,33 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="128" t="s">
         <v>220</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="132">
+      <c r="D31" s="129">
         <f>IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="53" t="str">
+        <v>4</v>
+      </c>
+      <c r="E31" s="51" t="str">
         <f>IF(OR(Asset_Model!I24&lt;0.8,Asset_Model!I44&lt;0.6),"Strongly disagree",
 IF(OR(Asset_Model!I24&lt;1,Asset_Model!I44&lt;0.8),"unclear", IF(OR(Asset_Model!I24&lt;1.8,Asset_Model!I44&lt;1.4),"agree","Strongly agree"))
 )</f>
-        <v>Strongly disagree</v>
+        <v>Strongly agree</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="132">
+      <c r="D32" s="129">
         <f t="shared" ref="D32:D35" si="2">IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
         <v>1</v>
       </c>
@@ -14107,10 +14172,10 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="132">
+      <c r="D33" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14120,10 +14185,10 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="132">
+      <c r="D34" s="129">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -14133,10 +14198,10 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="132">
+      <c r="D35" s="129">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14146,17 +14211,17 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="128" t="s">
         <v>226</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="132">
+      <c r="D37" s="129">
         <f t="shared" ref="D37:D41" si="3">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>4</v>
       </c>
@@ -14166,10 +14231,10 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="132">
+      <c r="D38" s="129">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -14179,10 +14244,10 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="132">
+      <c r="D39" s="129">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -14192,10 +14257,10 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="132">
+      <c r="D40" s="129">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -14205,10 +14270,10 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="D41" s="132">
+      <c r="D41" s="129">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -14218,7 +14283,7 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="128" t="s">
         <v>232</v>
       </c>
       <c r="D42" s="40"/>
@@ -14228,21 +14293,21 @@
       <c r="B43" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="135">
+      <c r="D43" s="132">
         <f>SUM(D44:D49)/(6*4)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E43" s="53" t="str">
+      <c r="E43" s="51" t="str">
         <f>IF(D43&gt;80%,"Very High",IF(D43&lt;=20%,"Very Low",IF(D43&lt;=40%,"Low",IF(D43&lt;=60%,"Medium","High"))))</f>
         <v>High</v>
       </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="132">
+      <c r="D44" s="129">
         <f t="shared" ref="D44:D49" si="4">IF(E44="Strongly disagree",0,IF(E44="disagree",1,IF(E44="unclear",2,IF(E44="agree",3,4))))</f>
         <v>2</v>
       </c>
@@ -14252,10 +14317,10 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="132">
+      <c r="D45" s="129">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -14265,10 +14330,10 @@
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="D46" s="132">
+      <c r="D46" s="129">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -14278,10 +14343,10 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="132">
+      <c r="D47" s="129">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14291,10 +14356,10 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="D48" s="132">
+      <c r="D48" s="129">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -14304,10 +14369,10 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="D49" s="132">
+      <c r="D49" s="129">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -14319,21 +14384,21 @@
       <c r="B50" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="135">
+      <c r="D50" s="132">
         <f>SUM(D51:D56)/(6*4)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="53" t="str">
+      <c r="E50" s="51" t="str">
         <f>IF(D50&gt;80%,"Very High",IF(D50&lt;=20%,"Very Low",IF(D50&lt;=40%,"Low",IF(D50&lt;=60%,"Medium","High"))))</f>
         <v>Very Low</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="D51" s="132">
+      <c r="D51" s="129">
         <f t="shared" ref="D51:D56" si="5">IF(E51="Strongly disagree",0,IF(E51="disagree",1,IF(E51="unclear",2,IF(E51="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -14343,10 +14408,10 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="132">
+      <c r="D52" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14356,10 +14421,10 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="132">
+      <c r="D53" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14369,10 +14434,10 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="132">
+      <c r="D54" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14382,10 +14447,10 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="132">
+      <c r="D55" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14395,10 +14460,10 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="D56" s="132">
+      <c r="D56" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14410,21 +14475,21 @@
       <c r="B57" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D57" s="135">
+      <c r="D57" s="132">
         <f>SUM(D58:D63)/(6*4)</f>
         <v>0.5</v>
       </c>
-      <c r="E57" s="53" t="str">
+      <c r="E57" s="51" t="str">
         <f>IF(D57&gt;80%,"Very High",IF(D57&lt;=20%,"Very Low",IF(D57&lt;=40%,"Low",IF(D57&lt;=60%,"Medium","High"))))</f>
         <v>Medium</v>
       </c>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="132">
+      <c r="D58" s="129">
         <f t="shared" ref="D58:D63" si="6">IF(E58="Strongly disagree",0,IF(E58="disagree",1,IF(E58="unclear",2,IF(E58="agree",3,4))))</f>
         <v>1</v>
       </c>
@@ -14434,10 +14499,10 @@
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="D59" s="132">
+      <c r="D59" s="129">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -14447,10 +14512,10 @@
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="D60" s="132">
+      <c r="D60" s="129">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -14460,10 +14525,10 @@
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="132">
+      <c r="D61" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -14473,10 +14538,10 @@
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="132">
+      <c r="D62" s="129">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -14486,10 +14551,10 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="D63" s="132">
+      <c r="D63" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -14502,21 +14567,21 @@
       <c r="B64" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D64" s="135">
+      <c r="D64" s="132">
         <f>SUM(D65:D70)/(6*4)</f>
         <v>0.24773242630385486</v>
       </c>
-      <c r="E64" s="53" t="str">
+      <c r="E64" s="51" t="str">
         <f>IF(D64&gt;80%,"Very High",IF(D64&lt;=20%,"Very Low",IF(D64&lt;=40%,"Low",IF(D64&lt;=60%,"Medium","High"))))</f>
         <v>Low</v>
       </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="D65" s="132">
+      <c r="D65" s="129">
         <f t="shared" ref="D65:D68" si="7">IF(E65="Strongly disagree",0,IF(E65="disagree",1,IF(E65="unclear",2,IF(E65="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -14525,10 +14590,10 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="D66" s="132">
+      <c r="D66" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -14538,10 +14603,10 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="D67" s="132">
+      <c r="D67" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -14551,10 +14616,10 @@
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="132">
+      <c r="D68" s="129">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -14563,342 +14628,342 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="D69" s="132">
+      <c r="D69" s="129">
         <f>IF(E69="Strongly disagree",0,IF(E69="disagree",1,IF(E69="unclear",2,IF(E69="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="136">
+      <c r="D70" s="133">
         <f t="array" ref="D70">(1-INDEX(B84:E93,MATCH(E70,B84:B93,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D71" s="137">
+      <c r="D71" s="134">
         <f>SUM(D72:D77)/(6*4)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E71" s="53" t="str">
+      <c r="E71" s="51" t="str">
         <f>IF(D71&gt;80%,"Very High",IF(D71&lt;=20%,"Very Low",IF(D71&lt;=40%,"Low",IF(D71&lt;=60%,"Medium","High"))))</f>
         <v>High</v>
       </c>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="D72" s="132">
+      <c r="D72" s="129">
         <f t="shared" ref="D72:D76" si="8">IF(E72="Strongly disagree",0,IF(E72="disagree",1,IF(E72="unclear",2,IF(E72="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="132">
+      <c r="D73" s="129">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="D74" s="132">
+      <c r="D74" s="129">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="D75" s="132">
+      <c r="D75" s="129">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="D76" s="132">
+      <c r="D76" s="129">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="132">
+      <c r="D77" s="129">
         <f>IF(E77="Strongly disagree",0,IF(E77="disagree",1,IF(E77="non-perishable",2,IF(E77="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E77" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="183" t="s">
+      <c r="B78" s="180" t="s">
         <v>264</v>
       </c>
-      <c r="D78" s="163">
+      <c r="D78" s="160">
         <f>1-AVERAGE(D43,D50,D57,D64,D71)</f>
         <v>0.58378684807256243</v>
       </c>
-      <c r="E78" s="53" t="str">
+      <c r="E78" s="51" t="str">
         <f>IF(D78&gt;80%,"Very Low",IF(D78&lt;=20%,"Very High",IF(D78&lt;=40%,"High",IF(D78&lt;=60%,"Medium","Low"))))</f>
         <v>Medium</v>
       </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
     </row>
     <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="6"/>
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="129" t="s">
+      <c r="B80" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="D80" s="125">
+      <c r="D80" s="122">
         <f>E80*4</f>
-        <v>2.0337868480725625</v>
-      </c>
-      <c r="E80" s="162">
+        <v>2.2337868480725622</v>
+      </c>
+      <c r="E80" s="159">
         <f>AVERAGE(AVERAGE(D25:D29)/4,AVERAGE(D31:D35)/4,AVERAGE(D37:D41)/4,D78)</f>
-        <v>0.50844671201814062</v>
+        <v>0.55844671201814056</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="58" t="s">
+      <c r="B82" s="56" t="s">
         <v>266</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="60"/>
+      <c r="E82" s="58"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="138" t="s">
+      <c r="B83" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="C83" s="139"/>
-      <c r="D83" s="139"/>
-      <c r="E83" s="140"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="137"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="141" t="s">
+      <c r="B84" s="138" t="s">
         <v>268</v>
       </c>
-      <c r="C84" s="139"/>
-      <c r="D84" s="139">
+      <c r="C84" s="136"/>
+      <c r="D84" s="136">
         <v>1</v>
       </c>
-      <c r="E84" s="142">
+      <c r="E84" s="139">
         <f t="shared" ref="E84:E92" si="9">D84/MAX($D$84:$D$93)</f>
         <v>3.4013605442176874E-2</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="141" t="str">
+      <c r="B85" s="138" t="str">
         <f t="shared" ref="B85:B93" si="10">C85&amp;", "&amp;D85&amp;"y"</f>
         <v>Information Technology Like, 6.6y</v>
       </c>
-      <c r="C85" s="139" t="s">
+      <c r="C85" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="D85" s="139">
+      <c r="D85" s="136">
         <v>6.6</v>
       </c>
-      <c r="E85" s="142">
+      <c r="E85" s="139">
         <f t="shared" si="9"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="141" t="str">
+      <c r="B86" s="138" t="str">
         <f t="shared" si="10"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C86" s="139" t="s">
+      <c r="C86" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="139">
+      <c r="D86" s="136">
         <v>11.4</v>
       </c>
-      <c r="E86" s="142">
+      <c r="E86" s="139">
         <f t="shared" si="9"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="141" t="str">
+      <c r="B87" s="138" t="str">
         <f t="shared" si="10"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C87" s="139" t="s">
+      <c r="C87" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="D87" s="139">
+      <c r="D87" s="136">
         <v>12.4</v>
       </c>
-      <c r="E87" s="142">
+      <c r="E87" s="139">
         <f t="shared" si="9"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="141" t="str">
+      <c r="B88" s="138" t="str">
         <f t="shared" si="10"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C88" s="139" t="s">
+      <c r="C88" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="D88" s="139">
+      <c r="D88" s="136">
         <v>15.1</v>
       </c>
-      <c r="E88" s="142">
+      <c r="E88" s="139">
         <f t="shared" si="9"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="141" t="str">
+      <c r="B89" s="138" t="str">
         <f t="shared" si="10"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C89" s="139" t="s">
+      <c r="C89" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D89" s="139">
+      <c r="D89" s="136">
         <v>15.4</v>
       </c>
-      <c r="E89" s="142">
+      <c r="E89" s="139">
         <f t="shared" si="9"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="141" t="str">
+      <c r="B90" s="138" t="str">
         <f t="shared" si="10"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C90" s="139" t="s">
+      <c r="C90" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="D90" s="139">
+      <c r="D90" s="136">
         <v>16.100000000000001</v>
       </c>
-      <c r="E90" s="142">
+      <c r="E90" s="139">
         <f t="shared" si="9"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="141" t="str">
+      <c r="B91" s="138" t="str">
         <f t="shared" si="10"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C91" s="139" t="s">
+      <c r="C91" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="D91" s="139">
+      <c r="D91" s="136">
         <v>17.600000000000001</v>
       </c>
-      <c r="E91" s="142">
+      <c r="E91" s="139">
         <f t="shared" si="9"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="141" t="str">
+      <c r="B92" s="138" t="str">
         <f t="shared" si="10"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C92" s="139" t="s">
+      <c r="C92" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="139">
+      <c r="D92" s="136">
         <v>18.600000000000001</v>
       </c>
-      <c r="E92" s="142">
+      <c r="E92" s="139">
         <f t="shared" si="9"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="143" t="str">
+      <c r="B93" s="140" t="str">
         <f t="shared" si="10"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C93" s="144" t="s">
+      <c r="C93" s="141" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="144">
+      <c r="D93" s="141">
         <v>29.4</v>
       </c>
-      <c r="E93" s="145">
+      <c r="E93" s="142">
         <f>D93/MAX($D$85:$D$93)</f>
         <v>1</v>
       </c>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97333FF6-5A5B-4F4D-9A6F-9CCD0542B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BED6D1-7039-41C9-BDCA-CE73FE2B4DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="367">
   <si>
     <t>Company Info:</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Data Adjustments</t>
-  </si>
-  <si>
-    <t>Non-cash WC/ Sales Requirement =</t>
   </si>
   <si>
     <t>Capitalize R&amp;D expenses?</t>
@@ -1206,9 +1203,6 @@
     <t>Ending Cash Position</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Total Debt + PS + Options = </t>
-  </si>
-  <si>
     <t>+ Interest Bearing Debt</t>
   </si>
   <si>
@@ -1343,6 +1337,55 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>22年底香港物业价格下跌，开关后持续回暖</t>
+  </si>
+  <si>
+    <t>物業管理及其他服務 比较稳定</t>
+  </si>
+  <si>
+    <t>經營租賃之租金收益 比较稳定</t>
+  </si>
+  <si>
+    <t>酒店經營 宏观背景及业绩明显在好转</t>
+  </si>
+  <si>
+    <t>Base Year</t>
+  </si>
+  <si>
+    <t>https://edgeinvestments.org/blog/peter-lynch-stock-categories</t>
+  </si>
+  <si>
+    <t>Slow Growers</t>
+  </si>
+  <si>
+    <t>4. Working Capital</t>
+  </si>
+  <si>
+    <t>2. Total Debt + PS + Options</t>
+  </si>
+  <si>
+    <t>Non-cash WC/ Sales Benchmark</t>
+  </si>
+  <si>
+    <t>Current Non-cash WC/ Sales Estimate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WC/Sales for the model</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1373,8 +1416,8 @@
     <numFmt numFmtId="181" formatCode="&quot;Discount rate = &quot;0.00%"/>
     <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Price_Target_1 = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Price_Target_2 = &quot;0.00"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Ideal Price = &quot;0.00"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1584,7 +1627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1665,12 +1708,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1736,7 +1773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="104">
     <border>
       <left/>
       <right/>
@@ -2599,21 +2636,6 @@
         <color indexed="64"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
         <color rgb="FF000000"/>
       </top>
       <bottom style="dotted">
@@ -2979,11 +3001,72 @@
       <left style="dotted">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="dotted">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -2991,25 +3074,14 @@
     <border>
       <left/>
       <right style="dotted">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3018,7 +3090,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3324,21 +3396,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3358,7 +3418,7 @@
     <xf numFmtId="10" fontId="2" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3450,13 +3510,10 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="17" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="17" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="17" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="16" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="16" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3487,46 +3544,46 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="16" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="15" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="15" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="19" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="19" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3544,7 +3601,7 @@
     <xf numFmtId="10" fontId="7" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="22" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3572,7 +3629,7 @@
     <xf numFmtId="4" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3584,13 +3641,10 @@
     <xf numFmtId="3" fontId="1" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="174" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3653,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="174" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3632,16 +3686,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3680,49 +3734,46 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="16" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="16" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="16" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3734,7 +3785,7 @@
     <xf numFmtId="4" fontId="2" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3746,7 +3797,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3755,50 +3806,50 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="11" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="11" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="16" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="15" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3829,16 +3880,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="15" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
@@ -3854,25 +3905,19 @@
     <xf numFmtId="183" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="18" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="17" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3888,7 +3933,133 @@
     <xf numFmtId="179" fontId="18" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="19" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="18" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="12" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="17" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="22" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="9" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3910,13 +4081,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3950,90 +4121,52 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4041,9 +4174,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4053,10 +4183,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4077,81 +4207,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="12" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="16" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="23" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4159,7 +4250,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4174,6 +4265,27 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4257,40 +4369,12 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -4508,10 +4592,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L967"/>
+  <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4539,11 +4623,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="350" t="str">
+      <c r="C2" s="385" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0083.HK : SINO LAND</v>
       </c>
-      <c r="D2" s="351"/>
+      <c r="D2" s="386"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4555,27 +4639,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="352" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="353"/>
+      <c r="C3" s="387" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="388"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="364" t="s">
+      <c r="I3" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="365"/>
+      <c r="J3" s="400"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="354" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="355"/>
+      <c r="C4" s="389" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="390"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4586,66 +4670,66 @@
       <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="190"/>
+      <c r="K4" s="186"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="356">
+      <c r="C5" s="391">
         <v>44959</v>
       </c>
-      <c r="D5" s="355"/>
-      <c r="E5" s="155" t="str">
+      <c r="D5" s="390"/>
+      <c r="E5" s="151" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="366">
+      <c r="I5" s="401">
         <v>8061259776</v>
       </c>
-      <c r="J5" s="367"/>
-      <c r="K5" s="189"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="185"/>
       <c r="L5" s="110"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" s="336">
+        <v>338</v>
+      </c>
+      <c r="C6" s="329">
         <v>8</v>
       </c>
-      <c r="D6" s="337">
+      <c r="D6" s="330">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="155"/>
-      <c r="G6" s="168" t="s">
+      <c r="E6" s="151"/>
+      <c r="G6" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="167"/>
-      <c r="I6" s="368">
+      <c r="H6" s="163"/>
+      <c r="I6" s="403">
         <f>I4*I5/1000000</f>
         <v>80935.048151039999</v>
       </c>
-      <c r="J6" s="369"/>
-      <c r="K6" s="189"/>
+      <c r="J6" s="404"/>
+      <c r="K6" s="185"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="179">
+      <c r="C7" s="175">
         <f>(Data!C39)/I4</f>
         <v>3.7730094313420892E-2</v>
       </c>
-      <c r="D7" s="179">
+      <c r="D7" s="175">
         <f>(Data!C40)/I4</f>
         <v>0</v>
       </c>
-      <c r="E7" s="191"/>
+      <c r="E7" s="187"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4654,7 +4738,7 @@
       <c r="G8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="166"/>
+      <c r="H8" s="162"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4667,7 +4751,7 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="154">
+      <c r="I9" s="150">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
         <v>14.111501307152984</v>
       </c>
@@ -4680,33 +4764,33 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="158">
+      <c r="D10" s="154">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="172">
+      <c r="I10" s="168">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
         <v>0.51150734690372379</v>
       </c>
-      <c r="J10" s="164">
+      <c r="J10" s="160">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
         <v>2.8028701751985206</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" s="253">
+        <v>306</v>
+      </c>
+      <c r="C11" s="247">
         <v>0.1</v>
       </c>
-      <c r="D11" s="328">
+      <c r="D11" s="321">
         <f ca="1">$C$11*(2-'Qualitative Analysis'!$E$13+IF($C$5+30&gt;=TODAY(),0.2,0))</f>
         <v>0.16444444444444445</v>
       </c>
@@ -4715,30 +4799,30 @@
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="376" t="s">
+      <c r="I11" s="372" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="377"/>
+      <c r="J11" s="373"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="330">
+        <v>330</v>
+      </c>
+      <c r="C12" s="323">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="D12" s="329">
+      <c r="D12" s="322">
         <f ca="1">D11+C12</f>
         <v>0.19354444444444446</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="167"/>
-      <c r="I12" s="169">
+      <c r="H12" s="163"/>
+      <c r="I12" s="165">
         <v>1</v>
       </c>
-      <c r="J12" s="170" t="str">
+      <c r="J12" s="166" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>HKD</v>
       </c>
@@ -4749,35 +4833,35 @@
       <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="161" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="224">
+      <c r="C14" s="157" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="219">
         <f ca="1">'FCFF Model'!C34</f>
         <v>11.094884983632483</v>
       </c>
-      <c r="E14" s="161" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14" s="224">
+      <c r="E14" s="157" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="219">
         <f ca="1">'FCFF Model'!E34</f>
         <v>9.6736416683642261</v>
       </c>
-      <c r="G14" s="225" t="s">
+      <c r="G14" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="235">
+      <c r="H14" s="230">
         <f ca="1">IF('FCFF Model'!C37&lt;0, "Error", 'FCFF Model'!C37)</f>
         <v>10.467330324753545</v>
       </c>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="125"/>
-      <c r="C15" s="296" t="s">
-        <v>328</v>
+      <c r="C15" s="289" t="s">
+        <v>326</v>
       </c>
       <c r="D15" s="117" t="s">
         <v>21</v>
@@ -4788,92 +4872,93 @@
       <c r="F15" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="173"/>
+      <c r="G15" s="169"/>
       <c r="H15" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="162" t="s">
+      <c r="J15" s="158" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="165">
+      <c r="B16" s="161">
         <f>I4</f>
         <v>10.039999999999999</v>
       </c>
-      <c r="C16" s="404">
+      <c r="C16" s="424">
         <f ca="1">D11/2</f>
         <v>8.2222222222222224E-2</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="193">
         <f ca="1">H14/B16-1-C16</f>
         <v>-3.9659440872267498E-2</v>
       </c>
-      <c r="E16" s="385">
+      <c r="E16" s="381">
         <f>'FCFF Model'!D15</f>
         <v>0.55999999999999994</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="195">
         <f>E16/B16</f>
         <v>5.5776892430278883E-2</v>
       </c>
-      <c r="G16" s="373" t="s">
+      <c r="G16" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="370">
+      <c r="H16" s="405">
         <f>('FCFF Model'!G22)*Exchange_Rate</f>
         <v>5.697384846621274</v>
       </c>
-      <c r="I16" s="373" t="s">
+      <c r="I16" s="408" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="256">
+      <c r="J16" s="250">
         <f>B16-$H$16</f>
         <v>4.3426151533787252</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="342">
-        <v>9.65</v>
-      </c>
-      <c r="C17" s="405"/>
-      <c r="D17" s="198">
+      <c r="B17" s="369">
+        <f ca="1">H14/(1+C16)</f>
+        <v>9.6720711419693952</v>
+      </c>
+      <c r="C17" s="425"/>
+      <c r="D17" s="368">
         <f ca="1">H14/B17-1-C16</f>
-        <v>2.475220757419655E-3</v>
-      </c>
-      <c r="E17" s="386"/>
-      <c r="F17" s="201">
-        <f>E16/B17</f>
-        <v>5.8031088082901548E-2</v>
-      </c>
-      <c r="G17" s="374"/>
-      <c r="H17" s="371"/>
-      <c r="I17" s="374"/>
-      <c r="J17" s="255">
-        <f>B17-$H$16</f>
-        <v>3.9526151533787264</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="382"/>
+      <c r="F17" s="196">
+        <f ca="1">E16/B17</f>
+        <v>5.7898664286083257E-2</v>
+      </c>
+      <c r="G17" s="409"/>
+      <c r="H17" s="406"/>
+      <c r="I17" s="409"/>
+      <c r="J17" s="249">
+        <f ca="1">B17-$H$16</f>
+        <v>3.9746862953481212</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="343">
-        <v>8.5</v>
-      </c>
-      <c r="C18" s="406"/>
-      <c r="D18" s="199">
+      <c r="B18" s="367">
+        <v>9.25</v>
+      </c>
+      <c r="C18" s="426"/>
+      <c r="D18" s="194">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.14922840421937142</v>
-      </c>
-      <c r="E18" s="387"/>
-      <c r="F18" s="202">
+        <v>4.9381056129512463E-2</v>
+      </c>
+      <c r="E18" s="383"/>
+      <c r="F18" s="197">
         <f>E16/B18</f>
-        <v>6.5882352941176461E-2</v>
-      </c>
-      <c r="G18" s="375"/>
-      <c r="H18" s="372"/>
-      <c r="I18" s="375"/>
-      <c r="J18" s="257">
+        <v>6.0540540540540533E-2</v>
+      </c>
+      <c r="G18" s="410"/>
+      <c r="H18" s="407"/>
+      <c r="I18" s="410"/>
+      <c r="J18" s="251">
         <f>B18-$H$16</f>
-        <v>2.802615153378726</v>
+        <v>3.552615153378726</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4885,68 +4970,71 @@
       <c r="B20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="389"/>
-      <c r="E20" s="390"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="C20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="370" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="325" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="359" t="s">
-        <v>329</v>
-      </c>
-      <c r="D21" s="360"/>
-      <c r="E21" s="360"/>
-      <c r="F21" s="360"/>
-      <c r="G21" s="360"/>
-      <c r="H21" s="360"/>
-      <c r="I21" s="360"/>
-      <c r="J21" s="361"/>
+      <c r="C21" s="394" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="395"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="396"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="378" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="379"/>
-      <c r="E22" s="379"/>
-      <c r="F22" s="379"/>
-      <c r="G22" s="378" t="s">
-        <v>350</v>
-      </c>
-      <c r="H22" s="378"/>
-      <c r="I22" s="379"/>
-      <c r="J22" s="379"/>
+      <c r="C22" s="374" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="375"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="374" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="374"/>
+      <c r="I22" s="375"/>
+      <c r="J22" s="375"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="362" t="s">
-        <v>348</v>
-      </c>
-      <c r="D23" s="363"/>
-      <c r="E23" s="363"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="362" t="s">
-        <v>351</v>
-      </c>
-      <c r="H23" s="362"/>
-      <c r="I23" s="363"/>
-      <c r="J23" s="363"/>
+      <c r="C23" s="397" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="398"/>
+      <c r="E23" s="398"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="397" t="s">
+        <v>349</v>
+      </c>
+      <c r="H23" s="397"/>
+      <c r="I23" s="398"/>
+      <c r="J23" s="398"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4973,7 +5061,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="167"/>
+      <c r="H25" s="163"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
@@ -4981,155 +5069,163 @@
       <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="357"/>
-      <c r="D26" s="358"/>
-      <c r="E26" s="357"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="380"/>
-      <c r="H26" s="381"/>
-      <c r="I26" s="403" t="s">
+      <c r="C26" s="392"/>
+      <c r="D26" s="393"/>
+      <c r="E26" s="392"/>
+      <c r="F26" s="393"/>
+      <c r="G26" s="376"/>
+      <c r="H26" s="377"/>
+      <c r="I26" s="423" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="403"/>
+      <c r="J26" s="423"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="384">
+      <c r="C27" s="380">
         <f>C31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="383"/>
-      <c r="E27" s="382">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="D27" s="379"/>
+      <c r="E27" s="378">
         <f>E31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="383"/>
-      <c r="G27" s="391">
+        <v>0.126</v>
+      </c>
+      <c r="F27" s="379"/>
+      <c r="G27" s="411">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="392"/>
-      <c r="I27" s="394">
+      <c r="H27" s="412"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="394"/>
+        <v>0.1608</v>
+      </c>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="418"/>
-      <c r="D28" s="379"/>
-      <c r="E28" s="418"/>
-      <c r="F28" s="379"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
-      <c r="I28" s="409">
+      <c r="C28" s="438">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="375"/>
+      <c r="E28" s="438">
+        <v>8000</v>
+      </c>
+      <c r="F28" s="375"/>
+      <c r="G28" s="401"/>
+      <c r="H28" s="402"/>
+      <c r="I28" s="429">
         <f>C28+E28+G28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="409"/>
+        <v>10000</v>
+      </c>
+      <c r="J28" s="429"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="388"/>
-      <c r="D29" s="379"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="379"/>
-      <c r="G29" s="395"/>
-      <c r="H29" s="396"/>
-      <c r="I29" s="401"/>
-      <c r="J29" s="401"/>
+      <c r="C29" s="384">
+        <v>10.44</v>
+      </c>
+      <c r="D29" s="375"/>
+      <c r="E29" s="384">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F29" s="375"/>
+      <c r="G29" s="415"/>
+      <c r="H29" s="416"/>
+      <c r="I29" s="421"/>
+      <c r="J29" s="421"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="407">
+      <c r="C30" s="427">
         <f>C29*$I$5/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="414"/>
-      <c r="E30" s="407">
+        <v>84159.552061440001</v>
+      </c>
+      <c r="D30" s="434"/>
+      <c r="E30" s="427">
         <f>E29*$I$5/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="414"/>
-      <c r="G30" s="397">
+        <v>76178.904883199997</v>
+      </c>
+      <c r="F30" s="434"/>
+      <c r="G30" s="417">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="398"/>
-      <c r="I30" s="402"/>
-      <c r="J30" s="402"/>
+      <c r="H30" s="418"/>
+      <c r="I30" s="422"/>
+      <c r="J30" s="422"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="415">
+      <c r="C31" s="435">
         <f>C28*C29</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="416"/>
-      <c r="E31" s="408">
+        <v>20880</v>
+      </c>
+      <c r="D31" s="436"/>
+      <c r="E31" s="428">
         <f>E28*E29</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="417"/>
-      <c r="G31" s="399">
+        <v>75600</v>
+      </c>
+      <c r="F31" s="437"/>
+      <c r="G31" s="419">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="400"/>
-      <c r="I31" s="408">
+      <c r="H31" s="420"/>
+      <c r="I31" s="428">
         <f>C31+E31+G31</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="408"/>
+        <v>96480</v>
+      </c>
+      <c r="J31" s="428"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="410"/>
-      <c r="D32" s="411"/>
-      <c r="E32" s="393" t="str">
+      <c r="C32" s="430"/>
+      <c r="D32" s="431"/>
+      <c r="E32" s="413">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>-</v>
-      </c>
-      <c r="F32" s="383"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="393" t="str">
+        <v>9.6479999999999997</v>
+      </c>
+      <c r="F32" s="379"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="413">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v/>
-      </c>
-      <c r="J32" s="393"/>
+        <v>9.6479999999999997</v>
+      </c>
+      <c r="J32" s="413"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="412"/>
-      <c r="D33" s="413"/>
-      <c r="E33" s="407" t="str">
+      <c r="C33" s="432"/>
+      <c r="D33" s="433"/>
+      <c r="E33" s="427">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>-</v>
-      </c>
-      <c r="F33" s="414"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="407" t="str">
+        <v>77775.034318847989</v>
+      </c>
+      <c r="F33" s="434"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="427">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v/>
-      </c>
-      <c r="J33" s="407"/>
+        <v>77775.034318847989</v>
+      </c>
+      <c r="J33" s="427"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6064,9 +6160,8 @@
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="48">
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6081,12 +6176,6 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G27:H27"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G29:H29"/>
@@ -6095,11 +6184,7 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -6112,13 +6197,22 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6128,21 +6222,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6152,9 +6246,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
       <formula1>"US, CN"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
+      <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{A32D64E0-BF18-4451-BCDD-98677BDA8148}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="83" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6163,10 +6263,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N963"/>
+  <dimension ref="A1:N962"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6207,21 +6307,21 @@
       <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="187">
+      <c r="C3" s="183">
         <v>44742</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="219">
+      <c r="E3" s="214">
         <v>1</v>
       </c>
-      <c r="F3" s="217">
+      <c r="F3" s="212">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
         <v>5735396</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="214"/>
+      <c r="J3" s="209"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6239,7 +6339,7 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="218">
+      <c r="F4" s="213">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
         <v>6166330.5449999999</v>
       </c>
@@ -6257,47 +6357,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="347">
+      <c r="C6" s="338">
         <f>C3</f>
         <v>44742</v>
       </c>
-      <c r="D6" s="348">
+      <c r="D6" s="339">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44377</v>
       </c>
-      <c r="E6" s="348">
+      <c r="E6" s="339">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>44012</v>
       </c>
-      <c r="F6" s="348">
+      <c r="F6" s="339">
         <f t="shared" si="0"/>
         <v>43646</v>
       </c>
-      <c r="G6" s="348">
+      <c r="G6" s="339">
         <f t="shared" si="0"/>
         <v>43281</v>
       </c>
-      <c r="H6" s="348">
+      <c r="H6" s="339">
         <f t="shared" si="0"/>
         <v>42916</v>
       </c>
-      <c r="I6" s="348">
+      <c r="I6" s="339">
         <f t="shared" si="0"/>
         <v>42551</v>
       </c>
-      <c r="J6" s="348">
+      <c r="J6" s="339">
         <f t="shared" si="0"/>
         <v>42185</v>
       </c>
-      <c r="K6" s="348">
+      <c r="K6" s="339">
         <f t="shared" si="0"/>
         <v>41820</v>
       </c>
-      <c r="L6" s="348">
+      <c r="L6" s="339">
         <f t="shared" si="0"/>
         <v>41455</v>
       </c>
-      <c r="M6" s="348">
+      <c r="M6" s="339">
         <f t="shared" si="0"/>
         <v>41090</v>
       </c>
@@ -6325,7 +6425,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="302"/>
+      <c r="M7" s="295"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6373,7 +6473,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="260"/>
+      <c r="M8" s="254"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6399,7 +6499,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="302"/>
+      <c r="M9" s="295"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6447,7 +6547,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="260" t="str">
+      <c r="M10" s="254" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6476,7 +6576,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="302"/>
+      <c r="M11" s="295"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6524,7 +6624,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="260" t="str">
+      <c r="M12" s="254" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6575,7 +6675,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="260" t="str">
+      <c r="M13" s="254" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6626,7 +6726,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="303" t="str">
+      <c r="M14" s="296" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6677,7 +6777,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="260" t="str">
+      <c r="M15" s="254" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6688,47 +6788,47 @@
       <c r="B16" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="177">
+      <c r="C16" s="173">
         <f>IF(C14="","",C14*(1-'FCFF Model'!$D$6))</f>
         <v>6166330.5449999999</v>
       </c>
-      <c r="D16" s="177">
+      <c r="D16" s="173">
         <f>IF(D14="","",D14*(1-'FCFF Model'!$D$6))</f>
         <v>10613948.025</v>
       </c>
-      <c r="E16" s="177">
+      <c r="E16" s="173">
         <f>IF(E14="","",E14*(1-'FCFF Model'!$D$6))</f>
         <v>2175728.605</v>
       </c>
-      <c r="F16" s="177">
+      <c r="F16" s="173">
         <f>IF(F14="","",F14*(1-'FCFF Model'!$D$6))</f>
         <v>2971195.53</v>
       </c>
-      <c r="G16" s="177" t="str">
+      <c r="G16" s="173" t="str">
         <f>IF(G14="","",G14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="H16" s="177" t="str">
+      <c r="H16" s="173" t="str">
         <f>IF(H14="","",H14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="I16" s="177" t="str">
+      <c r="I16" s="173" t="str">
         <f>IF(I14="","",I14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="J16" s="177" t="str">
+      <c r="J16" s="173" t="str">
         <f>IF(J14="","",J14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="K16" s="177" t="str">
+      <c r="K16" s="173" t="str">
         <f>IF(K14="","",K14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="L16" s="177" t="str">
+      <c r="L16" s="173" t="str">
         <f>IF(L14="","",L14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="M16" s="304" t="str">
+      <c r="M16" s="297" t="str">
         <f>IF(M14="","",M14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
@@ -6736,50 +6836,50 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="163">
+      <c r="C17" s="159">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
         <v>0.39644217333559467</v>
       </c>
-      <c r="D17" s="163">
+      <c r="D17" s="159">
         <f t="shared" si="7"/>
         <v>0.43242203460574707</v>
       </c>
-      <c r="E17" s="163">
+      <c r="E17" s="159">
         <f t="shared" si="7"/>
         <v>0.36958892457271142</v>
       </c>
-      <c r="F17" s="163">
+      <c r="F17" s="159">
         <f t="shared" si="7"/>
         <v>0.37093984677983977</v>
       </c>
-      <c r="G17" s="163" t="str">
+      <c r="G17" s="159" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H17" s="163" t="str">
+      <c r="H17" s="159" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I17" s="163" t="str">
+      <c r="I17" s="159" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="163" t="str">
+      <c r="J17" s="159" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K17" s="163" t="str">
+      <c r="K17" s="159" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L17" s="163" t="str">
+      <c r="L17" s="159" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="305" t="str">
+      <c r="M17" s="298" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6788,27 +6888,27 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="C18" s="178">
+        <v>339</v>
+      </c>
+      <c r="C18" s="174">
         <v>27282</v>
       </c>
-      <c r="D18" s="178">
+      <c r="D18" s="174">
         <v>39885</v>
       </c>
-      <c r="E18" s="178">
+      <c r="E18" s="174">
         <v>31747</v>
       </c>
-      <c r="F18" s="178">
+      <c r="F18" s="174">
         <v>60128</v>
       </c>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="306"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="299"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6834,7 +6934,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="302"/>
+      <c r="M19" s="295"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6882,7 +6982,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="260" t="str">
+      <c r="M20" s="254" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6893,7 +6993,7 @@
       <c r="B21" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="216">
+      <c r="C21" s="211">
         <v>71424985.186999992</v>
       </c>
       <c r="D21" s="37">
@@ -6911,7 +7011,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
-      <c r="M21" s="302"/>
+      <c r="M21" s="295"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6919,7 +7019,7 @@
       <c r="B22" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="216">
+      <c r="C22" s="211">
         <v>15104618.66</v>
       </c>
       <c r="D22" s="37">
@@ -6937,7 +7037,7 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
-      <c r="M22" s="302"/>
+      <c r="M22" s="295"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6945,7 +7045,7 @@
       <c r="B23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="216">
+      <c r="C23" s="211">
         <v>3146501.6940000001</v>
       </c>
       <c r="D23" s="37">
@@ -6963,33 +7063,33 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="302"/>
+      <c r="M23" s="295"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="339">
+      <c r="C24" s="332">
         <v>31180.352999999999</v>
       </c>
-      <c r="D24" s="174">
+      <c r="D24" s="170">
         <v>49241</v>
       </c>
-      <c r="E24" s="174">
+      <c r="E24" s="170">
         <v>32031</v>
       </c>
-      <c r="F24" s="174">
+      <c r="F24" s="170">
         <v>0</v>
       </c>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="307"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="300"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6997,7 +7097,7 @@
       <c r="B25" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="216">
+      <c r="C25" s="211">
         <v>2956802.0830000001</v>
       </c>
       <c r="D25" s="37">
@@ -7015,33 +7115,33 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="302"/>
+      <c r="M25" s="295"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="215">
+      <c r="C26" s="210">
         <v>13550.745000000001</v>
       </c>
-      <c r="D26" s="174">
+      <c r="D26" s="170">
         <v>19736</v>
       </c>
-      <c r="E26" s="174">
+      <c r="E26" s="170">
         <v>7537</v>
       </c>
-      <c r="F26" s="174">
+      <c r="F26" s="170">
         <v>0</v>
       </c>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="307"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="300"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7089,7 +7189,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="303" t="str">
+      <c r="M27" s="296" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7100,7 +7200,7 @@
       <c r="B28" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="216">
+      <c r="C28" s="211">
         <v>158228515.46700001</v>
       </c>
       <c r="D28" s="37">
@@ -7118,27 +7218,27 @@
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
-      <c r="M28" s="302"/>
+      <c r="M28" s="295"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="175" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="215">
+      <c r="B29" s="171" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="210">
         <v>157397300.09900001</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="307"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="300"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7146,7 +7246,7 @@
       <c r="B30" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="216">
+      <c r="C30" s="211">
         <v>1285288.264</v>
       </c>
       <c r="D30" s="37">
@@ -7164,15 +7264,15 @@
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
-      <c r="M30" s="302"/>
+      <c r="M30" s="295"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="216">
+        <v>310</v>
+      </c>
+      <c r="C31" s="211">
         <v>44784474.113000005</v>
       </c>
       <c r="D31" s="37">
@@ -7190,7 +7290,7 @@
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
-      <c r="M31" s="302"/>
+      <c r="M31" s="295"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7238,7 +7338,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="260" t="str">
+      <c r="M32" s="254" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7249,48 +7349,48 @@
       <c r="B33" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="309">
-        <f t="shared" ref="C33:M33" si="11">IF(D7="","",(C7-D7)*$D$49)</f>
-        <v>-769644.23759999999</v>
-      </c>
-      <c r="D33" s="309">
-        <f t="shared" si="11"/>
-        <v>1597163.9191999999</v>
-      </c>
-      <c r="E33" s="309">
-        <f t="shared" si="11"/>
-        <v>-181730.85439999998</v>
-      </c>
-      <c r="F33" s="309" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G33" s="309" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H33" s="309" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I33" s="309" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J33" s="309" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K33" s="309" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L33" s="309" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M33" s="310" t="str">
-        <f t="shared" si="11"/>
+      <c r="C33" s="302">
+        <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
+        <v>-1348675.65</v>
+      </c>
+      <c r="D33" s="302">
+        <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
+        <v>2798768.55</v>
+      </c>
+      <c r="E33" s="302">
+        <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
+        <v>-318453.59999999998</v>
+      </c>
+      <c r="F33" s="302" t="str">
+        <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
+        <v/>
+      </c>
+      <c r="G33" s="302" t="str">
+        <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
+        <v/>
+      </c>
+      <c r="H33" s="302" t="str">
+        <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
+        <v/>
+      </c>
+      <c r="I33" s="302" t="str">
+        <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
+        <v/>
+      </c>
+      <c r="J33" s="302" t="str">
+        <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
+        <v/>
+      </c>
+      <c r="K33" s="302" t="str">
+        <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
+        <v/>
+      </c>
+      <c r="L33" s="302" t="str">
+        <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
+        <v/>
+      </c>
+      <c r="M33" s="303" t="str">
+        <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
       <c r="N33" s="6"/>
@@ -7300,99 +7400,99 @@
       <c r="B34" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="177">
-        <f t="shared" ref="C34:M34" si="12">IF(D7="","",C30-D30+C33)</f>
-        <v>-860638.97360000003</v>
-      </c>
-      <c r="D34" s="177">
-        <f t="shared" si="12"/>
-        <v>1606156.9191999999</v>
-      </c>
-      <c r="E34" s="177">
-        <f t="shared" si="12"/>
-        <v>966323.14560000005</v>
-      </c>
-      <c r="F34" s="177" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G34" s="177" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H34" s="177" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I34" s="177" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J34" s="177" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K34" s="177" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L34" s="177" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M34" s="304" t="str">
-        <f t="shared" si="12"/>
+      <c r="C34" s="173">
+        <f t="shared" ref="C34:M34" si="11">IF(D7="","",C30-D30+C33)</f>
+        <v>-1439670.3859999999</v>
+      </c>
+      <c r="D34" s="173">
+        <f t="shared" si="11"/>
+        <v>2807761.55</v>
+      </c>
+      <c r="E34" s="173">
+        <f t="shared" si="11"/>
+        <v>829600.4</v>
+      </c>
+      <c r="F34" s="173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G34" s="173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H34" s="173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I34" s="173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J34" s="173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K34" s="173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L34" s="173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M34" s="297" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="308" t="s">
+      <c r="B35" s="301" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="300">
-        <f t="shared" ref="C35:M35" si="13">IF(C34="","",C34/C16)</f>
-        <v>-0.13957068426989427</v>
-      </c>
-      <c r="D35" s="300">
-        <f t="shared" si="13"/>
-        <v>0.15132511629196524</v>
-      </c>
-      <c r="E35" s="300">
-        <f t="shared" si="13"/>
-        <v>0.44413772167140309</v>
-      </c>
-      <c r="F35" s="300" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G35" s="300" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H35" s="300" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I35" s="300" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J35" s="300" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K35" s="300" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L35" s="300" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M35" s="301" t="str">
-        <f t="shared" si="13"/>
+      <c r="C35" s="293">
+        <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
+        <v>-0.23347278831287496</v>
+      </c>
+      <c r="D35" s="293">
+        <f t="shared" si="12"/>
+        <v>0.26453507623992722</v>
+      </c>
+      <c r="E35" s="293">
+        <f t="shared" si="12"/>
+        <v>0.38129774002764466</v>
+      </c>
+      <c r="F35" s="293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G35" s="293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H35" s="293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I35" s="293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J35" s="293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K35" s="293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L35" s="293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M35" s="294" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N35" s="6"/>
@@ -7417,154 +7517,154 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="208" t="s">
-        <v>342</v>
-      </c>
-      <c r="C37" s="205">
+      <c r="B37" s="203" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="200">
         <v>3053687</v>
       </c>
-      <c r="D37" s="205">
+      <c r="D37" s="200">
         <v>508443</v>
       </c>
-      <c r="E37" s="205">
+      <c r="E37" s="200">
         <v>1287845</v>
       </c>
-      <c r="F37" s="205">
+      <c r="F37" s="200">
         <v>822878</v>
       </c>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="206"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="201"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="204">
+      <c r="C38" s="199">
         <v>0</v>
       </c>
-      <c r="D38" s="204">
+      <c r="D38" s="199">
         <v>0</v>
       </c>
-      <c r="E38" s="204">
+      <c r="E38" s="199">
         <v>0</v>
       </c>
-      <c r="F38" s="204">
+      <c r="F38" s="199">
         <v>0</v>
       </c>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="204"/>
-      <c r="M38" s="207"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="199"/>
+      <c r="M38" s="202"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="176" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="210">
-        <f t="shared" ref="C39:M39" si="14">IF(C37="","",C37*$C$4/Common_Shares)</f>
+      <c r="B39" s="172" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="205">
+        <f t="shared" ref="C39:M39" si="13">IF(C37="","",C37*$C$4/Common_Shares)</f>
         <v>0.37881014690674569</v>
       </c>
-      <c r="D39" s="210">
-        <f t="shared" si="14"/>
+      <c r="D39" s="205">
+        <f t="shared" si="13"/>
         <v>6.3072399864068096E-2</v>
       </c>
-      <c r="E39" s="210">
-        <f t="shared" si="14"/>
+      <c r="E39" s="205">
+        <f t="shared" si="13"/>
         <v>0.15975728804003747</v>
       </c>
-      <c r="F39" s="210">
-        <f t="shared" si="14"/>
+      <c r="F39" s="205">
+        <f t="shared" si="13"/>
         <v>0.10207808988489295</v>
       </c>
-      <c r="G39" s="210" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H39" s="210" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I39" s="210" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J39" s="210" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K39" s="210" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L39" s="210" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M39" s="211" t="str">
-        <f t="shared" si="14"/>
+      <c r="G39" s="205" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H39" s="205" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I39" s="205" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J39" s="205" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K39" s="205" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L39" s="205" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M39" s="206" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="209" t="s">
-        <v>279</v>
-      </c>
-      <c r="C40" s="212">
-        <f t="shared" ref="C40:M40" si="15">IF(C38="","",C38*$C$4/Common_Shares)</f>
+      <c r="B40" s="204" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" s="207">
+        <f t="shared" ref="C40:M40" si="14">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="212">
-        <f t="shared" si="15"/>
+      <c r="D40" s="207">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E40" s="212">
-        <f t="shared" si="15"/>
+      <c r="E40" s="207">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F40" s="212">
-        <f t="shared" si="15"/>
+      <c r="F40" s="207">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G40" s="212" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H40" s="212" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I40" s="212" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J40" s="212" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K40" s="212" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L40" s="212" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M40" s="213" t="str">
-        <f t="shared" si="15"/>
+      <c r="G40" s="207" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H40" s="207" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I40" s="207" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J40" s="207" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K40" s="207" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L40" s="207" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M40" s="208" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N40" s="6"/>
@@ -7596,43 +7696,43 @@
         <v>1.8686910347816971E-2</v>
       </c>
       <c r="D42" s="50" t="str">
-        <f t="shared" ref="D42:M42" si="16">IF(D29="","",D25/D29)</f>
+        <f t="shared" ref="D42:M42" si="15">IF(D29="","",D25/D29)</f>
         <v/>
       </c>
       <c r="E42" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F42" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G42" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H42" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I42" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J42" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K42" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L42" s="50" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M42" s="259" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M42" s="253" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N42" s="6"/>
@@ -7640,50 +7740,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" ref="C43:M43" si="17">IF(C29="","",C27/C29)</f>
+        <f t="shared" ref="C43:M43" si="16">IF(C29="","",C27/C29)</f>
         <v>3.8776419755365152E-2</v>
       </c>
       <c r="D43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L43" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M43" s="260" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M43" s="254" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N43" s="6"/>
@@ -7694,47 +7794,47 @@
         <v>77</v>
       </c>
       <c r="C44" s="52">
-        <f t="shared" ref="C44:M44" si="18">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
+        <f t="shared" ref="C44:M44" si="17">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
         <v>1.2099720528133233</v>
       </c>
       <c r="D44" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1.8092495323267772</v>
       </c>
       <c r="E44" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.37206992734987693</v>
       </c>
       <c r="F44" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.52674018560381042</v>
       </c>
       <c r="G44" s="52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H44" s="52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I44" s="52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J44" s="52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K44" s="52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L44" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M44" s="261" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M44" s="255" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N44" s="6"/>
@@ -7745,47 +7845,47 @@
         <v>78</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:M45" si="19">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
+        <f t="shared" ref="C45:M45" si="18">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
         <v>4.4243492626456337E-3</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.7577911542486567E-3</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.4591433842917187E-2</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2.0236971748540562E-2</v>
       </c>
       <c r="G45" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J45" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K45" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L45" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M45" s="260" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M45" s="254" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N45" s="6"/>
@@ -7796,47 +7896,47 @@
         <v>79</v>
       </c>
       <c r="C46" s="53">
-        <f t="shared" ref="C46:M46" si="20">IF(C21="","",C21/C22)</f>
+        <f t="shared" ref="C46:M46" si="19">IF(C21="","",C21/C22)</f>
         <v>4.7286850992238154</v>
       </c>
       <c r="D46" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.1639487695683695</v>
       </c>
       <c r="E46" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.4874071826139219</v>
       </c>
       <c r="F46" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.9364777556252051</v>
       </c>
       <c r="G46" s="53" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H46" s="53" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I46" s="53" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J46" s="53" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K46" s="53" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L46" s="53" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M46" s="262" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M46" s="256" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N46" s="6"/>
@@ -7865,284 +7965,283 @@
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="55" t="s">
         <v>81</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="424">
-        <v>8.5599999999999996E-2</v>
-      </c>
-      <c r="E49" s="425"/>
-      <c r="F49" s="332" t="s">
-        <v>336</v>
-      </c>
+      <c r="D49" s="439" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="375"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="419" t="s">
+      <c r="B50" s="55"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="379"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="55"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="440">
+        <v>5</v>
+      </c>
+      <c r="E51" s="441"/>
+      <c r="F51" s="58"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="420">
-        <v>5</v>
-      </c>
-      <c r="E52" s="421"/>
-      <c r="F52" s="58"/>
+      <c r="C52" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="442" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="443"/>
+      <c r="F52" s="61" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="422" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="423"/>
-      <c r="F53" s="61" t="s">
-        <v>88</v>
+      <c r="B53" s="62">
+        <f>C6</f>
+        <v>44742</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E53" s="65">
+        <f t="shared" ref="E53:E63" si="20">C53*D53</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="66">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="62">
-        <f>C6</f>
-        <v>44742</v>
+      <c r="B54" s="67">
+        <f>IF(D7="","",-1)</f>
+        <v>-1</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="64">
-        <f>1</f>
-        <v>1</v>
+        <f t="shared" ref="D54:D63" si="21">IF(B54&lt;0,(D$51+B54)/D$51,0)</f>
+        <v>0.8</v>
       </c>
       <c r="E54" s="65">
-        <f t="shared" ref="E54:E64" si="21">C54*D54</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F54" s="66">
+        <f t="shared" ref="F54:F63" si="22">IF(B54&lt;0,C54/$D$51,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="67">
-        <f>IF(D7="","",-1)</f>
-        <v>-1</v>
+        <f t="shared" ref="B55:B63" si="23">IF((0-B54)&lt;$D$51,IF(B54&gt;-1, ,B54-1), )</f>
+        <v>-2</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="64">
-        <f t="shared" ref="D55:D64" si="22">IF(B55&lt;0,(D$52+B55)/D$52,0)</f>
-        <v>0.8</v>
+        <f t="shared" si="21"/>
+        <v>0.6</v>
       </c>
       <c r="E55" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F55" s="66">
-        <f t="shared" ref="F55:F64" si="23">IF(B55&lt;0,C55/$D$52,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="67">
-        <f t="shared" ref="B56:B64" si="24">IF((0-B55)&lt;$D$52,IF(B55&gt;-1, ,B55-1), )</f>
-        <v>-2</v>
+        <f t="shared" si="23"/>
+        <v>-3</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="64">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="E56" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="66">
         <f t="shared" si="22"/>
-        <v>0.6</v>
-      </c>
-      <c r="E56" s="65">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="66">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="67">
-        <f t="shared" si="24"/>
-        <v>-3</v>
+        <f t="shared" si="23"/>
+        <v>-4</v>
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="64">
+        <f t="shared" si="21"/>
+        <v>0.2</v>
+      </c>
+      <c r="E57" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="66">
         <f t="shared" si="22"/>
-        <v>0.4</v>
-      </c>
-      <c r="E57" s="65">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="66">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="67">
-        <f t="shared" si="24"/>
-        <v>-4</v>
+        <f t="shared" si="23"/>
+        <v>-5</v>
       </c>
       <c r="C58" s="63"/>
       <c r="D58" s="64">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="E58" s="65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="E58" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="F58" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="67">
-        <f t="shared" si="24"/>
-        <v>-5</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="C59" s="63"/>
       <c r="D59" s="64">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="E59" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="F59" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C60" s="63"/>
       <c r="D60" s="64">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="E60" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="F60" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="64">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="E61" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="F61" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C62" s="63"/>
       <c r="D62" s="64">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="65">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="E62" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="F62" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C63" s="63"/>
       <c r="D63" s="64">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E63" s="65">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="66">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
-      <c r="B64" s="67">
-        <f t="shared" si="24"/>
+      <c r="B64" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="65">
+        <f>SUM(E53:E63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="64">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="65">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="66">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="F64" s="69"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
@@ -8151,168 +8250,161 @@
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
-      <c r="E65" s="65">
-        <f>SUM(E54:E64)</f>
+      <c r="E65" s="55"/>
+      <c r="F65" s="66">
+        <f>SUM(F54:F63)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="69"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
-      <c r="B66" s="68" t="s">
-        <v>90</v>
-      </c>
+      <c r="B66" s="68"/>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
-      <c r="F66" s="66">
-        <f>SUM(F55:F64)</f>
-        <v>0</v>
-      </c>
+      <c r="F66" s="69"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="73" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="73" t="s">
+      <c r="B68" s="68" t="s">
         <v>94</v>
+      </c>
+      <c r="C68" s="74">
+        <f>C14</f>
+        <v>7384827</v>
+      </c>
+      <c r="D68" s="74">
+        <f>C68+C53-F65</f>
+        <v>7384827</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="69" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="74">
-        <f>C14</f>
-        <v>7384827</v>
-      </c>
-      <c r="D69" s="74">
-        <f>C69+C54-F66</f>
-        <v>7384827</v>
+        <v>97</v>
+      </c>
+      <c r="C69" s="75">
+        <f t="shared" ref="C69:D69" si="24">C68/$C$7</f>
+        <v>0.47478104591089182</v>
+      </c>
+      <c r="D69" s="75">
+        <f t="shared" si="24"/>
+        <v>0.47478104591089182</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="75">
-        <f t="shared" ref="C70:D70" si="25">C69/$C$7</f>
-        <v>0.47478104591089182</v>
-      </c>
-      <c r="D70" s="75">
-        <f t="shared" si="25"/>
-        <v>0.47478104591089182</v>
+        <v>100</v>
+      </c>
+      <c r="C70" s="74">
+        <f>C34</f>
+        <v>-1439670.3859999999</v>
+      </c>
+      <c r="D70" s="74">
+        <f>C70+E64-F65</f>
+        <v>-1439670.3859999999</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C71" s="74">
-        <f>C34</f>
-        <v>-860638.97360000003</v>
+        <f>C16</f>
+        <v>6166330.5449999999</v>
       </c>
       <c r="D71" s="74">
-        <f>C71+E65-F66</f>
-        <v>-860638.97360000003</v>
+        <f>C71+C54</f>
+        <v>6166330.5449999999</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="68" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" s="74">
-        <f>C16</f>
-        <v>6166330.5449999999</v>
+        <f>F3</f>
+        <v>5735396</v>
       </c>
       <c r="D72" s="74">
-        <f>C72+C55</f>
-        <v>6166330.5449999999</v>
+        <f>C72+C53-F65</f>
+        <v>5735396</v>
       </c>
       <c r="E72" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="69" t="s">
         <v>105</v>
-      </c>
-      <c r="F72" s="69" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="74">
-        <f>F3</f>
-        <v>5735396</v>
-      </c>
-      <c r="D73" s="74">
-        <f>C73+C54-F66</f>
-        <v>5735396</v>
-      </c>
-      <c r="E73" s="55" t="s">
+      <c r="B73" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="F73" s="69" t="s">
-        <v>106</v>
+      <c r="C73" s="77" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D73" s="77" t="e">
+        <f>C73+E64</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="78" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="B74" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D74" s="77" t="e">
-        <f>C74+E65</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="78" t="s">
-        <v>106</v>
-      </c>
+      <c r="B74" s="55"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
@@ -8329,26 +8421,23 @@
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="55"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="55"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="55"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
@@ -8947,9 +9036,7 @@
     <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
     </row>
-    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="9"/>
-    </row>
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9632,49 +9719,44 @@
     <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D50:E50"/>
+  <mergeCells count="3">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D49:E49"/>
   </mergeCells>
-  <conditionalFormatting sqref="B52:F74">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$D$50="No"</formula>
+  <conditionalFormatting sqref="B51:F73">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$D$49="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
+    <cfRule type="containsBlanks" dxfId="7" priority="3">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D52" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="D50" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F49" r:id="rId1" xr:uid="{3715D1BE-6062-4B03-8547-E8B4F4F81508}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9685,10 +9767,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J61"/>
+  <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9705,10 +9787,10 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="333" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="333"/>
+      <c r="B2" s="326" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="326"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -9718,39 +9800,39 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="340">
+      <c r="D3" s="333">
         <v>160090995.734</v>
       </c>
-      <c r="E3" s="194" t="str">
+      <c r="E3" s="190" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="341" t="s">
-        <v>344</v>
-      </c>
-      <c r="I3" s="344">
+      <c r="H3" s="334" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" s="335">
         <v>159323330.11500001</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="345">
+      <c r="D4" s="336">
         <f>D3-I3</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="E4" s="188"/>
+      <c r="E4" s="184"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="119">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
@@ -9760,13 +9842,13 @@
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="82">
@@ -9780,7 +9862,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="28">
         <f>IF(Data!F3&lt;=0,"NNI",D7/((Data!F3*Dashboard!I12)/(Dashboard!I5/Data!C4)))</f>
@@ -9790,7 +9872,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="84">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
@@ -9798,7 +9880,7 @@
       </c>
       <c r="E7" s="85"/>
       <c r="H7" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="28">
         <f>D7/(Data!C28*Dashboard!I12*Data!C4/Common_Shares)</f>
@@ -9812,46 +9894,49 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="334" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="316"/>
-      <c r="D9" s="338">
+      <c r="B9" s="327" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="309"/>
+      <c r="D9" s="331">
         <v>44926</v>
       </c>
-      <c r="E9" s="335" t="str">
+      <c r="E9" s="328" t="str">
         <f>IF(D9=Data!C3,"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>121</v>
+      <c r="F10" s="32" t="s">
+        <v>317</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="87">
         <v>3379024.0260000001</v>
@@ -9866,7 +9951,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="87">
         <v>2230528</v>
@@ -9875,7 +9960,7 @@
     </row>
     <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="87">
         <v>41083645.866999999</v>
@@ -9890,7 +9975,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="87">
         <v>40711.811999999998</v>
@@ -9899,7 +9984,7 @@
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="87">
         <v>0</v>
@@ -9914,7 +9999,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I13" s="87">
         <f>789160.293+906226.518</f>
@@ -9924,7 +10009,7 @@
     </row>
     <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="87">
         <v>9150.4850000000006</v>
@@ -9939,7 +10024,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" s="87">
         <v>0</v>
@@ -9948,7 +10033,7 @@
     </row>
     <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="87">
         <v>0</v>
@@ -9960,12 +10045,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="193">
+        <v>131</v>
+      </c>
+      <c r="I15" s="189">
         <f>I26-SUM(I11:I14)</f>
         <v>9867916.8460000008</v>
       </c>
@@ -9973,7 +10057,7 @@
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="87">
         <v>0</v>
@@ -9985,15 +10069,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="248" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="122">
+        <f>IF(F16="Y",0,1)</f>
+        <v>0</v>
+      </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="192"/>
+      <c r="I16" s="188"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="87">
         <f>2259696.73+2882905.087+14024.915+1631152.458+52294.469</f>
@@ -10009,12 +10098,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="192"/>
+      <c r="I17" s="188"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="87">
         <v>13046.883</v>
@@ -10026,14 +10115,11 @@
         <f t="shared" si="0"/>
         <v>7828.1297999999997</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="87">
         <v>8609555.8550000004</v>
@@ -10045,19 +10131,19 @@
         <f t="shared" si="0"/>
         <v>6457166.8912500003</v>
       </c>
-      <c r="F19" s="254" t="s">
-        <v>320</v>
+      <c r="F19" s="248" t="s">
+        <v>318</v>
       </c>
       <c r="G19" s="122">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="192"/>
+      <c r="I19" s="188"/>
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="87">
         <v>7527029.5259999996</v>
@@ -10069,19 +10155,19 @@
         <f t="shared" si="0"/>
         <v>4516217.7155999998</v>
       </c>
-      <c r="F20" s="254" t="s">
-        <v>320</v>
+      <c r="F20" s="248" t="s">
+        <v>318</v>
       </c>
       <c r="G20" s="122">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="192"/>
+      <c r="I20" s="188"/>
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="87">
         <v>75546.323999999993</v>
@@ -10096,11 +10182,11 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="192"/>
+      <c r="I21" s="188"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="87">
         <v>0</v>
@@ -10122,7 +10208,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="93">
         <f>SUM(C11:C14)</f>
@@ -10139,7 +10225,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I24" s="92">
         <f>E24/($I$26-I13)</f>
@@ -10152,7 +10238,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="93">
         <f>C24+SUM(C15:C17)</f>
@@ -10169,7 +10255,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I25" s="92">
         <f>E25/$I$26</f>
@@ -10179,7 +10265,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="93">
         <f>SUM(C11:C22)</f>
@@ -10204,14 +10290,16 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="87">
         <v>0</v>
@@ -10225,7 +10313,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I28" s="87">
         <v>997248.75199999998</v>
@@ -10234,7 +10322,7 @@
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="87">
         <v>941238.06900000002</v>
@@ -10249,7 +10337,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I29" s="87">
         <v>35896.328000000001</v>
@@ -10258,7 +10346,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -10273,7 +10361,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I30" s="87">
         <f>1602248.456+137498.192</f>
@@ -10283,7 +10371,7 @@
     </row>
     <row r="31" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -10298,7 +10386,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31" s="87">
         <v>0</v>
@@ -10307,7 +10395,7 @@
     </row>
     <row r="32" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="87">
         <f>3954189.337+12854360.551+3101161.686</f>
@@ -10320,14 +10408,11 @@
         <f t="shared" si="3"/>
         <v>7963884.6296000006</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" s="193">
+        <v>151</v>
+      </c>
+      <c r="I32" s="189">
         <f>I42-SUM(I28:I31)</f>
         <v>2692468.8590000002</v>
       </c>
@@ -10335,7 +10420,7 @@
     </row>
     <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="87">
         <f>17037387.801+6022745.085</f>
@@ -10344,12 +10429,12 @@
       <c r="D33" s="88">
         <v>0.4</v>
       </c>
-      <c r="E33" s="270">
+      <c r="E33" s="264">
         <f t="shared" si="3"/>
         <v>9224053.1544000003</v>
       </c>
-      <c r="F33" s="254" t="s">
-        <v>321</v>
+      <c r="F33" s="248" t="s">
+        <v>319</v>
       </c>
       <c r="G33" s="122">
         <f>IF(F33="Y",0,1)</f>
@@ -10359,7 +10444,7 @@
     </row>
     <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="87">
         <f>64884096.656+1713509.881</f>
@@ -10368,12 +10453,12 @@
       <c r="D34" s="88">
         <v>0.7</v>
       </c>
-      <c r="E34" s="270">
+      <c r="E34" s="264">
         <f t="shared" si="3"/>
         <v>46618324.575899996</v>
       </c>
-      <c r="F34" s="254" t="s">
-        <v>320</v>
+      <c r="F34" s="248" t="s">
+        <v>318</v>
       </c>
       <c r="G34" s="122">
         <f>IF(F34="Y",0,1)</f>
@@ -10382,7 +10467,7 @@
     </row>
     <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="87">
         <v>0</v>
@@ -10394,8 +10479,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="254" t="s">
-        <v>320</v>
+      <c r="F35" s="248" t="s">
+        <v>318</v>
       </c>
       <c r="G35" s="122">
         <f>IF(F35="Y",0,1)</f>
@@ -10404,7 +10489,7 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="87">
         <v>114740.003</v>
@@ -10421,7 +10506,7 @@
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="87">
         <v>1217891.264</v>
@@ -10438,7 +10523,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="87">
         <v>0</v>
@@ -10455,7 +10540,7 @@
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="87">
         <v>12206.832</v>
@@ -10472,7 +10557,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="87">
         <v>300</v>
@@ -10495,7 +10580,7 @@
     </row>
     <row r="42" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="90">
         <f>SUM(C28:C40)</f>
@@ -10512,7 +10597,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I42" s="87">
         <v>5465360.5870000003</v>
@@ -10527,7 +10612,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="93">
         <f>C24+SUM(C28:C29)</f>
@@ -10544,7 +10629,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I44" s="92">
         <f>E44/$I$46</f>
@@ -10557,7 +10642,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" s="93">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
@@ -10574,7 +10659,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="92">
         <f>E45/$I$46</f>
@@ -10584,7 +10669,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" s="93">
         <f>C26+C42</f>
@@ -10601,9 +10686,9 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I46" s="193">
+        <v>166</v>
+      </c>
+      <c r="I46" s="189">
         <f>I26+I42</f>
         <v>19299904.056000002</v>
       </c>
@@ -10617,17 +10702,17 @@
     </row>
     <row r="48" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B48" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B49" s="266" t="s">
-        <v>281</v>
+      <c r="B49" s="260" t="s">
+        <v>280</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="267" t="str">
+      <c r="D49" s="261" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10635,21 +10720,21 @@
     </row>
     <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" s="268">
+        <v>279</v>
+      </c>
+      <c r="C50" s="262">
         <f>D4</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="D50" s="264">
+      <c r="D50" s="258">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="268">
+      <c r="E50" s="262">
         <f>MAX(C50,C50*Dashboard!I10)</f>
         <v>767665.61899998784</v>
       </c>
-      <c r="I50" s="195"/>
+      <c r="I50" s="191"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
@@ -10658,55 +10743,55 @@
     </row>
     <row r="52" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B52" s="98" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="409">
+      <c r="D52" s="429">
         <f>D53+D54+D55</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E52" s="429"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
     </row>
     <row r="53" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B53" s="81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="409">
+      <c r="D53" s="429">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>6739518.3509999998</v>
       </c>
-      <c r="E53" s="429"/>
+      <c r="E53" s="444"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B54" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="452">
+        <v>0</v>
+      </c>
+      <c r="E54" s="375"/>
+      <c r="F54" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="428">
-        <v>0</v>
-      </c>
-      <c r="E54" s="379"/>
-      <c r="F54" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="428">
+      <c r="D55" s="452">
         <v>0</v>
       </c>
-      <c r="E55" s="379"/>
+      <c r="E55" s="375"/>
       <c r="F55" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -10716,27 +10801,27 @@
     </row>
     <row r="57" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B57" s="98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="430"/>
-      <c r="E57" s="430"/>
+      <c r="D57" s="445"/>
+      <c r="E57" s="445"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="C58" s="263">
+        <v>312</v>
+      </c>
+      <c r="C58" s="257">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>24010521.440000001</v>
       </c>
-      <c r="D58" s="163">
+      <c r="D58" s="159">
         <f>IF(E58=0,0,E58/C58)</f>
         <v>0.40791643410473138</v>
       </c>
-      <c r="E58" s="271">
+      <c r="E58" s="265">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E33*G33)+(E34*G34)+(E35*G35)</f>
         <v>9794286.2868000008</v>
       </c>
@@ -10744,17 +10829,17 @@
     </row>
     <row r="59" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B59" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="263">
+        <v>122</v>
+      </c>
+      <c r="C59" s="257">
         <f>C11+C12+C28</f>
         <v>44462669.892999999</v>
       </c>
-      <c r="D59" s="264">
+      <c r="D59" s="258">
         <f>IF(E59=0,0,E59/C59)</f>
         <v>0.98151993752697786</v>
       </c>
-      <c r="E59" s="265">
+      <c r="E59" s="259">
         <f>E11+E12+E28</f>
         <v>43640996.975659996</v>
       </c>
@@ -10763,14 +10848,14 @@
     </row>
     <row r="60" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B60" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="426">
+      <c r="D60" s="450">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>19969040.78803999</v>
       </c>
-      <c r="E60" s="427"/>
+      <c r="E60" s="451"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10778,23 +10863,65 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="371" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="448">
+        <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
+        <v>0.5934554144758829</v>
+      </c>
+      <c r="E63" s="449"/>
+    </row>
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D64" s="446">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="E64" s="447"/>
+      <c r="F64" s="325" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="371" t="s">
+        <v>366</v>
+      </c>
+      <c r="D65" s="446">
+        <v>0.15</v>
+      </c>
+      <c r="E65" s="447"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D53:E53"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F64" r:id="rId1" xr:uid="{3715D1BE-6062-4B03-8547-E8B4F4F81508}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="71" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10803,10 +10930,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L905"/>
+  <dimension ref="A1:M902"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10820,12 +10947,13 @@
     <col min="7" max="7" width="22.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="49.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="10" max="10" width="6.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="2.453125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="87.453125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -10833,249 +10961,303 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="120" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+        <v>325</v>
+      </c>
+      <c r="C2" s="355" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355">
+        <v>1</v>
+      </c>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355">
+        <v>2</v>
+      </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="355">
+        <v>3</v>
+      </c>
+      <c r="J2" s="355"/>
       <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="str">
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="346">
+      <c r="C3" s="337">
         <f>Data!C3</f>
         <v>44742</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" s="346">
+        <v>329</v>
+      </c>
+      <c r="E3" s="337">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45107</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="346">
+        <v>329</v>
+      </c>
+      <c r="G3" s="337">
         <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45473</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="346" t="str">
+      <c r="I3" s="337" t="str">
         <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="K3" s="95" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="356"/>
+      <c r="L3" s="95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" s="273">
+        <v>350</v>
+      </c>
+      <c r="C4" s="267">
         <v>11129690.461999999</v>
       </c>
-      <c r="D4" s="322">
+      <c r="D4" s="315">
         <f>C4/C8</f>
         <v>0.71954007930541752</v>
       </c>
-      <c r="E4" s="272">
+      <c r="E4" s="266">
         <f>3947351.849/0.7</f>
         <v>5639074.0700000003</v>
       </c>
-      <c r="F4" s="322">
+      <c r="F4" s="315">
         <f>E4/E8</f>
         <v>0.53990943728418095</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="437"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="80"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="266">
+        <f>E4*1.52</f>
+        <v>8571392.5864000004</v>
+      </c>
+      <c r="H4" s="315">
+        <f>G4/G8</f>
+        <v>0.63096006033519247</v>
+      </c>
+      <c r="I4" s="266"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="M4" s="80"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="273">
+        <v>351</v>
+      </c>
+      <c r="C5" s="267">
         <v>1147617.763</v>
       </c>
-      <c r="D5" s="322">
+      <c r="D5" s="315">
         <f>C5/C8</f>
         <v>7.4194064877248861E-2</v>
       </c>
-      <c r="E5" s="272">
+      <c r="E5" s="266">
         <f>591321.795*2</f>
         <v>1182643.5900000001</v>
       </c>
-      <c r="F5" s="322">
+      <c r="F5" s="315">
         <f>E5/E8</f>
         <v>0.11323143254698259</v>
       </c>
-      <c r="G5" s="145"/>
-      <c r="H5" s="437"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="266">
+        <f>E5*1.03</f>
+        <v>1218122.8977000001</v>
+      </c>
+      <c r="H5" s="315">
+        <f>G5/G8</f>
+        <v>8.9668847772527399E-2</v>
+      </c>
+      <c r="I5" s="266"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="273">
+        <v>352</v>
+      </c>
+      <c r="C6" s="267">
         <v>451993.272</v>
       </c>
-      <c r="D6" s="322">
+      <c r="D6" s="315">
         <f>C6/C8</f>
         <v>2.9221592091066291E-2</v>
       </c>
-      <c r="E6" s="272">
+      <c r="E6" s="266">
         <f>455151.15*2</f>
         <v>910302.3</v>
       </c>
-      <c r="F6" s="322">
+      <c r="F6" s="315">
         <f>E6/E8</f>
         <v>8.7156294890004107E-2</v>
       </c>
-      <c r="G6" s="145"/>
-      <c r="H6" s="437"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="80"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="266">
+        <f>E6*1.1</f>
+        <v>1001332.5300000001</v>
+      </c>
+      <c r="H6" s="315">
+        <f>G6/G8</f>
+        <v>7.3710406701806244E-2</v>
+      </c>
+      <c r="I6" s="266"/>
+      <c r="J6" s="358"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="M6" s="80"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="273">
+        <v>353</v>
+      </c>
+      <c r="C7" s="267">
         <v>2738482.4139999999</v>
       </c>
-      <c r="D7" s="322">
+      <c r="D7" s="315">
         <f>C7/C8</f>
         <v>0.17704426372626741</v>
       </c>
-      <c r="E7" s="272">
+      <c r="E7" s="266">
         <f>1356230.715*2</f>
         <v>2712461.43</v>
       </c>
-      <c r="F7" s="322">
+      <c r="F7" s="315">
         <f>E7/E8</f>
         <v>0.25970283527883237</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="437"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="80"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="266">
+        <f>E7*1.03</f>
+        <v>2793835.2729000002</v>
+      </c>
+      <c r="H7" s="315">
+        <f>G7/G8</f>
+        <v>0.20566068519047398</v>
+      </c>
+      <c r="I7" s="266"/>
+      <c r="J7" s="358"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="M7" s="80"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="220">
+        <v>176</v>
+      </c>
+      <c r="C8" s="215">
         <f>SUM(C4:C7)</f>
         <v>15467783.910999998</v>
       </c>
-      <c r="D8" s="321"/>
-      <c r="E8" s="279">
+      <c r="D8" s="314"/>
+      <c r="E8" s="273">
         <f>SUM(E4:E7)</f>
         <v>10444481.390000001</v>
       </c>
-      <c r="F8" s="321"/>
-      <c r="G8" s="280">
-        <f>IF(G9="","",E8*(1+G9))</f>
-        <v>13577825.807000002</v>
-      </c>
-      <c r="H8" s="321"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="314"/>
+      <c r="G8" s="274">
+        <f>SUM(G4:G7)</f>
+        <v>13584683.287</v>
+      </c>
+      <c r="H8" s="314"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="359"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="80"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="227"/>
-      <c r="D9" s="323"/>
+        <v>175</v>
+      </c>
+      <c r="C9" s="222"/>
+      <c r="D9" s="316"/>
       <c r="E9" s="18">
         <f>E8/C8-1</f>
         <v>-0.32475903141028817</v>
       </c>
-      <c r="F9" s="323"/>
+      <c r="F9" s="316"/>
       <c r="G9" s="96">
-        <v>0.3</v>
-      </c>
-      <c r="H9" s="323"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="80"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>G8/E8-1</f>
+        <v>0.30065656491154891</v>
+      </c>
+      <c r="H9" s="316"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="360"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="80"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="221">
+        <v>177</v>
+      </c>
+      <c r="C10" s="216">
         <f>Data!C9</f>
         <v>7301864</v>
       </c>
-      <c r="D10" s="324"/>
-      <c r="E10" s="278">
+      <c r="D10" s="317"/>
+      <c r="E10" s="272">
         <f>E8*E11</f>
         <v>4177792.5560000003</v>
       </c>
-      <c r="F10" s="324"/>
-      <c r="G10" s="438">
+      <c r="F10" s="317"/>
+      <c r="G10" s="341">
         <f>IF(G8="","",G8*(1-G11))</f>
-        <v>6788912.9035000009</v>
-      </c>
-      <c r="H10" s="324"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6792341.6435000002</v>
+      </c>
+      <c r="H10" s="317"/>
+      <c r="I10" s="341" t="str">
+        <f>IF(I8="","",I8*(1-I11))</f>
+        <v/>
+      </c>
+      <c r="J10" s="361"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="226">
+      <c r="C11" s="221">
         <f>(C8-C10)/C8</f>
         <v>0.52793082434987726</v>
       </c>
-      <c r="D11" s="226"/>
+      <c r="D11" s="221"/>
       <c r="E11" s="96">
         <v>0.4</v>
       </c>
-      <c r="F11" s="226"/>
+      <c r="F11" s="221"/>
       <c r="G11" s="96">
         <v>0.5</v>
       </c>
-      <c r="H11" s="226"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="97"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="221"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="97"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="29">
         <f>C8-C10</f>
@@ -11089,59 +11271,68 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29">
         <f>IF(G9="","",G8-G10)</f>
-        <v>6788912.9035000009</v>
+        <v>6792341.6435000002</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="97"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="29" t="str">
+        <f>IF(I9="","",I8-I10)</f>
+        <v/>
+      </c>
+      <c r="J12" s="296"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="97"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="231">
+      <c r="C13" s="226">
         <f>C14/C8</f>
         <v>6.7328499738051453E-2</v>
       </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="277">
+      <c r="D13" s="226"/>
+      <c r="E13" s="271">
         <f>E14/E8</f>
         <v>0.10369874309288227</v>
       </c>
-      <c r="F13" s="231"/>
+      <c r="F13" s="226"/>
       <c r="G13" s="88">
         <v>0.09</v>
       </c>
-      <c r="H13" s="231"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="97"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="226"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="363"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="97"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="223">
+        <v>179</v>
+      </c>
+      <c r="C14" s="218">
         <f>867483.279+173939.406</f>
         <v>1041422.6849999999</v>
       </c>
-      <c r="D14" s="325"/>
+      <c r="D14" s="318"/>
       <c r="E14" s="99">
         <f>C14*1.04</f>
         <v>1083079.5924</v>
       </c>
-      <c r="F14" s="325"/>
-      <c r="G14" s="439">
+      <c r="F14" s="318"/>
+      <c r="G14" s="342">
         <f>IF(G9="","",G8*G13)</f>
-        <v>1222004.3226300001</v>
-      </c>
-      <c r="H14" s="325"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="97"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1222621.4958299999</v>
+      </c>
+      <c r="H14" s="318"/>
+      <c r="I14" s="342" t="str">
+        <f>IF(I9="","",I8*I13)</f>
+        <v/>
+      </c>
+      <c r="J14" s="364"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="97"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>53</v>
       </c>
@@ -11157,79 +11348,89 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18">
         <f>IF(G9="","",G17/G8)</f>
-        <v>0.41</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="18" t="str">
+        <f>IF(I9="","",I17/I8)</f>
+        <v/>
+      </c>
+      <c r="J15" s="282"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="80"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="228"/>
-      <c r="D16" s="326"/>
+        <v>180</v>
+      </c>
+      <c r="C16" s="223"/>
+      <c r="D16" s="319"/>
       <c r="E16" s="14">
         <f>IF(ABS(C17+E17)=ABS(C17)+ABS(E17),IF(E17&lt;0,-1,1)*(E17-C17)/C17,"Turn")</f>
         <v>-0.27242455472043131</v>
       </c>
-      <c r="F16" s="326"/>
+      <c r="F16" s="319"/>
       <c r="G16" s="14">
         <f>IF(G9="","",IF(ABS(E17+G17)=ABS(E17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-E17)/E17,"Turn"))</f>
-        <v>7.3944489525543042E-2</v>
-      </c>
-      <c r="H16" s="326"/>
-      <c r="I16" s="243"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="168" t="s">
-        <v>324</v>
-      </c>
-      <c r="C17" s="281">
+        <v>7.4486885116907556E-2</v>
+      </c>
+      <c r="H16" s="319"/>
+      <c r="I16" s="14" t="str">
+        <f>IF(I9="","",IF(ABS(G17+I17)=ABS(G17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-G17)/G17,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="J16" s="365"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="275">
         <f>C12-C14</f>
         <v>7124497.2259999989</v>
       </c>
-      <c r="D17" s="327"/>
-      <c r="E17" s="281">
+      <c r="D17" s="320"/>
+      <c r="E17" s="275">
         <f>E12-E14</f>
         <v>5183609.2416000012</v>
       </c>
-      <c r="F17" s="327"/>
-      <c r="G17" s="281">
+      <c r="F17" s="320"/>
+      <c r="G17" s="275">
         <f>IF(G9="","",G12-G14)</f>
-        <v>5566908.5808700006</v>
-      </c>
-      <c r="H17" s="327"/>
-      <c r="I17" s="282" t="str">
-        <f>IF(I16="","",G17*(1+I16))</f>
-        <v/>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="79"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>5569720.1476700008</v>
+      </c>
+      <c r="H17" s="320"/>
+      <c r="I17" s="275" t="str">
+        <f>IF(I9="","",I12-I14)</f>
+        <v/>
+      </c>
+      <c r="J17" s="366"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="79"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12100,13 +12301,34 @@
     <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="I17 G8 G10 G12 G15:G17">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsBlanks" dxfId="5" priority="8">
       <formula>LEN(TRIM(G8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H17 I12 I14:I17 I10">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="7">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9 I13 I11">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(I9))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(I9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J17">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(J9))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(J9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12122,8 +12344,8 @@
   </sheetPr>
   <dimension ref="A1:J927"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12144,12 +12366,20 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="120" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+        <v>299</v>
+      </c>
+      <c r="C2" s="355" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="355">
+        <v>1</v>
+      </c>
+      <c r="E2" s="355">
+        <v>2</v>
+      </c>
+      <c r="F2" s="355">
+        <v>3</v>
+      </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -12159,34 +12389,34 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="346">
+      <c r="C3" s="337">
         <f>Operation!C3</f>
         <v>44742</v>
       </c>
-      <c r="D3" s="346">
+      <c r="D3" s="337">
         <f>Operation!E3</f>
         <v>45107</v>
       </c>
-      <c r="E3" s="346">
+      <c r="E3" s="337">
         <f>Operation!G3</f>
         <v>45473</v>
       </c>
-      <c r="F3" s="346" t="str">
+      <c r="F3" s="337" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
       <c r="G3" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I3" s="95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="222">
+      <c r="C4" s="217">
         <f>Operation!C17</f>
         <v>7124497.2259999989</v>
       </c>
@@ -12196,68 +12426,68 @@
       </c>
       <c r="E4" s="47">
         <f>Operation!G17</f>
-        <v>5566908.5808700006</v>
-      </c>
-      <c r="F4" s="244" t="str">
+        <v>5569720.1476700008</v>
+      </c>
+      <c r="F4" s="238" t="str">
         <f>Operation!I17</f>
         <v/>
       </c>
-      <c r="G4" s="240"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="6"/>
       <c r="I4" s="103"/>
       <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="318"/>
-      <c r="D5" s="319">
+        <v>324</v>
+      </c>
+      <c r="C5" s="311"/>
+      <c r="D5" s="312">
         <f>Operation!E16</f>
         <v>-0.27242455472043131</v>
       </c>
-      <c r="E5" s="319">
+      <c r="E5" s="312">
         <f>IF(E4="","",Operation!G16)</f>
-        <v>7.3944489525543042E-2</v>
-      </c>
-      <c r="F5" s="319" t="str">
+        <v>7.4486885116907556E-2</v>
+      </c>
+      <c r="F5" s="312" t="str">
         <f>IF(F4="","",Operation!I16)</f>
         <v/>
       </c>
-      <c r="G5" s="240"/>
+      <c r="G5" s="235"/>
       <c r="H5" s="6"/>
       <c r="I5" s="103"/>
       <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="229">
+        <v>181</v>
+      </c>
+      <c r="C6" s="224">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D6" s="297">
+      <c r="D6" s="290">
         <f>C6</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="E6" s="298">
+      <c r="E6" s="291">
         <f>IF(E4="","",D6)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="F6" s="299" t="str">
+      <c r="F6" s="292" t="str">
         <f>IF(F4="","",D6)</f>
         <v/>
       </c>
-      <c r="G6" s="241"/>
+      <c r="G6" s="236"/>
       <c r="H6" s="6"/>
       <c r="I6" s="102"/>
       <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="230">
+        <v>103</v>
+      </c>
+      <c r="C7" s="225">
         <f>IF(C4&lt;=0,C4,C4*(1-C6))</f>
         <v>5948955.1837099986</v>
       </c>
@@ -12267,13 +12497,13 @@
       </c>
       <c r="E7" s="104">
         <f>IF(E4="","",IF(E4&lt;=0,E4,E4*(1-E6)))</f>
-        <v>4648368.6650264505</v>
-      </c>
-      <c r="F7" s="245" t="str">
+        <v>4650716.3233044501</v>
+      </c>
+      <c r="F7" s="239" t="str">
         <f>IF(F4="","",IF(F4&lt;=0,F4,F4*(1-F6)))</f>
         <v/>
       </c>
-      <c r="G7" s="240"/>
+      <c r="G7" s="235"/>
       <c r="H7" s="6"/>
       <c r="I7" s="105"/>
       <c r="J7" s="79"/>
@@ -12282,93 +12512,93 @@
       <c r="B8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="444">
+      <c r="C8" s="347">
         <f>C10/C7</f>
-        <v>0.22760923045743461</v>
-      </c>
-      <c r="D8" s="445">
+        <v>3.4511538071793253E-2</v>
+      </c>
+      <c r="D8" s="348">
         <f>D10/D7</f>
         <v>0.13085754060431629</v>
       </c>
-      <c r="E8" s="444">
+      <c r="E8" s="347">
         <f>IF(E11="","",E10/E7)</f>
-        <v>0.11712810159422529</v>
-      </c>
-      <c r="F8" s="446" t="str">
+        <v>0.11757377090119193</v>
+      </c>
+      <c r="F8" s="349" t="str">
         <f>IF(F11="","",F10/F7)</f>
         <v/>
       </c>
-      <c r="G8" s="241"/>
+      <c r="G8" s="236"/>
       <c r="H8" s="6"/>
       <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="320"/>
-      <c r="D9" s="450">
+        <v>328</v>
+      </c>
+      <c r="C9" s="313"/>
+      <c r="D9" s="353">
         <f>(D7-C7)/C10</f>
-        <v>-1.1968958999287052</v>
-      </c>
-      <c r="E9" s="328">
+        <v>-7.8937239526594016</v>
+      </c>
+      <c r="E9" s="321">
         <f>IF(E7="","",(E7-D7)/D10)</f>
-        <v>0.56507625914454973</v>
-      </c>
-      <c r="F9" s="451" t="str">
+        <v>0.56922119102130309</v>
+      </c>
+      <c r="F9" s="354" t="str">
         <f>IF(F7="","",(F7-E7)/E10)</f>
         <v/>
       </c>
-      <c r="G9" s="241"/>
+      <c r="G9" s="236"/>
       <c r="H9" s="6"/>
       <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="447">
+        <v>100</v>
+      </c>
+      <c r="C10" s="350">
         <f>C7-C11</f>
-        <v>1354037.1113899993</v>
-      </c>
-      <c r="D10" s="447">
+        <v>205307.59330999944</v>
+      </c>
+      <c r="D10" s="350">
         <f>D7-D11</f>
         <v>566392.48793600034</v>
       </c>
-      <c r="E10" s="448">
+      <c r="E10" s="351">
         <f>IF(E11="","",E7-E11)</f>
-        <v>544454.5972446315</v>
-      </c>
-      <c r="F10" s="449" t="str">
+        <v>546802.25552263111</v>
+      </c>
+      <c r="F10" s="352" t="str">
         <f>IF(F4="","",F7*F8)</f>
         <v/>
       </c>
-      <c r="G10" s="242"/>
+      <c r="G10" s="237"/>
       <c r="H10" s="107"/>
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="234">
+        <v>182</v>
+      </c>
+      <c r="C11" s="229">
         <f>IF(C12="","",C12*Common_Shares/Data!C4)</f>
-        <v>4594918.0723199993</v>
-      </c>
-      <c r="D11" s="233">
+        <v>5743647.5903999992</v>
+      </c>
+      <c r="D11" s="228">
         <f>IF(D12="","",D12*Common_Shares/Data!C4)</f>
         <v>3761921.2288000006</v>
       </c>
-      <c r="E11" s="233">
+      <c r="E11" s="228">
         <f>IF(E12="","",E12*Common_Shares/Data!C4)</f>
         <v>4103914.067781819</v>
       </c>
-      <c r="F11" s="233" t="str">
+      <c r="F11" s="228" t="str">
         <f>IF(F12="","",F12*Common_Shares/Data!C4)</f>
         <v/>
       </c>
-      <c r="G11" s="286">
+      <c r="G11" s="279">
         <f>IF(F4="",IF(E4="",D11,E11),F11)</f>
         <v>4103914.067781819</v>
       </c>
@@ -12377,26 +12607,26 @@
       <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="250" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="283">
+      <c r="B12" s="244" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="276">
         <f>IF(C14="","",C14/C13)</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D12" s="284">
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="D12" s="277">
         <f>IF(D14="","",D14/D13)</f>
         <v>0.46666666666666673</v>
       </c>
-      <c r="E12" s="284">
+      <c r="E12" s="277">
         <f>IF(E14="","",E14/E13)</f>
         <v>0.50909090909090915</v>
       </c>
-      <c r="F12" s="284" t="str">
+      <c r="F12" s="277" t="str">
         <f>IF(F14="","",F14)</f>
         <v/>
       </c>
-      <c r="G12" s="287">
+      <c r="G12" s="280">
         <f>G11*Data!C$4/Dashboard!I5</f>
         <v>0.50909090909090915</v>
       </c>
@@ -12405,60 +12635,60 @@
       <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="292" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="440">
-        <v>1</v>
-      </c>
-      <c r="D13" s="285">
+      <c r="B13" s="285" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="343">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="278">
         <v>1.2</v>
       </c>
-      <c r="E13" s="285">
+      <c r="E13" s="278">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F13" s="285"/>
-      <c r="G13" s="293"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="286"/>
       <c r="H13" s="107"/>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="292" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="442">
+      <c r="B14" s="285" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="345">
         <f>0.42+0.15</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="D14" s="443">
+      <c r="D14" s="346">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E14" s="443">
+      <c r="E14" s="346">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F14" s="443"/>
-      <c r="G14" s="441"/>
+      <c r="F14" s="346"/>
+      <c r="G14" s="344"/>
       <c r="H14" s="107"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="294">
+        <v>293</v>
+      </c>
+      <c r="C15" s="287">
         <v>0</v>
       </c>
-      <c r="D15" s="294">
+      <c r="D15" s="287">
         <f>0.15+0.41</f>
         <v>0.55999999999999994</v>
       </c>
-      <c r="E15" s="294">
+      <c r="E15" s="287">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F15" s="294"/>
-      <c r="G15" s="288">
+      <c r="F15" s="287"/>
+      <c r="G15" s="281">
         <f>G12*D31</f>
         <v>5.8240000000000016</v>
       </c>
@@ -12468,10 +12698,10 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="232"/>
-      <c r="D16" s="274">
+        <v>183</v>
+      </c>
+      <c r="C16" s="227"/>
+      <c r="D16" s="268">
         <f ca="1">Dashboard!D12</f>
         <v>0.19354444444444446</v>
       </c>
@@ -12483,7 +12713,7 @@
         <f>IF(F4="","",D16)</f>
         <v/>
       </c>
-      <c r="G16" s="289">
+      <c r="G16" s="282">
         <f ca="1">Dashboard!D12</f>
         <v>0.19354444444444446</v>
       </c>
@@ -12493,22 +12723,22 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="108" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="143"/>
-      <c r="D17" s="275">
+      <c r="D17" s="269">
         <f ca="1">IF(D4="","",1+D16)</f>
         <v>1.1935444444444445</v>
       </c>
-      <c r="E17" s="276">
+      <c r="E17" s="270">
         <f ca="1">IF(E4="","",(1+D16)*(1+E16))</f>
         <v>1.4245483408641977</v>
       </c>
-      <c r="F17" s="276" t="str">
+      <c r="F17" s="270" t="str">
         <f>IF(F4="","",(1+D16)*(1+E16)*(1+F16))</f>
         <v/>
       </c>
-      <c r="G17" s="290">
+      <c r="G17" s="283">
         <f ca="1">IF(F4="",IF(E4="",D17,E17),F17)*(1+G16)</f>
         <v>1.700261758081014</v>
       </c>
@@ -12518,25 +12748,25 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="295">
+        <v>294</v>
+      </c>
+      <c r="C18" s="288">
         <f>C15</f>
         <v>0</v>
       </c>
-      <c r="D18" s="237">
+      <c r="D18" s="232">
         <f ca="1">IF(D15="","",IF(D15=0,0,D15/D17))</f>
         <v>0.46919073906850733</v>
       </c>
-      <c r="E18" s="238">
+      <c r="E18" s="233">
         <f ca="1">IF(E15="","",IF(E15=0,0,E15/E17))</f>
         <v>0.39310705290652181</v>
       </c>
-      <c r="F18" s="238" t="str">
+      <c r="F18" s="233" t="str">
         <f>IF(F15="","",IF(F15=0,0,F15/F17))</f>
         <v/>
       </c>
-      <c r="G18" s="291">
+      <c r="G18" s="284">
         <f ca="1">IF(G15=0,0,G15/G17)</f>
         <v>3.4253549327447144</v>
       </c>
@@ -12550,74 +12780,74 @@
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="236" t="str">
+        <v>295</v>
+      </c>
+      <c r="C20" s="231" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E20" s="95" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="81" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C21" s="109">
         <f>Asset_Model!E59</f>
         <v>43640996.975659996</v>
       </c>
-      <c r="D21" s="269">
+      <c r="D21" s="263">
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>5.4136695985890526</v>
       </c>
       <c r="E21" s="110" t="s">
-        <v>315</v>
-      </c>
-      <c r="G21" s="171">
+        <v>313</v>
+      </c>
+      <c r="G21" s="167">
         <f>C21+C22+C23+C24</f>
         <v>45928099.292460009</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="81" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C22" s="109">
         <f>Asset_Model!E58</f>
         <v>9794286.2868000008</v>
       </c>
-      <c r="D22" s="269">
+      <c r="D22" s="263">
         <f>C22/(Dashboard!I5/Data!C4)</f>
         <v>1.2149820944810106</v>
       </c>
       <c r="E22" s="110" t="s">
-        <v>316</v>
-      </c>
-      <c r="G22" s="239">
+        <v>314</v>
+      </c>
+      <c r="G22" s="234">
         <f>G21*Data!C$4/Dashboard!I5</f>
         <v>5.697384846621274</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="109">
         <f>-Asset_Model!D52</f>
         <v>-6739518.3509999998</v>
       </c>
-      <c r="D23" s="269">
+      <c r="D23" s="263">
         <f>C23/(Dashboard!I5/Data!C4)</f>
         <v>-0.83603785739108771</v>
       </c>
-      <c r="E23" s="433" t="str">
+      <c r="E23" s="455" t="str">
         <f>IF(F24+G24=G22,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F23" s="180" t="s">
-        <v>323</v>
+      <c r="F23" s="176" t="s">
+        <v>321</v>
       </c>
       <c r="G23" s="113" t="s">
         <v>25</v>
@@ -12625,22 +12855,22 @@
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="110" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C24" s="109">
         <f>-Asset_Model!E50</f>
         <v>-767665.61899998784</v>
       </c>
-      <c r="D24" s="269">
+      <c r="D24" s="263">
         <f>C24/(Dashboard!I5/Data!C4)</f>
         <v>-9.522898905770083E-2</v>
       </c>
-      <c r="E24" s="433"/>
-      <c r="F24" s="186">
+      <c r="E24" s="455"/>
+      <c r="F24" s="182">
         <f>D21</f>
         <v>5.4136695985890526</v>
       </c>
-      <c r="G24" s="185">
+      <c r="G24" s="181">
         <f>SUM(D22:D24)</f>
         <v>0.28371524803222203</v>
       </c>
@@ -12651,51 +12881,51 @@
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="236" t="str">
+        <v>298</v>
+      </c>
+      <c r="C26" s="231" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E26" s="111"/>
-      <c r="F26" s="432" t="s">
-        <v>306</v>
-      </c>
-      <c r="G26" s="432"/>
+      <c r="F26" s="454" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="454"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="161" t="str">
+      <c r="B27" s="157" t="str">
         <f>"Exit after Year "&amp;B28</f>
         <v>Exit after Year 2</v>
       </c>
-      <c r="C27" s="161" t="s">
+      <c r="C27" s="157" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="241" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="157" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="247" t="s">
-        <v>293</v>
-      </c>
-      <c r="E27" s="161" t="s">
+      <c r="F27" s="324" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" s="324" t="s">
         <v>303</v>
       </c>
-      <c r="F27" s="331" t="s">
-        <v>305</v>
-      </c>
-      <c r="G27" s="331" t="s">
-        <v>304</v>
-      </c>
       <c r="I27" s="112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="252">
+      <c r="B28" s="246">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
-      <c r="D28" s="246">
+      <c r="D28" s="240">
         <v>8</v>
       </c>
-      <c r="E28" s="251">
+      <c r="E28" s="245">
         <f ca="1">G12*D28/G17</f>
         <v>2.3953530998214783</v>
       </c>
@@ -12704,70 +12934,70 @@
       <c r="I28" s="114"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="180" t="s">
-        <v>333</v>
+      <c r="B29" s="176" t="s">
+        <v>331</v>
       </c>
       <c r="C29" s="14">
         <f>1/D29</f>
         <v>0.125</v>
       </c>
-      <c r="D29" s="246">
+      <c r="D29" s="240">
         <f>'Qualitative Analysis'!E21</f>
         <v>8</v>
       </c>
-      <c r="E29" s="256">
+      <c r="E29" s="250">
         <f t="dataTable" ref="E29:E31" dt2D="0" dtr="0" r1="D28" ca="1"/>
         <v>2.3953530998214783</v>
       </c>
-      <c r="F29" s="434">
+      <c r="F29" s="456">
         <f ca="1">SUM(C18:F18)</f>
         <v>0.8622977919750292</v>
       </c>
-      <c r="G29" s="256">
+      <c r="G29" s="250">
         <f ca="1">$F$29+E29+$G$22</f>
         <v>8.9550357384177808</v>
       </c>
       <c r="I29" s="97"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="180" t="s">
-        <v>334</v>
+      <c r="B30" s="176" t="s">
+        <v>332</v>
       </c>
       <c r="C30" s="14">
         <f t="shared" ref="C30" si="0">1/D30</f>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="D30" s="246">
+      <c r="D30" s="240">
         <f>D29*1.3</f>
         <v>10.4</v>
       </c>
-      <c r="E30" s="255">
+      <c r="E30" s="249">
         <v>3.1139590297679223</v>
       </c>
-      <c r="F30" s="435"/>
-      <c r="G30" s="255">
+      <c r="F30" s="457"/>
+      <c r="G30" s="249">
         <f ca="1">$F$29+E30+$G$22</f>
         <v>9.6736416683642261</v>
       </c>
       <c r="I30" s="97"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="184" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="248">
+      <c r="B31" s="180" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" s="242">
         <f>1/D31</f>
         <v>8.7412587412587409E-2</v>
       </c>
-      <c r="D31" s="249">
+      <c r="D31" s="243">
         <f>D30*1.1</f>
         <v>11.440000000000001</v>
       </c>
-      <c r="E31" s="257">
+      <c r="E31" s="251">
         <v>3.4253549327447144</v>
       </c>
-      <c r="F31" s="436"/>
-      <c r="G31" s="257">
+      <c r="F31" s="458"/>
+      <c r="G31" s="251">
         <f ca="1">$F$29+E31+$G$22</f>
         <v>9.9850375713410173</v>
       </c>
@@ -12785,23 +13015,23 @@
       <c r="B33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="311" t="str">
+      <c r="C33" s="304" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D33" s="161"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="12"/>
       <c r="I33" s="118"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="313">
+        <v>185</v>
+      </c>
+      <c r="C34" s="306">
         <f ca="1">MIN(Asset_Model!D7,G29)+(ABS(Asset_Model!D7-G29)*'Qualitative Analysis'!E80)*Exchange_Rate</f>
         <v>11.094884983632483</v>
       </c>
@@ -12809,7 +13039,7 @@
         <f ca="1">IF(C34&lt;E34,"&lt;",IF(C34=E34,"=","&gt;"))</f>
         <v>&gt;</v>
       </c>
-      <c r="E34" s="312">
+      <c r="E34" s="305">
         <f ca="1">G30*Exchange_Rate</f>
         <v>9.6736416683642261</v>
       </c>
@@ -12819,21 +13049,21 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="157"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="6"/>
       <c r="I35" s="116"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="350" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="431"/>
+      <c r="C36" s="385" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="453"/>
       <c r="E36" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>20</v>
@@ -12842,22 +13072,22 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="317" t="s">
-        <v>309</v>
-      </c>
-      <c r="C37" s="314">
+      <c r="B37" s="310" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="307">
         <f ca="1">MIN(C34,E34)+(ABS(C34-E34)*'Qualitative Analysis'!E80)</f>
         <v>10.467330324753545</v>
       </c>
-      <c r="D37" s="152" t="str">
+      <c r="D37" s="148" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E37" s="153">
+      <c r="E37" s="149">
         <f ca="1">(C37-G22)/C12</f>
-        <v>8.368325400232056</v>
-      </c>
-      <c r="F37" s="196">
+        <v>6.6946603201856449</v>
+      </c>
+      <c r="F37" s="192">
         <f ca="1">C37/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.53327852226888239</v>
       </c>
@@ -12866,26 +13096,26 @@
       <c r="I37" s="97"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="316" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="315">
+      <c r="B38" s="309" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="308">
         <f ca="1">(G15/(1+G38)^B28+F29+G22)*Exchange_Rate</f>
         <v>12.058967415253157</v>
       </c>
-      <c r="D38" s="258" t="str">
+      <c r="D38" s="252" t="str">
         <f>D37</f>
         <v>HKD</v>
       </c>
-      <c r="E38" s="153">
+      <c r="E38" s="149">
         <f ca="1">(C38-G22)/C12</f>
-        <v>11.160671173038393</v>
-      </c>
-      <c r="F38" s="196">
+        <v>8.9285369384307138</v>
+      </c>
+      <c r="F38" s="192">
         <f ca="1">C38/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.61436757260703168</v>
       </c>
-      <c r="G38" s="349">
+      <c r="G38" s="340">
         <f>Dashboard!D10</f>
         <v>2.9100000000000001E-2</v>
       </c>
@@ -13809,7 +14039,7 @@
   <dimension ref="A2:H93"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13824,7 +14054,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="123"/>
       <c r="D2" s="12"/>
@@ -13832,7 +14062,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B3" s="124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="125"/>
       <c r="D3" s="6"/>
@@ -13840,7 +14070,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="125"/>
       <c r="D4" s="122">
@@ -13848,12 +14078,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="125"/>
       <c r="D5" s="122">
@@ -13861,12 +14091,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="125"/>
       <c r="D6" s="122">
@@ -13874,12 +14104,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B7" s="126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="125"/>
       <c r="D7" s="122">
@@ -13898,7 +14128,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B9" s="128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="40"/>
@@ -13906,19 +14136,19 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="129">
         <f>IF(E10="Strongly disagree",0,IF(E10="disagree",1,IF(E10="unclear",2,IF(E10="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="129">
@@ -13932,7 +14162,7 @@
     </row>
     <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="129">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
@@ -13945,7 +14175,7 @@
     </row>
     <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="129">
         <f>AVERAGE(D10:D12)</f>
@@ -13964,30 +14194,30 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>202</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B16" s="203" t="s">
-        <v>203</v>
+      <c r="B16" s="198" t="s">
+        <v>202</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="115">
         <f>1/E16</f>
         <v>0.125</v>
       </c>
-      <c r="E16" s="246">
+      <c r="E16" s="240">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="129" t="str">
@@ -13995,56 +14225,56 @@
         <v>-</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="129" t="str">
         <f t="shared" ref="D18:D19" si="1">IF(LEFT(E18,3)="(+)","+","-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="182" t="s">
-        <v>207</v>
+      <c r="E18" s="178" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="129" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="126" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="129" t="str">
         <f>D17&amp;D18&amp;D19</f>
         <v>--+</v>
       </c>
-      <c r="E20" s="183" t="str">
+      <c r="E20" s="179" t="str">
         <f>IF(D20="+-+","Growth", IF(D20="+--","Mature", "Shakeout/Decline")) &amp; " stage"</f>
         <v>Shakeout/Decline stage</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="115">
         <f>1/E21</f>
         <v>0.125</v>
       </c>
-      <c r="E21" s="246">
+      <c r="E21" s="240">
         <f>IF(LEFT(E20,1)="G", E16/2.4, IF(LEFT(E20,1)="M", E16/1.8, E16))</f>
         <v>8</v>
       </c>
@@ -14056,7 +14286,7 @@
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -14064,14 +14294,14 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="121"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D25" s="129">
         <f>IF(E25="Strongly disagree",0,IF(E25="disagree",1,IF(E25="unclear",2,IF(E25="agree",3,4))))</f>
@@ -14085,66 +14315,66 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" s="129">
         <f>IF(E26="Strongly disagree",0,IF(E26="disagree",1,IF(E26="unclear",2,IF(E26="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D27" s="129">
         <f>IF(E27="Strongly disagree",0,IF(E27="disagree",1,IF(E27="unclear",2,IF(E27="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D28" s="129">
         <f>IF(E28="Strongly disagree",0,IF(E28="disagree",1,IF(E28="unclear",2,IF(E28="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D29" s="129">
         <f>IF(E29="Strongly disagree",0,IF(E29="disagree",1,IF(E29="unclear",2,IF(E29="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="129">
         <f>IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
@@ -14160,138 +14390,138 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="129">
         <f t="shared" ref="D32:D35" si="2">IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D34" s="129">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="129">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="129">
         <f t="shared" ref="D37:D41" si="3">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D38" s="129">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="129">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40" s="129">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D41" s="129">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="24"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D43" s="132">
         <f>SUM(D44:D49)/(6*4)</f>
@@ -14305,84 +14535,84 @@
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="129">
         <f t="shared" ref="D44:D49" si="4">IF(E44="Strongly disagree",0,IF(E44="disagree",1,IF(E44="unclear",2,IF(E44="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="129">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D46" s="129">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D47" s="129">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D48" s="129">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D49" s="129">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="132">
         <f>SUM(D51:D56)/(6*4)</f>
@@ -14396,84 +14626,84 @@
     </row>
     <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51" s="129">
         <f t="shared" ref="D51:D56" si="5">IF(E51="Strongly disagree",0,IF(E51="disagree",1,IF(E51="unclear",2,IF(E51="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D52" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D54" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D55" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D56" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D57" s="132">
         <f>SUM(D58:D63)/(6*4)</f>
@@ -14487,85 +14717,85 @@
     </row>
     <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" s="129">
         <f t="shared" ref="D58:D63" si="6">IF(E58="Strongly disagree",0,IF(E58="disagree",1,IF(E58="unclear",2,IF(E58="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D59" s="129">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D60" s="129">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D61" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D62" s="129">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D63" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D64" s="132">
         <f>SUM(D65:D70)/(6*4)</f>
@@ -14579,64 +14809,64 @@
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D65" s="129">
         <f t="shared" ref="D65:D68" si="7">IF(E65="Strongly disagree",0,IF(E65="disagree",1,IF(E65="unclear",2,IF(E65="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D66" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D67" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D68" s="129">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D69" s="129">
         <f>IF(E69="Strongly disagree",0,IF(E69="disagree",1,IF(E69="unclear",2,IF(E69="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F69" s="55"/>
       <c r="G69" s="55"/>
@@ -14644,14 +14874,14 @@
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D70" s="133">
         <f t="array" ref="D70">(1-INDEX(B84:E93,MATCH(E70,B84:B93,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F70" s="55"/>
       <c r="G70" s="55"/>
@@ -14659,7 +14889,7 @@
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D71" s="134">
         <f>SUM(D72:D77)/(6*4)</f>
@@ -14675,14 +14905,14 @@
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D72" s="129">
         <f t="shared" ref="D72:D76" si="8">IF(E72="Strongly disagree",0,IF(E72="disagree",1,IF(E72="unclear",2,IF(E72="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="55"/>
       <c r="G72" s="55"/>
@@ -14690,14 +14920,14 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D73" s="129">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
@@ -14705,14 +14935,14 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74" s="129">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F74" s="55"/>
       <c r="G74" s="55"/>
@@ -14720,14 +14950,14 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D75" s="129">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F75" s="55"/>
       <c r="G75" s="55"/>
@@ -14735,14 +14965,14 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D76" s="129">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F76" s="55"/>
       <c r="G76" s="55"/>
@@ -14750,24 +14980,24 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D77" s="129">
         <f>IF(E77="Strongly disagree",0,IF(E77="disagree",1,IF(E77="non-perishable",2,IF(E77="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F77" s="55"/>
       <c r="G77" s="55"/>
       <c r="H77" s="55"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="180" t="s">
-        <v>264</v>
-      </c>
-      <c r="D78" s="160">
+      <c r="B78" s="176" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="156">
         <f>1-AVERAGE(D43,D50,D57,D64,D71)</f>
         <v>0.58378684807256243</v>
       </c>
@@ -14784,20 +15014,20 @@
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D80" s="122">
         <f>E80*4</f>
         <v>2.2337868480725622</v>
       </c>
-      <c r="E80" s="159">
+      <c r="E80" s="155">
         <f>AVERAGE(AVERAGE(D25:D29)/4,AVERAGE(D31:D35)/4,AVERAGE(D37:D41)/4,D78)</f>
         <v>0.55844671201814056</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -14805,7 +15035,7 @@
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" s="136"/>
       <c r="D83" s="136"/>
@@ -14813,7 +15043,7 @@
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="138" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C84" s="136"/>
       <c r="D84" s="136">
@@ -14830,7 +15060,7 @@
         <v>Information Technology Like, 6.6y</v>
       </c>
       <c r="C85" s="136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D85" s="136">
         <v>6.6</v>
@@ -14846,7 +15076,7 @@
         <v>Healthcare, 11.4y</v>
       </c>
       <c r="C86" s="136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D86" s="136">
         <v>11.4</v>
@@ -14862,7 +15092,7 @@
         <v>Consumer Discretionary, 12.4y</v>
       </c>
       <c r="C87" s="136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D87" s="136">
         <v>12.4</v>
@@ -14878,7 +15108,7 @@
         <v>Consumer Staples, 15.1y</v>
       </c>
       <c r="C88" s="136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D88" s="136">
         <v>15.1</v>
@@ -14894,7 +15124,7 @@
         <v>Industrials, 15.4y</v>
       </c>
       <c r="C89" s="136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D89" s="136">
         <v>15.4</v>
@@ -14910,7 +15140,7 @@
         <v>Telecommunication Services, 16.1y</v>
       </c>
       <c r="C90" s="136" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D90" s="136">
         <v>16.100000000000001</v>
@@ -14926,7 +15156,7 @@
         <v>Energy, 17.6y</v>
       </c>
       <c r="C91" s="136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D91" s="136">
         <v>17.600000000000001</v>
@@ -14942,7 +15172,7 @@
         <v>Materials, 18.6y</v>
       </c>
       <c r="C92" s="136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D92" s="136">
         <v>18.600000000000001</v>
@@ -14958,7 +15188,7 @@
         <v>Utilities, 29.4y</v>
       </c>
       <c r="C93" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D93" s="141">
         <v>29.4</v>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BED6D1-7039-41C9-BDCA-CE73FE2B4DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2321D18E-594F-4DC5-9CB1-31B531227F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="366">
   <si>
     <t>Company Info:</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>owner's NI</t>
-  </si>
-  <si>
-    <t>Net Profit Margin</t>
   </si>
   <si>
     <t>Current Asset</t>
@@ -727,10 +724,52 @@
     </r>
   </si>
   <si>
-    <t>Company life cycle Analysis</t>
-  </si>
-  <si>
-    <t># inspired by "Cash Flow Patterns as a Proxy for Firm Life Cycle" (V. Dickinson, 2011)</t>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cashflow from operation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cashflow from investment</t>
+    </r>
+  </si>
+  <si>
+    <t>(-) Low/Decreasing CFI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cashflow from financing</t>
+    </r>
   </si>
   <si>
     <r>
@@ -754,111 +793,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Default Terminal Value Yield</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cashflow from operation</t>
-    </r>
-  </si>
-  <si>
-    <t>(-) Low/Decreasing CFO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cashflow from investment</t>
-    </r>
-  </si>
-  <si>
-    <t>(-) Low/Decreasing CFI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cashflow from financing</t>
-    </r>
-  </si>
-  <si>
-    <t>(+) Rapidly Increasing CFF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">⇒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Likely stage in the company life cycle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">⇒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Terminal Value Yield</t>
     </r>
   </si>
   <si>
@@ -1251,9 +1186,6 @@
     <t>MOS</t>
   </si>
   <si>
-    <t>低估值的香港龙头房地产开发商</t>
-  </si>
-  <si>
     <t>ROIC</t>
   </si>
   <si>
@@ -1302,62 +1234,13 @@
     <t>Terminal Value</t>
   </si>
   <si>
-    <t>0083.HK</t>
-  </si>
-  <si>
-    <t>SINO LAND</t>
-  </si>
-  <si>
-    <t>1. 93%收入来自香港地区，物业价值长期可靠
-2. Property value is likely to exceed inflation in the long run especially after a debt crisis and the future monetary easing</t>
-  </si>
-  <si>
-    <t>1. Strong balance sheet that's able to withstand averse market condition
-2. Market price is low compared to the realizable assets</t>
-  </si>
-  <si>
-    <t>1. 72%收入来自物业销售，22年楼市差，实质比例更高
-2. 物业销售业绩波动较大，难以预测</t>
-  </si>
-  <si>
-    <t>1. The room for profitable reinvestment is small
-2. Organic growth rate will be low</t>
-  </si>
-  <si>
-    <t>物業銷售</t>
-  </si>
-  <si>
-    <t>物業管理及其他服務</t>
-  </si>
-  <si>
-    <t>酒店經營</t>
-  </si>
-  <si>
-    <t>經營租賃之租金收益</t>
-  </si>
-  <si>
     <t>Dividend</t>
   </si>
   <si>
-    <t>22年底香港物业价格下跌，开关后持续回暖</t>
-  </si>
-  <si>
-    <t>物業管理及其他服務 比较稳定</t>
-  </si>
-  <si>
-    <t>經營租賃之租金收益 比较稳定</t>
-  </si>
-  <si>
-    <t>酒店經營 宏观背景及业绩明显在好转</t>
-  </si>
-  <si>
     <t>Base Year</t>
   </si>
   <si>
     <t>https://edgeinvestments.org/blog/peter-lynch-stock-categories</t>
-  </si>
-  <si>
-    <t>Slow Growers</t>
   </si>
   <si>
     <t>4. Working Capital</t>
@@ -1386,6 +1269,100 @@
       </rPr>
       <t>WC/Sales for the model</t>
     </r>
+  </si>
+  <si>
+    <t>0303.HK</t>
+  </si>
+  <si>
+    <t>VTECH HOLDINGS</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Cyclicals</t>
+  </si>
+  <si>
+    <t>電子學習產品</t>
+  </si>
+  <si>
+    <t>電訊產品</t>
+  </si>
+  <si>
+    <t>承包生產服務</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>歐洲</t>
+  </si>
+  <si>
+    <t>亞太區</t>
+  </si>
+  <si>
+    <t>其他地區</t>
+  </si>
+  <si>
+    <t>(+) Healthy/Increasing CFO</t>
+  </si>
+  <si>
+    <t>(-) Low/Decreasing CFF</t>
+  </si>
+  <si>
+    <t>current demand for export will likely not recover until the 2nd half of next year</t>
+  </si>
+  <si>
+    <t>Reinvestment Estimate</t>
+  </si>
+  <si>
+    <t>Peter Lynch: "The P/E ratio of any company that's fairly priced will equal its growth rate"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Terminal Value Multiple</t>
+    </r>
+  </si>
+  <si>
+    <t>Net Profit Growth</t>
+  </si>
+  <si>
+    <t>"Cash Flow Patterns as a Proxy for Firm Life Cycle" (V. Dickinson, 2011)</t>
+  </si>
+  <si>
+    <t>Terminal Value Analysis Based on the company's Estimated Long-term Growth Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Likely type of company</t>
+    </r>
+  </si>
+  <si>
+    <t>Yield on ratio</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1396,7 @@
     <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="185" formatCode="&quot;Ideal Price = &quot;0.00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1626,6 +1603,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1773,7 +1756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="104">
+  <borders count="106">
     <border>
       <left/>
       <right/>
@@ -3009,17 +2992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color rgb="FF000000"/>
       </left>
@@ -3084,13 +3056,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="459">
+  <cellXfs count="464">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3342,9 +3353,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3482,9 +3490,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3525,7 +3530,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3740,9 +3744,6 @@
     <xf numFmtId="38" fontId="2" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3939,9 +3940,6 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3981,10 +3979,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="9" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4011,7 +4006,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="185" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4027,152 +4022,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="9" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4193,7 +4074,154 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4250,7 +4278,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4286,13 +4314,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4373,9 +4394,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -4594,8 +4615,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4623,11 +4644,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="385" t="str">
+      <c r="C2" s="403" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>0083.HK : SINO LAND</v>
-      </c>
-      <c r="D2" s="386"/>
+        <v>0303.HK : VTECH HOLDINGS</v>
+      </c>
+      <c r="D2" s="404"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -4639,106 +4660,106 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="387" t="s">
+      <c r="C3" s="405" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="388"/>
+      <c r="D3" s="406"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="399" t="s">
+      <c r="I3" s="417" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="400"/>
+      <c r="J3" s="418"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="389" t="s">
+      <c r="C4" s="407" t="s">
         <v>345</v>
       </c>
-      <c r="D4" s="390"/>
+      <c r="D4" s="408"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="34">
-        <v>10.039999999999999</v>
+        <v>44.25</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="186"/>
+      <c r="K4" s="184"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="391">
-        <v>44959</v>
-      </c>
-      <c r="D5" s="390"/>
-      <c r="E5" s="151" t="str">
+      <c r="C5" s="409">
+        <v>43002</v>
+      </c>
+      <c r="D5" s="408"/>
+      <c r="E5" s="150" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
-        <v>Patience Premium</v>
+        <v/>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="401">
-        <v>8061259776</v>
-      </c>
-      <c r="J5" s="402"/>
-      <c r="K5" s="185"/>
+      <c r="I5" s="399">
+        <v>252702000</v>
+      </c>
+      <c r="J5" s="400"/>
+      <c r="K5" s="183"/>
       <c r="L5" s="110"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="329">
+        <v>330</v>
+      </c>
+      <c r="C6" s="325">
         <v>8</v>
       </c>
-      <c r="D6" s="330">
+      <c r="D6" s="326">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>45169</v>
-      </c>
-      <c r="E6" s="151"/>
-      <c r="G6" s="164" t="s">
+        <v>45077</v>
+      </c>
+      <c r="E6" s="150"/>
+      <c r="G6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="163"/>
-      <c r="I6" s="403">
+      <c r="H6" s="162"/>
+      <c r="I6" s="419">
         <f>I4*I5/1000000</f>
-        <v>80935.048151039999</v>
-      </c>
-      <c r="J6" s="404"/>
-      <c r="K6" s="185"/>
+        <v>11182.0635</v>
+      </c>
+      <c r="J6" s="420"/>
+      <c r="K6" s="183"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="175">
+      <c r="C7" s="174">
         <f>(Data!C39)/I4</f>
-        <v>3.7730094313420892E-2</v>
-      </c>
-      <c r="D7" s="175">
+        <v>2.0541825755147965E-2</v>
+      </c>
+      <c r="D7" s="174">
         <f>(Data!C40)/I4</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="187"/>
+        <v>1.4308629172066499E-4</v>
+      </c>
+      <c r="E7" s="185"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="125"/>
+      <c r="C8" s="124"/>
       <c r="E8" s="6"/>
       <c r="G8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="162"/>
+      <c r="H8" s="161"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4751,80 +4772,80 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="150">
+      <c r="I9" s="149">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>14.111501307152984</v>
+        <v>8.2525012333487524</v>
       </c>
       <c r="J9" s="50">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>7.0864182218025915E-2</v>
+        <v>0.12117538328367067</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="154">
+      <c r="D10" s="153">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="168">
+      <c r="I10" s="167">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.51150734690372379</v>
-      </c>
-      <c r="J10" s="160">
+        <v>2.0995977651728484</v>
+      </c>
+      <c r="J10" s="159">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>2.8028701751985206</v>
+        <v>55.536287322564853</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="247">
+        <v>299</v>
+      </c>
+      <c r="C11" s="244">
         <v>0.1</v>
       </c>
-      <c r="D11" s="321">
+      <c r="D11" s="370">
         <f ca="1">$C$11*(2-'Qualitative Analysis'!$E$13+IF($C$5+30&gt;=TODAY(),0.2,0))</f>
-        <v>0.16444444444444445</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="372" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="373"/>
+      <c r="I11" s="429" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" s="430"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="100" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="323">
+        <v>322</v>
+      </c>
+      <c r="C12" s="319">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="D12" s="322">
+      <c r="D12" s="318">
         <f ca="1">D11+C12</f>
-        <v>0.19354444444444446</v>
-      </c>
-      <c r="G12" s="164" t="s">
+        <v>0.17354444444444445</v>
+      </c>
+      <c r="G12" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="165">
-        <v>1</v>
-      </c>
-      <c r="J12" s="166" t="str">
+      <c r="H12" s="162"/>
+      <c r="I12" s="164">
+        <v>7.8459225854941756</v>
+      </c>
+      <c r="J12" s="165" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
-        <v>HKD</v>
+        <v>USD/HKD</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4833,132 +4854,132 @@
       <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="157" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="219">
+      <c r="C14" s="156" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="216">
         <f ca="1">'FCFF Model'!C34</f>
-        <v>11.094884983632483</v>
-      </c>
-      <c r="E14" s="157" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="219">
+        <v>20.897173050980452</v>
+      </c>
+      <c r="E14" s="156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14" s="216">
         <f ca="1">'FCFF Model'!E34</f>
-        <v>9.6736416683642261</v>
-      </c>
-      <c r="G14" s="220" t="s">
+        <v>52.765300352065523</v>
+      </c>
+      <c r="G14" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f ca="1">IF('FCFF Model'!C37&lt;0, "Error", 'FCFF Model'!C37)</f>
-        <v>10.467330324753545</v>
-      </c>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
+        <v>37.100417595392699</v>
+      </c>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="289" t="s">
-        <v>326</v>
-      </c>
-      <c r="D15" s="117" t="s">
+      <c r="B15" s="124"/>
+      <c r="C15" s="285" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="169"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="158" t="s">
+      <c r="J15" s="157" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="161">
+      <c r="B16" s="160">
         <f>I4</f>
-        <v>10.039999999999999</v>
-      </c>
-      <c r="C16" s="424">
-        <f ca="1">D11/2</f>
-        <v>8.2222222222222224E-2</v>
-      </c>
-      <c r="D16" s="193">
+        <v>44.25</v>
+      </c>
+      <c r="C16" s="438">
+        <f ca="1">D12/2</f>
+        <v>8.6772222222222223E-2</v>
+      </c>
+      <c r="D16" s="191">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-3.9659440872267498E-2</v>
-      </c>
-      <c r="E16" s="381">
-        <f>'FCFF Model'!D15</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="F16" s="195">
+        <v>-0.24834470594216126</v>
+      </c>
+      <c r="E16" s="435">
+        <f>'FCFF Model'!D15*Exchange_Rate</f>
+        <v>2.8245321307779032</v>
+      </c>
+      <c r="F16" s="193">
         <f>E16/B16</f>
-        <v>5.5776892430278883E-2</v>
-      </c>
-      <c r="G16" s="408" t="s">
+        <v>6.3831234593850913E-2</v>
+      </c>
+      <c r="G16" s="424" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="405">
+      <c r="H16" s="421">
         <f>('FCFF Model'!G22)*Exchange_Rate</f>
-        <v>5.697384846621274</v>
-      </c>
-      <c r="I16" s="408" t="s">
+        <v>-5.1502625166471727</v>
+      </c>
+      <c r="I16" s="424" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="250">
+      <c r="J16" s="247">
         <f>B16-$H$16</f>
-        <v>4.3426151533787252</v>
+        <v>49.400262516647174</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="369">
+      <c r="B17" s="363">
         <f ca="1">H14/(1+C16)</f>
-        <v>9.6720711419693952</v>
-      </c>
-      <c r="C17" s="425"/>
-      <c r="D17" s="368">
+        <v>34.138172504565944</v>
+      </c>
+      <c r="C17" s="439"/>
+      <c r="D17" s="362">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="382"/>
-      <c r="F17" s="196">
+      <c r="E17" s="436"/>
+      <c r="F17" s="194">
         <f ca="1">E16/B17</f>
-        <v>5.7898664286083257E-2</v>
-      </c>
-      <c r="G17" s="409"/>
-      <c r="H17" s="406"/>
-      <c r="I17" s="409"/>
-      <c r="J17" s="249">
+        <v>8.2738234754661369E-2</v>
+      </c>
+      <c r="G17" s="425"/>
+      <c r="H17" s="422"/>
+      <c r="I17" s="425"/>
+      <c r="J17" s="246">
         <f ca="1">B17-$H$16</f>
-        <v>3.9746862953481212</v>
+        <v>39.288435021213118</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="367">
-        <v>9.25</v>
-      </c>
-      <c r="C18" s="426"/>
-      <c r="D18" s="194">
+      <c r="B18" s="361">
+        <v>31</v>
+      </c>
+      <c r="C18" s="440"/>
+      <c r="D18" s="192">
         <f ca="1">H14/B18-1-C16</f>
-        <v>4.9381056129512463E-2</v>
-      </c>
-      <c r="E18" s="383"/>
-      <c r="F18" s="197">
+        <v>0.11001544214528416</v>
+      </c>
+      <c r="E18" s="437"/>
+      <c r="F18" s="195">
         <f>E16/B18</f>
-        <v>6.0540540540540533E-2</v>
-      </c>
-      <c r="G18" s="410"/>
-      <c r="H18" s="407"/>
-      <c r="I18" s="410"/>
-      <c r="J18" s="251">
+        <v>9.1113939702513011E-2</v>
+      </c>
+      <c r="G18" s="426"/>
+      <c r="H18" s="423"/>
+      <c r="I18" s="426"/>
+      <c r="J18" s="248">
         <f>B18-$H$16</f>
-        <v>3.552615153378726</v>
+        <v>36.150262516647174</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4971,13 +4992,13 @@
         <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D20" s="370" t="s">
-        <v>361</v>
-      </c>
-      <c r="E20" s="325" t="s">
-        <v>360</v>
+        <v>328</v>
+      </c>
+      <c r="D20" s="364" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="321" t="s">
+        <v>338</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4989,52 +5010,42 @@
       <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="394" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="395"/>
-      <c r="E21" s="395"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="396"/>
+      <c r="C21" s="412"/>
+      <c r="D21" s="413"/>
+      <c r="E21" s="413"/>
+      <c r="F21" s="413"/>
+      <c r="G21" s="413"/>
+      <c r="H21" s="413"/>
+      <c r="I21" s="413"/>
+      <c r="J21" s="414"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="374" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" s="375"/>
-      <c r="E22" s="375"/>
-      <c r="F22" s="375"/>
-      <c r="G22" s="374" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" s="374"/>
-      <c r="I22" s="375"/>
-      <c r="J22" s="375"/>
+      <c r="C22" s="428"/>
+      <c r="D22" s="391"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="391"/>
+      <c r="G22" s="428"/>
+      <c r="H22" s="428"/>
+      <c r="I22" s="391"/>
+      <c r="J22" s="391"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="397" t="s">
-        <v>346</v>
-      </c>
-      <c r="D23" s="398"/>
-      <c r="E23" s="398"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="397" t="s">
-        <v>349</v>
-      </c>
-      <c r="H23" s="397"/>
-      <c r="I23" s="398"/>
-      <c r="J23" s="398"/>
+      <c r="C23" s="415"/>
+      <c r="D23" s="416"/>
+      <c r="E23" s="416"/>
+      <c r="F23" s="416"/>
+      <c r="G23" s="415"/>
+      <c r="H23" s="415"/>
+      <c r="I23" s="416"/>
+      <c r="J23" s="416"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5061,7 +5072,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="163"/>
+      <c r="H25" s="162"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
@@ -5069,163 +5080,155 @@
       <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="392"/>
-      <c r="D26" s="393"/>
-      <c r="E26" s="392"/>
-      <c r="F26" s="393"/>
-      <c r="G26" s="376"/>
-      <c r="H26" s="377"/>
-      <c r="I26" s="423" t="s">
+      <c r="C26" s="410"/>
+      <c r="D26" s="411"/>
+      <c r="E26" s="410"/>
+      <c r="F26" s="411"/>
+      <c r="G26" s="431"/>
+      <c r="H26" s="432"/>
+      <c r="I26" s="427" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="423"/>
+      <c r="J26" s="427"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="380">
+      <c r="C27" s="434">
         <f>C31/D25</f>
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="D27" s="379"/>
-      <c r="E27" s="378">
+        <v>0</v>
+      </c>
+      <c r="D27" s="389"/>
+      <c r="E27" s="433">
         <f>E31/D25</f>
-        <v>0.126</v>
-      </c>
-      <c r="F27" s="379"/>
-      <c r="G27" s="411">
+        <v>0</v>
+      </c>
+      <c r="F27" s="389"/>
+      <c r="G27" s="442">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="412"/>
-      <c r="I27" s="414">
+      <c r="H27" s="443"/>
+      <c r="I27" s="441">
         <f>C27+E27+G27</f>
-        <v>0.1608</v>
-      </c>
-      <c r="J27" s="414"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="441"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="438">
-        <v>2000</v>
-      </c>
-      <c r="D28" s="375"/>
-      <c r="E28" s="438">
-        <v>8000</v>
-      </c>
-      <c r="F28" s="375"/>
-      <c r="G28" s="401"/>
-      <c r="H28" s="402"/>
-      <c r="I28" s="429">
+      <c r="C28" s="390"/>
+      <c r="D28" s="391"/>
+      <c r="E28" s="390"/>
+      <c r="F28" s="391"/>
+      <c r="G28" s="399"/>
+      <c r="H28" s="400"/>
+      <c r="I28" s="379">
         <f>C28+E28+G28</f>
-        <v>10000</v>
-      </c>
-      <c r="J28" s="429"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="379"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="384">
-        <v>10.44</v>
-      </c>
-      <c r="D29" s="375"/>
-      <c r="E29" s="384">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="F29" s="375"/>
-      <c r="G29" s="415"/>
-      <c r="H29" s="416"/>
-      <c r="I29" s="421"/>
-      <c r="J29" s="421"/>
+      <c r="C29" s="392"/>
+      <c r="D29" s="391"/>
+      <c r="E29" s="392"/>
+      <c r="F29" s="391"/>
+      <c r="G29" s="393"/>
+      <c r="H29" s="394"/>
+      <c r="I29" s="401"/>
+      <c r="J29" s="401"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="427">
+      <c r="C30" s="377">
         <f>C29*$I$5/1000000</f>
-        <v>84159.552061440001</v>
-      </c>
-      <c r="D30" s="434"/>
-      <c r="E30" s="427">
+        <v>0</v>
+      </c>
+      <c r="D30" s="384"/>
+      <c r="E30" s="377">
         <f>E29*$I$5/1000000</f>
-        <v>76178.904883199997</v>
-      </c>
-      <c r="F30" s="434"/>
-      <c r="G30" s="417">
+        <v>0</v>
+      </c>
+      <c r="F30" s="384"/>
+      <c r="G30" s="395">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="418"/>
-      <c r="I30" s="422"/>
-      <c r="J30" s="422"/>
+      <c r="H30" s="396"/>
+      <c r="I30" s="402"/>
+      <c r="J30" s="402"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="435">
+      <c r="C31" s="385">
         <f>C28*C29</f>
-        <v>20880</v>
-      </c>
-      <c r="D31" s="436"/>
-      <c r="E31" s="428">
+        <v>0</v>
+      </c>
+      <c r="D31" s="386"/>
+      <c r="E31" s="378">
         <f>E28*E29</f>
-        <v>75600</v>
-      </c>
-      <c r="F31" s="437"/>
-      <c r="G31" s="419">
+        <v>0</v>
+      </c>
+      <c r="F31" s="387"/>
+      <c r="G31" s="397">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="420"/>
-      <c r="I31" s="428">
+      <c r="H31" s="398"/>
+      <c r="I31" s="378">
         <f>C31+E31+G31</f>
-        <v>96480</v>
-      </c>
-      <c r="J31" s="428"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="378"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="430"/>
-      <c r="D32" s="431"/>
-      <c r="E32" s="413">
+      <c r="C32" s="380"/>
+      <c r="D32" s="381"/>
+      <c r="E32" s="388" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.6479999999999997</v>
-      </c>
-      <c r="F32" s="379"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="413">
+        <v>-</v>
+      </c>
+      <c r="F32" s="389"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="388" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>9.6479999999999997</v>
-      </c>
-      <c r="J32" s="413"/>
+        <v/>
+      </c>
+      <c r="J32" s="388"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="432"/>
-      <c r="D33" s="433"/>
-      <c r="E33" s="427">
+      <c r="C33" s="382"/>
+      <c r="D33" s="383"/>
+      <c r="E33" s="377" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>77775.034318847989</v>
-      </c>
-      <c r="F33" s="434"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="427">
+        <v>-</v>
+      </c>
+      <c r="F33" s="384"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="377" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>77775.034318847989</v>
-      </c>
-      <c r="J33" s="427"/>
+        <v/>
+      </c>
+      <c r="J33" s="377"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6162,6 +6165,38 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6177,42 +6212,10 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6222,17 +6225,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6265,8 +6268,8 @@
   </sheetPr>
   <dimension ref="A1:N962"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:E34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6307,21 +6310,21 @@
       <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="183">
-        <v>44742</v>
+      <c r="C3" s="181">
+        <v>44651</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="214">
+      <c r="E3" s="211">
         <v>1</v>
       </c>
-      <c r="F3" s="212">
+      <c r="F3" s="209">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
-        <v>5735396</v>
+        <v>172700</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="209"/>
+      <c r="J3" s="206"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6339,9 +6342,9 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="213">
+      <c r="F4" s="210">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
-        <v>6166330.5449999999</v>
+        <v>216450</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -6357,49 +6360,49 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="338">
+      <c r="C6" s="334">
         <f>C3</f>
-        <v>44742</v>
-      </c>
-      <c r="D6" s="339">
+        <v>44651</v>
+      </c>
+      <c r="D6" s="335">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
-        <v>44377</v>
-      </c>
-      <c r="E6" s="339">
+        <v>44286</v>
+      </c>
+      <c r="E6" s="335">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
-        <v>44012</v>
-      </c>
-      <c r="F6" s="339">
+        <v>43921</v>
+      </c>
+      <c r="F6" s="335">
         <f t="shared" si="0"/>
-        <v>43646</v>
-      </c>
-      <c r="G6" s="339">
+        <v>43555</v>
+      </c>
+      <c r="G6" s="335">
         <f t="shared" si="0"/>
-        <v>43281</v>
-      </c>
-      <c r="H6" s="339">
+        <v>43190</v>
+      </c>
+      <c r="H6" s="335">
         <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="I6" s="339">
+        <v>42825</v>
+      </c>
+      <c r="I6" s="335">
         <f t="shared" si="0"/>
-        <v>42551</v>
-      </c>
-      <c r="J6" s="339">
+        <v>42460</v>
+      </c>
+      <c r="J6" s="335">
         <f t="shared" si="0"/>
-        <v>42185</v>
-      </c>
-      <c r="K6" s="339">
+        <v>42094</v>
+      </c>
+      <c r="K6" s="335">
         <f t="shared" si="0"/>
-        <v>41820</v>
-      </c>
-      <c r="L6" s="339">
+        <v>41729</v>
+      </c>
+      <c r="L6" s="335">
         <f t="shared" si="0"/>
-        <v>41455</v>
-      </c>
-      <c r="M6" s="339">
+        <v>41364</v>
+      </c>
+      <c r="M6" s="335">
         <f t="shared" si="0"/>
-        <v>41090</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6408,16 +6411,16 @@
         <v>47</v>
       </c>
       <c r="C7" s="37">
-        <v>15554174</v>
+        <v>2370500</v>
       </c>
       <c r="D7" s="37">
-        <v>24545345</v>
+        <v>2372300</v>
       </c>
       <c r="E7" s="37">
-        <v>5886888</v>
+        <v>2165500</v>
       </c>
       <c r="F7" s="37">
-        <v>8009912</v>
+        <v>2161900</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
@@ -6425,7 +6428,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="295"/>
+      <c r="M7" s="291"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6435,15 +6438,15 @@
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
-        <v>-0.36630860148838817</v>
+        <v>-7.5875732411578856E-4</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="1"/>
-        <v>3.1694941368002922</v>
+        <v>9.5497575617640162E-2</v>
       </c>
       <c r="E8" s="14">
         <f t="shared" si="1"/>
-        <v>-0.26504960354121243</v>
+        <v>1.6652019057310508E-3</v>
       </c>
       <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -6473,7 +6476,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="254"/>
+      <c r="M8" s="251"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6482,16 +6485,16 @@
         <v>49</v>
       </c>
       <c r="C9" s="37">
-        <v>7301864</v>
+        <v>1701400</v>
       </c>
       <c r="D9" s="37">
-        <v>11010749</v>
+        <v>1645700</v>
       </c>
       <c r="E9" s="37">
-        <v>2437232</v>
+        <v>1501900</v>
       </c>
       <c r="F9" s="37">
-        <v>3519324</v>
+        <v>1525500</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
@@ -6499,7 +6502,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="295"/>
+      <c r="M9" s="291"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6509,19 +6512,19 @@
       </c>
       <c r="C10" s="14">
         <f t="shared" ref="C10:M10" si="2">IF(C7="","",(C7-C9)/C7)</f>
-        <v>0.53055276352186875</v>
+        <v>0.282261126344653</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="2"/>
-        <v>0.55141192759767688</v>
+        <v>0.30628503983475952</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
-        <v>0.58598974534592807</v>
+        <v>0.30644193027014549</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="2"/>
-        <v>0.56062888081666817</v>
+        <v>0.29437069244645914</v>
       </c>
       <c r="G10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -6547,7 +6550,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="254" t="str">
+      <c r="M10" s="251" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6559,16 +6562,16 @@
         <v>51</v>
       </c>
       <c r="C11" s="37">
-        <v>867483</v>
+        <v>380500</v>
       </c>
       <c r="D11" s="37">
-        <v>823281</v>
+        <v>378200</v>
       </c>
       <c r="E11" s="37">
-        <v>843993</v>
+        <v>368100</v>
       </c>
       <c r="F11" s="37">
-        <v>932270</v>
+        <v>371900</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -6576,7 +6579,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="295"/>
+      <c r="M11" s="291"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6586,19 +6589,19 @@
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
-        <v>5.5771717610976934E-2</v>
+        <v>0.16051465935456652</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="3"/>
-        <v>3.3541227471033719E-2</v>
+        <v>0.15942334443367198</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="3"/>
-        <v>0.14336827879178266</v>
+        <v>0.16998383745093515</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="3"/>
-        <v>0.11638954335578222</v>
+        <v>0.17202460798371805</v>
       </c>
       <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
@@ -6624,7 +6627,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="254" t="str">
+      <c r="M12" s="251" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6637,19 +6640,19 @@
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
-        <v>0.47478104591089182</v>
+        <v>0.12174646699008648</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="4"/>
-        <v>0.51787070012664316</v>
+        <v>0.14686169540108754</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="4"/>
-        <v>0.44262146655414542</v>
+        <v>0.13645809281921034</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="4"/>
-        <v>0.44423933746088595</v>
+        <v>0.1223460844627411</v>
       </c>
       <c r="G13" s="14" t="str">
         <f t="shared" si="4"/>
@@ -6675,7 +6678,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="254" t="str">
+      <c r="M13" s="251" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6688,19 +6691,19 @@
       </c>
       <c r="C14" s="29">
         <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
-        <v>7384827</v>
+        <v>288600</v>
       </c>
       <c r="D14" s="29">
         <f t="shared" si="5"/>
-        <v>12711315</v>
+        <v>348400</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="5"/>
-        <v>2605663</v>
+        <v>295500</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" si="5"/>
-        <v>3558318</v>
+        <v>264500</v>
       </c>
       <c r="G14" s="29" t="str">
         <f t="shared" si="5"/>
@@ -6726,7 +6729,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="296" t="str">
+      <c r="M14" s="292" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6739,15 +6742,15 @@
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>-0.41903516669990476</v>
+        <v>-0.17164179104477612</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:M15" si="6">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>3.8783419037688298</v>
+        <v>0.17901861252115059</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="6"/>
-        <v>-0.26772621221599646</v>
+        <v>0.11720226843100189</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="6"/>
@@ -6777,7 +6780,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="254" t="str">
+      <c r="M15" s="251" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6788,47 +6791,47 @@
       <c r="B16" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <f>IF(C14="","",C14*(1-'FCFF Model'!$D$6))</f>
-        <v>6166330.5449999999</v>
-      </c>
-      <c r="D16" s="173">
+        <v>216450</v>
+      </c>
+      <c r="D16" s="172">
         <f>IF(D14="","",D14*(1-'FCFF Model'!$D$6))</f>
-        <v>10613948.025</v>
-      </c>
-      <c r="E16" s="173">
+        <v>261300</v>
+      </c>
+      <c r="E16" s="172">
         <f>IF(E14="","",E14*(1-'FCFF Model'!$D$6))</f>
-        <v>2175728.605</v>
-      </c>
-      <c r="F16" s="173">
+        <v>221625</v>
+      </c>
+      <c r="F16" s="172">
         <f>IF(F14="","",F14*(1-'FCFF Model'!$D$6))</f>
-        <v>2971195.53</v>
-      </c>
-      <c r="G16" s="173" t="str">
+        <v>198375</v>
+      </c>
+      <c r="G16" s="172" t="str">
         <f>IF(G14="","",G14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="H16" s="173" t="str">
+      <c r="H16" s="172" t="str">
         <f>IF(H14="","",H14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="I16" s="173" t="str">
+      <c r="I16" s="172" t="str">
         <f>IF(I14="","",I14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="J16" s="173" t="str">
+      <c r="J16" s="172" t="str">
         <f>IF(J14="","",J14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="K16" s="173" t="str">
+      <c r="K16" s="172" t="str">
         <f>IF(K14="","",K14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="L16" s="173" t="str">
+      <c r="L16" s="172" t="str">
         <f>IF(L14="","",L14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
-      <c r="M16" s="297" t="str">
+      <c r="M16" s="293" t="str">
         <f>IF(M14="","",M14*(1-'FCFF Model'!$D$6))</f>
         <v/>
       </c>
@@ -6836,50 +6839,50 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="159">
+      <c r="C17" s="158">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
-        <v>0.39644217333559467</v>
-      </c>
-      <c r="D17" s="159">
+        <v>9.1309850242564855E-2</v>
+      </c>
+      <c r="D17" s="158">
         <f t="shared" si="7"/>
-        <v>0.43242203460574707</v>
-      </c>
-      <c r="E17" s="159">
+        <v>0.11014627155081566</v>
+      </c>
+      <c r="E17" s="158">
         <f t="shared" si="7"/>
-        <v>0.36958892457271142</v>
-      </c>
-      <c r="F17" s="159">
+        <v>0.10234356961440776</v>
+      </c>
+      <c r="F17" s="158">
         <f t="shared" si="7"/>
-        <v>0.37093984677983977</v>
-      </c>
-      <c r="G17" s="159" t="str">
+        <v>9.1759563347055831E-2</v>
+      </c>
+      <c r="G17" s="158" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H17" s="159" t="str">
+      <c r="H17" s="158" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I17" s="159" t="str">
+      <c r="I17" s="158" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="159" t="str">
+      <c r="J17" s="158" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K17" s="159" t="str">
+      <c r="K17" s="158" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L17" s="159" t="str">
+      <c r="L17" s="158" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="298" t="str">
+      <c r="M17" s="294" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6888,27 +6891,27 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" s="174">
-        <v>27282</v>
-      </c>
-      <c r="D18" s="174">
-        <v>39885</v>
-      </c>
-      <c r="E18" s="174">
-        <v>31747</v>
-      </c>
-      <c r="F18" s="174">
-        <v>60128</v>
-      </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="299"/>
+        <v>331</v>
+      </c>
+      <c r="C18" s="173">
+        <v>9600</v>
+      </c>
+      <c r="D18" s="173">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="173">
+        <v>7400</v>
+      </c>
+      <c r="F18" s="173">
+        <v>0</v>
+      </c>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="295"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6917,16 +6920,16 @@
         <v>58</v>
       </c>
       <c r="C19" s="37">
-        <v>5735396</v>
+        <v>172700</v>
       </c>
       <c r="D19" s="37">
-        <v>9646036</v>
+        <v>230900</v>
       </c>
       <c r="E19" s="37">
-        <v>1688050</v>
+        <v>190700</v>
       </c>
       <c r="F19" s="37">
-        <v>6914903</v>
+        <v>171300</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
@@ -6934,29 +6937,29 @@
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="295"/>
+      <c r="M19" s="291"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="46" t="s">
-        <v>59</v>
+        <v>361</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" ref="C20:M20" si="8">IF(C7="","",C19/C7)</f>
-        <v>0.3687367776649535</v>
+        <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
+        <v>-0.25205716760502384</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" si="8"/>
-        <v>0.39298840574455157</v>
+        <f t="shared" ref="D20:M20" si="8">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
+        <v>0.21080230728893551</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="8"/>
-        <v>0.28674742920198243</v>
-      </c>
-      <c r="F20" s="14">
+        <v>0.11325160537069469</v>
+      </c>
+      <c r="F20" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>0.86329325465747941</v>
+        <v/>
       </c>
       <c r="G20" s="14" t="str">
         <f t="shared" si="8"/>
@@ -6982,7 +6985,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="254" t="str">
+      <c r="M20" s="251" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6991,19 +6994,19 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="211">
-        <v>71424985.186999992</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="208">
+        <v>1142200</v>
       </c>
       <c r="D21" s="37">
-        <v>74808371</v>
+        <v>1080300</v>
       </c>
       <c r="E21" s="37">
-        <v>80391448</v>
+        <v>889800</v>
       </c>
       <c r="F21" s="37">
-        <v>74544144</v>
+        <v>929600</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -7011,25 +7014,25 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
-      <c r="M21" s="295"/>
+      <c r="M21" s="291"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="211">
-        <v>15104618.66</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="208">
+        <v>628000</v>
       </c>
       <c r="D22" s="37">
-        <v>17965728</v>
+        <v>523000</v>
       </c>
       <c r="E22" s="37">
-        <v>32319376</v>
+        <v>441900</v>
       </c>
       <c r="F22" s="37">
-        <v>25385564</v>
+        <v>476500</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -7037,22 +7040,22 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
-      <c r="M22" s="295"/>
+      <c r="M22" s="291"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="211">
-        <v>3146501.6940000001</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="208">
+        <v>20600</v>
       </c>
       <c r="D23" s="37">
-        <v>2894189</v>
+        <v>17500</v>
       </c>
       <c r="E23" s="37">
-        <v>864027</v>
+        <v>17900</v>
       </c>
       <c r="F23" s="37">
         <v>0</v>
@@ -7063,51 +7066,51 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="295"/>
+      <c r="M23" s="291"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="332">
-        <v>31180.352999999999</v>
-      </c>
-      <c r="D24" s="170">
-        <v>49241</v>
-      </c>
-      <c r="E24" s="170">
-        <v>32031</v>
-      </c>
-      <c r="F24" s="170">
+      <c r="B24" s="170" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="328">
+        <v>20600</v>
+      </c>
+      <c r="D24" s="169">
+        <v>17500</v>
+      </c>
+      <c r="E24" s="169">
+        <v>17900</v>
+      </c>
+      <c r="F24" s="169">
         <v>0</v>
       </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="300"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="296"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="211">
-        <v>2956802.0830000001</v>
+        <v>63</v>
+      </c>
+      <c r="C25" s="208">
+        <v>176500</v>
       </c>
       <c r="D25" s="37">
-        <v>4131550</v>
+        <v>188600</v>
       </c>
       <c r="E25" s="37">
-        <v>6139127</v>
+        <v>147300</v>
       </c>
       <c r="F25" s="37">
-        <v>6755357</v>
+        <v>0</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -7115,55 +7118,55 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="295"/>
+      <c r="M25" s="291"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="171" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="210">
-        <v>13550.745000000001</v>
-      </c>
-      <c r="D26" s="170">
-        <v>19736</v>
-      </c>
-      <c r="E26" s="170">
-        <v>7537</v>
-      </c>
-      <c r="F26" s="170">
+      <c r="B26" s="170" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="207">
+        <v>176500</v>
+      </c>
+      <c r="D26" s="169">
+        <v>188600</v>
+      </c>
+      <c r="E26" s="169">
+        <v>147300</v>
+      </c>
+      <c r="F26" s="169">
         <v>0</v>
       </c>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="300"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="296"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="29">
         <f t="shared" ref="C27:M27" si="9">IF(C7="","",C23+C25)</f>
-        <v>6103303.7770000007</v>
+        <v>197100</v>
       </c>
       <c r="D27" s="29">
         <f t="shared" si="9"/>
-        <v>7025739</v>
+        <v>206100</v>
       </c>
       <c r="E27" s="29">
         <f t="shared" si="9"/>
-        <v>7003154</v>
+        <v>165200</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" si="9"/>
-        <v>6755357</v>
+        <v>0</v>
       </c>
       <c r="G27" s="29" t="str">
         <f t="shared" si="9"/>
@@ -7189,7 +7192,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="296" t="str">
+      <c r="M27" s="292" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7198,19 +7201,19 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="211">
-        <v>158228515.46700001</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="208">
+        <v>678800</v>
       </c>
       <c r="D28" s="37">
-        <v>156808599</v>
+        <v>731100</v>
       </c>
       <c r="E28" s="37">
-        <v>145759189</v>
+        <v>601500</v>
       </c>
       <c r="F28" s="37">
-        <v>146162104</v>
+        <v>607000</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -7218,45 +7221,51 @@
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
-      <c r="M28" s="295"/>
+      <c r="M28" s="291"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="171" t="s">
-        <v>281</v>
-      </c>
-      <c r="C29" s="210">
-        <v>157397300.09900001</v>
-      </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="300"/>
+      <c r="B29" s="170" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="207">
+        <v>678800</v>
+      </c>
+      <c r="D29" s="169">
+        <v>731100</v>
+      </c>
+      <c r="E29" s="169">
+        <v>601500</v>
+      </c>
+      <c r="F29" s="169">
+        <v>607000</v>
+      </c>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="296"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="211">
-        <v>1285288.264</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="208">
+        <v>268100</v>
       </c>
       <c r="D30" s="37">
-        <v>1376283</v>
+        <v>285300</v>
       </c>
       <c r="E30" s="37">
-        <v>1367290</v>
+        <v>232200</v>
       </c>
       <c r="F30" s="37">
-        <v>219236</v>
+        <v>88800</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -7264,25 +7273,25 @@
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
-      <c r="M30" s="295"/>
+      <c r="M30" s="291"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="211">
-        <v>44784474.113000005</v>
+        <v>303</v>
+      </c>
+      <c r="C31" s="208">
+        <v>195800</v>
       </c>
       <c r="D31" s="37">
-        <v>3591931</v>
+        <v>343800</v>
       </c>
       <c r="E31" s="37">
-        <v>6018531</v>
+        <v>242500</v>
       </c>
       <c r="F31" s="37">
-        <v>11404920</v>
+        <v>237000</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -7290,25 +7299,25 @@
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
-      <c r="M31" s="295"/>
+      <c r="M31" s="291"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" ref="C32:M32" si="10">IF(D7="","",(C30-D30)/C30)</f>
-        <v>-7.0797142204357691E-2</v>
+        <v>-6.4155165982842224E-2</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="10"/>
-        <v>6.5342665716280734E-3</v>
+        <v>0.18611987381703471</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" si="10"/>
-        <v>0.83965654689202729</v>
+        <v>0.61757105943152457</v>
       </c>
       <c r="F32" s="14" t="str">
         <f t="shared" si="10"/>
@@ -7338,7 +7347,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="254" t="str">
+      <c r="M32" s="251" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7347,49 +7356,49 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="302">
+        <v>69</v>
+      </c>
+      <c r="C33" s="298">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
-        <v>-1348675.65</v>
-      </c>
-      <c r="D33" s="302">
+        <v>-270</v>
+      </c>
+      <c r="D33" s="298">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
-        <v>2798768.55</v>
-      </c>
-      <c r="E33" s="302">
+        <v>31020</v>
+      </c>
+      <c r="E33" s="298">
         <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
-        <v>-318453.59999999998</v>
-      </c>
-      <c r="F33" s="302" t="str">
+        <v>540</v>
+      </c>
+      <c r="F33" s="298" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="G33" s="302" t="str">
+      <c r="G33" s="298" t="str">
         <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="H33" s="302" t="str">
+      <c r="H33" s="298" t="str">
         <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="I33" s="302" t="str">
+      <c r="I33" s="298" t="str">
         <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="J33" s="302" t="str">
+      <c r="J33" s="298" t="str">
         <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="K33" s="302" t="str">
+      <c r="K33" s="298" t="str">
         <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="L33" s="302" t="str">
+      <c r="L33" s="298" t="str">
         <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="M33" s="303" t="str">
+      <c r="M33" s="299" t="str">
         <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
@@ -7398,49 +7407,49 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="173">
+        <v>70</v>
+      </c>
+      <c r="C34" s="172">
         <f t="shared" ref="C34:M34" si="11">IF(D7="","",C30-D30+C33)</f>
-        <v>-1439670.3859999999</v>
-      </c>
-      <c r="D34" s="173">
+        <v>-17470</v>
+      </c>
+      <c r="D34" s="172">
         <f t="shared" si="11"/>
-        <v>2807761.55</v>
-      </c>
-      <c r="E34" s="173">
+        <v>84120</v>
+      </c>
+      <c r="E34" s="172">
         <f t="shared" si="11"/>
-        <v>829600.4</v>
-      </c>
-      <c r="F34" s="173" t="str">
+        <v>143940</v>
+      </c>
+      <c r="F34" s="172" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G34" s="173" t="str">
+      <c r="G34" s="172" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H34" s="173" t="str">
+      <c r="H34" s="172" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I34" s="173" t="str">
+      <c r="I34" s="172" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J34" s="173" t="str">
+      <c r="J34" s="172" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K34" s="173" t="str">
+      <c r="K34" s="172" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L34" s="173" t="str">
+      <c r="L34" s="172" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M34" s="297" t="str">
+      <c r="M34" s="293" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7448,50 +7457,50 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="301" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="293">
+      <c r="B35" s="297" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="289">
         <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
-        <v>-0.23347278831287496</v>
-      </c>
-      <c r="D35" s="293">
+        <v>-8.071148071148071E-2</v>
+      </c>
+      <c r="D35" s="289">
         <f t="shared" si="12"/>
-        <v>0.26453507623992722</v>
-      </c>
-      <c r="E35" s="293">
+        <v>0.3219288174512055</v>
+      </c>
+      <c r="E35" s="289">
         <f t="shared" si="12"/>
-        <v>0.38129774002764466</v>
-      </c>
-      <c r="F35" s="293" t="str">
+        <v>0.6494754653130288</v>
+      </c>
+      <c r="F35" s="289" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G35" s="293" t="str">
+      <c r="G35" s="289" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H35" s="293" t="str">
+      <c r="H35" s="289" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="I35" s="293" t="str">
+      <c r="I35" s="289" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J35" s="293" t="str">
+      <c r="J35" s="289" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K35" s="293" t="str">
+      <c r="K35" s="289" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L35" s="293" t="str">
+      <c r="L35" s="289" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="M35" s="294" t="str">
+      <c r="M35" s="290" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -7500,7 +7509,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -7517,102 +7526,102 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="203" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" s="200">
-        <v>3053687</v>
-      </c>
-      <c r="D37" s="200">
-        <v>508443</v>
-      </c>
-      <c r="E37" s="200">
-        <v>1287845</v>
-      </c>
-      <c r="F37" s="200">
-        <v>822878</v>
-      </c>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="200"/>
-      <c r="L37" s="200"/>
-      <c r="M37" s="201"/>
+      <c r="B37" s="200" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="197">
+        <v>229700</v>
+      </c>
+      <c r="D37" s="197">
+        <v>133600</v>
+      </c>
+      <c r="E37" s="197">
+        <v>168700</v>
+      </c>
+      <c r="F37" s="197">
+        <v>201300</v>
+      </c>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="198"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="172" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="199">
-        <v>0</v>
-      </c>
-      <c r="D38" s="199">
-        <v>0</v>
-      </c>
-      <c r="E38" s="199">
-        <v>0</v>
-      </c>
-      <c r="F38" s="199">
-        <v>0</v>
-      </c>
-      <c r="G38" s="199"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="199"/>
-      <c r="L38" s="199"/>
-      <c r="M38" s="202"/>
+      <c r="B38" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="196">
+        <v>1600</v>
+      </c>
+      <c r="D38" s="196">
+        <v>2300</v>
+      </c>
+      <c r="E38" s="196">
+        <v>1200</v>
+      </c>
+      <c r="F38" s="196">
+        <v>3400</v>
+      </c>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="196"/>
+      <c r="M38" s="199"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="172" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="205">
+      <c r="B39" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="202">
         <f t="shared" ref="C39:M39" si="13">IF(C37="","",C37*$C$4/Common_Shares)</f>
-        <v>0.37881014690674569</v>
-      </c>
-      <c r="D39" s="205">
+        <v>0.90897578966529746</v>
+      </c>
+      <c r="D39" s="202">
         <f t="shared" si="13"/>
-        <v>6.3072399864068096E-2</v>
-      </c>
-      <c r="E39" s="205">
+        <v>0.52868596212139196</v>
+      </c>
+      <c r="E39" s="202">
         <f t="shared" si="13"/>
-        <v>0.15975728804003747</v>
-      </c>
-      <c r="F39" s="205">
+        <v>0.66758474408591939</v>
+      </c>
+      <c r="F39" s="202">
         <f t="shared" si="13"/>
-        <v>0.10207808988489295</v>
-      </c>
-      <c r="G39" s="205" t="str">
+        <v>0.79659045041194765</v>
+      </c>
+      <c r="G39" s="202" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H39" s="205" t="str">
+      <c r="H39" s="202" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I39" s="205" t="str">
+      <c r="I39" s="202" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="J39" s="205" t="str">
+      <c r="J39" s="202" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K39" s="205" t="str">
+      <c r="K39" s="202" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="L39" s="205" t="str">
+      <c r="L39" s="202" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="M39" s="206" t="str">
+      <c r="M39" s="203" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -7620,50 +7629,50 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="204" t="s">
-        <v>278</v>
-      </c>
-      <c r="C40" s="207">
+      <c r="B40" s="201" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="204">
         <f t="shared" ref="C40:M40" si="14">IF(C38="","",C38*$C$4/Common_Shares)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="207">
+        <v>6.3315684086394253E-3</v>
+      </c>
+      <c r="D40" s="204">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="207">
+        <v>9.101629587419174E-3</v>
+      </c>
+      <c r="E40" s="204">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="207">
+        <v>4.7486763064795686E-3</v>
+      </c>
+      <c r="F40" s="204">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="207" t="str">
+        <v>1.3454582868358779E-2</v>
+      </c>
+      <c r="G40" s="204" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H40" s="207" t="str">
+      <c r="H40" s="204" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="I40" s="207" t="str">
+      <c r="I40" s="204" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J40" s="207" t="str">
+      <c r="J40" s="204" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="K40" s="207" t="str">
+      <c r="K40" s="204" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="L40" s="207" t="str">
+      <c r="L40" s="204" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="M40" s="208" t="str">
+      <c r="M40" s="205" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -7671,8 +7680,8 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="117" t="s">
-        <v>75</v>
+      <c r="B41" s="116" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -7689,23 +7698,23 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="50">
         <f>IF(C29="","",C25/C28)</f>
-        <v>1.8686910347816971E-2</v>
-      </c>
-      <c r="D42" s="50" t="str">
+        <v>0.26001767825574545</v>
+      </c>
+      <c r="D42" s="50">
         <f t="shared" ref="D42:M42" si="15">IF(D29="","",D25/D29)</f>
-        <v/>
-      </c>
-      <c r="E42" s="50" t="str">
+        <v>0.25796744631377377</v>
+      </c>
+      <c r="E42" s="50">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F42" s="50" t="str">
+        <v>0.24488778054862842</v>
+      </c>
+      <c r="F42" s="50">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G42" s="50" t="str">
         <f t="shared" si="15"/>
@@ -7731,7 +7740,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M42" s="253" t="str">
+      <c r="M42" s="250" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
@@ -7740,23 +7749,23 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="46" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="16">IF(C29="","",C27/C29)</f>
-        <v>3.8776419755365152E-2</v>
-      </c>
-      <c r="D43" s="14" t="str">
+        <v>0.29036535061873897</v>
+      </c>
+      <c r="D43" s="14">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E43" s="14" t="str">
+        <v>0.28190398030365205</v>
+      </c>
+      <c r="E43" s="14">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F43" s="14" t="str">
+        <v>0.27464671654197836</v>
+      </c>
+      <c r="F43" s="14">
         <f t="shared" si="16"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G43" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7782,7 +7791,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="M43" s="254" t="str">
+      <c r="M43" s="251" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -7791,23 +7800,23 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="52">
         <f t="shared" ref="C44:M44" si="17">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>1.2099720528133233</v>
+        <v>1.4642313546423136</v>
       </c>
       <c r="D44" s="52">
         <f t="shared" si="17"/>
-        <v>1.8092495323267772</v>
+        <v>1.690441533236293</v>
       </c>
       <c r="E44" s="52">
         <f t="shared" si="17"/>
-        <v>0.37206992734987693</v>
-      </c>
-      <c r="F44" s="52">
+        <v>1.7887409200968523</v>
+      </c>
+      <c r="F44" s="52" t="str">
         <f t="shared" si="17"/>
-        <v>0.52674018560381042</v>
+        <v>-</v>
       </c>
       <c r="G44" s="52" t="str">
         <f t="shared" si="17"/>
@@ -7833,7 +7842,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="M44" s="255" t="str">
+      <c r="M44" s="252" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -7842,23 +7851,23 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:M45" si="18">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
-        <v>4.4243492626456337E-3</v>
+        <v>4.4352044352044352E-2</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="18"/>
-        <v>3.7577911542486567E-3</v>
+        <v>2.7937236892460773E-2</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="18"/>
-        <v>1.4591433842917187E-2</v>
-      </c>
-      <c r="F45" s="14">
+        <v>3.3389734912577552E-2</v>
+      </c>
+      <c r="F45" s="14" t="str">
         <f t="shared" si="18"/>
-        <v>2.0236971748540562E-2</v>
+        <v>-</v>
       </c>
       <c r="G45" s="14" t="str">
         <f t="shared" si="18"/>
@@ -7884,7 +7893,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="M45" s="254" t="str">
+      <c r="M45" s="251" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -7893,23 +7902,23 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="53">
         <f t="shared" ref="C46:M46" si="19">IF(C21="","",C21/C22)</f>
-        <v>4.7286850992238154</v>
+        <v>1.8187898089171974</v>
       </c>
       <c r="D46" s="53">
         <f t="shared" si="19"/>
-        <v>4.1639487695683695</v>
+        <v>2.0655831739961759</v>
       </c>
       <c r="E46" s="53">
         <f t="shared" si="19"/>
-        <v>2.4874071826139219</v>
+        <v>2.0135777325186694</v>
       </c>
       <c r="F46" s="53">
         <f t="shared" si="19"/>
-        <v>2.9364777556252051</v>
+        <v>1.9508919202518362</v>
       </c>
       <c r="G46" s="53" t="str">
         <f t="shared" si="19"/>
@@ -7935,7 +7944,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="M46" s="256" t="str">
+      <c r="M46" s="253" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -7958,7 +7967,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -7968,13 +7977,13 @@
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="444" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="439" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="375"/>
+      <c r="E49" s="391"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7986,36 +7995,36 @@
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="57"/>
-      <c r="D51" s="440">
+      <c r="D51" s="445">
         <v>5</v>
       </c>
-      <c r="E51" s="441"/>
+      <c r="E51" s="446"/>
       <c r="F51" s="58"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="D52" s="447" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="442" t="s">
+      <c r="E52" s="448"/>
+      <c r="F52" s="61" t="s">
         <v>86</v>
-      </c>
-      <c r="E52" s="443"/>
-      <c r="F52" s="61" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="62">
         <f>C6</f>
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="64">
@@ -8233,7 +8242,7 @@
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -8246,7 +8255,7 @@
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
@@ -8268,122 +8277,122 @@
       <c r="A67" s="9"/>
       <c r="B67" s="70"/>
       <c r="C67" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="E67" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="72" t="s">
+      <c r="F67" s="73" t="s">
         <v>92</v>
-      </c>
-      <c r="F67" s="73" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="74">
         <f>C14</f>
-        <v>7384827</v>
+        <v>288600</v>
       </c>
       <c r="D68" s="74">
         <f>C68+C53-F65</f>
-        <v>7384827</v>
+        <v>288600</v>
       </c>
       <c r="E68" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="69" t="s">
         <v>95</v>
-      </c>
-      <c r="F68" s="69" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="75">
         <f t="shared" ref="C69:D69" si="24">C68/$C$7</f>
-        <v>0.47478104591089182</v>
+        <v>0.12174646699008648</v>
       </c>
       <c r="D69" s="75">
         <f t="shared" si="24"/>
-        <v>0.47478104591089182</v>
+        <v>0.12174646699008648</v>
       </c>
       <c r="E69" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="69" t="s">
         <v>98</v>
-      </c>
-      <c r="F69" s="69" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="74">
         <f>C34</f>
-        <v>-1439670.3859999999</v>
+        <v>-17470</v>
       </c>
       <c r="D70" s="74">
         <f>C70+E64-F65</f>
-        <v>-1439670.3859999999</v>
+        <v>-17470</v>
       </c>
       <c r="E70" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="69" t="s">
         <v>101</v>
-      </c>
-      <c r="F70" s="69" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="74">
         <f>C16</f>
-        <v>6166330.5449999999</v>
+        <v>216450</v>
       </c>
       <c r="D71" s="74">
         <f>C71+C54</f>
-        <v>6166330.5449999999</v>
+        <v>216450</v>
       </c>
       <c r="E71" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="69" t="s">
         <v>104</v>
-      </c>
-      <c r="F71" s="69" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="74">
         <f>F3</f>
-        <v>5735396</v>
+        <v>172700</v>
       </c>
       <c r="D72" s="74">
         <f>C72+C53-F65</f>
-        <v>5735396</v>
+        <v>172700</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="77" t="e">
         <f>#REF!</f>
@@ -8394,10 +8403,10 @@
         <v>#REF!</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F73" s="78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9726,22 +9735,22 @@
     <mergeCell ref="D52:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:F73">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$D$49="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9769,8 +9778,8 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9787,10 +9796,10 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="326" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="326"/>
+      <c r="B2" s="322" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="322"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -9800,91 +9809,91 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="333">
-        <v>160090995.734</v>
-      </c>
-      <c r="E3" s="190" t="str">
+      <c r="D3" s="329">
+        <v>585200</v>
+      </c>
+      <c r="E3" s="188" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="334" t="s">
-        <v>342</v>
-      </c>
-      <c r="I3" s="335">
-        <v>159323330.11500001</v>
+      <c r="H3" s="330" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" s="331">
+        <v>585200</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="336">
+      <c r="D4" s="332">
         <f>D3-I3</f>
-        <v>767665.61899998784</v>
-      </c>
-      <c r="E4" s="184"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="182"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="119">
+        <v>110</v>
+      </c>
+      <c r="I4" s="118">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>19.764073425513189</v>
+        <v>18.16936113299931</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="82">
         <f>E46-I46-E50</f>
-        <v>103077905.49021</v>
+        <v>-54940</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.35612927499383151</v>
+        <v>1.0938824333561175</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="28">
         <f>IF(Data!F3&lt;=0,"NNI",D7/((Data!F3*Dashboard!I12)/(Dashboard!I5/Data!C4)))</f>
-        <v>17.97223861965416</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="84">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>12.78682344378651</v>
+        <v>0</v>
       </c>
       <c r="E7" s="85"/>
       <c r="H7" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="28">
         <f>D7/(Data!C28*Dashboard!I12*Data!C4/Common_Shares)</f>
-        <v>0.65144961504557519</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -9894,97 +9903,97 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="327" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="309"/>
-      <c r="D9" s="331">
-        <v>44926</v>
-      </c>
-      <c r="E9" s="328" t="str">
+      <c r="B9" s="323" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="305"/>
+      <c r="D9" s="327">
+        <v>44834</v>
+      </c>
+      <c r="E9" s="324" t="str">
         <f>IF(D9=Data!C3,"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>120</v>
-      </c>
       <c r="F10" s="32" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="87">
-        <v>3379024.0260000001</v>
+        <v>103300</v>
       </c>
       <c r="D11" s="88">
         <v>1</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>3379024.0260000001</v>
+        <v>103300</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="87">
-        <v>2230528</v>
+        <v>93200</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="87">
-        <v>41083645.866999999</v>
+        <v>0</v>
       </c>
       <c r="D12" s="88">
         <v>0.98</v>
       </c>
       <c r="E12" s="29">
         <f t="shared" si="0"/>
-        <v>40261972.949659996</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="87">
-        <v>40711.811999999998</v>
+        <v>15200</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="87">
         <v>0</v>
@@ -9999,32 +10008,31 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="87">
-        <f>789160.293+906226.518</f>
-        <v>1695386.811</v>
+        <v>0</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="87">
-        <v>9150.4850000000006</v>
+        <v>0</v>
       </c>
       <c r="D14" s="88">
         <v>0.6</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="0"/>
-        <v>5490.2910000000002</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="87">
         <v>0</v>
@@ -10033,7 +10041,7 @@
     </row>
     <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="87">
         <v>0</v>
@@ -10047,17 +10055,17 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="189">
+        <v>130</v>
+      </c>
+      <c r="I15" s="187">
         <f>I26-SUM(I11:I14)</f>
-        <v>9867916.8460000008</v>
+        <v>686200</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="87">
         <v>0</v>
@@ -10069,124 +10077,123 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="248" t="s">
-        <v>318</v>
-      </c>
-      <c r="G16" s="122">
+      <c r="F16" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16" s="121">
         <f>IF(F16="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="188"/>
+      <c r="I16" s="186"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="87">
-        <f>2259696.73+2882905.087+14024.915+1631152.458+52294.469</f>
-        <v>6840073.6589999991</v>
+        <v>549000</v>
       </c>
       <c r="D17" s="88">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E17" s="29">
         <f t="shared" si="0"/>
-        <v>3420036.8294999995</v>
+        <v>329400</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="188"/>
+      <c r="I17" s="186"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="87">
-        <v>13046.883</v>
+        <v>570000</v>
       </c>
       <c r="D18" s="88">
         <v>0.6</v>
       </c>
       <c r="E18" s="29">
         <f t="shared" si="0"/>
-        <v>7828.1297999999997</v>
+        <v>342000</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="87">
-        <v>8609555.8550000004</v>
+        <v>0</v>
       </c>
       <c r="D19" s="88">
         <v>0.75</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="0"/>
-        <v>6457166.8912500003</v>
-      </c>
-      <c r="F19" s="248" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="122">
+        <v>0</v>
+      </c>
+      <c r="F19" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="121">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="188"/>
+      <c r="I19" s="186"/>
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="87">
-        <v>7527029.5259999996</v>
+        <v>0</v>
       </c>
       <c r="D20" s="88">
         <v>0.6</v>
       </c>
       <c r="E20" s="29">
         <f t="shared" si="0"/>
-        <v>4516217.7155999998</v>
-      </c>
-      <c r="F20" s="248" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="122">
+        <v>0</v>
+      </c>
+      <c r="F20" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="121">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="188"/>
+      <c r="I20" s="186"/>
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="87">
-        <v>75546.323999999993</v>
+        <v>5800</v>
       </c>
       <c r="D21" s="88">
         <v>0.95</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" si="0"/>
-        <v>71769.007799999992</v>
+        <v>5510</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="188"/>
+      <c r="I21" s="186"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="87">
         <v>0</v>
@@ -10208,82 +10215,82 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="93">
         <f>SUM(C11:C14)</f>
-        <v>44471820.377999999</v>
+        <v>103300</v>
       </c>
       <c r="D24" s="91">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0.98144143630000158</v>
+        <v>1</v>
       </c>
       <c r="E24" s="29">
         <f>SUM(E11:E14)</f>
-        <v>43646487.266659997</v>
+        <v>103300</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="92">
         <f>E24/($I$26-I13)</f>
-        <v>3.5955123157501965</v>
+        <v>0.13000251698968035</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
-        <v/>
+        <v>Liquidity Problem!</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="93">
         <f>C24+SUM(C15:C17)</f>
-        <v>51311894.037</v>
+        <v>652300</v>
       </c>
       <c r="D25" s="91">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.91726343335175364</v>
+        <v>0.66334508661658742</v>
       </c>
       <c r="E25" s="29">
         <f>E24+SUM(E15:E17)</f>
-        <v>47066524.096159995</v>
+        <v>432700</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I25" s="92">
         <f>E25/$I$26</f>
-        <v>3.4021017174600048</v>
+        <v>0.54455071734205884</v>
       </c>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="93">
         <f>SUM(C11:C22)</f>
-        <v>67537072.625</v>
+        <v>1228100</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26" si="2">E26/C26</f>
-        <v>0.86055707749311094</v>
+        <v>0.63529842846673723</v>
       </c>
       <c r="E26" s="29">
         <f>SUM(E11:E22)</f>
-        <v>58119505.84060999</v>
+        <v>780210</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="87">
-        <v>13834543.469000001</v>
+        <v>794600</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10291,7 +10298,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="32" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -10299,7 +10306,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="87">
         <v>0</v>
@@ -10313,65 +10320,64 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I28" s="87">
-        <v>997248.75199999998</v>
+        <v>0</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="87">
-        <v>941238.06900000002</v>
+        <v>0</v>
       </c>
       <c r="D29" s="88">
         <v>0.6</v>
       </c>
       <c r="E29" s="29">
         <f t="shared" ref="E29:E40" si="3">C29*D29</f>
-        <v>564742.84140000003</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I29" s="87">
-        <v>35896.328000000001</v>
+        <v>164100</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="87">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="88">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E30" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I30" s="87">
-        <f>1602248.456+137498.192</f>
-        <v>1739746.648</v>
+        <v>0</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -10386,7 +10392,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I31" s="87">
         <v>0</v>
@@ -10395,48 +10401,46 @@
     </row>
     <row r="32" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="87">
-        <f>3954189.337+12854360.551+3101161.686</f>
-        <v>19909711.574000001</v>
+        <v>0</v>
       </c>
       <c r="D32" s="88">
         <v>0.4</v>
       </c>
       <c r="E32" s="29">
         <f t="shared" si="3"/>
-        <v>7963884.6296000006</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32" s="189">
+        <v>150</v>
+      </c>
+      <c r="I32" s="187">
         <f>I42-SUM(I28:I31)</f>
-        <v>2692468.8590000002</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="87">
-        <f>17037387.801+6022745.085</f>
-        <v>23060132.886</v>
+        <v>3800</v>
       </c>
       <c r="D33" s="88">
-        <v>0.4</v>
-      </c>
-      <c r="E33" s="264">
+        <v>0.8</v>
+      </c>
+      <c r="E33" s="261">
         <f t="shared" si="3"/>
-        <v>9224053.1544000003</v>
-      </c>
-      <c r="F33" s="248" t="s">
-        <v>319</v>
-      </c>
-      <c r="G33" s="122">
+        <v>3040</v>
+      </c>
+      <c r="F33" s="245" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" s="121">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
@@ -10444,30 +10448,29 @@
     </row>
     <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="87">
-        <f>64884096.656+1713509.881</f>
-        <v>66597606.537</v>
+        <v>0</v>
       </c>
       <c r="D34" s="88">
         <v>0.7</v>
       </c>
-      <c r="E34" s="264">
+      <c r="E34" s="261">
         <f t="shared" si="3"/>
-        <v>46618324.575899996</v>
-      </c>
-      <c r="F34" s="248" t="s">
-        <v>318</v>
-      </c>
-      <c r="G34" s="122">
+        <v>0</v>
+      </c>
+      <c r="F34" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" s="121">
         <f>IF(F34="Y",0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="87">
         <v>0</v>
@@ -10479,95 +10482,96 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="248" t="s">
-        <v>318</v>
-      </c>
-      <c r="G35" s="122">
+      <c r="F35" s="245" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="121">
         <f>IF(F35="Y",0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="87">
-        <v>114740.003</v>
+        <v>77700</v>
       </c>
       <c r="D36" s="88">
         <v>0.3</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="3"/>
-        <v>34422.000899999999</v>
+        <v>23310</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="87">
-        <v>1217891.264</v>
+        <v>164100</v>
       </c>
       <c r="D37" s="88">
         <v>0.5</v>
       </c>
       <c r="E37" s="29">
         <f t="shared" si="3"/>
-        <v>608945.63199999998</v>
+        <v>82050</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="87">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="D38" s="88">
         <v>0.1</v>
       </c>
       <c r="E38" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1570</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" s="87">
-        <v>12206.832</v>
+        <v>13000</v>
       </c>
       <c r="D39" s="88">
         <v>0.95</v>
       </c>
       <c r="E39" s="29">
         <f t="shared" si="3"/>
-        <v>11596.490400000001</v>
+        <v>12350</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="87">
-        <v>300</v>
+        <f>36100+7400</f>
+        <v>43500</v>
       </c>
       <c r="D40" s="88">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E40" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4350</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -10580,27 +10584,27 @@
     </row>
     <row r="42" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="90">
         <f>SUM(C28:C40)</f>
-        <v>111853827.16500001</v>
+        <v>319200</v>
       </c>
       <c r="D42" s="14">
         <f>E42/C42</f>
-        <v>0.58134773724530331</v>
+        <v>0.39771303258145363</v>
       </c>
       <c r="E42" s="29">
         <f>SUM(E28:E40)</f>
-        <v>65025969.324599996</v>
+        <v>126950</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I42" s="87">
-        <v>5465360.5870000003</v>
+        <v>167500</v>
       </c>
       <c r="J42" s="6"/>
     </row>
@@ -10612,85 +10616,85 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" s="93">
         <f>C24+SUM(C28:C29)</f>
-        <v>45413058.446999997</v>
+        <v>103300</v>
       </c>
       <c r="D44" s="91">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0.97353562213074429</v>
+        <v>1</v>
       </c>
       <c r="E44" s="29">
         <f>E24+SUM(E28:E29)</f>
-        <v>44211230.108059995</v>
+        <v>103300</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I44" s="92">
         <f>E44/$I$46</f>
-        <v>2.290748699049387</v>
+        <v>0.10736929633094273</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(I44&lt;1,"Liquidity Problem!","")</f>
-        <v/>
+        <v>Liquidity Problem!</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" s="93">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
-        <v>95222976.566</v>
+        <v>657500</v>
       </c>
       <c r="D45" s="91">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.680709709558734</v>
+        <v>0.66314828897338407</v>
       </c>
       <c r="E45" s="29">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
-        <v>64819204.721559994</v>
+        <v>436020</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I45" s="92">
         <f>E45/$I$46</f>
-        <v>3.3585247125313473</v>
+        <v>0.45319613345806048</v>
       </c>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="93">
         <f>C26+C42</f>
-        <v>179390899.79000002</v>
+        <v>1547300</v>
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.68646444891779623</v>
+        <v>0.58628578814709498</v>
       </c>
       <c r="E46" s="29">
         <f>E26+E42</f>
-        <v>123145475.16520998</v>
+        <v>907160</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" s="189">
+        <v>165</v>
+      </c>
+      <c r="I46" s="187">
         <f>I26+I42</f>
-        <v>19299904.056000002</v>
+        <v>962100</v>
       </c>
       <c r="J46" s="6"/>
     </row>
@@ -10702,17 +10706,17 @@
     </row>
     <row r="48" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B48" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B49" s="260" t="s">
-        <v>280</v>
+      <c r="B49" s="257" t="s">
+        <v>273</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="261" t="str">
+      <c r="D49" s="258" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10720,21 +10724,21 @@
     </row>
     <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" s="262">
+        <v>272</v>
+      </c>
+      <c r="C50" s="259">
         <f>D4</f>
-        <v>767665.61899998784</v>
-      </c>
-      <c r="D50" s="258">
+        <v>0</v>
+      </c>
+      <c r="D50" s="255">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>1</v>
-      </c>
-      <c r="E50" s="262">
+        <v>0</v>
+      </c>
+      <c r="E50" s="259">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>767665.61899998784</v>
-      </c>
-      <c r="I50" s="191"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="189"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
@@ -10743,55 +10747,55 @@
     </row>
     <row r="52" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B52" s="98" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="429">
+      <c r="D52" s="379">
         <f>D53+D54+D55</f>
-        <v>6739518.3509999998</v>
-      </c>
-      <c r="E52" s="444"/>
+        <v>272500</v>
+      </c>
+      <c r="E52" s="449"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
     </row>
     <row r="53" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B53" s="81" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="429">
+      <c r="D53" s="379">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
-        <v>6739518.3509999998</v>
-      </c>
-      <c r="E53" s="444"/>
+        <v>272500</v>
+      </c>
+      <c r="E53" s="449"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B54" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="457">
+        <v>0</v>
+      </c>
+      <c r="E54" s="391"/>
+      <c r="F54" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="452">
-        <v>0</v>
-      </c>
-      <c r="E54" s="375"/>
-      <c r="F54" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="452">
+      <c r="D55" s="457">
         <v>0</v>
       </c>
-      <c r="E55" s="375"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -10801,61 +10805,61 @@
     </row>
     <row r="57" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B57" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="445"/>
-      <c r="E57" s="445"/>
+      <c r="D57" s="450"/>
+      <c r="E57" s="450"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="C58" s="257">
+        <v>305</v>
+      </c>
+      <c r="C58" s="254">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
-        <v>24010521.440000001</v>
-      </c>
-      <c r="D58" s="159">
+        <v>5200</v>
+      </c>
+      <c r="D58" s="158">
         <f>IF(E58=0,0,E58/C58)</f>
-        <v>0.40791643410473138</v>
-      </c>
-      <c r="E58" s="265">
+        <v>0.63846153846153841</v>
+      </c>
+      <c r="E58" s="262">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E33*G33)+(E34*G34)+(E35*G35)</f>
-        <v>9794286.2868000008</v>
+        <v>3320</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B59" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="257">
+        <v>121</v>
+      </c>
+      <c r="C59" s="254">
         <f>C11+C12+C28</f>
-        <v>44462669.892999999</v>
-      </c>
-      <c r="D59" s="258">
+        <v>103300</v>
+      </c>
+      <c r="D59" s="255">
         <f>IF(E59=0,0,E59/C59)</f>
-        <v>0.98151993752697786</v>
-      </c>
-      <c r="E59" s="259">
+        <v>1</v>
+      </c>
+      <c r="E59" s="256">
         <f>E11+E12+E28</f>
-        <v>43640996.975659996</v>
+        <v>103300</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B60" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="450">
+      <c r="D60" s="455">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>19969040.78803999</v>
-      </c>
-      <c r="E60" s="451"/>
+        <v>11346063.5</v>
+      </c>
+      <c r="E60" s="456"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10864,40 +10868,40 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="371" t="s">
-        <v>362</v>
+      <c r="B62" s="365" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D63" s="448">
+        <v>342</v>
+      </c>
+      <c r="D63" s="453">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
-        <v>0.5934554144758829</v>
-      </c>
-      <c r="E63" s="449"/>
+        <v>0.13929550727694578</v>
+      </c>
+      <c r="E63" s="454"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D64" s="446">
+        <v>341</v>
+      </c>
+      <c r="D64" s="451">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="447"/>
-      <c r="F64" s="325" t="s">
-        <v>334</v>
+      <c r="E64" s="452"/>
+      <c r="F64" s="321" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="371" t="s">
-        <v>366</v>
-      </c>
-      <c r="D65" s="446">
+      <c r="B65" s="365" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="451">
         <v>0.15</v>
       </c>
-      <c r="E65" s="447"/>
+      <c r="E65" s="452"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10930,10 +10934,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M902"/>
+  <dimension ref="A1:M913"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10963,471 +10967,635 @@
     </row>
     <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="120" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="355" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355">
+      <c r="B2" s="119" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="350" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350">
         <v>1</v>
       </c>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355">
+      <c r="F2" s="350"/>
+      <c r="G2" s="350">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="355">
+      <c r="I2" s="350">
         <v>3</v>
       </c>
-      <c r="J2" s="355"/>
+      <c r="J2" s="350"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="str">
         <f>'FCFF Model'!B3</f>
-        <v>(Numbers in 1000HKD)</v>
-      </c>
-      <c r="C3" s="337">
+        <v>(Numbers in 1000USD)</v>
+      </c>
+      <c r="C3" s="333">
         <f>Data!C3</f>
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="E3" s="337">
+        <v>321</v>
+      </c>
+      <c r="E3" s="333">
         <f>EOMONTH(EDATE(C3,12),0)</f>
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="G3" s="337">
-        <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
-        <v>45473</v>
+        <v>321</v>
+      </c>
+      <c r="G3" s="333">
+        <f>IF(G20="","",EOMONTH(EDATE(E3,12),0))</f>
+        <v>45382</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="337" t="str">
-        <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
-        <v/>
-      </c>
-      <c r="J3" s="356"/>
+      <c r="I3" s="333">
+        <f>IF(I27="","",EOMONTH(EDATE(G3,12),0))</f>
+        <v>45747</v>
+      </c>
+      <c r="J3" s="373"/>
       <c r="L3" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="267">
-        <v>11129690.461999999</v>
-      </c>
-      <c r="D4" s="315">
-        <f>C4/C8</f>
-        <v>0.71954007930541752</v>
-      </c>
-      <c r="E4" s="266">
-        <f>3947351.849/0.7</f>
-        <v>5639074.0700000003</v>
-      </c>
-      <c r="F4" s="315">
-        <f>E4/E8</f>
-        <v>0.53990943728418095</v>
-      </c>
-      <c r="G4" s="266">
-        <f>E4*1.52</f>
-        <v>8571392.5864000004</v>
-      </c>
-      <c r="H4" s="315">
-        <f>G4/G8</f>
-        <v>0.63096006033519247</v>
-      </c>
-      <c r="I4" s="266"/>
-      <c r="J4" s="357"/>
+      <c r="B4" s="368" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="369">
+        <v>555600</v>
+      </c>
+      <c r="D4" s="311"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="351"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="97" t="s">
-        <v>355</v>
-      </c>
+      <c r="L4" s="97"/>
       <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="267">
-        <v>1147617.763</v>
-      </c>
-      <c r="D5" s="315">
-        <f>C5/C8</f>
-        <v>7.4194064877248861E-2</v>
-      </c>
-      <c r="E5" s="266">
-        <f>591321.795*2</f>
-        <v>1182643.5900000001</v>
-      </c>
-      <c r="F5" s="315">
-        <f>E5/E8</f>
-        <v>0.11323143254698259</v>
-      </c>
-      <c r="G5" s="266">
-        <f>E5*1.03</f>
-        <v>1218122.8977000001</v>
-      </c>
-      <c r="H5" s="315">
-        <f>G5/G8</f>
-        <v>8.9668847772527399E-2</v>
-      </c>
-      <c r="I5" s="266"/>
-      <c r="J5" s="358"/>
+      <c r="B5" s="367" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="369">
+        <v>375100</v>
+      </c>
+      <c r="D5" s="311"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="366"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="97" t="s">
-        <v>356</v>
-      </c>
+      <c r="L5" s="97"/>
       <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="267">
-        <v>451993.272</v>
-      </c>
-      <c r="D6" s="315">
-        <f>C6/C8</f>
-        <v>2.9221592091066291E-2</v>
-      </c>
-      <c r="E6" s="266">
-        <f>455151.15*2</f>
-        <v>910302.3</v>
-      </c>
-      <c r="F6" s="315">
-        <f>E6/E8</f>
-        <v>8.7156294890004107E-2</v>
-      </c>
-      <c r="G6" s="266">
-        <f>E6*1.1</f>
-        <v>1001332.5300000001</v>
-      </c>
-      <c r="H6" s="315">
-        <f>G6/G8</f>
-        <v>7.3710406701806244E-2</v>
-      </c>
-      <c r="I6" s="266"/>
-      <c r="J6" s="358"/>
+      <c r="B6" s="367" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="369">
+        <v>83900</v>
+      </c>
+      <c r="D6" s="311"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="311"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="311"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="366"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="97" t="s">
-        <v>358</v>
-      </c>
+      <c r="L6" s="97"/>
       <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="267">
-        <v>2738482.4139999999</v>
-      </c>
-      <c r="D7" s="315">
-        <f>C7/C8</f>
-        <v>0.17704426372626741</v>
-      </c>
-      <c r="E7" s="266">
-        <f>1356230.715*2</f>
-        <v>2712461.43</v>
-      </c>
-      <c r="F7" s="315">
-        <f>E7/E8</f>
-        <v>0.25970283527883237</v>
-      </c>
-      <c r="G7" s="266">
-        <f>E7*1.03</f>
-        <v>2793835.2729000002</v>
-      </c>
-      <c r="H7" s="315">
-        <f>G7/G8</f>
-        <v>0.20566068519047398</v>
-      </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="358"/>
+      <c r="B7" s="367" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="369">
+        <v>10900</v>
+      </c>
+      <c r="D7" s="311"/>
+      <c r="E7" s="369"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="311"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="366"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="97" t="s">
-        <v>357</v>
-      </c>
+      <c r="L7" s="97"/>
       <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="215">
+      <c r="B8" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="264">
         <f>SUM(C4:C7)</f>
-        <v>15467783.910999998</v>
-      </c>
-      <c r="D8" s="314"/>
-      <c r="E8" s="273">
-        <f>SUM(E4:E7)</f>
-        <v>10444481.390000001</v>
-      </c>
-      <c r="F8" s="314"/>
-      <c r="G8" s="274">
-        <f>SUM(G4:G7)</f>
-        <v>13584683.287</v>
-      </c>
-      <c r="H8" s="314"/>
-      <c r="I8" s="274"/>
-      <c r="J8" s="359"/>
+        <v>1025500</v>
+      </c>
+      <c r="D8" s="311">
+        <f>C8/C19</f>
+        <v>0.4326091541868804</v>
+      </c>
+      <c r="E8" s="264">
+        <f>C8*0.8</f>
+        <v>820400</v>
+      </c>
+      <c r="F8" s="311">
+        <f>E8/E19</f>
+        <v>0.39607191669551273</v>
+      </c>
+      <c r="G8" s="264"/>
+      <c r="H8" s="311"/>
+      <c r="I8" s="263"/>
+      <c r="J8" s="366"/>
       <c r="K8" s="6"/>
       <c r="L8" s="97"/>
       <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="222"/>
-      <c r="D9" s="316"/>
-      <c r="E9" s="18">
-        <f>E8/C8-1</f>
-        <v>-0.32475903141028817</v>
-      </c>
-      <c r="F9" s="316"/>
-      <c r="G9" s="96">
-        <f>G8/E8-1</f>
-        <v>0.30065656491154891</v>
-      </c>
-      <c r="H9" s="316"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="360"/>
+      <c r="B9" s="368" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="369">
+        <v>274900</v>
+      </c>
+      <c r="D9" s="311"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="366"/>
       <c r="K9" s="6"/>
       <c r="L9" s="97"/>
       <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="216">
-        <f>Data!C9</f>
-        <v>7301864</v>
-      </c>
-      <c r="D10" s="317"/>
-      <c r="E10" s="272">
-        <f>E8*E11</f>
-        <v>4177792.5560000003</v>
-      </c>
-      <c r="F10" s="317"/>
-      <c r="G10" s="341">
-        <f>IF(G8="","",G8*(1-G11))</f>
-        <v>6792341.6435000002</v>
-      </c>
-      <c r="H10" s="317"/>
-      <c r="I10" s="341" t="str">
-        <f>IF(I8="","",I8*(1-I11))</f>
-        <v/>
-      </c>
-      <c r="J10" s="361"/>
+      <c r="B10" s="367" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="369">
+        <v>93800</v>
+      </c>
+      <c r="D10" s="311"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="311"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="311"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="366"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="221">
-        <f>(C8-C10)/C8</f>
-        <v>0.52793082434987726</v>
-      </c>
-      <c r="D11" s="221"/>
-      <c r="E11" s="96">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="221"/>
-      <c r="G11" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="221"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="362"/>
+      <c r="B11" s="367" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="369">
+        <v>27700</v>
+      </c>
+      <c r="D11" s="311"/>
+      <c r="E11" s="369"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="366"/>
       <c r="K11" s="6"/>
       <c r="L11" s="97"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="29">
-        <f>C8-C10</f>
-        <v>8165919.9109999985</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
-        <f>E8-E10</f>
-        <v>6266688.8340000007</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29">
-        <f>IF(G9="","",G8-G10)</f>
-        <v>6792341.6435000002</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29" t="str">
-        <f>IF(I9="","",I8-I10)</f>
-        <v/>
-      </c>
-      <c r="J12" s="296"/>
+      <c r="B12" s="367" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="369">
+        <v>10900</v>
+      </c>
+      <c r="D12" s="311"/>
+      <c r="E12" s="369"/>
+      <c r="F12" s="311"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="311"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="352"/>
       <c r="K12" s="6"/>
       <c r="L12" s="97"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="226">
-        <f>C14/C8</f>
-        <v>6.7328499738051453E-2</v>
-      </c>
-      <c r="D13" s="226"/>
-      <c r="E13" s="271">
-        <f>E14/E8</f>
-        <v>0.10369874309288227</v>
-      </c>
-      <c r="F13" s="226"/>
-      <c r="G13" s="88">
-        <v>0.09</v>
-      </c>
-      <c r="H13" s="226"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="363"/>
+      <c r="B13" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="264">
+        <f>SUM(C9:C12)</f>
+        <v>407300</v>
+      </c>
+      <c r="D13" s="311">
+        <f>C13/C19</f>
+        <v>0.17182029107783167</v>
+      </c>
+      <c r="E13" s="264">
+        <f>C13*0.7</f>
+        <v>285110</v>
+      </c>
+      <c r="F13" s="311">
+        <f>E13/E19</f>
+        <v>0.13764512941133306</v>
+      </c>
+      <c r="G13" s="264"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="352"/>
       <c r="K13" s="6"/>
       <c r="L13" s="97"/>
+      <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="218">
-        <f>867483.279+173939.406</f>
-        <v>1041422.6849999999</v>
-      </c>
-      <c r="D14" s="318"/>
-      <c r="E14" s="99">
-        <f>C14*1.04</f>
-        <v>1083079.5924</v>
-      </c>
-      <c r="F14" s="318"/>
-      <c r="G14" s="342">
-        <f>IF(G9="","",G8*G13)</f>
-        <v>1222621.4958299999</v>
-      </c>
-      <c r="H14" s="318"/>
-      <c r="I14" s="342" t="str">
-        <f>IF(I9="","",I8*I13)</f>
-        <v/>
-      </c>
-      <c r="J14" s="364"/>
+      <c r="B14" s="368" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="369">
+        <v>238000</v>
+      </c>
+      <c r="D14" s="311"/>
+      <c r="E14" s="369"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="352"/>
       <c r="K14" s="6"/>
       <c r="L14" s="97"/>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="18">
-        <f>C17/C8</f>
-        <v>0.46060232461182588</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18">
-        <f>E17/E8</f>
-        <v>0.49630125690711779</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18">
-        <f>IF(G9="","",G17/G8)</f>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="str">
-        <f>IF(I9="","",I17/I8)</f>
-        <v/>
-      </c>
-      <c r="J15" s="282"/>
+      <c r="B15" s="367" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="369">
+        <v>556200</v>
+      </c>
+      <c r="D15" s="311"/>
+      <c r="E15" s="369"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="311"/>
+      <c r="I15" s="263"/>
+      <c r="J15" s="352"/>
       <c r="K15" s="6"/>
       <c r="L15" s="97"/>
       <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="319"/>
-      <c r="E16" s="14">
-        <f>IF(ABS(C17+E17)=ABS(C17)+ABS(E17),IF(E17&lt;0,-1,1)*(E17-C17)/C17,"Turn")</f>
-        <v>-0.27242455472043131</v>
-      </c>
-      <c r="F16" s="319"/>
-      <c r="G16" s="14">
-        <f>IF(G9="","",IF(ABS(E17+G17)=ABS(E17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-E17)/E17,"Turn"))</f>
-        <v>7.4486885116907556E-2</v>
-      </c>
-      <c r="H16" s="319"/>
-      <c r="I16" s="14" t="str">
-        <f>IF(I9="","",IF(ABS(G17+I17)=ABS(G17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-G17)/G17,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="J16" s="365"/>
+      <c r="B16" s="367" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="369">
+        <v>143400</v>
+      </c>
+      <c r="D16" s="311"/>
+      <c r="E16" s="369"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="311"/>
+      <c r="I16" s="263"/>
+      <c r="J16" s="352"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="164" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="275">
-        <f>C12-C14</f>
-        <v>7124497.2259999989</v>
-      </c>
-      <c r="D17" s="320"/>
-      <c r="E17" s="275">
-        <f>E12-E14</f>
-        <v>5183609.2416000012</v>
-      </c>
-      <c r="F17" s="320"/>
-      <c r="G17" s="275">
-        <f>IF(G9="","",G12-G14)</f>
-        <v>5569720.1476700008</v>
-      </c>
-      <c r="H17" s="320"/>
-      <c r="I17" s="275" t="str">
-        <f>IF(I9="","",I12-I14)</f>
-        <v/>
-      </c>
-      <c r="J17" s="366"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="367" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="369">
+        <v>100</v>
+      </c>
+      <c r="D17" s="311"/>
+      <c r="E17" s="369"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="311"/>
+      <c r="I17" s="263"/>
+      <c r="J17" s="352"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="79"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="264">
+        <f>SUM(C14:C17)</f>
+        <v>937700</v>
+      </c>
+      <c r="D18" s="311">
+        <f>C18/C19</f>
+        <v>0.3955705547352879</v>
+      </c>
+      <c r="E18" s="264">
+        <f>C18*1.03</f>
+        <v>965831</v>
+      </c>
+      <c r="F18" s="311">
+        <f>E18/E19</f>
+        <v>0.46628295389315422</v>
+      </c>
+      <c r="G18" s="264"/>
+      <c r="H18" s="311"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="352"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="212">
+        <f>C8+C13+C18</f>
+        <v>2370500</v>
+      </c>
+      <c r="D19" s="310"/>
+      <c r="E19" s="212">
+        <f>E8+E13+E18</f>
+        <v>2071341</v>
+      </c>
+      <c r="F19" s="310"/>
+      <c r="G19" s="212">
+        <f>E19*1.05</f>
+        <v>2174908.0500000003</v>
+      </c>
+      <c r="H19" s="310"/>
+      <c r="I19" s="270">
+        <f>C19*1.05</f>
+        <v>2489025</v>
+      </c>
+      <c r="J19" s="353"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="M19" s="80"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="219"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="18">
+        <f>E19/C19-1</f>
+        <v>-0.12620080151866697</v>
+      </c>
+      <c r="F20" s="312"/>
+      <c r="G20" s="96">
+        <f>G19/E19-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="H20" s="312"/>
+      <c r="I20" s="96">
+        <f>I19/G19-1</f>
+        <v>0.14442769201208283</v>
+      </c>
+      <c r="J20" s="354"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="80"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="213">
+        <f>Data!C9</f>
+        <v>1701400</v>
+      </c>
+      <c r="D21" s="313"/>
+      <c r="E21" s="269">
+        <f>E19*(1-E22)</f>
+        <v>1418868.5850000002</v>
+      </c>
+      <c r="F21" s="313"/>
+      <c r="G21" s="337">
+        <f>IF(G19="","",G19*(1-G22))</f>
+        <v>1489812.0142500002</v>
+      </c>
+      <c r="H21" s="313"/>
+      <c r="I21" s="337">
+        <f>IF(I19="","",I19*(1-I22))</f>
+        <v>1749037.8674999999</v>
+      </c>
+      <c r="J21" s="355"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="218">
+        <f>(C19-C21)/C19</f>
+        <v>0.282261126344653</v>
+      </c>
+      <c r="D22" s="218"/>
+      <c r="E22" s="96">
+        <v>0.315</v>
+      </c>
+      <c r="F22" s="218"/>
+      <c r="G22" s="96">
+        <f>E22</f>
+        <v>0.315</v>
+      </c>
+      <c r="H22" s="218"/>
+      <c r="I22" s="96">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="J22" s="356"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="97"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="29">
+        <f>C19-C21</f>
+        <v>669100</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29">
+        <f>E19-E21</f>
+        <v>652472.4149999998</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29">
+        <f>IF(G20="","",G19-G21)</f>
+        <v>685096.03575000004</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29">
+        <f>IF(I20="","",I19-I21)</f>
+        <v>739987.13250000007</v>
+      </c>
+      <c r="J23" s="292"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="97"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="223">
+        <f>C25/C19</f>
+        <v>0.19607677705125501</v>
+      </c>
+      <c r="D24" s="223"/>
+      <c r="E24" s="268">
+        <f>E25/E19</f>
+        <v>0.23337152115465296</v>
+      </c>
+      <c r="F24" s="223"/>
+      <c r="G24" s="88">
+        <f>G25/G19</f>
+        <v>0.22892634932313571</v>
+      </c>
+      <c r="H24" s="223"/>
+      <c r="I24" s="88">
+        <f>I25/I19</f>
+        <v>0.2060367303663081</v>
+      </c>
+      <c r="J24" s="357"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="97"/>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="215">
+        <f>304900+75600+84300</f>
+        <v>464800</v>
+      </c>
+      <c r="D25" s="314"/>
+      <c r="E25" s="99">
+        <f>C25*1.04</f>
+        <v>483392</v>
+      </c>
+      <c r="F25" s="314"/>
+      <c r="G25" s="99">
+        <f>E25*1.03</f>
+        <v>497893.76</v>
+      </c>
+      <c r="H25" s="314"/>
+      <c r="I25" s="99">
+        <f>G25*1.03</f>
+        <v>512830.57280000002</v>
+      </c>
+      <c r="J25" s="358"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="97"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="18">
+        <f>C28/C19</f>
+        <v>8.6184349293398022E-2</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
+        <f>E28/E19</f>
+        <v>8.162847884534695E-2</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
+        <f>IF(G20="","",G28/G19)</f>
+        <v>8.6073650676864247E-2</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18">
+        <f>IF(I20="","",I28/I19)</f>
+        <v>9.1263269633691926E-2</v>
+      </c>
+      <c r="J26" s="278"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="80"/>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="220"/>
+      <c r="D27" s="315"/>
+      <c r="E27" s="14">
+        <f>IF(ABS(C28+E28)=ABS(C28)+ABS(E28),IF(E28&lt;0,-1,1)*(E28-C28)/C28,"Turn")</f>
+        <v>-0.17239150758688299</v>
+      </c>
+      <c r="F27" s="315"/>
+      <c r="G27" s="14">
+        <f>IF(G20="","",IF(ABS(E28+G28)=ABS(E28)+ABS(G28),IF(G28&lt;0,-1,1)*(G28-E28)/E28,"Turn"))</f>
+        <v>0.10717894647940299</v>
+      </c>
+      <c r="H27" s="315"/>
+      <c r="I27" s="14">
+        <f>IF(I20="","",IF(ABS(G28+I28)=ABS(G28)+ABS(I28),IF(I28&lt;0,-1,1)*(I28-G28)/G28,"Turn"))</f>
+        <v>0.21342840940329758</v>
+      </c>
+      <c r="J27" s="359"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="102"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="163" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="271">
+        <f>C23-C25</f>
+        <v>204300</v>
+      </c>
+      <c r="D28" s="316"/>
+      <c r="E28" s="271">
+        <f>E23-E25</f>
+        <v>169080.4149999998</v>
+      </c>
+      <c r="F28" s="316"/>
+      <c r="G28" s="271">
+        <f>IF(G20="","",G23-G25)</f>
+        <v>187202.27575000003</v>
+      </c>
+      <c r="H28" s="316"/>
+      <c r="I28" s="271">
+        <f>IF(I20="","",I23-I25)</f>
+        <v>227156.55970000004</v>
+      </c>
+      <c r="J28" s="360"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="79"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12301,34 +12469,40 @@
     <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsBlanks" dxfId="5" priority="8">
-      <formula>LEN(TRIM(G8))=0</formula>
+  <conditionalFormatting sqref="G20:H24 I23 I25:I28 I21 G26:H28 H25">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="7">
+      <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H17 I12 I14:I17 I10">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(G9))=0</formula>
+  <conditionalFormatting sqref="I20 I24 I22">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(I20))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="7">
-      <formula>LEN(TRIM(G9))=0</formula>
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(I20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 I13 I11">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(I9))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(I9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J17">
+  <conditionalFormatting sqref="J20:J28">
     <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(J9))=0</formula>
+      <formula>LEN(TRIM(J20))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(J9))=0</formula>
+      <formula>LEN(TRIM(J20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12344,8 +12518,8 @@
   </sheetPr>
   <dimension ref="A1:J927"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12365,19 +12539,19 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="120" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="355" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="355">
+      <c r="B2" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="350" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="350">
         <v>1</v>
       </c>
-      <c r="E2" s="355">
+      <c r="E2" s="350">
         <v>2</v>
       </c>
-      <c r="F2" s="355">
+      <c r="F2" s="350">
         <v>3</v>
       </c>
       <c r="G2" s="12"/>
@@ -12387,310 +12561,320 @@
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
-        <v>(Numbers in 1000HKD)</v>
-      </c>
-      <c r="C3" s="337">
+        <v>(Numbers in 1000USD)</v>
+      </c>
+      <c r="C3" s="333">
         <f>Operation!C3</f>
-        <v>44742</v>
-      </c>
-      <c r="D3" s="337">
+        <v>44651</v>
+      </c>
+      <c r="D3" s="333">
         <f>Operation!E3</f>
-        <v>45107</v>
-      </c>
-      <c r="E3" s="337">
+        <v>45016</v>
+      </c>
+      <c r="E3" s="333">
         <f>Operation!G3</f>
-        <v>45473</v>
-      </c>
-      <c r="F3" s="337" t="str">
+        <v>45382</v>
+      </c>
+      <c r="F3" s="333">
         <f>Operation!I3</f>
-        <v/>
+        <v>45747</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I3" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="217">
-        <f>Operation!C17</f>
-        <v>7124497.2259999989</v>
+      <c r="C4" s="214">
+        <f>Operation!C28</f>
+        <v>204300</v>
       </c>
       <c r="D4" s="47">
-        <f>Operation!E17</f>
-        <v>5183609.2416000012</v>
+        <f>Operation!E28</f>
+        <v>169080.4149999998</v>
       </c>
       <c r="E4" s="47">
-        <f>Operation!G17</f>
-        <v>5569720.1476700008</v>
-      </c>
-      <c r="F4" s="238" t="str">
-        <f>Operation!I17</f>
-        <v/>
-      </c>
-      <c r="G4" s="235"/>
+        <f>Operation!G28</f>
+        <v>187202.27575000003</v>
+      </c>
+      <c r="F4" s="235">
+        <f>Operation!I28</f>
+        <v>227156.55970000004</v>
+      </c>
+      <c r="G4" s="232"/>
       <c r="H4" s="6"/>
       <c r="I4" s="103"/>
       <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312">
-        <f>Operation!E16</f>
-        <v>-0.27242455472043131</v>
-      </c>
-      <c r="E5" s="312">
-        <f>IF(E4="","",Operation!G16)</f>
-        <v>7.4486885116907556E-2</v>
-      </c>
-      <c r="F5" s="312" t="str">
-        <f>IF(F4="","",Operation!I16)</f>
-        <v/>
-      </c>
-      <c r="G5" s="235"/>
+        <v>317</v>
+      </c>
+      <c r="C5" s="307"/>
+      <c r="D5" s="308">
+        <f>Operation!E27</f>
+        <v>-0.17239150758688299</v>
+      </c>
+      <c r="E5" s="308">
+        <f>IF(E4="","",Operation!G27)</f>
+        <v>0.10717894647940299</v>
+      </c>
+      <c r="F5" s="308">
+        <f>IF(F4="","",Operation!I27)</f>
+        <v>0.21342840940329758</v>
+      </c>
+      <c r="G5" s="232"/>
       <c r="H5" s="6"/>
       <c r="I5" s="103"/>
       <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="224">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D6" s="290">
+        <v>180</v>
+      </c>
+      <c r="C6" s="221">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="286">
         <f>C6</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E6" s="291">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="287">
         <f>IF(E4="","",D6)</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F6" s="292" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="288">
         <f>IF(F4="","",D6)</f>
-        <v/>
-      </c>
-      <c r="G6" s="236"/>
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="233"/>
       <c r="H6" s="6"/>
       <c r="I6" s="102"/>
       <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="225">
+        <v>102</v>
+      </c>
+      <c r="C7" s="222">
         <f>IF(C4&lt;=0,C4,C4*(1-C6))</f>
-        <v>5948955.1837099986</v>
+        <v>153225</v>
       </c>
       <c r="D7" s="104">
         <f>IF(D4&lt;=0,D4,D4*(1-D6))</f>
-        <v>4328313.716736001</v>
+        <v>126810.31124999985</v>
       </c>
       <c r="E7" s="104">
         <f>IF(E4="","",IF(E4&lt;=0,E4,E4*(1-E6)))</f>
-        <v>4650716.3233044501</v>
-      </c>
-      <c r="F7" s="239" t="str">
+        <v>140401.70681250002</v>
+      </c>
+      <c r="F7" s="236">
         <f>IF(F4="","",IF(F4&lt;=0,F4,F4*(1-F6)))</f>
-        <v/>
-      </c>
-      <c r="G7" s="235"/>
+        <v>170367.41977500002</v>
+      </c>
+      <c r="G7" s="232"/>
       <c r="H7" s="6"/>
       <c r="I7" s="105"/>
       <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="347">
+        <v>71</v>
+      </c>
+      <c r="C8" s="342">
         <f>C10/C7</f>
-        <v>3.4511538071793253E-2</v>
-      </c>
-      <c r="D8" s="348">
+        <v>-1.9518889333867188E-2</v>
+      </c>
+      <c r="D8" s="343">
         <f>D10/D7</f>
-        <v>0.13085754060431629</v>
-      </c>
-      <c r="E8" s="347">
+        <v>0.14854973808549166</v>
+      </c>
+      <c r="E8" s="342">
         <f>IF(E11="","",E10/E7)</f>
-        <v>0.11757377090119193</v>
-      </c>
-      <c r="F8" s="349" t="str">
+        <v>0.1540705401921377</v>
+      </c>
+      <c r="F8" s="344">
         <f>IF(F11="","",F10/F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="236"/>
+        <v>0.22540001970866871</v>
+      </c>
+      <c r="G8" s="233"/>
       <c r="H8" s="6"/>
       <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="313"/>
-      <c r="D9" s="353">
+        <v>320</v>
+      </c>
+      <c r="C9" s="309"/>
+      <c r="D9" s="348">
         <f>(D7-C7)/C10</f>
-        <v>-7.8937239526594016</v>
-      </c>
-      <c r="E9" s="321">
+        <v>8.8320346838468318</v>
+      </c>
+      <c r="E9" s="317">
         <f>IF(E7="","",(E7-D7)/D10)</f>
-        <v>0.56922119102130309</v>
-      </c>
-      <c r="F9" s="354" t="str">
+        <v>0.72150208987726783</v>
+      </c>
+      <c r="F9" s="349">
         <f>IF(F7="","",(F7-E7)/E10)</f>
-        <v/>
-      </c>
-      <c r="G9" s="236"/>
+        <v>1.3852642376481317</v>
+      </c>
+      <c r="G9" s="233"/>
       <c r="H9" s="6"/>
       <c r="I9" s="101"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="350">
+        <v>358</v>
+      </c>
+      <c r="C10" s="345">
         <f>C7-C11</f>
-        <v>205307.59330999944</v>
-      </c>
-      <c r="D10" s="350">
+        <v>-2990.7818181818002</v>
+      </c>
+      <c r="D10" s="345">
         <f>D7-D11</f>
-        <v>566392.48793600034</v>
-      </c>
-      <c r="E10" s="351">
+        <v>18837.638522727153</v>
+      </c>
+      <c r="E10" s="346">
         <f>IF(E11="","",E7-E11)</f>
-        <v>546802.25552263111</v>
-      </c>
-      <c r="F10" s="352" t="str">
-        <f>IF(F4="","",F7*F8)</f>
-        <v/>
-      </c>
-      <c r="G10" s="237"/>
+        <v>21631.76681250002</v>
+      </c>
+      <c r="F10" s="347">
+        <f>IF(F11="","",F7-F11)</f>
+        <v>38400.81977500004</v>
+      </c>
+      <c r="G10" s="234"/>
       <c r="H10" s="107"/>
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="229">
+        <v>181</v>
+      </c>
+      <c r="C11" s="226">
         <f>IF(C12="","",C12*Common_Shares/Data!C4)</f>
-        <v>5743647.5903999992</v>
-      </c>
-      <c r="D11" s="228">
+        <v>156215.7818181818</v>
+      </c>
+      <c r="D11" s="225">
         <f>IF(D12="","",D12*Common_Shares/Data!C4)</f>
-        <v>3761921.2288000006</v>
-      </c>
-      <c r="E11" s="228">
+        <v>107972.6727272727</v>
+      </c>
+      <c r="E11" s="225">
         <f>IF(E12="","",E12*Common_Shares/Data!C4)</f>
-        <v>4103914.067781819</v>
-      </c>
-      <c r="F11" s="228" t="str">
+        <v>118769.94</v>
+      </c>
+      <c r="F11" s="225">
         <f>IF(F12="","",F12*Common_Shares/Data!C4)</f>
-        <v/>
-      </c>
-      <c r="G11" s="279">
+        <v>131966.59999999998</v>
+      </c>
+      <c r="G11" s="275">
         <f>IF(F4="",IF(E4="",D11,E11),F11)</f>
-        <v>4103914.067781819</v>
+        <v>131966.59999999998</v>
       </c>
       <c r="H11" s="107"/>
       <c r="I11" s="79"/>
       <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="244" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="276">
+      <c r="B12" s="241" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="272">
         <f>IF(C14="","",C14/C13)</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="D12" s="277">
+        <v>0.61818181818181817</v>
+      </c>
+      <c r="D12" s="273">
         <f>IF(D14="","",D14/D13)</f>
-        <v>0.46666666666666673</v>
-      </c>
-      <c r="E12" s="277">
+        <v>0.42727272727272719</v>
+      </c>
+      <c r="E12" s="273">
         <f>IF(E14="","",E14/E13)</f>
-        <v>0.50909090909090915</v>
-      </c>
-      <c r="F12" s="277" t="str">
-        <f>IF(F14="","",F14)</f>
-        <v/>
-      </c>
-      <c r="G12" s="280">
+        <v>0.47</v>
+      </c>
+      <c r="F12" s="273">
+        <f>IF(F14="","",F14/F13)</f>
+        <v>0.52222222222222214</v>
+      </c>
+      <c r="G12" s="276">
         <f>G11*Data!C$4/Dashboard!I5</f>
-        <v>0.50909090909090915</v>
+        <v>0.52222222222222214</v>
       </c>
       <c r="H12" s="107"/>
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="285" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" s="343">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="278">
-        <v>1.2</v>
-      </c>
-      <c r="E13" s="278">
+      <c r="B13" s="281" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="338">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F13" s="278"/>
-      <c r="G13" s="286"/>
+      <c r="D13" s="274">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="274">
+        <v>1</v>
+      </c>
+      <c r="F13" s="274">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="282"/>
       <c r="H13" s="107"/>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="285" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="345">
-        <f>0.42+0.15</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D14" s="346">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E14" s="346">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F14" s="346"/>
-      <c r="G14" s="344"/>
+      <c r="B14" s="281" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="340">
+        <f>0.51+0.17</f>
+        <v>0.68</v>
+      </c>
+      <c r="D14" s="341">
+        <f>0.17+0.3</f>
+        <v>0.47</v>
+      </c>
+      <c r="E14" s="341">
+        <f>D14</f>
+        <v>0.47</v>
+      </c>
+      <c r="F14" s="341">
+        <v>0.47</v>
+      </c>
+      <c r="G14" s="339"/>
       <c r="H14" s="107"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="287">
+        <v>286</v>
+      </c>
+      <c r="C15" s="283">
         <v>0</v>
       </c>
-      <c r="D15" s="287">
-        <f>0.15+0.41</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E15" s="287">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F15" s="287"/>
-      <c r="G15" s="281">
+      <c r="D15" s="283">
+        <f>0.36</f>
+        <v>0.36</v>
+      </c>
+      <c r="E15" s="283">
+        <f>E14</f>
+        <v>0.47</v>
+      </c>
+      <c r="F15" s="283">
+        <f>F14</f>
+        <v>0.47</v>
+      </c>
+      <c r="G15" s="277">
         <f>G12*D31</f>
-        <v>5.8240000000000016</v>
+        <v>13.442</v>
       </c>
       <c r="H15" s="107"/>
       <c r="I15" s="79"/>
@@ -12698,24 +12882,24 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="227"/>
-      <c r="D16" s="268">
+        <v>182</v>
+      </c>
+      <c r="C16" s="224"/>
+      <c r="D16" s="265">
         <f ca="1">Dashboard!D12</f>
-        <v>0.19354444444444446</v>
+        <v>0.17354444444444445</v>
       </c>
       <c r="E16" s="18">
         <f ca="1">IF(E4="","",D16)</f>
-        <v>0.19354444444444446</v>
-      </c>
-      <c r="F16" s="18" t="str">
-        <f>IF(F4="","",D16)</f>
-        <v/>
-      </c>
-      <c r="G16" s="282">
+        <v>0.17354444444444445</v>
+      </c>
+      <c r="F16" s="18">
+        <f ca="1">IF(F4="","",D16)</f>
+        <v>0.17354444444444445</v>
+      </c>
+      <c r="G16" s="278">
         <f ca="1">Dashboard!D12</f>
-        <v>0.19354444444444446</v>
+        <v>0.17354444444444445</v>
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="80"/>
@@ -12723,24 +12907,24 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="269">
+        <v>183</v>
+      </c>
+      <c r="C17" s="142"/>
+      <c r="D17" s="266">
         <f ca="1">IF(D4="","",1+D16)</f>
-        <v>1.1935444444444445</v>
-      </c>
-      <c r="E17" s="270">
+        <v>1.1735444444444445</v>
+      </c>
+      <c r="E17" s="267">
         <f ca="1">IF(E4="","",(1+D16)*(1+E16))</f>
-        <v>1.4245483408641977</v>
-      </c>
-      <c r="F17" s="270" t="str">
-        <f>IF(F4="","",(1+D16)*(1+E16)*(1+F16))</f>
-        <v/>
-      </c>
-      <c r="G17" s="283">
+        <v>1.3772065630864199</v>
+      </c>
+      <c r="F17" s="267">
+        <f ca="1">IF(F4="","",(1+D16)*(1+E16)*(1+F16))</f>
+        <v>1.6162131109624953</v>
+      </c>
+      <c r="G17" s="279">
         <f ca="1">IF(F4="",IF(E4="",D17,E17),F17)*(1+G16)</f>
-        <v>1.700261758081014</v>
+        <v>1.896697917408309</v>
       </c>
       <c r="H17" s="85"/>
       <c r="I17" s="80"/>
@@ -12748,27 +12932,27 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" s="288">
+        <v>287</v>
+      </c>
+      <c r="C18" s="284">
         <f>C15</f>
         <v>0</v>
       </c>
-      <c r="D18" s="232">
+      <c r="D18" s="229">
         <f ca="1">IF(D15="","",IF(D15=0,0,D15/D17))</f>
-        <v>0.46919073906850733</v>
-      </c>
-      <c r="E18" s="233">
+        <v>0.30676298772001248</v>
+      </c>
+      <c r="E18" s="230">
         <f ca="1">IF(E15="","",IF(E15=0,0,E15/E17))</f>
-        <v>0.39310705290652181</v>
-      </c>
-      <c r="F18" s="233" t="str">
-        <f>IF(F15="","",IF(F15=0,0,F15/F17))</f>
-        <v/>
-      </c>
-      <c r="G18" s="284">
+        <v>0.34127052004943681</v>
+      </c>
+      <c r="F18" s="230">
+        <f ca="1">IF(F15="","",IF(F15=0,0,F15/F17))</f>
+        <v>0.29080323430868793</v>
+      </c>
+      <c r="G18" s="280">
         <f ca="1">IF(G15=0,0,G15/G17)</f>
-        <v>3.4253549327447144</v>
+        <v>7.0870537035056449</v>
       </c>
       <c r="H18" s="105"/>
       <c r="I18" s="79"/>
@@ -12776,78 +12960,78 @@
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F19" s="6"/>
-      <c r="G19" s="144"/>
+      <c r="G19" s="143"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="231" t="str">
+        <v>288</v>
+      </c>
+      <c r="C20" s="228" t="str">
         <f>B3</f>
-        <v>(Numbers in 1000HKD)</v>
+        <v>(Numbers in 1000USD)</v>
       </c>
       <c r="E20" s="95" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="81" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C21" s="109">
         <f>Asset_Model!E59</f>
-        <v>43640996.975659996</v>
-      </c>
-      <c r="D21" s="263">
+        <v>103300</v>
+      </c>
+      <c r="D21" s="260">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>5.4136695985890526</v>
+        <v>0.40878188538278287</v>
       </c>
       <c r="E21" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="G21" s="167">
+        <v>306</v>
+      </c>
+      <c r="G21" s="166">
         <f>C21+C22+C23+C24</f>
-        <v>45928099.292460009</v>
+        <v>-165880</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="81" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C22" s="109">
         <f>Asset_Model!E58</f>
-        <v>9794286.2868000008</v>
-      </c>
-      <c r="D22" s="263">
+        <v>3320</v>
+      </c>
+      <c r="D22" s="260">
         <f>C22/(Dashboard!I5/Data!C4)</f>
-        <v>1.2149820944810106</v>
+        <v>1.3138004447926807E-2</v>
       </c>
       <c r="E22" s="110" t="s">
-        <v>314</v>
-      </c>
-      <c r="G22" s="234">
+        <v>307</v>
+      </c>
+      <c r="G22" s="231">
         <f>G21*Data!C$4/Dashboard!I5</f>
-        <v>5.697384846621274</v>
+        <v>-0.65642535476569241</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="81" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C23" s="109">
         <f>-Asset_Model!D52</f>
-        <v>-6739518.3509999998</v>
-      </c>
-      <c r="D23" s="263">
+        <v>-272500</v>
+      </c>
+      <c r="D23" s="260">
         <f>C23/(Dashboard!I5/Data!C4)</f>
-        <v>-0.83603785739108771</v>
-      </c>
-      <c r="E23" s="455" t="str">
+        <v>-1.0783452445964021</v>
+      </c>
+      <c r="E23" s="460" t="str">
         <f>IF(F24+G24=G22,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F23" s="176" t="s">
-        <v>321</v>
+      <c r="F23" s="175" t="s">
+        <v>314</v>
       </c>
       <c r="G23" s="113" t="s">
         <v>25</v>
@@ -12855,24 +13039,24 @@
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="110" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C24" s="109">
         <f>-Asset_Model!E50</f>
-        <v>-767665.61899998784</v>
-      </c>
-      <c r="D24" s="263">
+        <v>0</v>
+      </c>
+      <c r="D24" s="260">
         <f>C24/(Dashboard!I5/Data!C4)</f>
-        <v>-9.522898905770083E-2</v>
-      </c>
-      <c r="E24" s="455"/>
-      <c r="F24" s="182">
+        <v>0</v>
+      </c>
+      <c r="E24" s="460"/>
+      <c r="F24" s="180">
         <f>D21</f>
-        <v>5.4136695985890526</v>
-      </c>
-      <c r="G24" s="181">
+        <v>0.40878188538278287</v>
+      </c>
+      <c r="G24" s="179">
         <f>SUM(D22:D24)</f>
-        <v>0.28371524803222203</v>
+        <v>-1.0652072401484753</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12881,125 +13065,125 @@
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="228" t="str">
+        <f>B3</f>
+        <v>(Numbers in 1000USD)</v>
+      </c>
+      <c r="E26" s="111"/>
+      <c r="F26" s="459" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="231" t="str">
-        <f>B3</f>
-        <v>(Numbers in 1000HKD)</v>
-      </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="454" t="s">
-        <v>305</v>
-      </c>
-      <c r="G26" s="454"/>
+      <c r="G26" s="459"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="157" t="str">
+      <c r="B27" s="156" t="str">
         <f>"Exit after Year "&amp;B28</f>
-        <v>Exit after Year 2</v>
-      </c>
-      <c r="C27" s="157" t="s">
-        <v>301</v>
-      </c>
-      <c r="D27" s="241" t="s">
-        <v>292</v>
-      </c>
-      <c r="E27" s="157" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="324" t="s">
-        <v>304</v>
-      </c>
-      <c r="G27" s="324" t="s">
-        <v>303</v>
+        <v>Exit after Year 3</v>
+      </c>
+      <c r="C27" s="156" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="238" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="156" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="320" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" s="320" t="s">
+        <v>296</v>
       </c>
       <c r="I27" s="112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="246">
+      <c r="B28" s="243">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
-        <v>2</v>
-      </c>
-      <c r="D28" s="240">
+        <v>3</v>
+      </c>
+      <c r="D28" s="237">
         <v>8</v>
       </c>
-      <c r="E28" s="245">
+      <c r="E28" s="242">
         <f ca="1">G12*D28/G17</f>
-        <v>2.3953530998214783</v>
+        <v>2.2026584937080478</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="113"/>
       <c r="I28" s="114"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="176" t="s">
-        <v>331</v>
+      <c r="B29" s="175" t="s">
+        <v>323</v>
       </c>
       <c r="C29" s="14">
         <f>1/D29</f>
-        <v>0.125</v>
-      </c>
-      <c r="D29" s="240">
-        <f>'Qualitative Analysis'!E21</f>
-        <v>8</v>
-      </c>
-      <c r="E29" s="250">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D29" s="237">
+        <f>'Qualitative Analysis'!E22</f>
+        <v>18</v>
+      </c>
+      <c r="E29" s="247">
         <f t="dataTable" ref="E29:E31" dt2D="0" dtr="0" r1="D28" ca="1"/>
-        <v>2.3953530998214783</v>
-      </c>
-      <c r="F29" s="456">
+        <v>4.9559816108431081</v>
+      </c>
+      <c r="F29" s="461">
         <f ca="1">SUM(C18:F18)</f>
-        <v>0.8622977919750292</v>
-      </c>
-      <c r="G29" s="250">
+        <v>0.93883674207813717</v>
+      </c>
+      <c r="G29" s="247">
         <f ca="1">$F$29+E29+$G$22</f>
-        <v>8.9550357384177808</v>
+        <v>5.2383929981555521</v>
       </c>
       <c r="I29" s="97"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="176" t="s">
-        <v>332</v>
+      <c r="B30" s="175" t="s">
+        <v>324</v>
       </c>
       <c r="C30" s="14">
         <f t="shared" ref="C30" si="0">1/D30</f>
-        <v>9.6153846153846145E-2</v>
-      </c>
-      <c r="D30" s="240">
+        <v>4.2735042735042729E-2</v>
+      </c>
+      <c r="D30" s="237">
         <f>D29*1.3</f>
-        <v>10.4</v>
-      </c>
-      <c r="E30" s="249">
-        <v>3.1139590297679223</v>
-      </c>
-      <c r="F30" s="457"/>
-      <c r="G30" s="249">
+        <v>23.400000000000002</v>
+      </c>
+      <c r="E30" s="246">
+        <v>6.4427760940960406</v>
+      </c>
+      <c r="F30" s="462"/>
+      <c r="G30" s="246">
         <f ca="1">$F$29+E30+$G$22</f>
-        <v>9.6736416683642261</v>
+        <v>6.7251874814084847</v>
       </c>
       <c r="I30" s="97"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="180" t="s">
-        <v>333</v>
-      </c>
-      <c r="C31" s="242">
+      <c r="B31" s="178" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="239">
         <f>1/D31</f>
-        <v>8.7412587412587409E-2</v>
-      </c>
-      <c r="D31" s="243">
+        <v>3.8850038850038841E-2</v>
+      </c>
+      <c r="D31" s="240">
         <f>D30*1.1</f>
-        <v>11.440000000000001</v>
-      </c>
-      <c r="E31" s="251">
-        <v>3.4253549327447144</v>
-      </c>
-      <c r="F31" s="458"/>
-      <c r="G31" s="251">
+        <v>25.740000000000006</v>
+      </c>
+      <c r="E31" s="248">
+        <v>7.0870537035056449</v>
+      </c>
+      <c r="F31" s="463"/>
+      <c r="G31" s="248">
         <f ca="1">$F$29+E31+$G$22</f>
-        <v>9.9850375713410173</v>
+        <v>7.369465090818089</v>
       </c>
       <c r="I31" s="97"/>
     </row>
@@ -13015,33 +13199,33 @@
       <c r="B33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="304" t="str">
+      <c r="C33" s="300" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D33" s="157"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="118"/>
+      <c r="I33" s="117"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="306">
-        <f ca="1">MIN(Asset_Model!D7,G29)+(ABS(Asset_Model!D7-G29)*'Qualitative Analysis'!E80)*Exchange_Rate</f>
-        <v>11.094884983632483</v>
+        <v>184</v>
+      </c>
+      <c r="C34" s="302">
+        <f ca="1">MIN(Asset_Model!D7,G29)+(ABS(Asset_Model!D7-G29)*'Qualitative Analysis'!E81)*Exchange_Rate</f>
+        <v>20.897173050980452</v>
       </c>
       <c r="D34" s="24" t="str">
         <f ca="1">IF(C34&lt;E34,"&lt;",IF(C34=E34,"=","&gt;"))</f>
-        <v>&gt;</v>
-      </c>
-      <c r="E34" s="305">
+        <v>&lt;</v>
+      </c>
+      <c r="E34" s="301">
         <f ca="1">G30*Exchange_Rate</f>
-        <v>9.6736416683642261</v>
+        <v>52.765300352065523</v>
       </c>
       <c r="F34" s="32"/>
       <c r="H34" s="6"/>
@@ -13049,21 +13233,21 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="116"/>
+      <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="385" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="453"/>
+      <c r="C36" s="403" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="458"/>
       <c r="E36" s="32" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>20</v>
@@ -13072,50 +13256,50 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="310" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="307">
-        <f ca="1">MIN(C34,E34)+(ABS(C34-E34)*'Qualitative Analysis'!E80)</f>
-        <v>10.467330324753545</v>
-      </c>
-      <c r="D37" s="148" t="str">
+      <c r="B37" s="306" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="303">
+        <f ca="1">MIN(C34,E34)+(ABS(C34-E34)*'Qualitative Analysis'!E81)</f>
+        <v>37.100417595392699</v>
+      </c>
+      <c r="D37" s="147" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="148">
         <f ca="1">(C37-G22)/C12</f>
-        <v>6.6946603201856449</v>
-      </c>
-      <c r="F37" s="192">
+        <v>61.077245948785638</v>
+      </c>
+      <c r="F37" s="190">
         <f ca="1">C37/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.53327852226888239</v>
+        <v>1.7603605394410378</v>
       </c>
       <c r="G37" s="113"/>
       <c r="H37" s="6"/>
       <c r="I37" s="97"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="309" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="308">
+      <c r="B38" s="305" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="304">
         <f ca="1">(G15/(1+G38)^B28+F29+G22)*Exchange_Rate</f>
-        <v>12.058967415253157</v>
-      </c>
-      <c r="D38" s="252" t="str">
+        <v>98.984537692105292</v>
+      </c>
+      <c r="D38" s="249" t="str">
         <f>D37</f>
         <v>HKD</v>
       </c>
-      <c r="E38" s="149">
+      <c r="E38" s="148">
         <f ca="1">(C38-G22)/C12</f>
-        <v>8.9285369384307138</v>
-      </c>
-      <c r="F38" s="192">
+        <v>161.18391081111483</v>
+      </c>
+      <c r="F38" s="190">
         <f ca="1">C38/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.61436757260703168</v>
-      </c>
-      <c r="G38" s="340">
+        <v>4.6966715056499844</v>
+      </c>
+      <c r="G38" s="336">
         <f>Dashboard!D10</f>
         <v>2.9100000000000001E-2</v>
       </c>
@@ -14036,10 +14220,10 @@
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:H93"/>
+  <dimension ref="A2:H94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14048,1183 +14232,1260 @@
     <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
     <col min="3" max="4" width="22.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="12.453125" style="3"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="123"/>
+        <v>186</v>
+      </c>
+      <c r="C2" s="122"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B3" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="125"/>
+      <c r="G2" s="95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B3" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="124"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="G3" s="103"/>
+    </row>
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="122">
+        <v>188</v>
+      </c>
+      <c r="C4" s="124"/>
+      <c r="D4" s="121">
         <f>IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="G4" s="103"/>
+    </row>
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="122">
+        <v>190</v>
+      </c>
+      <c r="C5" s="124"/>
+      <c r="D5" s="121">
         <f t="shared" ref="D5" si="0">IF(E5="Strongly disagree",0,IF(E5="disagree",1,IF(E5="unclear",2,IF(E5="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="122">
+        <v>192</v>
+      </c>
+      <c r="C6" s="124"/>
+      <c r="D6" s="121">
         <f>IF(E6="Strongly disagree",0,IF(E6="disagree",1,IF(E6="unclear",2,IF(E6="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B7" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="122">
+        <v>227</v>
+      </c>
+      <c r="G6" s="103"/>
+    </row>
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B7" s="125" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="121">
         <f>AVERAGE(D4:D6)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E7" s="127">
+      <c r="E7" s="126">
         <f>D7/4</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
+      <c r="G7" s="101"/>
+    </row>
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B9" s="128" t="s">
-        <v>195</v>
+      <c r="G8" s="101"/>
+    </row>
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B9" s="127" t="s">
+        <v>194</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="40"/>
       <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="G9" s="103"/>
+    </row>
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="129">
+        <v>195</v>
+      </c>
+      <c r="D10" s="128">
         <f>IF(E10="Strongly disagree",0,IF(E10="disagree",1,IF(E10="unclear",2,IF(E10="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="G10" s="103"/>
+    </row>
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="55"/>
-      <c r="D11" s="129">
+      <c r="D11" s="128">
         <f>IF(E11="Strongly disagree",0,IF(E11="disagree",1,IF(E11="unclear",2,IF(E11="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="131" t="str">
+      <c r="E11" s="130" t="str">
         <f>IF(D7&gt;=3.5,"Strongly agree",IF(D7&gt;=2.5,"agree",IF(D7&gt;=1.5,"unclear",IF(D7&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>Strongly disagree</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="G11" s="103"/>
+    </row>
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="129">
+        <v>197</v>
+      </c>
+      <c r="D12" s="128">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E12" s="130" t="str">
-        <f>IF(D80&gt;=3.5,"Strongly agree",IF(D80&gt;=2.5,"agree",IF(D80&gt;=1.5,"unclear",IF(D80&gt;=0.5,"disagree","Strongly disagree"))))</f>
+      <c r="E12" s="129" t="str">
+        <f>IF(D81&gt;=3.5,"Strongly agree",IF(D81&gt;=2.5,"agree",IF(D81&gt;=1.5,"unclear",IF(D81&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B13" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="129">
+      <c r="G12" s="103"/>
+    </row>
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B13" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="128">
         <f>AVERAGE(D10:D12)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="126">
         <f>D13/3</f>
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B14" s="126"/>
-      <c r="D14" s="129"/>
+      <c r="G13" s="103"/>
+    </row>
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B14" s="125"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="113"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="103"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>201</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="B16" s="198" t="s">
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="128" t="str">
+        <f>IF(LEFT(E16,3)="(+)","+","-")</f>
+        <v>+</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="103"/>
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="128" t="str">
+        <f t="shared" ref="D17:D18" si="1">IF(LEFT(E17,3)="(+)","+","-")</f>
+        <v>-</v>
+      </c>
+      <c r="E17" s="177" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="371"/>
+    </row>
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="115">
-        <f>1/E16</f>
-        <v>0.125</v>
-      </c>
-      <c r="E16" s="240">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="D18" s="128" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18" s="371"/>
+    </row>
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B19" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="129" t="str">
-        <f>IF(LEFT(E17,3)="(+)","+","-")</f>
-        <v>-</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="D19" s="128" t="str">
+        <f>D16&amp;D17&amp;D18</f>
+        <v>+--</v>
+      </c>
+      <c r="E19" s="375" t="str">
+        <f>IF(D19="+-+","Growth", IF(D19="+--","Mature", "Shakeout/Decline")) &amp; " stage"</f>
+        <v>Mature stage</v>
+      </c>
+      <c r="G19" s="371" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B20" s="125" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" s="376" t="str">
+        <f>Dashboard!D20</f>
+        <v>Cyclicals</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="D21" s="175" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B22" s="125" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" s="113">
+        <f>1/E22</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E22" s="374">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="101" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
+      <c r="G23" s="371"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="371"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="129" t="str">
-        <f t="shared" ref="D18:D19" si="1">IF(LEFT(E18,3)="(+)","+","-")</f>
-        <v>-</v>
-      </c>
-      <c r="E18" s="178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="129" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B20" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="129" t="str">
-        <f>D17&amp;D18&amp;D19</f>
-        <v>--+</v>
-      </c>
-      <c r="E20" s="179" t="str">
-        <f>IF(D20="+-+","Growth", IF(D20="+--","Mature", "Shakeout/Decline")) &amp; " stage"</f>
-        <v>Shakeout/Decline stage</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="B21" s="126" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="115">
-        <f>1/E21</f>
-        <v>0.125</v>
-      </c>
-      <c r="E21" s="240">
-        <f>IF(LEFT(E20,1)="G", E16/2.4, IF(LEFT(E20,1)="M", E16/1.8, E16))</f>
-        <v>8</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="128" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="121"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D25" s="129">
-        <f>IF(E25="Strongly disagree",0,IF(E25="disagree",1,IF(E25="unclear",2,IF(E25="agree",3,4))))</f>
+      <c r="C25" s="120"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="371"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="128">
+        <f>IF(E26="Strongly disagree",0,IF(E26="disagree",1,IF(E26="unclear",2,IF(E26="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E25" s="130" t="str">
+      <c r="E26" s="129" t="str">
         <f>E11</f>
         <v>Strongly disagree</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="129">
-        <f>IF(E26="Strongly disagree",0,IF(E26="disagree",1,IF(E26="unclear",2,IF(E26="agree",3,4))))</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>190</v>
-      </c>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="371"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="129">
+        <v>206</v>
+      </c>
+      <c r="D27" s="128">
         <f>IF(E27="Strongly disagree",0,IF(E27="disagree",1,IF(E27="unclear",2,IF(E27="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="371"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="129">
+        <v>207</v>
+      </c>
+      <c r="D28" s="128">
         <f>IF(E28="Strongly disagree",0,IF(E28="disagree",1,IF(E28="unclear",2,IF(E28="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="371"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="129">
+        <v>208</v>
+      </c>
+      <c r="D29" s="128">
         <f>IF(E29="Strongly disagree",0,IF(E29="disagree",1,IF(E29="unclear",2,IF(E29="agree",3,4))))</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="371"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="128">
+        <f>IF(E30="Strongly disagree",0,IF(E30="disagree",1,IF(E30="unclear",2,IF(E30="agree",3,4))))</f>
         <v>4</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="128" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="129">
-        <f>IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
-        <v>4</v>
-      </c>
-      <c r="E31" s="51" t="str">
+      <c r="E30" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="371"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="24"/>
+      <c r="G31" s="371"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="128">
+        <f>IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="51" t="str">
         <f>IF(OR(Asset_Model!I24&lt;0.8,Asset_Model!I44&lt;0.6),"Strongly disagree",
 IF(OR(Asset_Model!I24&lt;1,Asset_Model!I44&lt;0.8),"unclear", IF(OR(Asset_Model!I24&lt;1.8,Asset_Model!I44&lt;1.4),"agree","Strongly agree"))
 )</f>
-        <v>Strongly agree</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="129">
-        <f t="shared" ref="D32:D35" si="2">IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
+        <v>Strongly disagree</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="371"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="128">
+        <f t="shared" ref="D33:D36" si="2">IF(E33="Strongly disagree",0,IF(E33="disagree",1,IF(E33="unclear",2,IF(E33="agree",3,4))))</f>
         <v>1</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="129">
+      <c r="E33" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="371"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="129">
+      <c r="E34" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="371"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="128">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="129">
+      <c r="E35" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="371"/>
+    </row>
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="128" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="129">
-        <f t="shared" ref="D37:D41" si="3">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
+      <c r="E36" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="371"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="24"/>
+      <c r="G37" s="371"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="128">
+        <f t="shared" ref="D38:D42" si="3">IF(E38="Strongly disagree",0,IF(E38="disagree",1,IF(E38="unclear",2,IF(E38="agree",3,4))))</f>
         <v>4</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="129">
+      <c r="E38" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="371"/>
+    </row>
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="128">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="129">
+      <c r="E39" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="371"/>
+    </row>
+    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="128">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="129">
+      <c r="E40" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="371"/>
+    </row>
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="128">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="129">
+      <c r="E41" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="371"/>
+    </row>
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="128">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="128" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="132">
-        <f>SUM(D44:D49)/(6*4)</f>
+      <c r="E42" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="371"/>
+    </row>
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="24"/>
+      <c r="G43" s="371"/>
+    </row>
+    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="131">
+        <f>SUM(D45:D50)/(6*4)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E43" s="51" t="str">
-        <f>IF(D43&gt;80%,"Very High",IF(D43&lt;=20%,"Very Low",IF(D43&lt;=40%,"Low",IF(D43&lt;=60%,"Medium","High"))))</f>
+      <c r="E44" s="51" t="str">
+        <f>IF(D44&gt;80%,"Very High",IF(D44&lt;=20%,"Very Low",IF(D44&lt;=40%,"Low",IF(D44&lt;=60%,"Medium","High"))))</f>
         <v>High</v>
       </c>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="129">
-        <f t="shared" ref="D44:D49" si="4">IF(E44="Strongly disagree",0,IF(E44="disagree",1,IF(E44="unclear",2,IF(E44="agree",3,4))))</f>
+      <c r="F44" s="6"/>
+      <c r="G44" s="371"/>
+    </row>
+    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="128">
+        <f t="shared" ref="D45:D50" si="4">IF(E45="Strongly disagree",0,IF(E45="disagree",1,IF(E45="unclear",2,IF(E45="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="129">
+      <c r="E45" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="371"/>
+    </row>
+    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="128">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="129">
+      <c r="E46" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="371"/>
+    </row>
+    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="128">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="129">
+      <c r="E47" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="371"/>
+    </row>
+    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="128">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E47" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="129">
+      <c r="E48" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="371"/>
+    </row>
+    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="128">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D49" s="129">
+      <c r="E49" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="371"/>
+    </row>
+    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="128">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="132">
-        <f>SUM(D51:D56)/(6*4)</f>
+      <c r="E50" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50" s="371"/>
+    </row>
+    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="131">
+        <f>SUM(D52:D57)/(6*4)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="51" t="str">
-        <f>IF(D50&gt;80%,"Very High",IF(D50&lt;=20%,"Very Low",IF(D50&lt;=40%,"Low",IF(D50&lt;=60%,"Medium","High"))))</f>
+      <c r="E51" s="51" t="str">
+        <f>IF(D51&gt;80%,"Very High",IF(D51&lt;=20%,"Very Low",IF(D51&lt;=40%,"Low",IF(D51&lt;=60%,"Medium","High"))))</f>
         <v>Very Low</v>
       </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="129">
-        <f t="shared" ref="D51:D56" si="5">IF(E51="Strongly disagree",0,IF(E51="disagree",1,IF(E51="unclear",2,IF(E51="agree",3,4))))</f>
+      <c r="F51" s="6"/>
+      <c r="G51" s="371"/>
+    </row>
+    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="128">
+        <f t="shared" ref="D52:D57" si="5">IF(E52="Strongly disagree",0,IF(E52="disagree",1,IF(E52="unclear",2,IF(E52="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E52" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="371"/>
+    </row>
+    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" s="129">
+      <c r="D53" s="128">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="129">
+      <c r="E53" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="371"/>
+    </row>
+    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="128">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="129">
+      <c r="E54" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="371"/>
+    </row>
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="128">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="D55" s="129">
+      <c r="E55" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="371"/>
+    </row>
+    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="128">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="129">
+      <c r="E56" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="371"/>
+    </row>
+    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="128">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D57" s="132">
-        <f>SUM(D58:D63)/(6*4)</f>
+      <c r="E57" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" s="371"/>
+    </row>
+    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="131">
+        <f>SUM(D59:D64)/(6*4)</f>
         <v>0.5</v>
       </c>
-      <c r="E57" s="51" t="str">
-        <f>IF(D57&gt;80%,"Very High",IF(D57&lt;=20%,"Very Low",IF(D57&lt;=40%,"Low",IF(D57&lt;=60%,"Medium","High"))))</f>
+      <c r="E58" s="51" t="str">
+        <f>IF(D58&gt;80%,"Very High",IF(D58&lt;=20%,"Very Low",IF(D58&lt;=40%,"Low",IF(D58&lt;=60%,"Medium","High"))))</f>
         <v>Medium</v>
       </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" s="129">
-        <f t="shared" ref="D58:D63" si="6">IF(E58="Strongly disagree",0,IF(E58="disagree",1,IF(E58="unclear",2,IF(E58="agree",3,4))))</f>
+      <c r="F58" s="6"/>
+      <c r="G58" s="371"/>
+    </row>
+    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="128">
+        <f t="shared" ref="D59:D64" si="6">IF(E59="Strongly disagree",0,IF(E59="disagree",1,IF(E59="unclear",2,IF(E59="agree",3,4))))</f>
         <v>1</v>
       </c>
-      <c r="E58" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="D59" s="129">
+      <c r="E59" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="371"/>
+    </row>
+    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="128">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E59" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" s="129">
+      <c r="E60" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="371"/>
+    </row>
+    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="128">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E60" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" s="129">
+      <c r="E61" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="371"/>
+    </row>
+    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="128">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E61" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D62" s="129">
+      <c r="E62" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="371"/>
+    </row>
+    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="128">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E62" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D63" s="129">
+      <c r="E63" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="371"/>
+    </row>
+    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="128">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E63" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="132">
-        <f>SUM(D65:D70)/(6*4)</f>
+      <c r="E64" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="371"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="131">
+        <f>SUM(D66:D71)/(6*4)</f>
         <v>0.24773242630385486</v>
       </c>
-      <c r="E64" s="51" t="str">
-        <f>IF(D64&gt;80%,"Very High",IF(D64&lt;=20%,"Very Low",IF(D64&lt;=40%,"Low",IF(D64&lt;=60%,"Medium","High"))))</f>
+      <c r="E65" s="51" t="str">
+        <f>IF(D65&gt;80%,"Very High",IF(D65&lt;=20%,"Very Low",IF(D65&lt;=40%,"Low",IF(D65&lt;=60%,"Medium","High"))))</f>
         <v>Low</v>
       </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D65" s="129">
-        <f t="shared" ref="D65:D68" si="7">IF(E65="Strongly disagree",0,IF(E65="disagree",1,IF(E65="unclear",2,IF(E65="agree",3,4))))</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>234</v>
-      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="371"/>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="D66" s="129">
+        <v>246</v>
+      </c>
+      <c r="D66" s="128">
+        <f t="shared" ref="D66:D69" si="7">IF(E66="Strongly disagree",0,IF(E66="disagree",1,IF(E66="unclear",2,IF(E66="agree",3,4))))</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G66" s="371"/>
+    </row>
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="128">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E66" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" s="129">
+      <c r="E67" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="371"/>
+    </row>
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="128">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E67" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="129">
+      <c r="E68" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="371"/>
+    </row>
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="128">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="E68" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D69" s="129">
-        <f>IF(E69="Strongly disagree",0,IF(E69="disagree",1,IF(E69="unclear",2,IF(E69="agree",3,4))))</f>
-        <v>2</v>
-      </c>
       <c r="E69" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
+        <v>189</v>
+      </c>
+      <c r="G69" s="371"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" s="133">
-        <f t="array" ref="D70">(1-INDEX(B84:E93,MATCH(E70,B84:B93,0),4))*4</f>
+        <v>250</v>
+      </c>
+      <c r="D70" s="128">
+        <f>IF(E70="Strongly disagree",0,IF(E70="disagree",1,IF(E70="unclear",2,IF(E70="agree",3,4))))</f>
+        <v>2</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="55"/>
+      <c r="G70" s="371"/>
+      <c r="H70" s="55"/>
+    </row>
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" s="132">
+        <f t="array" ref="D71">(1-INDEX(B85:E94,MATCH(E71,B85:B94,0),4))*4</f>
         <v>1.9455782312925169</v>
       </c>
-      <c r="E70" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-    </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D71" s="134">
-        <f>SUM(D72:D77)/(6*4)</f>
+      <c r="E71" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" s="55"/>
+      <c r="G71" s="371"/>
+      <c r="H71" s="55"/>
+    </row>
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="133">
+        <f>SUM(D73:D78)/(6*4)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E71" s="51" t="str">
-        <f>IF(D71&gt;80%,"Very High",IF(D71&lt;=20%,"Very Low",IF(D71&lt;=40%,"Low",IF(D71&lt;=60%,"Medium","High"))))</f>
+      <c r="E72" s="51" t="str">
+        <f>IF(D72&gt;80%,"Very High",IF(D72&lt;=20%,"Very Low",IF(D72&lt;=40%,"Low",IF(D72&lt;=60%,"Medium","High"))))</f>
         <v>High</v>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-    </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="129">
-        <f t="shared" ref="D72:D76" si="8">IF(E72="Strongly disagree",0,IF(E72="disagree",1,IF(E72="unclear",2,IF(E72="agree",3,4))))</f>
-        <v>3</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>192</v>
-      </c>
       <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
+      <c r="G72" s="371"/>
       <c r="H72" s="55"/>
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="129">
+        <v>254</v>
+      </c>
+      <c r="D73" s="128">
+        <f t="shared" ref="D73:D77" si="8">IF(E73="Strongly disagree",0,IF(E73="disagree",1,IF(E73="unclear",2,IF(E73="agree",3,4))))</f>
+        <v>3</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="55"/>
+      <c r="G73" s="371"/>
+      <c r="H73" s="55"/>
+    </row>
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="128">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E73" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-    </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="D74" s="129">
+      <c r="E74" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="55"/>
+      <c r="G74" s="371"/>
+      <c r="H74" s="55"/>
+    </row>
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" s="128">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E74" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-    </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="129">
+      <c r="E75" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" s="55"/>
+      <c r="G75" s="371"/>
+      <c r="H75" s="55"/>
+    </row>
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" s="128">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="E75" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76" s="129">
+      <c r="E76" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="55"/>
+      <c r="G76" s="371"/>
+      <c r="H76" s="55"/>
+    </row>
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="128">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E76" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-    </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77" s="129">
-        <f>IF(E77="Strongly disagree",0,IF(E77="disagree",1,IF(E77="non-perishable",2,IF(E77="agree",3,4))))</f>
+      <c r="E77" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="55"/>
+      <c r="G77" s="371"/>
+      <c r="H77" s="55"/>
+    </row>
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78" s="128">
+        <f>IF(E78="Strongly disagree",0,IF(E78="disagree",1,IF(E78="non-perishable",2,IF(E78="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E77" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-    </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="176" t="s">
-        <v>263</v>
-      </c>
-      <c r="D78" s="156">
-        <f>1-AVERAGE(D43,D50,D57,D64,D71)</f>
+      <c r="E78" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="55"/>
+      <c r="G78" s="371"/>
+      <c r="H78" s="55"/>
+    </row>
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="175" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="155">
+        <f>1-AVERAGE(D44,D51,D58,D65,D72)</f>
         <v>0.58378684807256243</v>
       </c>
-      <c r="E78" s="51" t="str">
-        <f>IF(D78&gt;80%,"Very Low",IF(D78&lt;=20%,"Very High",IF(D78&lt;=40%,"High",IF(D78&lt;=60%,"Medium","Low"))))</f>
+      <c r="E79" s="51" t="str">
+        <f>IF(D79&gt;80%,"Very Low",IF(D79&lt;=20%,"Very High",IF(D79&lt;=40%,"High",IF(D79&lt;=60%,"Medium","Low"))))</f>
         <v>Medium</v>
       </c>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-    </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="6"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="371"/>
+      <c r="H79" s="55"/>
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="126" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" s="122">
-        <f>E80*4</f>
-        <v>2.2337868480725622</v>
-      </c>
-      <c r="E80" s="155">
-        <f>AVERAGE(AVERAGE(D25:D29)/4,AVERAGE(D31:D35)/4,AVERAGE(D37:D41)/4,D78)</f>
-        <v>0.55844671201814056</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="58"/>
-    </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="135" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="137"/>
-    </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="138" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136">
+      <c r="D80" s="6"/>
+      <c r="G80" s="371"/>
+    </row>
+    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" s="121">
+        <f>E81*4</f>
+        <v>2.0337868480725625</v>
+      </c>
+      <c r="E81" s="154">
+        <f>AVERAGE(AVERAGE(D26:D30)/4,AVERAGE(D32:D36)/4,AVERAGE(D38:D42)/4,D79)</f>
+        <v>0.50844671201814062</v>
+      </c>
+      <c r="G81" s="371"/>
+    </row>
+    <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="372"/>
+    </row>
+    <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="58"/>
+    </row>
+    <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="134" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="136"/>
+    </row>
+    <row r="85" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135">
         <v>1</v>
       </c>
-      <c r="E84" s="139">
-        <f t="shared" ref="E84:E92" si="9">D84/MAX($D$84:$D$93)</f>
+      <c r="E85" s="138">
+        <f t="shared" ref="E85:E93" si="9">D85/MAX($D$85:$D$94)</f>
         <v>3.4013605442176874E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="138" t="str">
-        <f t="shared" ref="B85:B93" si="10">C85&amp;", "&amp;D85&amp;"y"</f>
+    <row r="86" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="137" t="str">
+        <f t="shared" ref="B86:B94" si="10">C86&amp;", "&amp;D86&amp;"y"</f>
         <v>Information Technology Like, 6.6y</v>
       </c>
-      <c r="C85" s="136" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="136">
+      <c r="C86" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="135">
         <v>6.6</v>
       </c>
-      <c r="E85" s="139">
+      <c r="E86" s="138">
         <f t="shared" si="9"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="138" t="str">
+    <row r="87" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="137" t="str">
         <f t="shared" si="10"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C86" s="136" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="136">
+      <c r="C87" s="135" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="135">
         <v>11.4</v>
       </c>
-      <c r="E86" s="139">
+      <c r="E87" s="138">
         <f t="shared" si="9"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="138" t="str">
+    <row r="88" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="137" t="str">
         <f t="shared" si="10"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C87" s="136" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" s="136">
+      <c r="C88" s="135" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="135">
         <v>12.4</v>
       </c>
-      <c r="E87" s="139">
+      <c r="E88" s="138">
         <f t="shared" si="9"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="138" t="str">
+    <row r="89" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="137" t="str">
         <f t="shared" si="10"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C88" s="136" t="s">
-        <v>271</v>
-      </c>
-      <c r="D88" s="136">
+      <c r="C89" s="135" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="135">
         <v>15.1</v>
       </c>
-      <c r="E88" s="139">
+      <c r="E89" s="138">
         <f t="shared" si="9"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="138" t="str">
+    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="137" t="str">
         <f t="shared" si="10"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C89" s="136" t="s">
-        <v>272</v>
-      </c>
-      <c r="D89" s="136">
+      <c r="C90" s="135" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="135">
         <v>15.4</v>
       </c>
-      <c r="E89" s="139">
+      <c r="E90" s="138">
         <f t="shared" si="9"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="138" t="str">
+    <row r="91" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="137" t="str">
         <f t="shared" si="10"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C90" s="136" t="s">
-        <v>273</v>
-      </c>
-      <c r="D90" s="136">
+      <c r="C91" s="135" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="135">
         <v>16.100000000000001</v>
       </c>
-      <c r="E90" s="139">
+      <c r="E91" s="138">
         <f t="shared" si="9"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="138" t="str">
+    <row r="92" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="137" t="str">
         <f t="shared" si="10"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C91" s="136" t="s">
-        <v>274</v>
-      </c>
-      <c r="D91" s="136">
+      <c r="C92" s="135" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="135">
         <v>17.600000000000001</v>
       </c>
-      <c r="E91" s="139">
+      <c r="E92" s="138">
         <f t="shared" si="9"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="138" t="str">
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="137" t="str">
         <f t="shared" si="10"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C92" s="136" t="s">
-        <v>275</v>
-      </c>
-      <c r="D92" s="136">
+      <c r="C93" s="135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="135">
         <v>18.600000000000001</v>
       </c>
-      <c r="E92" s="139">
+      <c r="E93" s="138">
         <f t="shared" si="9"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="140" t="str">
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="139" t="str">
         <f t="shared" si="10"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C93" s="141" t="s">
-        <v>276</v>
-      </c>
-      <c r="D93" s="141">
+      <c r="C94" s="140" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="140">
         <v>29.4</v>
       </c>
-      <c r="E93" s="142">
-        <f>D93/MAX($D$85:$D$93)</f>
+      <c r="E94" s="141">
+        <f>D94/MAX($D$86:$D$94)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" sqref="E43 E50 E57 E64 E71" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E44 E51 E58 E65 E72" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Very High,High,Medium,Low,Very Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E4:E7 E32:E35 E37:E41 E51:E56 E26:E29 E10 E44:E49 E65:E69 E58:E63 E72:E76" xr:uid="{00000000-0002-0000-0400-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E4:E7 E33:E36 E38:E42 E52:E57 E27:E30 E10 E45:E50 E66:E70 E59:E64 E73:E77" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E77" xr:uid="{00000000-0002-0000-0400-000009000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E78" xr:uid="{00000000-0002-0000-0400-000009000000}">
       <formula1>"Strongly agree,agree,non-perishable,disagree,Strongly disagree"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E25 E11:E12" xr:uid="{FBCCA791-86B6-4660-95B3-845402529B68}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E70" xr:uid="{B3C242EB-7F6A-4B7F-83D0-5CE118336997}">
-      <formula1>B84:B93</formula1>
+    <dataValidation allowBlank="1" sqref="E26 E11:E12" xr:uid="{FBCCA791-86B6-4660-95B3-845402529B68}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E71" xr:uid="{B3C242EB-7F6A-4B7F-83D0-5CE118336997}">
+      <formula1>B85:B94</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E17" xr:uid="{00879E06-D1C6-4C7D-A498-33F03425939D}">
+    <dataValidation type="list" allowBlank="1" sqref="E16" xr:uid="{00879E06-D1C6-4C7D-A498-33F03425939D}">
       <formula1>"(+) Healthy/Increasing CFO, (-) Low/Decreasing CFO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E18" xr:uid="{9ED192E6-28C4-4D51-A598-11CB45566EF9}">
+    <dataValidation type="list" allowBlank="1" sqref="E17" xr:uid="{9ED192E6-28C4-4D51-A598-11CB45566EF9}">
       <formula1>"(+) High/Increasing CFI, (-) Low/Decreasing CFI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E19" xr:uid="{75670AFC-9391-474D-B260-21AA7EF2CDC8}">
+    <dataValidation type="list" allowBlank="1" sqref="E18" xr:uid="{75670AFC-9391-474D-B260-21AA7EF2CDC8}">
       <formula1>"(+) High/Increasing CFF, (-) Low/Decreasing CFF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E70" xr:uid="{169E40E7-6BB6-45A2-B725-216376F63A8D}">
-      <formula1>$B$84:$B$93</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="E71" xr:uid="{169E40E7-6BB6-45A2-B725-216376F63A8D}">
+      <formula1>$B$85:$B$94</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9DD3C6-5F55-4841-806C-9A23754FA6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936229BF-304F-40DD-A891-243CCF95E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="323">
   <si>
     <t>Company Info:</t>
   </si>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t>Margin of Safety Analysis</t>
-  </si>
-  <si>
-    <t>PART I: Complexity of the business</t>
   </si>
   <si>
     <t>unclear</t>
@@ -866,12 +863,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t>Cheap given Risk</t>
-  </si>
-  <si>
-    <t>Reasonable given Risk</t>
   </si>
   <si>
     <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/wcdata.html</t>
@@ -1138,6 +1129,12 @@
   </si>
   <si>
     <t>R&amp;D / Sales</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t>Reasonable Case</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1379,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1521,6 +1518,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="106">
     <border>
@@ -2869,7 +2872,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3079,7 +3082,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3699,9 +3701,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3754,155 +3753,15 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="24" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3925,10 +3784,159 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4338,8 +4346,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4367,7 +4375,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="311" t="str">
+      <c r="C2" s="310" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0411.HK : LAM SOON (HK)</v>
       </c>
@@ -4383,27 +4391,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="373" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="374"/>
+      <c r="C3" s="377" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="378"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="381" t="s">
+      <c r="I3" s="389" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="382"/>
+      <c r="J3" s="390"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="375" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="376"/>
+      <c r="C4" s="379" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="380"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4414,75 +4422,75 @@
       <c r="J4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="154"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="377">
+      <c r="C5" s="381">
         <v>44984</v>
       </c>
-      <c r="D5" s="376"/>
-      <c r="E5" s="124" t="str">
+      <c r="D5" s="380"/>
+      <c r="E5" s="123" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="373">
         <v>243354000</v>
       </c>
-      <c r="J5" s="384"/>
-      <c r="K5" s="153"/>
+      <c r="J5" s="374"/>
+      <c r="K5" s="152"/>
       <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="272">
+        <v>262</v>
+      </c>
+      <c r="C6" s="271">
         <v>8</v>
       </c>
-      <c r="D6" s="273">
+      <c r="D6" s="272">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="G6" s="136" t="s">
+      <c r="E6" s="123"/>
+      <c r="G6" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="385">
+      <c r="H6" s="134"/>
+      <c r="I6" s="391">
         <f>I4*I5/1000000</f>
         <v>2433.54</v>
       </c>
-      <c r="J6" s="386"/>
-      <c r="K6" s="153"/>
+      <c r="J6" s="392"/>
+      <c r="K6" s="152"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="147">
+      <c r="C7" s="146">
         <f>(Data!C39)/I4</f>
         <v>4.6521117384550906E-2</v>
       </c>
-      <c r="D7" s="147">
+      <c r="D7" s="146">
         <f>(Data!C40)/I4</f>
         <v>0</v>
       </c>
-      <c r="E7" s="155"/>
+      <c r="E7" s="154"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="98"/>
+      <c r="C8" s="97"/>
       <c r="E8" s="6"/>
       <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4490,13 +4498,13 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="304"/>
-      <c r="D9" s="302"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="301"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="123">
+      <c r="I9" s="122">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
         <v>9.4594573583145447</v>
       </c>
@@ -4507,63 +4515,63 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="303" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="303">
+        <v>281</v>
+      </c>
+      <c r="C10" s="302" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="302">
         <v>2.92E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="140">
+      <c r="I10" s="139">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
         <v>0.8223852734795839</v>
       </c>
-      <c r="J10" s="132">
+      <c r="J10" s="131">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
         <v>5.1051178248226314</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="316" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="395">
+      <c r="B11" s="315" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="D11" s="396"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="393" t="s">
+      <c r="I11" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="394"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="317" t="s">
+      <c r="B12" s="316" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="350">
+      <c r="C12" s="405">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="351"/>
-      <c r="G12" s="136" t="s">
+      <c r="D12" s="406"/>
+      <c r="G12" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="137">
+      <c r="H12" s="134"/>
+      <c r="I12" s="136">
         <v>1</v>
       </c>
-      <c r="J12" s="138" t="str">
+      <c r="J12" s="137" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>HKD</v>
       </c>
@@ -4574,35 +4582,35 @@
       <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="129" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="186">
+      <c r="C14" s="128" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="185">
         <f ca="1">'FCFF Model'!C29</f>
-        <v>9.0838272445177033</v>
-      </c>
-      <c r="E14" s="129" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="186">
+        <v>9.555951463141108</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="185">
         <f ca="1">'FCFF Model'!E29</f>
-        <v>11.973137953596096</v>
-      </c>
-      <c r="G14" s="187" t="s">
+        <v>12.321364620614233</v>
+      </c>
+      <c r="G14" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="195">
+      <c r="H14" s="194">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>11.279703383417282</v>
-      </c>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
+        <v>11.45531529088143</v>
+      </c>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="240" t="s">
-        <v>257</v>
+      <c r="B15" s="97"/>
+      <c r="C15" s="239" t="s">
+        <v>256</v>
       </c>
       <c r="D15" s="90" t="s">
         <v>19</v>
@@ -4613,92 +4621,92 @@
       <c r="F15" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="130" t="s">
+      <c r="J15" s="129" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="133">
+      <c r="B16" s="132">
         <f>I4</f>
         <v>10</v>
       </c>
-      <c r="C16" s="364">
+      <c r="C16" s="414">
         <v>0.1</v>
       </c>
-      <c r="D16" s="161">
+      <c r="D16" s="160">
         <f ca="1">H14/B16-1-C16</f>
-        <v>2.7970338341728102E-2</v>
-      </c>
-      <c r="E16" s="357">
-        <f>'FCFF Model'!D12*Exchange_Rate</f>
+        <v>4.5531529088142925E-2</v>
+      </c>
+      <c r="E16" s="411">
+        <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="F16" s="163">
+      <c r="F16" s="162">
         <f>E16/B16</f>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="G16" s="367" t="s">
+      <c r="G16" s="396" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="387">
+      <c r="H16" s="393">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>6.067605833477157</v>
       </c>
-      <c r="I16" s="367" t="s">
+      <c r="I16" s="396" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="208">
+      <c r="J16" s="207">
         <f>B16-$H$16</f>
         <v>3.932394166522843</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="293">
+      <c r="B17" s="292">
         <f ca="1">H14/(1+C16)</f>
-        <v>10.254275803106619</v>
-      </c>
-      <c r="C17" s="365"/>
-      <c r="D17" s="292">
+        <v>10.41392299171039</v>
+      </c>
+      <c r="C17" s="415"/>
+      <c r="D17" s="291">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="358"/>
-      <c r="F17" s="164">
+      <c r="E17" s="412"/>
+      <c r="F17" s="163">
         <f ca="1">E16/B17</f>
-        <v>2.7305682563674723E-2</v>
-      </c>
-      <c r="G17" s="368"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="368"/>
-      <c r="J17" s="207">
+        <v>2.6887081863663048E-2</v>
+      </c>
+      <c r="G17" s="397"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="397"/>
+      <c r="J17" s="206">
         <f ca="1">B17-$H$16</f>
-        <v>4.1866699696294623</v>
+        <v>4.3463171582332327</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="291">
-        <v>9.4</v>
-      </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="162">
+      <c r="B18" s="290">
+        <v>9.5</v>
+      </c>
+      <c r="C18" s="416"/>
+      <c r="D18" s="161">
         <f ca="1">H14/B18-1-C16</f>
-        <v>9.9968445044391702E-2</v>
-      </c>
-      <c r="E18" s="359"/>
-      <c r="F18" s="165">
+        <v>0.10582266219804523</v>
+      </c>
+      <c r="E18" s="413"/>
+      <c r="F18" s="164">
         <f>E16/B18</f>
-        <v>2.9787234042553193E-2</v>
-      </c>
-      <c r="G18" s="369"/>
-      <c r="H18" s="389"/>
-      <c r="I18" s="369"/>
-      <c r="J18" s="209">
+        <v>2.9473684210526319E-2</v>
+      </c>
+      <c r="G18" s="398"/>
+      <c r="H18" s="395"/>
+      <c r="I18" s="398"/>
+      <c r="J18" s="208">
         <f>B18-$H$16</f>
-        <v>3.3323941665228434</v>
+        <v>3.432394166522843</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4711,13 +4719,13 @@
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="294" t="s">
-        <v>279</v>
-      </c>
-      <c r="E20" s="268" t="s">
-        <v>273</v>
+        <v>260</v>
+      </c>
+      <c r="D20" s="293" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="267" t="s">
+        <v>270</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4729,52 +4737,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="378" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="379"/>
-      <c r="E21" s="379"/>
-      <c r="F21" s="379"/>
-      <c r="G21" s="379"/>
-      <c r="H21" s="379"/>
-      <c r="I21" s="379"/>
-      <c r="J21" s="380"/>
+      <c r="C21" s="384" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="385"/>
+      <c r="E21" s="385"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="385"/>
+      <c r="I21" s="385"/>
+      <c r="J21" s="386"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="391" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="392"/>
-      <c r="E22" s="392"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="391" t="s">
-        <v>300</v>
-      </c>
-      <c r="H22" s="391"/>
-      <c r="I22" s="392"/>
-      <c r="J22" s="392"/>
+      <c r="C22" s="400" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="365"/>
+      <c r="E22" s="365"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="400" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" s="400"/>
+      <c r="I22" s="365"/>
+      <c r="J22" s="365"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="360" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="361"/>
-      <c r="E23" s="361"/>
-      <c r="F23" s="361"/>
-      <c r="G23" s="360" t="s">
-        <v>291</v>
-      </c>
-      <c r="H23" s="360"/>
-      <c r="I23" s="361"/>
-      <c r="J23" s="361"/>
+      <c r="C23" s="387" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="388"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="387" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="387"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="388"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4801,7 +4809,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="135"/>
+      <c r="H25" s="134"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
@@ -4809,167 +4817,163 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="362"/>
-      <c r="D26" s="363"/>
-      <c r="E26" s="362"/>
-      <c r="F26" s="363"/>
-      <c r="G26" s="352"/>
-      <c r="H26" s="353"/>
-      <c r="I26" s="390" t="s">
+      <c r="C26" s="382"/>
+      <c r="D26" s="383"/>
+      <c r="E26" s="382"/>
+      <c r="F26" s="383"/>
+      <c r="G26" s="407"/>
+      <c r="H26" s="408"/>
+      <c r="I26" s="399" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="390"/>
+      <c r="J26" s="399"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="356">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.05</v>
       </c>
-      <c r="D27" s="355"/>
-      <c r="E27" s="354">
+      <c r="D27" s="363"/>
+      <c r="E27" s="409">
         <f>E31/D25</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="F27" s="355"/>
-      <c r="G27" s="371">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F27" s="363"/>
+      <c r="G27" s="418">
         <f>G31/D25</f>
-        <v>0.17760000000000004</v>
-      </c>
-      <c r="H27" s="372"/>
-      <c r="I27" s="370">
+        <v>0</v>
+      </c>
+      <c r="H27" s="419"/>
+      <c r="I27" s="417">
         <f>C27+E27+G27</f>
-        <v>0.32160000000000005</v>
-      </c>
-      <c r="J27" s="370"/>
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="J27" s="417"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="417">
+      <c r="C28" s="364">
         <v>3000</v>
       </c>
-      <c r="D28" s="392"/>
-      <c r="E28" s="417">
+      <c r="D28" s="365"/>
+      <c r="E28" s="364">
         <v>6000</v>
       </c>
-      <c r="F28" s="392"/>
-      <c r="G28" s="383">
-        <v>12000</v>
-      </c>
-      <c r="H28" s="384"/>
-      <c r="I28" s="407">
+      <c r="F28" s="365"/>
+      <c r="G28" s="373"/>
+      <c r="H28" s="374"/>
+      <c r="I28" s="353">
         <f>C28+E28+G28</f>
-        <v>21000</v>
-      </c>
-      <c r="J28" s="407"/>
+        <v>9000</v>
+      </c>
+      <c r="J28" s="353"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="418">
+      <c r="C29" s="366">
         <v>10</v>
       </c>
-      <c r="D29" s="392"/>
-      <c r="E29" s="418">
-        <v>9.4</v>
-      </c>
-      <c r="F29" s="392"/>
-      <c r="G29" s="397">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="H29" s="398"/>
-      <c r="I29" s="403"/>
-      <c r="J29" s="403"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="366">
+        <v>9.5</v>
+      </c>
+      <c r="F29" s="365"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="368"/>
+      <c r="I29" s="375"/>
+      <c r="J29" s="375"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="405">
+      <c r="C30" s="351">
         <f>C29*$I$5/1000000</f>
         <v>2433.54</v>
       </c>
-      <c r="D30" s="412"/>
-      <c r="E30" s="405">
+      <c r="D30" s="358"/>
+      <c r="E30" s="351">
         <f>E29*$I$5/1000000</f>
-        <v>2287.5275999999999</v>
-      </c>
-      <c r="F30" s="412"/>
-      <c r="G30" s="399">
+        <v>2311.8629999999998</v>
+      </c>
+      <c r="F30" s="358"/>
+      <c r="G30" s="369">
         <f>G29*$I$5/1000000</f>
-        <v>2160.9835200000002</v>
-      </c>
-      <c r="H30" s="400"/>
-      <c r="I30" s="404"/>
-      <c r="J30" s="404"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="370"/>
+      <c r="I30" s="376"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="413">
+      <c r="C31" s="359">
         <f>C28*C29</f>
         <v>30000</v>
       </c>
-      <c r="D31" s="414"/>
-      <c r="E31" s="406">
+      <c r="D31" s="360"/>
+      <c r="E31" s="352">
         <f>E28*E29</f>
-        <v>56400</v>
-      </c>
-      <c r="F31" s="415"/>
-      <c r="G31" s="401">
+        <v>57000</v>
+      </c>
+      <c r="F31" s="361"/>
+      <c r="G31" s="371">
         <f>G28*G29</f>
-        <v>106560.00000000001</v>
-      </c>
-      <c r="H31" s="402"/>
-      <c r="I31" s="406">
+        <v>0</v>
+      </c>
+      <c r="H31" s="372"/>
+      <c r="I31" s="352">
         <f>C31+E31+G31</f>
-        <v>192960</v>
-      </c>
-      <c r="J31" s="406"/>
+        <v>87000</v>
+      </c>
+      <c r="J31" s="352"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="408"/>
-      <c r="D32" s="409"/>
-      <c r="E32" s="416">
+      <c r="C32" s="354"/>
+      <c r="D32" s="355"/>
+      <c r="E32" s="362">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.6</v>
-      </c>
-      <c r="F32" s="355"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="416">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F32" s="363"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="362">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>9.1885714285714286</v>
-      </c>
-      <c r="J32" s="416"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="J32" s="362"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="410"/>
-      <c r="D33" s="411"/>
-      <c r="E33" s="405">
+      <c r="C33" s="356"/>
+      <c r="D33" s="357"/>
+      <c r="E33" s="351">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2336.1984000000002</v>
-      </c>
-      <c r="F33" s="412"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="405">
+        <v>2352.422</v>
+      </c>
+      <c r="F33" s="358"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="351">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2236.0756114285714</v>
-      </c>
-      <c r="J33" s="405"/>
+        <v>2352.422</v>
+      </c>
+      <c r="J33" s="351"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5906,6 +5910,39 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -5922,39 +5959,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
@@ -6010,7 +6014,7 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:F38"/>
     </sheetView>
   </sheetViews>
@@ -6052,21 +6056,21 @@
       <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="151">
+      <c r="C3" s="150">
         <v>44742</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="181">
+      <c r="E3" s="180">
         <v>1</v>
       </c>
-      <c r="F3" s="179">
+      <c r="F3" s="178">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
         <v>257260</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="176"/>
+      <c r="J3" s="175"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6084,7 +6088,7 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="180">
+      <c r="F4" s="179">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
         <v>245534</v>
       </c>
@@ -6102,47 +6106,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="43"/>
-      <c r="C6" s="281">
+      <c r="C6" s="280">
         <f>C3</f>
         <v>44742</v>
       </c>
-      <c r="D6" s="282">
+      <c r="D6" s="281">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44377</v>
       </c>
-      <c r="E6" s="282">
+      <c r="E6" s="281">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>44012</v>
       </c>
-      <c r="F6" s="282">
+      <c r="F6" s="281">
         <f t="shared" si="0"/>
         <v>43646</v>
       </c>
-      <c r="G6" s="282">
+      <c r="G6" s="281">
         <f t="shared" si="0"/>
         <v>43281</v>
       </c>
-      <c r="H6" s="282">
+      <c r="H6" s="281">
         <f t="shared" si="0"/>
         <v>42916</v>
       </c>
-      <c r="I6" s="282">
+      <c r="I6" s="281">
         <f t="shared" si="0"/>
         <v>42551</v>
       </c>
-      <c r="J6" s="282">
+      <c r="J6" s="281">
         <f t="shared" si="0"/>
         <v>42185</v>
       </c>
-      <c r="K6" s="282">
+      <c r="K6" s="281">
         <f t="shared" si="0"/>
         <v>41820</v>
       </c>
-      <c r="L6" s="282">
+      <c r="L6" s="281">
         <f t="shared" si="0"/>
         <v>41455</v>
       </c>
-      <c r="M6" s="282">
+      <c r="M6" s="281">
         <f t="shared" si="0"/>
         <v>41090</v>
       </c>
@@ -6168,7 +6172,7 @@
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
-      <c r="M7" s="243"/>
+      <c r="M7" s="242"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6216,7 +6220,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="212"/>
+      <c r="M8" s="211"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6240,7 +6244,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="243"/>
+      <c r="M9" s="242"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6288,7 +6292,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="212" t="str">
+      <c r="M10" s="211" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6315,7 +6319,7 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
-      <c r="M11" s="243"/>
+      <c r="M11" s="242"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6363,7 +6367,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="212" t="str">
+      <c r="M12" s="211" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6414,7 +6418,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="212" t="str">
+      <c r="M13" s="211" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6465,7 +6469,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="244" t="str">
+      <c r="M14" s="243" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6516,7 +6520,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="212" t="str">
+      <c r="M15" s="211" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6527,47 +6531,47 @@
       <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="145">
+      <c r="C16" s="144">
         <f>IF(C14="","",C14*(1-Operation!$D$16))</f>
         <v>245534</v>
       </c>
-      <c r="D16" s="145">
+      <c r="D16" s="144">
         <f>IF(D14="","",D14*(1-Operation!$D$16))</f>
         <v>375070</v>
       </c>
-      <c r="E16" s="145">
+      <c r="E16" s="144">
         <f>IF(E14="","",E14*(1-Operation!$D$16))</f>
         <v>332077</v>
       </c>
-      <c r="F16" s="145" t="str">
+      <c r="F16" s="144" t="str">
         <f>IF(F14="","",F14*(1-Operation!$D$16))</f>
         <v/>
       </c>
-      <c r="G16" s="145" t="str">
+      <c r="G16" s="144" t="str">
         <f>IF(G14="","",G14*(1-Operation!$D$16))</f>
         <v/>
       </c>
-      <c r="H16" s="145" t="str">
+      <c r="H16" s="144" t="str">
         <f>IF(H14="","",H14*(1-Operation!$D$16))</f>
         <v/>
       </c>
-      <c r="I16" s="145" t="str">
+      <c r="I16" s="144" t="str">
         <f>IF(I14="","",I14*(1-Operation!$D$16))</f>
         <v/>
       </c>
-      <c r="J16" s="145" t="str">
+      <c r="J16" s="144" t="str">
         <f>IF(J14="","",J14*(1-Operation!$D$16))</f>
         <v/>
       </c>
-      <c r="K16" s="145" t="str">
+      <c r="K16" s="144" t="str">
         <f>IF(K14="","",K14*(1-Operation!$D$16))</f>
         <v/>
       </c>
-      <c r="L16" s="145" t="str">
+      <c r="L16" s="144" t="str">
         <f>IF(L14="","",L14*(1-Operation!$D$16))</f>
         <v/>
       </c>
-      <c r="M16" s="245" t="str">
+      <c r="M16" s="244" t="str">
         <f>IF(M14="","",M14*(1-Operation!$D$16))</f>
         <v/>
       </c>
@@ -6575,50 +6579,50 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="131">
+      <c r="C17" s="130">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
         <v>4.0207741251933347E-2</v>
       </c>
-      <c r="D17" s="131">
+      <c r="D17" s="130">
         <f t="shared" si="7"/>
         <v>6.5102213964752076E-2</v>
       </c>
-      <c r="E17" s="131">
+      <c r="E17" s="130">
         <f t="shared" si="7"/>
         <v>6.4865921780070737E-2</v>
       </c>
-      <c r="F17" s="131" t="str">
+      <c r="F17" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G17" s="131" t="str">
+      <c r="G17" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H17" s="131" t="str">
+      <c r="H17" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I17" s="131" t="str">
+      <c r="I17" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="131" t="str">
+      <c r="J17" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K17" s="131" t="str">
+      <c r="K17" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L17" s="131" t="str">
+      <c r="L17" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="246" t="str">
+      <c r="M17" s="245" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6627,25 +6631,25 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="146">
+        <v>263</v>
+      </c>
+      <c r="C18" s="145">
         <v>296</v>
       </c>
-      <c r="D18" s="146">
+      <c r="D18" s="145">
         <v>283</v>
       </c>
-      <c r="E18" s="146">
+      <c r="E18" s="145">
         <v>238</v>
       </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="247"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="246"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6669,13 +6673,13 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
-      <c r="M19" s="243"/>
+      <c r="M19" s="242"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="45" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C20" s="14">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
@@ -6717,7 +6721,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="212" t="str">
+      <c r="M20" s="211" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6728,7 +6732,7 @@
       <c r="B21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="178">
+      <c r="C21" s="177">
         <v>2825784</v>
       </c>
       <c r="D21" s="36">
@@ -6744,7 +6748,7 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
-      <c r="M21" s="243"/>
+      <c r="M21" s="242"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6752,7 +6756,7 @@
       <c r="B22" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="178">
+      <c r="C22" s="177">
         <v>827785</v>
       </c>
       <c r="D22" s="36">
@@ -6768,7 +6772,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
-      <c r="M22" s="243"/>
+      <c r="M22" s="242"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6776,7 +6780,7 @@
       <c r="B23" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="178">
+      <c r="C23" s="177">
         <v>3177</v>
       </c>
       <c r="D23" s="36">
@@ -6792,31 +6796,31 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
-      <c r="M23" s="243"/>
+      <c r="M23" s="242"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="275">
+      <c r="C24" s="274">
         <v>3177</v>
       </c>
-      <c r="D24" s="142">
+      <c r="D24" s="141">
         <v>3365</v>
       </c>
-      <c r="E24" s="142">
+      <c r="E24" s="141">
         <v>2767</v>
       </c>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="248"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="247"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6824,7 +6828,7 @@
       <c r="B25" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="178">
+      <c r="C25" s="177">
         <v>1239</v>
       </c>
       <c r="D25" s="36">
@@ -6840,31 +6844,31 @@
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
-      <c r="M25" s="243"/>
+      <c r="M25" s="242"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="176">
         <v>1239</v>
       </c>
-      <c r="D26" s="142">
+      <c r="D26" s="141">
         <v>1847</v>
       </c>
-      <c r="E26" s="142">
+      <c r="E26" s="141">
         <v>1584</v>
       </c>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="248"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="247"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6912,7 +6916,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="244" t="str">
+      <c r="M27" s="243" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6923,7 +6927,7 @@
       <c r="B28" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="178">
+      <c r="C28" s="177">
         <v>2959124</v>
       </c>
       <c r="D28" s="36">
@@ -6939,31 +6943,31 @@
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
-      <c r="M28" s="243"/>
+      <c r="M28" s="242"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="143" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="177">
+      <c r="B29" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="176">
         <v>2959124</v>
       </c>
-      <c r="D29" s="142">
+      <c r="D29" s="141">
         <v>2880665</v>
       </c>
-      <c r="E29" s="142">
+      <c r="E29" s="141">
         <v>2476897</v>
       </c>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="248"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="247"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6971,7 +6975,7 @@
       <c r="B30" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="178">
+      <c r="C30" s="177">
         <v>846003</v>
       </c>
       <c r="D30" s="36">
@@ -6987,15 +6991,15 @@
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
-      <c r="M30" s="243"/>
+      <c r="M30" s="242"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="178">
+        <v>241</v>
+      </c>
+      <c r="C31" s="177">
         <v>1009960</v>
       </c>
       <c r="D31" s="36">
@@ -7011,7 +7015,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
-      <c r="M31" s="243"/>
+      <c r="M31" s="242"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7059,7 +7063,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="212" t="str">
+      <c r="M32" s="211" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7070,47 +7074,47 @@
       <c r="B33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="250">
+      <c r="C33" s="249">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
         <v>29618.634786261173</v>
       </c>
-      <c r="D33" s="250">
+      <c r="D33" s="249">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
         <v>55038.45139164204</v>
       </c>
-      <c r="E33" s="250" t="str">
+      <c r="E33" s="249" t="str">
         <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="F33" s="250" t="str">
+      <c r="F33" s="249" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="G33" s="250" t="str">
+      <c r="G33" s="249" t="str">
         <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="H33" s="250" t="str">
+      <c r="H33" s="249" t="str">
         <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="I33" s="250" t="str">
+      <c r="I33" s="249" t="str">
         <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="J33" s="250" t="str">
+      <c r="J33" s="249" t="str">
         <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="K33" s="250" t="str">
+      <c r="K33" s="249" t="str">
         <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="L33" s="250" t="str">
+      <c r="L33" s="249" t="str">
         <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="M33" s="251" t="str">
+      <c r="M33" s="250" t="str">
         <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
@@ -7121,47 +7125,47 @@
       <c r="B34" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="145">
+      <c r="C34" s="144">
         <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
         <v>51320.634786261173</v>
       </c>
-      <c r="D34" s="145">
+      <c r="D34" s="144">
         <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
         <v>211309.45139164204</v>
       </c>
-      <c r="E34" s="145" t="str">
+      <c r="E34" s="144" t="str">
         <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
         <v/>
       </c>
-      <c r="F34" s="145" t="str">
+      <c r="F34" s="144" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G34" s="145" t="str">
+      <c r="G34" s="144" t="str">
         <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
         <v/>
       </c>
-      <c r="H34" s="145" t="str">
+      <c r="H34" s="144" t="str">
         <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
         <v/>
       </c>
-      <c r="I34" s="145" t="str">
+      <c r="I34" s="144" t="str">
         <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
         <v/>
       </c>
-      <c r="J34" s="145" t="str">
+      <c r="J34" s="144" t="str">
         <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
         <v/>
       </c>
-      <c r="K34" s="145" t="str">
+      <c r="K34" s="144" t="str">
         <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
         <v/>
       </c>
-      <c r="L34" s="145" t="str">
+      <c r="L34" s="144" t="str">
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="349" t="str">
+      <c r="M34" s="347" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -7169,50 +7173,50 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="249" t="s">
+      <c r="B35" s="248" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="240">
         <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
         <v>0.20901640826224138</v>
       </c>
-      <c r="D35" s="241">
+      <c r="D35" s="240">
         <f t="shared" si="19"/>
         <v>0.56338670485947162</v>
       </c>
-      <c r="E35" s="241" t="str">
+      <c r="E35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="F35" s="241" t="str">
+      <c r="F35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G35" s="241" t="str">
+      <c r="G35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="H35" s="241" t="str">
+      <c r="H35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I35" s="241" t="str">
+      <c r="I35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J35" s="241" t="str">
+      <c r="J35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K35" s="241" t="str">
+      <c r="K35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="L35" s="241" t="str">
+      <c r="L35" s="240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="M35" s="242" t="str">
+      <c r="M35" s="241" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -7238,98 +7242,98 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="170" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="167">
+      <c r="B37" s="169" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="166">
         <v>113211</v>
       </c>
-      <c r="D37" s="167">
+      <c r="D37" s="166">
         <v>108954</v>
       </c>
-      <c r="E37" s="167">
+      <c r="E37" s="166">
         <v>104297</v>
       </c>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="168"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="167"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="166">
+      <c r="C38" s="165">
         <v>0</v>
       </c>
-      <c r="D38" s="166">
+      <c r="D38" s="165">
         <v>0</v>
       </c>
-      <c r="E38" s="166">
+      <c r="E38" s="165">
         <v>9302</v>
       </c>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="169"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="168"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="144" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="172">
+      <c r="B39" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="171">
         <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
         <v>0.46521117384550903</v>
       </c>
-      <c r="D39" s="172">
+      <c r="D39" s="171">
         <f t="shared" si="20"/>
         <v>0.44771813900737195</v>
       </c>
-      <c r="E39" s="172">
+      <c r="E39" s="171">
         <f t="shared" si="20"/>
         <v>0.42858140815437595</v>
       </c>
-      <c r="F39" s="172" t="str">
+      <c r="F39" s="171" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="G39" s="172" t="str">
+      <c r="G39" s="171" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H39" s="172" t="str">
+      <c r="H39" s="171" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I39" s="172" t="str">
+      <c r="I39" s="171" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J39" s="172" t="str">
+      <c r="J39" s="171" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K39" s="172" t="str">
+      <c r="K39" s="171" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L39" s="172" t="str">
+      <c r="L39" s="171" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M39" s="173" t="str">
+      <c r="M39" s="172" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7337,50 +7341,50 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="171" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="174">
+      <c r="B40" s="170" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="173">
         <f t="shared" ref="C40:M40" si="21">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="174">
+      <c r="D40" s="173">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E40" s="174">
+      <c r="E40" s="173">
         <f t="shared" si="21"/>
         <v>3.8224150825546324E-2</v>
       </c>
-      <c r="F40" s="174" t="str">
+      <c r="F40" s="173" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="G40" s="174" t="str">
+      <c r="G40" s="173" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H40" s="174" t="str">
+      <c r="H40" s="173" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I40" s="174" t="str">
+      <c r="I40" s="173" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J40" s="174" t="str">
+      <c r="J40" s="173" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K40" s="174" t="str">
+      <c r="K40" s="173" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L40" s="174" t="str">
+      <c r="L40" s="173" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M40" s="175" t="str">
+      <c r="M40" s="174" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -7448,7 +7452,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M42" s="211" t="str">
+      <c r="M42" s="210" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -7457,7 +7461,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
@@ -7499,7 +7503,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M43" s="212" t="str">
+      <c r="M43" s="211" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -7550,7 +7554,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M44" s="213" t="str">
+      <c r="M44" s="212" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -7601,7 +7605,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M45" s="212" t="str">
+      <c r="M45" s="211" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -7652,7 +7656,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M46" s="214" t="str">
+      <c r="M46" s="213" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7687,7 +7691,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="348" t="s">
+      <c r="C49" s="346" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -7703,9 +7707,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="343"/>
+      <c r="C50" s="341"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="343"/>
+      <c r="E50" s="341"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -7717,67 +7721,67 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="344" t="s">
-        <v>322</v>
-      </c>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="168"/>
+      <c r="B51" s="342" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
+      <c r="E51" s="166"/>
+      <c r="F51" s="166"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="166"/>
+      <c r="K51" s="166"/>
+      <c r="L51" s="166"/>
+      <c r="M51" s="167"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="345" t="s">
-        <v>323</v>
-      </c>
-      <c r="C52" s="346" t="str">
+      <c r="B52" s="343" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="344" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="346" t="str">
+      <c r="D52" s="344" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="346" t="str">
+      <c r="E52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="346" t="str">
+      <c r="F52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="346" t="str">
+      <c r="G52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="346" t="str">
+      <c r="H52" s="344" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="346" t="str">
+      <c r="I52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="346" t="str">
+      <c r="J52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="346" t="str">
+      <c r="K52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="346" t="str">
+      <c r="L52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="347" t="str">
+      <c r="M52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9165,10 +9169,10 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="268" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="269"/>
+      <c r="C2" s="268"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -9178,35 +9182,35 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="276">
+      <c r="D3" s="275">
         <v>2835244</v>
       </c>
-      <c r="E3" s="158" t="str">
+      <c r="E3" s="157" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="277" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="278">
+      <c r="H3" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="277">
         <v>2835244</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="279">
+      <c r="D4" s="278">
         <f>D3-I3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="152"/>
+      <c r="E4" s="151"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="61" t="s">
@@ -9272,21 +9276,21 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="270" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="257"/>
-      <c r="D9" s="274">
+      <c r="B9" s="269" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="256"/>
+      <c r="D9" s="273">
         <v>44926</v>
       </c>
-      <c r="E9" s="271" t="str">
+      <c r="E9" s="270" t="str">
         <f>IF(D9=Data!C3,"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -9302,7 +9306,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="64" t="s">
@@ -9426,7 +9430,7 @@
       <c r="H15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="157">
+      <c r="I15" s="156">
         <f>I26-SUM(I11:I14)</f>
         <v>729523</v>
       </c>
@@ -9446,15 +9450,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="206" t="s">
-        <v>250</v>
+      <c r="F16" s="205" t="s">
+        <v>249</v>
       </c>
       <c r="G16" s="95">
         <f>IF(F16="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="156"/>
+      <c r="I16" s="155"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.3">
@@ -9474,7 +9478,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="156"/>
+      <c r="I17" s="155"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.3">
@@ -9507,15 +9511,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="206" t="s">
-        <v>250</v>
+      <c r="F19" s="205" t="s">
+        <v>249</v>
       </c>
       <c r="G19" s="95">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="156"/>
+      <c r="I19" s="155"/>
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
@@ -9531,15 +9535,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="206" t="s">
-        <v>250</v>
+      <c r="F20" s="205" t="s">
+        <v>249</v>
       </c>
       <c r="G20" s="95">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="156"/>
+      <c r="I20" s="155"/>
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
@@ -9558,7 +9562,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="156"/>
+      <c r="I21" s="155"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -9667,7 +9671,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -9786,7 +9790,7 @@
       <c r="H32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I32" s="157">
+      <c r="I32" s="156">
         <f>I42-SUM(I28:I31)</f>
         <v>12579</v>
       </c>
@@ -9802,12 +9806,12 @@
       <c r="D33" s="66">
         <v>0.8</v>
       </c>
-      <c r="E33" s="222">
+      <c r="E33" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="206" t="s">
-        <v>251</v>
+      <c r="F33" s="205" t="s">
+        <v>250</v>
       </c>
       <c r="G33" s="95">
         <f>IF(F33="Y",0,1)</f>
@@ -9825,12 +9829,12 @@
       <c r="D34" s="66">
         <v>0.7</v>
       </c>
-      <c r="E34" s="222">
+      <c r="E34" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="206" t="s">
-        <v>250</v>
+      <c r="F34" s="205" t="s">
+        <v>249</v>
       </c>
       <c r="G34" s="95">
         <f>IF(F34="Y",0,1)</f>
@@ -9851,8 +9855,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="206" t="s">
-        <v>250</v>
+      <c r="F35" s="205" t="s">
+        <v>249</v>
       </c>
       <c r="G35" s="95">
         <f>IF(F35="Y",0,1)</f>
@@ -10060,7 +10064,7 @@
       <c r="H46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I46" s="157">
+      <c r="I46" s="156">
         <f>I26+I42</f>
         <v>748014</v>
       </c>
@@ -10080,11 +10084,11 @@
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B49" s="218" t="s">
-        <v>216</v>
+      <c r="B49" s="217" t="s">
+        <v>215</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="219" t="str">
+      <c r="D49" s="218" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10092,21 +10096,21 @@
     </row>
     <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="220">
+        <v>214</v>
+      </c>
+      <c r="C50" s="219">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="D50" s="216">
+      <c r="D50" s="215">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="220">
+      <c r="E50" s="219">
         <f>MAX(C50,C50*Dashboard!I10)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="159"/>
+      <c r="I50" s="158"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
@@ -10115,31 +10119,31 @@
     </row>
     <row r="52" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="76" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="419">
+      <c r="D52" s="420">
         <f>D53+D54+D55</f>
         <v>5912</v>
       </c>
-      <c r="E52" s="420"/>
+      <c r="E52" s="421"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
     </row>
     <row r="53" spans="2:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B53" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="422">
+      <c r="D53" s="423">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>5912</v>
       </c>
-      <c r="E53" s="414"/>
+      <c r="E53" s="360"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
@@ -10151,10 +10155,10 @@
         <v>140</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="429">
+      <c r="D54" s="430">
         <v>0</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="365"/>
       <c r="F54" s="6" t="s">
         <v>141</v>
       </c>
@@ -10165,10 +10169,10 @@
         <v>139</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="429">
+      <c r="D55" s="430">
         <v>0</v>
       </c>
-      <c r="E55" s="392"/>
+      <c r="E55" s="365"/>
       <c r="F55" s="5" t="s">
         <v>142</v>
       </c>
@@ -10183,24 +10187,24 @@
         <v>143</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="421"/>
-      <c r="E57" s="421"/>
+      <c r="D57" s="422"/>
+      <c r="E57" s="422"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="215">
+        <v>243</v>
+      </c>
+      <c r="C58" s="214">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>112359</v>
       </c>
-      <c r="D58" s="131">
+      <c r="D58" s="130">
         <f>IF(E58=0,0,E58/C58)</f>
         <v>0.85</v>
       </c>
-      <c r="E58" s="223">
+      <c r="E58" s="222">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E33*G33)+(E34*G34)+(E35*G35)</f>
         <v>95505.15</v>
       </c>
@@ -10210,15 +10214,15 @@
       <c r="B59" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="215">
+      <c r="C59" s="214">
         <f>C11+C12+C28</f>
         <v>1386983</v>
       </c>
-      <c r="D59" s="216">
+      <c r="D59" s="215">
         <f>IF(E59=0,0,E59/C59)</f>
         <v>1</v>
       </c>
-      <c r="E59" s="217">
+      <c r="E59" s="216">
         <f>E11+E12+E28</f>
         <v>1386983</v>
       </c>
@@ -10230,11 +10234,11 @@
         <v>144</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="427">
+      <c r="D60" s="428">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>940110</v>
       </c>
-      <c r="E60" s="428"/>
+      <c r="E60" s="429"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10243,41 +10247,41 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="295" t="s">
-        <v>274</v>
+      <c r="B62" s="294" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D63" s="425">
+        <v>274</v>
+      </c>
+      <c r="D63" s="426">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>8.5754920672350646E-2</v>
       </c>
-      <c r="E63" s="426"/>
+      <c r="E63" s="427"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="423">
+        <v>273</v>
+      </c>
+      <c r="D64" s="424">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="424"/>
-      <c r="F64" s="268" t="s">
-        <v>261</v>
+      <c r="E64" s="425"/>
+      <c r="F64" s="267" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="295" t="s">
-        <v>278</v>
-      </c>
-      <c r="D65" s="423">
+      <c r="B65" s="294" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" s="424">
         <f>D63</f>
         <v>8.5754920672350646E-2</v>
       </c>
-      <c r="E65" s="424"/>
+      <c r="E65" s="425"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10344,24 +10348,24 @@
     <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="288" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288">
+        <v>255</v>
+      </c>
+      <c r="C2" s="287" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287">
         <v>1</v>
       </c>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288">
+      <c r="F2" s="287"/>
+      <c r="G2" s="287">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="288">
+      <c r="I2" s="287">
         <v>3</v>
       </c>
-      <c r="J2" s="288"/>
+      <c r="J2" s="287"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10370,84 +10374,84 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="280">
+      <c r="C3" s="279">
         <f>Data!C3</f>
         <v>44742</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="280">
+        <v>257</v>
+      </c>
+      <c r="E3" s="279">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45107</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="280">
+        <v>257</v>
+      </c>
+      <c r="G3" s="279">
         <f>IF(G7="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45473</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="280">
+      <c r="I3" s="279">
         <f>IF(I14="","",EOMONTH(EDATE(G3,12),0))</f>
         <v>45838</v>
       </c>
-      <c r="J3" s="300"/>
+      <c r="J3" s="299"/>
       <c r="L3" s="73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="296" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="297">
+      <c r="B4" s="295" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="296">
         <v>798991</v>
       </c>
-      <c r="D4" s="262">
+      <c r="D4" s="261">
         <f>C4/C6</f>
         <v>0.13083981603616393</v>
       </c>
-      <c r="E4" s="297">
+      <c r="E4" s="296">
         <f>C4</f>
         <v>798991</v>
       </c>
-      <c r="F4" s="262">
+      <c r="F4" s="261">
         <f>E4/E6</f>
         <v>0.13083981603616393</v>
       </c>
-      <c r="G4" s="224"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="289"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="288"/>
       <c r="K4" s="6"/>
       <c r="L4" s="75"/>
       <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="296" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="297">
+      <c r="B5" s="295" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="296">
         <v>5307644</v>
       </c>
-      <c r="D5" s="262">
+      <c r="D5" s="261">
         <f>C5/C6</f>
         <v>0.8691601839638361</v>
       </c>
-      <c r="E5" s="297">
+      <c r="E5" s="296">
         <f>C5</f>
         <v>5307644</v>
       </c>
-      <c r="F5" s="262">
+      <c r="F5" s="261">
         <f>E5/E6</f>
         <v>0.8691601839638361</v>
       </c>
-      <c r="G5" s="224"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="289"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="288"/>
       <c r="K5" s="6"/>
       <c r="L5" s="75"/>
       <c r="M5" s="58"/>
@@ -10456,29 +10460,29 @@
       <c r="B6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="182">
+      <c r="C6" s="181">
         <f>C4+C5</f>
         <v>6106635</v>
       </c>
-      <c r="D6" s="261"/>
-      <c r="E6" s="342">
+      <c r="D6" s="260"/>
+      <c r="E6" s="340">
         <f>E4+E5</f>
         <v>6106635</v>
       </c>
-      <c r="F6" s="261"/>
-      <c r="G6" s="342">
+      <c r="F6" s="260"/>
+      <c r="G6" s="340">
         <f>E6*(1+Dashboard!D10)</f>
         <v>6284948.7419999996</v>
       </c>
-      <c r="H6" s="261"/>
-      <c r="I6" s="230">
+      <c r="H6" s="260"/>
+      <c r="I6" s="229">
         <f>G6*(1+Dashboard!D10)</f>
         <v>6468469.2452663993</v>
       </c>
-      <c r="J6" s="290"/>
+      <c r="J6" s="289"/>
       <c r="K6" s="6"/>
       <c r="L6" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M6" s="58"/>
     </row>
@@ -10486,23 +10490,23 @@
       <c r="B7" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="263"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="262"/>
       <c r="E7" s="18">
         <f>E6/C6-1</f>
         <v>0</v>
       </c>
-      <c r="F7" s="263"/>
+      <c r="F7" s="262"/>
       <c r="G7" s="74">
         <f>G6/E6-1</f>
         <v>2.9199999999999893E-2</v>
       </c>
-      <c r="H7" s="263"/>
+      <c r="H7" s="262"/>
       <c r="I7" s="74">
         <f>I6/G6-1</f>
         <v>2.9199999999999893E-2</v>
       </c>
-      <c r="J7" s="332"/>
+      <c r="J7" s="330"/>
       <c r="K7" s="6"/>
       <c r="L7" s="75"/>
       <c r="M7" s="58"/>
@@ -10511,53 +10515,53 @@
       <c r="B8" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="183">
+      <c r="C8" s="182">
         <f>Data!C9</f>
         <v>4963246</v>
       </c>
-      <c r="D8" s="264"/>
-      <c r="E8" s="229">
+      <c r="D8" s="263"/>
+      <c r="E8" s="228">
         <f>E6*(1-E9)</f>
         <v>4963246</v>
       </c>
-      <c r="F8" s="264"/>
-      <c r="G8" s="284">
+      <c r="F8" s="263"/>
+      <c r="G8" s="283">
         <f>IF(G6="","",G6*(1-G9))</f>
         <v>5020928.7728349995</v>
       </c>
-      <c r="H8" s="264"/>
-      <c r="I8" s="284">
+      <c r="H8" s="263"/>
+      <c r="I8" s="283">
         <f>IF(I6="","",I6*(1-I9))</f>
         <v>5077748.3575341236</v>
       </c>
-      <c r="J8" s="333"/>
+      <c r="J8" s="331"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="118"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="188">
+      <c r="C9" s="187">
         <f>(C6-C8)/C6</f>
         <v>0.18723716089139109</v>
       </c>
-      <c r="D9" s="188"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="74">
         <f>C9</f>
         <v>0.18723716089139109</v>
       </c>
-      <c r="F9" s="188"/>
+      <c r="F9" s="187"/>
       <c r="G9" s="74">
         <f>(E9+21.5%)/2</f>
         <v>0.20111858044569553</v>
       </c>
-      <c r="H9" s="188"/>
+      <c r="H9" s="187"/>
       <c r="I9" s="74">
         <v>0.215</v>
       </c>
-      <c r="J9" s="334"/>
+      <c r="J9" s="332"/>
       <c r="K9" s="6"/>
       <c r="L9" s="75"/>
     </row>
@@ -10584,7 +10588,7 @@
         <f>IF(I7="","",I6-I8)</f>
         <v>1390720.8877322758</v>
       </c>
-      <c r="J10" s="244"/>
+      <c r="J10" s="243"/>
       <c r="K10" s="6"/>
       <c r="L10" s="75"/>
     </row>
@@ -10592,24 +10596,24 @@
       <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="191">
+      <c r="C11" s="190">
         <f>C12/C6</f>
         <v>0.14702941963945773</v>
       </c>
-      <c r="D11" s="191"/>
-      <c r="E11" s="228">
+      <c r="D11" s="190"/>
+      <c r="E11" s="227">
         <v>0.15</v>
       </c>
-      <c r="F11" s="191"/>
+      <c r="F11" s="190"/>
       <c r="G11" s="66">
         <v>0.156</v>
       </c>
-      <c r="H11" s="191"/>
+      <c r="H11" s="190"/>
       <c r="I11" s="66">
         <f>G11</f>
         <v>0.156</v>
       </c>
-      <c r="J11" s="335"/>
+      <c r="J11" s="333"/>
       <c r="K11" s="6"/>
       <c r="L11" s="75"/>
     </row>
@@ -10617,26 +10621,26 @@
       <c r="B12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="184">
         <f>694554+203301</f>
         <v>897855</v>
       </c>
-      <c r="D12" s="265"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="77">
         <f>E6*E11</f>
         <v>915995.25</v>
       </c>
-      <c r="F12" s="265"/>
+      <c r="F12" s="264"/>
       <c r="G12" s="77">
         <f>G6*G11</f>
         <v>980452.00375199993</v>
       </c>
-      <c r="H12" s="265"/>
+      <c r="H12" s="264"/>
       <c r="I12" s="77">
         <f>I6*I11</f>
         <v>1009081.2022615583</v>
       </c>
-      <c r="J12" s="336"/>
+      <c r="J12" s="334"/>
       <c r="K12" s="6"/>
       <c r="L12" s="75"/>
     </row>
@@ -10663,7 +10667,7 @@
         <f>IF(I7="","",I15/I6)</f>
         <v>5.899999999999999E-2</v>
       </c>
-      <c r="J13" s="233"/>
+      <c r="J13" s="232"/>
       <c r="K13" s="6"/>
       <c r="L13" s="75"/>
       <c r="M13" s="58"/>
@@ -10672,125 +10676,125 @@
       <c r="B14" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="266"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="265"/>
       <c r="E14" s="14">
         <f>IF(ABS(C15+E15)=ABS(C15)+ABS(E15),IF(E15&lt;0,-1,1)*(E15-C15)/C15,"Turn")</f>
         <v>-7.3880806731450629E-2</v>
       </c>
-      <c r="F14" s="266"/>
+      <c r="F14" s="265"/>
       <c r="G14" s="14">
         <f>IF(G7="","",IF(ABS(E15+G15)=ABS(E15)+ABS(G15),IF(G15&lt;0,-1,1)*(G15-E15)/E15,"Turn"))</f>
         <v>0.24703500167880693</v>
       </c>
-      <c r="H14" s="266"/>
+      <c r="H14" s="265"/>
       <c r="I14" s="14">
         <f>IF(I7="","",IF(ABS(G15+I15)=ABS(G15)+ABS(I15),IF(I15&lt;0,-1,1)*(I15-G15)/G15,"Turn"))</f>
         <v>0.34584908036026407</v>
       </c>
-      <c r="J14" s="337"/>
+      <c r="J14" s="335"/>
       <c r="K14" s="6"/>
       <c r="L14" s="78"/>
       <c r="M14" s="79"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="323">
+      <c r="B15" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="322">
         <f>C10-C12</f>
         <v>245534</v>
       </c>
-      <c r="D15" s="324"/>
-      <c r="E15" s="323">
+      <c r="D15" s="323"/>
+      <c r="E15" s="322">
         <f>E10-E12</f>
         <v>227393.75</v>
       </c>
-      <c r="F15" s="324"/>
-      <c r="G15" s="323">
+      <c r="F15" s="323"/>
+      <c r="G15" s="322">
         <f>IF(G7="","",G10-G12)</f>
         <v>283567.9654130002</v>
       </c>
-      <c r="H15" s="324"/>
-      <c r="I15" s="323">
+      <c r="H15" s="323"/>
+      <c r="I15" s="322">
         <f>IF(I7="","",I10-I12)</f>
         <v>381639.68547071749</v>
       </c>
-      <c r="J15" s="338"/>
+      <c r="J15" s="336"/>
       <c r="K15" s="6"/>
       <c r="L15" s="80"/>
       <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="319" t="s">
+      <c r="B16" s="318" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="320">
+      <c r="C16" s="319">
         <v>0.25</v>
       </c>
-      <c r="D16" s="321"/>
-      <c r="E16" s="322">
+      <c r="D16" s="320"/>
+      <c r="E16" s="321">
         <f>IF(E15="","",C16)</f>
         <v>0.25</v>
       </c>
-      <c r="F16" s="322"/>
-      <c r="G16" s="322">
+      <c r="F16" s="321"/>
+      <c r="G16" s="321">
         <f>IF(G15="","",E16)</f>
         <v>0.25</v>
       </c>
-      <c r="H16" s="322"/>
-      <c r="I16" s="322">
+      <c r="H16" s="321"/>
+      <c r="I16" s="321">
         <f>IF(I15="","",G16)</f>
         <v>0.25</v>
       </c>
-      <c r="J16" s="339"/>
+      <c r="J16" s="337"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="328" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="330"/>
-      <c r="E17" s="329">
+      <c r="B17" s="327" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="189"/>
+      <c r="D17" s="329"/>
+      <c r="E17" s="328">
         <f>E18/C18-1</f>
         <v>-7.3880806731450588E-2</v>
       </c>
-      <c r="F17" s="329"/>
-      <c r="G17" s="329">
+      <c r="F17" s="328"/>
+      <c r="G17" s="328">
         <f>IF(G18="","",G18/E18-1)</f>
         <v>0.24703500167880699</v>
       </c>
-      <c r="H17" s="329"/>
-      <c r="I17" s="329">
+      <c r="H17" s="328"/>
+      <c r="I17" s="328">
         <f>IF(I18="","",I18/G18-1)</f>
         <v>0.34584908036026407</v>
       </c>
-      <c r="J17" s="340"/>
+      <c r="J17" s="338"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="325" t="s">
+      <c r="B18" s="324" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="326">
+      <c r="C18" s="325">
         <f>IF(C15&lt;=0,C15,C15*(1-C16))</f>
         <v>184150.5</v>
       </c>
-      <c r="D18" s="326"/>
-      <c r="E18" s="327">
+      <c r="D18" s="325"/>
+      <c r="E18" s="326">
         <f>IF(E15="","",IF(E15&lt;=0,E15,E15*(1-E16)))</f>
         <v>170545.3125</v>
       </c>
-      <c r="F18" s="326"/>
-      <c r="G18" s="327">
+      <c r="F18" s="325"/>
+      <c r="G18" s="326">
         <f>IF(G15="","",IF(G15&lt;=0,G15,G15*(1-G16)))</f>
         <v>212675.97405975015</v>
       </c>
-      <c r="H18" s="326"/>
-      <c r="I18" s="327">
+      <c r="H18" s="325"/>
+      <c r="I18" s="326">
         <f>IF(I15="","",IF(I15&lt;=0,I15,I15*(1-I16)))</f>
         <v>286229.76410303812</v>
       </c>
-      <c r="J18" s="341"/>
+      <c r="J18" s="339"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11724,7 +11728,7 @@
   <dimension ref="A1:J922"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11745,21 +11749,21 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="288" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="288">
+        <v>231</v>
+      </c>
+      <c r="C2" s="287" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="287">
         <v>1</v>
       </c>
-      <c r="E2" s="288">
+      <c r="E2" s="287">
         <v>2</v>
       </c>
-      <c r="F2" s="288">
+      <c r="F2" s="287">
         <v>3</v>
       </c>
-      <c r="G2" s="288" t="str">
+      <c r="G2" s="287" t="str">
         <f>B24</f>
         <v>Exit after Year 3</v>
       </c>
@@ -11771,24 +11775,24 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="280">
+      <c r="C3" s="279">
         <f>Operation!C3</f>
         <v>44742</v>
       </c>
-      <c r="D3" s="280">
+      <c r="D3" s="279">
         <f>Operation!E3</f>
         <v>45107</v>
       </c>
-      <c r="E3" s="280">
+      <c r="E3" s="279">
         <f>Operation!G3</f>
         <v>45473</v>
       </c>
-      <c r="F3" s="280">
+      <c r="F3" s="279">
         <f>Operation!I3</f>
         <v>45838</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I3" s="73" t="s">
         <v>145</v>
@@ -11798,7 +11802,7 @@
       <c r="B4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="184">
+      <c r="C4" s="183">
         <f>Operation!C18</f>
         <v>184150.5</v>
       </c>
@@ -11810,11 +11814,11 @@
         <f>Operation!G18</f>
         <v>212675.97405975015</v>
       </c>
-      <c r="F4" s="203">
+      <c r="F4" s="202">
         <f>Operation!I18</f>
         <v>286229.76410303812</v>
       </c>
-      <c r="G4" s="307">
+      <c r="G4" s="306">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>3</v>
       </c>
@@ -11824,22 +11828,22 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="260">
+        <v>292</v>
+      </c>
+      <c r="C5" s="258"/>
+      <c r="D5" s="259">
         <f>D4/C4-1</f>
         <v>-7.3880806731450588E-2</v>
       </c>
-      <c r="E5" s="260">
+      <c r="E5" s="259">
         <f>IF(E4="","",E4/D4-1)</f>
         <v>0.24703500167880699</v>
       </c>
-      <c r="F5" s="260">
+      <c r="F5" s="259">
         <f>IF(F4="","",F4/E4-1)</f>
         <v>0.34584908036026407</v>
       </c>
-      <c r="G5" s="200"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="6"/>
       <c r="I5" s="80"/>
       <c r="J5" s="57"/>
@@ -11851,40 +11855,40 @@
       <c r="C6" s="66">
         <v>0.38619999999999999</v>
       </c>
-      <c r="D6" s="228">
+      <c r="D6" s="227">
         <v>0.38619999999999999</v>
       </c>
       <c r="E6" s="66">
         <v>0.38619999999999999</v>
       </c>
-      <c r="F6" s="312">
+      <c r="F6" s="311">
         <v>0.38619999999999999</v>
       </c>
-      <c r="G6" s="201"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="6"/>
       <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="313">
+        <v>278</v>
+      </c>
+      <c r="C7" s="312">
         <f>C4*C6</f>
         <v>71118.9231</v>
       </c>
-      <c r="D7" s="313">
+      <c r="D7" s="312">
         <f>D4*D6</f>
         <v>65864.599687499998</v>
       </c>
-      <c r="E7" s="314">
+      <c r="E7" s="313">
         <f>E4*E6</f>
         <v>82135.461181875507</v>
       </c>
-      <c r="F7" s="314">
+      <c r="F7" s="313">
         <f>F4*F6</f>
         <v>110541.93489659332</v>
       </c>
-      <c r="G7" s="202"/>
+      <c r="G7" s="201"/>
       <c r="H7" s="83"/>
       <c r="I7" s="57"/>
       <c r="J7" s="57"/>
@@ -11893,23 +11897,23 @@
       <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="194">
+      <c r="C8" s="193">
         <f>IF(C4="","",C4-C7)</f>
         <v>113031.5769</v>
       </c>
-      <c r="D8" s="193">
+      <c r="D8" s="192">
         <f>D4-D7</f>
         <v>104680.7128125</v>
       </c>
-      <c r="E8" s="193">
+      <c r="E8" s="192">
         <f>IF(E4="","",E4-E7)</f>
         <v>130540.51287787464</v>
       </c>
-      <c r="F8" s="193">
+      <c r="F8" s="192">
         <f>IF(F4="","",F4-F7)</f>
         <v>175687.82920644479</v>
       </c>
-      <c r="G8" s="231">
+      <c r="G8" s="230">
         <f>IF(F4="",IF(E4="",D8,E8),F8)</f>
         <v>175687.82920644479</v>
       </c>
@@ -11918,26 +11922,26 @@
       <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="205" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="195">
+      <c r="B9" s="204" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="194">
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.46447388125939987</v>
       </c>
-      <c r="D9" s="309">
+      <c r="D9" s="308">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.4301581762062674</v>
       </c>
-      <c r="E9" s="309">
+      <c r="E9" s="308">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.53642230198753527</v>
       </c>
-      <c r="F9" s="309">
+      <c r="F9" s="308">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v>0.72194346181466007</v>
       </c>
-      <c r="G9" s="310">
+      <c r="G9" s="309">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>0.72194346181466007</v>
       </c>
@@ -11946,73 +11950,57 @@
       <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="236" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="315">
+      <c r="B10" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="314">
         <f>C11/C9</f>
         <v>1.0334273236172113</v>
       </c>
-      <c r="D10" s="315">
+      <c r="D10" s="314">
         <f>D11/D9</f>
         <v>0.65092334747517566</v>
       </c>
-      <c r="E10" s="331">
-        <v>0.65</v>
-      </c>
-      <c r="F10" s="331">
-        <v>0.65</v>
-      </c>
-      <c r="G10" s="237"/>
+      <c r="E10" s="348"/>
+      <c r="F10" s="348"/>
+      <c r="G10" s="236"/>
       <c r="H10" s="83"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="236" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="286">
+      <c r="B11" s="235" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="285">
         <f>0.33+0.15</f>
         <v>0.48</v>
       </c>
-      <c r="D11" s="287">
+      <c r="D11" s="286">
         <f>0.1+0.18</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E11" s="287">
-        <f>E9*E10</f>
-        <v>0.34867449629189795</v>
-      </c>
-      <c r="F11" s="287">
-        <f>F9*F10</f>
-        <v>0.46926325017952908</v>
-      </c>
-      <c r="G11" s="285"/>
+      <c r="E11" s="349"/>
+      <c r="F11" s="349"/>
+      <c r="G11" s="284"/>
       <c r="H11" s="83"/>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="238">
+        <v>293</v>
+      </c>
+      <c r="C12" s="237">
         <v>0</v>
       </c>
-      <c r="D12" s="238">
+      <c r="D12" s="237">
         <f>D11</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E12" s="238">
-        <f>E11</f>
-        <v>0.34867449629189795</v>
-      </c>
-      <c r="F12" s="238">
-        <f>F11</f>
-        <v>0.46926325017952908</v>
-      </c>
-      <c r="G12" s="232">
+      <c r="E12" s="350"/>
+      <c r="F12" s="350"/>
+      <c r="G12" s="231">
         <f>G9*D26</f>
         <v>7.2194346181466003</v>
       </c>
@@ -12024,8 +12012,8 @@
       <c r="B13" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="192"/>
-      <c r="D13" s="225">
+      <c r="C13" s="191"/>
+      <c r="D13" s="224">
         <f ca="1">Dashboard!C12</f>
         <v>9.6000000000000002E-2</v>
       </c>
@@ -12037,7 +12025,7 @@
         <f ca="1">IF(F4="","",D13)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G13" s="233">
+      <c r="G13" s="232">
         <f ca="1">Dashboard!C12</f>
         <v>9.6000000000000002E-2</v>
       </c>
@@ -12049,20 +12037,20 @@
       <c r="B14" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="226">
+      <c r="C14" s="115"/>
+      <c r="D14" s="225">
         <f ca="1">IF(D4="","",1+D13)</f>
         <v>1.0960000000000001</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="226">
         <f ca="1">IF(E4="","",(1+D13)*(1+E13))</f>
         <v>1.2012160000000003</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="226">
         <f ca="1">IF(F4="","",(1+D13)*(1+E13)*(1+F13))</f>
         <v>1.3165327360000003</v>
       </c>
-      <c r="G14" s="234">
+      <c r="G14" s="233">
         <f ca="1">IF(F4="",IF(E4="",D14,E14),F14)*(1+G13)</f>
         <v>1.4429198786560005</v>
       </c>
@@ -12072,25 +12060,25 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="239">
+        <v>226</v>
+      </c>
+      <c r="C15" s="238">
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
-        <f ca="1">IF(D12="","",IF(D12=0,0,D12/D14))</f>
+      <c r="D15" s="196">
+        <f ca="1">IF(D12="","",MAX(D9-D11,D12)/D14)</f>
         <v>0.25547445255474455</v>
       </c>
-      <c r="E15" s="198">
-        <f ca="1">IF(E12="","",IF(E12=0,0,E12/E14))</f>
-        <v>0.29026794206195877</v>
-      </c>
-      <c r="F15" s="198">
-        <f ca="1">IF(F12="","",IF(F12=0,0,F12/F14))</f>
-        <v>0.35643872525743936</v>
-      </c>
-      <c r="G15" s="235">
+      <c r="E15" s="197">
+        <f ca="1">IF(E9="","",E9/E14)</f>
+        <v>0.44656606471070576</v>
+      </c>
+      <c r="F15" s="197">
+        <f ca="1">IF(F9="","",F9/F14)</f>
+        <v>0.5483672696268298</v>
+      </c>
+      <c r="G15" s="234">
         <f ca="1">IF(G12=0,0,G12/G14)</f>
         <v>5.0033510002447965</v>
       </c>
@@ -12100,78 +12088,78 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="6"/>
-      <c r="G16" s="117"/>
+      <c r="G16" s="116"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="196" t="str">
+        <v>227</v>
+      </c>
+      <c r="C17" s="195" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" s="85">
         <f>Asset_Model!E59</f>
         <v>1386983</v>
       </c>
-      <c r="D18" s="221">
+      <c r="D18" s="220">
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>5.6994460744429922</v>
       </c>
       <c r="E18" s="86" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="139">
+        <v>244</v>
+      </c>
+      <c r="G18" s="138">
         <f>C18+C19+C20+C21</f>
         <v>1476576.15</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" s="85">
         <f>Asset_Model!E58</f>
         <v>95505.15</v>
       </c>
-      <c r="D19" s="221">
+      <c r="D19" s="220">
         <f>C19/(Dashboard!I5/Data!C4)</f>
         <v>0.3924535861337804</v>
       </c>
       <c r="E19" s="86" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="199">
+        <v>245</v>
+      </c>
+      <c r="G19" s="198">
         <f>G18*Data!C$4/Dashboard!I5</f>
         <v>6.067605833477157</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="85">
         <f>-Asset_Model!D52</f>
         <v>-5912</v>
       </c>
-      <c r="D20" s="221">
+      <c r="D20" s="220">
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-2.4293827099616198E-2</v>
       </c>
-      <c r="E20" s="432" t="str">
+      <c r="E20" s="433" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F20" s="148" t="s">
-        <v>253</v>
+      <c r="F20" s="147" t="s">
+        <v>252</v>
       </c>
       <c r="G20" s="88" t="s">
         <v>23</v>
@@ -12179,22 +12167,22 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="85">
         <f>-Asset_Model!E50</f>
         <v>0</v>
       </c>
-      <c r="D21" s="221">
+      <c r="D21" s="220">
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="432"/>
-      <c r="F21" s="150">
+      <c r="E21" s="433"/>
+      <c r="F21" s="149">
         <f>D18</f>
         <v>5.6994460744429922</v>
       </c>
-      <c r="G21" s="149">
+      <c r="G21" s="148">
         <f>SUM(D19:D21)</f>
         <v>0.3681597590341642</v>
       </c>
@@ -12205,37 +12193,37 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="196" t="str">
+        <v>230</v>
+      </c>
+      <c r="C23" s="195" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="435" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="435"/>
-      <c r="G23" s="435"/>
+      <c r="E23" s="436" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="436"/>
+      <c r="G23" s="436"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="129" t="str">
+      <c r="B24" s="128" t="str">
         <f>"Exit after Year "&amp;G4</f>
         <v>Exit after Year 3</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="128" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="203" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="307" t="s">
         <v>234</v>
       </c>
-      <c r="D24" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="308" t="s">
+      <c r="F24" s="266" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="266" t="s">
         <v>235</v>
-      </c>
-      <c r="F24" s="267" t="s">
-        <v>237</v>
-      </c>
-      <c r="G24" s="267" t="s">
-        <v>236</v>
       </c>
       <c r="I24" s="87" t="s">
         <v>145</v>
@@ -12243,48 +12231,48 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="C25" s="14">
         <f>1/D25</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D25" s="301">
+      <c r="D25" s="300">
         <v>6</v>
       </c>
-      <c r="E25" s="208">
+      <c r="E25" s="207">
         <f ca="1">G9*D25/G14</f>
         <v>3.0020106001468783</v>
       </c>
-      <c r="F25" s="433">
+      <c r="F25" s="434">
         <f ca="1">SUM(C15:F15)</f>
-        <v>0.90218111987414262</v>
-      </c>
-      <c r="G25" s="208">
+        <v>1.25040778689228</v>
+      </c>
+      <c r="G25" s="207">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>9.9717975534981775</v>
+        <v>10.320024220516316</v>
       </c>
       <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="305" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="306">
+      <c r="B26" s="304" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="305">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>0.1</v>
       </c>
-      <c r="D26" s="318">
+      <c r="D26" s="317">
         <v>10</v>
       </c>
-      <c r="E26" s="209">
+      <c r="E26" s="208">
         <f ca="1">G9*D26/G14</f>
         <v>5.0033510002447965</v>
       </c>
-      <c r="F26" s="434"/>
-      <c r="G26" s="209">
+      <c r="F26" s="435"/>
+      <c r="G26" s="208">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>11.973137953596096</v>
+        <v>12.321364620614233</v>
       </c>
       <c r="I26" s="75"/>
     </row>
@@ -12300,14 +12288,14 @@
       <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="252" t="str">
+      <c r="C28" s="251" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="12"/>
       <c r="I28" s="91"/>
     </row>
@@ -12316,17 +12304,17 @@
       <c r="B29" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="254">
-        <f ca="1">MIN(Asset_Model!D7,G25)+(ABS(Asset_Model!D7-G25)*'Qualitative Analysis'!E65)*Exchange_Rate</f>
-        <v>9.0838272445177033</v>
+      <c r="C29" s="253">
+        <f ca="1">MIN(Asset_Model!D7,G25)+(ABS(Asset_Model!D7-G25)*'Qualitative Analysis'!E8)*Exchange_Rate</f>
+        <v>9.555951463141108</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
-      <c r="E29" s="253">
+      <c r="E29" s="252">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>11.973137953596096</v>
+        <v>12.321364620614233</v>
       </c>
       <c r="F29" s="31"/>
       <c r="H29" s="6"/>
@@ -12334,21 +12322,21 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="126"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="125"/>
       <c r="H30" s="6"/>
       <c r="I30" s="89"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="430" t="s">
+      <c r="C31" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="431"/>
+      <c r="D31" s="432"/>
       <c r="E31" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>18</v>
@@ -12357,50 +12345,50 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="258" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="255">
-        <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$9</f>
-        <v>11.279703383417282</v>
-      </c>
-      <c r="D32" s="121" t="str">
+      <c r="B32" s="257" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="254">
+        <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
+        <v>11.45531529088143</v>
+      </c>
+      <c r="D32" s="120" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E32" s="121">
         <f ca="1">(C32-G19)/C9</f>
-        <v>11.221508378055098</v>
-      </c>
-      <c r="F32" s="160">
+        <v>11.599596177067573</v>
+      </c>
+      <c r="F32" s="159">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.9276261951740209</v>
+        <v>0.94206825982863829</v>
       </c>
       <c r="G32" s="88"/>
       <c r="H32" s="6"/>
       <c r="I32" s="75"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="257" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" s="256">
+      <c r="B33" s="256" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="255">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>12.794140689046326</v>
-      </c>
-      <c r="D33" s="210" t="str">
+        <v>13.142367356064465</v>
+      </c>
+      <c r="D33" s="209" t="str">
         <f>D32</f>
         <v>HKD</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E33" s="121">
         <f ca="1">(C33-G19)/C9</f>
-        <v>14.482051902101524</v>
-      </c>
-      <c r="F33" s="160">
+        <v>15.231774719827976</v>
+      </c>
+      <c r="F33" s="159">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.0521712889497634</v>
-      </c>
-      <c r="G33" s="283">
+        <v>1.0808089372286231</v>
+      </c>
+      <c r="G33" s="282">
         <f>Dashboard!D10+4.5%</f>
         <v>7.4200000000000002E-2</v>
       </c>
@@ -13301,7 +13289,7 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F15">
+  <conditionalFormatting sqref="E4:F9 E13:F15">
     <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
@@ -13321,10 +13309,10 @@
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:H78"/>
+  <dimension ref="A2:H77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13352,54 +13340,60 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="95">
+        <f>IF(E3="Strongly disagree",0,IF(E3="disagree",1,IF(E3="unclear",2,IF(E3="agree",3,4))))</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="80" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="98"/>
+        <v>305</v>
+      </c>
+      <c r="C4" s="97"/>
       <c r="D4" s="95">
-        <f>IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
-        <v>2</v>
+        <f t="shared" ref="D4" si="0">IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
+        <v>4</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>307</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="98"/>
+        <v>298</v>
+      </c>
+      <c r="C5" s="97"/>
       <c r="D5" s="95">
-        <f t="shared" ref="D5" si="0">IF(E5="Strongly disagree",0,IF(E5="disagree",1,IF(E5="unclear",2,IF(E5="agree",3,4))))</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>170</v>
+        <f>AVERAGE(D12:D16)</f>
+        <v>2.8</v>
+      </c>
+      <c r="E5" s="103" t="str">
+        <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
+        <v>agree</v>
       </c>
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="98"/>
+        <v>299</v>
+      </c>
+      <c r="C6" s="97"/>
       <c r="D6" s="95">
-        <f>AVERAGE(D13:D17)</f>
-        <v>2.8</v>
-      </c>
-      <c r="E6" s="104" t="str">
+        <f>AVERAGE(D24:D28)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E6" s="103" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>agree</v>
       </c>
@@ -13407,998 +13401,983 @@
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="101">
+        <f>IF(E7="Strongly disagree",0,IF(E7="disagree",1,IF(E7="unclear",2,IF(E7="agree",3,4))))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="102" t="str">
+        <f>IF(D64&gt;=3.5,"Strongly agree",IF(D64&gt;=2.5,"agree",IF(D64&gt;=1.5,"unclear",IF(D64&gt;=0.5,"disagree","Strongly disagree"))))</f>
+        <v>agree</v>
+      </c>
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B8" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="95">
+        <f>AVERAGE(D3:D7)</f>
+        <v>3.04</v>
+      </c>
+      <c r="E8" s="99">
+        <f>D8/4</f>
+        <v>0.76</v>
+      </c>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="12"/>
+      <c r="G10" s="297"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="94"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="297"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="95">
-        <f>AVERAGE(D25:D29)</f>
-        <v>3.4</v>
-      </c>
-      <c r="E7" s="104" t="str">
-        <f>IF(D7&gt;=3.5,"Strongly agree",IF(D7&gt;=2.5,"agree",IF(D7&gt;=1.5,"unclear",IF(D7&gt;=0.5,"disagree","Strongly disagree"))))</f>
-        <v>agree</v>
-      </c>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="D12" s="101">
+        <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="297" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="102">
-        <f>IF(E8="Strongly disagree",0,IF(E8="disagree",1,IF(E8="unclear",2,IF(E8="agree",3,4))))</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="103" t="str">
-        <f>IF(D65&gt;=3.5,"Strongly agree",IF(D65&gt;=2.5,"agree",IF(D65&gt;=1.5,"unclear",IF(D65&gt;=0.5,"disagree","Strongly disagree"))))</f>
-        <v>agree</v>
-      </c>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B9" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="95">
-        <f>AVERAGE(D4:D8)</f>
-        <v>3.04</v>
-      </c>
-      <c r="E9" s="100">
-        <f>D9/4</f>
-        <v>0.76</v>
-      </c>
-      <c r="G9" s="78"/>
-    </row>
-    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="78"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="298"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="298"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="102">
+        <v>164</v>
+      </c>
+      <c r="D13" s="101">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="298" t="s">
-        <v>306</v>
-      </c>
+      <c r="G13" s="297"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="101">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="298"/>
+      <c r="G14" s="297"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="101">
         <f>IF(E15="Strongly disagree",0,IF(E15="disagree",1,IF(E15="unclear",2,IF(E15="agree",3,4))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="298"/>
+      <c r="G15" s="297"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="102">
+        <v>168</v>
+      </c>
+      <c r="D16" s="101">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="298"/>
+      <c r="G16" s="297"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="102">
-        <f>IF(E17="Strongly disagree",0,IF(E17="disagree",1,IF(E17="unclear",2,IF(E17="agree",3,4))))</f>
+      <c r="B17" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="23"/>
+      <c r="G17" s="297"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="101">
+        <f>IF(E18="Strongly disagree",0,IF(E18="disagree",1,IF(E18="unclear",2,IF(E18="agree",3,4))))</f>
         <v>4</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="298"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="23"/>
-      <c r="G18" s="298"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="102">
-        <f>IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
-        <v>4</v>
-      </c>
-      <c r="E19" s="50" t="str">
+      <c r="E18" s="50" t="str">
         <f>IF(OR(Asset_Model!I24&lt;0.8,Asset_Model!I44&lt;0.6),"Strongly disagree",
 IF(OR(Asset_Model!I24&lt;1,Asset_Model!I44&lt;0.8),"unclear", IF(OR(Asset_Model!I24&lt;1.8,Asset_Model!I44&lt;1.4),"agree","Strongly agree"))
 )</f>
         <v>Strongly agree</v>
       </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="297"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="101">
+        <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="298"/>
+      <c r="G19" s="297"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="102">
-        <f t="shared" ref="D20:D23" si="1">IF(E20="Strongly disagree",0,IF(E20="disagree",1,IF(E20="unclear",2,IF(E20="agree",3,4))))</f>
-        <v>4</v>
+      <c r="D20" s="101">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="298"/>
+      <c r="G20" s="297"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="102">
+      <c r="D21" s="101">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="298"/>
+      <c r="G21" s="297"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="102">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="298"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="102">
+      <c r="D22" s="101">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="298"/>
+      <c r="E22" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="297"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="23"/>
+      <c r="G23" s="297"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="23"/>
-      <c r="G24" s="298"/>
+      <c r="D24" s="101">
+        <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
+        <v>4</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="297"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="102">
-        <f t="shared" ref="D25:D29" si="2">IF(E25="Strongly disagree",0,IF(E25="disagree",1,IF(E25="unclear",2,IF(E25="agree",3,4))))</f>
-        <v>4</v>
+      <c r="D25" s="101">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="298"/>
+      <c r="G25" s="297"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="102">
+        <v>306</v>
+      </c>
+      <c r="D26" s="101">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="297"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="101">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="298"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="102">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="E27" s="32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="298"/>
+      <c r="G27" s="297"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="102">
+        <v>179</v>
+      </c>
+      <c r="D28" s="101">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="298"/>
+      <c r="G28" s="297"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="102">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="298"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="23"/>
+      <c r="G29" s="297"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="23"/>
-      <c r="G30" s="298"/>
+      <c r="D30" s="104">
+        <f>SUM(D31:D35)/(5*4)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E30" s="50" t="str">
+        <f>IF(D30&gt;80%,"Very High",IF(D30&lt;=20%,"Very Low",IF(D30&lt;=40%,"Low",IF(D30&lt;=60%,"Medium","High"))))</f>
+        <v>Medium</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="297"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="105">
-        <f>SUM(D32:D36)/(5*4)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E31" s="50" t="str">
-        <f>IF(D31&gt;80%,"Very High",IF(D31&lt;=20%,"Very Low",IF(D31&lt;=40%,"Low",IF(D31&lt;=60%,"Medium","High"))))</f>
-        <v>Medium</v>
+      <c r="D31" s="101">
+        <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="298"/>
+      <c r="G31" s="297"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="102">
-        <f t="shared" ref="D32:D36" si="3">IF(E32="Strongly disagree",0,IF(E32="disagree",1,IF(E32="unclear",2,IF(E32="agree",3,4))))</f>
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="D32" s="101">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="298"/>
+      <c r="G32" s="297"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="D33" s="102">
+        <v>309</v>
+      </c>
+      <c r="D33" s="101">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="298"/>
+      <c r="G33" s="297"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="D34" s="102">
+        <v>310</v>
+      </c>
+      <c r="D34" s="101">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="297"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D35" s="101">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="298"/>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="D35" s="102">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="E35" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="298"/>
+        <v>160</v>
+      </c>
+      <c r="G35" s="297"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="D36" s="102">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="298"/>
+      <c r="B36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="104">
+        <f>SUM(D37:D41)/(5*4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="50" t="str">
+        <f>IF(D36&gt;80%,"Very High",IF(D36&lt;=20%,"Very Low",IF(D36&lt;=40%,"Low",IF(D36&lt;=60%,"Medium","High"))))</f>
+        <v>Very Low</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="297"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="105">
-        <f>SUM(D38:D42)/(5*4)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="50" t="str">
-        <f>IF(D37&gt;80%,"Very High",IF(D37&lt;=20%,"Very Low",IF(D37&lt;=40%,"Low",IF(D37&lt;=60%,"Medium","High"))))</f>
-        <v>Very Low</v>
+      <c r="D37" s="101">
+        <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="298"/>
+      <c r="G37" s="297"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="102">
-        <f t="shared" ref="D38:D42" si="4">IF(E38="Strongly disagree",0,IF(E38="disagree",1,IF(E38="unclear",2,IF(E38="agree",3,4))))</f>
+        <v>312</v>
+      </c>
+      <c r="D38" s="101">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="298"/>
+      <c r="G38" s="297"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="D39" s="102">
+        <v>313</v>
+      </c>
+      <c r="D39" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="298"/>
+      <c r="G39" s="297"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="D40" s="102">
+        <v>314</v>
+      </c>
+      <c r="D40" s="101">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="297"/>
+    </row>
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="298"/>
-    </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="102">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
       <c r="E41" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="298"/>
+        <v>183</v>
+      </c>
+      <c r="G41" s="297"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="D42" s="102">
-        <f t="shared" si="4"/>
+      <c r="B42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="104">
+        <f>SUM(D43:D48)/(6*4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="50" t="str">
+        <f>IF(D42&gt;80%,"Very High",IF(D42&lt;=20%,"Very Low",IF(D42&lt;=40%,"Low",IF(D42&lt;=60%,"Medium","High"))))</f>
+        <v>Low</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="297"/>
+    </row>
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="101">
+        <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
         <v>0</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="298"/>
-    </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" s="105">
-        <f>SUM(D44:D49)/(6*4)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E43" s="50" t="str">
-        <f>IF(D43&gt;80%,"Very High",IF(D43&lt;=20%,"Very Low",IF(D43&lt;=40%,"Low",IF(D43&lt;=60%,"Medium","High"))))</f>
-        <v>Low</v>
+      <c r="E43" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="298"/>
+      <c r="G43" s="297"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="102">
-        <f t="shared" ref="D44:D49" si="5">IF(E44="Strongly disagree",0,IF(E44="disagree",1,IF(E44="unclear",2,IF(E44="agree",3,4))))</f>
-        <v>0</v>
+      <c r="D44" s="101">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="298"/>
+      <c r="G44" s="297"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="102">
+      <c r="D45" s="101">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="298"/>
+      <c r="G45" s="297"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="102">
+      <c r="D46" s="101">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="298"/>
+      <c r="G46" s="297"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="102">
+      <c r="D47" s="101">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="298"/>
+      <c r="G47" s="297"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="298"/>
-    </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="102">
+        <v>217</v>
+      </c>
+      <c r="D48" s="101">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E49" s="32" t="s">
-        <v>168</v>
+      <c r="E48" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="297"/>
+    </row>
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="104">
+        <f>SUM(D50:D54)/(5*4)</f>
+        <v>0.55510204081632653</v>
+      </c>
+      <c r="E49" s="50" t="str">
+        <f>IF(D49&gt;80%,"Very High",IF(D49&lt;=20%,"Very Low",IF(D49&lt;=40%,"Low",IF(D49&lt;=60%,"Medium","High"))))</f>
+        <v>Medium</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="298"/>
+      <c r="G49" s="297"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="105">
-        <f>SUM(D51:D55)/(5*4)</f>
-        <v>0.55510204081632653</v>
-      </c>
-      <c r="E50" s="50" t="str">
-        <f>IF(D50&gt;80%,"Very High",IF(D50&lt;=20%,"Very Low",IF(D50&lt;=40%,"Low",IF(D50&lt;=60%,"Medium","High"))))</f>
-        <v>Medium</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="298"/>
+      <c r="D50" s="101">
+        <f t="shared" ref="D50:D52" si="6">IF(E50="Strongly disagree",0,IF(E50="disagree",1,IF(E50="unclear",2,IF(E50="agree",3,4))))</f>
+        <v>2</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="297"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="102">
-        <f t="shared" ref="D51:D53" si="6">IF(E51="Strongly disagree",0,IF(E51="disagree",1,IF(E51="unclear",2,IF(E51="agree",3,4))))</f>
-        <v>2</v>
+      <c r="D51" s="101">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="298"/>
+        <v>183</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="297"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="102">
+        <v>316</v>
+      </c>
+      <c r="D52" s="101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="298"/>
+        <v>159</v>
+      </c>
+      <c r="G52" s="297"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="102">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>317</v>
+      </c>
+      <c r="D53" s="101">
+        <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
+        <v>4</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="298"/>
+        <v>169</v>
+      </c>
+      <c r="F53" s="54"/>
+      <c r="G53" s="297"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="D54" s="102">
-        <f>IF(E54="Strongly disagree",0,IF(E54="disagree",1,IF(E54="unclear",2,IF(E54="agree",3,4))))</f>
-        <v>4</v>
+        <v>318</v>
+      </c>
+      <c r="D54" s="105">
+        <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
+        <v>3.1020408163265305</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="F54" s="54"/>
-      <c r="G54" s="298"/>
+      <c r="G54" s="297"/>
       <c r="H54" s="54"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="54" t="s">
-        <v>321</v>
+      <c r="B55" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D55" s="106">
-        <f t="array" ref="D55">(1-INDEX(B69:E78,MATCH(E55,B69:B78,0),4))*4</f>
-        <v>3.1020408163265305</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>286</v>
+        <f>SUM(D56:D61)/(6*4)</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E55" s="50" t="str">
+        <f>IF(D55&gt;80%,"Very High",IF(D55&lt;=20%,"Very Low",IF(D55&lt;=40%,"Low",IF(D55&lt;=60%,"Medium","High"))))</f>
+        <v>High</v>
       </c>
       <c r="F55" s="54"/>
-      <c r="G55" s="298"/>
+      <c r="G55" s="297"/>
       <c r="H55" s="54"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D56" s="107">
-        <f>SUM(D57:D62)/(6*4)</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E56" s="50" t="str">
-        <f>IF(D56&gt;80%,"Very High",IF(D56&lt;=20%,"Very Low",IF(D56&lt;=40%,"Low",IF(D56&lt;=60%,"Medium","High"))))</f>
-        <v>High</v>
+      <c r="D56" s="101">
+        <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
+        <v>3</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="F56" s="54"/>
-      <c r="G56" s="298"/>
+      <c r="G56" s="297"/>
       <c r="H56" s="54"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="102">
-        <f t="shared" ref="D57:D61" si="7">IF(E57="Strongly disagree",0,IF(E57="disagree",1,IF(E57="unclear",2,IF(E57="agree",3,4))))</f>
-        <v>3</v>
+      <c r="D57" s="101">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F57" s="54"/>
-      <c r="G57" s="298"/>
+      <c r="G57" s="297"/>
       <c r="H57" s="54"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="102">
+        <v>218</v>
+      </c>
+      <c r="D58" s="101">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58" s="54"/>
-      <c r="G58" s="298"/>
+      <c r="G58" s="297"/>
       <c r="H58" s="54"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D59" s="102">
+      <c r="D59" s="101">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F59" s="54"/>
-      <c r="G59" s="298"/>
+      <c r="G59" s="297"/>
       <c r="H59" s="54"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="102">
+      <c r="D60" s="101">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60" s="54"/>
-      <c r="G60" s="298"/>
+      <c r="G60" s="297"/>
       <c r="H60" s="54"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D61" s="102">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="D61" s="101">
+        <f>IF(E61="Strongly disagree",0,IF(E61="disagree",1,IF(E61="non-perishable",2,IF(E61="agree",3,4))))</f>
+        <v>2</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="F61" s="54"/>
-      <c r="G61" s="298"/>
+      <c r="G61" s="297"/>
       <c r="H61" s="54"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="D62" s="102">
-        <f>IF(E62="Strongly disagree",0,IF(E62="disagree",1,IF(E62="non-perishable",2,IF(E62="agree",3,4))))</f>
-        <v>2</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>287</v>
+      <c r="B62" s="147" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="127">
+        <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
+        <v>0.54731292517006802</v>
+      </c>
+      <c r="E62" s="50" t="str">
+        <f>IF(D62&gt;80%,"Very Low",IF(D62&lt;=20%,"Very High",IF(D62&lt;=40%,"High",IF(D62&lt;=60%,"Medium","Low"))))</f>
+        <v>Medium</v>
       </c>
       <c r="F62" s="54"/>
-      <c r="G62" s="298"/>
+      <c r="G62" s="297"/>
       <c r="H62" s="54"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="148" t="s">
+      <c r="D63" s="6"/>
+      <c r="G63" s="297"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="128">
-        <f>1-AVERAGE(D31,D37,D43,D50,D56)</f>
-        <v>0.54731292517006802</v>
-      </c>
-      <c r="E63" s="50" t="str">
-        <f>IF(D63&gt;80%,"Very Low",IF(D63&lt;=20%,"Very High",IF(D63&lt;=40%,"High",IF(D63&lt;=60%,"Medium","Low"))))</f>
-        <v>Medium</v>
-      </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="298"/>
-      <c r="H63" s="54"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="6"/>
-      <c r="G64" s="298"/>
+      <c r="D64" s="95">
+        <f>E64*4</f>
+        <v>2.7473129251700681</v>
+      </c>
+      <c r="E64" s="126">
+        <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
+        <v>0.68682823129251702</v>
+      </c>
+      <c r="G64" s="297"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="99" t="s">
+      <c r="G65" s="298"/>
+    </row>
+    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="95">
-        <f>E65*4</f>
-        <v>2.7473129251700681</v>
-      </c>
-      <c r="E65" s="127">
-        <f>AVERAGE(AVERAGE(D13:D17)/4,AVERAGE(D19:D23)/4,AVERAGE(D25:D29)/4,D63)</f>
-        <v>0.68682823129251702</v>
-      </c>
-      <c r="G65" s="298"/>
-    </row>
-    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G66" s="299"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="56"/>
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="56"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="109"/>
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="108" t="s">
+      <c r="B68" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="110"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108">
+        <v>1</v>
+      </c>
+      <c r="E68" s="111">
+        <f t="shared" ref="E68:E76" si="8">D68/MAX($D$68:$D$77)</f>
+        <v>3.4013605442176874E-2</v>
+      </c>
     </row>
     <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="110" t="str">
+        <f t="shared" ref="B69:B77" si="9">C69&amp;", "&amp;D69&amp;"y"</f>
+        <v>Information Technology Like, 6.6y</v>
+      </c>
+      <c r="C69" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109">
-        <v>1</v>
-      </c>
-      <c r="E69" s="112">
-        <f t="shared" ref="E69:E77" si="8">D69/MAX($D$69:$D$78)</f>
-        <v>3.4013605442176874E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="111" t="str">
-        <f t="shared" ref="B70:B78" si="9">C70&amp;", "&amp;D70&amp;"y"</f>
-        <v>Information Technology Like, 6.6y</v>
-      </c>
-      <c r="C70" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70" s="109">
+      <c r="D69" s="108">
         <v>6.6</v>
       </c>
-      <c r="E70" s="112">
+      <c r="E69" s="111">
         <f t="shared" si="8"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="111" t="str">
+    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C71" s="109" t="s">
-        <v>205</v>
-      </c>
-      <c r="D71" s="109">
+      <c r="C70" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="108">
         <v>11.4</v>
       </c>
-      <c r="E71" s="112">
+      <c r="E70" s="111">
         <f t="shared" si="8"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="111" t="str">
+    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C72" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="D72" s="109">
+      <c r="C71" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="108">
         <v>12.4</v>
       </c>
-      <c r="E72" s="112">
+      <c r="E71" s="111">
         <f t="shared" si="8"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="111" t="str">
+    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C73" s="109" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="109">
+      <c r="C72" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="108">
         <v>15.1</v>
       </c>
-      <c r="E73" s="112">
+      <c r="E72" s="111">
         <f t="shared" si="8"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="111" t="str">
+    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C74" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="109">
+      <c r="C73" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="108">
         <v>15.4</v>
       </c>
-      <c r="E74" s="112">
+      <c r="E73" s="111">
         <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="111" t="str">
+    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C75" s="109" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" s="109">
+      <c r="C74" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="108">
         <v>16.100000000000001</v>
       </c>
-      <c r="E75" s="112">
+      <c r="E74" s="111">
         <f t="shared" si="8"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="111" t="str">
+    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C76" s="109" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" s="109">
+      <c r="C75" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="108">
         <v>17.600000000000001</v>
       </c>
-      <c r="E76" s="112">
+      <c r="E75" s="111">
         <f t="shared" si="8"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="111" t="str">
+    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C77" s="109" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="109">
+      <c r="C76" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" s="108">
         <v>18.600000000000001</v>
       </c>
-      <c r="E77" s="112">
+      <c r="E76" s="111">
         <f t="shared" si="8"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="113" t="str">
+    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="112" t="str">
         <f t="shared" si="9"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C78" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78" s="114">
+      <c r="C77" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="113">
         <v>29.4</v>
       </c>
-      <c r="E78" s="115">
-        <f>D78/MAX($D$70:$D$78)</f>
+      <c r="E77" s="114">
+        <f>D77/MAX($D$69:$D$77)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" sqref="E31 E37 E43 E50 E56" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E30 E36 E42 E49 E55" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Very High,High,Medium,Low,Very Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E57:E61 E20:E23 E25:E29 E13:E17 E44:E49 E4:E9 E32:E36 E38:E42 E51:E54" xr:uid="{00000000-0002-0000-0400-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E56:E60 E19:E22 E24:E28 E12:E16 E43:E48 E3:E8 E31:E35 E37:E41 E50:E53" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E62" xr:uid="{00000000-0002-0000-0400-000009000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E61" xr:uid="{00000000-0002-0000-0400-000009000000}">
       <formula1>"Strongly agree,agree,non-perishable,disagree,Strongly disagree"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E8" xr:uid="{FBCCA791-86B6-4660-95B3-845402529B68}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55" xr:uid="{B3C242EB-7F6A-4B7F-83D0-5CE118336997}">
-      <formula1>B69:B78</formula1>
+    <dataValidation allowBlank="1" sqref="E7" xr:uid="{FBCCA791-86B6-4660-95B3-845402529B68}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54" xr:uid="{B3C242EB-7F6A-4B7F-83D0-5CE118336997}">
+      <formula1>B68:B77</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E55" xr:uid="{169E40E7-6BB6-45A2-B725-216376F63A8D}">
-      <formula1>$B$69:$B$78</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="E54" xr:uid="{169E40E7-6BB6-45A2-B725-216376F63A8D}">
+      <formula1>$B$68:$B$77</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936229BF-304F-40DD-A891-243CCF95E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56401530-EDD3-450C-931F-4B9553FEF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="323">
   <si>
     <t>Company Info:</t>
   </si>
@@ -409,12 +409,6 @@
   </si>
   <si>
     <t>Investment property</t>
-  </si>
-  <si>
-    <t>PP&amp;E &amp; Related Deposits</t>
-  </si>
-  <si>
-    <t>Right-of-use assets</t>
   </si>
   <si>
     <t>Intangible assets</t>
@@ -563,9 +557,6 @@
     <t>PART II: Financial Tenets:</t>
   </si>
   <si>
-    <t>1. Is the company's balance sheet strong?</t>
-  </si>
-  <si>
     <t>2. Are the profit margins attractive (better than industry)?</t>
   </si>
   <si>
@@ -769,9 +760,6 @@
     <t>LFY P/FCFF</t>
   </si>
   <si>
-    <t>PV of Investor Cash Inflow</t>
-  </si>
-  <si>
     <t>Net Non-op. Asset Analysis</t>
   </si>
   <si>
@@ -985,9 +973,6 @@
   </si>
   <si>
     <t>Investor's Expected Inflows</t>
-  </si>
-  <si>
-    <t>NOPAT growth Rate</t>
   </si>
   <si>
     <t>1. Chinese is still fundamentally sound with ample rooms to grow in consumption</t>
@@ -1080,6 +1065,54 @@
     <t xml:space="preserve">4. There is no incumbency advantages independent of size. (like management skill etc) </t>
   </si>
   <si>
+    <t>2. There is high switching costs in changing suppliers.</t>
+  </si>
+  <si>
+    <t>3. The suppliers offer products that are differentiated. (tech, brand, etc.)</t>
+  </si>
+  <si>
+    <t>4. There is no substitute for what the supplier group provides.</t>
+  </si>
+  <si>
+    <t>5. The supplier group can credibly threaten to integrate forward into the industry.</t>
+  </si>
+  <si>
+    <t>3. The company have a negative ESG value.</t>
+  </si>
+  <si>
+    <t>4. There is no restrictive government policy</t>
+  </si>
+  <si>
+    <t>5. How long is the industry average asset life?</t>
+  </si>
+  <si>
+    <t>R&amp;D expenses</t>
+  </si>
+  <si>
+    <t>R&amp;D / Sales</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t>Reasonable Case</t>
+  </si>
+  <si>
+    <t>PV of Value Inflow</t>
+  </si>
+  <si>
+    <t>PP&amp;E &amp; related assets</t>
+  </si>
+  <si>
+    <t>Biological assets</t>
+  </si>
+  <si>
+    <t>1. Is the company's balance sheet strong?  (Measured by Liquidity)</t>
+  </si>
+  <si>
+    <t>NOPAT margin</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">5. There is no truly </t>
     </r>
@@ -1100,41 +1133,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> competitive advantage. (better than industry or like the food industry)</t>
+      <t xml:space="preserve"> competitive advantage. (better than industry or like the brands in food industry)</t>
     </r>
-  </si>
-  <si>
-    <t>2. There is high switching costs in changing suppliers.</t>
-  </si>
-  <si>
-    <t>3. The suppliers offer products that are differentiated. (tech, brand, etc.)</t>
-  </si>
-  <si>
-    <t>4. There is no substitute for what the supplier group provides.</t>
-  </si>
-  <si>
-    <t>5. The supplier group can credibly threaten to integrate forward into the industry.</t>
-  </si>
-  <si>
-    <t>3. The company have a negative ESG value.</t>
-  </si>
-  <si>
-    <t>4. There is no restrictive government policy</t>
-  </si>
-  <si>
-    <t>5. How long is the industry average asset life?</t>
-  </si>
-  <si>
-    <t>R&amp;D expenses</t>
-  </si>
-  <si>
-    <t>R&amp;D / Sales</t>
-  </si>
-  <si>
-    <t>Base Case</t>
-  </si>
-  <si>
-    <t>Reasonable Case</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2872,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3762,6 +3762,156 @@
     <xf numFmtId="4" fontId="2" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3784,159 +3934,10 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3988,7 +3989,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3996,6 +3997,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4346,7 +4361,7 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
@@ -4391,27 +4406,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="377" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="378"/>
+      <c r="C3" s="375" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="376"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="389" t="s">
+      <c r="I3" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="390"/>
+      <c r="J3" s="384"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="379" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="380"/>
+      <c r="C4" s="377" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="378"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4428,10 +4443,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="381">
+      <c r="C5" s="379">
         <v>44984</v>
       </c>
-      <c r="D5" s="380"/>
+      <c r="D5" s="378"/>
       <c r="E5" s="123" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4439,16 +4454,16 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="373">
+      <c r="I5" s="385">
         <v>243354000</v>
       </c>
-      <c r="J5" s="374"/>
+      <c r="J5" s="386"/>
       <c r="K5" s="152"/>
       <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C6" s="271">
         <v>8</v>
@@ -4462,11 +4477,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="134"/>
-      <c r="I6" s="391">
+      <c r="I6" s="387">
         <f>I4*I5/1000000</f>
         <v>2433.54</v>
       </c>
-      <c r="J6" s="392"/>
+      <c r="J6" s="388"/>
       <c r="K6" s="152"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4515,10 +4530,10 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C10" s="302" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D10" s="302">
         <v>2.92E-2</v>
@@ -4538,32 +4553,32 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="315" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="403">
+        <v>285</v>
+      </c>
+      <c r="C11" s="397">
         <f ca="1">C12-D10</f>
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="398"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="395" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="396"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="316" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="405">
+        <v>152</v>
+      </c>
+      <c r="C12" s="352">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="406"/>
+      <c r="D12" s="353"/>
       <c r="G12" s="135" t="s">
         <v>16</v>
       </c>
@@ -4583,14 +4598,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="128" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D14" s="185">
         <f ca="1">'FCFF Model'!C29</f>
         <v>9.555951463141108</v>
       </c>
       <c r="E14" s="128" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F14" s="185">
         <f ca="1">'FCFF Model'!E29</f>
@@ -4610,7 +4625,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="97"/>
       <c r="C15" s="239" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D15" s="90" t="s">
         <v>19</v>
@@ -4634,14 +4649,14 @@
         <f>I4</f>
         <v>10</v>
       </c>
-      <c r="C16" s="414">
+      <c r="C16" s="366">
         <v>0.1</v>
       </c>
       <c r="D16" s="160">
         <f ca="1">H14/B16-1-C16</f>
         <v>4.5531529088142925E-2</v>
       </c>
-      <c r="E16" s="411">
+      <c r="E16" s="359">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.28000000000000003</v>
       </c>
@@ -4649,14 +4664,14 @@
         <f>E16/B16</f>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="G16" s="396" t="s">
+      <c r="G16" s="369" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="393">
+      <c r="H16" s="389">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>6.067605833477157</v>
       </c>
-      <c r="I16" s="396" t="s">
+      <c r="I16" s="369" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="207">
@@ -4669,19 +4684,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>10.41392299171039</v>
       </c>
-      <c r="C17" s="415"/>
+      <c r="C17" s="367"/>
       <c r="D17" s="291">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="412"/>
+      <c r="E17" s="360"/>
       <c r="F17" s="163">
         <f ca="1">E16/B17</f>
         <v>2.6887081863663048E-2</v>
       </c>
-      <c r="G17" s="397"/>
-      <c r="H17" s="394"/>
-      <c r="I17" s="397"/>
+      <c r="G17" s="370"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="370"/>
       <c r="J17" s="206">
         <f ca="1">B17-$H$16</f>
         <v>4.3463171582332327</v>
@@ -4691,19 +4706,19 @@
       <c r="B18" s="290">
         <v>9.5</v>
       </c>
-      <c r="C18" s="416"/>
+      <c r="C18" s="368"/>
       <c r="D18" s="161">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.10582266219804523</v>
       </c>
-      <c r="E18" s="413"/>
+      <c r="E18" s="361"/>
       <c r="F18" s="164">
         <f>E16/B18</f>
         <v>2.9473684210526319E-2</v>
       </c>
-      <c r="G18" s="398"/>
-      <c r="H18" s="395"/>
-      <c r="I18" s="398"/>
+      <c r="G18" s="371"/>
+      <c r="H18" s="391"/>
+      <c r="I18" s="371"/>
       <c r="J18" s="208">
         <f>B18-$H$16</f>
         <v>3.432394166522843</v>
@@ -4719,13 +4734,13 @@
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D20" s="293" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E20" s="267" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4737,52 +4752,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="384" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="385"/>
-      <c r="E21" s="385"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="385"/>
-      <c r="H21" s="385"/>
-      <c r="I21" s="385"/>
-      <c r="J21" s="386"/>
+      <c r="C21" s="380" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="381"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="381"/>
+      <c r="G21" s="381"/>
+      <c r="H21" s="381"/>
+      <c r="I21" s="381"/>
+      <c r="J21" s="382"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="400" t="s">
-        <v>296</v>
-      </c>
-      <c r="D22" s="365"/>
-      <c r="E22" s="365"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="400" t="s">
-        <v>297</v>
-      </c>
-      <c r="H22" s="400"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365"/>
+      <c r="C22" s="393" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="394"/>
+      <c r="E22" s="394"/>
+      <c r="F22" s="394"/>
+      <c r="G22" s="393" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="393"/>
+      <c r="I22" s="394"/>
+      <c r="J22" s="394"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="387" t="s">
-        <v>295</v>
-      </c>
-      <c r="D23" s="388"/>
-      <c r="E23" s="388"/>
-      <c r="F23" s="388"/>
-      <c r="G23" s="387" t="s">
-        <v>288</v>
-      </c>
-      <c r="H23" s="387"/>
-      <c r="I23" s="388"/>
-      <c r="J23" s="388"/>
+      <c r="C23" s="362" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="363"/>
+      <c r="E23" s="363"/>
+      <c r="F23" s="363"/>
+      <c r="G23" s="362" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" s="362"/>
+      <c r="I23" s="363"/>
+      <c r="J23" s="363"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4817,163 +4832,163 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="382"/>
-      <c r="D26" s="383"/>
-      <c r="E26" s="382"/>
-      <c r="F26" s="383"/>
-      <c r="G26" s="407"/>
-      <c r="H26" s="408"/>
-      <c r="I26" s="399" t="s">
+      <c r="C26" s="364"/>
+      <c r="D26" s="365"/>
+      <c r="E26" s="364"/>
+      <c r="F26" s="365"/>
+      <c r="G26" s="354"/>
+      <c r="H26" s="355"/>
+      <c r="I26" s="392" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="399"/>
+      <c r="J26" s="392"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="358">
         <f>C31/D25</f>
         <v>0.05</v>
       </c>
-      <c r="D27" s="363"/>
-      <c r="E27" s="409">
+      <c r="D27" s="357"/>
+      <c r="E27" s="356">
         <f>E31/D25</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F27" s="363"/>
-      <c r="G27" s="418">
+      <c r="F27" s="357"/>
+      <c r="G27" s="373">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="419"/>
-      <c r="I27" s="417">
+      <c r="H27" s="374"/>
+      <c r="I27" s="372">
         <f>C27+E27+G27</f>
         <v>0.14500000000000002</v>
       </c>
-      <c r="J27" s="417"/>
+      <c r="J27" s="372"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="364">
+      <c r="C28" s="419">
         <v>3000</v>
       </c>
-      <c r="D28" s="365"/>
-      <c r="E28" s="364">
+      <c r="D28" s="394"/>
+      <c r="E28" s="419">
         <v>6000</v>
       </c>
-      <c r="F28" s="365"/>
-      <c r="G28" s="373"/>
-      <c r="H28" s="374"/>
-      <c r="I28" s="353">
+      <c r="F28" s="394"/>
+      <c r="G28" s="385"/>
+      <c r="H28" s="386"/>
+      <c r="I28" s="409">
         <f>C28+E28+G28</f>
         <v>9000</v>
       </c>
-      <c r="J28" s="353"/>
+      <c r="J28" s="409"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="420">
         <v>10</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="366">
+      <c r="D29" s="394"/>
+      <c r="E29" s="420">
         <v>9.5</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="368"/>
-      <c r="I29" s="375"/>
-      <c r="J29" s="375"/>
+      <c r="F29" s="394"/>
+      <c r="G29" s="399"/>
+      <c r="H29" s="400"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="351">
+      <c r="C30" s="407">
         <f>C29*$I$5/1000000</f>
         <v>2433.54</v>
       </c>
-      <c r="D30" s="358"/>
-      <c r="E30" s="351">
+      <c r="D30" s="414"/>
+      <c r="E30" s="407">
         <f>E29*$I$5/1000000</f>
         <v>2311.8629999999998</v>
       </c>
-      <c r="F30" s="358"/>
-      <c r="G30" s="369">
+      <c r="F30" s="414"/>
+      <c r="G30" s="401">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="370"/>
-      <c r="I30" s="376"/>
-      <c r="J30" s="376"/>
+      <c r="H30" s="402"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="406"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="359">
+      <c r="C31" s="415">
         <f>C28*C29</f>
         <v>30000</v>
       </c>
-      <c r="D31" s="360"/>
-      <c r="E31" s="352">
+      <c r="D31" s="416"/>
+      <c r="E31" s="408">
         <f>E28*E29</f>
         <v>57000</v>
       </c>
-      <c r="F31" s="361"/>
-      <c r="G31" s="371">
+      <c r="F31" s="417"/>
+      <c r="G31" s="403">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="372"/>
-      <c r="I31" s="352">
+      <c r="H31" s="404"/>
+      <c r="I31" s="408">
         <f>C31+E31+G31</f>
         <v>87000</v>
       </c>
-      <c r="J31" s="352"/>
+      <c r="J31" s="408"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="354"/>
-      <c r="D32" s="355"/>
-      <c r="E32" s="362">
+      <c r="C32" s="410"/>
+      <c r="D32" s="411"/>
+      <c r="E32" s="418">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="F32" s="363"/>
+      <c r="F32" s="357"/>
       <c r="G32" s="118"/>
       <c r="H32" s="118"/>
-      <c r="I32" s="362">
+      <c r="I32" s="418">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="J32" s="362"/>
+      <c r="J32" s="418"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="356"/>
-      <c r="D33" s="357"/>
-      <c r="E33" s="351">
+      <c r="C33" s="412"/>
+      <c r="D33" s="413"/>
+      <c r="E33" s="407">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2352.422</v>
       </c>
-      <c r="F33" s="358"/>
+      <c r="F33" s="414"/>
       <c r="G33" s="119"/>
       <c r="H33" s="119"/>
-      <c r="I33" s="351">
+      <c r="I33" s="407">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2352.422</v>
       </c>
-      <c r="J33" s="351"/>
+      <c r="J33" s="407"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5910,17 +5925,28 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -5937,31 +5963,20 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5971,17 +5986,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6631,7 +6646,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="45" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C18" s="145">
         <v>296</v>
@@ -6679,7 +6694,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="45" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C20" s="14">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
@@ -6949,7 +6964,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="142" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C29" s="176">
         <v>2959124</v>
@@ -6997,7 +7012,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="45" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C31" s="177">
         <v>1009960</v>
@@ -7243,7 +7258,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="169" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C37" s="166">
         <v>113211</v>
@@ -7291,7 +7306,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="143" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C39" s="171">
         <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
@@ -7342,7 +7357,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="170" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C40" s="173">
         <f t="shared" ref="C40:M40" si="21">IF(C38="","",C38*$C$4/Common_Shares)</f>
@@ -7461,7 +7476,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="45" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
@@ -7722,7 +7737,7 @@
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="342" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="166"/>
@@ -7739,7 +7754,7 @@
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="343" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C52" s="344" t="str">
         <f>IF(C51="","",C51/C7)</f>
@@ -9107,22 +9122,22 @@
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
+    <cfRule type="containsBlanks" dxfId="12" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="9" priority="4">
+    <cfRule type="containsBlanks" dxfId="11" priority="4">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$C$49="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9149,10 +9164,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J65"/>
+  <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:E64"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9164,10 +9179,12 @@
     <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="268" t="s">
         <v>81</v>
@@ -9179,10 +9196,13 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="351" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="275">
@@ -9195,15 +9215,16 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="276" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I3" s="277">
         <v>2835244</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="278">
@@ -9220,15 +9241,17 @@
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
         <v>11.650698159882312</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="23" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="75"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="59" t="s">
         <v>84</v>
       </c>
@@ -9251,8 +9274,9 @@
         <v>6.7506355438078209</v>
       </c>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54" t="s">
         <v>86</v>
       </c>
@@ -9269,15 +9293,17 @@
         <v>0.58688601761872772</v>
       </c>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="117"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="269" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" s="256"/>
       <c r="D9" s="273">
@@ -9291,8 +9317,9 @@
       <c r="G9" s="134"/>
       <c r="H9" s="134"/>
       <c r="I9" s="134"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="75"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>88</v>
       </c>
@@ -9306,7 +9333,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="64" t="s">
@@ -9315,8 +9342,9 @@
       <c r="I10" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="75"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>93</v>
       </c>
@@ -9339,8 +9367,9 @@
         <v>0</v>
       </c>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="K11" s="75"/>
+    </row>
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>95</v>
       </c>
@@ -9363,8 +9392,9 @@
         <v>3842</v>
       </c>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="K12" s="75"/>
+    </row>
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>97</v>
       </c>
@@ -9387,8 +9417,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="K13" s="78"/>
+    </row>
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>99</v>
       </c>
@@ -9411,8 +9442,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+      <c r="K14" s="80"/>
+    </row>
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>101</v>
       </c>
@@ -9436,7 +9468,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>100</v>
       </c>
@@ -9451,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="205" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G16" s="95">
         <f>IF(F16="Y",0,1)</f>
@@ -9512,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="205" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G19" s="95">
         <f>IF(F19="Y",0,1)</f>
@@ -9536,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="205" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G20" s="95">
         <f>IF(F20="Y",0,1)</f>
@@ -9608,8 +9640,8 @@
         <v>110</v>
       </c>
       <c r="I24" s="70">
-        <f>E24/($I$26-I13)</f>
-        <v>1.8912587865523989</v>
+        <f>E24/($I$26-I15)</f>
+        <v>361.00546590317543</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
@@ -9641,7 +9673,10 @@
         <f>E25/$I$26</f>
         <v>2.2443929012156292</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="13" t="str">
+        <f>IF(OR(I25&lt;0.75,C26&lt;I26),"Liquidity Problem!","")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
@@ -9664,6 +9699,10 @@
       </c>
       <c r="I26" s="65">
         <v>733365</v>
+      </c>
+      <c r="J26" s="108">
+        <f>IF(J24="",1,0)+IF(J25="",1,0)+IF(J44="",1,0)+IF(J45="",1,0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9671,7 +9710,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -9811,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="205" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G33" s="95">
         <f>IF(F33="Y",0,1)</f>
@@ -9834,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="205" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G34" s="95">
         <f>IF(F34="Y",0,1)</f>
@@ -9856,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="205" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G35" s="95">
         <f>IF(F35="Y",0,1)</f>
@@ -9865,7 +9904,7 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="C36" s="65">
         <v>818077</v>
@@ -9882,7 +9921,7 @@
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="C37" s="65">
         <v>0</v>
@@ -9899,7 +9938,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="65">
         <v>5139</v>
@@ -9916,7 +9955,7 @@
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="65">
         <v>753</v>
@@ -9933,7 +9972,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="65">
         <v>2908</v>
@@ -9956,7 +9995,7 @@
     </row>
     <row r="42" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="68">
         <f>SUM(C28:C40)</f>
@@ -9973,7 +10012,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="65">
         <v>14649</v>
@@ -9988,7 +10027,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C44" s="71">
         <f>C24+SUM(C28:C29)</f>
@@ -10005,11 +10044,11 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I44" s="70">
-        <f>E44/$I$46</f>
-        <v>1.98189893504667</v>
+        <f>E44/(I46-I15-I32)</f>
+        <v>250.75915933694179</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(I44&lt;1,"Liquidity Problem!","")</f>
@@ -10018,7 +10057,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="71">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
@@ -10035,17 +10074,20 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I45" s="70">
         <f>E45/$I$46</f>
         <v>2.3281173213335578</v>
       </c>
-      <c r="J45" s="6"/>
+      <c r="J45" s="13" t="str">
+        <f>IF(OR(I45&lt;0.5,C46&lt;I46),"Liquidity Problem!","")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46" s="71">
         <f>C26+C42</f>
@@ -10062,7 +10104,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I46" s="156">
         <f>I26+I42</f>
@@ -10078,14 +10120,14 @@
     </row>
     <row r="48" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B49" s="217" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="218" t="str">
@@ -10096,7 +10138,7 @@
     </row>
     <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C50" s="219">
         <f>D4</f>
@@ -10119,31 +10161,31 @@
     </row>
     <row r="52" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="76" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="420">
+      <c r="D52" s="421">
         <f>D53+D54+D55</f>
         <v>5912</v>
       </c>
-      <c r="E52" s="421"/>
+      <c r="E52" s="422"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
     </row>
     <row r="53" spans="2:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B53" s="59" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="423">
+      <c r="D53" s="424">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>5912</v>
       </c>
-      <c r="E53" s="360"/>
+      <c r="E53" s="416"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
@@ -10152,29 +10194,29 @@
     </row>
     <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B54" s="59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="430">
+      <c r="D54" s="431">
         <v>0</v>
       </c>
-      <c r="E54" s="365"/>
+      <c r="E54" s="394"/>
       <c r="F54" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="430">
+      <c r="D55" s="431">
         <v>0</v>
       </c>
-      <c r="E55" s="365"/>
+      <c r="E55" s="394"/>
       <c r="F55" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -10184,17 +10226,17 @@
     </row>
     <row r="57" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B57" s="76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="422"/>
-      <c r="E57" s="422"/>
+      <c r="D57" s="423"/>
+      <c r="E57" s="423"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C58" s="214">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
@@ -10231,14 +10273,14 @@
     </row>
     <row r="60" spans="2:9" ht="14" x14ac:dyDescent="0.3">
       <c r="B60" s="54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="428">
+      <c r="D60" s="429">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>940110</v>
       </c>
-      <c r="E60" s="429"/>
+      <c r="E60" s="430"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10248,40 +10290,40 @@
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="294" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D63" s="426">
+        <v>270</v>
+      </c>
+      <c r="D63" s="427">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>8.5754920672350646E-2</v>
       </c>
-      <c r="E63" s="427"/>
+      <c r="E63" s="428"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D64" s="424">
+        <v>269</v>
+      </c>
+      <c r="D64" s="425">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="425"/>
+      <c r="E64" s="426"/>
       <c r="F64" s="267" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="294" t="s">
-        <v>275</v>
-      </c>
-      <c r="D65" s="424">
+        <v>271</v>
+      </c>
+      <c r="D65" s="425">
         <f>D63</f>
         <v>8.5754920672350646E-2</v>
       </c>
-      <c r="E65" s="425"/>
+      <c r="E65" s="426"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10317,7 +10359,7 @@
   <dimension ref="A1:M901"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10348,10 +10390,10 @@
     <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="93" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C2" s="287" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D2" s="287"/>
       <c r="E2" s="287">
@@ -10379,14 +10421,14 @@
         <v>44742</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E3" s="279">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45107</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G3" s="279">
         <f>IF(G7="","",EOMONTH(EDATE(E3,12),0))</f>
@@ -10399,12 +10441,12 @@
       </c>
       <c r="J3" s="299"/>
       <c r="L3" s="73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="295" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C4" s="296">
         <v>798991</v>
@@ -10431,7 +10473,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="295" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C5" s="296">
         <v>5307644</v>
@@ -10458,7 +10500,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="181">
         <f>C4+C5</f>
@@ -10482,13 +10524,13 @@
       <c r="J6" s="289"/>
       <c r="K6" s="6"/>
       <c r="L6" s="75" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="188"/>
       <c r="D7" s="262"/>
@@ -10513,7 +10555,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="182">
         <f>Data!C9</f>
@@ -10567,7 +10609,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="28">
         <f>C6-C8</f>
@@ -10619,7 +10661,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="184">
         <f>694554+203301</f>
@@ -10674,7 +10716,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="189"/>
       <c r="D14" s="265"/>
@@ -10699,7 +10741,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="135" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C15" s="322">
         <f>C10-C12</f>
@@ -10727,7 +10769,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="318" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="319">
         <v>0.25</v>
@@ -10751,23 +10793,26 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="327" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="189"/>
+        <v>321</v>
+      </c>
+      <c r="C17" s="265">
+        <f>C18/C8</f>
+        <v>3.7102835523365151E-2</v>
+      </c>
       <c r="D17" s="329"/>
       <c r="E17" s="328">
-        <f>E18/C18-1</f>
-        <v>-7.3880806731450588E-2</v>
+        <f>E18/E8</f>
+        <v>3.4361648102874613E-2</v>
       </c>
       <c r="F17" s="328"/>
       <c r="G17" s="328">
-        <f>IF(G18="","",G18/E18-1)</f>
-        <v>0.24703500167880699</v>
+        <f>IF(G8="","",G18/G8)</f>
+        <v>4.2357895059257245E-2</v>
       </c>
       <c r="H17" s="328"/>
       <c r="I17" s="328">
-        <f>IF(I18="","",I18/G18-1)</f>
-        <v>0.34584908036026407</v>
+        <f>IF(I8="","",I18/I8)</f>
+        <v>5.6369426751592344E-2</v>
       </c>
       <c r="J17" s="338"/>
     </row>
@@ -11681,37 +11726,47 @@
     <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="G7:H11 I10 I12:I15 G13:H15 H12 I7:I8">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="9">
+    <cfRule type="containsBlanks" priority="11">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 I11 I9">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="7">
+    <cfRule type="containsBlanks" priority="9">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J15">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
       <formula>LEN(TRIM(J7))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="7">
       <formula>LEN(TRIM(J7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E18 G18 I18">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+  <conditionalFormatting sqref="E16 G18 I18 E18">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:J18">
+  <conditionalFormatting sqref="G7:J16 G18:J18 J17">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(E17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:I17">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G7))=0</formula>
+      <formula>LEN(TRIM(G17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11727,8 +11782,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B26"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11749,10 +11804,10 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="93" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C2" s="287" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D2" s="287">
         <v>1</v>
@@ -11792,10 +11847,10 @@
         <v>45838</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11828,7 +11883,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C5" s="258"/>
       <c r="D5" s="259">
@@ -11870,7 +11925,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="82" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C7" s="312">
         <f>C4*C6</f>
@@ -11895,7 +11950,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="193">
         <f>IF(C4="","",C4-C7)</f>
@@ -11923,7 +11978,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="204" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C9" s="194">
         <f>C8/(Common_Shares/Data!$C$4)</f>
@@ -11951,7 +12006,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="235" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C10" s="314">
         <f>C11/C9</f>
@@ -11970,7 +12025,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="235" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C11" s="285">
         <f>0.33+0.15</f>
@@ -11989,7 +12044,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C12" s="237">
         <v>0</v>
@@ -12010,7 +12065,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="191"/>
       <c r="D13" s="224">
@@ -12035,7 +12090,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="115"/>
       <c r="D14" s="225">
@@ -12060,7 +12115,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="C15" s="238">
         <f>C12</f>
@@ -12092,19 +12147,19 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C17" s="195" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C18" s="85">
         <f>Asset_Model!E59</f>
@@ -12115,7 +12170,7 @@
         <v>5.6994460744429922</v>
       </c>
       <c r="E18" s="86" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G18" s="138">
         <f>C18+C19+C20+C21</f>
@@ -12124,7 +12179,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C19" s="85">
         <f>Asset_Model!E58</f>
@@ -12135,7 +12190,7 @@
         <v>0.3924535861337804</v>
       </c>
       <c r="E19" s="86" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G19" s="198">
         <f>G18*Data!C$4/Dashboard!I5</f>
@@ -12144,7 +12199,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="59" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C20" s="85">
         <f>-Asset_Model!D52</f>
@@ -12154,12 +12209,12 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-2.4293827099616198E-2</v>
       </c>
-      <c r="E20" s="433" t="str">
+      <c r="E20" s="434" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
       <c r="F20" s="147" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G20" s="88" t="s">
         <v>23</v>
@@ -12167,7 +12222,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="86" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C21" s="85">
         <f>-Asset_Model!E50</f>
@@ -12177,7 +12232,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="433"/>
+      <c r="E21" s="434"/>
       <c r="F21" s="149">
         <f>D18</f>
         <v>5.6994460744429922</v>
@@ -12193,17 +12248,17 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23" s="195" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="436" t="s">
-        <v>237</v>
-      </c>
-      <c r="F23" s="436"/>
-      <c r="G23" s="436"/>
+      <c r="E23" s="437" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="437"/>
+      <c r="G23" s="437"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="128" t="str">
@@ -12211,27 +12266,27 @@
         <v>Exit after Year 3</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D24" s="203" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E24" s="307" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F24" s="266" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G24" s="266" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I24" s="87" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C25" s="14">
         <f>1/D25</f>
@@ -12244,7 +12299,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>3.0020106001468783</v>
       </c>
-      <c r="F25" s="434">
+      <c r="F25" s="435">
         <f ca="1">SUM(C15:F15)</f>
         <v>1.25040778689228</v>
       </c>
@@ -12256,7 +12311,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="304" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C26" s="305">
         <f t="shared" ref="C26" si="0">1/D26</f>
@@ -12269,7 +12324,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>5.0033510002447965</v>
       </c>
-      <c r="F26" s="435"/>
+      <c r="F26" s="436"/>
       <c r="G26" s="208">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>12.321364620614233</v>
@@ -12302,7 +12357,7 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="253">
         <f ca="1">MIN(Asset_Model!D7,G25)+(ABS(Asset_Model!D7-G25)*'Qualitative Analysis'!E8)*Exchange_Rate</f>
@@ -12331,12 +12386,12 @@
       <c r="I30" s="89"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="431" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="432"/>
+      <c r="C31" s="432" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="433"/>
       <c r="E31" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>18</v>
@@ -12346,7 +12401,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="257" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C32" s="254">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
@@ -12370,7 +12425,7 @@
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="256" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C33" s="255">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
@@ -13311,8 +13366,8 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13330,18 +13385,18 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="96"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="G2" s="73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="95">
@@ -13349,15 +13404,15 @@
         <v>2</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="95">
@@ -13365,13 +13420,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C5" s="97"/>
       <c r="D5" s="95">
@@ -13386,7 +13441,7 @@
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="95">
@@ -13401,7 +13456,7 @@
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="101">
@@ -13416,7 +13471,7 @@
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B8" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="95">
@@ -13438,7 +13493,7 @@
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -13447,7 +13502,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="94"/>
       <c r="E11" s="6"/>
@@ -13455,79 +13510,79 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="54" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D12" s="101">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="297" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D13" s="101">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="297"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="101">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="297"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="101">
         <f>IF(E15="Strongly disagree",0,IF(E15="disagree",1,IF(E15="unclear",2,IF(E15="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="297"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="101">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="297"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="23"/>
@@ -13535,16 +13590,14 @@
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="54" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="D18" s="101">
-        <f>IF(E18="Strongly disagree",0,IF(E18="disagree",1,IF(E18="unclear",2,IF(E18="agree",3,4))))</f>
+        <f>Asset_Model!J26</f>
         <v>4</v>
       </c>
       <c r="E18" s="50" t="str">
-        <f>IF(OR(Asset_Model!I24&lt;0.8,Asset_Model!I44&lt;0.6),"Strongly disagree",
-IF(OR(Asset_Model!I24&lt;1,Asset_Model!I44&lt;0.8),"unclear", IF(OR(Asset_Model!I24&lt;1.8,Asset_Model!I44&lt;1.4),"agree","Strongly agree"))
-)</f>
+        <f>IF(D18&gt;=3.5,"Strongly agree",IF(D18&gt;=2.5,"agree",IF(D18&gt;=1.5,"unclear",IF(D18&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
@@ -13552,63 +13605,63 @@
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D19" s="101">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="297"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D20" s="101">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="297"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D21" s="101">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="297"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D22" s="101">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="297"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="100" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="23"/>
@@ -13616,77 +13669,77 @@
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D24" s="101">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="297"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="54" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" s="101">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="297"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="54" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D26" s="101">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="297"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="54" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D27" s="101">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="297"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="54" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D28" s="101">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="297"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="100" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="23"/>
@@ -13694,7 +13747,7 @@
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" s="104">
         <f>SUM(D31:D35)/(5*4)</f>
@@ -13709,76 +13762,76 @@
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" s="101">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="297"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="54" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D32" s="101">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="297"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="54" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D33" s="101">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="297"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="54" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D34" s="101">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="297"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="54" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D35" s="101">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G35" s="297"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D36" s="104">
         <f>SUM(D37:D41)/(5*4)</f>
@@ -13793,76 +13846,76 @@
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D37" s="101">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="297"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="54" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D38" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="297"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="54" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D39" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="297"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="54" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D40" s="101">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="297"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="54" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D41" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G41" s="297"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D42" s="104">
         <f>SUM(D43:D48)/(6*4)</f>
@@ -13877,91 +13930,91 @@
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D43" s="101">
         <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="297"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="54" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D44" s="101">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="297"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D45" s="101">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="297"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D46" s="101">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="297"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D47" s="101">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="297"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D48" s="101">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="297"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D49" s="104">
         <f>SUM(D50:D54)/(5*4)</f>
@@ -13976,54 +14029,54 @@
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D50" s="101">
         <f t="shared" ref="D50:D52" si="6">IF(E50="Strongly disagree",0,IF(E50="disagree",1,IF(E50="unclear",2,IF(E50="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G50" s="297"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D51" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="297"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="54" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D52" s="101">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G52" s="297"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="54" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D53" s="101">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53" s="297"/>
@@ -14031,14 +14084,14 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="54" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D54" s="105">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>3.1020408163265305</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F54" s="54"/>
       <c r="G54" s="297"/>
@@ -14046,7 +14099,7 @@
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D55" s="106">
         <f>SUM(D56:D61)/(6*4)</f>
@@ -14062,14 +14115,14 @@
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D56" s="101">
         <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F56" s="54"/>
       <c r="G56" s="297"/>
@@ -14077,14 +14130,14 @@
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D57" s="101">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57" s="297"/>
@@ -14092,14 +14145,14 @@
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D58" s="101">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F58" s="54"/>
       <c r="G58" s="297"/>
@@ -14107,14 +14160,14 @@
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D59" s="101">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F59" s="54"/>
       <c r="G59" s="297"/>
@@ -14122,14 +14175,14 @@
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="54" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D60" s="101">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F60" s="54"/>
       <c r="G60" s="297"/>
@@ -14137,14 +14190,14 @@
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D61" s="101">
         <f>IF(E61="Strongly disagree",0,IF(E61="disagree",1,IF(E61="non-perishable",2,IF(E61="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F61" s="54"/>
       <c r="G61" s="297"/>
@@ -14152,7 +14205,7 @@
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="147" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D62" s="127">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
@@ -14172,7 +14225,7 @@
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="98" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D64" s="95">
         <f>E64*4</f>
@@ -14189,7 +14242,7 @@
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="55" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -14197,7 +14250,7 @@
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C67" s="108"/>
       <c r="D67" s="108"/>
@@ -14205,7 +14258,7 @@
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C68" s="108"/>
       <c r="D68" s="108">
@@ -14222,7 +14275,7 @@
         <v>Information Technology Like, 6.6y</v>
       </c>
       <c r="C69" s="108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="108">
         <v>6.6</v>
@@ -14238,7 +14291,7 @@
         <v>Healthcare, 11.4y</v>
       </c>
       <c r="C70" s="108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="108">
         <v>11.4</v>
@@ -14254,7 +14307,7 @@
         <v>Consumer Discretionary, 12.4y</v>
       </c>
       <c r="C71" s="108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="108">
         <v>12.4</v>
@@ -14270,7 +14323,7 @@
         <v>Consumer Staples, 15.1y</v>
       </c>
       <c r="C72" s="108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="108">
         <v>15.1</v>
@@ -14286,7 +14339,7 @@
         <v>Industrials, 15.4y</v>
       </c>
       <c r="C73" s="108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D73" s="108">
         <v>15.4</v>
@@ -14302,7 +14355,7 @@
         <v>Telecommunication Services, 16.1y</v>
       </c>
       <c r="C74" s="108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D74" s="108">
         <v>16.100000000000001</v>
@@ -14318,7 +14371,7 @@
         <v>Energy, 17.6y</v>
       </c>
       <c r="C75" s="108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D75" s="108">
         <v>17.600000000000001</v>
@@ -14334,7 +14387,7 @@
         <v>Materials, 18.6y</v>
       </c>
       <c r="C76" s="108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D76" s="108">
         <v>18.600000000000001</v>
@@ -14350,7 +14403,7 @@
         <v>Utilities, 29.4y</v>
       </c>
       <c r="C77" s="113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D77" s="113">
         <v>29.4</v>

--- a/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56401530-EDD3-450C-931F-4B9553FEF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59931203-EDFB-4CF9-9FE2-D5E971ACB50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="326">
   <si>
     <t>Company Info:</t>
   </si>
@@ -920,9 +920,6 @@
     </r>
   </si>
   <si>
-    <t>Cyclicals</t>
-  </si>
-  <si>
     <t>current demand for export will likely not recover until the 2nd half of next year</t>
   </si>
   <si>
@@ -947,45 +944,15 @@
     <t>non-perishable</t>
   </si>
   <si>
-    <t>0411.HK</t>
-  </si>
-  <si>
-    <t>LAM SOON (HK)</t>
-  </si>
-  <si>
-    <t>麵粉、食用油及家居護理產品業務</t>
-  </si>
-  <si>
-    <t>1. 商品和原材料價格高
-2. 供應鏈和通脹压力</t>
-  </si>
-  <si>
     <t>+ ERP</t>
   </si>
   <si>
-    <t>香港及澳門</t>
-  </si>
-  <si>
-    <t>中國大陸</t>
-  </si>
-  <si>
     <t>NOPAT Growth rate</t>
   </si>
   <si>
     <t>Investor's Expected Inflows</t>
   </si>
   <si>
-    <t>1. Chinese is still fundamentally sound with ample rooms to grow in consumption</t>
-  </si>
-  <si>
-    <t>1. Good brand value to compete in high-end market
-2. Established distribution channels in China</t>
-  </si>
-  <si>
-    <t>1. The dividend is a bit low given the payout ratio
-2. Cyclical market that's not in company's control</t>
-  </si>
-  <si>
     <t>3. Does the company have a stable and durable business?</t>
   </si>
   <si>
@@ -999,12 +966,6 @@
   </si>
   <si>
     <t>1. Does the company have a non-cylical business?</t>
-  </si>
-  <si>
-    <t>supply-side induced</t>
-  </si>
-  <si>
-    <t>The company disclosure on revenue detail is lagging</t>
   </si>
   <si>
     <t>2. Does the company have simple and meaningful assets base to value?</t>
@@ -1135,6 +1096,51 @@
       </rPr>
       <t xml:space="preserve"> competitive advantage. (better than industry or like the brands in food industry)</t>
     </r>
+  </si>
+  <si>
+    <t>0981.HK</t>
+  </si>
+  <si>
+    <t>SMIC</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Fast Growers</t>
+  </si>
+  <si>
+    <t>晶圓銷售</t>
+  </si>
+  <si>
+    <t>掩膜製造、測試及其他</t>
+  </si>
+  <si>
+    <t>Market Case</t>
+  </si>
+  <si>
+    <t>High growth expectation, but recent performance is not as good</t>
+  </si>
+  <si>
+    <t>40% is the growth rate adjusted to this year's actual performance</t>
+  </si>
+  <si>
+    <t>The streams are not complicated, but very complex to make any judgement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a cyclical business </t>
+  </si>
+  <si>
+    <t>Not really, but best in mainland China</t>
+  </si>
+  <si>
+    <t>to a large degree, the company is State-owned</t>
+  </si>
+  <si>
+    <t>A very important industry to the country</t>
+  </si>
+  <si>
+    <t>Not in mainland China at least</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="106">
+  <borders count="108">
     <border>
       <left/>
       <right/>
@@ -2866,13 +2872,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="442">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3741,12 +3771,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3763,6 +3787,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3975,6 +4014,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4361,8 +4403,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4392,7 +4434,7 @@
       </c>
       <c r="C2" s="310" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>0411.HK : LAM SOON (HK)</v>
+        <v>0981.HK : SMIC</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -4406,33 +4448,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="375" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="376"/>
+      <c r="C3" s="378" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="379"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="383" t="s">
+      <c r="I3" s="386" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="384"/>
+      <c r="J3" s="387"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="377" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="378"/>
+      <c r="C4" s="380" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="381"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="33">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>6</v>
@@ -4443,10 +4485,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="379">
-        <v>44984</v>
-      </c>
-      <c r="D5" s="378"/>
+      <c r="C5" s="382">
+        <v>44987</v>
+      </c>
+      <c r="D5" s="381"/>
       <c r="E5" s="123" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4454,10 +4496,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="385">
-        <v>243354000</v>
-      </c>
-      <c r="J5" s="386"/>
+      <c r="I5" s="388">
+        <v>7913203590</v>
+      </c>
+      <c r="J5" s="389"/>
       <c r="K5" s="152"/>
       <c r="L5" s="86"/>
     </row>
@@ -4477,11 +4519,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="134"/>
-      <c r="I6" s="387">
+      <c r="I6" s="390">
         <f>I4*I5/1000000</f>
-        <v>2433.54</v>
-      </c>
-      <c r="J6" s="388"/>
+        <v>130567.859235</v>
+      </c>
+      <c r="J6" s="391"/>
       <c r="K6" s="152"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4489,11 +4531,11 @@
         <v>10</v>
       </c>
       <c r="C7" s="146">
-        <f>(Data!C39)/I4</f>
-        <v>4.6521117384550906E-2</v>
+        <f>(Data!C39*Exchange_Rate)/I4</f>
+        <v>0</v>
       </c>
       <c r="D7" s="146">
-        <f>(Data!C40)/I4</f>
+        <f>(Data!C40*Exchange_Rate)/I4</f>
         <v>0</v>
       </c>
       <c r="E7" s="154"/>
@@ -4521,19 +4563,19 @@
       </c>
       <c r="I9" s="122">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>9.4594573583145447</v>
+        <v>9.7750892525684829</v>
       </c>
       <c r="J9" s="49">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.10571430919565737</v>
+        <v>0.10230085620315355</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="302" t="s">
         <v>277</v>
-      </c>
-      <c r="C10" s="302" t="s">
-        <v>278</v>
       </c>
       <c r="D10" s="302">
         <v>2.92E-2</v>
@@ -4544,51 +4586,51 @@
       </c>
       <c r="I10" s="139">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.8223852734795839</v>
+        <v>0.65391859216964421</v>
       </c>
       <c r="J10" s="131">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>5.1051178248226314</v>
+        <v>219.83696630951542</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="315" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="397">
+        <v>280</v>
+      </c>
+      <c r="C11" s="400">
         <f ca="1">C12-D10</f>
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="D11" s="398"/>
+      <c r="D11" s="401"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="395" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="396"/>
+      <c r="I11" s="398" t="s">
+        <v>313</v>
+      </c>
+      <c r="J11" s="399"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="316" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="352">
+      <c r="C12" s="355">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="353"/>
+      <c r="D12" s="356"/>
       <c r="G12" s="135" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="134"/>
       <c r="I12" s="136">
-        <v>1</v>
+        <v>7.8492325077690932</v>
       </c>
       <c r="J12" s="137" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
-        <v>HKD</v>
+        <v>USD/HKD</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4601,22 +4643,22 @@
         <v>219</v>
       </c>
       <c r="D14" s="185">
-        <f ca="1">'FCFF Model'!C29</f>
-        <v>9.555951463141108</v>
+        <f ca="1">'FCFF Model'!C30</f>
+        <v>1.6403924185552325</v>
       </c>
       <c r="E14" s="128" t="s">
         <v>236</v>
       </c>
       <c r="F14" s="185">
-        <f ca="1">'FCFF Model'!E29</f>
-        <v>12.321364620614233</v>
+        <f ca="1">'FCFF Model'!E30</f>
+        <v>27.059421720758852</v>
       </c>
       <c r="G14" s="186" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="194">
-        <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>11.45531529088143</v>
+        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
+        <v>17.605531383855947</v>
       </c>
       <c r="I14" s="134"/>
       <c r="J14" s="134"/>
@@ -4647,81 +4689,81 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="132">
         <f>I4</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="366">
+        <v>16.5</v>
+      </c>
+      <c r="C16" s="369">
         <v>0.1</v>
       </c>
       <c r="D16" s="160">
         <f ca="1">H14/B16-1-C16</f>
-        <v>4.5531529088142925E-2</v>
-      </c>
-      <c r="E16" s="359">
+        <v>-3.29980979481245E-2</v>
+      </c>
+      <c r="E16" s="362">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="F16" s="162">
         <f>E16/B16</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="G16" s="369" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="372" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="389">
+      <c r="H16" s="392">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>6.067605833477157</v>
-      </c>
-      <c r="I16" s="369" t="s">
+        <v>-2.308568405350901</v>
+      </c>
+      <c r="I16" s="372" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="207">
         <f>B16-$H$16</f>
-        <v>3.932394166522843</v>
+        <v>18.808568405350901</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="292">
         <f ca="1">H14/(1+C16)</f>
-        <v>10.41392299171039</v>
-      </c>
-      <c r="C17" s="367"/>
+        <v>16.005028530778134</v>
+      </c>
+      <c r="C17" s="370"/>
       <c r="D17" s="291">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="360"/>
+      <c r="E17" s="363"/>
       <c r="F17" s="163">
         <f ca="1">E16/B17</f>
-        <v>2.6887081863663048E-2</v>
-      </c>
-      <c r="G17" s="370"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="370"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="373"/>
+      <c r="H17" s="393"/>
+      <c r="I17" s="373"/>
       <c r="J17" s="206">
         <f ca="1">B17-$H$16</f>
-        <v>4.3463171582332327</v>
+        <v>18.313596936129034</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="290">
-        <v>9.5</v>
-      </c>
-      <c r="C18" s="368"/>
+        <v>14.6</v>
+      </c>
+      <c r="C18" s="371"/>
       <c r="D18" s="161">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.10582266219804523</v>
-      </c>
-      <c r="E18" s="361"/>
+        <v>0.10585831396273612</v>
+      </c>
+      <c r="E18" s="364"/>
       <c r="F18" s="164">
         <f>E16/B18</f>
-        <v>2.9473684210526319E-2</v>
-      </c>
-      <c r="G18" s="371"/>
-      <c r="H18" s="391"/>
-      <c r="I18" s="371"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="374"/>
+      <c r="H18" s="394"/>
+      <c r="I18" s="374"/>
       <c r="J18" s="208">
         <f>B18-$H$16</f>
-        <v>3.432394166522843</v>
+        <v>16.908568405350902</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4737,7 +4779,7 @@
         <v>256</v>
       </c>
       <c r="D20" s="293" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="E20" s="267" t="s">
         <v>266</v>
@@ -4752,52 +4794,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="380" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="381"/>
-      <c r="E21" s="381"/>
-      <c r="F21" s="381"/>
-      <c r="G21" s="381"/>
-      <c r="H21" s="381"/>
-      <c r="I21" s="381"/>
-      <c r="J21" s="382"/>
+      <c r="C21" s="383"/>
+      <c r="D21" s="384"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="384"/>
+      <c r="G21" s="384"/>
+      <c r="H21" s="384"/>
+      <c r="I21" s="384"/>
+      <c r="J21" s="385"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="393" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="394"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="394"/>
-      <c r="G22" s="393" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="393"/>
-      <c r="I22" s="394"/>
-      <c r="J22" s="394"/>
+      <c r="C22" s="396"/>
+      <c r="D22" s="397"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="397"/>
+      <c r="G22" s="396"/>
+      <c r="H22" s="396"/>
+      <c r="I22" s="397"/>
+      <c r="J22" s="397"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="362" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="363"/>
-      <c r="E23" s="363"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="362" t="s">
-        <v>284</v>
-      </c>
-      <c r="H23" s="362"/>
-      <c r="I23" s="363"/>
-      <c r="J23" s="363"/>
+      <c r="C23" s="365"/>
+      <c r="D23" s="366"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="366"/>
+      <c r="G23" s="365"/>
+      <c r="H23" s="365"/>
+      <c r="I23" s="366"/>
+      <c r="J23" s="366"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4832,163 +4864,159 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="364"/>
-      <c r="D26" s="365"/>
-      <c r="E26" s="364"/>
-      <c r="F26" s="365"/>
-      <c r="G26" s="354"/>
-      <c r="H26" s="355"/>
-      <c r="I26" s="392" t="s">
+      <c r="C26" s="367"/>
+      <c r="D26" s="368"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="368"/>
+      <c r="G26" s="357"/>
+      <c r="H26" s="358"/>
+      <c r="I26" s="395" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="392"/>
+      <c r="J26" s="395"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="358">
+      <c r="C27" s="361">
         <f>C31/D25</f>
-        <v>0.05</v>
-      </c>
-      <c r="D27" s="357"/>
-      <c r="E27" s="356">
+        <v>1.375E-2</v>
+      </c>
+      <c r="D27" s="360"/>
+      <c r="E27" s="359">
         <f>E31/D25</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F27" s="357"/>
-      <c r="G27" s="373">
+        <v>0</v>
+      </c>
+      <c r="F27" s="360"/>
+      <c r="G27" s="376">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="374"/>
-      <c r="I27" s="372">
+      <c r="H27" s="377"/>
+      <c r="I27" s="375">
         <f>C27+E27+G27</f>
-        <v>0.14500000000000002</v>
-      </c>
-      <c r="J27" s="372"/>
+        <v>1.375E-2</v>
+      </c>
+      <c r="J27" s="375"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="419">
-        <v>3000</v>
-      </c>
-      <c r="D28" s="394"/>
-      <c r="E28" s="419">
-        <v>6000</v>
-      </c>
-      <c r="F28" s="394"/>
-      <c r="G28" s="385"/>
-      <c r="H28" s="386"/>
-      <c r="I28" s="409">
+      <c r="C28" s="422">
+        <v>500</v>
+      </c>
+      <c r="D28" s="397"/>
+      <c r="E28" s="422"/>
+      <c r="F28" s="397"/>
+      <c r="G28" s="388"/>
+      <c r="H28" s="389"/>
+      <c r="I28" s="412">
         <f>C28+E28+G28</f>
-        <v>9000</v>
-      </c>
-      <c r="J28" s="409"/>
+        <v>500</v>
+      </c>
+      <c r="J28" s="412"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="420">
-        <v>10</v>
-      </c>
-      <c r="D29" s="394"/>
-      <c r="E29" s="420">
-        <v>9.5</v>
-      </c>
-      <c r="F29" s="394"/>
-      <c r="G29" s="399"/>
-      <c r="H29" s="400"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="C29" s="423">
+        <v>16.5</v>
+      </c>
+      <c r="D29" s="397"/>
+      <c r="E29" s="423"/>
+      <c r="F29" s="397"/>
+      <c r="G29" s="402"/>
+      <c r="H29" s="403"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="408"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="407">
+      <c r="C30" s="410">
         <f>C29*$I$5/1000000</f>
-        <v>2433.54</v>
-      </c>
-      <c r="D30" s="414"/>
-      <c r="E30" s="407">
+        <v>130567.859235</v>
+      </c>
+      <c r="D30" s="417"/>
+      <c r="E30" s="410">
         <f>E29*$I$5/1000000</f>
-        <v>2311.8629999999998</v>
-      </c>
-      <c r="F30" s="414"/>
-      <c r="G30" s="401">
+        <v>0</v>
+      </c>
+      <c r="F30" s="417"/>
+      <c r="G30" s="404">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="402"/>
-      <c r="I30" s="406"/>
-      <c r="J30" s="406"/>
+      <c r="H30" s="405"/>
+      <c r="I30" s="409"/>
+      <c r="J30" s="409"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="415">
+      <c r="C31" s="418">
         <f>C28*C29</f>
-        <v>30000</v>
-      </c>
-      <c r="D31" s="416"/>
-      <c r="E31" s="408">
+        <v>8250</v>
+      </c>
+      <c r="D31" s="419"/>
+      <c r="E31" s="411">
         <f>E28*E29</f>
-        <v>57000</v>
-      </c>
-      <c r="F31" s="417"/>
-      <c r="G31" s="403">
+        <v>0</v>
+      </c>
+      <c r="F31" s="420"/>
+      <c r="G31" s="406">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="404"/>
-      <c r="I31" s="408">
+      <c r="H31" s="407"/>
+      <c r="I31" s="411">
         <f>C31+E31+G31</f>
-        <v>87000</v>
-      </c>
-      <c r="J31" s="408"/>
+        <v>8250</v>
+      </c>
+      <c r="J31" s="411"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="410"/>
-      <c r="D32" s="411"/>
-      <c r="E32" s="418">
+      <c r="C32" s="413"/>
+      <c r="D32" s="414"/>
+      <c r="E32" s="421">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="F32" s="357"/>
+        <v>16.5</v>
+      </c>
+      <c r="F32" s="360"/>
       <c r="G32" s="118"/>
       <c r="H32" s="118"/>
-      <c r="I32" s="418">
+      <c r="I32" s="421">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="J32" s="418"/>
+        <v>16.5</v>
+      </c>
+      <c r="J32" s="421"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="412"/>
-      <c r="D33" s="413"/>
-      <c r="E33" s="407">
+      <c r="C33" s="415"/>
+      <c r="D33" s="416"/>
+      <c r="E33" s="410">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2352.422</v>
-      </c>
-      <c r="F33" s="414"/>
+        <v>130567.859235</v>
+      </c>
+      <c r="F33" s="417"/>
       <c r="G33" s="119"/>
       <c r="H33" s="119"/>
-      <c r="I33" s="407">
+      <c r="I33" s="410">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2352.422</v>
-      </c>
-      <c r="J33" s="407"/>
+        <v>130567.859235</v>
+      </c>
+      <c r="J33" s="410"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6029,8 +6057,8 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F38"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6072,7 +6100,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="150">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="180">
@@ -6080,7 +6108,7 @@
       </c>
       <c r="F3" s="178">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
-        <v>257260</v>
+        <v>1701721</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
@@ -6105,7 +6133,7 @@
       </c>
       <c r="F4" s="179">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
-        <v>245534</v>
+        <v>1372425</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -6123,47 +6151,47 @@
       <c r="B6" s="43"/>
       <c r="C6" s="280">
         <f>C3</f>
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="D6" s="281">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="E6" s="281">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="F6" s="281">
         <f t="shared" si="0"/>
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="G6" s="281">
         <f t="shared" si="0"/>
-        <v>43281</v>
+        <v>43100</v>
       </c>
       <c r="H6" s="281">
         <f t="shared" si="0"/>
-        <v>42916</v>
+        <v>42735</v>
       </c>
       <c r="I6" s="281">
         <f t="shared" si="0"/>
-        <v>42551</v>
+        <v>42369</v>
       </c>
       <c r="J6" s="281">
         <f t="shared" si="0"/>
-        <v>42185</v>
+        <v>42004</v>
       </c>
       <c r="K6" s="281">
         <f t="shared" si="0"/>
-        <v>41820</v>
+        <v>41639</v>
       </c>
       <c r="L6" s="281">
         <f t="shared" si="0"/>
-        <v>41455</v>
+        <v>41274</v>
       </c>
       <c r="M6" s="281">
         <f t="shared" si="0"/>
-        <v>41090</v>
+        <v>40908</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6172,13 +6200,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="36">
-        <v>6106635</v>
+        <v>5443112</v>
       </c>
       <c r="D7" s="36">
-        <v>5761248</v>
+        <v>3906975</v>
       </c>
       <c r="E7" s="36">
-        <v>5119437</v>
+        <v>3115672</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -6197,11 +6225,11 @@
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
-        <v>5.9950031659806946E-2</v>
+        <v>0.39317809814498439</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="1"/>
-        <v>0.12536749646494338</v>
+        <v>0.25397506541125003</v>
       </c>
       <c r="E8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -6244,13 +6272,13 @@
         <v>47</v>
       </c>
       <c r="C9" s="36">
-        <v>4963246</v>
+        <v>3767342</v>
       </c>
       <c r="D9" s="36">
-        <v>4476856</v>
+        <v>2986062</v>
       </c>
       <c r="E9" s="36">
-        <v>3925837</v>
+        <v>2473213</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
@@ -6269,15 +6297,15 @@
       </c>
       <c r="C10" s="14">
         <f t="shared" ref="C10:M10" si="2">IF(C7="","",(C7-C9)/C7)</f>
-        <v>0.18723716089139109</v>
+        <v>0.3078698362260413</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="2"/>
-        <v>0.2229364193313671</v>
+        <v>0.23570998022766976</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
-        <v>0.23315063746267412</v>
+        <v>0.20620238587373768</v>
       </c>
       <c r="F10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -6319,13 +6347,13 @@
         <v>49</v>
       </c>
       <c r="C11" s="36">
-        <v>897855</v>
+        <v>303345</v>
       </c>
       <c r="D11" s="36">
-        <v>909322</v>
+        <v>295842</v>
       </c>
       <c r="E11" s="36">
-        <v>861523</v>
+        <v>281760</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
@@ -6344,15 +6372,15 @@
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
-        <v>0.14702941963945773</v>
+        <v>5.573006765247529E-2</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="3"/>
-        <v>0.15783420536661502</v>
+        <v>7.5721498089954514E-2</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="3"/>
-        <v>0.16828471568260339</v>
+        <v>9.0433139303495377E-2</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="3"/>
@@ -6395,15 +6423,15 @@
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
-        <v>4.0207741251933347E-2</v>
+        <v>0.25213976857356601</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="4"/>
-        <v>6.5102213964752076E-2</v>
+        <v>0.15998848213771524</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="4"/>
-        <v>6.4865921780070737E-2</v>
+        <v>0.1157692465702423</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="4"/>
@@ -6446,15 +6474,15 @@
       </c>
       <c r="C14" s="28">
         <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
-        <v>245534</v>
+        <v>1372425</v>
       </c>
       <c r="D14" s="28">
         <f t="shared" si="5"/>
-        <v>375070</v>
+        <v>625071</v>
       </c>
       <c r="E14" s="28">
         <f t="shared" si="5"/>
-        <v>332077</v>
+        <v>360699</v>
       </c>
       <c r="F14" s="28" t="str">
         <f t="shared" si="5"/>
@@ -6497,11 +6525,11 @@
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>-0.34536486522515797</v>
+        <v>1.1956305763665247</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:M15" si="6">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>0.12946696097591823</v>
+        <v>0.73294353463691331</v>
       </c>
       <c r="E15" s="14" t="str">
         <f t="shared" si="6"/>
@@ -6548,15 +6576,15 @@
       </c>
       <c r="C16" s="144">
         <f>IF(C14="","",C14*(1-Operation!$D$16))</f>
-        <v>245534</v>
+        <v>1372425</v>
       </c>
       <c r="D16" s="144">
         <f>IF(D14="","",D14*(1-Operation!$D$16))</f>
-        <v>375070</v>
+        <v>625071</v>
       </c>
       <c r="E16" s="144">
         <f>IF(E14="","",E14*(1-Operation!$D$16))</f>
-        <v>332077</v>
+        <v>360699</v>
       </c>
       <c r="F16" s="144" t="str">
         <f>IF(F14="","",F14*(1-Operation!$D$16))</f>
@@ -6599,15 +6627,15 @@
       </c>
       <c r="C17" s="130">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
-        <v>4.0207741251933347E-2</v>
+        <v>0.25213976857356601</v>
       </c>
       <c r="D17" s="130">
         <f t="shared" si="7"/>
-        <v>6.5102213964752076E-2</v>
+        <v>0.15998848213771524</v>
       </c>
       <c r="E17" s="130">
         <f t="shared" si="7"/>
-        <v>6.4865921780070737E-2</v>
+        <v>0.1157692465702423</v>
       </c>
       <c r="F17" s="130" t="str">
         <f t="shared" si="7"/>
@@ -6649,13 +6677,13 @@
         <v>259</v>
       </c>
       <c r="C18" s="145">
-        <v>296</v>
+        <v>110143</v>
       </c>
       <c r="D18" s="145">
-        <v>283</v>
+        <v>73234</v>
       </c>
       <c r="E18" s="145">
-        <v>238</v>
+        <v>63460</v>
       </c>
       <c r="F18" s="145"/>
       <c r="G18" s="145"/>
@@ -6673,13 +6701,13 @@
         <v>56</v>
       </c>
       <c r="C19" s="36">
-        <v>257260</v>
+        <v>1701721</v>
       </c>
       <c r="D19" s="36">
-        <v>357698</v>
+        <v>707550</v>
       </c>
       <c r="E19" s="36">
-        <v>316889</v>
+        <v>223381</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -6694,15 +6722,15 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="14">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
-        <v>-0.28078994011708203</v>
+        <v>1.4050893929757615</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" ref="D20:M20" si="8">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
-        <v>0.12878010912338389</v>
+        <v>2.1674582887532958</v>
       </c>
       <c r="E20" s="14" t="str">
         <f t="shared" si="8"/>
@@ -6748,13 +6776,13 @@
         <v>57</v>
       </c>
       <c r="C21" s="177">
-        <v>2825784</v>
+        <v>15217865</v>
       </c>
       <c r="D21" s="36">
-        <v>2758360</v>
+        <v>15171355</v>
       </c>
       <c r="E21" s="36">
-        <v>2522897</v>
+        <v>6873841</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -6772,13 +6800,13 @@
         <v>58</v>
       </c>
       <c r="C22" s="177">
-        <v>827785</v>
+        <v>4453620</v>
       </c>
       <c r="D22" s="36">
-        <v>777784</v>
+        <v>3892710</v>
       </c>
       <c r="E22" s="36">
-        <v>717075</v>
+        <v>3205199</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -6796,13 +6824,13 @@
         <v>59</v>
       </c>
       <c r="C23" s="177">
-        <v>3177</v>
+        <v>1127572</v>
       </c>
       <c r="D23" s="36">
-        <v>3365</v>
+        <v>1355006</v>
       </c>
       <c r="E23" s="36">
-        <v>2767</v>
+        <v>1560424</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -6820,13 +6848,13 @@
         <v>60</v>
       </c>
       <c r="C24" s="274">
-        <v>3177</v>
+        <v>100763</v>
       </c>
       <c r="D24" s="141">
-        <v>3365</v>
+        <v>94949</v>
       </c>
       <c r="E24" s="141">
-        <v>2767</v>
+        <v>80651</v>
       </c>
       <c r="F24" s="141"/>
       <c r="G24" s="141"/>
@@ -6844,13 +6872,13 @@
         <v>61</v>
       </c>
       <c r="C25" s="177">
-        <v>1239</v>
+        <v>5644795</v>
       </c>
       <c r="D25" s="36">
-        <v>1847</v>
+        <v>5018411</v>
       </c>
       <c r="E25" s="36">
-        <v>1584</v>
+        <v>2385110</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -6868,13 +6896,13 @@
         <v>62</v>
       </c>
       <c r="C26" s="176">
-        <v>1239</v>
+        <v>109461</v>
       </c>
       <c r="D26" s="141">
-        <v>1847</v>
+        <v>150321</v>
       </c>
       <c r="E26" s="141">
-        <v>1584</v>
+        <v>167081</v>
       </c>
       <c r="F26" s="141"/>
       <c r="G26" s="141"/>
@@ -6893,15 +6921,15 @@
       </c>
       <c r="C27" s="28">
         <f t="shared" ref="C27:M27" si="9">IF(C7="","",C23+C25)</f>
-        <v>4416</v>
+        <v>6772367</v>
       </c>
       <c r="D27" s="28">
         <f t="shared" si="9"/>
-        <v>5212</v>
+        <v>6373417</v>
       </c>
       <c r="E27" s="28">
         <f t="shared" si="9"/>
-        <v>4351</v>
+        <v>3945534</v>
       </c>
       <c r="F27" s="28" t="str">
         <f t="shared" si="9"/>
@@ -6943,13 +6971,13 @@
         <v>64</v>
       </c>
       <c r="C28" s="177">
-        <v>2959124</v>
+        <v>25438143</v>
       </c>
       <c r="D28" s="36">
-        <v>2880665</v>
+        <v>21681738</v>
       </c>
       <c r="E28" s="36">
-        <v>2476897</v>
+        <v>10197862</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
@@ -6967,13 +6995,13 @@
         <v>213</v>
       </c>
       <c r="C29" s="176">
-        <v>2959124</v>
+        <v>17149664</v>
       </c>
       <c r="D29" s="141">
-        <v>2880665</v>
+        <v>15174594</v>
       </c>
       <c r="E29" s="141">
-        <v>2476897</v>
+        <v>6233245</v>
       </c>
       <c r="F29" s="141"/>
       <c r="G29" s="141"/>
@@ -6991,13 +7019,13 @@
         <v>65</v>
       </c>
       <c r="C30" s="177">
-        <v>846003</v>
+        <v>14460790</v>
       </c>
       <c r="D30" s="36">
-        <v>824301</v>
+        <v>12373176</v>
       </c>
       <c r="E30" s="36">
-        <v>668030</v>
+        <v>7995850</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -7015,13 +7043,13 @@
         <v>237</v>
       </c>
       <c r="C31" s="177">
-        <v>1009960</v>
+        <v>8581746</v>
       </c>
       <c r="D31" s="36">
-        <v>1277330</v>
+        <v>9826537</v>
       </c>
       <c r="E31" s="36">
-        <v>1337336</v>
+        <v>2238840</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -7040,11 +7068,11 @@
       </c>
       <c r="C32" s="14">
         <f t="shared" ref="C32:M32" si="10">IF(D7="","",(C30-D30)/C30)</f>
-        <v>2.5652391303576938E-2</v>
+        <v>0.14436375882645416</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="10"/>
-        <v>0.18958001991990789</v>
+        <v>0.35377545748965344</v>
       </c>
       <c r="E32" s="14" t="str">
         <f t="shared" si="10"/>
@@ -7091,11 +7119,11 @@
       </c>
       <c r="C33" s="249">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
-        <v>29618.634786261173</v>
+        <v>-993687.75405870762</v>
       </c>
       <c r="D33" s="249">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
-        <v>55038.45139164204</v>
+        <v>-511873.68109089066</v>
       </c>
       <c r="E33" s="249" t="str">
         <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
@@ -7142,11 +7170,11 @@
       </c>
       <c r="C34" s="144">
         <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
-        <v>51320.634786261173</v>
+        <v>1093926.2459412925</v>
       </c>
       <c r="D34" s="144">
         <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
-        <v>211309.45139164204</v>
+        <v>3865452.3189091096</v>
       </c>
       <c r="E34" s="144" t="str">
         <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
@@ -7180,7 +7208,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="347" t="str">
+      <c r="M34" s="345" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -7193,11 +7221,11 @@
       </c>
       <c r="C35" s="240">
         <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
-        <v>0.20901640826224138</v>
+        <v>0.797075429215653</v>
       </c>
       <c r="D35" s="240">
         <f t="shared" si="19"/>
-        <v>0.56338670485947162</v>
+        <v>6.1840212054456369</v>
       </c>
       <c r="E35" s="240" t="str">
         <f t="shared" si="19"/>
@@ -7261,13 +7289,13 @@
         <v>260</v>
       </c>
       <c r="C37" s="166">
-        <v>113211</v>
+        <v>0</v>
       </c>
       <c r="D37" s="166">
-        <v>108954</v>
+        <v>0</v>
       </c>
       <c r="E37" s="166">
-        <v>104297</v>
+        <v>0</v>
       </c>
       <c r="F37" s="166"/>
       <c r="G37" s="166"/>
@@ -7291,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="165">
-        <v>9302</v>
+        <v>0</v>
       </c>
       <c r="F38" s="165"/>
       <c r="G38" s="165"/>
@@ -7310,15 +7338,15 @@
       </c>
       <c r="C39" s="171">
         <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
-        <v>0.46521117384550903</v>
+        <v>0</v>
       </c>
       <c r="D39" s="171">
         <f t="shared" si="20"/>
-        <v>0.44771813900737195</v>
+        <v>0</v>
       </c>
       <c r="E39" s="171">
         <f t="shared" si="20"/>
-        <v>0.42858140815437595</v>
+        <v>0</v>
       </c>
       <c r="F39" s="171" t="str">
         <f t="shared" si="20"/>
@@ -7369,7 +7397,7 @@
       </c>
       <c r="E40" s="173">
         <f t="shared" si="21"/>
-        <v>3.8224150825546324E-2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="173" t="str">
         <f t="shared" si="21"/>
@@ -7429,15 +7457,15 @@
       </c>
       <c r="C42" s="49">
         <f>IF(C29="","",C25/C28)</f>
-        <v>4.187049951269362E-4</v>
+        <v>0.22190279376918354</v>
       </c>
       <c r="D42" s="49">
         <f t="shared" ref="D42:M42" si="22">IF(D29="","",D25/D29)</f>
-        <v>6.4117139618803296E-4</v>
+        <v>0.33071138509537717</v>
       </c>
       <c r="E42" s="49">
         <f t="shared" si="22"/>
-        <v>6.3950983831786306E-4</v>
+        <v>0.38264339040098699</v>
       </c>
       <c r="F42" s="49" t="str">
         <f t="shared" si="22"/>
@@ -7480,15 +7508,15 @@
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
-        <v>1.4923335419536321E-3</v>
+        <v>0.39489794085761681</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" si="23"/>
-        <v>1.8093044487991487E-3</v>
+        <v>0.42000576753486785</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" si="23"/>
-        <v>1.7566334005814533E-3</v>
+        <v>0.63298233905453738</v>
       </c>
       <c r="F43" s="14" t="str">
         <f t="shared" si="23"/>
@@ -7531,15 +7559,15 @@
       </c>
       <c r="C44" s="51">
         <f t="shared" ref="C44:M44" si="24">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>55.600996376811594</v>
+        <v>0.20265071281577032</v>
       </c>
       <c r="D44" s="51">
         <f t="shared" si="24"/>
-        <v>71.962778204144286</v>
+        <v>9.8074706236858503E-2</v>
       </c>
       <c r="E44" s="51">
         <f t="shared" si="24"/>
-        <v>76.321994943691109</v>
+        <v>9.1419564500014441E-2</v>
       </c>
       <c r="F44" s="51" t="str">
         <f t="shared" si="24"/>
@@ -7582,15 +7610,15 @@
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:M45" si="25">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
-        <v>1.205535689558269E-3</v>
+        <v>8.0254294405887383E-2</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="25"/>
-        <v>7.5452582184658864E-4</v>
+        <v>0.11716109050011919</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="25"/>
-        <v>7.1670124699994278E-4</v>
+        <v>0.1759361683841652</v>
       </c>
       <c r="F45" s="14" t="str">
         <f t="shared" si="25"/>
@@ -7633,15 +7661,15 @@
       </c>
       <c r="C46" s="52">
         <f t="shared" ref="C46:M46" si="26">IF(C21="","",C21/C22)</f>
-        <v>3.4136690082569747</v>
+        <v>3.4169653001378655</v>
       </c>
       <c r="D46" s="52">
         <f t="shared" si="26"/>
-        <v>3.5464344856669716</v>
+        <v>3.8973761210056748</v>
       </c>
       <c r="E46" s="52">
         <f t="shared" si="26"/>
-        <v>3.5183167730014295</v>
+        <v>2.1445910222735001</v>
       </c>
       <c r="F46" s="52" t="str">
         <f t="shared" si="26"/>
@@ -7706,7 +7734,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="346" t="s">
+      <c r="C49" s="344" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -7737,7 +7765,7 @@
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="342" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="166"/>
@@ -7754,49 +7782,49 @@
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="343" t="s">
-        <v>314</v>
-      </c>
-      <c r="C52" s="344" t="str">
+        <v>302</v>
+      </c>
+      <c r="C52" s="350" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="344" t="str">
+      <c r="D52" s="350" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="344" t="str">
+      <c r="E52" s="350" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="344" t="str">
+      <c r="F52" s="350" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="344" t="str">
+      <c r="G52" s="350" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="344" t="str">
+      <c r="H52" s="350" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="344" t="str">
+      <c r="I52" s="350" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="344" t="str">
+      <c r="J52" s="350" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="344" t="str">
+      <c r="K52" s="350" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="344" t="str">
+      <c r="L52" s="350" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="345" t="str">
+      <c r="M52" s="351" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9166,8 +9194,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9196,7 +9224,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="351" t="s">
+      <c r="K2" s="349" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9206,7 +9234,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="275">
-        <v>2835244</v>
+        <v>28961421</v>
       </c>
       <c r="E3" s="157" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
@@ -9218,7 +9246,7 @@
         <v>262</v>
       </c>
       <c r="I3" s="277">
-        <v>2835244</v>
+        <v>19149976</v>
       </c>
       <c r="K3" s="75"/>
     </row>
@@ -9229,7 +9257,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="278">
         <f>D3-I3</f>
-        <v>0</v>
+        <v>9811445</v>
       </c>
       <c r="E4" s="151"/>
       <c r="F4" s="6"/>
@@ -9239,7 +9267,7 @@
       </c>
       <c r="I4" s="92">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>11.650698159882312</v>
+        <v>18.995165792543187</v>
       </c>
       <c r="K4" s="75"/>
     </row>
@@ -9258,11 +9286,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="60">
         <f>E46-I46-E50</f>
-        <v>1736668.5</v>
+        <v>1369375.2100000009</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.38747123704344322</v>
+        <v>0.95271726446019345</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9271,7 +9299,7 @@
       </c>
       <c r="I6" s="27">
         <f>IF(Data!F3&lt;=0,"NNI",D7/((Data!F3*Dashboard!I12)/(Dashboard!I5/Data!C4)))</f>
-        <v>6.7506355438078209</v>
+        <v>0.80470018880885941</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="75"/>
@@ -9282,7 +9310,7 @@
       </c>
       <c r="D7" s="62">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>7.1363877314529454</v>
+        <v>1.3583050519827629</v>
       </c>
       <c r="E7" s="63"/>
       <c r="H7" s="61" t="s">
@@ -9290,7 +9318,7 @@
       </c>
       <c r="I7" s="27">
         <f>D7/(Data!C28*Dashboard!I12*Data!C4/Common_Shares)</f>
-        <v>0.58688601761872772</v>
+        <v>5.3831571353302042E-2</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="117"/>
@@ -9349,14 +9377,14 @@
         <v>93</v>
       </c>
       <c r="C11" s="65">
-        <v>1386983</v>
+        <v>6932587</v>
       </c>
       <c r="D11" s="66">
         <v>1</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>1386983</v>
+        <v>6932587</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -9364,7 +9392,7 @@
         <v>94</v>
       </c>
       <c r="I11" s="65">
-        <v>0</v>
+        <v>1268218</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="75"/>
@@ -9374,14 +9402,14 @@
         <v>95</v>
       </c>
       <c r="C12" s="65">
-        <v>0</v>
+        <v>676937</v>
       </c>
       <c r="D12" s="66">
         <v>0.98</v>
       </c>
       <c r="E12" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>663398.26</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -9389,7 +9417,7 @@
         <v>96</v>
       </c>
       <c r="I12" s="65">
-        <v>3842</v>
+        <v>51849</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="75"/>
@@ -9424,14 +9452,14 @@
         <v>99</v>
       </c>
       <c r="C14" s="65">
-        <v>0</v>
+        <v>375776</v>
       </c>
       <c r="D14" s="66">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="E14" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>319409.59999999998</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -9439,7 +9467,7 @@
         <v>100</v>
       </c>
       <c r="I14" s="65">
-        <v>0</v>
+        <v>45217</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="80"/>
@@ -9449,14 +9477,15 @@
         <v>101</v>
       </c>
       <c r="C15" s="65">
-        <v>0</v>
+        <f>5122706+22030</f>
+        <v>5144736</v>
       </c>
       <c r="D15" s="66">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3601315.1999999997</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
@@ -9464,7 +9493,7 @@
       </c>
       <c r="I15" s="156">
         <f>I26-SUM(I11:I14)</f>
-        <v>729523</v>
+        <v>5659645</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -9473,14 +9502,14 @@
         <v>100</v>
       </c>
       <c r="C16" s="65">
-        <v>0</v>
+        <v>146669</v>
       </c>
       <c r="D16" s="66">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88001.4</v>
       </c>
       <c r="F16" s="205" t="s">
         <v>245</v>
@@ -9498,14 +9527,14 @@
         <v>103</v>
       </c>
       <c r="C17" s="65">
-        <v>431627</v>
+        <v>1302642</v>
       </c>
       <c r="D17" s="66">
         <v>0.6</v>
       </c>
       <c r="E17" s="28">
         <f t="shared" si="0"/>
-        <v>258976.19999999998</v>
+        <v>781585.2</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -9518,14 +9547,14 @@
         <v>104</v>
       </c>
       <c r="C18" s="65">
-        <v>825412</v>
+        <v>1911487</v>
       </c>
       <c r="D18" s="66">
         <v>0.6</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="0"/>
-        <v>495247.19999999995</v>
+        <v>1146892.2</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -9601,14 +9630,14 @@
         <v>108</v>
       </c>
       <c r="C22" s="65">
-        <v>0</v>
+        <v>143121</v>
       </c>
       <c r="D22" s="66">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="28">
         <f t="shared" ref="E22" si="1">C22*D22</f>
-        <v>0</v>
+        <v>28624.2</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9624,15 +9653,15 @@
       </c>
       <c r="C24" s="71">
         <f>SUM(C11:C14)</f>
-        <v>1386983</v>
+        <v>7985300</v>
       </c>
       <c r="D24" s="69">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>1</v>
+        <v>0.99124577160532468</v>
       </c>
       <c r="E24" s="28">
         <f>SUM(E11:E14)</f>
-        <v>1386983</v>
+        <v>7915394.8599999994</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -9641,7 +9670,7 @@
       </c>
       <c r="I24" s="70">
         <f>E24/($I$26-I15)</f>
-        <v>361.00546590317543</v>
+        <v>5.7976178289645226</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
@@ -9654,15 +9683,15 @@
       </c>
       <c r="C25" s="71">
         <f>C24+SUM(C15:C17)</f>
-        <v>1818610</v>
+        <v>14579347</v>
       </c>
       <c r="D25" s="69">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.90506441732971887</v>
+        <v>0.84957828769697297</v>
       </c>
       <c r="E25" s="28">
         <f>E24+SUM(E15:E17)</f>
-        <v>1645959.2</v>
+        <v>12386296.66</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -9671,7 +9700,7 @@
       </c>
       <c r="I25" s="70">
         <f>E25/$I$26</f>
-        <v>2.2443929012156292</v>
+        <v>1.763191721937688</v>
       </c>
       <c r="J25" s="13" t="str">
         <f>IF(OR(I25&lt;0.75,C26&lt;I26),"Liquidity Problem!","")</f>
@@ -9684,25 +9713,25 @@
       </c>
       <c r="C26" s="71">
         <f>SUM(C11:C22)</f>
-        <v>2644022</v>
+        <v>16633955</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26" si="2">E26/C26</f>
-        <v>0.80982926768385433</v>
+        <v>0.81530899055576356</v>
       </c>
       <c r="E26" s="28">
         <f>SUM(E11:E22)</f>
-        <v>2141206.4</v>
+        <v>13561813.059999997</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="I26" s="65">
-        <v>733365</v>
+        <v>7024929</v>
       </c>
       <c r="J26" s="108">
         <f>IF(J24="",1,0)+IF(J25="",1,0)+IF(J44="",1,0)+IF(J45="",1,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9735,7 +9764,8 @@
         <v>115</v>
       </c>
       <c r="I28" s="65">
-        <v>0</v>
+        <f>6718304+598379</f>
+        <v>7316683</v>
       </c>
       <c r="J28" s="6"/>
     </row>
@@ -9744,14 +9774,14 @@
         <v>116</v>
       </c>
       <c r="C29" s="65">
-        <v>112359</v>
+        <v>208307</v>
       </c>
       <c r="D29" s="66">
         <v>0.85</v>
       </c>
       <c r="E29" s="28">
         <f t="shared" ref="E29:E40" si="3">C29*D29</f>
-        <v>95505.15</v>
+        <v>177060.94999999998</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -9759,7 +9789,7 @@
         <v>117</v>
       </c>
       <c r="I29" s="65">
-        <v>2070</v>
+        <v>57682</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -9768,14 +9798,14 @@
         <v>118</v>
       </c>
       <c r="C30" s="65">
-        <v>0</v>
+        <v>5553445</v>
       </c>
       <c r="D30" s="66">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E30" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3332067</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -9792,17 +9822,22 @@
         <v>119</v>
       </c>
       <c r="C31" s="65">
-        <v>0</v>
+        <v>32958</v>
       </c>
       <c r="D31" s="66">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="28">
         <f t="shared" si="3"/>
+        <v>16479</v>
+      </c>
+      <c r="F31" s="205" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="95">
+        <f>IF(F31="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
         <v>119</v>
       </c>
@@ -9831,7 +9866,7 @@
       </c>
       <c r="I32" s="156">
         <f>I42-SUM(I28:I31)</f>
-        <v>12579</v>
+        <v>447069</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -9840,14 +9875,15 @@
         <v>123</v>
       </c>
       <c r="C33" s="65">
-        <v>0</v>
+        <f>1912042+9051</f>
+        <v>1921093</v>
       </c>
       <c r="D33" s="66">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E33" s="221">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1152655.8</v>
       </c>
       <c r="F33" s="205" t="s">
         <v>246</v>
@@ -9904,24 +9940,25 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C36" s="65">
-        <v>818077</v>
+        <f>18855532+529795</f>
+        <v>19385327</v>
       </c>
       <c r="D36" s="66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E36" s="28">
         <f t="shared" si="3"/>
-        <v>245423.09999999998</v>
+        <v>7754130.8000000007</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C37" s="65">
         <v>0</v>
@@ -9941,14 +9978,14 @@
         <v>125</v>
       </c>
       <c r="C38" s="65">
-        <v>5139</v>
+        <v>45331</v>
       </c>
       <c r="D38" s="66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="3"/>
-        <v>1541.7</v>
+        <v>18132.400000000001</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -9958,14 +9995,14 @@
         <v>126</v>
       </c>
       <c r="C39" s="65">
-        <v>753</v>
+        <v>14244</v>
       </c>
       <c r="D39" s="66">
         <v>0.95</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="3"/>
-        <v>715.35</v>
+        <v>13531.8</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -9975,14 +10012,14 @@
         <v>127</v>
       </c>
       <c r="C40" s="65">
-        <v>2908</v>
+        <v>13124</v>
       </c>
       <c r="D40" s="66">
         <v>0.1</v>
       </c>
       <c r="E40" s="28">
         <f t="shared" si="3"/>
-        <v>290.8</v>
+        <v>1312.4</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -9999,15 +10036,15 @@
       </c>
       <c r="C42" s="68">
         <f>SUM(C28:C40)</f>
-        <v>